--- a/Carga_por_aerolinea_nac.xlsx
+++ b/Carga_por_aerolinea_nac.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Transportes\Aéreo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADECE68-4E03-4B4D-8230-1E085816005D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A89F9B2-D293-4509-85D5-04DF188D896C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -37,15 +37,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>Ultima actualización: mayo 2024</t>
-  </si>
-  <si>
-    <t>Dirección General de Planeación</t>
-  </si>
-  <si>
-    <t>Periodo</t>
-  </si>
   <si>
     <t>Total</t>
   </si>
@@ -86,9 +77,6 @@
     <t>Volaris (Concesionaria Vuela Cia de Aviación)</t>
   </si>
   <si>
-    <t>Aerolineas</t>
-  </si>
-  <si>
     <t>Nota: Interjet suspendió operaciones a partir del 11 de diciembre de 2020.</t>
   </si>
   <si>
@@ -99,6 +87,18 @@
   </si>
   <si>
     <t>Carga transportada en el servicio regular nacionales</t>
+  </si>
+  <si>
+    <t>Mes</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Actualización: agosto 2024.</t>
+  </si>
+  <si>
+    <t>Aerolíneas</t>
   </si>
 </sst>
 </file>
@@ -183,7 +183,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -318,6 +318,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -340,32 +351,9 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -380,14 +368,17 @@
     <xf numFmtId="1" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -398,12 +389,36 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
@@ -457,8 +472,19 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -468,13 +494,6 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -530,18 +549,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:M82" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
-  <autoFilter ref="B5:M82" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:N85" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14">
+  <autoFilter ref="B5:N85" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
-        <dateGroupItem year="2024" dateTimeGrouping="year"/>
+        <filter val="2023"/>
+        <filter val="2024"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Periodo" dataDxfId="11"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{12231CE8-D2C5-4148-BC9F-F824430AA01E}" name="Mes" dataDxfId="11"/>
     <tableColumn id="5" xr3:uid="{86077915-C170-40DA-9DB4-19E81910B485}" name="Total" dataDxfId="10">
-      <calculatedColumnFormula>SUM(D6:M6)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(E6:N6)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Aéreo Calafia" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Aeromar" dataDxfId="8"/>
@@ -781,7 +802,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:M93"/>
+  <dimension ref="B2:N96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -790,3120 +811,3300 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.19921875" customWidth="1"/>
-    <col min="7" max="7" width="15.8984375" customWidth="1"/>
-    <col min="8" max="8" width="21.5" customWidth="1"/>
-    <col min="9" max="9" width="13.296875" customWidth="1"/>
-    <col min="10" max="10" width="12.59765625" customWidth="1"/>
-    <col min="11" max="11" width="12.09765625" customWidth="1"/>
-    <col min="12" max="12" width="13.8984375" customWidth="1"/>
-    <col min="13" max="13" width="18.3984375" customWidth="1"/>
+    <col min="2" max="2" width="7.09765625" customWidth="1"/>
+    <col min="3" max="3" width="5.19921875" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.19921875" customWidth="1"/>
+    <col min="8" max="8" width="15.8984375" customWidth="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1"/>
+    <col min="10" max="10" width="13.296875" customWidth="1"/>
+    <col min="11" max="11" width="12.59765625" customWidth="1"/>
+    <col min="12" max="12" width="12.09765625" customWidth="1"/>
+    <col min="13" max="13" width="13.8984375" customWidth="1"/>
+    <col min="14" max="14" width="18.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:14" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B4" s="14"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="23"/>
+    </row>
+    <row r="5" spans="2:14" ht="54" x14ac:dyDescent="0.35">
+      <c r="B5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B4" s="23"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="31"/>
-    </row>
-    <row r="5" spans="2:13" ht="54" x14ac:dyDescent="0.35">
-      <c r="B5" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="24" t="s">
+      <c r="G5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="I5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="J5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="K5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="L5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="M5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="N5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B6" s="16">
-        <v>45413</v>
-      </c>
-      <c r="C6" s="17">
-        <f t="shared" ref="C6:C37" si="0">SUM(D6:M6)</f>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B6" s="24">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="25">
+        <v>8</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" ref="D6:D40" si="0">SUM(E6:N6)</f>
+        <v>25976.447568099997</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7">
+        <v>12383.605</v>
+      </c>
+      <c r="H6" s="7">
+        <v>692.93</v>
+      </c>
+      <c r="I6" s="7">
+        <v>997.61693810000008</v>
+      </c>
+      <c r="J6" s="7">
+        <v>3089.9549999999999</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7">
+        <v>5823.1229999999996</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1059.0245</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1930.1931300000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B7" s="26">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="27">
+        <v>7</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" ref="D7:D9" si="1">SUM(E7:N7)</f>
+        <v>24449.559196240007</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4">
+        <v>12150.298000000001</v>
+      </c>
+      <c r="H7" s="4">
+        <v>643.75300000000004</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1750.5007562400001</v>
+      </c>
+      <c r="J7" s="4">
+        <v>3035.9490000000001</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4">
+        <v>4137.7550000000001</v>
+      </c>
+      <c r="M7" s="4">
+        <v>767.15459999999996</v>
+      </c>
+      <c r="N7" s="4">
+        <v>1964.1488400000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B8" s="24">
+        <v>2024</v>
+      </c>
+      <c r="C8" s="25">
+        <v>6</v>
+      </c>
+      <c r="D8" s="9">
+        <f t="shared" si="1"/>
+        <v>22991.837380000001</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7">
+        <v>11786.278</v>
+      </c>
+      <c r="H8" s="7">
+        <v>560.85299999999995</v>
+      </c>
+      <c r="I8" s="7">
+        <v>455.33683000000002</v>
+      </c>
+      <c r="J8" s="7">
+        <v>2749.279</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7">
+        <v>4777.0950000000003</v>
+      </c>
+      <c r="M8" s="7">
+        <v>821.03269999999998</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1841.9628499999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B9" s="26">
+        <v>2024</v>
+      </c>
+      <c r="C9" s="27">
+        <v>5</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="1"/>
         <v>25584.530360000004</v>
       </c>
-      <c r="D6" s="18">
-        <v>0</v>
-      </c>
-      <c r="E6" s="18">
-        <v>0</v>
-      </c>
-      <c r="F6" s="18">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4">
         <v>12162.084000000001</v>
       </c>
-      <c r="G6" s="18">
+      <c r="H9" s="4">
         <v>597.245</v>
       </c>
-      <c r="H6" s="18">
+      <c r="I9" s="4">
         <v>670.93826000000001</v>
       </c>
-      <c r="I6" s="18">
+      <c r="J9" s="4">
         <v>3023.1210000000001</v>
       </c>
-      <c r="J6" s="18">
-        <v>0</v>
-      </c>
-      <c r="K6" s="18">
+      <c r="K9" s="4"/>
+      <c r="L9" s="4">
         <v>5951.4530000000004</v>
       </c>
-      <c r="L6" s="18">
+      <c r="M9" s="4">
         <v>966.64210000000003</v>
       </c>
-      <c r="M6" s="18">
+      <c r="N9" s="4">
         <v>2213.047</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B7" s="9">
-        <v>45383</v>
-      </c>
-      <c r="C7" s="14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B10" s="24">
+        <v>2024</v>
+      </c>
+      <c r="C10" s="25">
+        <v>4</v>
+      </c>
+      <c r="D10" s="9">
         <f t="shared" si="0"/>
         <v>24530.56366</v>
       </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7">
         <v>11531.746999999999</v>
       </c>
-      <c r="G7" s="7">
+      <c r="H10" s="7">
         <v>592.245</v>
       </c>
-      <c r="H7" s="7">
+      <c r="I10" s="7">
         <v>1345.6157599999999</v>
       </c>
-      <c r="I7" s="7">
+      <c r="J10" s="7">
         <v>3069.6970000000001</v>
       </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
+      <c r="K10" s="7"/>
+      <c r="L10" s="7">
         <v>5033.8580000000002</v>
       </c>
-      <c r="L7" s="7">
+      <c r="M10" s="7">
         <v>917.64800000000002</v>
       </c>
-      <c r="M7" s="7">
+      <c r="N10" s="7">
         <v>2039.7529000000002</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B8" s="8">
-        <v>45352</v>
-      </c>
-      <c r="C8" s="13">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B11" s="26">
+        <v>2024</v>
+      </c>
+      <c r="C11" s="27">
+        <v>3</v>
+      </c>
+      <c r="D11" s="8">
         <f t="shared" si="0"/>
         <v>23773.473269999999</v>
       </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4">
         <v>11871.233</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H11" s="4">
         <v>551.64300000000003</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I11" s="4">
         <v>1657.1516799999999</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J11" s="4">
         <v>2749.279</v>
       </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
+      <c r="K11" s="4"/>
+      <c r="L11" s="4">
         <v>3908.877</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M11" s="4">
         <v>901.89159999999993</v>
       </c>
-      <c r="M8" s="4">
+      <c r="N11" s="4">
         <v>2133.3979899999999</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B9" s="9">
-        <v>45323</v>
-      </c>
-      <c r="C9" s="14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B12" s="24">
+        <v>2024</v>
+      </c>
+      <c r="C12" s="25">
+        <v>2</v>
+      </c>
+      <c r="D12" s="9">
         <f t="shared" si="0"/>
         <v>23760.617010000002</v>
       </c>
-      <c r="D9" s="7">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7">
         <v>11159.713</v>
       </c>
-      <c r="G9" s="7">
+      <c r="H12" s="7">
         <v>540.17999999999995</v>
       </c>
-      <c r="H9" s="7">
+      <c r="I12" s="7">
         <v>1664.87067</v>
       </c>
-      <c r="I9" s="7">
+      <c r="J12" s="7">
         <v>3032.2710000000002</v>
       </c>
-      <c r="J9" s="7">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
+      <c r="K12" s="7"/>
+      <c r="L12" s="7">
         <v>4672.6559999999999</v>
       </c>
-      <c r="L9" s="7">
+      <c r="M12" s="7">
         <v>878.4058</v>
       </c>
-      <c r="M9" s="7">
+      <c r="N12" s="7">
         <v>1812.52054</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B10" s="11">
-        <v>45292</v>
-      </c>
-      <c r="C10" s="15">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B13" s="28">
+        <v>2024</v>
+      </c>
+      <c r="C13" s="29">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10">
         <f t="shared" si="0"/>
         <v>22658.754440000004</v>
       </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6">
         <v>10099.106</v>
       </c>
-      <c r="G10" s="6">
+      <c r="H13" s="6">
         <v>778.92200000000003</v>
       </c>
-      <c r="H10" s="6">
+      <c r="I13" s="6">
         <v>1334.1081499999998</v>
       </c>
-      <c r="I10" s="6">
+      <c r="J13" s="6">
         <v>3205.1840000000002</v>
       </c>
-      <c r="J10" s="6">
-        <v>0</v>
-      </c>
-      <c r="K10" s="6">
+      <c r="K13" s="6"/>
+      <c r="L13" s="6">
         <v>4132.0780000000004</v>
       </c>
-      <c r="L10" s="6">
+      <c r="M13" s="6">
         <v>1138.7986000000001</v>
       </c>
-      <c r="M10" s="6">
+      <c r="N13" s="6">
         <v>1970.5576899999999</v>
       </c>
     </row>
-    <row r="11" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="19">
-        <v>45261</v>
-      </c>
-      <c r="C11" s="20">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B14" s="30">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="31">
+        <v>12</v>
+      </c>
+      <c r="D14" s="11">
         <f t="shared" si="0"/>
         <v>24330.252739999996</v>
       </c>
-      <c r="D11" s="21">
+      <c r="E14" s="12">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E11" s="21">
-        <v>0</v>
-      </c>
-      <c r="F11" s="21">
+      <c r="F14" s="12"/>
+      <c r="G14" s="12">
         <v>11988.567999999999</v>
       </c>
-      <c r="G11" s="21">
+      <c r="H14" s="12">
         <v>936.15599999999995</v>
       </c>
-      <c r="H11" s="21">
+      <c r="I14" s="12">
         <v>1439.51802</v>
       </c>
-      <c r="I11" s="21">
+      <c r="J14" s="12">
         <v>3166.9259999999999</v>
       </c>
-      <c r="J11" s="21">
-        <v>0</v>
-      </c>
-      <c r="K11" s="21">
+      <c r="K14" s="12"/>
+      <c r="L14" s="12">
         <v>3182.1170000000002</v>
       </c>
-      <c r="L11" s="21">
+      <c r="M14" s="12">
         <v>1409.9010999999998</v>
       </c>
-      <c r="M11" s="21">
+      <c r="N14" s="12">
         <v>2207.0626200000002</v>
       </c>
     </row>
-    <row r="12" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="8">
-        <v>45231</v>
-      </c>
-      <c r="C12" s="13">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B15" s="26">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="27">
+        <v>11</v>
+      </c>
+      <c r="D15" s="8">
         <f t="shared" si="0"/>
         <v>25951.682420000005</v>
       </c>
-      <c r="D12" s="4">
+      <c r="E15" s="4">
         <v>2E-3</v>
       </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4">
         <v>11389.349</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H15" s="4">
         <v>878.84500000000003</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I15" s="4">
         <v>3104.8114999999998</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J15" s="4">
         <v>3477.9340000000002</v>
       </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
+      <c r="K15" s="4"/>
+      <c r="L15" s="4">
         <v>3383.1860000000001</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M15" s="4">
         <v>1367.4911999999999</v>
       </c>
-      <c r="M12" s="4">
+      <c r="N15" s="4">
         <v>2350.0637200000001</v>
       </c>
     </row>
-    <row r="13" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="9">
-        <v>45200</v>
-      </c>
-      <c r="C13" s="14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B16" s="24">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="25">
+        <v>10</v>
+      </c>
+      <c r="D16" s="9">
         <f t="shared" si="0"/>
         <v>29736.471784000001</v>
       </c>
-      <c r="D13" s="7">
+      <c r="E16" s="7">
         <v>2E-3</v>
       </c>
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7">
+      <c r="F16" s="7"/>
+      <c r="G16" s="7">
         <v>11497.116</v>
       </c>
-      <c r="G13" s="7">
+      <c r="H16" s="7">
         <v>766.34</v>
       </c>
-      <c r="H13" s="7">
+      <c r="I16" s="7">
         <v>1778.049084</v>
       </c>
-      <c r="I13" s="7">
+      <c r="J16" s="7">
         <v>3354.9290000000001</v>
       </c>
-      <c r="J13" s="7">
-        <v>0</v>
-      </c>
-      <c r="K13" s="7">
+      <c r="K16" s="7"/>
+      <c r="L16" s="7">
         <v>8846.14</v>
       </c>
-      <c r="L13" s="7">
+      <c r="M16" s="7">
         <v>1254.5563</v>
       </c>
-      <c r="M13" s="7">
+      <c r="N16" s="7">
         <v>2239.3393999999998</v>
       </c>
     </row>
-    <row r="14" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="8">
-        <v>45170</v>
-      </c>
-      <c r="C14" s="13">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B17" s="26">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="27">
+        <v>9</v>
+      </c>
+      <c r="D17" s="8">
         <f t="shared" si="0"/>
         <v>25495.398430000001</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E17" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4">
         <v>10214.496999999999</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H17" s="4">
         <v>745.19799999999998</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I17" s="4">
         <v>1692.6589100000001</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J17" s="4">
         <v>3160.6</v>
       </c>
-      <c r="J14" s="4">
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
+      <c r="K17" s="4"/>
+      <c r="L17" s="4">
         <v>6870.7169999999996</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M17" s="4">
         <v>1029.982</v>
       </c>
-      <c r="M14" s="4">
+      <c r="N17" s="4">
         <v>1781.74452</v>
       </c>
     </row>
-    <row r="15" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="9">
-        <v>45139</v>
-      </c>
-      <c r="C15" s="14">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B18" s="24">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="25">
+        <v>8</v>
+      </c>
+      <c r="D18" s="9">
         <f t="shared" si="0"/>
         <v>27795.111850000001</v>
       </c>
-      <c r="D15" s="7">
+      <c r="E18" s="7">
         <v>2E-3</v>
       </c>
-      <c r="E15" s="7">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7">
+      <c r="F18" s="7"/>
+      <c r="G18" s="7">
         <v>10670.395</v>
       </c>
-      <c r="G15" s="7">
+      <c r="H18" s="7">
         <v>688.12199999999996</v>
       </c>
-      <c r="H15" s="7">
+      <c r="I18" s="7">
         <v>2332.9001999999996</v>
       </c>
-      <c r="I15" s="7">
+      <c r="J18" s="7">
         <v>3597.163</v>
       </c>
-      <c r="J15" s="7">
-        <v>0</v>
-      </c>
-      <c r="K15" s="7">
+      <c r="K18" s="7"/>
+      <c r="L18" s="7">
         <v>7529.75</v>
       </c>
-      <c r="L15" s="7">
+      <c r="M18" s="7">
         <v>1106.6980000000001</v>
       </c>
-      <c r="M15" s="7">
+      <c r="N18" s="7">
         <v>1870.0816499999999</v>
       </c>
     </row>
-    <row r="16" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="8">
-        <v>45108</v>
-      </c>
-      <c r="C16" s="13">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B19" s="26">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="27">
+        <v>7</v>
+      </c>
+      <c r="D19" s="8">
         <f t="shared" si="0"/>
         <v>27392.805111000001</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E19" s="4">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4">
         <v>11104.486000000001</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H19" s="4">
         <v>582.98800000000006</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I19" s="4">
         <v>2097.893521</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J19" s="4">
         <v>3132.8069999999998</v>
       </c>
-      <c r="J16" s="4">
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
+      <c r="K19" s="4"/>
+      <c r="L19" s="4">
         <v>7920.2030000000004</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M19" s="4">
         <v>632.07899999999995</v>
       </c>
-      <c r="M16" s="4">
+      <c r="N19" s="4">
         <v>1922.34159</v>
       </c>
     </row>
-    <row r="17" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="9">
-        <v>45078</v>
-      </c>
-      <c r="C17" s="14">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B20" s="24">
+        <v>2023</v>
+      </c>
+      <c r="C20" s="25">
+        <v>6</v>
+      </c>
+      <c r="D20" s="9">
         <f t="shared" si="0"/>
         <v>26257.615949999999</v>
       </c>
-      <c r="D17" s="7">
+      <c r="E20" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E17" s="7">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7">
+      <c r="F20" s="7"/>
+      <c r="G20" s="7">
         <v>9903.1360000000004</v>
       </c>
-      <c r="G17" s="7">
+      <c r="H20" s="7">
         <v>604.97799999999995</v>
       </c>
-      <c r="H17" s="7">
+      <c r="I20" s="7">
         <v>2029.77441</v>
       </c>
-      <c r="I17" s="7">
+      <c r="J20" s="7">
         <v>3359.4630000000002</v>
       </c>
-      <c r="J17" s="7">
-        <v>0</v>
-      </c>
-      <c r="K17" s="7">
+      <c r="K20" s="7"/>
+      <c r="L20" s="7">
         <v>7581.4750000000004</v>
       </c>
-      <c r="L17" s="7">
+      <c r="M20" s="7">
         <v>808.51900000000001</v>
       </c>
-      <c r="M17" s="7">
+      <c r="N20" s="7">
         <v>1970.2655400000001</v>
       </c>
     </row>
-    <row r="18" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="8">
-        <v>45047</v>
-      </c>
-      <c r="C18" s="13">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B21" s="26">
+        <v>2023</v>
+      </c>
+      <c r="C21" s="27">
+        <v>5</v>
+      </c>
+      <c r="D21" s="8">
         <f t="shared" si="0"/>
         <v>27189.140660000001</v>
       </c>
-      <c r="D18" s="4">
+      <c r="E21" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4">
         <v>9247.2430000000004</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H21" s="4">
         <v>646.67899999999997</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I21" s="4">
         <v>1841.1321099999998</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J21" s="4">
         <v>3239.5920000000001</v>
       </c>
-      <c r="J18" s="4">
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
+      <c r="K21" s="4"/>
+      <c r="L21" s="4">
         <v>9116.9560000000001</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M21" s="4">
         <v>871.53</v>
       </c>
-      <c r="M18" s="4">
+      <c r="N21" s="4">
         <v>2226.0035500000004</v>
       </c>
     </row>
-    <row r="19" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="9">
-        <v>45017</v>
-      </c>
-      <c r="C19" s="14">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B22" s="24">
+        <v>2023</v>
+      </c>
+      <c r="C22" s="25">
+        <v>4</v>
+      </c>
+      <c r="D22" s="9">
         <f t="shared" si="0"/>
         <v>26065.695520000001</v>
       </c>
-      <c r="D19" s="7">
+      <c r="E22" s="7">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E19" s="7">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7">
+      <c r="F22" s="7"/>
+      <c r="G22" s="7">
         <v>8823.5010000000002</v>
       </c>
-      <c r="G19" s="7">
+      <c r="H22" s="7">
         <v>643.87900000000002</v>
       </c>
-      <c r="H19" s="7">
+      <c r="I22" s="7">
         <v>2656.5120000000002</v>
       </c>
-      <c r="I19" s="7">
+      <c r="J22" s="7">
         <v>2882.6640000000002</v>
       </c>
-      <c r="J19" s="7">
-        <v>0</v>
-      </c>
-      <c r="K19" s="7">
+      <c r="K22" s="7"/>
+      <c r="L22" s="7">
         <v>8495.7070000000003</v>
       </c>
-      <c r="L19" s="7">
+      <c r="M22" s="7">
         <v>807.85400000000004</v>
       </c>
-      <c r="M19" s="7">
+      <c r="N22" s="7">
         <v>1755.5725199999999</v>
       </c>
     </row>
-    <row r="20" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="8">
-        <v>44986</v>
-      </c>
-      <c r="C20" s="13">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B23" s="26">
+        <v>2023</v>
+      </c>
+      <c r="C23" s="27">
+        <v>3</v>
+      </c>
+      <c r="D23" s="8">
         <f t="shared" si="0"/>
         <v>29416.146090000002</v>
       </c>
-      <c r="D20" s="4">
+      <c r="E23" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E20" s="4">
-        <v>0</v>
-      </c>
-      <c r="F20" s="4">
+      <c r="F23" s="4"/>
+      <c r="G23" s="4">
         <v>10420.953</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H23" s="4">
         <v>850.89200000000005</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I23" s="4">
         <v>2714.1550000000002</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J23" s="4">
         <v>3284.2510000000002</v>
       </c>
-      <c r="J20" s="4">
-        <v>0</v>
-      </c>
-      <c r="K20" s="4">
+      <c r="K23" s="4"/>
+      <c r="L23" s="4">
         <v>9320.09</v>
       </c>
-      <c r="L20" s="4">
+      <c r="M23" s="4">
         <v>754.07100000000003</v>
       </c>
-      <c r="M20" s="4">
+      <c r="N23" s="4">
         <v>2071.7290899999998</v>
       </c>
     </row>
-    <row r="21" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="9">
-        <v>44958</v>
-      </c>
-      <c r="C21" s="14">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B24" s="24">
+        <v>2023</v>
+      </c>
+      <c r="C24" s="25">
+        <v>2</v>
+      </c>
+      <c r="D24" s="9">
         <f t="shared" si="0"/>
         <v>26501.790870000004</v>
       </c>
-      <c r="D21" s="7">
+      <c r="E24" s="7">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="E21" s="7">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7">
+      <c r="F24" s="7"/>
+      <c r="G24" s="7">
         <v>9688.0110000000004</v>
       </c>
-      <c r="G21" s="7">
+      <c r="H24" s="7">
         <v>782.84</v>
       </c>
-      <c r="H21" s="7">
+      <c r="I24" s="7">
         <v>3020.3270000000002</v>
       </c>
-      <c r="I21" s="7">
+      <c r="J24" s="7">
         <v>2745.6669999999999</v>
       </c>
-      <c r="J21" s="7">
-        <v>0</v>
-      </c>
-      <c r="K21" s="7">
+      <c r="K24" s="7"/>
+      <c r="L24" s="7">
         <v>7686.6450000000004</v>
       </c>
-      <c r="L21" s="7">
+      <c r="M24" s="7">
         <v>685.12</v>
       </c>
-      <c r="M21" s="7">
+      <c r="N24" s="7">
         <v>1893.1698699999999</v>
       </c>
     </row>
-    <row r="22" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="11">
-        <v>44927</v>
-      </c>
-      <c r="C22" s="15">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B25" s="28">
+        <v>2023</v>
+      </c>
+      <c r="C25" s="29">
+        <v>1</v>
+      </c>
+      <c r="D25" s="10">
         <f t="shared" si="0"/>
         <v>26308.171539999999</v>
       </c>
-      <c r="D22" s="6">
+      <c r="E25" s="6">
         <v>2E-3</v>
       </c>
-      <c r="E22" s="6">
-        <v>0</v>
-      </c>
-      <c r="F22" s="6">
+      <c r="F25" s="6"/>
+      <c r="G25" s="6">
         <v>8914.4519999999993</v>
       </c>
-      <c r="G22" s="6">
+      <c r="H25" s="6">
         <v>734.09199999999998</v>
       </c>
-      <c r="H22" s="6">
+      <c r="I25" s="6">
         <v>3159.0940000000001</v>
       </c>
-      <c r="I22" s="6">
+      <c r="J25" s="6">
         <v>3012.8209999999999</v>
       </c>
-      <c r="J22" s="6">
-        <v>0</v>
-      </c>
-      <c r="K22" s="6">
+      <c r="K25" s="6"/>
+      <c r="L25" s="6">
         <v>7907.8890000000001</v>
       </c>
-      <c r="L22" s="6">
+      <c r="M25" s="6">
         <v>670.48</v>
       </c>
-      <c r="M22" s="6">
+      <c r="N25" s="6">
         <v>1909.3415400000001</v>
       </c>
     </row>
-    <row r="23" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="19">
-        <v>44896</v>
-      </c>
-      <c r="C23" s="20">
+    <row r="26" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="30">
+        <v>2022</v>
+      </c>
+      <c r="C26" s="31">
+        <v>12</v>
+      </c>
+      <c r="D26" s="11">
         <f t="shared" si="0"/>
         <v>29865.323240000002</v>
       </c>
-      <c r="D23" s="21">
+      <c r="E26" s="12">
         <v>1E-3</v>
       </c>
-      <c r="E23" s="21">
+      <c r="F26" s="12">
         <v>12.166</v>
       </c>
-      <c r="F23" s="21">
+      <c r="G26" s="12">
         <v>10484.763000000001</v>
       </c>
-      <c r="G23" s="21">
+      <c r="H26" s="12">
         <v>925.66499999999996</v>
       </c>
-      <c r="H23" s="21">
+      <c r="I26" s="12">
         <v>4138.0259999999998</v>
       </c>
-      <c r="I23" s="21">
+      <c r="J26" s="12">
         <v>3314.2310000000002</v>
       </c>
-      <c r="J23" s="21">
-        <v>0</v>
-      </c>
-      <c r="K23" s="21">
+      <c r="K26" s="12"/>
+      <c r="L26" s="12">
         <v>7746.2759999999998</v>
       </c>
-      <c r="L23" s="21">
+      <c r="M26" s="12">
         <v>961.79730000000006</v>
       </c>
-      <c r="M23" s="21">
+      <c r="N26" s="12">
         <v>2282.3979400000003</v>
       </c>
     </row>
-    <row r="24" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="8">
-        <v>44866</v>
-      </c>
-      <c r="C24" s="13">
+    <row r="27" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="26">
+        <v>2022</v>
+      </c>
+      <c r="C27" s="27">
+        <v>11</v>
+      </c>
+      <c r="D27" s="8">
         <f t="shared" si="0"/>
         <v>29983.373589999999</v>
       </c>
-      <c r="D24" s="4">
+      <c r="E27" s="4">
         <v>2E-3</v>
       </c>
-      <c r="E24" s="4">
+      <c r="F27" s="4">
         <v>32.463999999999999</v>
       </c>
-      <c r="F24" s="4">
+      <c r="G27" s="4">
         <v>10081.717000000001</v>
       </c>
-      <c r="G24" s="4">
+      <c r="H27" s="4">
         <v>990.43700000000001</v>
       </c>
-      <c r="H24" s="4">
+      <c r="I27" s="4">
         <v>5149.683</v>
       </c>
-      <c r="I24" s="4">
+      <c r="J27" s="4">
         <v>3384.6909999999998</v>
       </c>
-      <c r="J24" s="4">
-        <v>0</v>
-      </c>
-      <c r="K24" s="4">
+      <c r="K27" s="4"/>
+      <c r="L27" s="4">
         <v>7113.482</v>
       </c>
-      <c r="L24" s="4">
+      <c r="M27" s="4">
         <v>970.55570000000012</v>
       </c>
-      <c r="M24" s="4">
+      <c r="N27" s="4">
         <v>2260.3418900000001</v>
       </c>
     </row>
-    <row r="25" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="9">
-        <v>44835</v>
-      </c>
-      <c r="C25" s="14">
+    <row r="28" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="24">
+        <v>2022</v>
+      </c>
+      <c r="C28" s="25">
+        <v>10</v>
+      </c>
+      <c r="D28" s="9">
         <f t="shared" si="0"/>
         <v>29295.863820000002</v>
       </c>
-      <c r="D25" s="7">
+      <c r="E28" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E25" s="7">
+      <c r="F28" s="7">
         <v>31.343</v>
       </c>
-      <c r="F25" s="7">
+      <c r="G28" s="7">
         <v>9947.3389999999999</v>
       </c>
-      <c r="G25" s="7">
+      <c r="H28" s="7">
         <v>926.49599999999998</v>
       </c>
-      <c r="H25" s="7">
+      <c r="I28" s="7">
         <v>5335.3050000000003</v>
       </c>
-      <c r="I25" s="7">
+      <c r="J28" s="7">
         <v>3159.48</v>
       </c>
-      <c r="J25" s="7">
-        <v>0</v>
-      </c>
-      <c r="K25" s="7">
+      <c r="K28" s="7"/>
+      <c r="L28" s="7">
         <v>6728.7049999999999</v>
       </c>
-      <c r="L25" s="7">
+      <c r="M28" s="7">
         <v>979.74129999999991</v>
       </c>
-      <c r="M25" s="7">
+      <c r="N28" s="7">
         <v>2187.4515200000001</v>
       </c>
     </row>
-    <row r="26" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="8">
-        <v>44805</v>
-      </c>
-      <c r="C26" s="13">
+    <row r="29" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="26">
+        <v>2022</v>
+      </c>
+      <c r="C29" s="27">
+        <v>9</v>
+      </c>
+      <c r="D29" s="8">
         <f t="shared" si="0"/>
         <v>26447.132749999997</v>
       </c>
-      <c r="D26" s="4">
+      <c r="E29" s="4">
         <v>2E-3</v>
       </c>
-      <c r="E26" s="4">
+      <c r="F29" s="4">
         <v>23.175000000000001</v>
       </c>
-      <c r="F26" s="4">
+      <c r="G29" s="4">
         <v>9081.3619999999992</v>
       </c>
-      <c r="G26" s="4">
+      <c r="H29" s="4">
         <v>703.86900000000003</v>
       </c>
-      <c r="H26" s="4">
+      <c r="I29" s="4">
         <v>4176.1049999999996</v>
       </c>
-      <c r="I26" s="4">
+      <c r="J29" s="4">
         <v>3254.7069999999999</v>
       </c>
-      <c r="J26" s="4">
-        <v>0</v>
-      </c>
-      <c r="K26" s="4">
+      <c r="K29" s="4"/>
+      <c r="L29" s="4">
         <v>6617.3549999999996</v>
       </c>
-      <c r="L26" s="4">
+      <c r="M29" s="4">
         <v>824.20899999999995</v>
       </c>
-      <c r="M26" s="4">
+      <c r="N29" s="4">
         <v>1766.3487500000001</v>
       </c>
     </row>
-    <row r="27" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="9">
-        <v>44774</v>
-      </c>
-      <c r="C27" s="14">
+    <row r="30" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="24">
+        <v>2022</v>
+      </c>
+      <c r="C30" s="25">
+        <v>8</v>
+      </c>
+      <c r="D30" s="9">
         <f t="shared" si="0"/>
         <v>26279.741409999995</v>
       </c>
-      <c r="D27" s="7">
+      <c r="E30" s="7">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E27" s="7">
+      <c r="F30" s="7">
         <v>28.286999999999999</v>
       </c>
-      <c r="F27" s="7">
+      <c r="G30" s="7">
         <v>9293.5259999999998</v>
       </c>
-      <c r="G27" s="7">
+      <c r="H30" s="7">
         <v>859.87</v>
       </c>
-      <c r="H27" s="7">
+      <c r="I30" s="7">
         <v>4037.6669999999999</v>
       </c>
-      <c r="I27" s="7">
+      <c r="J30" s="7">
         <v>3520.194</v>
       </c>
-      <c r="J27" s="7">
-        <v>0</v>
-      </c>
-      <c r="K27" s="7">
+      <c r="K30" s="7"/>
+      <c r="L30" s="7">
         <v>5886.08</v>
       </c>
-      <c r="L27" s="7">
+      <c r="M30" s="7">
         <v>804.58889999999997</v>
       </c>
-      <c r="M27" s="7">
+      <c r="N30" s="7">
         <v>1849.52451</v>
       </c>
     </row>
-    <row r="28" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="8">
-        <v>44743</v>
-      </c>
-      <c r="C28" s="13">
+    <row r="31" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="26">
+        <v>2022</v>
+      </c>
+      <c r="C31" s="27">
+        <v>7</v>
+      </c>
+      <c r="D31" s="8">
         <f t="shared" si="0"/>
         <v>30603.772699999998</v>
       </c>
-      <c r="D28" s="4">
+      <c r="E31" s="4">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E28" s="4">
+      <c r="F31" s="4">
         <v>31.623000000000001</v>
       </c>
-      <c r="F28" s="4">
+      <c r="G31" s="4">
         <v>9435.7099999999991</v>
       </c>
-      <c r="G28" s="4">
+      <c r="H31" s="4">
         <v>852.04499999999996</v>
       </c>
-      <c r="H28" s="4">
+      <c r="I31" s="4">
         <v>4353.799</v>
       </c>
-      <c r="I28" s="4">
+      <c r="J31" s="4">
         <v>3361.634</v>
       </c>
-      <c r="J28" s="4">
-        <v>0</v>
-      </c>
-      <c r="K28" s="4">
+      <c r="K31" s="4"/>
+      <c r="L31" s="4">
         <v>10038.903</v>
       </c>
-      <c r="L28" s="4">
+      <c r="M31" s="4">
         <v>692.77719999999999</v>
       </c>
-      <c r="M28" s="4">
+      <c r="N31" s="4">
         <v>1837.2745</v>
       </c>
     </row>
-    <row r="29" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="9">
-        <v>44713</v>
-      </c>
-      <c r="C29" s="14">
+    <row r="32" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="24">
+        <v>2022</v>
+      </c>
+      <c r="C32" s="25">
+        <v>6</v>
+      </c>
+      <c r="D32" s="9">
         <f t="shared" si="0"/>
         <v>32911.434350000003</v>
       </c>
-      <c r="D29" s="7">
+      <c r="E32" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E29" s="7">
+      <c r="F32" s="7">
         <v>29.89</v>
       </c>
-      <c r="F29" s="7">
+      <c r="G32" s="7">
         <v>9434.6640000000007</v>
       </c>
-      <c r="G29" s="7">
+      <c r="H32" s="7">
         <v>704.59900000000005</v>
       </c>
-      <c r="H29" s="7">
+      <c r="I32" s="7">
         <v>4932.3429999999998</v>
       </c>
-      <c r="I29" s="7">
+      <c r="J32" s="7">
         <v>3363.165</v>
       </c>
-      <c r="J29" s="7">
-        <v>0</v>
-      </c>
-      <c r="K29" s="7">
+      <c r="K32" s="7"/>
+      <c r="L32" s="7">
         <v>11698.642</v>
       </c>
-      <c r="L29" s="7">
+      <c r="M32" s="7">
         <v>750.94670000000008</v>
       </c>
-      <c r="M29" s="7">
+      <c r="N32" s="7">
         <v>1997.1796499999998</v>
       </c>
     </row>
-    <row r="30" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="8">
-        <v>44682</v>
-      </c>
-      <c r="C30" s="13">
+    <row r="33" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="26">
+        <v>2022</v>
+      </c>
+      <c r="C33" s="27">
+        <v>5</v>
+      </c>
+      <c r="D33" s="8">
         <f t="shared" si="0"/>
         <v>32136.140250000004</v>
       </c>
-      <c r="D30" s="4">
+      <c r="E33" s="4">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E30" s="4">
+      <c r="F33" s="4">
         <v>28.506</v>
       </c>
-      <c r="F30" s="4">
+      <c r="G33" s="4">
         <v>9520.1350000000002</v>
       </c>
-      <c r="G30" s="4">
+      <c r="H33" s="4">
         <v>707.80499999999995</v>
       </c>
-      <c r="H30" s="4">
+      <c r="I33" s="4">
         <v>5145.5190000000002</v>
       </c>
-      <c r="I30" s="4">
+      <c r="J33" s="4">
         <v>3217.3589999999999</v>
       </c>
-      <c r="J30" s="4">
-        <v>0</v>
-      </c>
-      <c r="K30" s="4">
+      <c r="K33" s="4"/>
+      <c r="L33" s="4">
         <v>10677.519</v>
       </c>
-      <c r="L30" s="4">
+      <c r="M33" s="4">
         <v>667.7</v>
       </c>
-      <c r="M30" s="4">
+      <c r="N33" s="4">
         <v>2171.5932499999999</v>
       </c>
     </row>
-    <row r="31" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="9">
-        <v>44652</v>
-      </c>
-      <c r="C31" s="14">
+    <row r="34" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="24">
+        <v>2022</v>
+      </c>
+      <c r="C34" s="25">
+        <v>4</v>
+      </c>
+      <c r="D34" s="9">
         <f t="shared" si="0"/>
         <v>27514.741269999999</v>
       </c>
-      <c r="D31" s="7">
+      <c r="E34" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E31" s="7">
+      <c r="F34" s="7">
         <v>33.442</v>
       </c>
-      <c r="F31" s="7">
+      <c r="G34" s="7">
         <v>8677.1650000000009</v>
       </c>
-      <c r="G31" s="7">
+      <c r="H34" s="7">
         <v>704.93700000000001</v>
       </c>
-      <c r="H31" s="7">
+      <c r="I34" s="7">
         <v>4385.1239999999998</v>
       </c>
-      <c r="I31" s="7">
+      <c r="J34" s="7">
         <v>3089.9090000000001</v>
       </c>
-      <c r="J31" s="7">
-        <v>0</v>
-      </c>
-      <c r="K31" s="7">
+      <c r="K34" s="7"/>
+      <c r="L34" s="7">
         <v>7847.8879999999999</v>
       </c>
-      <c r="L31" s="7">
+      <c r="M34" s="7">
         <v>761.38699999999994</v>
       </c>
-      <c r="M31" s="7">
+      <c r="N34" s="7">
         <v>2014.8862699999997</v>
       </c>
     </row>
-    <row r="32" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="8">
-        <v>44621</v>
-      </c>
-      <c r="C32" s="13">
+    <row r="35" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="26">
+        <v>2022</v>
+      </c>
+      <c r="C35" s="27">
+        <v>3</v>
+      </c>
+      <c r="D35" s="8">
         <f t="shared" si="0"/>
         <v>30859.440460000002</v>
       </c>
-      <c r="D32" s="4">
+      <c r="E35" s="4">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E32" s="4">
+      <c r="F35" s="4">
         <v>30.175999999999998</v>
       </c>
-      <c r="F32" s="4">
+      <c r="G35" s="4">
         <v>9761.2630000000008</v>
       </c>
-      <c r="G32" s="4">
+      <c r="H35" s="4">
         <v>1009.9829999999999</v>
       </c>
-      <c r="H32" s="4">
+      <c r="I35" s="4">
         <v>6578.5140000000001</v>
       </c>
-      <c r="I32" s="4">
+      <c r="J35" s="4">
         <v>3448.0540000000001</v>
       </c>
-      <c r="J32" s="4">
-        <v>0</v>
-      </c>
-      <c r="K32" s="4">
+      <c r="K35" s="4"/>
+      <c r="L35" s="4">
         <v>7191.5020000000004</v>
       </c>
-      <c r="L32" s="4">
+      <c r="M35" s="4">
         <v>742.69299999999998</v>
       </c>
-      <c r="M32" s="4">
+      <c r="N35" s="4">
         <v>2097.25146</v>
       </c>
     </row>
-    <row r="33" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="9">
-        <v>44593</v>
-      </c>
-      <c r="C33" s="14">
+    <row r="36" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="24">
+        <v>2022</v>
+      </c>
+      <c r="C36" s="25">
+        <v>2</v>
+      </c>
+      <c r="D36" s="9">
         <f t="shared" si="0"/>
         <v>26857.410190000002</v>
       </c>
-      <c r="D33" s="7">
+      <c r="E36" s="7">
         <v>0</v>
       </c>
-      <c r="E33" s="7">
+      <c r="F36" s="7">
         <v>26.463999999999999</v>
       </c>
-      <c r="F33" s="7">
+      <c r="G36" s="7">
         <v>8399.2009999999991</v>
       </c>
-      <c r="G33" s="7">
+      <c r="H36" s="7">
         <v>816.23900000000003</v>
       </c>
-      <c r="H33" s="7">
+      <c r="I36" s="7">
         <v>4488.2250000000004</v>
       </c>
-      <c r="I33" s="7">
+      <c r="J36" s="7">
         <v>3087.74</v>
       </c>
-      <c r="J33" s="7">
-        <v>0</v>
-      </c>
-      <c r="K33" s="7">
+      <c r="K36" s="7"/>
+      <c r="L36" s="7">
         <v>7675.5219999999999</v>
       </c>
-      <c r="L33" s="7">
+      <c r="M36" s="7">
         <v>680.0145</v>
       </c>
-      <c r="M33" s="7">
+      <c r="N36" s="7">
         <v>1684.00469</v>
       </c>
     </row>
-    <row r="34" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="11">
-        <v>44562</v>
-      </c>
-      <c r="C34" s="15">
+    <row r="37" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="28">
+        <v>2022</v>
+      </c>
+      <c r="C37" s="29">
+        <v>1</v>
+      </c>
+      <c r="D37" s="10">
         <f t="shared" si="0"/>
         <v>26010.419900000001</v>
       </c>
-      <c r="D34" s="6">
+      <c r="E37" s="6">
         <v>0.01</v>
       </c>
-      <c r="E34" s="6">
+      <c r="F37" s="6">
         <v>29.917000000000002</v>
       </c>
-      <c r="F34" s="6">
+      <c r="G37" s="6">
         <v>8064.9719999999998</v>
       </c>
-      <c r="G34" s="6">
+      <c r="H37" s="6">
         <v>759.41499999999996</v>
       </c>
-      <c r="H34" s="6">
+      <c r="I37" s="6">
         <v>4874.95</v>
       </c>
-      <c r="I34" s="6">
+      <c r="J37" s="6">
         <v>3142.1970000000001</v>
       </c>
-      <c r="J34" s="6">
-        <v>0</v>
-      </c>
-      <c r="K34" s="6">
+      <c r="K37" s="6"/>
+      <c r="L37" s="6">
         <v>6776.384</v>
       </c>
-      <c r="L34" s="6">
+      <c r="M37" s="6">
         <v>751.90069999999992</v>
       </c>
-      <c r="M34" s="6">
+      <c r="N37" s="6">
         <v>1610.6742000000002</v>
       </c>
     </row>
-    <row r="35" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="19">
-        <v>44531</v>
-      </c>
-      <c r="C35" s="20">
+    <row r="38" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="30">
+        <v>2021</v>
+      </c>
+      <c r="C38" s="31">
+        <v>12</v>
+      </c>
+      <c r="D38" s="11">
         <f t="shared" si="0"/>
         <v>31566.167749999997</v>
       </c>
-      <c r="D35" s="21">
+      <c r="E38" s="12">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E35" s="21">
+      <c r="F38" s="12">
         <v>37.055</v>
       </c>
-      <c r="F35" s="21">
+      <c r="G38" s="12">
         <v>9575.5380000000005</v>
       </c>
-      <c r="G35" s="21">
+      <c r="H38" s="12">
         <v>889.38</v>
       </c>
-      <c r="H35" s="21">
+      <c r="I38" s="12">
         <v>6288.674</v>
       </c>
-      <c r="I35" s="21">
+      <c r="J38" s="12">
         <v>4403.6390000000001</v>
       </c>
-      <c r="J35" s="21">
-        <v>0</v>
-      </c>
-      <c r="K35" s="21">
+      <c r="K38" s="12"/>
+      <c r="L38" s="12">
         <v>7812.2049999999999</v>
       </c>
-      <c r="L35" s="21">
+      <c r="M38" s="12">
         <v>644.26139999999998</v>
       </c>
-      <c r="M35" s="21">
+      <c r="N38" s="12">
         <v>1915.4123500000001</v>
       </c>
     </row>
-    <row r="36" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="8">
-        <v>44501</v>
-      </c>
-      <c r="C36" s="13">
+    <row r="39" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="26">
+        <v>2021</v>
+      </c>
+      <c r="C39" s="27">
+        <v>11</v>
+      </c>
+      <c r="D39" s="8">
         <f t="shared" si="0"/>
         <v>29944.972509999996</v>
       </c>
-      <c r="D36" s="4">
+      <c r="E39" s="4">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E36" s="4">
+      <c r="F39" s="4">
         <v>42.304000000000002</v>
       </c>
-      <c r="F36" s="4">
+      <c r="G39" s="4">
         <v>8541.3799999999992</v>
       </c>
-      <c r="G36" s="4">
+      <c r="H39" s="4">
         <v>797.55100000000004</v>
       </c>
-      <c r="H36" s="4">
+      <c r="I39" s="4">
         <v>5779.326</v>
       </c>
-      <c r="I36" s="4">
+      <c r="J39" s="4">
         <v>3742.5929999999998</v>
       </c>
-      <c r="J36" s="4">
-        <v>0</v>
-      </c>
-      <c r="K36" s="4">
+      <c r="K39" s="4"/>
+      <c r="L39" s="4">
         <v>8308.2459999999992</v>
       </c>
-      <c r="L36" s="4">
+      <c r="M39" s="4">
         <v>761.88139999999999</v>
       </c>
-      <c r="M36" s="4">
+      <c r="N39" s="4">
         <v>1971.6851100000001</v>
       </c>
     </row>
-    <row r="37" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="9">
-        <v>44470</v>
-      </c>
-      <c r="C37" s="14">
+    <row r="40" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="24">
+        <v>2021</v>
+      </c>
+      <c r="C40" s="25">
+        <v>10</v>
+      </c>
+      <c r="D40" s="9">
         <f t="shared" si="0"/>
         <v>30000.867740000002</v>
       </c>
-      <c r="D37" s="7">
+      <c r="E40" s="7">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="E37" s="7">
+      <c r="F40" s="7">
         <v>29.148</v>
       </c>
-      <c r="F37" s="7">
+      <c r="G40" s="7">
         <v>9141.5849999999991</v>
       </c>
-      <c r="G37" s="7">
+      <c r="H40" s="7">
         <v>935.53599999999994</v>
       </c>
-      <c r="H37" s="7">
+      <c r="I40" s="7">
         <v>5740.3919999999998</v>
       </c>
-      <c r="I37" s="7">
+      <c r="J40" s="7">
         <v>3221.6640000000002</v>
       </c>
-      <c r="J37" s="7">
-        <v>0</v>
-      </c>
-      <c r="K37" s="7">
+      <c r="K40" s="7"/>
+      <c r="L40" s="7">
         <v>8292.1039999999994</v>
       </c>
-      <c r="L37" s="7">
+      <c r="M40" s="7">
         <v>722.20399999999995</v>
       </c>
-      <c r="M37" s="7">
+      <c r="N40" s="7">
         <v>1918.2237399999999</v>
       </c>
     </row>
-    <row r="38" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="8">
-        <v>44440</v>
-      </c>
-      <c r="C38" s="13">
-        <f t="shared" ref="C38:C69" si="1">SUM(D38:M38)</f>
+    <row r="41" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="26">
+        <v>2021</v>
+      </c>
+      <c r="C41" s="27">
+        <v>9</v>
+      </c>
+      <c r="D41" s="8">
+        <f t="shared" ref="D41:D72" si="2">SUM(E41:N41)</f>
         <v>25044.998970000004</v>
       </c>
-      <c r="D38" s="4">
+      <c r="E41" s="4">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E38" s="4">
+      <c r="F41" s="4">
         <v>27.141999999999999</v>
       </c>
-      <c r="F38" s="4">
+      <c r="G41" s="4">
         <v>7906.91</v>
       </c>
-      <c r="G38" s="4">
+      <c r="H41" s="4">
         <v>875.76900000000001</v>
       </c>
-      <c r="H38" s="4">
+      <c r="I41" s="4">
         <v>4566.3109999999997</v>
       </c>
-      <c r="I38" s="4">
+      <c r="J41" s="4">
         <v>3115.0770000000002</v>
       </c>
-      <c r="J38" s="4">
-        <v>0</v>
-      </c>
-      <c r="K38" s="4">
+      <c r="K41" s="4"/>
+      <c r="L41" s="4">
         <v>6415.2790000000005</v>
       </c>
-      <c r="L38" s="4">
+      <c r="M41" s="4">
         <v>491.27</v>
       </c>
-      <c r="M38" s="4">
+      <c r="N41" s="4">
         <v>1647.23197</v>
       </c>
     </row>
-    <row r="39" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="9">
-        <v>44409</v>
-      </c>
-      <c r="C39" s="14">
-        <f t="shared" si="1"/>
+    <row r="42" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="24">
+        <v>2021</v>
+      </c>
+      <c r="C42" s="25">
+        <v>8</v>
+      </c>
+      <c r="D42" s="9">
+        <f t="shared" si="2"/>
         <v>26801.51179</v>
       </c>
-      <c r="D39" s="7">
+      <c r="E42" s="7">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="E39" s="7">
+      <c r="F42" s="7">
         <v>26.024000000000001</v>
       </c>
-      <c r="F39" s="7">
+      <c r="G42" s="7">
         <v>7787.3339999999998</v>
       </c>
-      <c r="G39" s="7">
+      <c r="H42" s="7">
         <v>951.82</v>
       </c>
-      <c r="H39" s="7">
+      <c r="I42" s="7">
         <v>5861.0240000000003</v>
       </c>
-      <c r="I39" s="7">
+      <c r="J42" s="7">
         <v>2963.1660000000002</v>
       </c>
-      <c r="J39" s="7">
-        <v>0</v>
-      </c>
-      <c r="K39" s="7">
+      <c r="K42" s="7"/>
+      <c r="L42" s="7">
         <v>6924.8339999999998</v>
       </c>
-      <c r="L39" s="7">
+      <c r="M42" s="7">
         <v>590.37950000000001</v>
       </c>
-      <c r="M39" s="7">
+      <c r="N42" s="7">
         <v>1696.91929</v>
       </c>
     </row>
-    <row r="40" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="8">
-        <v>44378</v>
-      </c>
-      <c r="C40" s="13">
-        <f t="shared" si="1"/>
+    <row r="43" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="26">
+        <v>2021</v>
+      </c>
+      <c r="C43" s="27">
+        <v>7</v>
+      </c>
+      <c r="D43" s="8">
+        <f t="shared" si="2"/>
         <v>29570.534019999996</v>
       </c>
-      <c r="D40" s="4">
+      <c r="E43" s="4">
         <v>1.6E-2</v>
       </c>
-      <c r="E40" s="4">
+      <c r="F43" s="4">
         <v>33.762999999999998</v>
       </c>
-      <c r="F40" s="4">
+      <c r="G43" s="4">
         <v>7960.9809999999998</v>
       </c>
-      <c r="G40" s="4">
+      <c r="H43" s="4">
         <v>980.41300000000001</v>
       </c>
-      <c r="H40" s="4">
+      <c r="I43" s="4">
         <v>6238.2730000000001</v>
       </c>
-      <c r="I40" s="4">
+      <c r="J43" s="4">
         <v>3189.866</v>
       </c>
-      <c r="J40" s="4">
-        <v>0</v>
-      </c>
-      <c r="K40" s="4">
+      <c r="K43" s="4"/>
+      <c r="L43" s="4">
         <v>8884.8860000000004</v>
       </c>
-      <c r="L40" s="4">
+      <c r="M43" s="4">
         <v>570.02250000000004</v>
       </c>
-      <c r="M40" s="4">
+      <c r="N43" s="4">
         <v>1712.3135199999999</v>
       </c>
     </row>
-    <row r="41" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="9">
-        <v>44348</v>
-      </c>
-      <c r="C41" s="14">
-        <f t="shared" si="1"/>
+    <row r="44" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="24">
+        <v>2021</v>
+      </c>
+      <c r="C44" s="25">
+        <v>6</v>
+      </c>
+      <c r="D44" s="9">
+        <f t="shared" si="2"/>
         <v>26984.257880000001</v>
       </c>
-      <c r="D41" s="7">
+      <c r="E44" s="7">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E41" s="7">
+      <c r="F44" s="7">
         <v>30.326000000000001</v>
       </c>
-      <c r="F41" s="7">
+      <c r="G44" s="7">
         <v>6994.8090000000002</v>
       </c>
-      <c r="G41" s="7">
+      <c r="H44" s="7">
         <v>938.22799999999995</v>
       </c>
-      <c r="H41" s="7">
+      <c r="I44" s="7">
         <v>5685.7610000000004</v>
       </c>
-      <c r="I41" s="7">
+      <c r="J44" s="7">
         <v>2933.55</v>
       </c>
-      <c r="J41" s="7">
-        <v>0</v>
-      </c>
-      <c r="K41" s="7">
+      <c r="K44" s="7"/>
+      <c r="L44" s="7">
         <v>8239.3950000000004</v>
       </c>
-      <c r="L41" s="7">
+      <c r="M44" s="7">
         <v>517.37900000000002</v>
       </c>
-      <c r="M41" s="7">
+      <c r="N44" s="7">
         <v>1644.78388</v>
       </c>
     </row>
-    <row r="42" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="8">
-        <v>44317</v>
-      </c>
-      <c r="C42" s="13">
-        <f t="shared" si="1"/>
+    <row r="45" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="26">
+        <v>2021</v>
+      </c>
+      <c r="C45" s="27">
+        <v>5</v>
+      </c>
+      <c r="D45" s="8">
+        <f t="shared" si="2"/>
         <v>27395.161769999999</v>
       </c>
-      <c r="D42" s="4">
+      <c r="E45" s="4">
         <v>1.2E-2</v>
       </c>
-      <c r="E42" s="4">
+      <c r="F45" s="4">
         <v>34.064</v>
       </c>
-      <c r="F42" s="4">
+      <c r="G45" s="4">
         <v>5853.0280000000002</v>
       </c>
-      <c r="G42" s="4">
+      <c r="H45" s="4">
         <v>804.99099999999999</v>
       </c>
-      <c r="H42" s="4">
+      <c r="I45" s="4">
         <v>6221.6310000000003</v>
       </c>
-      <c r="I42" s="4">
+      <c r="J45" s="4">
         <v>2753.0189999999998</v>
       </c>
-      <c r="J42" s="4">
-        <v>0</v>
-      </c>
-      <c r="K42" s="4">
+      <c r="K45" s="4"/>
+      <c r="L45" s="4">
         <v>9369.7039999999997</v>
       </c>
-      <c r="L42" s="4">
+      <c r="M45" s="4">
         <v>581.25</v>
       </c>
-      <c r="M42" s="4">
+      <c r="N45" s="4">
         <v>1777.4627700000001</v>
       </c>
     </row>
-    <row r="43" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="9">
-        <v>44287</v>
-      </c>
-      <c r="C43" s="14">
-        <f t="shared" si="1"/>
+    <row r="46" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="24">
+        <v>2021</v>
+      </c>
+      <c r="C46" s="25">
+        <v>4</v>
+      </c>
+      <c r="D46" s="9">
+        <f t="shared" si="2"/>
         <v>26794.383829999999</v>
       </c>
-      <c r="D43" s="7">
+      <c r="E46" s="7">
         <v>1.4E-2</v>
       </c>
-      <c r="E43" s="7">
+      <c r="F46" s="7">
         <v>28.870999999999999</v>
       </c>
-      <c r="F43" s="7">
+      <c r="G46" s="7">
         <v>5583.2060000000001</v>
       </c>
-      <c r="G43" s="7">
+      <c r="H46" s="7">
         <v>855.89099999999996</v>
       </c>
-      <c r="H43" s="7">
+      <c r="I46" s="7">
         <v>5955.3379999999997</v>
       </c>
-      <c r="I43" s="7">
+      <c r="J46" s="7">
         <v>2553.587</v>
       </c>
-      <c r="J43" s="7">
-        <v>0</v>
-      </c>
-      <c r="K43" s="7">
+      <c r="K46" s="7"/>
+      <c r="L46" s="7">
         <v>9635.8649999999998</v>
       </c>
-      <c r="L43" s="7">
+      <c r="M46" s="7">
         <v>569.29200000000003</v>
       </c>
-      <c r="M43" s="7">
+      <c r="N46" s="7">
         <v>1612.3198300000001</v>
       </c>
     </row>
-    <row r="44" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="8">
-        <v>44256</v>
-      </c>
-      <c r="C44" s="13">
-        <f t="shared" si="1"/>
+    <row r="47" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="26">
+        <v>2021</v>
+      </c>
+      <c r="C47" s="27">
+        <v>3</v>
+      </c>
+      <c r="D47" s="8">
+        <f t="shared" si="2"/>
         <v>28888.855879999999</v>
       </c>
-      <c r="D44" s="4">
+      <c r="E47" s="4">
         <v>0.01</v>
       </c>
-      <c r="E44" s="4">
+      <c r="F47" s="4">
         <v>30.994</v>
       </c>
-      <c r="F44" s="4">
+      <c r="G47" s="4">
         <v>5972.1139999999996</v>
       </c>
-      <c r="G44" s="4">
+      <c r="H47" s="4">
         <v>961.24900000000002</v>
       </c>
-      <c r="H44" s="4">
+      <c r="I47" s="4">
         <v>6821.0630000000001</v>
       </c>
-      <c r="I44" s="4">
+      <c r="J47" s="4">
         <v>2527.971</v>
       </c>
-      <c r="J44" s="4">
-        <v>0</v>
-      </c>
-      <c r="K44" s="4">
+      <c r="K47" s="4"/>
+      <c r="L47" s="4">
         <v>10350.735000000001</v>
       </c>
-      <c r="L44" s="4">
+      <c r="M47" s="4">
         <v>537.19399999999996</v>
       </c>
-      <c r="M44" s="4">
+      <c r="N47" s="4">
         <v>1687.5258799999999</v>
       </c>
     </row>
-    <row r="45" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="9">
-        <v>44228</v>
-      </c>
-      <c r="C45" s="14">
-        <f t="shared" si="1"/>
+    <row r="48" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="24">
+        <v>2021</v>
+      </c>
+      <c r="C48" s="25">
+        <v>2</v>
+      </c>
+      <c r="D48" s="9">
+        <f t="shared" si="2"/>
         <v>25842.507199999996</v>
       </c>
-      <c r="D45" s="7">
+      <c r="E48" s="7">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E45" s="7">
+      <c r="F48" s="7">
         <v>23.164999999999999</v>
       </c>
-      <c r="F45" s="7">
+      <c r="G48" s="7">
         <v>5676.3119999999999</v>
       </c>
-      <c r="G45" s="7">
+      <c r="H48" s="7">
         <v>842.12599999999998</v>
       </c>
-      <c r="H45" s="7">
+      <c r="I48" s="7">
         <v>6447.9210000000003</v>
       </c>
-      <c r="I45" s="7">
+      <c r="J48" s="7">
         <v>2143.1759999999999</v>
       </c>
-      <c r="J45" s="7">
-        <v>0</v>
-      </c>
-      <c r="K45" s="7">
+      <c r="K48" s="7"/>
+      <c r="L48" s="7">
         <v>8771.1730000000007</v>
       </c>
-      <c r="L45" s="7">
+      <c r="M48" s="7">
         <v>441.65600000000001</v>
       </c>
-      <c r="M45" s="7">
+      <c r="N48" s="7">
         <v>1496.9692</v>
       </c>
     </row>
-    <row r="46" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="11">
-        <v>44197</v>
-      </c>
-      <c r="C46" s="15">
-        <f t="shared" si="1"/>
+    <row r="49" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="28">
+        <v>2021</v>
+      </c>
+      <c r="C49" s="29">
+        <v>1</v>
+      </c>
+      <c r="D49" s="10">
+        <f t="shared" si="2"/>
         <v>26743.09706</v>
       </c>
-      <c r="D46" s="6">
+      <c r="E49" s="6">
         <v>2.3E-2</v>
       </c>
-      <c r="E46" s="6">
+      <c r="F49" s="6">
         <v>22.483000000000001</v>
       </c>
-      <c r="F46" s="6">
+      <c r="G49" s="6">
         <v>5633.7330000000002</v>
       </c>
-      <c r="G46" s="6">
+      <c r="H49" s="6">
         <v>893.20500000000004</v>
       </c>
-      <c r="H46" s="6">
+      <c r="I49" s="6">
         <v>5852.174</v>
       </c>
-      <c r="I46" s="6">
+      <c r="J49" s="6">
         <v>2714.6959999999999</v>
       </c>
-      <c r="J46" s="6">
-        <v>0</v>
-      </c>
-      <c r="K46" s="6">
+      <c r="K49" s="6"/>
+      <c r="L49" s="6">
         <v>9764.4040000000005</v>
       </c>
-      <c r="L46" s="6">
+      <c r="M49" s="6">
         <v>374.46</v>
       </c>
-      <c r="M46" s="6">
+      <c r="N49" s="6">
         <v>1487.9190599999999</v>
       </c>
     </row>
-    <row r="47" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="19">
-        <v>44166</v>
-      </c>
-      <c r="C47" s="20">
-        <f t="shared" si="1"/>
+    <row r="50" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="30">
+        <v>2020</v>
+      </c>
+      <c r="C50" s="31">
+        <v>12</v>
+      </c>
+      <c r="D50" s="11">
+        <f t="shared" si="2"/>
         <v>29335.748110000004</v>
       </c>
-      <c r="D47" s="21">
+      <c r="E50" s="12">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E47" s="21">
+      <c r="F50" s="12">
         <v>30.75</v>
       </c>
-      <c r="F47" s="21">
+      <c r="G50" s="12">
         <v>5388.74</v>
       </c>
-      <c r="G47" s="21">
+      <c r="H50" s="12">
         <v>1227.8499999999999</v>
       </c>
-      <c r="H47" s="21">
+      <c r="I50" s="12">
         <v>8063.0550000000003</v>
       </c>
-      <c r="I47" s="21">
+      <c r="J50" s="12">
         <v>3485.029</v>
       </c>
-      <c r="J47" s="21">
+      <c r="K50" s="12">
         <v>16.4115</v>
       </c>
-      <c r="K47" s="21">
+      <c r="L50" s="12">
         <v>8808.3330000000005</v>
       </c>
-      <c r="L47" s="21">
+      <c r="M50" s="12">
         <v>499.45499999999998</v>
       </c>
-      <c r="M47" s="21">
+      <c r="N50" s="12">
         <v>1816.0996100000002</v>
       </c>
     </row>
-    <row r="48" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="8">
-        <v>44136</v>
-      </c>
-      <c r="C48" s="13">
-        <f t="shared" si="1"/>
+    <row r="51" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="26">
+        <v>2020</v>
+      </c>
+      <c r="C51" s="27">
+        <v>11</v>
+      </c>
+      <c r="D51" s="8">
+        <f t="shared" si="2"/>
         <v>31111.598979999999</v>
       </c>
-      <c r="D48" s="4">
+      <c r="E51" s="4">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E48" s="4">
+      <c r="F51" s="4">
         <v>29.420999999999999</v>
       </c>
-      <c r="F48" s="4">
+      <c r="G51" s="4">
         <v>4646.3059999999996</v>
       </c>
-      <c r="G48" s="4">
+      <c r="H51" s="4">
         <v>918.31700000000001</v>
       </c>
-      <c r="H48" s="4">
+      <c r="I51" s="4">
         <v>10405.393</v>
       </c>
-      <c r="I48" s="4">
+      <c r="J51" s="4">
         <v>3080.1370000000002</v>
       </c>
-      <c r="J48" s="4">
+      <c r="K51" s="4">
         <v>86.034999999999997</v>
       </c>
-      <c r="K48" s="4">
+      <c r="L51" s="4">
         <v>9680.3340000000007</v>
       </c>
-      <c r="L48" s="4">
+      <c r="M51" s="4">
         <v>427.87200000000001</v>
       </c>
-      <c r="M48" s="4">
+      <c r="N51" s="4">
         <v>1837.75198</v>
       </c>
     </row>
-    <row r="49" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="9">
-        <v>44105</v>
-      </c>
-      <c r="C49" s="14">
-        <f t="shared" si="1"/>
+    <row r="52" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="24">
+        <v>2020</v>
+      </c>
+      <c r="C52" s="25">
+        <v>10</v>
+      </c>
+      <c r="D52" s="9">
+        <f t="shared" si="2"/>
         <v>29198.211449999999</v>
       </c>
-      <c r="D49" s="7">
+      <c r="E52" s="7">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E49" s="7">
+      <c r="F52" s="7">
         <v>25.18</v>
       </c>
-      <c r="F49" s="7">
+      <c r="G52" s="7">
         <v>4168.3999999999996</v>
       </c>
-      <c r="G49" s="7">
+      <c r="H52" s="7">
         <v>855.53599999999994</v>
       </c>
-      <c r="H49" s="7">
+      <c r="I52" s="7">
         <v>9141.11</v>
       </c>
-      <c r="I49" s="7">
+      <c r="J52" s="7">
         <v>2910.5740000000001</v>
       </c>
-      <c r="J49" s="7">
+      <c r="K52" s="7">
         <v>131.53100000000001</v>
       </c>
-      <c r="K49" s="7">
+      <c r="L52" s="7">
         <v>9811.7209999999995</v>
       </c>
-      <c r="L49" s="7">
+      <c r="M52" s="7">
         <v>328.78100000000001</v>
       </c>
-      <c r="M49" s="7">
+      <c r="N52" s="7">
         <v>1825.3604499999999</v>
       </c>
     </row>
-    <row r="50" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="8">
-        <v>44075</v>
-      </c>
-      <c r="C50" s="13">
-        <f t="shared" si="1"/>
+    <row r="53" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="26">
+        <v>2020</v>
+      </c>
+      <c r="C53" s="27">
+        <v>9</v>
+      </c>
+      <c r="D53" s="8">
+        <f t="shared" si="2"/>
         <v>25824.25403</v>
       </c>
-      <c r="D50" s="4">
+      <c r="E53" s="4">
         <v>1.6E-2</v>
       </c>
-      <c r="E50" s="4">
+      <c r="F53" s="4">
         <v>19.38</v>
       </c>
-      <c r="F50" s="4">
+      <c r="G53" s="4">
         <v>3354.4870000000001</v>
       </c>
-      <c r="G50" s="4">
+      <c r="H53" s="4">
         <v>815.01599999999996</v>
       </c>
-      <c r="H50" s="4">
+      <c r="I53" s="4">
         <v>9094.2099999999991</v>
       </c>
-      <c r="I50" s="4">
+      <c r="J53" s="4">
         <v>2742.8449999999998</v>
       </c>
-      <c r="J50" s="4">
+      <c r="K53" s="4">
         <v>94.078000000000003</v>
       </c>
-      <c r="K50" s="4">
+      <c r="L53" s="4">
         <v>7889.5420000000004</v>
       </c>
-      <c r="L50" s="4">
+      <c r="M53" s="4">
         <v>300.25099999999998</v>
       </c>
-      <c r="M50" s="4">
+      <c r="N53" s="4">
         <v>1514.42903</v>
       </c>
     </row>
-    <row r="51" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="9">
-        <v>44044</v>
-      </c>
-      <c r="C51" s="14">
-        <f t="shared" si="1"/>
+    <row r="54" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="24">
+        <v>2020</v>
+      </c>
+      <c r="C54" s="25">
+        <v>8</v>
+      </c>
+      <c r="D54" s="9">
+        <f t="shared" si="2"/>
         <v>23354.829529999999</v>
       </c>
-      <c r="D51" s="7">
+      <c r="E54" s="7">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="E51" s="7">
+      <c r="F54" s="7">
         <v>19.126000000000001</v>
       </c>
-      <c r="F51" s="7">
+      <c r="G54" s="7">
         <v>2845.2860000000001</v>
       </c>
-      <c r="G51" s="7">
+      <c r="H54" s="7">
         <v>913.84799999999996</v>
       </c>
-      <c r="H51" s="7">
+      <c r="I54" s="7">
         <v>8628.9339999999993</v>
       </c>
-      <c r="I51" s="7">
+      <c r="J54" s="7">
         <v>2494.9360000000001</v>
       </c>
-      <c r="J51" s="7">
+      <c r="K54" s="7">
         <v>102.148</v>
       </c>
-      <c r="K51" s="7">
+      <c r="L54" s="7">
         <v>6734.2569999999996</v>
       </c>
-      <c r="L51" s="7">
+      <c r="M54" s="7">
         <v>214.13300000000001</v>
       </c>
-      <c r="M51" s="7">
+      <c r="N54" s="7">
         <v>1402.1505300000001</v>
       </c>
     </row>
-    <row r="52" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="8">
-        <v>44013</v>
-      </c>
-      <c r="C52" s="13">
-        <f t="shared" si="1"/>
+    <row r="55" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="26">
+        <v>2020</v>
+      </c>
+      <c r="C55" s="27">
+        <v>7</v>
+      </c>
+      <c r="D55" s="8">
+        <f t="shared" si="2"/>
         <v>19260.244039999998</v>
       </c>
-      <c r="D52" s="4">
+      <c r="E55" s="4">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E52" s="4">
+      <c r="F55" s="4">
         <v>18.687000000000001</v>
       </c>
-      <c r="F52" s="4">
+      <c r="G55" s="4">
         <v>2326.4090000000001</v>
       </c>
-      <c r="G52" s="4">
+      <c r="H55" s="4">
         <v>969.73</v>
       </c>
-      <c r="H52" s="4">
+      <c r="I55" s="4">
         <v>5828.2169999999996</v>
       </c>
-      <c r="I52" s="4">
+      <c r="J55" s="4">
         <v>2394.4169999999999</v>
       </c>
-      <c r="J52" s="4">
+      <c r="K55" s="4">
         <v>76.744</v>
       </c>
-      <c r="K52" s="4">
+      <c r="L55" s="4">
         <v>6273.5619999999999</v>
       </c>
-      <c r="L52" s="4">
+      <c r="M55" s="4">
         <v>151.30000000000001</v>
       </c>
-      <c r="M52" s="4">
+      <c r="N55" s="4">
         <v>1221.17004</v>
       </c>
     </row>
-    <row r="53" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="9">
-        <v>43983</v>
-      </c>
-      <c r="C53" s="14">
-        <f t="shared" si="1"/>
+    <row r="56" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="24">
+        <v>2020</v>
+      </c>
+      <c r="C56" s="25">
+        <v>6</v>
+      </c>
+      <c r="D56" s="9">
+        <f t="shared" si="2"/>
         <v>16681.950259999998</v>
       </c>
-      <c r="D53" s="7">
+      <c r="E56" s="7">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="E53" s="7">
+      <c r="F56" s="7">
         <v>15.773</v>
       </c>
-      <c r="F53" s="7">
+      <c r="G56" s="7">
         <v>1336.4849999999999</v>
       </c>
-      <c r="G53" s="7">
+      <c r="H56" s="7">
         <v>585.92899999999997</v>
       </c>
-      <c r="H53" s="7">
+      <c r="I56" s="7">
         <v>5587.4769999999999</v>
       </c>
-      <c r="I53" s="7">
+      <c r="J56" s="7">
         <v>2256.6930000000002</v>
       </c>
-      <c r="J53" s="7">
+      <c r="K56" s="7">
         <v>42.146999999999998</v>
       </c>
-      <c r="K53" s="7">
+      <c r="L56" s="7">
         <v>5744.8710000000001</v>
       </c>
-      <c r="L53" s="7">
+      <c r="M56" s="7">
         <v>118.29600000000001</v>
       </c>
-      <c r="M53" s="7">
+      <c r="N56" s="7">
         <v>994.26826000000005</v>
       </c>
     </row>
-    <row r="54" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="8">
-        <v>43952</v>
-      </c>
-      <c r="C54" s="13">
-        <f t="shared" si="1"/>
+    <row r="57" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="26">
+        <v>2020</v>
+      </c>
+      <c r="C57" s="27">
+        <v>5</v>
+      </c>
+      <c r="D57" s="8">
+        <f t="shared" si="2"/>
         <v>15536.86291</v>
       </c>
-      <c r="D54" s="4">
+      <c r="E57" s="4">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E54" s="4">
+      <c r="F57" s="4">
         <v>9.4559999999999995</v>
       </c>
-      <c r="F54" s="4">
+      <c r="G57" s="4">
         <v>799.72500000000002</v>
       </c>
-      <c r="G54" s="4">
+      <c r="H57" s="4">
         <v>697.28700000000003</v>
       </c>
-      <c r="H54" s="4">
+      <c r="I57" s="4">
         <v>5542.4840000000004</v>
       </c>
-      <c r="I54" s="4">
+      <c r="J57" s="4">
         <v>2132.3310000000001</v>
       </c>
-      <c r="J54" s="4">
+      <c r="K57" s="4">
         <v>69.804000000000002</v>
       </c>
-      <c r="K54" s="4">
+      <c r="L57" s="4">
         <v>5558.576</v>
       </c>
-      <c r="L54" s="4">
+      <c r="M57" s="4">
         <v>143.20510000000002</v>
       </c>
-      <c r="M54" s="4">
+      <c r="N57" s="4">
         <v>583.9918100000001</v>
       </c>
     </row>
-    <row r="55" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="9">
-        <v>43922</v>
-      </c>
-      <c r="C55" s="14">
-        <f t="shared" si="1"/>
+    <row r="58" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="24">
+        <v>2020</v>
+      </c>
+      <c r="C58" s="25">
+        <v>4</v>
+      </c>
+      <c r="D58" s="9">
+        <f t="shared" si="2"/>
         <v>13161.648870000003</v>
       </c>
-      <c r="D55" s="7">
+      <c r="E58" s="7">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E55" s="7">
+      <c r="F58" s="7">
         <v>7.4619999999999997</v>
       </c>
-      <c r="F55" s="7">
+      <c r="G58" s="7">
         <v>1038.125</v>
       </c>
-      <c r="G55" s="7">
+      <c r="H58" s="7">
         <v>754.48400000000004</v>
       </c>
-      <c r="H55" s="7">
+      <c r="I58" s="7">
         <v>5034.1760000000004</v>
       </c>
-      <c r="I55" s="7">
+      <c r="J58" s="7">
         <v>1894.93</v>
       </c>
-      <c r="J55" s="7">
+      <c r="K58" s="7">
         <v>59.36</v>
       </c>
-      <c r="K55" s="7">
+      <c r="L58" s="7">
         <v>3753.6880000000001</v>
       </c>
-      <c r="L55" s="7">
+      <c r="M58" s="7">
         <v>60.6843</v>
       </c>
-      <c r="M55" s="7">
+      <c r="N58" s="7">
         <v>558.7325699999999</v>
       </c>
     </row>
-    <row r="56" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="8">
-        <v>43891</v>
-      </c>
-      <c r="C56" s="13">
-        <f t="shared" si="1"/>
+    <row r="59" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="26">
+        <v>2020</v>
+      </c>
+      <c r="C59" s="27">
+        <v>3</v>
+      </c>
+      <c r="D59" s="8">
+        <f t="shared" si="2"/>
         <v>22714.14399</v>
       </c>
-      <c r="D56" s="4">
+      <c r="E59" s="4">
         <v>3.1E-2</v>
       </c>
-      <c r="E56" s="4">
+      <c r="F59" s="4">
         <v>35.988999999999997</v>
       </c>
-      <c r="F56" s="4">
+      <c r="G59" s="4">
         <v>7356.9930000000004</v>
       </c>
-      <c r="G56" s="4">
+      <c r="H59" s="4">
         <v>1318.52</v>
       </c>
-      <c r="H56" s="4">
+      <c r="I59" s="4">
         <v>4797.09</v>
       </c>
-      <c r="I56" s="4">
+      <c r="J59" s="4">
         <v>1722.712</v>
       </c>
-      <c r="J56" s="4">
+      <c r="K59" s="4">
         <v>1659.4059999999999</v>
       </c>
-      <c r="K56" s="4">
+      <c r="L59" s="4">
         <v>4510.4480000000003</v>
       </c>
-      <c r="L56" s="4">
+      <c r="M59" s="4">
         <v>102.3022</v>
       </c>
-      <c r="M56" s="4">
+      <c r="N59" s="4">
         <v>1210.6527900000001</v>
       </c>
     </row>
-    <row r="57" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="9">
-        <v>43862</v>
-      </c>
-      <c r="C57" s="14">
-        <f t="shared" si="1"/>
+    <row r="60" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="24">
+        <v>2020</v>
+      </c>
+      <c r="C60" s="25">
+        <v>2</v>
+      </c>
+      <c r="D60" s="9">
+        <f t="shared" si="2"/>
         <v>23622.028510000007</v>
       </c>
-      <c r="D57" s="7">
+      <c r="E60" s="7">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E57" s="7">
+      <c r="F60" s="7">
         <v>56.369</v>
       </c>
-      <c r="F57" s="7">
+      <c r="G60" s="7">
         <v>9237.1190000000006</v>
       </c>
-      <c r="G57" s="7">
+      <c r="H60" s="7">
         <v>1428.3530000000001</v>
       </c>
-      <c r="H57" s="7">
+      <c r="I60" s="7">
         <v>3273.0720000000001</v>
       </c>
-      <c r="I57" s="7">
+      <c r="J60" s="7">
         <v>1520.239</v>
       </c>
-      <c r="J57" s="7">
+      <c r="K60" s="7">
         <v>2283.7510000000002</v>
       </c>
-      <c r="K57" s="7">
+      <c r="L60" s="7">
         <v>4116.8599999999997</v>
       </c>
-      <c r="L57" s="7">
+      <c r="M60" s="7">
         <v>132.3349</v>
       </c>
-      <c r="M57" s="7">
+      <c r="N60" s="7">
         <v>1573.90461</v>
       </c>
     </row>
-    <row r="58" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="11">
-        <v>43831</v>
-      </c>
-      <c r="C58" s="15">
-        <f t="shared" si="1"/>
+    <row r="61" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="28">
+        <v>2020</v>
+      </c>
+      <c r="C61" s="29">
+        <v>1</v>
+      </c>
+      <c r="D61" s="10">
+        <f t="shared" si="2"/>
         <v>26687.883509999996</v>
       </c>
-      <c r="D58" s="6">
+      <c r="E61" s="6">
         <v>4.7E-2</v>
       </c>
-      <c r="E58" s="6">
+      <c r="F61" s="6">
         <v>53.219000000000001</v>
       </c>
-      <c r="F58" s="6">
+      <c r="G61" s="6">
         <v>8754.5229999999992</v>
       </c>
-      <c r="G58" s="6">
+      <c r="H61" s="6">
         <v>1369.674</v>
       </c>
-      <c r="H58" s="6">
+      <c r="I61" s="6">
         <v>5338.8549999999996</v>
       </c>
-      <c r="I58" s="6">
+      <c r="J61" s="6">
         <v>1679.8140000000001</v>
       </c>
-      <c r="J58" s="6">
+      <c r="K61" s="6">
         <v>2456.4389999999999</v>
       </c>
-      <c r="K58" s="6">
+      <c r="L61" s="6">
         <v>5287.6</v>
       </c>
-      <c r="L58" s="6">
+      <c r="M61" s="6">
         <v>71.972800000000007</v>
       </c>
-      <c r="M58" s="6">
+      <c r="N61" s="6">
         <v>1675.7397100000001</v>
       </c>
     </row>
-    <row r="59" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="19">
-        <v>43800</v>
-      </c>
-      <c r="C59" s="20">
-        <f t="shared" si="1"/>
+    <row r="62" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="30">
+        <v>2019</v>
+      </c>
+      <c r="C62" s="31">
+        <v>12</v>
+      </c>
+      <c r="D62" s="11">
+        <f t="shared" si="2"/>
         <v>31427.187729999998</v>
       </c>
-      <c r="D59" s="21">
+      <c r="E62" s="12">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="E59" s="21">
+      <c r="F62" s="12">
         <v>86.153999999999996</v>
       </c>
-      <c r="F59" s="21">
+      <c r="G62" s="12">
         <v>9577.1149999999998</v>
       </c>
-      <c r="G59" s="21">
+      <c r="H62" s="12">
         <v>1676.4159999999999</v>
       </c>
-      <c r="H59" s="21">
+      <c r="I62" s="12">
         <v>6029.0749999999998</v>
       </c>
-      <c r="I59" s="21">
+      <c r="J62" s="12">
         <v>2445.3470000000002</v>
       </c>
-      <c r="J59" s="21">
+      <c r="K62" s="12">
         <v>2928.4569999999999</v>
       </c>
-      <c r="K59" s="21">
+      <c r="L62" s="12">
         <v>5030.2939999999999</v>
       </c>
-      <c r="L59" s="21">
+      <c r="M62" s="12">
         <v>65.746300000000005</v>
       </c>
-      <c r="M59" s="21">
+      <c r="N62" s="12">
         <v>3588.5074299999997</v>
       </c>
     </row>
-    <row r="60" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="8">
-        <v>43770</v>
-      </c>
-      <c r="C60" s="13">
-        <f t="shared" si="1"/>
+    <row r="63" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="26">
+        <v>2019</v>
+      </c>
+      <c r="C63" s="27">
+        <v>11</v>
+      </c>
+      <c r="D63" s="8">
+        <f t="shared" si="2"/>
         <v>31763.522410000001</v>
       </c>
-      <c r="D60" s="4">
+      <c r="E63" s="4">
         <v>1.76</v>
       </c>
-      <c r="E60" s="4">
+      <c r="F63" s="4">
         <v>80.100999999999999</v>
       </c>
-      <c r="F60" s="4">
+      <c r="G63" s="4">
         <v>9752.0519999999997</v>
       </c>
-      <c r="G60" s="4">
+      <c r="H63" s="4">
         <v>1595.383</v>
       </c>
-      <c r="H60" s="4">
+      <c r="I63" s="4">
         <v>5103.0559999999996</v>
       </c>
-      <c r="I60" s="4">
+      <c r="J63" s="4">
         <v>2658.252</v>
       </c>
-      <c r="J60" s="4">
+      <c r="K63" s="4">
         <v>3015.0219999999999</v>
       </c>
-      <c r="K60" s="4">
+      <c r="L63" s="4">
         <v>5793.69</v>
       </c>
-      <c r="L60" s="4">
+      <c r="M63" s="4">
         <v>12.758299999999998</v>
       </c>
-      <c r="M60" s="4">
+      <c r="N63" s="4">
         <v>3751.4481100000003</v>
       </c>
     </row>
-    <row r="61" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="9">
-        <v>43739</v>
-      </c>
-      <c r="C61" s="14">
-        <f t="shared" si="1"/>
+    <row r="64" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="24">
+        <v>2019</v>
+      </c>
+      <c r="C64" s="25">
+        <v>10</v>
+      </c>
+      <c r="D64" s="9">
+        <f t="shared" si="2"/>
         <v>31229.518959999994</v>
       </c>
-      <c r="D61" s="7">
+      <c r="E64" s="7">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="E61" s="7">
+      <c r="F64" s="7">
         <v>72</v>
       </c>
-      <c r="F61" s="7">
+      <c r="G64" s="7">
         <v>9994.6419999999998</v>
       </c>
-      <c r="G61" s="7">
+      <c r="H64" s="7">
         <v>1608.7059999999999</v>
       </c>
-      <c r="H61" s="7">
+      <c r="I64" s="7">
         <v>4575.3310000000001</v>
       </c>
-      <c r="I61" s="7">
+      <c r="J64" s="7">
         <v>2828.3510000000001</v>
       </c>
-      <c r="J61" s="7">
+      <c r="K64" s="7">
         <v>2682.761</v>
       </c>
-      <c r="K61" s="7">
+      <c r="L64" s="7">
         <v>5549.9949999999999</v>
       </c>
-      <c r="L61" s="7">
-        <v>0</v>
-      </c>
-      <c r="M61" s="7">
+      <c r="M64" s="7"/>
+      <c r="N64" s="7">
         <v>3917.6479599999998</v>
       </c>
     </row>
-    <row r="62" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="8">
-        <v>43709</v>
-      </c>
-      <c r="C62" s="13">
-        <f t="shared" si="1"/>
+    <row r="65" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="26">
+        <v>2019</v>
+      </c>
+      <c r="C65" s="27">
+        <v>9</v>
+      </c>
+      <c r="D65" s="8">
+        <f t="shared" si="2"/>
         <v>29172.540249999998</v>
       </c>
-      <c r="D62" s="4">
+      <c r="E65" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E62" s="4">
+      <c r="F65" s="4">
         <v>54.752000000000002</v>
       </c>
-      <c r="F62" s="4">
+      <c r="G65" s="4">
         <v>9010.31</v>
       </c>
-      <c r="G62" s="4">
+      <c r="H65" s="4">
         <v>1396.2560000000001</v>
       </c>
-      <c r="H62" s="4">
+      <c r="I65" s="4">
         <v>5775.3389999999999</v>
       </c>
-      <c r="I62" s="4">
+      <c r="J65" s="4">
         <v>2331.1950000000002</v>
       </c>
-      <c r="J62" s="4">
+      <c r="K65" s="4">
         <v>2334.8119999999999</v>
       </c>
-      <c r="K62" s="4">
+      <c r="L65" s="4">
         <v>4893.7089999999998</v>
       </c>
-      <c r="L62" s="4">
-        <v>0</v>
-      </c>
-      <c r="M62" s="4">
+      <c r="M65" s="4"/>
+      <c r="N65" s="4">
         <v>3376.1322500000001</v>
       </c>
     </row>
-    <row r="63" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="9">
-        <v>43678</v>
-      </c>
-      <c r="C63" s="14">
-        <f t="shared" si="1"/>
+    <row r="66" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="24">
+        <v>2019</v>
+      </c>
+      <c r="C66" s="25">
+        <v>8</v>
+      </c>
+      <c r="D66" s="9">
+        <f t="shared" si="2"/>
         <v>28718.377859999997</v>
       </c>
-      <c r="D63" s="7">
+      <c r="E66" s="7">
         <v>5.59633</v>
       </c>
-      <c r="E63" s="7">
+      <c r="F66" s="7">
         <v>57.29</v>
       </c>
-      <c r="F63" s="7">
+      <c r="G66" s="7">
         <v>8610.5910000000003</v>
       </c>
-      <c r="G63" s="7">
+      <c r="H66" s="7">
         <v>1665.9570000000001</v>
       </c>
-      <c r="H63" s="7">
+      <c r="I66" s="7">
         <v>5196.0309999999999</v>
       </c>
-      <c r="I63" s="7">
+      <c r="J66" s="7">
         <v>2672.4050000000002</v>
       </c>
-      <c r="J63" s="7">
+      <c r="K66" s="7">
         <v>2511.7330000000002</v>
       </c>
-      <c r="K63" s="7">
+      <c r="L66" s="7">
         <v>4774.3459999999995</v>
       </c>
-      <c r="L63" s="7">
-        <v>0</v>
-      </c>
-      <c r="M63" s="7">
+      <c r="M66" s="7"/>
+      <c r="N66" s="7">
         <v>3224.4285300000001</v>
       </c>
     </row>
-    <row r="64" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="8">
-        <v>43647</v>
-      </c>
-      <c r="C64" s="13">
-        <f t="shared" si="1"/>
+    <row r="67" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="26">
+        <v>2019</v>
+      </c>
+      <c r="C67" s="27">
+        <v>7</v>
+      </c>
+      <c r="D67" s="8">
+        <f t="shared" si="2"/>
         <v>28707.78629</v>
       </c>
-      <c r="D64" s="4">
+      <c r="E67" s="4">
         <v>6.0529999999999999</v>
       </c>
-      <c r="E64" s="4">
+      <c r="F67" s="4">
         <v>57.801000000000002</v>
       </c>
-      <c r="F64" s="4">
+      <c r="G67" s="4">
         <v>8986.9670000000006</v>
       </c>
-      <c r="G64" s="4">
+      <c r="H67" s="4">
         <v>1788.191</v>
       </c>
-      <c r="H64" s="4">
+      <c r="I67" s="4">
         <v>5135.1639999999998</v>
       </c>
-      <c r="I64" s="4">
+      <c r="J67" s="4">
         <v>2578.5520000000001</v>
       </c>
-      <c r="J64" s="4">
+      <c r="K67" s="4">
         <v>2341.8049999999998</v>
       </c>
-      <c r="K64" s="4">
+      <c r="L67" s="4">
         <v>4798.0159999999996</v>
       </c>
-      <c r="L64" s="4">
-        <v>0</v>
-      </c>
-      <c r="M64" s="4">
+      <c r="M67" s="4"/>
+      <c r="N67" s="4">
         <v>3015.23729</v>
       </c>
     </row>
-    <row r="65" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="9">
-        <v>43617</v>
-      </c>
-      <c r="C65" s="14">
-        <f t="shared" si="1"/>
+    <row r="68" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="24">
+        <v>2019</v>
+      </c>
+      <c r="C68" s="25">
+        <v>6</v>
+      </c>
+      <c r="D68" s="9">
+        <f t="shared" si="2"/>
         <v>27292.410609999999</v>
       </c>
-      <c r="D65" s="7">
+      <c r="E68" s="7">
         <v>5.46</v>
       </c>
-      <c r="E65" s="7">
+      <c r="F68" s="7">
         <v>55.997999999999998</v>
       </c>
-      <c r="F65" s="7">
+      <c r="G68" s="7">
         <v>8069.7749999999996</v>
       </c>
-      <c r="G65" s="7">
+      <c r="H68" s="7">
         <v>1587.973</v>
       </c>
-      <c r="H65" s="7">
+      <c r="I68" s="7">
         <v>5215.268</v>
       </c>
-      <c r="I65" s="7">
+      <c r="J68" s="7">
         <v>2428.5169999999998</v>
       </c>
-      <c r="J65" s="7">
+      <c r="K68" s="7">
         <v>2360.0700000000002</v>
       </c>
-      <c r="K65" s="7">
+      <c r="L68" s="7">
         <v>4450.9750000000004</v>
       </c>
-      <c r="L65" s="7">
-        <v>0</v>
-      </c>
-      <c r="M65" s="7">
+      <c r="M68" s="7"/>
+      <c r="N68" s="7">
         <v>3118.3746100000003</v>
       </c>
     </row>
-    <row r="66" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="8">
-        <v>43586</v>
-      </c>
-      <c r="C66" s="13">
-        <f t="shared" si="1"/>
+    <row r="69" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="26">
+        <v>2019</v>
+      </c>
+      <c r="C69" s="27">
+        <v>5</v>
+      </c>
+      <c r="D69" s="8">
+        <f t="shared" si="2"/>
         <v>29113.054540000001</v>
       </c>
-      <c r="D66" s="4">
+      <c r="E69" s="4">
         <v>6.2110000000000003</v>
       </c>
-      <c r="E66" s="4">
+      <c r="F69" s="4">
         <v>67.53</v>
       </c>
-      <c r="F66" s="4">
+      <c r="G69" s="4">
         <v>8472.9789999999994</v>
       </c>
-      <c r="G66" s="4">
+      <c r="H69" s="4">
         <v>1708.221</v>
       </c>
-      <c r="H66" s="4">
+      <c r="I69" s="4">
         <v>5081.5749999999998</v>
       </c>
-      <c r="I66" s="4">
+      <c r="J69" s="4">
         <v>2646.9789999999998</v>
       </c>
-      <c r="J66" s="4">
+      <c r="K69" s="4">
         <v>2406.2260000000001</v>
       </c>
-      <c r="K66" s="4">
+      <c r="L69" s="4">
         <v>5332.5439999999999</v>
       </c>
-      <c r="L66" s="4">
-        <v>0</v>
-      </c>
-      <c r="M66" s="4">
+      <c r="M69" s="4"/>
+      <c r="N69" s="4">
         <v>3390.7895400000002</v>
       </c>
     </row>
-    <row r="67" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="9">
-        <v>43556</v>
-      </c>
-      <c r="C67" s="14">
-        <f t="shared" si="1"/>
+    <row r="70" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="24">
+        <v>2019</v>
+      </c>
+      <c r="C70" s="25">
+        <v>4</v>
+      </c>
+      <c r="D70" s="9">
+        <f t="shared" si="2"/>
         <v>31250.364179999997</v>
       </c>
-      <c r="D67" s="7">
+      <c r="E70" s="7">
         <v>7.8460000000000001</v>
       </c>
-      <c r="E67" s="7">
+      <c r="F70" s="7">
         <v>56.534999999999997</v>
       </c>
-      <c r="F67" s="7">
+      <c r="G70" s="7">
         <v>8624.3449999999993</v>
       </c>
-      <c r="G67" s="7">
+      <c r="H70" s="7">
         <v>1621.0229999999999</v>
       </c>
-      <c r="H67" s="7">
+      <c r="I70" s="7">
         <v>8671.3349999999991</v>
       </c>
-      <c r="I67" s="7">
+      <c r="J70" s="7">
         <v>2304.8890000000001</v>
       </c>
-      <c r="J67" s="7">
+      <c r="K70" s="7">
         <v>2447.4609999999998</v>
       </c>
-      <c r="K67" s="7">
+      <c r="L70" s="7">
         <v>4465.5820000000003</v>
       </c>
-      <c r="L67" s="7">
-        <v>0</v>
-      </c>
-      <c r="M67" s="7">
+      <c r="M70" s="7"/>
+      <c r="N70" s="7">
         <v>3051.34818</v>
       </c>
     </row>
-    <row r="68" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="8">
-        <v>43525</v>
-      </c>
-      <c r="C68" s="13">
-        <f t="shared" si="1"/>
+    <row r="71" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="26">
+        <v>2019</v>
+      </c>
+      <c r="C71" s="27">
+        <v>3</v>
+      </c>
+      <c r="D71" s="8">
+        <f t="shared" si="2"/>
         <v>31365.490560000002</v>
       </c>
-      <c r="D68" s="4">
+      <c r="E71" s="4">
         <v>5.36</v>
       </c>
-      <c r="E68" s="4">
+      <c r="F71" s="4">
         <v>59.417999999999999</v>
       </c>
-      <c r="F68" s="4">
+      <c r="G71" s="4">
         <v>9153.4</v>
       </c>
-      <c r="G68" s="4">
+      <c r="H71" s="4">
         <v>1573.4939999999999</v>
       </c>
-      <c r="H68" s="4">
+      <c r="I71" s="4">
         <v>7744.9759999999997</v>
       </c>
-      <c r="I68" s="4">
+      <c r="J71" s="4">
         <v>2483.4180000000001</v>
       </c>
-      <c r="J68" s="4">
+      <c r="K71" s="4">
         <v>2376.971</v>
       </c>
-      <c r="K68" s="4">
+      <c r="L71" s="4">
         <v>4955.9579999999996</v>
       </c>
-      <c r="L68" s="4">
-        <v>0</v>
-      </c>
-      <c r="M68" s="4">
+      <c r="M71" s="4"/>
+      <c r="N71" s="4">
         <v>3012.4955599999998</v>
       </c>
     </row>
-    <row r="69" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="9">
-        <v>43497</v>
-      </c>
-      <c r="C69" s="14">
-        <f t="shared" si="1"/>
+    <row r="72" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="24">
+        <v>2019</v>
+      </c>
+      <c r="C72" s="25">
+        <v>2</v>
+      </c>
+      <c r="D72" s="9">
+        <f t="shared" si="2"/>
         <v>27676.571899999999</v>
       </c>
-      <c r="D69" s="7">
+      <c r="E72" s="7">
         <v>5.3540000000000001</v>
       </c>
-      <c r="E69" s="7">
+      <c r="F72" s="7">
         <v>60.44</v>
       </c>
-      <c r="F69" s="7">
+      <c r="G72" s="7">
         <v>8240.6730000000007</v>
       </c>
-      <c r="G69" s="7">
+      <c r="H72" s="7">
         <v>1223.51</v>
       </c>
-      <c r="H69" s="7">
+      <c r="I72" s="7">
         <v>6582.1109999999999</v>
       </c>
-      <c r="I69" s="7">
+      <c r="J72" s="7">
         <v>2315.9119999999998</v>
       </c>
-      <c r="J69" s="7">
+      <c r="K72" s="7">
         <v>2451.8209999999999</v>
       </c>
-      <c r="K69" s="7">
+      <c r="L72" s="7">
         <v>3688.9839999999999</v>
       </c>
-      <c r="L69" s="7">
-        <v>0</v>
-      </c>
-      <c r="M69" s="7">
+      <c r="M72" s="7"/>
+      <c r="N72" s="7">
         <v>3107.7669000000001</v>
       </c>
     </row>
-    <row r="70" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="11">
-        <v>43466</v>
-      </c>
-      <c r="C70" s="15">
-        <f t="shared" ref="C70:C82" si="2">SUM(D70:M70)</f>
+    <row r="73" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="28">
+        <v>2019</v>
+      </c>
+      <c r="C73" s="29">
+        <v>1</v>
+      </c>
+      <c r="D73" s="10">
+        <f t="shared" ref="D73:D85" si="3">SUM(E73:N73)</f>
         <v>31729.582690000007</v>
       </c>
-      <c r="D70" s="6">
+      <c r="E73" s="6">
         <v>6.7610000000000001</v>
       </c>
-      <c r="E70" s="6">
+      <c r="F73" s="6">
         <v>74.009</v>
       </c>
-      <c r="F70" s="6">
+      <c r="G73" s="6">
         <v>7747.527</v>
       </c>
-      <c r="G70" s="6">
+      <c r="H73" s="6">
         <v>1196.4000000000001</v>
       </c>
-      <c r="H70" s="6">
+      <c r="I73" s="6">
         <v>8376.51</v>
       </c>
-      <c r="I70" s="6">
+      <c r="J73" s="6">
         <v>2613.239</v>
       </c>
-      <c r="J70" s="6">
+      <c r="K73" s="6">
         <v>4476.8249999999998</v>
       </c>
-      <c r="K70" s="6">
+      <c r="L73" s="6">
         <v>3965.1860000000001</v>
       </c>
-      <c r="L70" s="6">
-        <v>0</v>
-      </c>
-      <c r="M70" s="6">
+      <c r="M73" s="6"/>
+      <c r="N73" s="6">
         <v>3273.1256899999998</v>
       </c>
     </row>
-    <row r="71" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="10">
-        <v>43435</v>
-      </c>
-      <c r="C71" s="14">
-        <f t="shared" si="2"/>
+    <row r="74" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="25">
+        <v>2018</v>
+      </c>
+      <c r="C74" s="25">
+        <v>12</v>
+      </c>
+      <c r="D74" s="9">
+        <f t="shared" si="3"/>
         <v>27825.537</v>
       </c>
-      <c r="D71" s="7">
+      <c r="E74" s="7">
         <v>11.624000000000001</v>
       </c>
-      <c r="E71" s="7">
+      <c r="F74" s="7">
         <v>93.391999999999996</v>
       </c>
-      <c r="F71" s="7">
+      <c r="G74" s="7">
         <v>8828.0380000000005</v>
       </c>
-      <c r="G71" s="7">
+      <c r="H74" s="7">
         <v>1419.221</v>
       </c>
-      <c r="H71" s="7">
+      <c r="I74" s="7">
         <v>8160.1949999999997</v>
       </c>
-      <c r="I71" s="7">
+      <c r="J74" s="7">
         <v>2550.1379999999999</v>
       </c>
-      <c r="J71" s="7">
+      <c r="K74" s="7">
         <v>2539.4380000000001</v>
       </c>
-      <c r="K71" s="7">
+      <c r="L74" s="7">
         <v>4208.37</v>
       </c>
-      <c r="L71" s="7">
-        <v>0</v>
-      </c>
-      <c r="M71" s="7">
+      <c r="M74" s="7"/>
+      <c r="N74" s="7">
         <v>15.121</v>
       </c>
     </row>
-    <row r="72" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="12">
-        <v>43405</v>
-      </c>
-      <c r="C72" s="13">
-        <f t="shared" si="2"/>
+    <row r="75" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="27">
+        <v>2018</v>
+      </c>
+      <c r="C75" s="27">
+        <v>11</v>
+      </c>
+      <c r="D75" s="8">
+        <f t="shared" si="3"/>
         <v>30438.187000000005</v>
       </c>
-      <c r="D72" s="4">
+      <c r="E75" s="4">
         <v>9.8219999999999992</v>
       </c>
-      <c r="E72" s="4">
+      <c r="F75" s="4">
         <v>90.676000000000002</v>
       </c>
-      <c r="F72" s="4">
+      <c r="G75" s="4">
         <v>9033.7459999999992</v>
       </c>
-      <c r="G72" s="4">
+      <c r="H75" s="4">
         <v>1677.8789999999999</v>
       </c>
-      <c r="H72" s="4">
+      <c r="I75" s="4">
         <v>9087.1730000000007</v>
       </c>
-      <c r="I72" s="4">
+      <c r="J75" s="4">
         <v>2973.703</v>
       </c>
-      <c r="J72" s="4">
+      <c r="K75" s="4">
         <v>2449.9479999999999</v>
       </c>
-      <c r="K72" s="4">
+      <c r="L75" s="4">
         <v>5104.8959999999997</v>
       </c>
-      <c r="L72" s="4">
-        <v>0</v>
-      </c>
-      <c r="M72" s="4">
+      <c r="M75" s="4"/>
+      <c r="N75" s="4">
         <v>10.343999999999999</v>
       </c>
     </row>
-    <row r="73" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="10">
-        <v>43374</v>
-      </c>
-      <c r="C73" s="14">
-        <f t="shared" si="2"/>
+    <row r="76" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="25">
+        <v>2018</v>
+      </c>
+      <c r="C76" s="25">
+        <v>10</v>
+      </c>
+      <c r="D76" s="9">
+        <f t="shared" si="3"/>
         <v>30428.691999999999</v>
       </c>
-      <c r="D73" s="7">
+      <c r="E76" s="7">
         <v>8.2870000000000008</v>
       </c>
-      <c r="E73" s="7">
+      <c r="F76" s="7">
         <v>78.7</v>
       </c>
-      <c r="F73" s="7">
+      <c r="G76" s="7">
         <v>8819.0689999999995</v>
       </c>
-      <c r="G73" s="7">
+      <c r="H76" s="7">
         <v>1516.8230000000001</v>
       </c>
-      <c r="H73" s="7">
+      <c r="I76" s="7">
         <v>9777.8709999999992</v>
       </c>
-      <c r="I73" s="7">
+      <c r="J76" s="7">
         <v>2987.6489999999999</v>
       </c>
-      <c r="J73" s="7">
+      <c r="K76" s="7">
         <v>1751.569</v>
       </c>
-      <c r="K73" s="7">
+      <c r="L76" s="7">
         <v>5477.6930000000002</v>
       </c>
-      <c r="L73" s="7">
-        <v>0</v>
-      </c>
-      <c r="M73" s="7">
+      <c r="M76" s="7"/>
+      <c r="N76" s="7">
         <v>11.031000000000001</v>
       </c>
     </row>
-    <row r="74" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="12">
-        <v>43344</v>
-      </c>
-      <c r="C74" s="13">
-        <f t="shared" si="2"/>
+    <row r="77" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="27">
+        <v>2018</v>
+      </c>
+      <c r="C77" s="27">
+        <v>9</v>
+      </c>
+      <c r="D77" s="8">
+        <f t="shared" si="3"/>
         <v>27010.514999999999</v>
       </c>
-      <c r="D74" s="4">
+      <c r="E77" s="4">
         <v>10.707000000000001</v>
       </c>
-      <c r="E74" s="4">
+      <c r="F77" s="4">
         <v>62.167000000000002</v>
       </c>
-      <c r="F74" s="4">
+      <c r="G77" s="4">
         <v>8102.4960000000001</v>
       </c>
-      <c r="G74" s="4">
+      <c r="H77" s="4">
         <v>1416.539</v>
       </c>
-      <c r="H74" s="4">
+      <c r="I77" s="4">
         <v>8463.5859999999993</v>
       </c>
-      <c r="I74" s="4">
+      <c r="J77" s="4">
         <v>2463.84</v>
       </c>
-      <c r="J74" s="4">
+      <c r="K77" s="4">
         <v>1662.82</v>
       </c>
-      <c r="K74" s="4">
+      <c r="L77" s="4">
         <v>4814.68</v>
       </c>
-      <c r="L74" s="4">
-        <v>0</v>
-      </c>
-      <c r="M74" s="4">
+      <c r="M77" s="4"/>
+      <c r="N77" s="4">
         <v>13.68</v>
       </c>
     </row>
-    <row r="75" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="10">
-        <v>43313</v>
-      </c>
-      <c r="C75" s="14">
-        <f t="shared" si="2"/>
+    <row r="78" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="25">
+        <v>2018</v>
+      </c>
+      <c r="C78" s="25">
+        <v>8</v>
+      </c>
+      <c r="D78" s="9">
+        <f t="shared" si="3"/>
         <v>27455.597999999998</v>
       </c>
-      <c r="D75" s="7">
+      <c r="E78" s="7">
         <v>10.06</v>
       </c>
-      <c r="E75" s="7">
+      <c r="F78" s="7">
         <v>67.233999999999995</v>
       </c>
-      <c r="F75" s="7">
+      <c r="G78" s="7">
         <v>8035.7269999999999</v>
       </c>
-      <c r="G75" s="7">
+      <c r="H78" s="7">
         <v>1692.001</v>
       </c>
-      <c r="H75" s="7">
+      <c r="I78" s="7">
         <v>8464.9650000000001</v>
       </c>
-      <c r="I75" s="7">
+      <c r="J78" s="7">
         <v>2758.96</v>
       </c>
-      <c r="J75" s="7">
+      <c r="K78" s="7">
         <v>1732.587</v>
       </c>
-      <c r="K75" s="7">
+      <c r="L78" s="7">
         <v>4679.0959999999995</v>
       </c>
-      <c r="L75" s="7">
-        <v>0</v>
-      </c>
-      <c r="M75" s="7">
+      <c r="M78" s="7"/>
+      <c r="N78" s="7">
         <v>14.968</v>
       </c>
     </row>
-    <row r="76" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="12">
-        <v>43282</v>
-      </c>
-      <c r="C76" s="13">
-        <f t="shared" si="2"/>
+    <row r="79" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="27">
+        <v>2018</v>
+      </c>
+      <c r="C79" s="27">
+        <v>7</v>
+      </c>
+      <c r="D79" s="8">
+        <f t="shared" si="3"/>
         <v>27442.177</v>
       </c>
-      <c r="D76" s="4">
+      <c r="E79" s="4">
         <v>10.051</v>
       </c>
-      <c r="E76" s="4">
+      <c r="F79" s="4">
         <v>63.811</v>
       </c>
-      <c r="F76" s="4">
+      <c r="G79" s="4">
         <v>7722.7290000000003</v>
       </c>
-      <c r="G76" s="4">
+      <c r="H79" s="4">
         <v>1496.4</v>
       </c>
-      <c r="H76" s="4">
+      <c r="I79" s="4">
         <v>8747.1980000000003</v>
       </c>
-      <c r="I76" s="4">
+      <c r="J79" s="4">
         <v>2551.65</v>
       </c>
-      <c r="J76" s="4">
+      <c r="K79" s="4">
         <v>1697.7090000000001</v>
       </c>
-      <c r="K76" s="4">
+      <c r="L79" s="4">
         <v>5136.6130000000003</v>
       </c>
-      <c r="L76" s="4">
-        <v>0</v>
-      </c>
-      <c r="M76" s="4">
+      <c r="M79" s="4"/>
+      <c r="N79" s="4">
         <v>16.015999999999998</v>
       </c>
     </row>
-    <row r="77" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="10">
-        <v>43252</v>
-      </c>
-      <c r="C77" s="14">
-        <f t="shared" si="2"/>
+    <row r="80" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="25">
+        <v>2018</v>
+      </c>
+      <c r="C80" s="25">
+        <v>6</v>
+      </c>
+      <c r="D80" s="9">
+        <f t="shared" si="3"/>
         <v>27934.611100000002</v>
       </c>
-      <c r="D77" s="7">
+      <c r="E80" s="7">
         <v>5.8701000000000008</v>
       </c>
-      <c r="E77" s="7">
+      <c r="F80" s="7">
         <v>68.567999999999998</v>
       </c>
-      <c r="F77" s="7">
+      <c r="G80" s="7">
         <v>7714.4070000000002</v>
       </c>
-      <c r="G77" s="7">
+      <c r="H80" s="7">
         <v>1561.0450000000001</v>
       </c>
-      <c r="H77" s="7">
+      <c r="I80" s="7">
         <v>8940.5429999999997</v>
       </c>
-      <c r="I77" s="7">
+      <c r="J80" s="7">
         <v>2632.7139999999999</v>
       </c>
-      <c r="J77" s="7">
+      <c r="K80" s="7">
         <v>1889.998</v>
       </c>
-      <c r="K77" s="7">
+      <c r="L80" s="7">
         <v>5110.2619999999997</v>
       </c>
-      <c r="L77" s="7">
-        <v>0</v>
-      </c>
-      <c r="M77" s="7">
+      <c r="M80" s="7"/>
+      <c r="N80" s="7">
         <v>11.204000000000001</v>
       </c>
     </row>
-    <row r="78" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="12">
-        <v>43221</v>
-      </c>
-      <c r="C78" s="13">
-        <f t="shared" si="2"/>
+    <row r="81" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="27">
+        <v>2018</v>
+      </c>
+      <c r="C81" s="27">
+        <v>5</v>
+      </c>
+      <c r="D81" s="8">
+        <f t="shared" si="3"/>
         <v>28918.192660000001</v>
       </c>
-      <c r="D78" s="4">
+      <c r="E81" s="4">
         <v>7.8816600000000001</v>
       </c>
-      <c r="E78" s="4">
+      <c r="F81" s="4">
         <v>82.861999999999995</v>
       </c>
-      <c r="F78" s="4">
+      <c r="G81" s="4">
         <v>8118.165</v>
       </c>
-      <c r="G78" s="4">
+      <c r="H81" s="4">
         <v>1532.5719999999999</v>
       </c>
-      <c r="H78" s="4">
+      <c r="I81" s="4">
         <v>8129.585</v>
       </c>
-      <c r="I78" s="4">
+      <c r="J81" s="4">
         <v>2956.08</v>
       </c>
-      <c r="J78" s="4">
+      <c r="K81" s="4">
         <v>1988.6780000000001</v>
       </c>
-      <c r="K78" s="4">
+      <c r="L81" s="4">
         <v>6089.1620000000003</v>
       </c>
-      <c r="L78" s="4">
-        <v>0</v>
-      </c>
-      <c r="M78" s="4">
+      <c r="M81" s="4"/>
+      <c r="N81" s="4">
         <v>13.207000000000001</v>
       </c>
     </row>
-    <row r="79" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="10">
-        <v>43191</v>
-      </c>
-      <c r="C79" s="14">
-        <f t="shared" si="2"/>
+    <row r="82" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="25">
+        <v>2018</v>
+      </c>
+      <c r="C82" s="25">
+        <v>4</v>
+      </c>
+      <c r="D82" s="9">
+        <f t="shared" si="3"/>
         <v>29273.39678000001</v>
       </c>
-      <c r="D79" s="7">
+      <c r="E82" s="7">
         <v>9.12378</v>
       </c>
-      <c r="E79" s="7">
+      <c r="F82" s="7">
         <v>60.970999999999997</v>
       </c>
-      <c r="F79" s="7">
+      <c r="G82" s="7">
         <v>7926.723</v>
       </c>
-      <c r="G79" s="7">
+      <c r="H82" s="7">
         <v>1477.489</v>
       </c>
-      <c r="H79" s="7">
+      <c r="I82" s="7">
         <v>9672.3250000000007</v>
       </c>
-      <c r="I79" s="7">
+      <c r="J82" s="7">
         <v>2860.578</v>
       </c>
-      <c r="J79" s="7">
+      <c r="K82" s="7">
         <v>1829.883</v>
       </c>
-      <c r="K79" s="7">
+      <c r="L82" s="7">
         <v>5423.6540000000005</v>
       </c>
-      <c r="L79" s="7">
-        <v>0</v>
-      </c>
-      <c r="M79" s="7">
+      <c r="M82" s="7"/>
+      <c r="N82" s="7">
         <v>12.65</v>
       </c>
     </row>
-    <row r="80" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="12">
-        <v>43160</v>
-      </c>
-      <c r="C80" s="13">
-        <f t="shared" si="2"/>
+    <row r="83" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="27">
+        <v>2018</v>
+      </c>
+      <c r="C83" s="27">
+        <v>3</v>
+      </c>
+      <c r="D83" s="8">
+        <f t="shared" si="3"/>
         <v>30126.28328</v>
       </c>
-      <c r="D80" s="4">
+      <c r="E83" s="4">
         <v>8.1962799999999998</v>
       </c>
-      <c r="E80" s="4">
+      <c r="F83" s="4">
         <v>71.811000000000007</v>
       </c>
-      <c r="F80" s="4">
+      <c r="G83" s="4">
         <v>8844.2019999999993</v>
       </c>
-      <c r="G80" s="4">
+      <c r="H83" s="4">
         <v>1647.098</v>
       </c>
-      <c r="H80" s="4">
+      <c r="I83" s="4">
         <v>9860.2800000000007</v>
       </c>
-      <c r="I80" s="4">
+      <c r="J83" s="4">
         <v>2743.1410000000001</v>
       </c>
-      <c r="J80" s="4">
+      <c r="K83" s="4">
         <v>1551.7840000000001</v>
       </c>
-      <c r="K80" s="4">
+      <c r="L83" s="4">
         <v>5387.3890000000001</v>
       </c>
-      <c r="L80" s="4">
-        <v>0</v>
-      </c>
-      <c r="M80" s="4">
+      <c r="M83" s="4"/>
+      <c r="N83" s="4">
         <v>12.382</v>
       </c>
     </row>
-    <row r="81" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="10">
-        <v>43132</v>
-      </c>
-      <c r="C81" s="14">
-        <f t="shared" si="2"/>
+    <row r="84" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="25">
+        <v>2018</v>
+      </c>
+      <c r="C84" s="25">
+        <v>2</v>
+      </c>
+      <c r="D84" s="9">
+        <f t="shared" si="3"/>
         <v>25208.202900000004</v>
       </c>
-      <c r="D81" s="7">
+      <c r="E84" s="7">
         <v>6.7148999999999992</v>
       </c>
-      <c r="E81" s="7">
+      <c r="F84" s="7">
         <v>59.457000000000001</v>
       </c>
-      <c r="F81" s="7">
+      <c r="G84" s="7">
         <v>7977.2039999999997</v>
       </c>
-      <c r="G81" s="7">
+      <c r="H84" s="7">
         <v>1378.8910000000001</v>
       </c>
-      <c r="H81" s="7">
+      <c r="I84" s="7">
         <v>7402.5730000000003</v>
       </c>
-      <c r="I81" s="7">
+      <c r="J84" s="7">
         <v>2577</v>
       </c>
-      <c r="J81" s="7">
+      <c r="K84" s="7">
         <v>1364.6120000000001</v>
       </c>
-      <c r="K81" s="7">
+      <c r="L84" s="7">
         <v>4430.4210000000003</v>
       </c>
-      <c r="L81" s="7">
-        <v>0</v>
-      </c>
-      <c r="M81" s="7">
+      <c r="M84" s="7"/>
+      <c r="N84" s="7">
         <v>11.33</v>
       </c>
     </row>
-    <row r="82" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="12">
-        <v>43101</v>
-      </c>
-      <c r="C82" s="13">
-        <f t="shared" si="2"/>
+    <row r="85" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="27">
+        <v>2018</v>
+      </c>
+      <c r="C85" s="27">
+        <v>1</v>
+      </c>
+      <c r="D85" s="8">
+        <f t="shared" si="3"/>
         <v>25018.165999999997</v>
       </c>
-      <c r="D82" s="4">
+      <c r="E85" s="4">
         <v>6.9589999999999996</v>
       </c>
-      <c r="E82" s="4">
+      <c r="F85" s="4">
         <v>66.08</v>
       </c>
-      <c r="F82" s="4">
+      <c r="G85" s="4">
         <v>7737.0140000000001</v>
       </c>
-      <c r="G82" s="4">
+      <c r="H85" s="4">
         <v>1410.72</v>
       </c>
-      <c r="H82" s="4">
+      <c r="I85" s="4">
         <v>6932.2910000000002</v>
       </c>
-      <c r="I82" s="4">
+      <c r="J85" s="4">
         <v>2789.42</v>
       </c>
-      <c r="J82" s="4">
+      <c r="K85" s="4">
         <v>1379.2329999999999</v>
       </c>
-      <c r="K82" s="4">
+      <c r="L85" s="4">
         <v>4684.1959999999999</v>
       </c>
-      <c r="L82" s="4">
-        <v>0</v>
-      </c>
-      <c r="M82" s="4">
+      <c r="M85" s="4"/>
+      <c r="N85" s="4">
         <v>12.253</v>
       </c>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B83" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B84" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="M84" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B85" s="28" t="s">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B86" s="17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B86" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="C93" s="28"/>
+      <c r="C86" s="17"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B87" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" s="17"/>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B88" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="17"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B89" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B90" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="D96" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="E4:N4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Carga_por_aerolinea_nac.xlsx
+++ b/Carga_por_aerolinea_nac.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A89F9B2-D293-4509-85D5-04DF188D896C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CEBE06-E663-47A9-B46A-4DE097AC56F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="33">
   <si>
     <t>Total</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Aeroméxico Connect (Aerolitoral)</t>
-  </si>
-  <si>
-    <t>Aerounión (Aerotransportes de Carga Union)</t>
   </si>
   <si>
     <t>Estafeta (Carga Aérea)</t>
@@ -99,6 +96,45 @@
   </si>
   <si>
     <t>Aerolíneas</t>
+  </si>
+  <si>
+    <t>Aerounión (Aerotransportes de Carga Unión)</t>
+  </si>
+  <si>
+    <t>Ago.</t>
+  </si>
+  <si>
+    <t>Jul.</t>
+  </si>
+  <si>
+    <t>Jun.</t>
+  </si>
+  <si>
+    <t>May.</t>
+  </si>
+  <si>
+    <t>Abr.</t>
+  </si>
+  <si>
+    <t>Mar.</t>
+  </si>
+  <si>
+    <t>Feb.</t>
+  </si>
+  <si>
+    <t>Ene.</t>
+  </si>
+  <si>
+    <t>Dic.</t>
+  </si>
+  <si>
+    <t>Nov.</t>
+  </si>
+  <si>
+    <t>Oct.</t>
+  </si>
+  <si>
+    <t>Sep.</t>
   </si>
 </sst>
 </file>
@@ -380,15 +416,6 @@
     <xf numFmtId="1" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -412,6 +439,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -481,6 +517,12 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -488,12 +530,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -549,7 +585,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:N85" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:N85" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13">
   <autoFilter ref="B5:N85" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
@@ -568,7 +604,7 @@
     <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Aeromar" dataDxfId="8"/>
     <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Aeroméxico (Aerovías de México)" dataDxfId="7"/>
     <tableColumn id="6" xr3:uid="{A869730C-1719-4A70-8838-10376967FD05}" name="Aeroméxico Connect (Aerolitoral)" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{523CBB34-1DEE-445B-8474-FD8E64117197}" name="Aerounión (Aerotransportes de Carga Union)" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{523CBB34-1DEE-445B-8474-FD8E64117197}" name="Aerounión (Aerotransportes de Carga Unión)" dataDxfId="5"/>
     <tableColumn id="8" xr3:uid="{631795EF-E72C-4257-9376-F3F950D2CD24}" name="Estafeta (Carga Aérea)" dataDxfId="4"/>
     <tableColumn id="9" xr3:uid="{7825E645-762A-41A2-B4FE-F68035B408F7}" name="Interjet (ABC Aerolíneas)" dataDxfId="3"/>
     <tableColumn id="10" xr3:uid="{ABE62262-6A70-4763-8581-1FC262023BDA}" name="Mas Air (Más de Carga)" dataDxfId="2"/>
@@ -828,7 +864,7 @@
   <sheetData>
     <row r="2" spans="2:14" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -844,25 +880,25 @@
       <c r="B4" s="14"/>
       <c r="C4" s="20"/>
       <c r="D4" s="13"/>
-      <c r="E4" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="23"/>
+      <c r="E4" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="31"/>
     </row>
     <row r="5" spans="2:14" ht="54" x14ac:dyDescent="0.35">
       <c r="B5" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>0</v>
@@ -880,30 +916,30 @@
         <v>6</v>
       </c>
       <c r="I5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="K5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="L5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="M5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="N5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="16" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B6" s="24">
+      <c r="B6" s="21">
         <v>2024</v>
       </c>
-      <c r="C6" s="25">
-        <v>8</v>
+      <c r="C6" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" ref="D6:D40" si="0">SUM(E6:N6)</f>
@@ -935,11 +971,11 @@
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B7" s="26">
+      <c r="B7" s="23">
         <v>2024</v>
       </c>
-      <c r="C7" s="27">
-        <v>7</v>
+      <c r="C7" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" ref="D7:D9" si="1">SUM(E7:N7)</f>
@@ -971,11 +1007,11 @@
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B8" s="24">
+      <c r="B8" s="21">
         <v>2024</v>
       </c>
-      <c r="C8" s="25">
-        <v>6</v>
+      <c r="C8" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="1"/>
@@ -1007,11 +1043,11 @@
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="26">
+      <c r="B9" s="23">
         <v>2024</v>
       </c>
-      <c r="C9" s="27">
-        <v>5</v>
+      <c r="C9" s="24" t="s">
+        <v>24</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" si="1"/>
@@ -1043,11 +1079,11 @@
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B10" s="24">
+      <c r="B10" s="21">
         <v>2024</v>
       </c>
-      <c r="C10" s="25">
-        <v>4</v>
+      <c r="C10" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
@@ -1079,11 +1115,11 @@
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B11" s="26">
+      <c r="B11" s="23">
         <v>2024</v>
       </c>
-      <c r="C11" s="27">
-        <v>3</v>
+      <c r="C11" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="D11" s="8">
         <f t="shared" si="0"/>
@@ -1115,11 +1151,11 @@
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B12" s="24">
+      <c r="B12" s="21">
         <v>2024</v>
       </c>
-      <c r="C12" s="25">
-        <v>2</v>
+      <c r="C12" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
@@ -1151,11 +1187,11 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B13" s="28">
+      <c r="B13" s="25">
         <v>2024</v>
       </c>
-      <c r="C13" s="29">
-        <v>1</v>
+      <c r="C13" s="26" t="s">
+        <v>28</v>
       </c>
       <c r="D13" s="10">
         <f t="shared" si="0"/>
@@ -1187,11 +1223,11 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B14" s="30">
+      <c r="B14" s="27">
         <v>2023</v>
       </c>
-      <c r="C14" s="31">
-        <v>12</v>
+      <c r="C14" s="28" t="s">
+        <v>29</v>
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
@@ -1225,11 +1261,11 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B15" s="26">
+      <c r="B15" s="23">
         <v>2023</v>
       </c>
-      <c r="C15" s="27">
-        <v>11</v>
+      <c r="C15" s="24" t="s">
+        <v>30</v>
       </c>
       <c r="D15" s="8">
         <f t="shared" si="0"/>
@@ -1263,11 +1299,11 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B16" s="24">
+      <c r="B16" s="21">
         <v>2023</v>
       </c>
-      <c r="C16" s="25">
-        <v>10</v>
+      <c r="C16" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="D16" s="9">
         <f t="shared" si="0"/>
@@ -1301,11 +1337,11 @@
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B17" s="26">
+      <c r="B17" s="23">
         <v>2023</v>
       </c>
-      <c r="C17" s="27">
-        <v>9</v>
+      <c r="C17" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="D17" s="8">
         <f t="shared" si="0"/>
@@ -1339,11 +1375,11 @@
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B18" s="24">
+      <c r="B18" s="21">
         <v>2023</v>
       </c>
-      <c r="C18" s="25">
-        <v>8</v>
+      <c r="C18" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="D18" s="9">
         <f t="shared" si="0"/>
@@ -1377,11 +1413,11 @@
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B19" s="26">
+      <c r="B19" s="23">
         <v>2023</v>
       </c>
-      <c r="C19" s="27">
-        <v>7</v>
+      <c r="C19" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="D19" s="8">
         <f t="shared" si="0"/>
@@ -1415,11 +1451,11 @@
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B20" s="24">
+      <c r="B20" s="21">
         <v>2023</v>
       </c>
-      <c r="C20" s="25">
-        <v>6</v>
+      <c r="C20" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="D20" s="9">
         <f t="shared" si="0"/>
@@ -1453,11 +1489,11 @@
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B21" s="26">
+      <c r="B21" s="23">
         <v>2023</v>
       </c>
-      <c r="C21" s="27">
-        <v>5</v>
+      <c r="C21" s="24" t="s">
+        <v>24</v>
       </c>
       <c r="D21" s="8">
         <f t="shared" si="0"/>
@@ -1491,11 +1527,11 @@
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B22" s="24">
+      <c r="B22" s="21">
         <v>2023</v>
       </c>
-      <c r="C22" s="25">
-        <v>4</v>
+      <c r="C22" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="D22" s="9">
         <f t="shared" si="0"/>
@@ -1529,11 +1565,11 @@
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B23" s="26">
+      <c r="B23" s="23">
         <v>2023</v>
       </c>
-      <c r="C23" s="27">
-        <v>3</v>
+      <c r="C23" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="D23" s="8">
         <f t="shared" si="0"/>
@@ -1567,11 +1603,11 @@
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B24" s="24">
+      <c r="B24" s="21">
         <v>2023</v>
       </c>
-      <c r="C24" s="25">
-        <v>2</v>
+      <c r="C24" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="D24" s="9">
         <f t="shared" si="0"/>
@@ -1605,11 +1641,11 @@
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B25" s="28">
+      <c r="B25" s="25">
         <v>2023</v>
       </c>
-      <c r="C25" s="29">
-        <v>1</v>
+      <c r="C25" s="26" t="s">
+        <v>28</v>
       </c>
       <c r="D25" s="10">
         <f t="shared" si="0"/>
@@ -1643,11 +1679,11 @@
       </c>
     </row>
     <row r="26" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="30">
+      <c r="B26" s="27">
         <v>2022</v>
       </c>
-      <c r="C26" s="31">
-        <v>12</v>
+      <c r="C26" s="28" t="s">
+        <v>29</v>
       </c>
       <c r="D26" s="11">
         <f t="shared" si="0"/>
@@ -1683,11 +1719,11 @@
       </c>
     </row>
     <row r="27" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="26">
+      <c r="B27" s="23">
         <v>2022</v>
       </c>
-      <c r="C27" s="27">
-        <v>11</v>
+      <c r="C27" s="24" t="s">
+        <v>30</v>
       </c>
       <c r="D27" s="8">
         <f t="shared" si="0"/>
@@ -1723,11 +1759,11 @@
       </c>
     </row>
     <row r="28" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="24">
+      <c r="B28" s="21">
         <v>2022</v>
       </c>
-      <c r="C28" s="25">
-        <v>10</v>
+      <c r="C28" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="D28" s="9">
         <f t="shared" si="0"/>
@@ -1763,11 +1799,11 @@
       </c>
     </row>
     <row r="29" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="26">
+      <c r="B29" s="23">
         <v>2022</v>
       </c>
-      <c r="C29" s="27">
-        <v>9</v>
+      <c r="C29" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="D29" s="8">
         <f t="shared" si="0"/>
@@ -1803,11 +1839,11 @@
       </c>
     </row>
     <row r="30" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="24">
+      <c r="B30" s="21">
         <v>2022</v>
       </c>
-      <c r="C30" s="25">
-        <v>8</v>
+      <c r="C30" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="D30" s="9">
         <f t="shared" si="0"/>
@@ -1843,11 +1879,11 @@
       </c>
     </row>
     <row r="31" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="26">
+      <c r="B31" s="23">
         <v>2022</v>
       </c>
-      <c r="C31" s="27">
-        <v>7</v>
+      <c r="C31" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="D31" s="8">
         <f t="shared" si="0"/>
@@ -1883,11 +1919,11 @@
       </c>
     </row>
     <row r="32" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="24">
+      <c r="B32" s="21">
         <v>2022</v>
       </c>
-      <c r="C32" s="25">
-        <v>6</v>
+      <c r="C32" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="D32" s="9">
         <f t="shared" si="0"/>
@@ -1923,11 +1959,11 @@
       </c>
     </row>
     <row r="33" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="26">
+      <c r="B33" s="23">
         <v>2022</v>
       </c>
-      <c r="C33" s="27">
-        <v>5</v>
+      <c r="C33" s="24" t="s">
+        <v>24</v>
       </c>
       <c r="D33" s="8">
         <f t="shared" si="0"/>
@@ -1963,11 +1999,11 @@
       </c>
     </row>
     <row r="34" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="24">
+      <c r="B34" s="21">
         <v>2022</v>
       </c>
-      <c r="C34" s="25">
-        <v>4</v>
+      <c r="C34" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="D34" s="9">
         <f t="shared" si="0"/>
@@ -2003,11 +2039,11 @@
       </c>
     </row>
     <row r="35" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="26">
+      <c r="B35" s="23">
         <v>2022</v>
       </c>
-      <c r="C35" s="27">
-        <v>3</v>
+      <c r="C35" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="D35" s="8">
         <f t="shared" si="0"/>
@@ -2043,11 +2079,11 @@
       </c>
     </row>
     <row r="36" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="24">
+      <c r="B36" s="21">
         <v>2022</v>
       </c>
-      <c r="C36" s="25">
-        <v>2</v>
+      <c r="C36" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="D36" s="9">
         <f t="shared" si="0"/>
@@ -2083,11 +2119,11 @@
       </c>
     </row>
     <row r="37" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="28">
+      <c r="B37" s="25">
         <v>2022</v>
       </c>
-      <c r="C37" s="29">
-        <v>1</v>
+      <c r="C37" s="26" t="s">
+        <v>28</v>
       </c>
       <c r="D37" s="10">
         <f t="shared" si="0"/>
@@ -2123,11 +2159,11 @@
       </c>
     </row>
     <row r="38" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="30">
+      <c r="B38" s="27">
         <v>2021</v>
       </c>
-      <c r="C38" s="31">
-        <v>12</v>
+      <c r="C38" s="28" t="s">
+        <v>29</v>
       </c>
       <c r="D38" s="11">
         <f t="shared" si="0"/>
@@ -2163,11 +2199,11 @@
       </c>
     </row>
     <row r="39" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="26">
+      <c r="B39" s="23">
         <v>2021</v>
       </c>
-      <c r="C39" s="27">
-        <v>11</v>
+      <c r="C39" s="24" t="s">
+        <v>30</v>
       </c>
       <c r="D39" s="8">
         <f t="shared" si="0"/>
@@ -2203,11 +2239,11 @@
       </c>
     </row>
     <row r="40" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="24">
+      <c r="B40" s="21">
         <v>2021</v>
       </c>
-      <c r="C40" s="25">
-        <v>10</v>
+      <c r="C40" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="D40" s="9">
         <f t="shared" si="0"/>
@@ -2243,11 +2279,11 @@
       </c>
     </row>
     <row r="41" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="26">
+      <c r="B41" s="23">
         <v>2021</v>
       </c>
-      <c r="C41" s="27">
-        <v>9</v>
+      <c r="C41" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="D41" s="8">
         <f t="shared" ref="D41:D72" si="2">SUM(E41:N41)</f>
@@ -2283,11 +2319,11 @@
       </c>
     </row>
     <row r="42" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="24">
+      <c r="B42" s="21">
         <v>2021</v>
       </c>
-      <c r="C42" s="25">
-        <v>8</v>
+      <c r="C42" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="D42" s="9">
         <f t="shared" si="2"/>
@@ -2323,11 +2359,11 @@
       </c>
     </row>
     <row r="43" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="26">
+      <c r="B43" s="23">
         <v>2021</v>
       </c>
-      <c r="C43" s="27">
-        <v>7</v>
+      <c r="C43" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="D43" s="8">
         <f t="shared" si="2"/>
@@ -2363,11 +2399,11 @@
       </c>
     </row>
     <row r="44" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="24">
+      <c r="B44" s="21">
         <v>2021</v>
       </c>
-      <c r="C44" s="25">
-        <v>6</v>
+      <c r="C44" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="D44" s="9">
         <f t="shared" si="2"/>
@@ -2403,11 +2439,11 @@
       </c>
     </row>
     <row r="45" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="26">
+      <c r="B45" s="23">
         <v>2021</v>
       </c>
-      <c r="C45" s="27">
-        <v>5</v>
+      <c r="C45" s="24" t="s">
+        <v>24</v>
       </c>
       <c r="D45" s="8">
         <f t="shared" si="2"/>
@@ -2443,11 +2479,11 @@
       </c>
     </row>
     <row r="46" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="24">
+      <c r="B46" s="21">
         <v>2021</v>
       </c>
-      <c r="C46" s="25">
-        <v>4</v>
+      <c r="C46" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="D46" s="9">
         <f t="shared" si="2"/>
@@ -2483,11 +2519,11 @@
       </c>
     </row>
     <row r="47" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="26">
+      <c r="B47" s="23">
         <v>2021</v>
       </c>
-      <c r="C47" s="27">
-        <v>3</v>
+      <c r="C47" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="D47" s="8">
         <f t="shared" si="2"/>
@@ -2523,11 +2559,11 @@
       </c>
     </row>
     <row r="48" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="24">
+      <c r="B48" s="21">
         <v>2021</v>
       </c>
-      <c r="C48" s="25">
-        <v>2</v>
+      <c r="C48" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="D48" s="9">
         <f t="shared" si="2"/>
@@ -2563,11 +2599,11 @@
       </c>
     </row>
     <row r="49" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="28">
+      <c r="B49" s="25">
         <v>2021</v>
       </c>
-      <c r="C49" s="29">
-        <v>1</v>
+      <c r="C49" s="26" t="s">
+        <v>28</v>
       </c>
       <c r="D49" s="10">
         <f t="shared" si="2"/>
@@ -2603,11 +2639,11 @@
       </c>
     </row>
     <row r="50" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="30">
+      <c r="B50" s="27">
         <v>2020</v>
       </c>
-      <c r="C50" s="31">
-        <v>12</v>
+      <c r="C50" s="28" t="s">
+        <v>29</v>
       </c>
       <c r="D50" s="11">
         <f t="shared" si="2"/>
@@ -2645,11 +2681,11 @@
       </c>
     </row>
     <row r="51" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="26">
+      <c r="B51" s="23">
         <v>2020</v>
       </c>
-      <c r="C51" s="27">
-        <v>11</v>
+      <c r="C51" s="24" t="s">
+        <v>30</v>
       </c>
       <c r="D51" s="8">
         <f t="shared" si="2"/>
@@ -2687,11 +2723,11 @@
       </c>
     </row>
     <row r="52" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="24">
+      <c r="B52" s="21">
         <v>2020</v>
       </c>
-      <c r="C52" s="25">
-        <v>10</v>
+      <c r="C52" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="D52" s="9">
         <f t="shared" si="2"/>
@@ -2729,11 +2765,11 @@
       </c>
     </row>
     <row r="53" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="26">
+      <c r="B53" s="23">
         <v>2020</v>
       </c>
-      <c r="C53" s="27">
-        <v>9</v>
+      <c r="C53" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="D53" s="8">
         <f t="shared" si="2"/>
@@ -2771,11 +2807,11 @@
       </c>
     </row>
     <row r="54" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="24">
+      <c r="B54" s="21">
         <v>2020</v>
       </c>
-      <c r="C54" s="25">
-        <v>8</v>
+      <c r="C54" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="D54" s="9">
         <f t="shared" si="2"/>
@@ -2813,11 +2849,11 @@
       </c>
     </row>
     <row r="55" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="26">
+      <c r="B55" s="23">
         <v>2020</v>
       </c>
-      <c r="C55" s="27">
-        <v>7</v>
+      <c r="C55" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="D55" s="8">
         <f t="shared" si="2"/>
@@ -2855,11 +2891,11 @@
       </c>
     </row>
     <row r="56" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="24">
+      <c r="B56" s="21">
         <v>2020</v>
       </c>
-      <c r="C56" s="25">
-        <v>6</v>
+      <c r="C56" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="D56" s="9">
         <f t="shared" si="2"/>
@@ -2897,11 +2933,11 @@
       </c>
     </row>
     <row r="57" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="26">
+      <c r="B57" s="23">
         <v>2020</v>
       </c>
-      <c r="C57" s="27">
-        <v>5</v>
+      <c r="C57" s="24" t="s">
+        <v>24</v>
       </c>
       <c r="D57" s="8">
         <f t="shared" si="2"/>
@@ -2939,11 +2975,11 @@
       </c>
     </row>
     <row r="58" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="24">
+      <c r="B58" s="21">
         <v>2020</v>
       </c>
-      <c r="C58" s="25">
-        <v>4</v>
+      <c r="C58" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="D58" s="9">
         <f t="shared" si="2"/>
@@ -2981,11 +3017,11 @@
       </c>
     </row>
     <row r="59" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="26">
+      <c r="B59" s="23">
         <v>2020</v>
       </c>
-      <c r="C59" s="27">
-        <v>3</v>
+      <c r="C59" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="D59" s="8">
         <f t="shared" si="2"/>
@@ -3023,11 +3059,11 @@
       </c>
     </row>
     <row r="60" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="24">
+      <c r="B60" s="21">
         <v>2020</v>
       </c>
-      <c r="C60" s="25">
-        <v>2</v>
+      <c r="C60" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="D60" s="9">
         <f t="shared" si="2"/>
@@ -3065,11 +3101,11 @@
       </c>
     </row>
     <row r="61" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="28">
+      <c r="B61" s="25">
         <v>2020</v>
       </c>
-      <c r="C61" s="29">
-        <v>1</v>
+      <c r="C61" s="26" t="s">
+        <v>28</v>
       </c>
       <c r="D61" s="10">
         <f t="shared" si="2"/>
@@ -3107,11 +3143,11 @@
       </c>
     </row>
     <row r="62" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="30">
+      <c r="B62" s="27">
         <v>2019</v>
       </c>
-      <c r="C62" s="31">
-        <v>12</v>
+      <c r="C62" s="28" t="s">
+        <v>29</v>
       </c>
       <c r="D62" s="11">
         <f t="shared" si="2"/>
@@ -3149,11 +3185,11 @@
       </c>
     </row>
     <row r="63" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="26">
+      <c r="B63" s="23">
         <v>2019</v>
       </c>
-      <c r="C63" s="27">
-        <v>11</v>
+      <c r="C63" s="24" t="s">
+        <v>30</v>
       </c>
       <c r="D63" s="8">
         <f t="shared" si="2"/>
@@ -3191,11 +3227,11 @@
       </c>
     </row>
     <row r="64" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="24">
+      <c r="B64" s="21">
         <v>2019</v>
       </c>
-      <c r="C64" s="25">
-        <v>10</v>
+      <c r="C64" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="D64" s="9">
         <f t="shared" si="2"/>
@@ -3231,11 +3267,11 @@
       </c>
     </row>
     <row r="65" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="26">
+      <c r="B65" s="23">
         <v>2019</v>
       </c>
-      <c r="C65" s="27">
-        <v>9</v>
+      <c r="C65" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="D65" s="8">
         <f t="shared" si="2"/>
@@ -3271,11 +3307,11 @@
       </c>
     </row>
     <row r="66" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="24">
+      <c r="B66" s="21">
         <v>2019</v>
       </c>
-      <c r="C66" s="25">
-        <v>8</v>
+      <c r="C66" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="D66" s="9">
         <f t="shared" si="2"/>
@@ -3311,11 +3347,11 @@
       </c>
     </row>
     <row r="67" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="26">
+      <c r="B67" s="23">
         <v>2019</v>
       </c>
-      <c r="C67" s="27">
-        <v>7</v>
+      <c r="C67" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="D67" s="8">
         <f t="shared" si="2"/>
@@ -3351,11 +3387,11 @@
       </c>
     </row>
     <row r="68" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="24">
+      <c r="B68" s="21">
         <v>2019</v>
       </c>
-      <c r="C68" s="25">
-        <v>6</v>
+      <c r="C68" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="D68" s="9">
         <f t="shared" si="2"/>
@@ -3391,11 +3427,11 @@
       </c>
     </row>
     <row r="69" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="26">
+      <c r="B69" s="23">
         <v>2019</v>
       </c>
-      <c r="C69" s="27">
-        <v>5</v>
+      <c r="C69" s="24" t="s">
+        <v>24</v>
       </c>
       <c r="D69" s="8">
         <f t="shared" si="2"/>
@@ -3431,11 +3467,11 @@
       </c>
     </row>
     <row r="70" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="24">
+      <c r="B70" s="21">
         <v>2019</v>
       </c>
-      <c r="C70" s="25">
-        <v>4</v>
+      <c r="C70" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="D70" s="9">
         <f t="shared" si="2"/>
@@ -3471,11 +3507,11 @@
       </c>
     </row>
     <row r="71" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="26">
+      <c r="B71" s="23">
         <v>2019</v>
       </c>
-      <c r="C71" s="27">
-        <v>3</v>
+      <c r="C71" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="D71" s="8">
         <f t="shared" si="2"/>
@@ -3511,11 +3547,11 @@
       </c>
     </row>
     <row r="72" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="24">
+      <c r="B72" s="21">
         <v>2019</v>
       </c>
-      <c r="C72" s="25">
-        <v>2</v>
+      <c r="C72" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="D72" s="9">
         <f t="shared" si="2"/>
@@ -3551,11 +3587,11 @@
       </c>
     </row>
     <row r="73" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="28">
+      <c r="B73" s="25">
         <v>2019</v>
       </c>
-      <c r="C73" s="29">
-        <v>1</v>
+      <c r="C73" s="26" t="s">
+        <v>28</v>
       </c>
       <c r="D73" s="10">
         <f t="shared" ref="D73:D85" si="3">SUM(E73:N73)</f>
@@ -3591,11 +3627,11 @@
       </c>
     </row>
     <row r="74" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="25">
+      <c r="B74" s="22">
         <v>2018</v>
       </c>
-      <c r="C74" s="25">
-        <v>12</v>
+      <c r="C74" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="D74" s="9">
         <f t="shared" si="3"/>
@@ -3631,11 +3667,11 @@
       </c>
     </row>
     <row r="75" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="27">
+      <c r="B75" s="24">
         <v>2018</v>
       </c>
-      <c r="C75" s="27">
-        <v>11</v>
+      <c r="C75" s="24" t="s">
+        <v>30</v>
       </c>
       <c r="D75" s="8">
         <f t="shared" si="3"/>
@@ -3671,11 +3707,11 @@
       </c>
     </row>
     <row r="76" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="25">
+      <c r="B76" s="22">
         <v>2018</v>
       </c>
-      <c r="C76" s="25">
-        <v>10</v>
+      <c r="C76" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="D76" s="9">
         <f t="shared" si="3"/>
@@ -3711,11 +3747,11 @@
       </c>
     </row>
     <row r="77" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="27">
+      <c r="B77" s="24">
         <v>2018</v>
       </c>
-      <c r="C77" s="27">
-        <v>9</v>
+      <c r="C77" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="D77" s="8">
         <f t="shared" si="3"/>
@@ -3751,11 +3787,11 @@
       </c>
     </row>
     <row r="78" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="25">
+      <c r="B78" s="22">
         <v>2018</v>
       </c>
-      <c r="C78" s="25">
-        <v>8</v>
+      <c r="C78" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="D78" s="9">
         <f t="shared" si="3"/>
@@ -3791,11 +3827,11 @@
       </c>
     </row>
     <row r="79" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="27">
+      <c r="B79" s="24">
         <v>2018</v>
       </c>
-      <c r="C79" s="27">
-        <v>7</v>
+      <c r="C79" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="D79" s="8">
         <f t="shared" si="3"/>
@@ -3831,11 +3867,11 @@
       </c>
     </row>
     <row r="80" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="25">
+      <c r="B80" s="22">
         <v>2018</v>
       </c>
-      <c r="C80" s="25">
-        <v>6</v>
+      <c r="C80" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="D80" s="9">
         <f t="shared" si="3"/>
@@ -3871,11 +3907,11 @@
       </c>
     </row>
     <row r="81" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="27">
+      <c r="B81" s="24">
         <v>2018</v>
       </c>
-      <c r="C81" s="27">
-        <v>5</v>
+      <c r="C81" s="24" t="s">
+        <v>24</v>
       </c>
       <c r="D81" s="8">
         <f t="shared" si="3"/>
@@ -3911,11 +3947,11 @@
       </c>
     </row>
     <row r="82" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="25">
+      <c r="B82" s="22">
         <v>2018</v>
       </c>
-      <c r="C82" s="25">
-        <v>4</v>
+      <c r="C82" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="D82" s="9">
         <f t="shared" si="3"/>
@@ -3951,11 +3987,11 @@
       </c>
     </row>
     <row r="83" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="27">
+      <c r="B83" s="24">
         <v>2018</v>
       </c>
-      <c r="C83" s="27">
-        <v>3</v>
+      <c r="C83" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="D83" s="8">
         <f t="shared" si="3"/>
@@ -3991,11 +4027,11 @@
       </c>
     </row>
     <row r="84" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="25">
+      <c r="B84" s="22">
         <v>2018</v>
       </c>
-      <c r="C84" s="25">
-        <v>2</v>
+      <c r="C84" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="D84" s="9">
         <f t="shared" si="3"/>
@@ -4031,11 +4067,11 @@
       </c>
     </row>
     <row r="85" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="27">
+      <c r="B85" s="24">
         <v>2018</v>
       </c>
-      <c r="C85" s="27">
-        <v>1</v>
+      <c r="C85" s="24" t="s">
+        <v>28</v>
       </c>
       <c r="D85" s="8">
         <f t="shared" si="3"/>
@@ -4072,26 +4108,26 @@
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B86" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C86" s="17"/>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B87" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C87" s="17"/>
       <c r="N87" s="3"/>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B88" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C88" s="17"/>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B89" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.35">

--- a/Carga_por_aerolinea_nac.xlsx
+++ b/Carga_por_aerolinea_nac.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CEBE06-E663-47A9-B46A-4DE097AC56F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2569E23A-FC9F-4C8F-8853-83B1C4964EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="33">
   <si>
     <t>Total</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Año</t>
   </si>
   <si>
-    <t>Actualización: agosto 2024.</t>
-  </si>
-  <si>
     <t>Aerolíneas</t>
   </si>
   <si>
@@ -135,6 +132,9 @@
   </si>
   <si>
     <t>Sep.</t>
+  </si>
+  <si>
+    <t>Actualización: septiembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -517,12 +517,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -530,6 +524,12 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -585,8 +585,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:N85" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13">
-  <autoFilter ref="B5:N85" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:N86" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14">
+  <autoFilter ref="B5:N86" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2023"/>
@@ -838,7 +838,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:N96"/>
+  <dimension ref="B2:N97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -881,7 +881,7 @@
       <c r="C4" s="20"/>
       <c r="D4" s="13"/>
       <c r="E4" s="29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
@@ -916,7 +916,7 @@
         <v>6</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J5" s="16" t="s">
         <v>7</v>
@@ -935,3208 +935,3244 @@
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B6" s="21">
+      <c r="B6" s="23">
         <v>2024</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="8">
+        <f>SUM(E6:N6)</f>
+        <v>23947.075499999999</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
+        <v>11815.414000000001</v>
+      </c>
+      <c r="H6" s="4">
+        <v>610.077</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1877.9970000000001</v>
+      </c>
+      <c r="J6" s="4">
+        <v>2701.4140000000002</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4">
+        <v>4037.3809999999999</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1121.0953</v>
+      </c>
+      <c r="N6" s="4">
+        <v>1783.6972000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B7" s="21">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="9">
+        <f t="shared" ref="D7:D41" si="0">SUM(E7:N7)</f>
+        <v>25976.447568099997</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7">
+        <v>12383.605</v>
+      </c>
+      <c r="H7" s="7">
+        <v>692.93</v>
+      </c>
+      <c r="I7" s="7">
+        <v>997.61693810000008</v>
+      </c>
+      <c r="J7" s="7">
+        <v>3089.9549999999999</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7">
+        <v>5823.1229999999996</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1059.0245</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1930.1931300000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B8" s="23">
+        <v>2024</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="9">
-        <f t="shared" ref="D6:D40" si="0">SUM(E6:N6)</f>
-        <v>25976.447568099997</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7">
-        <v>12383.605</v>
-      </c>
-      <c r="H6" s="7">
-        <v>692.93</v>
-      </c>
-      <c r="I6" s="7">
-        <v>997.61693810000008</v>
-      </c>
-      <c r="J6" s="7">
-        <v>3089.9549999999999</v>
-      </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7">
-        <v>5823.1229999999996</v>
-      </c>
-      <c r="M6" s="7">
-        <v>1059.0245</v>
-      </c>
-      <c r="N6" s="7">
-        <v>1930.1931300000001</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B7" s="23">
+      <c r="D8" s="8">
+        <f t="shared" ref="D8:D10" si="1">SUM(E8:N8)</f>
+        <v>24449.559196240007</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4">
+        <v>12150.298000000001</v>
+      </c>
+      <c r="H8" s="4">
+        <v>643.75300000000004</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1750.5007562400001</v>
+      </c>
+      <c r="J8" s="4">
+        <v>3035.9490000000001</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4">
+        <v>4137.7550000000001</v>
+      </c>
+      <c r="M8" s="4">
+        <v>767.15459999999996</v>
+      </c>
+      <c r="N8" s="4">
+        <v>1964.1488400000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B9" s="21">
         <v>2024</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="8">
-        <f t="shared" ref="D7:D9" si="1">SUM(E7:N7)</f>
-        <v>24449.559196240007</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4">
-        <v>12150.298000000001</v>
-      </c>
-      <c r="H7" s="4">
-        <v>643.75300000000004</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1750.5007562400001</v>
-      </c>
-      <c r="J7" s="4">
-        <v>3035.9490000000001</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4">
-        <v>4137.7550000000001</v>
-      </c>
-      <c r="M7" s="4">
-        <v>767.15459999999996</v>
-      </c>
-      <c r="N7" s="4">
-        <v>1964.1488400000001</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B8" s="21">
-        <v>2024</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="D9" s="9">
         <f t="shared" si="1"/>
         <v>22991.837380000001</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7">
         <v>11786.278</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H9" s="7">
         <v>560.85299999999995</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I9" s="7">
         <v>455.33683000000002</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J9" s="7">
         <v>2749.279</v>
       </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7">
+      <c r="K9" s="7"/>
+      <c r="L9" s="7">
         <v>4777.0950000000003</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M9" s="7">
         <v>821.03269999999998</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N9" s="7">
         <v>1841.9628499999999</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="23">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B10" s="23">
         <v>2024</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="C10" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="8">
         <f t="shared" si="1"/>
         <v>25584.530360000004</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4">
         <v>12162.084000000001</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H10" s="4">
         <v>597.245</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I10" s="4">
         <v>670.93826000000001</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J10" s="4">
         <v>3023.1210000000001</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4">
+      <c r="K10" s="4"/>
+      <c r="L10" s="4">
         <v>5951.4530000000004</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M10" s="4">
         <v>966.64210000000003</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N10" s="4">
         <v>2213.047</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B10" s="21">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B11" s="21">
         <v>2024</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="9">
+      <c r="C11" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="9">
         <f t="shared" si="0"/>
         <v>24530.56366</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7">
         <v>11531.746999999999</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H11" s="7">
         <v>592.245</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I11" s="7">
         <v>1345.6157599999999</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J11" s="7">
         <v>3069.6970000000001</v>
       </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7">
+      <c r="K11" s="7"/>
+      <c r="L11" s="7">
         <v>5033.8580000000002</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M11" s="7">
         <v>917.64800000000002</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N11" s="7">
         <v>2039.7529000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B11" s="23">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B12" s="23">
         <v>2024</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="8">
+      <c r="C12" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="8">
         <f t="shared" si="0"/>
         <v>23773.473269999999</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4">
         <v>11871.233</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H12" s="4">
         <v>551.64300000000003</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I12" s="4">
         <v>1657.1516799999999</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J12" s="4">
         <v>2749.279</v>
       </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4">
+      <c r="K12" s="4"/>
+      <c r="L12" s="4">
         <v>3908.877</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M12" s="4">
         <v>901.89159999999993</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N12" s="4">
         <v>2133.3979899999999</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B12" s="21">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B13" s="21">
         <v>2024</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="9">
+      <c r="C13" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="9">
         <f t="shared" si="0"/>
         <v>23760.617010000002</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7">
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7">
         <v>11159.713</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H13" s="7">
         <v>540.17999999999995</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I13" s="7">
         <v>1664.87067</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J13" s="7">
         <v>3032.2710000000002</v>
       </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7">
+      <c r="K13" s="7"/>
+      <c r="L13" s="7">
         <v>4672.6559999999999</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M13" s="7">
         <v>878.4058</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N13" s="7">
         <v>1812.52054</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B13" s="25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B14" s="25">
         <v>2024</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="10">
+      <c r="C14" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="10">
         <f t="shared" si="0"/>
         <v>22658.754440000004</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6">
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6">
         <v>10099.106</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H14" s="6">
         <v>778.92200000000003</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I14" s="6">
         <v>1334.1081499999998</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J14" s="6">
         <v>3205.1840000000002</v>
       </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6">
+      <c r="K14" s="6"/>
+      <c r="L14" s="6">
         <v>4132.0780000000004</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M14" s="6">
         <v>1138.7986000000001</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N14" s="6">
         <v>1970.5576899999999</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B14" s="27">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B15" s="27">
         <v>2023</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="11">
+      <c r="C15" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="11">
         <f t="shared" si="0"/>
         <v>24330.252739999996</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E15" s="12">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12">
+      <c r="F15" s="12"/>
+      <c r="G15" s="12">
         <v>11988.567999999999</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H15" s="12">
         <v>936.15599999999995</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I15" s="12">
         <v>1439.51802</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J15" s="12">
         <v>3166.9259999999999</v>
       </c>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12">
+      <c r="K15" s="12"/>
+      <c r="L15" s="12">
         <v>3182.1170000000002</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M15" s="12">
         <v>1409.9010999999998</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N15" s="12">
         <v>2207.0626200000002</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B15" s="23">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B16" s="23">
         <v>2023</v>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="8">
+      <c r="C16" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="8">
         <f t="shared" si="0"/>
         <v>25951.682420000005</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E16" s="4">
         <v>2E-3</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4">
         <v>11389.349</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H16" s="4">
         <v>878.84500000000003</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I16" s="4">
         <v>3104.8114999999998</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J16" s="4">
         <v>3477.9340000000002</v>
       </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4">
+      <c r="K16" s="4"/>
+      <c r="L16" s="4">
         <v>3383.1860000000001</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M16" s="4">
         <v>1367.4911999999999</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N16" s="4">
         <v>2350.0637200000001</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B16" s="21">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B17" s="21">
         <v>2023</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="9">
+      <c r="C17" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="9">
         <f t="shared" si="0"/>
         <v>29736.471784000001</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E17" s="7">
         <v>2E-3</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7">
+      <c r="F17" s="7"/>
+      <c r="G17" s="7">
         <v>11497.116</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H17" s="7">
         <v>766.34</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I17" s="7">
         <v>1778.049084</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J17" s="7">
         <v>3354.9290000000001</v>
       </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7">
+      <c r="K17" s="7"/>
+      <c r="L17" s="7">
         <v>8846.14</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M17" s="7">
         <v>1254.5563</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N17" s="7">
         <v>2239.3393999999998</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B17" s="23">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B18" s="23">
         <v>2023</v>
       </c>
-      <c r="C17" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="8">
+      <c r="C18" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="8">
         <f t="shared" si="0"/>
         <v>25495.398430000001</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E18" s="4">
         <v>1E-3</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4">
+      <c r="F18" s="4"/>
+      <c r="G18" s="4">
         <v>10214.496999999999</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H18" s="4">
         <v>745.19799999999998</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I18" s="4">
         <v>1692.6589100000001</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J18" s="4">
         <v>3160.6</v>
       </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4">
+      <c r="K18" s="4"/>
+      <c r="L18" s="4">
         <v>6870.7169999999996</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M18" s="4">
         <v>1029.982</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N18" s="4">
         <v>1781.74452</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B18" s="21">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B19" s="21">
         <v>2023</v>
       </c>
-      <c r="C18" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="9">
+      <c r="C19" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="9">
         <f t="shared" si="0"/>
         <v>27795.111850000001</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E19" s="7">
         <v>2E-3</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7">
+      <c r="F19" s="7"/>
+      <c r="G19" s="7">
         <v>10670.395</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H19" s="7">
         <v>688.12199999999996</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I19" s="7">
         <v>2332.9001999999996</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J19" s="7">
         <v>3597.163</v>
       </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7">
+      <c r="K19" s="7"/>
+      <c r="L19" s="7">
         <v>7529.75</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M19" s="7">
         <v>1106.6980000000001</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N19" s="7">
         <v>1870.0816499999999</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B19" s="23">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B20" s="23">
         <v>2023</v>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="8">
+      <c r="C20" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="8">
         <f t="shared" si="0"/>
         <v>27392.805111000001</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E20" s="4">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4">
         <v>11104.486000000001</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H20" s="4">
         <v>582.98800000000006</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I20" s="4">
         <v>2097.893521</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J20" s="4">
         <v>3132.8069999999998</v>
       </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4">
+      <c r="K20" s="4"/>
+      <c r="L20" s="4">
         <v>7920.2030000000004</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M20" s="4">
         <v>632.07899999999995</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N20" s="4">
         <v>1922.34159</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B20" s="21">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B21" s="21">
         <v>2023</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="9">
+      <c r="C21" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="9">
         <f t="shared" si="0"/>
         <v>26257.615949999999</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E21" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7">
+      <c r="F21" s="7"/>
+      <c r="G21" s="7">
         <v>9903.1360000000004</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H21" s="7">
         <v>604.97799999999995</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I21" s="7">
         <v>2029.77441</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J21" s="7">
         <v>3359.4630000000002</v>
       </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7">
+      <c r="K21" s="7"/>
+      <c r="L21" s="7">
         <v>7581.4750000000004</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M21" s="7">
         <v>808.51900000000001</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N21" s="7">
         <v>1970.2655400000001</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B21" s="23">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B22" s="23">
         <v>2023</v>
       </c>
-      <c r="C21" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="8">
+      <c r="C22" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="8">
         <f t="shared" si="0"/>
         <v>27189.140660000001</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E22" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4">
         <v>9247.2430000000004</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H22" s="4">
         <v>646.67899999999997</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I22" s="4">
         <v>1841.1321099999998</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J22" s="4">
         <v>3239.5920000000001</v>
       </c>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4">
+      <c r="K22" s="4"/>
+      <c r="L22" s="4">
         <v>9116.9560000000001</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M22" s="4">
         <v>871.53</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N22" s="4">
         <v>2226.0035500000004</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B22" s="21">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B23" s="21">
         <v>2023</v>
       </c>
-      <c r="C22" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="9">
+      <c r="C23" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="9">
         <f t="shared" si="0"/>
         <v>26065.695520000001</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E23" s="7">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7">
+      <c r="F23" s="7"/>
+      <c r="G23" s="7">
         <v>8823.5010000000002</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H23" s="7">
         <v>643.87900000000002</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I23" s="7">
         <v>2656.5120000000002</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J23" s="7">
         <v>2882.6640000000002</v>
       </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7">
+      <c r="K23" s="7"/>
+      <c r="L23" s="7">
         <v>8495.7070000000003</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M23" s="7">
         <v>807.85400000000004</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N23" s="7">
         <v>1755.5725199999999</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B23" s="23">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B24" s="23">
         <v>2023</v>
       </c>
-      <c r="C23" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="8">
+      <c r="C24" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="8">
         <f t="shared" si="0"/>
         <v>29416.146090000002</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E24" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4">
+      <c r="F24" s="4"/>
+      <c r="G24" s="4">
         <v>10420.953</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H24" s="4">
         <v>850.89200000000005</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I24" s="4">
         <v>2714.1550000000002</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J24" s="4">
         <v>3284.2510000000002</v>
       </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4">
+      <c r="K24" s="4"/>
+      <c r="L24" s="4">
         <v>9320.09</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M24" s="4">
         <v>754.07100000000003</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N24" s="4">
         <v>2071.7290899999998</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B24" s="21">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B25" s="21">
         <v>2023</v>
       </c>
-      <c r="C24" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="9">
+      <c r="C25" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="9">
         <f t="shared" si="0"/>
         <v>26501.790870000004</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E25" s="7">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7">
+      <c r="F25" s="7"/>
+      <c r="G25" s="7">
         <v>9688.0110000000004</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H25" s="7">
         <v>782.84</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I25" s="7">
         <v>3020.3270000000002</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J25" s="7">
         <v>2745.6669999999999</v>
       </c>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7">
+      <c r="K25" s="7"/>
+      <c r="L25" s="7">
         <v>7686.6450000000004</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M25" s="7">
         <v>685.12</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N25" s="7">
         <v>1893.1698699999999</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B25" s="25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B26" s="25">
         <v>2023</v>
       </c>
-      <c r="C25" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="10">
+      <c r="C26" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="10">
         <f t="shared" si="0"/>
         <v>26308.171539999999</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E26" s="6">
         <v>2E-3</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6">
+      <c r="F26" s="6"/>
+      <c r="G26" s="6">
         <v>8914.4519999999993</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H26" s="6">
         <v>734.09199999999998</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I26" s="6">
         <v>3159.0940000000001</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J26" s="6">
         <v>3012.8209999999999</v>
       </c>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6">
+      <c r="K26" s="6"/>
+      <c r="L26" s="6">
         <v>7907.8890000000001</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M26" s="6">
         <v>670.48</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N26" s="6">
         <v>1909.3415400000001</v>
       </c>
     </row>
-    <row r="26" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="27">
+    <row r="27" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="27">
         <v>2022</v>
       </c>
-      <c r="C26" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="11">
+      <c r="C27" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="11">
         <f t="shared" si="0"/>
         <v>29865.323240000002</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E27" s="12">
         <v>1E-3</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F27" s="12">
         <v>12.166</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G27" s="12">
         <v>10484.763000000001</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H27" s="12">
         <v>925.66499999999996</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I27" s="12">
         <v>4138.0259999999998</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J27" s="12">
         <v>3314.2310000000002</v>
       </c>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12">
+      <c r="K27" s="12"/>
+      <c r="L27" s="12">
         <v>7746.2759999999998</v>
       </c>
-      <c r="M26" s="12">
+      <c r="M27" s="12">
         <v>961.79730000000006</v>
       </c>
-      <c r="N26" s="12">
+      <c r="N27" s="12">
         <v>2282.3979400000003</v>
       </c>
     </row>
-    <row r="27" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="23">
+    <row r="28" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="23">
         <v>2022</v>
       </c>
-      <c r="C27" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="8">
+      <c r="C28" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="8">
         <f t="shared" si="0"/>
         <v>29983.373589999999</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E28" s="4">
         <v>2E-3</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F28" s="4">
         <v>32.463999999999999</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G28" s="4">
         <v>10081.717000000001</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H28" s="4">
         <v>990.43700000000001</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I28" s="4">
         <v>5149.683</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J28" s="4">
         <v>3384.6909999999998</v>
       </c>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4">
+      <c r="K28" s="4"/>
+      <c r="L28" s="4">
         <v>7113.482</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M28" s="4">
         <v>970.55570000000012</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N28" s="4">
         <v>2260.3418900000001</v>
       </c>
     </row>
-    <row r="28" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="21">
+    <row r="29" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="21">
         <v>2022</v>
       </c>
-      <c r="C28" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="9">
+      <c r="C29" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="9">
         <f t="shared" si="0"/>
         <v>29295.863820000002</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E29" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F29" s="7">
         <v>31.343</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G29" s="7">
         <v>9947.3389999999999</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H29" s="7">
         <v>926.49599999999998</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I29" s="7">
         <v>5335.3050000000003</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J29" s="7">
         <v>3159.48</v>
       </c>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7">
+      <c r="K29" s="7"/>
+      <c r="L29" s="7">
         <v>6728.7049999999999</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M29" s="7">
         <v>979.74129999999991</v>
       </c>
-      <c r="N28" s="7">
+      <c r="N29" s="7">
         <v>2187.4515200000001</v>
       </c>
     </row>
-    <row r="29" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="23">
+    <row r="30" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="23">
         <v>2022</v>
       </c>
-      <c r="C29" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="8">
+      <c r="C30" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="8">
         <f t="shared" si="0"/>
         <v>26447.132749999997</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E30" s="4">
         <v>2E-3</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F30" s="4">
         <v>23.175000000000001</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G30" s="4">
         <v>9081.3619999999992</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H30" s="4">
         <v>703.86900000000003</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I30" s="4">
         <v>4176.1049999999996</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J30" s="4">
         <v>3254.7069999999999</v>
       </c>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4">
+      <c r="K30" s="4"/>
+      <c r="L30" s="4">
         <v>6617.3549999999996</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M30" s="4">
         <v>824.20899999999995</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N30" s="4">
         <v>1766.3487500000001</v>
       </c>
     </row>
-    <row r="30" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="21">
+    <row r="31" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="21">
         <v>2022</v>
       </c>
-      <c r="C30" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="9">
+      <c r="C31" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="9">
         <f t="shared" si="0"/>
         <v>26279.741409999995</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E31" s="7">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F31" s="7">
         <v>28.286999999999999</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G31" s="7">
         <v>9293.5259999999998</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H31" s="7">
         <v>859.87</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I31" s="7">
         <v>4037.6669999999999</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J31" s="7">
         <v>3520.194</v>
       </c>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7">
+      <c r="K31" s="7"/>
+      <c r="L31" s="7">
         <v>5886.08</v>
       </c>
-      <c r="M30" s="7">
+      <c r="M31" s="7">
         <v>804.58889999999997</v>
       </c>
-      <c r="N30" s="7">
+      <c r="N31" s="7">
         <v>1849.52451</v>
       </c>
     </row>
-    <row r="31" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="23">
+    <row r="32" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="23">
         <v>2022</v>
       </c>
-      <c r="C31" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="8">
+      <c r="C32" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="8">
         <f t="shared" si="0"/>
         <v>30603.772699999998</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E32" s="4">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F32" s="4">
         <v>31.623000000000001</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G32" s="4">
         <v>9435.7099999999991</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H32" s="4">
         <v>852.04499999999996</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I32" s="4">
         <v>4353.799</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J32" s="4">
         <v>3361.634</v>
       </c>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4">
+      <c r="K32" s="4"/>
+      <c r="L32" s="4">
         <v>10038.903</v>
       </c>
-      <c r="M31" s="4">
+      <c r="M32" s="4">
         <v>692.77719999999999</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N32" s="4">
         <v>1837.2745</v>
       </c>
     </row>
-    <row r="32" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="21">
+    <row r="33" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="21">
         <v>2022</v>
       </c>
-      <c r="C32" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="9">
+      <c r="C33" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="9">
         <f t="shared" si="0"/>
         <v>32911.434350000003</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E33" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F33" s="7">
         <v>29.89</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G33" s="7">
         <v>9434.6640000000007</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H33" s="7">
         <v>704.59900000000005</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I33" s="7">
         <v>4932.3429999999998</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J33" s="7">
         <v>3363.165</v>
       </c>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7">
+      <c r="K33" s="7"/>
+      <c r="L33" s="7">
         <v>11698.642</v>
       </c>
-      <c r="M32" s="7">
+      <c r="M33" s="7">
         <v>750.94670000000008</v>
       </c>
-      <c r="N32" s="7">
+      <c r="N33" s="7">
         <v>1997.1796499999998</v>
       </c>
     </row>
-    <row r="33" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="23">
+    <row r="34" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="23">
         <v>2022</v>
       </c>
-      <c r="C33" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="8">
+      <c r="C34" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="8">
         <f t="shared" si="0"/>
         <v>32136.140250000004</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E34" s="4">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F34" s="4">
         <v>28.506</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G34" s="4">
         <v>9520.1350000000002</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H34" s="4">
         <v>707.80499999999995</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I34" s="4">
         <v>5145.5190000000002</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J34" s="4">
         <v>3217.3589999999999</v>
       </c>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4">
+      <c r="K34" s="4"/>
+      <c r="L34" s="4">
         <v>10677.519</v>
       </c>
-      <c r="M33" s="4">
+      <c r="M34" s="4">
         <v>667.7</v>
       </c>
-      <c r="N33" s="4">
+      <c r="N34" s="4">
         <v>2171.5932499999999</v>
       </c>
     </row>
-    <row r="34" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="21">
+    <row r="35" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="21">
         <v>2022</v>
       </c>
-      <c r="C34" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="9">
+      <c r="C35" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="9">
         <f t="shared" si="0"/>
         <v>27514.741269999999</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E35" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F35" s="7">
         <v>33.442</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G35" s="7">
         <v>8677.1650000000009</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H35" s="7">
         <v>704.93700000000001</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I35" s="7">
         <v>4385.1239999999998</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J35" s="7">
         <v>3089.9090000000001</v>
       </c>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7">
+      <c r="K35" s="7"/>
+      <c r="L35" s="7">
         <v>7847.8879999999999</v>
       </c>
-      <c r="M34" s="7">
+      <c r="M35" s="7">
         <v>761.38699999999994</v>
       </c>
-      <c r="N34" s="7">
+      <c r="N35" s="7">
         <v>2014.8862699999997</v>
       </c>
     </row>
-    <row r="35" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="23">
+    <row r="36" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="23">
         <v>2022</v>
       </c>
-      <c r="C35" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="8">
+      <c r="C36" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="8">
         <f t="shared" si="0"/>
         <v>30859.440460000002</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E36" s="4">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F36" s="4">
         <v>30.175999999999998</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G36" s="4">
         <v>9761.2630000000008</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H36" s="4">
         <v>1009.9829999999999</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I36" s="4">
         <v>6578.5140000000001</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J36" s="4">
         <v>3448.0540000000001</v>
       </c>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4">
+      <c r="K36" s="4"/>
+      <c r="L36" s="4">
         <v>7191.5020000000004</v>
       </c>
-      <c r="M35" s="4">
+      <c r="M36" s="4">
         <v>742.69299999999998</v>
       </c>
-      <c r="N35" s="4">
+      <c r="N36" s="4">
         <v>2097.25146</v>
       </c>
     </row>
-    <row r="36" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="21">
+    <row r="37" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="21">
         <v>2022</v>
       </c>
-      <c r="C36" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="9">
+      <c r="C37" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="9">
         <f t="shared" si="0"/>
         <v>26857.410190000002</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E37" s="7">
         <v>0</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F37" s="7">
         <v>26.463999999999999</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G37" s="7">
         <v>8399.2009999999991</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H37" s="7">
         <v>816.23900000000003</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I37" s="7">
         <v>4488.2250000000004</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J37" s="7">
         <v>3087.74</v>
       </c>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7">
+      <c r="K37" s="7"/>
+      <c r="L37" s="7">
         <v>7675.5219999999999</v>
       </c>
-      <c r="M36" s="7">
+      <c r="M37" s="7">
         <v>680.0145</v>
       </c>
-      <c r="N36" s="7">
+      <c r="N37" s="7">
         <v>1684.00469</v>
       </c>
     </row>
-    <row r="37" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="25">
+    <row r="38" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="25">
         <v>2022</v>
       </c>
-      <c r="C37" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="10">
+      <c r="C38" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="10">
         <f t="shared" si="0"/>
         <v>26010.419900000001</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E38" s="6">
         <v>0.01</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F38" s="6">
         <v>29.917000000000002</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G38" s="6">
         <v>8064.9719999999998</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H38" s="6">
         <v>759.41499999999996</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I38" s="6">
         <v>4874.95</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J38" s="6">
         <v>3142.1970000000001</v>
       </c>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6">
+      <c r="K38" s="6"/>
+      <c r="L38" s="6">
         <v>6776.384</v>
       </c>
-      <c r="M37" s="6">
+      <c r="M38" s="6">
         <v>751.90069999999992</v>
       </c>
-      <c r="N37" s="6">
+      <c r="N38" s="6">
         <v>1610.6742000000002</v>
       </c>
     </row>
-    <row r="38" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="27">
+    <row r="39" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="27">
         <v>2021</v>
       </c>
-      <c r="C38" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="11">
+      <c r="C39" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="11">
         <f t="shared" si="0"/>
         <v>31566.167749999997</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E39" s="12">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F39" s="12">
         <v>37.055</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G39" s="12">
         <v>9575.5380000000005</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H39" s="12">
         <v>889.38</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I39" s="12">
         <v>6288.674</v>
       </c>
-      <c r="J38" s="12">
+      <c r="J39" s="12">
         <v>4403.6390000000001</v>
       </c>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12">
+      <c r="K39" s="12"/>
+      <c r="L39" s="12">
         <v>7812.2049999999999</v>
       </c>
-      <c r="M38" s="12">
+      <c r="M39" s="12">
         <v>644.26139999999998</v>
       </c>
-      <c r="N38" s="12">
+      <c r="N39" s="12">
         <v>1915.4123500000001</v>
       </c>
     </row>
-    <row r="39" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="23">
+    <row r="40" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="23">
         <v>2021</v>
       </c>
-      <c r="C39" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="8">
+      <c r="C40" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="8">
         <f t="shared" si="0"/>
         <v>29944.972509999996</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E40" s="4">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F40" s="4">
         <v>42.304000000000002</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G40" s="4">
         <v>8541.3799999999992</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H40" s="4">
         <v>797.55100000000004</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I40" s="4">
         <v>5779.326</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J40" s="4">
         <v>3742.5929999999998</v>
       </c>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4">
+      <c r="K40" s="4"/>
+      <c r="L40" s="4">
         <v>8308.2459999999992</v>
       </c>
-      <c r="M39" s="4">
+      <c r="M40" s="4">
         <v>761.88139999999999</v>
       </c>
-      <c r="N39" s="4">
+      <c r="N40" s="4">
         <v>1971.6851100000001</v>
       </c>
     </row>
-    <row r="40" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="21">
+    <row r="41" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="21">
         <v>2021</v>
       </c>
-      <c r="C40" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40" s="9">
+      <c r="C41" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="9">
         <f t="shared" si="0"/>
         <v>30000.867740000002</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E41" s="7">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F41" s="7">
         <v>29.148</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G41" s="7">
         <v>9141.5849999999991</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H41" s="7">
         <v>935.53599999999994</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I41" s="7">
         <v>5740.3919999999998</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J41" s="7">
         <v>3221.6640000000002</v>
       </c>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7">
+      <c r="K41" s="7"/>
+      <c r="L41" s="7">
         <v>8292.1039999999994</v>
       </c>
-      <c r="M40" s="7">
+      <c r="M41" s="7">
         <v>722.20399999999995</v>
       </c>
-      <c r="N40" s="7">
+      <c r="N41" s="7">
         <v>1918.2237399999999</v>
       </c>
     </row>
-    <row r="41" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="23">
+    <row r="42" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="23">
         <v>2021</v>
       </c>
-      <c r="C41" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" s="8">
-        <f t="shared" ref="D41:D72" si="2">SUM(E41:N41)</f>
+      <c r="C42" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="8">
+        <f t="shared" ref="D42:D73" si="2">SUM(E42:N42)</f>
         <v>25044.998970000004</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E42" s="4">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F42" s="4">
         <v>27.141999999999999</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G42" s="4">
         <v>7906.91</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H42" s="4">
         <v>875.76900000000001</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I42" s="4">
         <v>4566.3109999999997</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J42" s="4">
         <v>3115.0770000000002</v>
       </c>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4">
+      <c r="K42" s="4"/>
+      <c r="L42" s="4">
         <v>6415.2790000000005</v>
       </c>
-      <c r="M41" s="4">
+      <c r="M42" s="4">
         <v>491.27</v>
       </c>
-      <c r="N41" s="4">
+      <c r="N42" s="4">
         <v>1647.23197</v>
       </c>
     </row>
-    <row r="42" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="21">
+    <row r="43" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="21">
         <v>2021</v>
       </c>
-      <c r="C42" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="9">
+      <c r="C43" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="9">
         <f t="shared" si="2"/>
         <v>26801.51179</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E43" s="7">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F43" s="7">
         <v>26.024000000000001</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G43" s="7">
         <v>7787.3339999999998</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H43" s="7">
         <v>951.82</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I43" s="7">
         <v>5861.0240000000003</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J43" s="7">
         <v>2963.1660000000002</v>
       </c>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7">
+      <c r="K43" s="7"/>
+      <c r="L43" s="7">
         <v>6924.8339999999998</v>
       </c>
-      <c r="M42" s="7">
+      <c r="M43" s="7">
         <v>590.37950000000001</v>
       </c>
-      <c r="N42" s="7">
+      <c r="N43" s="7">
         <v>1696.91929</v>
       </c>
     </row>
-    <row r="43" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="23">
+    <row r="44" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="23">
         <v>2021</v>
       </c>
-      <c r="C43" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43" s="8">
+      <c r="C44" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="8">
         <f t="shared" si="2"/>
         <v>29570.534019999996</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E44" s="4">
         <v>1.6E-2</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F44" s="4">
         <v>33.762999999999998</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G44" s="4">
         <v>7960.9809999999998</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H44" s="4">
         <v>980.41300000000001</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I44" s="4">
         <v>6238.2730000000001</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J44" s="4">
         <v>3189.866</v>
       </c>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4">
+      <c r="K44" s="4"/>
+      <c r="L44" s="4">
         <v>8884.8860000000004</v>
       </c>
-      <c r="M43" s="4">
+      <c r="M44" s="4">
         <v>570.02250000000004</v>
       </c>
-      <c r="N43" s="4">
+      <c r="N44" s="4">
         <v>1712.3135199999999</v>
       </c>
     </row>
-    <row r="44" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="21">
+    <row r="45" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="21">
         <v>2021</v>
       </c>
-      <c r="C44" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" s="9">
+      <c r="C45" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="9">
         <f t="shared" si="2"/>
         <v>26984.257880000001</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E45" s="7">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F45" s="7">
         <v>30.326000000000001</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G45" s="7">
         <v>6994.8090000000002</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H45" s="7">
         <v>938.22799999999995</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I45" s="7">
         <v>5685.7610000000004</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J45" s="7">
         <v>2933.55</v>
       </c>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7">
+      <c r="K45" s="7"/>
+      <c r="L45" s="7">
         <v>8239.3950000000004</v>
       </c>
-      <c r="M44" s="7">
+      <c r="M45" s="7">
         <v>517.37900000000002</v>
       </c>
-      <c r="N44" s="7">
+      <c r="N45" s="7">
         <v>1644.78388</v>
       </c>
     </row>
-    <row r="45" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="23">
+    <row r="46" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="23">
         <v>2021</v>
       </c>
-      <c r="C45" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D45" s="8">
+      <c r="C46" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="8">
         <f t="shared" si="2"/>
         <v>27395.161769999999</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E46" s="4">
         <v>1.2E-2</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F46" s="4">
         <v>34.064</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G46" s="4">
         <v>5853.0280000000002</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H46" s="4">
         <v>804.99099999999999</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I46" s="4">
         <v>6221.6310000000003</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J46" s="4">
         <v>2753.0189999999998</v>
       </c>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4">
+      <c r="K46" s="4"/>
+      <c r="L46" s="4">
         <v>9369.7039999999997</v>
       </c>
-      <c r="M45" s="4">
+      <c r="M46" s="4">
         <v>581.25</v>
       </c>
-      <c r="N45" s="4">
+      <c r="N46" s="4">
         <v>1777.4627700000001</v>
       </c>
     </row>
-    <row r="46" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="21">
+    <row r="47" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="21">
         <v>2021</v>
       </c>
-      <c r="C46" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D46" s="9">
+      <c r="C47" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="9">
         <f t="shared" si="2"/>
         <v>26794.383829999999</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E47" s="7">
         <v>1.4E-2</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F47" s="7">
         <v>28.870999999999999</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G47" s="7">
         <v>5583.2060000000001</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H47" s="7">
         <v>855.89099999999996</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I47" s="7">
         <v>5955.3379999999997</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J47" s="7">
         <v>2553.587</v>
       </c>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7">
+      <c r="K47" s="7"/>
+      <c r="L47" s="7">
         <v>9635.8649999999998</v>
       </c>
-      <c r="M46" s="7">
+      <c r="M47" s="7">
         <v>569.29200000000003</v>
       </c>
-      <c r="N46" s="7">
+      <c r="N47" s="7">
         <v>1612.3198300000001</v>
       </c>
     </row>
-    <row r="47" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="23">
+    <row r="48" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="23">
         <v>2021</v>
       </c>
-      <c r="C47" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D47" s="8">
+      <c r="C48" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="8">
         <f t="shared" si="2"/>
         <v>28888.855879999999</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E48" s="4">
         <v>0.01</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F48" s="4">
         <v>30.994</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G48" s="4">
         <v>5972.1139999999996</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H48" s="4">
         <v>961.24900000000002</v>
       </c>
-      <c r="I47" s="4">
+      <c r="I48" s="4">
         <v>6821.0630000000001</v>
       </c>
-      <c r="J47" s="4">
+      <c r="J48" s="4">
         <v>2527.971</v>
       </c>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4">
+      <c r="K48" s="4"/>
+      <c r="L48" s="4">
         <v>10350.735000000001</v>
       </c>
-      <c r="M47" s="4">
+      <c r="M48" s="4">
         <v>537.19399999999996</v>
       </c>
-      <c r="N47" s="4">
+      <c r="N48" s="4">
         <v>1687.5258799999999</v>
       </c>
     </row>
-    <row r="48" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="21">
+    <row r="49" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="21">
         <v>2021</v>
       </c>
-      <c r="C48" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" s="9">
+      <c r="C49" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="9">
         <f t="shared" si="2"/>
         <v>25842.507199999996</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E49" s="7">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F49" s="7">
         <v>23.164999999999999</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G49" s="7">
         <v>5676.3119999999999</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H49" s="7">
         <v>842.12599999999998</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I49" s="7">
         <v>6447.9210000000003</v>
       </c>
-      <c r="J48" s="7">
+      <c r="J49" s="7">
         <v>2143.1759999999999</v>
       </c>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7">
+      <c r="K49" s="7"/>
+      <c r="L49" s="7">
         <v>8771.1730000000007</v>
       </c>
-      <c r="M48" s="7">
+      <c r="M49" s="7">
         <v>441.65600000000001</v>
       </c>
-      <c r="N48" s="7">
+      <c r="N49" s="7">
         <v>1496.9692</v>
       </c>
     </row>
-    <row r="49" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="25">
+    <row r="50" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="25">
         <v>2021</v>
       </c>
-      <c r="C49" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D49" s="10">
+      <c r="C50" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="10">
         <f t="shared" si="2"/>
         <v>26743.09706</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E50" s="6">
         <v>2.3E-2</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F50" s="6">
         <v>22.483000000000001</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G50" s="6">
         <v>5633.7330000000002</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H50" s="6">
         <v>893.20500000000004</v>
       </c>
-      <c r="I49" s="6">
+      <c r="I50" s="6">
         <v>5852.174</v>
       </c>
-      <c r="J49" s="6">
+      <c r="J50" s="6">
         <v>2714.6959999999999</v>
       </c>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6">
+      <c r="K50" s="6"/>
+      <c r="L50" s="6">
         <v>9764.4040000000005</v>
       </c>
-      <c r="M49" s="6">
+      <c r="M50" s="6">
         <v>374.46</v>
       </c>
-      <c r="N49" s="6">
+      <c r="N50" s="6">
         <v>1487.9190599999999</v>
       </c>
     </row>
-    <row r="50" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="27">
+    <row r="51" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="27">
         <v>2020</v>
       </c>
-      <c r="C50" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D50" s="11">
+      <c r="C51" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="11">
         <f t="shared" si="2"/>
         <v>29335.748110000004</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E51" s="12">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F51" s="12">
         <v>30.75</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G51" s="12">
         <v>5388.74</v>
       </c>
-      <c r="H50" s="12">
+      <c r="H51" s="12">
         <v>1227.8499999999999</v>
       </c>
-      <c r="I50" s="12">
+      <c r="I51" s="12">
         <v>8063.0550000000003</v>
       </c>
-      <c r="J50" s="12">
+      <c r="J51" s="12">
         <v>3485.029</v>
       </c>
-      <c r="K50" s="12">
+      <c r="K51" s="12">
         <v>16.4115</v>
       </c>
-      <c r="L50" s="12">
+      <c r="L51" s="12">
         <v>8808.3330000000005</v>
       </c>
-      <c r="M50" s="12">
+      <c r="M51" s="12">
         <v>499.45499999999998</v>
       </c>
-      <c r="N50" s="12">
+      <c r="N51" s="12">
         <v>1816.0996100000002</v>
       </c>
     </row>
-    <row r="51" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="23">
+    <row r="52" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="23">
         <v>2020</v>
       </c>
-      <c r="C51" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="8">
+      <c r="C52" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="8">
         <f t="shared" si="2"/>
         <v>31111.598979999999</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E52" s="4">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F52" s="4">
         <v>29.420999999999999</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G52" s="4">
         <v>4646.3059999999996</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H52" s="4">
         <v>918.31700000000001</v>
       </c>
-      <c r="I51" s="4">
+      <c r="I52" s="4">
         <v>10405.393</v>
       </c>
-      <c r="J51" s="4">
+      <c r="J52" s="4">
         <v>3080.1370000000002</v>
       </c>
-      <c r="K51" s="4">
+      <c r="K52" s="4">
         <v>86.034999999999997</v>
       </c>
-      <c r="L51" s="4">
+      <c r="L52" s="4">
         <v>9680.3340000000007</v>
       </c>
-      <c r="M51" s="4">
+      <c r="M52" s="4">
         <v>427.87200000000001</v>
       </c>
-      <c r="N51" s="4">
+      <c r="N52" s="4">
         <v>1837.75198</v>
       </c>
     </row>
-    <row r="52" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="21">
+    <row r="53" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="21">
         <v>2020</v>
       </c>
-      <c r="C52" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D52" s="9">
+      <c r="C53" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="9">
         <f t="shared" si="2"/>
         <v>29198.211449999999</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E53" s="7">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F53" s="7">
         <v>25.18</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G53" s="7">
         <v>4168.3999999999996</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H53" s="7">
         <v>855.53599999999994</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I53" s="7">
         <v>9141.11</v>
       </c>
-      <c r="J52" s="7">
+      <c r="J53" s="7">
         <v>2910.5740000000001</v>
       </c>
-      <c r="K52" s="7">
+      <c r="K53" s="7">
         <v>131.53100000000001</v>
       </c>
-      <c r="L52" s="7">
+      <c r="L53" s="7">
         <v>9811.7209999999995</v>
       </c>
-      <c r="M52" s="7">
+      <c r="M53" s="7">
         <v>328.78100000000001</v>
       </c>
-      <c r="N52" s="7">
+      <c r="N53" s="7">
         <v>1825.3604499999999</v>
       </c>
     </row>
-    <row r="53" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="23">
+    <row r="54" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="23">
         <v>2020</v>
       </c>
-      <c r="C53" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" s="8">
+      <c r="C54" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D54" s="8">
         <f t="shared" si="2"/>
         <v>25824.25403</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E54" s="4">
         <v>1.6E-2</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F54" s="4">
         <v>19.38</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G54" s="4">
         <v>3354.4870000000001</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H54" s="4">
         <v>815.01599999999996</v>
       </c>
-      <c r="I53" s="4">
+      <c r="I54" s="4">
         <v>9094.2099999999991</v>
       </c>
-      <c r="J53" s="4">
+      <c r="J54" s="4">
         <v>2742.8449999999998</v>
       </c>
-      <c r="K53" s="4">
+      <c r="K54" s="4">
         <v>94.078000000000003</v>
       </c>
-      <c r="L53" s="4">
+      <c r="L54" s="4">
         <v>7889.5420000000004</v>
       </c>
-      <c r="M53" s="4">
+      <c r="M54" s="4">
         <v>300.25099999999998</v>
       </c>
-      <c r="N53" s="4">
+      <c r="N54" s="4">
         <v>1514.42903</v>
       </c>
     </row>
-    <row r="54" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="21">
+    <row r="55" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="21">
         <v>2020</v>
       </c>
-      <c r="C54" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D54" s="9">
+      <c r="C55" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="9">
         <f t="shared" si="2"/>
         <v>23354.829529999999</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E55" s="7">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F55" s="7">
         <v>19.126000000000001</v>
       </c>
-      <c r="G54" s="7">
+      <c r="G55" s="7">
         <v>2845.2860000000001</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H55" s="7">
         <v>913.84799999999996</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I55" s="7">
         <v>8628.9339999999993</v>
       </c>
-      <c r="J54" s="7">
+      <c r="J55" s="7">
         <v>2494.9360000000001</v>
       </c>
-      <c r="K54" s="7">
+      <c r="K55" s="7">
         <v>102.148</v>
       </c>
-      <c r="L54" s="7">
+      <c r="L55" s="7">
         <v>6734.2569999999996</v>
       </c>
-      <c r="M54" s="7">
+      <c r="M55" s="7">
         <v>214.13300000000001</v>
       </c>
-      <c r="N54" s="7">
+      <c r="N55" s="7">
         <v>1402.1505300000001</v>
       </c>
     </row>
-    <row r="55" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="23">
+    <row r="56" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="23">
         <v>2020</v>
       </c>
-      <c r="C55" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D55" s="8">
+      <c r="C56" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="8">
         <f t="shared" si="2"/>
         <v>19260.244039999998</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E56" s="4">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F56" s="4">
         <v>18.687000000000001</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G56" s="4">
         <v>2326.4090000000001</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H56" s="4">
         <v>969.73</v>
       </c>
-      <c r="I55" s="4">
+      <c r="I56" s="4">
         <v>5828.2169999999996</v>
       </c>
-      <c r="J55" s="4">
+      <c r="J56" s="4">
         <v>2394.4169999999999</v>
       </c>
-      <c r="K55" s="4">
+      <c r="K56" s="4">
         <v>76.744</v>
       </c>
-      <c r="L55" s="4">
+      <c r="L56" s="4">
         <v>6273.5619999999999</v>
       </c>
-      <c r="M55" s="4">
+      <c r="M56" s="4">
         <v>151.30000000000001</v>
       </c>
-      <c r="N55" s="4">
+      <c r="N56" s="4">
         <v>1221.17004</v>
       </c>
     </row>
-    <row r="56" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="21">
+    <row r="57" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="21">
         <v>2020</v>
       </c>
-      <c r="C56" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D56" s="9">
+      <c r="C57" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="9">
         <f t="shared" si="2"/>
         <v>16681.950259999998</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E57" s="7">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F57" s="7">
         <v>15.773</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G57" s="7">
         <v>1336.4849999999999</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H57" s="7">
         <v>585.92899999999997</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I57" s="7">
         <v>5587.4769999999999</v>
       </c>
-      <c r="J56" s="7">
+      <c r="J57" s="7">
         <v>2256.6930000000002</v>
       </c>
-      <c r="K56" s="7">
+      <c r="K57" s="7">
         <v>42.146999999999998</v>
       </c>
-      <c r="L56" s="7">
+      <c r="L57" s="7">
         <v>5744.8710000000001</v>
       </c>
-      <c r="M56" s="7">
+      <c r="M57" s="7">
         <v>118.29600000000001</v>
       </c>
-      <c r="N56" s="7">
+      <c r="N57" s="7">
         <v>994.26826000000005</v>
       </c>
     </row>
-    <row r="57" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="23">
+    <row r="58" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="23">
         <v>2020</v>
       </c>
-      <c r="C57" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D57" s="8">
+      <c r="C58" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="8">
         <f t="shared" si="2"/>
         <v>15536.86291</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E58" s="4">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F58" s="4">
         <v>9.4559999999999995</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G58" s="4">
         <v>799.72500000000002</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H58" s="4">
         <v>697.28700000000003</v>
       </c>
-      <c r="I57" s="4">
+      <c r="I58" s="4">
         <v>5542.4840000000004</v>
       </c>
-      <c r="J57" s="4">
+      <c r="J58" s="4">
         <v>2132.3310000000001</v>
       </c>
-      <c r="K57" s="4">
+      <c r="K58" s="4">
         <v>69.804000000000002</v>
       </c>
-      <c r="L57" s="4">
+      <c r="L58" s="4">
         <v>5558.576</v>
       </c>
-      <c r="M57" s="4">
+      <c r="M58" s="4">
         <v>143.20510000000002</v>
       </c>
-      <c r="N57" s="4">
+      <c r="N58" s="4">
         <v>583.9918100000001</v>
       </c>
     </row>
-    <row r="58" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="21">
+    <row r="59" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="21">
         <v>2020</v>
       </c>
-      <c r="C58" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" s="9">
+      <c r="C59" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" s="9">
         <f t="shared" si="2"/>
         <v>13161.648870000003</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E59" s="7">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F59" s="7">
         <v>7.4619999999999997</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G59" s="7">
         <v>1038.125</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H59" s="7">
         <v>754.48400000000004</v>
       </c>
-      <c r="I58" s="7">
+      <c r="I59" s="7">
         <v>5034.1760000000004</v>
       </c>
-      <c r="J58" s="7">
+      <c r="J59" s="7">
         <v>1894.93</v>
       </c>
-      <c r="K58" s="7">
+      <c r="K59" s="7">
         <v>59.36</v>
       </c>
-      <c r="L58" s="7">
+      <c r="L59" s="7">
         <v>3753.6880000000001</v>
       </c>
-      <c r="M58" s="7">
+      <c r="M59" s="7">
         <v>60.6843</v>
       </c>
-      <c r="N58" s="7">
+      <c r="N59" s="7">
         <v>558.7325699999999</v>
       </c>
     </row>
-    <row r="59" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="23">
+    <row r="60" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="23">
         <v>2020</v>
       </c>
-      <c r="C59" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D59" s="8">
+      <c r="C60" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" s="8">
         <f t="shared" si="2"/>
         <v>22714.14399</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E60" s="4">
         <v>3.1E-2</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F60" s="4">
         <v>35.988999999999997</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G60" s="4">
         <v>7356.9930000000004</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H60" s="4">
         <v>1318.52</v>
       </c>
-      <c r="I59" s="4">
+      <c r="I60" s="4">
         <v>4797.09</v>
       </c>
-      <c r="J59" s="4">
+      <c r="J60" s="4">
         <v>1722.712</v>
       </c>
-      <c r="K59" s="4">
+      <c r="K60" s="4">
         <v>1659.4059999999999</v>
       </c>
-      <c r="L59" s="4">
+      <c r="L60" s="4">
         <v>4510.4480000000003</v>
       </c>
-      <c r="M59" s="4">
+      <c r="M60" s="4">
         <v>102.3022</v>
       </c>
-      <c r="N59" s="4">
+      <c r="N60" s="4">
         <v>1210.6527900000001</v>
       </c>
     </row>
-    <row r="60" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="21">
+    <row r="61" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="21">
         <v>2020</v>
       </c>
-      <c r="C60" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D60" s="9">
+      <c r="C61" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" s="9">
         <f t="shared" si="2"/>
         <v>23622.028510000007</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E61" s="7">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F61" s="7">
         <v>56.369</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G61" s="7">
         <v>9237.1190000000006</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H61" s="7">
         <v>1428.3530000000001</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I61" s="7">
         <v>3273.0720000000001</v>
       </c>
-      <c r="J60" s="7">
+      <c r="J61" s="7">
         <v>1520.239</v>
       </c>
-      <c r="K60" s="7">
+      <c r="K61" s="7">
         <v>2283.7510000000002</v>
       </c>
-      <c r="L60" s="7">
+      <c r="L61" s="7">
         <v>4116.8599999999997</v>
       </c>
-      <c r="M60" s="7">
+      <c r="M61" s="7">
         <v>132.3349</v>
       </c>
-      <c r="N60" s="7">
+      <c r="N61" s="7">
         <v>1573.90461</v>
       </c>
     </row>
-    <row r="61" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="25">
+    <row r="62" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="25">
         <v>2020</v>
       </c>
-      <c r="C61" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="10">
+      <c r="C62" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" s="10">
         <f t="shared" si="2"/>
         <v>26687.883509999996</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E62" s="6">
         <v>4.7E-2</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F62" s="6">
         <v>53.219000000000001</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G62" s="6">
         <v>8754.5229999999992</v>
       </c>
-      <c r="H61" s="6">
+      <c r="H62" s="6">
         <v>1369.674</v>
       </c>
-      <c r="I61" s="6">
+      <c r="I62" s="6">
         <v>5338.8549999999996</v>
       </c>
-      <c r="J61" s="6">
+      <c r="J62" s="6">
         <v>1679.8140000000001</v>
       </c>
-      <c r="K61" s="6">
+      <c r="K62" s="6">
         <v>2456.4389999999999</v>
       </c>
-      <c r="L61" s="6">
+      <c r="L62" s="6">
         <v>5287.6</v>
       </c>
-      <c r="M61" s="6">
+      <c r="M62" s="6">
         <v>71.972800000000007</v>
       </c>
-      <c r="N61" s="6">
+      <c r="N62" s="6">
         <v>1675.7397100000001</v>
       </c>
     </row>
-    <row r="62" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="27">
+    <row r="63" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="27">
         <v>2019</v>
       </c>
-      <c r="C62" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D62" s="11">
+      <c r="C63" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" s="11">
         <f t="shared" si="2"/>
         <v>31427.187729999998</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E63" s="12">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="F62" s="12">
+      <c r="F63" s="12">
         <v>86.153999999999996</v>
       </c>
-      <c r="G62" s="12">
+      <c r="G63" s="12">
         <v>9577.1149999999998</v>
       </c>
-      <c r="H62" s="12">
+      <c r="H63" s="12">
         <v>1676.4159999999999</v>
       </c>
-      <c r="I62" s="12">
+      <c r="I63" s="12">
         <v>6029.0749999999998</v>
       </c>
-      <c r="J62" s="12">
+      <c r="J63" s="12">
         <v>2445.3470000000002</v>
       </c>
-      <c r="K62" s="12">
+      <c r="K63" s="12">
         <v>2928.4569999999999</v>
       </c>
-      <c r="L62" s="12">
+      <c r="L63" s="12">
         <v>5030.2939999999999</v>
       </c>
-      <c r="M62" s="12">
+      <c r="M63" s="12">
         <v>65.746300000000005</v>
       </c>
-      <c r="N62" s="12">
+      <c r="N63" s="12">
         <v>3588.5074299999997</v>
       </c>
     </row>
-    <row r="63" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="23">
+    <row r="64" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="23">
         <v>2019</v>
       </c>
-      <c r="C63" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D63" s="8">
+      <c r="C64" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" s="8">
         <f t="shared" si="2"/>
         <v>31763.522410000001</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E64" s="4">
         <v>1.76</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F64" s="4">
         <v>80.100999999999999</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G64" s="4">
         <v>9752.0519999999997</v>
       </c>
-      <c r="H63" s="4">
+      <c r="H64" s="4">
         <v>1595.383</v>
       </c>
-      <c r="I63" s="4">
+      <c r="I64" s="4">
         <v>5103.0559999999996</v>
       </c>
-      <c r="J63" s="4">
+      <c r="J64" s="4">
         <v>2658.252</v>
       </c>
-      <c r="K63" s="4">
+      <c r="K64" s="4">
         <v>3015.0219999999999</v>
       </c>
-      <c r="L63" s="4">
+      <c r="L64" s="4">
         <v>5793.69</v>
       </c>
-      <c r="M63" s="4">
+      <c r="M64" s="4">
         <v>12.758299999999998</v>
       </c>
-      <c r="N63" s="4">
+      <c r="N64" s="4">
         <v>3751.4481100000003</v>
       </c>
     </row>
-    <row r="64" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="21">
+    <row r="65" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="21">
         <v>2019</v>
       </c>
-      <c r="C64" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D64" s="9">
+      <c r="C65" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" s="9">
         <f t="shared" si="2"/>
         <v>31229.518959999994</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E65" s="7">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F65" s="7">
         <v>72</v>
       </c>
-      <c r="G64" s="7">
+      <c r="G65" s="7">
         <v>9994.6419999999998</v>
       </c>
-      <c r="H64" s="7">
+      <c r="H65" s="7">
         <v>1608.7059999999999</v>
       </c>
-      <c r="I64" s="7">
+      <c r="I65" s="7">
         <v>4575.3310000000001</v>
       </c>
-      <c r="J64" s="7">
+      <c r="J65" s="7">
         <v>2828.3510000000001</v>
       </c>
-      <c r="K64" s="7">
+      <c r="K65" s="7">
         <v>2682.761</v>
       </c>
-      <c r="L64" s="7">
+      <c r="L65" s="7">
         <v>5549.9949999999999</v>
       </c>
-      <c r="M64" s="7"/>
-      <c r="N64" s="7">
+      <c r="M65" s="7"/>
+      <c r="N65" s="7">
         <v>3917.6479599999998</v>
       </c>
     </row>
-    <row r="65" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="23">
+    <row r="66" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="23">
         <v>2019</v>
       </c>
-      <c r="C65" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D65" s="8">
+      <c r="C66" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D66" s="8">
         <f t="shared" si="2"/>
         <v>29172.540249999998</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E66" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F66" s="4">
         <v>54.752000000000002</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G66" s="4">
         <v>9010.31</v>
       </c>
-      <c r="H65" s="4">
+      <c r="H66" s="4">
         <v>1396.2560000000001</v>
       </c>
-      <c r="I65" s="4">
+      <c r="I66" s="4">
         <v>5775.3389999999999</v>
       </c>
-      <c r="J65" s="4">
+      <c r="J66" s="4">
         <v>2331.1950000000002</v>
       </c>
-      <c r="K65" s="4">
+      <c r="K66" s="4">
         <v>2334.8119999999999</v>
       </c>
-      <c r="L65" s="4">
+      <c r="L66" s="4">
         <v>4893.7089999999998</v>
       </c>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4">
+      <c r="M66" s="4"/>
+      <c r="N66" s="4">
         <v>3376.1322500000001</v>
       </c>
     </row>
-    <row r="66" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="21">
+    <row r="67" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="21">
         <v>2019</v>
       </c>
-      <c r="C66" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66" s="9">
+      <c r="C67" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" s="9">
         <f t="shared" si="2"/>
         <v>28718.377859999997</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E67" s="7">
         <v>5.59633</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F67" s="7">
         <v>57.29</v>
       </c>
-      <c r="G66" s="7">
+      <c r="G67" s="7">
         <v>8610.5910000000003</v>
       </c>
-      <c r="H66" s="7">
+      <c r="H67" s="7">
         <v>1665.9570000000001</v>
       </c>
-      <c r="I66" s="7">
+      <c r="I67" s="7">
         <v>5196.0309999999999</v>
       </c>
-      <c r="J66" s="7">
+      <c r="J67" s="7">
         <v>2672.4050000000002</v>
       </c>
-      <c r="K66" s="7">
+      <c r="K67" s="7">
         <v>2511.7330000000002</v>
       </c>
-      <c r="L66" s="7">
+      <c r="L67" s="7">
         <v>4774.3459999999995</v>
       </c>
-      <c r="M66" s="7"/>
-      <c r="N66" s="7">
+      <c r="M67" s="7"/>
+      <c r="N67" s="7">
         <v>3224.4285300000001</v>
       </c>
     </row>
-    <row r="67" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="23">
+    <row r="68" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="23">
         <v>2019</v>
       </c>
-      <c r="C67" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D67" s="8">
+      <c r="C68" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="8">
         <f t="shared" si="2"/>
         <v>28707.78629</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E68" s="4">
         <v>6.0529999999999999</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F68" s="4">
         <v>57.801000000000002</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G68" s="4">
         <v>8986.9670000000006</v>
       </c>
-      <c r="H67" s="4">
+      <c r="H68" s="4">
         <v>1788.191</v>
       </c>
-      <c r="I67" s="4">
+      <c r="I68" s="4">
         <v>5135.1639999999998</v>
       </c>
-      <c r="J67" s="4">
+      <c r="J68" s="4">
         <v>2578.5520000000001</v>
       </c>
-      <c r="K67" s="4">
+      <c r="K68" s="4">
         <v>2341.8049999999998</v>
       </c>
-      <c r="L67" s="4">
+      <c r="L68" s="4">
         <v>4798.0159999999996</v>
       </c>
-      <c r="M67" s="4"/>
-      <c r="N67" s="4">
+      <c r="M68" s="4"/>
+      <c r="N68" s="4">
         <v>3015.23729</v>
       </c>
     </row>
-    <row r="68" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="21">
+    <row r="69" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="21">
         <v>2019</v>
       </c>
-      <c r="C68" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D68" s="9">
+      <c r="C69" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" s="9">
         <f t="shared" si="2"/>
         <v>27292.410609999999</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E69" s="7">
         <v>5.46</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F69" s="7">
         <v>55.997999999999998</v>
       </c>
-      <c r="G68" s="7">
+      <c r="G69" s="7">
         <v>8069.7749999999996</v>
       </c>
-      <c r="H68" s="7">
+      <c r="H69" s="7">
         <v>1587.973</v>
       </c>
-      <c r="I68" s="7">
+      <c r="I69" s="7">
         <v>5215.268</v>
       </c>
-      <c r="J68" s="7">
+      <c r="J69" s="7">
         <v>2428.5169999999998</v>
       </c>
-      <c r="K68" s="7">
+      <c r="K69" s="7">
         <v>2360.0700000000002</v>
       </c>
-      <c r="L68" s="7">
+      <c r="L69" s="7">
         <v>4450.9750000000004</v>
       </c>
-      <c r="M68" s="7"/>
-      <c r="N68" s="7">
+      <c r="M69" s="7"/>
+      <c r="N69" s="7">
         <v>3118.3746100000003</v>
       </c>
     </row>
-    <row r="69" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="23">
+    <row r="70" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="23">
         <v>2019</v>
       </c>
-      <c r="C69" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D69" s="8">
+      <c r="C70" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="8">
         <f t="shared" si="2"/>
         <v>29113.054540000001</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E70" s="4">
         <v>6.2110000000000003</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F70" s="4">
         <v>67.53</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G70" s="4">
         <v>8472.9789999999994</v>
       </c>
-      <c r="H69" s="4">
+      <c r="H70" s="4">
         <v>1708.221</v>
       </c>
-      <c r="I69" s="4">
+      <c r="I70" s="4">
         <v>5081.5749999999998</v>
       </c>
-      <c r="J69" s="4">
+      <c r="J70" s="4">
         <v>2646.9789999999998</v>
       </c>
-      <c r="K69" s="4">
+      <c r="K70" s="4">
         <v>2406.2260000000001</v>
       </c>
-      <c r="L69" s="4">
+      <c r="L70" s="4">
         <v>5332.5439999999999</v>
       </c>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4">
+      <c r="M70" s="4"/>
+      <c r="N70" s="4">
         <v>3390.7895400000002</v>
       </c>
     </row>
-    <row r="70" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="21">
+    <row r="71" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="21">
         <v>2019</v>
       </c>
-      <c r="C70" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D70" s="9">
+      <c r="C71" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" s="9">
         <f t="shared" si="2"/>
         <v>31250.364179999997</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E71" s="7">
         <v>7.8460000000000001</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F71" s="7">
         <v>56.534999999999997</v>
       </c>
-      <c r="G70" s="7">
+      <c r="G71" s="7">
         <v>8624.3449999999993</v>
       </c>
-      <c r="H70" s="7">
+      <c r="H71" s="7">
         <v>1621.0229999999999</v>
       </c>
-      <c r="I70" s="7">
+      <c r="I71" s="7">
         <v>8671.3349999999991</v>
       </c>
-      <c r="J70" s="7">
+      <c r="J71" s="7">
         <v>2304.8890000000001</v>
       </c>
-      <c r="K70" s="7">
+      <c r="K71" s="7">
         <v>2447.4609999999998</v>
       </c>
-      <c r="L70" s="7">
+      <c r="L71" s="7">
         <v>4465.5820000000003</v>
       </c>
-      <c r="M70" s="7"/>
-      <c r="N70" s="7">
+      <c r="M71" s="7"/>
+      <c r="N71" s="7">
         <v>3051.34818</v>
       </c>
     </row>
-    <row r="71" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="23">
+    <row r="72" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="23">
         <v>2019</v>
       </c>
-      <c r="C71" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D71" s="8">
+      <c r="C72" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="8">
         <f t="shared" si="2"/>
         <v>31365.490560000002</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E72" s="4">
         <v>5.36</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F72" s="4">
         <v>59.417999999999999</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G72" s="4">
         <v>9153.4</v>
       </c>
-      <c r="H71" s="4">
+      <c r="H72" s="4">
         <v>1573.4939999999999</v>
       </c>
-      <c r="I71" s="4">
+      <c r="I72" s="4">
         <v>7744.9759999999997</v>
       </c>
-      <c r="J71" s="4">
+      <c r="J72" s="4">
         <v>2483.4180000000001</v>
       </c>
-      <c r="K71" s="4">
+      <c r="K72" s="4">
         <v>2376.971</v>
       </c>
-      <c r="L71" s="4">
+      <c r="L72" s="4">
         <v>4955.9579999999996</v>
       </c>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4">
+      <c r="M72" s="4"/>
+      <c r="N72" s="4">
         <v>3012.4955599999998</v>
       </c>
     </row>
-    <row r="72" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="21">
+    <row r="73" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="21">
         <v>2019</v>
       </c>
-      <c r="C72" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D72" s="9">
+      <c r="C73" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73" s="9">
         <f t="shared" si="2"/>
         <v>27676.571899999999</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E73" s="7">
         <v>5.3540000000000001</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F73" s="7">
         <v>60.44</v>
       </c>
-      <c r="G72" s="7">
+      <c r="G73" s="7">
         <v>8240.6730000000007</v>
       </c>
-      <c r="H72" s="7">
+      <c r="H73" s="7">
         <v>1223.51</v>
       </c>
-      <c r="I72" s="7">
+      <c r="I73" s="7">
         <v>6582.1109999999999</v>
       </c>
-      <c r="J72" s="7">
+      <c r="J73" s="7">
         <v>2315.9119999999998</v>
       </c>
-      <c r="K72" s="7">
+      <c r="K73" s="7">
         <v>2451.8209999999999</v>
       </c>
-      <c r="L72" s="7">
+      <c r="L73" s="7">
         <v>3688.9839999999999</v>
       </c>
-      <c r="M72" s="7"/>
-      <c r="N72" s="7">
+      <c r="M73" s="7"/>
+      <c r="N73" s="7">
         <v>3107.7669000000001</v>
       </c>
     </row>
-    <row r="73" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="25">
+    <row r="74" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="25">
         <v>2019</v>
       </c>
-      <c r="C73" s="26" t="s">
+      <c r="C74" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D74" s="10">
+        <f t="shared" ref="D74:D86" si="3">SUM(E74:N74)</f>
+        <v>31729.582690000007</v>
+      </c>
+      <c r="E74" s="6">
+        <v>6.7610000000000001</v>
+      </c>
+      <c r="F74" s="6">
+        <v>74.009</v>
+      </c>
+      <c r="G74" s="6">
+        <v>7747.527</v>
+      </c>
+      <c r="H74" s="6">
+        <v>1196.4000000000001</v>
+      </c>
+      <c r="I74" s="6">
+        <v>8376.51</v>
+      </c>
+      <c r="J74" s="6">
+        <v>2613.239</v>
+      </c>
+      <c r="K74" s="6">
+        <v>4476.8249999999998</v>
+      </c>
+      <c r="L74" s="6">
+        <v>3965.1860000000001</v>
+      </c>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6">
+        <v>3273.1256899999998</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="22">
+        <v>2018</v>
+      </c>
+      <c r="C75" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D73" s="10">
-        <f t="shared" ref="D73:D85" si="3">SUM(E73:N73)</f>
-        <v>31729.582690000007</v>
-      </c>
-      <c r="E73" s="6">
-        <v>6.7610000000000001</v>
-      </c>
-      <c r="F73" s="6">
-        <v>74.009</v>
-      </c>
-      <c r="G73" s="6">
-        <v>7747.527</v>
-      </c>
-      <c r="H73" s="6">
-        <v>1196.4000000000001</v>
-      </c>
-      <c r="I73" s="6">
-        <v>8376.51</v>
-      </c>
-      <c r="J73" s="6">
-        <v>2613.239</v>
-      </c>
-      <c r="K73" s="6">
-        <v>4476.8249999999998</v>
-      </c>
-      <c r="L73" s="6">
-        <v>3965.1860000000001</v>
-      </c>
-      <c r="M73" s="6"/>
-      <c r="N73" s="6">
-        <v>3273.1256899999998</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="22">
-        <v>2018</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D74" s="9">
+      <c r="D75" s="9">
         <f t="shared" si="3"/>
         <v>27825.537</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E75" s="7">
         <v>11.624000000000001</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F75" s="7">
         <v>93.391999999999996</v>
       </c>
-      <c r="G74" s="7">
+      <c r="G75" s="7">
         <v>8828.0380000000005</v>
       </c>
-      <c r="H74" s="7">
+      <c r="H75" s="7">
         <v>1419.221</v>
       </c>
-      <c r="I74" s="7">
+      <c r="I75" s="7">
         <v>8160.1949999999997</v>
       </c>
-      <c r="J74" s="7">
+      <c r="J75" s="7">
         <v>2550.1379999999999</v>
       </c>
-      <c r="K74" s="7">
+      <c r="K75" s="7">
         <v>2539.4380000000001</v>
       </c>
-      <c r="L74" s="7">
+      <c r="L75" s="7">
         <v>4208.37</v>
       </c>
-      <c r="M74" s="7"/>
-      <c r="N74" s="7">
+      <c r="M75" s="7"/>
+      <c r="N75" s="7">
         <v>15.121</v>
       </c>
     </row>
-    <row r="75" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="24">
+    <row r="76" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="24">
         <v>2018</v>
       </c>
-      <c r="C75" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D75" s="8">
+      <c r="C76" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="8">
         <f t="shared" si="3"/>
         <v>30438.187000000005</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E76" s="4">
         <v>9.8219999999999992</v>
       </c>
-      <c r="F75" s="4">
+      <c r="F76" s="4">
         <v>90.676000000000002</v>
       </c>
-      <c r="G75" s="4">
+      <c r="G76" s="4">
         <v>9033.7459999999992</v>
       </c>
-      <c r="H75" s="4">
+      <c r="H76" s="4">
         <v>1677.8789999999999</v>
       </c>
-      <c r="I75" s="4">
+      <c r="I76" s="4">
         <v>9087.1730000000007</v>
       </c>
-      <c r="J75" s="4">
+      <c r="J76" s="4">
         <v>2973.703</v>
       </c>
-      <c r="K75" s="4">
+      <c r="K76" s="4">
         <v>2449.9479999999999</v>
       </c>
-      <c r="L75" s="4">
+      <c r="L76" s="4">
         <v>5104.8959999999997</v>
       </c>
-      <c r="M75" s="4"/>
-      <c r="N75" s="4">
+      <c r="M76" s="4"/>
+      <c r="N76" s="4">
         <v>10.343999999999999</v>
       </c>
     </row>
-    <row r="76" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="22">
+    <row r="77" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="22">
         <v>2018</v>
       </c>
-      <c r="C76" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D76" s="9">
+      <c r="C77" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77" s="9">
         <f t="shared" si="3"/>
         <v>30428.691999999999</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E77" s="7">
         <v>8.2870000000000008</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F77" s="7">
         <v>78.7</v>
       </c>
-      <c r="G76" s="7">
+      <c r="G77" s="7">
         <v>8819.0689999999995</v>
       </c>
-      <c r="H76" s="7">
+      <c r="H77" s="7">
         <v>1516.8230000000001</v>
       </c>
-      <c r="I76" s="7">
+      <c r="I77" s="7">
         <v>9777.8709999999992</v>
       </c>
-      <c r="J76" s="7">
+      <c r="J77" s="7">
         <v>2987.6489999999999</v>
       </c>
-      <c r="K76" s="7">
+      <c r="K77" s="7">
         <v>1751.569</v>
       </c>
-      <c r="L76" s="7">
+      <c r="L77" s="7">
         <v>5477.6930000000002</v>
       </c>
-      <c r="M76" s="7"/>
-      <c r="N76" s="7">
+      <c r="M77" s="7"/>
+      <c r="N77" s="7">
         <v>11.031000000000001</v>
       </c>
     </row>
-    <row r="77" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="24">
+    <row r="78" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="24">
         <v>2018</v>
       </c>
-      <c r="C77" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D77" s="8">
+      <c r="C78" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D78" s="8">
         <f t="shared" si="3"/>
         <v>27010.514999999999</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E78" s="4">
         <v>10.707000000000001</v>
       </c>
-      <c r="F77" s="4">
+      <c r="F78" s="4">
         <v>62.167000000000002</v>
       </c>
-      <c r="G77" s="4">
+      <c r="G78" s="4">
         <v>8102.4960000000001</v>
       </c>
-      <c r="H77" s="4">
+      <c r="H78" s="4">
         <v>1416.539</v>
       </c>
-      <c r="I77" s="4">
+      <c r="I78" s="4">
         <v>8463.5859999999993</v>
       </c>
-      <c r="J77" s="4">
+      <c r="J78" s="4">
         <v>2463.84</v>
       </c>
-      <c r="K77" s="4">
+      <c r="K78" s="4">
         <v>1662.82</v>
       </c>
-      <c r="L77" s="4">
+      <c r="L78" s="4">
         <v>4814.68</v>
       </c>
-      <c r="M77" s="4"/>
-      <c r="N77" s="4">
+      <c r="M78" s="4"/>
+      <c r="N78" s="4">
         <v>13.68</v>
       </c>
     </row>
-    <row r="78" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="22">
+    <row r="79" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="22">
         <v>2018</v>
       </c>
-      <c r="C78" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D78" s="9">
+      <c r="C79" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" s="9">
         <f t="shared" si="3"/>
         <v>27455.597999999998</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E79" s="7">
         <v>10.06</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F79" s="7">
         <v>67.233999999999995</v>
       </c>
-      <c r="G78" s="7">
+      <c r="G79" s="7">
         <v>8035.7269999999999</v>
       </c>
-      <c r="H78" s="7">
+      <c r="H79" s="7">
         <v>1692.001</v>
       </c>
-      <c r="I78" s="7">
+      <c r="I79" s="7">
         <v>8464.9650000000001</v>
       </c>
-      <c r="J78" s="7">
+      <c r="J79" s="7">
         <v>2758.96</v>
       </c>
-      <c r="K78" s="7">
+      <c r="K79" s="7">
         <v>1732.587</v>
       </c>
-      <c r="L78" s="7">
+      <c r="L79" s="7">
         <v>4679.0959999999995</v>
       </c>
-      <c r="M78" s="7"/>
-      <c r="N78" s="7">
+      <c r="M79" s="7"/>
+      <c r="N79" s="7">
         <v>14.968</v>
       </c>
     </row>
-    <row r="79" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="24">
+    <row r="80" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="24">
         <v>2018</v>
       </c>
-      <c r="C79" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D79" s="8">
+      <c r="C80" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="8">
         <f t="shared" si="3"/>
         <v>27442.177</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E80" s="4">
         <v>10.051</v>
       </c>
-      <c r="F79" s="4">
+      <c r="F80" s="4">
         <v>63.811</v>
       </c>
-      <c r="G79" s="4">
+      <c r="G80" s="4">
         <v>7722.7290000000003</v>
       </c>
-      <c r="H79" s="4">
+      <c r="H80" s="4">
         <v>1496.4</v>
       </c>
-      <c r="I79" s="4">
+      <c r="I80" s="4">
         <v>8747.1980000000003</v>
       </c>
-      <c r="J79" s="4">
+      <c r="J80" s="4">
         <v>2551.65</v>
       </c>
-      <c r="K79" s="4">
+      <c r="K80" s="4">
         <v>1697.7090000000001</v>
       </c>
-      <c r="L79" s="4">
+      <c r="L80" s="4">
         <v>5136.6130000000003</v>
       </c>
-      <c r="M79" s="4"/>
-      <c r="N79" s="4">
+      <c r="M80" s="4"/>
+      <c r="N80" s="4">
         <v>16.015999999999998</v>
       </c>
     </row>
-    <row r="80" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="22">
+    <row r="81" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="22">
         <v>2018</v>
       </c>
-      <c r="C80" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D80" s="9">
+      <c r="C81" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" s="9">
         <f t="shared" si="3"/>
         <v>27934.611100000002</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E81" s="7">
         <v>5.8701000000000008</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F81" s="7">
         <v>68.567999999999998</v>
       </c>
-      <c r="G80" s="7">
+      <c r="G81" s="7">
         <v>7714.4070000000002</v>
       </c>
-      <c r="H80" s="7">
+      <c r="H81" s="7">
         <v>1561.0450000000001</v>
       </c>
-      <c r="I80" s="7">
+      <c r="I81" s="7">
         <v>8940.5429999999997</v>
       </c>
-      <c r="J80" s="7">
+      <c r="J81" s="7">
         <v>2632.7139999999999</v>
       </c>
-      <c r="K80" s="7">
+      <c r="K81" s="7">
         <v>1889.998</v>
       </c>
-      <c r="L80" s="7">
+      <c r="L81" s="7">
         <v>5110.2619999999997</v>
       </c>
-      <c r="M80" s="7"/>
-      <c r="N80" s="7">
+      <c r="M81" s="7"/>
+      <c r="N81" s="7">
         <v>11.204000000000001</v>
       </c>
     </row>
-    <row r="81" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="24">
+    <row r="82" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="24">
         <v>2018</v>
       </c>
-      <c r="C81" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D81" s="8">
+      <c r="C82" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82" s="8">
         <f t="shared" si="3"/>
         <v>28918.192660000001</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E82" s="4">
         <v>7.8816600000000001</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F82" s="4">
         <v>82.861999999999995</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G82" s="4">
         <v>8118.165</v>
       </c>
-      <c r="H81" s="4">
+      <c r="H82" s="4">
         <v>1532.5719999999999</v>
       </c>
-      <c r="I81" s="4">
+      <c r="I82" s="4">
         <v>8129.585</v>
       </c>
-      <c r="J81" s="4">
+      <c r="J82" s="4">
         <v>2956.08</v>
       </c>
-      <c r="K81" s="4">
+      <c r="K82" s="4">
         <v>1988.6780000000001</v>
       </c>
-      <c r="L81" s="4">
+      <c r="L82" s="4">
         <v>6089.1620000000003</v>
       </c>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4">
+      <c r="M82" s="4"/>
+      <c r="N82" s="4">
         <v>13.207000000000001</v>
       </c>
     </row>
-    <row r="82" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="22">
+    <row r="83" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="22">
         <v>2018</v>
       </c>
-      <c r="C82" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D82" s="9">
+      <c r="C83" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D83" s="9">
         <f t="shared" si="3"/>
         <v>29273.39678000001</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E83" s="7">
         <v>9.12378</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F83" s="7">
         <v>60.970999999999997</v>
       </c>
-      <c r="G82" s="7">
+      <c r="G83" s="7">
         <v>7926.723</v>
       </c>
-      <c r="H82" s="7">
+      <c r="H83" s="7">
         <v>1477.489</v>
       </c>
-      <c r="I82" s="7">
+      <c r="I83" s="7">
         <v>9672.3250000000007</v>
       </c>
-      <c r="J82" s="7">
+      <c r="J83" s="7">
         <v>2860.578</v>
       </c>
-      <c r="K82" s="7">
+      <c r="K83" s="7">
         <v>1829.883</v>
       </c>
-      <c r="L82" s="7">
+      <c r="L83" s="7">
         <v>5423.6540000000005</v>
       </c>
-      <c r="M82" s="7"/>
-      <c r="N82" s="7">
+      <c r="M83" s="7"/>
+      <c r="N83" s="7">
         <v>12.65</v>
       </c>
     </row>
-    <row r="83" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="24">
+    <row r="84" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="24">
         <v>2018</v>
       </c>
-      <c r="C83" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D83" s="8">
+      <c r="C84" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" s="8">
         <f t="shared" si="3"/>
         <v>30126.28328</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E84" s="4">
         <v>8.1962799999999998</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F84" s="4">
         <v>71.811000000000007</v>
       </c>
-      <c r="G83" s="4">
+      <c r="G84" s="4">
         <v>8844.2019999999993</v>
       </c>
-      <c r="H83" s="4">
+      <c r="H84" s="4">
         <v>1647.098</v>
       </c>
-      <c r="I83" s="4">
+      <c r="I84" s="4">
         <v>9860.2800000000007</v>
       </c>
-      <c r="J83" s="4">
+      <c r="J84" s="4">
         <v>2743.1410000000001</v>
       </c>
-      <c r="K83" s="4">
+      <c r="K84" s="4">
         <v>1551.7840000000001</v>
       </c>
-      <c r="L83" s="4">
+      <c r="L84" s="4">
         <v>5387.3890000000001</v>
       </c>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4">
+      <c r="M84" s="4"/>
+      <c r="N84" s="4">
         <v>12.382</v>
       </c>
     </row>
-    <row r="84" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="22">
+    <row r="85" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="22">
         <v>2018</v>
       </c>
-      <c r="C84" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D84" s="9">
+      <c r="C85" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D85" s="9">
         <f t="shared" si="3"/>
         <v>25208.202900000004</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E85" s="7">
         <v>6.7148999999999992</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F85" s="7">
         <v>59.457000000000001</v>
       </c>
-      <c r="G84" s="7">
+      <c r="G85" s="7">
         <v>7977.2039999999997</v>
       </c>
-      <c r="H84" s="7">
+      <c r="H85" s="7">
         <v>1378.8910000000001</v>
       </c>
-      <c r="I84" s="7">
+      <c r="I85" s="7">
         <v>7402.5730000000003</v>
       </c>
-      <c r="J84" s="7">
+      <c r="J85" s="7">
         <v>2577</v>
       </c>
-      <c r="K84" s="7">
+      <c r="K85" s="7">
         <v>1364.6120000000001</v>
       </c>
-      <c r="L84" s="7">
+      <c r="L85" s="7">
         <v>4430.4210000000003</v>
       </c>
-      <c r="M84" s="7"/>
-      <c r="N84" s="7">
+      <c r="M85" s="7"/>
+      <c r="N85" s="7">
         <v>11.33</v>
       </c>
     </row>
-    <row r="85" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="24">
+    <row r="86" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="24">
         <v>2018</v>
       </c>
-      <c r="C85" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D85" s="8">
+      <c r="C86" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D86" s="8">
         <f t="shared" si="3"/>
         <v>25018.165999999997</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E86" s="4">
         <v>6.9589999999999996</v>
       </c>
-      <c r="F85" s="4">
+      <c r="F86" s="4">
         <v>66.08</v>
       </c>
-      <c r="G85" s="4">
+      <c r="G86" s="4">
         <v>7737.0140000000001</v>
       </c>
-      <c r="H85" s="4">
+      <c r="H86" s="4">
         <v>1410.72</v>
       </c>
-      <c r="I85" s="4">
+      <c r="I86" s="4">
         <v>6932.2910000000002</v>
       </c>
-      <c r="J85" s="4">
+      <c r="J86" s="4">
         <v>2789.42</v>
       </c>
-      <c r="K85" s="4">
+      <c r="K86" s="4">
         <v>1379.2329999999999</v>
       </c>
-      <c r="L85" s="4">
+      <c r="L86" s="4">
         <v>4684.1959999999999</v>
       </c>
-      <c r="M85" s="4"/>
-      <c r="N85" s="4">
+      <c r="M86" s="4"/>
+      <c r="N86" s="4">
         <v>12.253</v>
       </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B86" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C86" s="17"/>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B87" s="17" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C87" s="17"/>
-      <c r="N87" s="3"/>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B88" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C88" s="17"/>
+      <c r="N88" s="3"/>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B89" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" s="17"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B90" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B90" t="s">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B91" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="D96" s="17"/>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D97" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Carga_por_aerolinea_nac.xlsx
+++ b/Carga_por_aerolinea_nac.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE43FE2-9299-4053-A496-2ACB8006861C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44CC4E2-BCE7-4FB7-8050-0998D980A92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_35" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="34">
   <si>
     <t>Total</t>
   </si>
@@ -137,7 +137,7 @@
     <t>Mexicana (Aerolínea del Estado Mexicano)</t>
   </si>
   <si>
-    <t>Actualización: Octubre 2024.</t>
+    <t>Actualización: Noviembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -156,19 +156,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Geomanist"/>
       <family val="2"/>
@@ -182,18 +169,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Geomanist"/>
+      <name val="Noto Sans"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="minor"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -371,77 +374,28 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -452,40 +406,200 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
@@ -501,23 +615,56 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Geomanist"/>
-        <scheme val="minor"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -543,6 +690,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -554,9 +714,10 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
-        <name val="Geomanist"/>
+        <name val="Noto Sans"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <charset val="1"/>
+        <scheme val="none"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
       <fill>
@@ -591,11 +752,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O87" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
-  <autoFilter ref="B5:O87" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O88" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
+  <autoFilter ref="B5:O88" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
-        <filter val="2023"/>
         <filter val="2024"/>
       </filters>
     </filterColumn>
@@ -845,3472 +1005,3512 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O98"/>
+  <dimension ref="B2:O99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.875" customWidth="1"/>
-    <col min="14" max="14" width="13.875" customWidth="1"/>
-    <col min="15" max="15" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="13.875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="20.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:15" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="14"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="29" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="31"/>
-    </row>
-    <row r="5" spans="2:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="10"/>
+    </row>
+    <row r="5" spans="2:15" ht="58.5" x14ac:dyDescent="0.45">
+      <c r="B5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="N5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="21">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B6" s="15">
         <v>2024</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="17">
+        <f>SUM(E6:O6)</f>
+        <v>27502.893514000003</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18">
+        <v>13474.445</v>
+      </c>
+      <c r="H6" s="18">
+        <v>756.11400000000003</v>
+      </c>
+      <c r="I6" s="18">
+        <v>1892.0454140000002</v>
+      </c>
+      <c r="J6" s="18">
+        <v>3303.9810000000002</v>
+      </c>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18">
+        <v>4393.0249999999996</v>
+      </c>
+      <c r="M6" s="18">
+        <v>44.302</v>
+      </c>
+      <c r="N6" s="18">
+        <v>1298.3136000000002</v>
+      </c>
+      <c r="O6" s="18">
+        <v>2340.6675</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B7" s="19">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="9">
-        <f t="shared" ref="D6" si="0">SUM(E6:O6)</f>
+      <c r="D7" s="21">
+        <f t="shared" ref="D7" si="0">SUM(E7:O7)</f>
         <v>27181.326313000001</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7">
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22">
         <v>13225.465</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H7" s="22">
         <v>615.21100000000001</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I7" s="22">
         <v>1642.003113</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J7" s="22">
         <v>3194.15</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7">
+      <c r="K7" s="22"/>
+      <c r="L7" s="22">
         <v>4834.0540000000001</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M7" s="22">
         <v>24.026</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N7" s="22">
         <v>1321.6451999999999</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O7" s="22">
         <v>2324.7719999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="23">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B8" s="15">
         <v>2024</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C8" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="8">
-        <f>SUM(E7:O7)</f>
+      <c r="D8" s="17">
+        <f>SUM(E8:O8)</f>
         <v>23947.075499999999</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4">
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18">
         <v>11815.414000000001</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H8" s="18">
         <v>610.077</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I8" s="18">
         <v>1877.9970000000001</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J8" s="18">
         <v>2701.4140000000002</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4">
+      <c r="K8" s="18"/>
+      <c r="L8" s="18">
         <v>4037.3809999999999</v>
       </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4">
+      <c r="M8" s="18"/>
+      <c r="N8" s="18">
         <v>1121.0953</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O8" s="18">
         <v>1783.6972000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="21">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B9" s="19">
         <v>2024</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="9">
-        <f t="shared" ref="D8:D42" si="1">SUM(E8:O8)</f>
+      <c r="D9" s="21">
+        <f t="shared" ref="D9:D43" si="1">SUM(E9:O9)</f>
         <v>25976.447568099997</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7">
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22">
         <v>12383.605</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H9" s="22">
         <v>692.93</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I9" s="22">
         <v>997.61693810000008</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J9" s="22">
         <v>3089.9549999999999</v>
       </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7">
+      <c r="K9" s="22"/>
+      <c r="L9" s="22">
         <v>5823.1229999999996</v>
       </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7">
+      <c r="M9" s="22"/>
+      <c r="N9" s="22">
         <v>1059.0245</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O9" s="22">
         <v>1930.1931300000001</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="23">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B10" s="15">
         <v>2024</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="8">
-        <f t="shared" ref="D9:D11" si="2">SUM(E9:O9)</f>
+      <c r="D10" s="17">
+        <f t="shared" ref="D10:D12" si="2">SUM(E10:O10)</f>
         <v>24449.559196240007</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4">
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18">
         <v>12150.298000000001</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H10" s="18">
         <v>643.75300000000004</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I10" s="18">
         <v>1750.5007562400001</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J10" s="18">
         <v>3035.9490000000001</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4">
+      <c r="K10" s="18"/>
+      <c r="L10" s="18">
         <v>4137.7550000000001</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4">
+      <c r="M10" s="18"/>
+      <c r="N10" s="18">
         <v>767.15459999999996</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O10" s="18">
         <v>1964.1488400000001</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="21">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B11" s="19">
         <v>2024</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C11" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D11" s="21">
         <f t="shared" si="2"/>
         <v>22991.837380000001</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7">
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22">
         <v>11786.278</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H11" s="22">
         <v>560.85299999999995</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I11" s="22">
         <v>455.33683000000002</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J11" s="22">
         <v>2749.279</v>
       </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7">
+      <c r="K11" s="22"/>
+      <c r="L11" s="22">
         <v>4777.0950000000003</v>
       </c>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7">
+      <c r="M11" s="22"/>
+      <c r="N11" s="22">
         <v>821.03269999999998</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O11" s="22">
         <v>1841.9628499999999</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="23">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B12" s="15">
         <v>2024</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D12" s="17">
         <f t="shared" si="2"/>
         <v>25584.530360000004</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4">
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18">
         <v>12162.084000000001</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H12" s="18">
         <v>597.245</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I12" s="18">
         <v>670.93826000000001</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J12" s="18">
         <v>3023.1210000000001</v>
       </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4">
+      <c r="K12" s="18"/>
+      <c r="L12" s="18">
         <v>5951.4530000000004</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4">
+      <c r="M12" s="18"/>
+      <c r="N12" s="18">
         <v>966.64210000000003</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O12" s="18">
         <v>2213.047</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="21">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13" s="19">
         <v>2024</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C13" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D13" s="21">
         <f t="shared" si="1"/>
         <v>24530.56366</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7">
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22">
         <v>11531.746999999999</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H13" s="22">
         <v>592.245</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I13" s="22">
         <v>1345.6157599999999</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J13" s="22">
         <v>3069.6970000000001</v>
       </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7">
+      <c r="K13" s="22"/>
+      <c r="L13" s="22">
         <v>5033.8580000000002</v>
       </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7">
+      <c r="M13" s="22"/>
+      <c r="N13" s="22">
         <v>917.64800000000002</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O13" s="22">
         <v>2039.7529000000002</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="23">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14" s="15">
         <v>2024</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D14" s="17">
         <f t="shared" si="1"/>
         <v>23773.473269999999</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4">
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18">
         <v>11871.233</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H14" s="18">
         <v>551.64300000000003</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I14" s="18">
         <v>1657.1516799999999</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J14" s="18">
         <v>2749.279</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4">
+      <c r="K14" s="18"/>
+      <c r="L14" s="18">
         <v>3908.877</v>
       </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4">
+      <c r="M14" s="18"/>
+      <c r="N14" s="18">
         <v>901.89159999999993</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O14" s="18">
         <v>2133.3979899999999</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="21">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B15" s="19">
         <v>2024</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C15" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D15" s="21">
         <f t="shared" si="1"/>
         <v>23760.617010000002</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7">
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22">
         <v>11159.713</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H15" s="22">
         <v>540.17999999999995</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I15" s="22">
         <v>1664.87067</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J15" s="22">
         <v>3032.2710000000002</v>
       </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7">
+      <c r="K15" s="22"/>
+      <c r="L15" s="22">
         <v>4672.6559999999999</v>
       </c>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7">
+      <c r="M15" s="22"/>
+      <c r="N15" s="22">
         <v>878.4058</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O15" s="22">
         <v>1812.52054</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B16" s="23">
         <v>2024</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C16" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D16" s="25">
         <f t="shared" si="1"/>
         <v>22658.754440000004</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6">
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26">
         <v>10099.106</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H16" s="26">
         <v>778.92200000000003</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I16" s="26">
         <v>1334.1081499999998</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J16" s="26">
         <v>3205.1840000000002</v>
       </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6">
+      <c r="K16" s="26"/>
+      <c r="L16" s="26">
         <v>4132.0780000000004</v>
       </c>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6">
+      <c r="M16" s="26"/>
+      <c r="N16" s="26">
         <v>1138.7986000000001</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O16" s="26">
         <v>1970.5576899999999</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="27">
+    <row r="17" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="27">
         <v>2023</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C17" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D17" s="29">
         <f t="shared" si="1"/>
         <v>24330.252739999996</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E17" s="30">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12">
+      <c r="F17" s="30"/>
+      <c r="G17" s="30">
         <v>11988.567999999999</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H17" s="30">
         <v>936.15599999999995</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I17" s="30">
         <v>1439.51802</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J17" s="30">
         <v>3166.9259999999999</v>
       </c>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12">
+      <c r="K17" s="30"/>
+      <c r="L17" s="30">
         <v>3182.1170000000002</v>
       </c>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12">
+      <c r="M17" s="30"/>
+      <c r="N17" s="30">
         <v>1409.9010999999998</v>
       </c>
-      <c r="O16" s="12">
+      <c r="O17" s="30">
         <v>2207.0626200000002</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="23">
+    <row r="18" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="15">
         <v>2023</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C18" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D18" s="17">
         <f t="shared" si="1"/>
         <v>25951.682420000005</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E18" s="18">
         <v>2E-3</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4">
+      <c r="F18" s="18"/>
+      <c r="G18" s="18">
         <v>11389.349</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H18" s="18">
         <v>878.84500000000003</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I18" s="18">
         <v>3104.8114999999998</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J18" s="18">
         <v>3477.9340000000002</v>
       </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4">
+      <c r="K18" s="18"/>
+      <c r="L18" s="18">
         <v>3383.1860000000001</v>
       </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4">
+      <c r="M18" s="18"/>
+      <c r="N18" s="18">
         <v>1367.4911999999999</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O18" s="18">
         <v>2350.0637200000001</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="21">
+    <row r="19" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="19">
         <v>2023</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C19" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D19" s="21">
         <f t="shared" si="1"/>
         <v>29736.471784000001</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E19" s="22">
         <v>2E-3</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7">
+      <c r="F19" s="22"/>
+      <c r="G19" s="22">
         <v>11497.116</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H19" s="22">
         <v>766.34</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I19" s="22">
         <v>1778.049084</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J19" s="22">
         <v>3354.9290000000001</v>
       </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7">
+      <c r="K19" s="22"/>
+      <c r="L19" s="22">
         <v>8846.14</v>
       </c>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7">
+      <c r="M19" s="22"/>
+      <c r="N19" s="22">
         <v>1254.5563</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O19" s="22">
         <v>2239.3393999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="23">
+    <row r="20" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="15">
         <v>2023</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C20" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D20" s="17">
         <f t="shared" si="1"/>
         <v>25495.398430000001</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E20" s="18">
         <v>1E-3</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4">
+      <c r="F20" s="18"/>
+      <c r="G20" s="18">
         <v>10214.496999999999</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H20" s="18">
         <v>745.19799999999998</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I20" s="18">
         <v>1692.6589100000001</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J20" s="18">
         <v>3160.6</v>
       </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4">
+      <c r="K20" s="18"/>
+      <c r="L20" s="18">
         <v>6870.7169999999996</v>
       </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4">
+      <c r="M20" s="18"/>
+      <c r="N20" s="18">
         <v>1029.982</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O20" s="18">
         <v>1781.74452</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="21">
+    <row r="21" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="19">
         <v>2023</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C21" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D21" s="21">
         <f t="shared" si="1"/>
         <v>27795.111850000001</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E21" s="22">
         <v>2E-3</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7">
+      <c r="F21" s="22"/>
+      <c r="G21" s="22">
         <v>10670.395</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H21" s="22">
         <v>688.12199999999996</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I21" s="22">
         <v>2332.9001999999996</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J21" s="22">
         <v>3597.163</v>
       </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7">
+      <c r="K21" s="22"/>
+      <c r="L21" s="22">
         <v>7529.75</v>
       </c>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7">
+      <c r="M21" s="22"/>
+      <c r="N21" s="22">
         <v>1106.6980000000001</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O21" s="22">
         <v>1870.0816499999999</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="23">
+    <row r="22" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="15">
         <v>2023</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C22" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D22" s="17">
         <f t="shared" si="1"/>
         <v>27392.805111000001</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E22" s="18">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4">
+      <c r="F22" s="18"/>
+      <c r="G22" s="18">
         <v>11104.486000000001</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H22" s="18">
         <v>582.98800000000006</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I22" s="18">
         <v>2097.893521</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J22" s="18">
         <v>3132.8069999999998</v>
       </c>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4">
+      <c r="K22" s="18"/>
+      <c r="L22" s="18">
         <v>7920.2030000000004</v>
       </c>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4">
+      <c r="M22" s="18"/>
+      <c r="N22" s="18">
         <v>632.07899999999995</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O22" s="18">
         <v>1922.34159</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="21">
+    <row r="23" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="19">
         <v>2023</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C23" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D23" s="21">
         <f t="shared" si="1"/>
         <v>26257.615949999999</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E23" s="22">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7">
+      <c r="F23" s="22"/>
+      <c r="G23" s="22">
         <v>9903.1360000000004</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H23" s="22">
         <v>604.97799999999995</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I23" s="22">
         <v>2029.77441</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J23" s="22">
         <v>3359.4630000000002</v>
       </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7">
+      <c r="K23" s="22"/>
+      <c r="L23" s="22">
         <v>7581.4750000000004</v>
       </c>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7">
+      <c r="M23" s="22"/>
+      <c r="N23" s="22">
         <v>808.51900000000001</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O23" s="22">
         <v>1970.2655400000001</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="23">
+    <row r="24" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="15">
         <v>2023</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C24" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D24" s="17">
         <f t="shared" si="1"/>
         <v>27189.140660000001</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E24" s="18">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4">
+      <c r="F24" s="18"/>
+      <c r="G24" s="18">
         <v>9247.2430000000004</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H24" s="18">
         <v>646.67899999999997</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I24" s="18">
         <v>1841.1321099999998</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J24" s="18">
         <v>3239.5920000000001</v>
       </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4">
+      <c r="K24" s="18"/>
+      <c r="L24" s="18">
         <v>9116.9560000000001</v>
       </c>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4">
+      <c r="M24" s="18"/>
+      <c r="N24" s="18">
         <v>871.53</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O24" s="18">
         <v>2226.0035500000004</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="21">
+    <row r="25" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="19">
         <v>2023</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C25" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D25" s="21">
         <f t="shared" si="1"/>
         <v>26065.695520000001</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E25" s="22">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7">
+      <c r="F25" s="22"/>
+      <c r="G25" s="22">
         <v>8823.5010000000002</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H25" s="22">
         <v>643.87900000000002</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I25" s="22">
         <v>2656.5120000000002</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J25" s="22">
         <v>2882.6640000000002</v>
       </c>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7">
+      <c r="K25" s="22"/>
+      <c r="L25" s="22">
         <v>8495.7070000000003</v>
       </c>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7">
+      <c r="M25" s="22"/>
+      <c r="N25" s="22">
         <v>807.85400000000004</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O25" s="22">
         <v>1755.5725199999999</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="23">
+    <row r="26" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="15">
         <v>2023</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C26" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D26" s="17">
         <f t="shared" si="1"/>
         <v>29416.146090000002</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E26" s="18">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4">
+      <c r="F26" s="18"/>
+      <c r="G26" s="18">
         <v>10420.953</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H26" s="18">
         <v>850.89200000000005</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I26" s="18">
         <v>2714.1550000000002</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J26" s="18">
         <v>3284.2510000000002</v>
       </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4">
+      <c r="K26" s="18"/>
+      <c r="L26" s="18">
         <v>9320.09</v>
       </c>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4">
+      <c r="M26" s="18"/>
+      <c r="N26" s="18">
         <v>754.07100000000003</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O26" s="18">
         <v>2071.7290899999998</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="21">
+    <row r="27" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="19">
         <v>2023</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C27" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D27" s="21">
         <f t="shared" si="1"/>
         <v>26501.790870000004</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E27" s="22">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7">
+      <c r="F27" s="22"/>
+      <c r="G27" s="22">
         <v>9688.0110000000004</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H27" s="22">
         <v>782.84</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I27" s="22">
         <v>3020.3270000000002</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J27" s="22">
         <v>2745.6669999999999</v>
       </c>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7">
+      <c r="K27" s="22"/>
+      <c r="L27" s="22">
         <v>7686.6450000000004</v>
       </c>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7">
+      <c r="M27" s="22"/>
+      <c r="N27" s="22">
         <v>685.12</v>
       </c>
-      <c r="O26" s="7">
+      <c r="O27" s="22">
         <v>1893.1698699999999</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="25">
+    <row r="28" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="23">
         <v>2023</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C28" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D28" s="25">
         <f t="shared" si="1"/>
         <v>26308.171539999999</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E28" s="26">
         <v>2E-3</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6">
+      <c r="F28" s="26"/>
+      <c r="G28" s="26">
         <v>8914.4519999999993</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H28" s="26">
         <v>734.09199999999998</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I28" s="26">
         <v>3159.0940000000001</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J28" s="26">
         <v>3012.8209999999999</v>
       </c>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6">
+      <c r="K28" s="26"/>
+      <c r="L28" s="26">
         <v>7907.8890000000001</v>
       </c>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6">
+      <c r="M28" s="26"/>
+      <c r="N28" s="26">
         <v>670.48</v>
       </c>
-      <c r="O27" s="6">
+      <c r="O28" s="26">
         <v>1909.3415400000001</v>
       </c>
     </row>
-    <row r="28" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="27">
+    <row r="29" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="27">
         <v>2022</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C29" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D29" s="29">
         <f t="shared" si="1"/>
         <v>29865.323240000002</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E29" s="30">
         <v>1E-3</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F29" s="30">
         <v>12.166</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G29" s="30">
         <v>10484.763000000001</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H29" s="30">
         <v>925.66499999999996</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I29" s="30">
         <v>4138.0259999999998</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J29" s="30">
         <v>3314.2310000000002</v>
       </c>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12">
+      <c r="K29" s="30"/>
+      <c r="L29" s="30">
         <v>7746.2759999999998</v>
       </c>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12">
+      <c r="M29" s="30"/>
+      <c r="N29" s="30">
         <v>961.79730000000006</v>
       </c>
-      <c r="O28" s="12">
+      <c r="O29" s="30">
         <v>2282.3979400000003</v>
       </c>
     </row>
-    <row r="29" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="23">
+    <row r="30" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="15">
         <v>2022</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C30" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D30" s="17">
         <f t="shared" si="1"/>
         <v>29983.373589999999</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E30" s="18">
         <v>2E-3</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F30" s="18">
         <v>32.463999999999999</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G30" s="18">
         <v>10081.717000000001</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H30" s="18">
         <v>990.43700000000001</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I30" s="18">
         <v>5149.683</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J30" s="18">
         <v>3384.6909999999998</v>
       </c>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4">
+      <c r="K30" s="18"/>
+      <c r="L30" s="18">
         <v>7113.482</v>
       </c>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4">
+      <c r="M30" s="18"/>
+      <c r="N30" s="18">
         <v>970.55570000000012</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O30" s="18">
         <v>2260.3418900000001</v>
       </c>
     </row>
-    <row r="30" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="21">
+    <row r="31" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="19">
         <v>2022</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C31" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D31" s="21">
         <f t="shared" si="1"/>
         <v>29295.863820000002</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E31" s="22">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F31" s="22">
         <v>31.343</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G31" s="22">
         <v>9947.3389999999999</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H31" s="22">
         <v>926.49599999999998</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I31" s="22">
         <v>5335.3050000000003</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J31" s="22">
         <v>3159.48</v>
       </c>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7">
+      <c r="K31" s="22"/>
+      <c r="L31" s="22">
         <v>6728.7049999999999</v>
       </c>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7">
+      <c r="M31" s="22"/>
+      <c r="N31" s="22">
         <v>979.74129999999991</v>
       </c>
-      <c r="O30" s="7">
+      <c r="O31" s="22">
         <v>2187.4515200000001</v>
       </c>
     </row>
-    <row r="31" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="23">
+    <row r="32" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="15">
         <v>2022</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C32" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D32" s="17">
         <f t="shared" si="1"/>
         <v>26447.132749999997</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E32" s="18">
         <v>2E-3</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F32" s="18">
         <v>23.175000000000001</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G32" s="18">
         <v>9081.3619999999992</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H32" s="18">
         <v>703.86900000000003</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I32" s="18">
         <v>4176.1049999999996</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J32" s="18">
         <v>3254.7069999999999</v>
       </c>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4">
+      <c r="K32" s="18"/>
+      <c r="L32" s="18">
         <v>6617.3549999999996</v>
       </c>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4">
+      <c r="M32" s="18"/>
+      <c r="N32" s="18">
         <v>824.20899999999995</v>
       </c>
-      <c r="O31" s="4">
+      <c r="O32" s="18">
         <v>1766.3487500000001</v>
       </c>
     </row>
-    <row r="32" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="21">
+    <row r="33" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="19">
         <v>2022</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C33" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D33" s="21">
         <f t="shared" si="1"/>
         <v>26279.741409999995</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E33" s="22">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F33" s="22">
         <v>28.286999999999999</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G33" s="22">
         <v>9293.5259999999998</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H33" s="22">
         <v>859.87</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I33" s="22">
         <v>4037.6669999999999</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J33" s="22">
         <v>3520.194</v>
       </c>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7">
+      <c r="K33" s="22"/>
+      <c r="L33" s="22">
         <v>5886.08</v>
       </c>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7">
+      <c r="M33" s="22"/>
+      <c r="N33" s="22">
         <v>804.58889999999997</v>
       </c>
-      <c r="O32" s="7">
+      <c r="O33" s="22">
         <v>1849.52451</v>
       </c>
     </row>
-    <row r="33" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="23">
+    <row r="34" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="15">
         <v>2022</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C34" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D34" s="17">
         <f t="shared" si="1"/>
         <v>30603.772699999998</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E34" s="18">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F34" s="18">
         <v>31.623000000000001</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G34" s="18">
         <v>9435.7099999999991</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H34" s="18">
         <v>852.04499999999996</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I34" s="18">
         <v>4353.799</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J34" s="18">
         <v>3361.634</v>
       </c>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4">
+      <c r="K34" s="18"/>
+      <c r="L34" s="18">
         <v>10038.903</v>
       </c>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4">
+      <c r="M34" s="18"/>
+      <c r="N34" s="18">
         <v>692.77719999999999</v>
       </c>
-      <c r="O33" s="4">
+      <c r="O34" s="18">
         <v>1837.2745</v>
       </c>
     </row>
-    <row r="34" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="21">
+    <row r="35" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="19">
         <v>2022</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C35" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D35" s="21">
         <f t="shared" si="1"/>
         <v>32911.434350000003</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E35" s="22">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F35" s="22">
         <v>29.89</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G35" s="22">
         <v>9434.6640000000007</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H35" s="22">
         <v>704.59900000000005</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I35" s="22">
         <v>4932.3429999999998</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J35" s="22">
         <v>3363.165</v>
       </c>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7">
+      <c r="K35" s="22"/>
+      <c r="L35" s="22">
         <v>11698.642</v>
       </c>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7">
+      <c r="M35" s="22"/>
+      <c r="N35" s="22">
         <v>750.94670000000008</v>
       </c>
-      <c r="O34" s="7">
+      <c r="O35" s="22">
         <v>1997.1796499999998</v>
       </c>
     </row>
-    <row r="35" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="23">
+    <row r="36" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="15">
         <v>2022</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C36" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D36" s="17">
         <f t="shared" si="1"/>
         <v>32136.140250000004</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E36" s="18">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F36" s="18">
         <v>28.506</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G36" s="18">
         <v>9520.1350000000002</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H36" s="18">
         <v>707.80499999999995</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I36" s="18">
         <v>5145.5190000000002</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J36" s="18">
         <v>3217.3589999999999</v>
       </c>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4">
+      <c r="K36" s="18"/>
+      <c r="L36" s="18">
         <v>10677.519</v>
       </c>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4">
+      <c r="M36" s="18"/>
+      <c r="N36" s="18">
         <v>667.7</v>
       </c>
-      <c r="O35" s="4">
+      <c r="O36" s="18">
         <v>2171.5932499999999</v>
       </c>
     </row>
-    <row r="36" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="21">
+    <row r="37" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="19">
         <v>2022</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C37" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D37" s="21">
         <f t="shared" si="1"/>
         <v>27514.741269999999</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E37" s="22">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F37" s="22">
         <v>33.442</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G37" s="22">
         <v>8677.1650000000009</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H37" s="22">
         <v>704.93700000000001</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I37" s="22">
         <v>4385.1239999999998</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J37" s="22">
         <v>3089.9090000000001</v>
       </c>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7">
+      <c r="K37" s="22"/>
+      <c r="L37" s="22">
         <v>7847.8879999999999</v>
       </c>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7">
+      <c r="M37" s="22"/>
+      <c r="N37" s="22">
         <v>761.38699999999994</v>
       </c>
-      <c r="O36" s="7">
+      <c r="O37" s="22">
         <v>2014.8862699999997</v>
       </c>
     </row>
-    <row r="37" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="23">
+    <row r="38" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="15">
         <v>2022</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C38" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D38" s="17">
         <f t="shared" si="1"/>
         <v>30859.440460000002</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E38" s="18">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F38" s="18">
         <v>30.175999999999998</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G38" s="18">
         <v>9761.2630000000008</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H38" s="18">
         <v>1009.9829999999999</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I38" s="18">
         <v>6578.5140000000001</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J38" s="18">
         <v>3448.0540000000001</v>
       </c>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4">
+      <c r="K38" s="18"/>
+      <c r="L38" s="18">
         <v>7191.5020000000004</v>
       </c>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4">
+      <c r="M38" s="18"/>
+      <c r="N38" s="18">
         <v>742.69299999999998</v>
       </c>
-      <c r="O37" s="4">
+      <c r="O38" s="18">
         <v>2097.25146</v>
       </c>
     </row>
-    <row r="38" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="21">
+    <row r="39" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="19">
         <v>2022</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C39" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D39" s="21">
         <f t="shared" si="1"/>
         <v>26857.410190000002</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E39" s="22">
         <v>0</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F39" s="22">
         <v>26.463999999999999</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G39" s="22">
         <v>8399.2009999999991</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H39" s="22">
         <v>816.23900000000003</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I39" s="22">
         <v>4488.2250000000004</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J39" s="22">
         <v>3087.74</v>
       </c>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7">
+      <c r="K39" s="22"/>
+      <c r="L39" s="22">
         <v>7675.5219999999999</v>
       </c>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7">
+      <c r="M39" s="22"/>
+      <c r="N39" s="22">
         <v>680.0145</v>
       </c>
-      <c r="O38" s="7">
+      <c r="O39" s="22">
         <v>1684.00469</v>
       </c>
     </row>
-    <row r="39" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="25">
+    <row r="40" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="23">
         <v>2022</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C40" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D40" s="25">
         <f t="shared" si="1"/>
         <v>26010.419900000001</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E40" s="26">
         <v>0.01</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F40" s="26">
         <v>29.917000000000002</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G40" s="26">
         <v>8064.9719999999998</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H40" s="26">
         <v>759.41499999999996</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I40" s="26">
         <v>4874.95</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J40" s="26">
         <v>3142.1970000000001</v>
       </c>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6">
+      <c r="K40" s="26"/>
+      <c r="L40" s="26">
         <v>6776.384</v>
       </c>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6">
+      <c r="M40" s="26"/>
+      <c r="N40" s="26">
         <v>751.90069999999992</v>
       </c>
-      <c r="O39" s="6">
+      <c r="O40" s="26">
         <v>1610.6742000000002</v>
       </c>
     </row>
-    <row r="40" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="27">
+    <row r="41" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="27">
         <v>2021</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C41" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D41" s="29">
         <f t="shared" si="1"/>
         <v>31566.167749999997</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E41" s="30">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F41" s="30">
         <v>37.055</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G41" s="30">
         <v>9575.5380000000005</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H41" s="30">
         <v>889.38</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I41" s="30">
         <v>6288.674</v>
       </c>
-      <c r="J40" s="12">
+      <c r="J41" s="30">
         <v>4403.6390000000001</v>
       </c>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12">
+      <c r="K41" s="30"/>
+      <c r="L41" s="30">
         <v>7812.2049999999999</v>
       </c>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12">
+      <c r="M41" s="30"/>
+      <c r="N41" s="30">
         <v>644.26139999999998</v>
       </c>
-      <c r="O40" s="12">
+      <c r="O41" s="30">
         <v>1915.4123500000001</v>
       </c>
     </row>
-    <row r="41" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="23">
+    <row r="42" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="15">
         <v>2021</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C42" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D42" s="17">
         <f t="shared" si="1"/>
         <v>29944.972509999996</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E42" s="18">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F42" s="18">
         <v>42.304000000000002</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G42" s="18">
         <v>8541.3799999999992</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H42" s="18">
         <v>797.55100000000004</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I42" s="18">
         <v>5779.326</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J42" s="18">
         <v>3742.5929999999998</v>
       </c>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4">
+      <c r="K42" s="18"/>
+      <c r="L42" s="18">
         <v>8308.2459999999992</v>
       </c>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4">
+      <c r="M42" s="18"/>
+      <c r="N42" s="18">
         <v>761.88139999999999</v>
       </c>
-      <c r="O41" s="4">
+      <c r="O42" s="18">
         <v>1971.6851100000001</v>
       </c>
     </row>
-    <row r="42" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="21">
+    <row r="43" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="19">
         <v>2021</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C43" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D43" s="21">
         <f t="shared" si="1"/>
         <v>30000.867740000002</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E43" s="22">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F43" s="22">
         <v>29.148</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G43" s="22">
         <v>9141.5849999999991</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H43" s="22">
         <v>935.53599999999994</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I43" s="22">
         <v>5740.3919999999998</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J43" s="22">
         <v>3221.6640000000002</v>
       </c>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7">
+      <c r="K43" s="22"/>
+      <c r="L43" s="22">
         <v>8292.1039999999994</v>
       </c>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7">
+      <c r="M43" s="22"/>
+      <c r="N43" s="22">
         <v>722.20399999999995</v>
       </c>
-      <c r="O42" s="7">
+      <c r="O43" s="22">
         <v>1918.2237399999999</v>
       </c>
     </row>
-    <row r="43" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="23">
+    <row r="44" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="15">
         <v>2021</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C44" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="8">
-        <f t="shared" ref="D43:D74" si="3">SUM(E43:O43)</f>
+      <c r="D44" s="17">
+        <f t="shared" ref="D44:D75" si="3">SUM(E44:O44)</f>
         <v>25044.998970000004</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E44" s="18">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F44" s="18">
         <v>27.141999999999999</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G44" s="18">
         <v>7906.91</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H44" s="18">
         <v>875.76900000000001</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I44" s="18">
         <v>4566.3109999999997</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J44" s="18">
         <v>3115.0770000000002</v>
       </c>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4">
+      <c r="K44" s="18"/>
+      <c r="L44" s="18">
         <v>6415.2790000000005</v>
       </c>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4">
+      <c r="M44" s="18"/>
+      <c r="N44" s="18">
         <v>491.27</v>
       </c>
-      <c r="O43" s="4">
+      <c r="O44" s="18">
         <v>1647.23197</v>
       </c>
     </row>
-    <row r="44" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="21">
+    <row r="45" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="19">
         <v>2021</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C45" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D45" s="21">
         <f t="shared" si="3"/>
         <v>26801.51179</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E45" s="22">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F45" s="22">
         <v>26.024000000000001</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G45" s="22">
         <v>7787.3339999999998</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H45" s="22">
         <v>951.82</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I45" s="22">
         <v>5861.0240000000003</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J45" s="22">
         <v>2963.1660000000002</v>
       </c>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7">
+      <c r="K45" s="22"/>
+      <c r="L45" s="22">
         <v>6924.8339999999998</v>
       </c>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7">
+      <c r="M45" s="22"/>
+      <c r="N45" s="22">
         <v>590.37950000000001</v>
       </c>
-      <c r="O44" s="7">
+      <c r="O45" s="22">
         <v>1696.91929</v>
       </c>
     </row>
-    <row r="45" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="23">
+    <row r="46" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="15">
         <v>2021</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C46" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D46" s="17">
         <f t="shared" si="3"/>
         <v>29570.534019999996</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E46" s="18">
         <v>1.6E-2</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F46" s="18">
         <v>33.762999999999998</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G46" s="18">
         <v>7960.9809999999998</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H46" s="18">
         <v>980.41300000000001</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I46" s="18">
         <v>6238.2730000000001</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J46" s="18">
         <v>3189.866</v>
       </c>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4">
+      <c r="K46" s="18"/>
+      <c r="L46" s="18">
         <v>8884.8860000000004</v>
       </c>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4">
+      <c r="M46" s="18"/>
+      <c r="N46" s="18">
         <v>570.02250000000004</v>
       </c>
-      <c r="O45" s="4">
+      <c r="O46" s="18">
         <v>1712.3135199999999</v>
       </c>
     </row>
-    <row r="46" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="21">
+    <row r="47" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="19">
         <v>2021</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C47" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D47" s="21">
         <f t="shared" si="3"/>
         <v>26984.257880000001</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E47" s="22">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F47" s="22">
         <v>30.326000000000001</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G47" s="22">
         <v>6994.8090000000002</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H47" s="22">
         <v>938.22799999999995</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I47" s="22">
         <v>5685.7610000000004</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J47" s="22">
         <v>2933.55</v>
       </c>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7">
+      <c r="K47" s="22"/>
+      <c r="L47" s="22">
         <v>8239.3950000000004</v>
       </c>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7">
+      <c r="M47" s="22"/>
+      <c r="N47" s="22">
         <v>517.37900000000002</v>
       </c>
-      <c r="O46" s="7">
+      <c r="O47" s="22">
         <v>1644.78388</v>
       </c>
     </row>
-    <row r="47" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="23">
+    <row r="48" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="15">
         <v>2021</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C48" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D48" s="17">
         <f t="shared" si="3"/>
         <v>27395.161769999999</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E48" s="18">
         <v>1.2E-2</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F48" s="18">
         <v>34.064</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G48" s="18">
         <v>5853.0280000000002</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H48" s="18">
         <v>804.99099999999999</v>
       </c>
-      <c r="I47" s="4">
+      <c r="I48" s="18">
         <v>6221.6310000000003</v>
       </c>
-      <c r="J47" s="4">
+      <c r="J48" s="18">
         <v>2753.0189999999998</v>
       </c>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4">
+      <c r="K48" s="18"/>
+      <c r="L48" s="18">
         <v>9369.7039999999997</v>
       </c>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4">
+      <c r="M48" s="18"/>
+      <c r="N48" s="18">
         <v>581.25</v>
       </c>
-      <c r="O47" s="4">
+      <c r="O48" s="18">
         <v>1777.4627700000001</v>
       </c>
     </row>
-    <row r="48" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="21">
+    <row r="49" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="19">
         <v>2021</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C49" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D49" s="21">
         <f t="shared" si="3"/>
         <v>26794.383829999999</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E49" s="22">
         <v>1.4E-2</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F49" s="22">
         <v>28.870999999999999</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G49" s="22">
         <v>5583.2060000000001</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H49" s="22">
         <v>855.89099999999996</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I49" s="22">
         <v>5955.3379999999997</v>
       </c>
-      <c r="J48" s="7">
+      <c r="J49" s="22">
         <v>2553.587</v>
       </c>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7">
+      <c r="K49" s="22"/>
+      <c r="L49" s="22">
         <v>9635.8649999999998</v>
       </c>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7">
+      <c r="M49" s="22"/>
+      <c r="N49" s="22">
         <v>569.29200000000003</v>
       </c>
-      <c r="O48" s="7">
+      <c r="O49" s="22">
         <v>1612.3198300000001</v>
       </c>
     </row>
-    <row r="49" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="23">
+    <row r="50" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="15">
         <v>2021</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C50" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D50" s="17">
         <f t="shared" si="3"/>
         <v>28888.855879999999</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E50" s="18">
         <v>0.01</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F50" s="18">
         <v>30.994</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G50" s="18">
         <v>5972.1139999999996</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H50" s="18">
         <v>961.24900000000002</v>
       </c>
-      <c r="I49" s="4">
+      <c r="I50" s="18">
         <v>6821.0630000000001</v>
       </c>
-      <c r="J49" s="4">
+      <c r="J50" s="18">
         <v>2527.971</v>
       </c>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4">
+      <c r="K50" s="18"/>
+      <c r="L50" s="18">
         <v>10350.735000000001</v>
       </c>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4">
+      <c r="M50" s="18"/>
+      <c r="N50" s="18">
         <v>537.19399999999996</v>
       </c>
-      <c r="O49" s="4">
+      <c r="O50" s="18">
         <v>1687.5258799999999</v>
       </c>
     </row>
-    <row r="50" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="21">
+    <row r="51" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="19">
         <v>2021</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C51" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D51" s="21">
         <f t="shared" si="3"/>
         <v>25842.507199999996</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E51" s="22">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F51" s="22">
         <v>23.164999999999999</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G51" s="22">
         <v>5676.3119999999999</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H51" s="22">
         <v>842.12599999999998</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I51" s="22">
         <v>6447.9210000000003</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J51" s="22">
         <v>2143.1759999999999</v>
       </c>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7">
+      <c r="K51" s="22"/>
+      <c r="L51" s="22">
         <v>8771.1730000000007</v>
       </c>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7">
+      <c r="M51" s="22"/>
+      <c r="N51" s="22">
         <v>441.65600000000001</v>
       </c>
-      <c r="O50" s="7">
+      <c r="O51" s="22">
         <v>1496.9692</v>
       </c>
     </row>
-    <row r="51" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="25">
+    <row r="52" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="23">
         <v>2021</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="C52" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D52" s="25">
         <f t="shared" si="3"/>
         <v>26743.09706</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E52" s="26">
         <v>2.3E-2</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F52" s="26">
         <v>22.483000000000001</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G52" s="26">
         <v>5633.7330000000002</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H52" s="26">
         <v>893.20500000000004</v>
       </c>
-      <c r="I51" s="6">
+      <c r="I52" s="26">
         <v>5852.174</v>
       </c>
-      <c r="J51" s="6">
+      <c r="J52" s="26">
         <v>2714.6959999999999</v>
       </c>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6">
+      <c r="K52" s="26"/>
+      <c r="L52" s="26">
         <v>9764.4040000000005</v>
       </c>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6">
+      <c r="M52" s="26"/>
+      <c r="N52" s="26">
         <v>374.46</v>
       </c>
-      <c r="O51" s="6">
+      <c r="O52" s="26">
         <v>1487.9190599999999</v>
       </c>
     </row>
-    <row r="52" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="27">
+    <row r="53" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="27">
         <v>2020</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="C53" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D53" s="29">
         <f t="shared" si="3"/>
         <v>29335.748110000004</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E53" s="30">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F53" s="30">
         <v>30.75</v>
       </c>
-      <c r="G52" s="12">
+      <c r="G53" s="30">
         <v>5388.74</v>
       </c>
-      <c r="H52" s="12">
+      <c r="H53" s="30">
         <v>1227.8499999999999</v>
       </c>
-      <c r="I52" s="12">
+      <c r="I53" s="30">
         <v>8063.0550000000003</v>
       </c>
-      <c r="J52" s="12">
+      <c r="J53" s="30">
         <v>3485.029</v>
       </c>
-      <c r="K52" s="12">
+      <c r="K53" s="30">
         <v>16.4115</v>
       </c>
-      <c r="L52" s="12">
+      <c r="L53" s="30">
         <v>8808.3330000000005</v>
       </c>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12">
+      <c r="M53" s="30"/>
+      <c r="N53" s="30">
         <v>499.45499999999998</v>
       </c>
-      <c r="O52" s="12">
+      <c r="O53" s="30">
         <v>1816.0996100000002</v>
       </c>
     </row>
-    <row r="53" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="23">
+    <row r="54" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="15">
         <v>2020</v>
       </c>
-      <c r="C53" s="24" t="s">
+      <c r="C54" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D54" s="17">
         <f t="shared" si="3"/>
         <v>31111.598979999999</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E54" s="18">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F54" s="18">
         <v>29.420999999999999</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G54" s="18">
         <v>4646.3059999999996</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H54" s="18">
         <v>918.31700000000001</v>
       </c>
-      <c r="I53" s="4">
+      <c r="I54" s="18">
         <v>10405.393</v>
       </c>
-      <c r="J53" s="4">
+      <c r="J54" s="18">
         <v>3080.1370000000002</v>
       </c>
-      <c r="K53" s="4">
+      <c r="K54" s="18">
         <v>86.034999999999997</v>
       </c>
-      <c r="L53" s="4">
+      <c r="L54" s="18">
         <v>9680.3340000000007</v>
       </c>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4">
+      <c r="M54" s="18"/>
+      <c r="N54" s="18">
         <v>427.87200000000001</v>
       </c>
-      <c r="O53" s="4">
+      <c r="O54" s="18">
         <v>1837.75198</v>
       </c>
     </row>
-    <row r="54" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="21">
+    <row r="55" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="19">
         <v>2020</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C55" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D55" s="21">
         <f t="shared" si="3"/>
         <v>29198.211449999999</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E55" s="22">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F55" s="22">
         <v>25.18</v>
       </c>
-      <c r="G54" s="7">
+      <c r="G55" s="22">
         <v>4168.3999999999996</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H55" s="22">
         <v>855.53599999999994</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I55" s="22">
         <v>9141.11</v>
       </c>
-      <c r="J54" s="7">
+      <c r="J55" s="22">
         <v>2910.5740000000001</v>
       </c>
-      <c r="K54" s="7">
+      <c r="K55" s="22">
         <v>131.53100000000001</v>
       </c>
-      <c r="L54" s="7">
+      <c r="L55" s="22">
         <v>9811.7209999999995</v>
       </c>
-      <c r="M54" s="7"/>
-      <c r="N54" s="7">
+      <c r="M55" s="22"/>
+      <c r="N55" s="22">
         <v>328.78100000000001</v>
       </c>
-      <c r="O54" s="7">
+      <c r="O55" s="22">
         <v>1825.3604499999999</v>
       </c>
     </row>
-    <row r="55" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="23">
+    <row r="56" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="15">
         <v>2020</v>
       </c>
-      <c r="C55" s="24" t="s">
+      <c r="C56" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D56" s="17">
         <f t="shared" si="3"/>
         <v>25824.25403</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E56" s="18">
         <v>1.6E-2</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F56" s="18">
         <v>19.38</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G56" s="18">
         <v>3354.4870000000001</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H56" s="18">
         <v>815.01599999999996</v>
       </c>
-      <c r="I55" s="4">
+      <c r="I56" s="18">
         <v>9094.2099999999991</v>
       </c>
-      <c r="J55" s="4">
+      <c r="J56" s="18">
         <v>2742.8449999999998</v>
       </c>
-      <c r="K55" s="4">
+      <c r="K56" s="18">
         <v>94.078000000000003</v>
       </c>
-      <c r="L55" s="4">
+      <c r="L56" s="18">
         <v>7889.5420000000004</v>
       </c>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4">
+      <c r="M56" s="18"/>
+      <c r="N56" s="18">
         <v>300.25099999999998</v>
       </c>
-      <c r="O55" s="4">
+      <c r="O56" s="18">
         <v>1514.42903</v>
       </c>
     </row>
-    <row r="56" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="21">
+    <row r="57" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="19">
         <v>2020</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C57" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D57" s="21">
         <f t="shared" si="3"/>
         <v>23354.829529999999</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E57" s="22">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F57" s="22">
         <v>19.126000000000001</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G57" s="22">
         <v>2845.2860000000001</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H57" s="22">
         <v>913.84799999999996</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I57" s="22">
         <v>8628.9339999999993</v>
       </c>
-      <c r="J56" s="7">
+      <c r="J57" s="22">
         <v>2494.9360000000001</v>
       </c>
-      <c r="K56" s="7">
+      <c r="K57" s="22">
         <v>102.148</v>
       </c>
-      <c r="L56" s="7">
+      <c r="L57" s="22">
         <v>6734.2569999999996</v>
       </c>
-      <c r="M56" s="7"/>
-      <c r="N56" s="7">
+      <c r="M57" s="22"/>
+      <c r="N57" s="22">
         <v>214.13300000000001</v>
       </c>
-      <c r="O56" s="7">
+      <c r="O57" s="22">
         <v>1402.1505300000001</v>
       </c>
     </row>
-    <row r="57" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="23">
+    <row r="58" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="15">
         <v>2020</v>
       </c>
-      <c r="C57" s="24" t="s">
+      <c r="C58" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D58" s="17">
         <f t="shared" si="3"/>
         <v>19260.244039999998</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E58" s="18">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F58" s="18">
         <v>18.687000000000001</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G58" s="18">
         <v>2326.4090000000001</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H58" s="18">
         <v>969.73</v>
       </c>
-      <c r="I57" s="4">
+      <c r="I58" s="18">
         <v>5828.2169999999996</v>
       </c>
-      <c r="J57" s="4">
+      <c r="J58" s="18">
         <v>2394.4169999999999</v>
       </c>
-      <c r="K57" s="4">
+      <c r="K58" s="18">
         <v>76.744</v>
       </c>
-      <c r="L57" s="4">
+      <c r="L58" s="18">
         <v>6273.5619999999999</v>
       </c>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4">
+      <c r="M58" s="18"/>
+      <c r="N58" s="18">
         <v>151.30000000000001</v>
       </c>
-      <c r="O57" s="4">
+      <c r="O58" s="18">
         <v>1221.17004</v>
       </c>
     </row>
-    <row r="58" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="21">
+    <row r="59" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="19">
         <v>2020</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C59" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D59" s="21">
         <f t="shared" si="3"/>
         <v>16681.950259999998</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E59" s="22">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F59" s="22">
         <v>15.773</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G59" s="22">
         <v>1336.4849999999999</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H59" s="22">
         <v>585.92899999999997</v>
       </c>
-      <c r="I58" s="7">
+      <c r="I59" s="22">
         <v>5587.4769999999999</v>
       </c>
-      <c r="J58" s="7">
+      <c r="J59" s="22">
         <v>2256.6930000000002</v>
       </c>
-      <c r="K58" s="7">
+      <c r="K59" s="22">
         <v>42.146999999999998</v>
       </c>
-      <c r="L58" s="7">
+      <c r="L59" s="22">
         <v>5744.8710000000001</v>
       </c>
-      <c r="M58" s="7"/>
-      <c r="N58" s="7">
+      <c r="M59" s="22"/>
+      <c r="N59" s="22">
         <v>118.29600000000001</v>
       </c>
-      <c r="O58" s="7">
+      <c r="O59" s="22">
         <v>994.26826000000005</v>
       </c>
     </row>
-    <row r="59" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="23">
+    <row r="60" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="15">
         <v>2020</v>
       </c>
-      <c r="C59" s="24" t="s">
+      <c r="C60" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D60" s="17">
         <f t="shared" si="3"/>
         <v>15536.86291</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E60" s="18">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F60" s="18">
         <v>9.4559999999999995</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G60" s="18">
         <v>799.72500000000002</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H60" s="18">
         <v>697.28700000000003</v>
       </c>
-      <c r="I59" s="4">
+      <c r="I60" s="18">
         <v>5542.4840000000004</v>
       </c>
-      <c r="J59" s="4">
+      <c r="J60" s="18">
         <v>2132.3310000000001</v>
       </c>
-      <c r="K59" s="4">
+      <c r="K60" s="18">
         <v>69.804000000000002</v>
       </c>
-      <c r="L59" s="4">
+      <c r="L60" s="18">
         <v>5558.576</v>
       </c>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4">
+      <c r="M60" s="18"/>
+      <c r="N60" s="18">
         <v>143.20510000000002</v>
       </c>
-      <c r="O59" s="4">
+      <c r="O60" s="18">
         <v>583.9918100000001</v>
       </c>
     </row>
-    <row r="60" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="21">
+    <row r="61" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="19">
         <v>2020</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C61" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D61" s="21">
         <f t="shared" si="3"/>
         <v>13161.648870000003</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E61" s="22">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F61" s="22">
         <v>7.4619999999999997</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G61" s="22">
         <v>1038.125</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H61" s="22">
         <v>754.48400000000004</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I61" s="22">
         <v>5034.1760000000004</v>
       </c>
-      <c r="J60" s="7">
+      <c r="J61" s="22">
         <v>1894.93</v>
       </c>
-      <c r="K60" s="7">
+      <c r="K61" s="22">
         <v>59.36</v>
       </c>
-      <c r="L60" s="7">
+      <c r="L61" s="22">
         <v>3753.6880000000001</v>
       </c>
-      <c r="M60" s="7"/>
-      <c r="N60" s="7">
+      <c r="M61" s="22"/>
+      <c r="N61" s="22">
         <v>60.6843</v>
       </c>
-      <c r="O60" s="7">
+      <c r="O61" s="22">
         <v>558.7325699999999</v>
       </c>
     </row>
-    <row r="61" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="23">
+    <row r="62" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="15">
         <v>2020</v>
       </c>
-      <c r="C61" s="24" t="s">
+      <c r="C62" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D62" s="17">
         <f t="shared" si="3"/>
         <v>22714.14399</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E62" s="18">
         <v>3.1E-2</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F62" s="18">
         <v>35.988999999999997</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G62" s="18">
         <v>7356.9930000000004</v>
       </c>
-      <c r="H61" s="4">
+      <c r="H62" s="18">
         <v>1318.52</v>
       </c>
-      <c r="I61" s="4">
+      <c r="I62" s="18">
         <v>4797.09</v>
       </c>
-      <c r="J61" s="4">
+      <c r="J62" s="18">
         <v>1722.712</v>
       </c>
-      <c r="K61" s="4">
+      <c r="K62" s="18">
         <v>1659.4059999999999</v>
       </c>
-      <c r="L61" s="4">
+      <c r="L62" s="18">
         <v>4510.4480000000003</v>
       </c>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4">
+      <c r="M62" s="18"/>
+      <c r="N62" s="18">
         <v>102.3022</v>
       </c>
-      <c r="O61" s="4">
+      <c r="O62" s="18">
         <v>1210.6527900000001</v>
       </c>
     </row>
-    <row r="62" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="21">
+    <row r="63" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="19">
         <v>2020</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C63" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D63" s="21">
         <f t="shared" si="3"/>
         <v>23622.028510000007</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E63" s="22">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F63" s="22">
         <v>56.369</v>
       </c>
-      <c r="G62" s="7">
+      <c r="G63" s="22">
         <v>9237.1190000000006</v>
       </c>
-      <c r="H62" s="7">
+      <c r="H63" s="22">
         <v>1428.3530000000001</v>
       </c>
-      <c r="I62" s="7">
+      <c r="I63" s="22">
         <v>3273.0720000000001</v>
       </c>
-      <c r="J62" s="7">
+      <c r="J63" s="22">
         <v>1520.239</v>
       </c>
-      <c r="K62" s="7">
+      <c r="K63" s="22">
         <v>2283.7510000000002</v>
       </c>
-      <c r="L62" s="7">
+      <c r="L63" s="22">
         <v>4116.8599999999997</v>
       </c>
-      <c r="M62" s="7"/>
-      <c r="N62" s="7">
+      <c r="M63" s="22"/>
+      <c r="N63" s="22">
         <v>132.3349</v>
       </c>
-      <c r="O62" s="7">
+      <c r="O63" s="22">
         <v>1573.90461</v>
       </c>
     </row>
-    <row r="63" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="25">
+    <row r="64" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="23">
         <v>2020</v>
       </c>
-      <c r="C63" s="26" t="s">
+      <c r="C64" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D64" s="25">
         <f t="shared" si="3"/>
         <v>26687.883509999996</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E64" s="26">
         <v>4.7E-2</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F64" s="26">
         <v>53.219000000000001</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G64" s="26">
         <v>8754.5229999999992</v>
       </c>
-      <c r="H63" s="6">
+      <c r="H64" s="26">
         <v>1369.674</v>
       </c>
-      <c r="I63" s="6">
+      <c r="I64" s="26">
         <v>5338.8549999999996</v>
       </c>
-      <c r="J63" s="6">
+      <c r="J64" s="26">
         <v>1679.8140000000001</v>
       </c>
-      <c r="K63" s="6">
+      <c r="K64" s="26">
         <v>2456.4389999999999</v>
       </c>
-      <c r="L63" s="6">
+      <c r="L64" s="26">
         <v>5287.6</v>
       </c>
-      <c r="M63" s="6"/>
-      <c r="N63" s="6">
+      <c r="M64" s="26"/>
+      <c r="N64" s="26">
         <v>71.972800000000007</v>
       </c>
-      <c r="O63" s="6">
+      <c r="O64" s="26">
         <v>1675.7397100000001</v>
       </c>
     </row>
-    <row r="64" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="27">
+    <row r="65" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="27">
         <v>2019</v>
       </c>
-      <c r="C64" s="28" t="s">
+      <c r="C65" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D65" s="29">
         <f t="shared" si="3"/>
         <v>31427.187729999998</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E65" s="30">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="F64" s="12">
+      <c r="F65" s="30">
         <v>86.153999999999996</v>
       </c>
-      <c r="G64" s="12">
+      <c r="G65" s="30">
         <v>9577.1149999999998</v>
       </c>
-      <c r="H64" s="12">
+      <c r="H65" s="30">
         <v>1676.4159999999999</v>
       </c>
-      <c r="I64" s="12">
+      <c r="I65" s="30">
         <v>6029.0749999999998</v>
       </c>
-      <c r="J64" s="12">
+      <c r="J65" s="30">
         <v>2445.3470000000002</v>
       </c>
-      <c r="K64" s="12">
+      <c r="K65" s="30">
         <v>2928.4569999999999</v>
       </c>
-      <c r="L64" s="12">
+      <c r="L65" s="30">
         <v>5030.2939999999999</v>
       </c>
-      <c r="M64" s="12"/>
-      <c r="N64" s="12">
+      <c r="M65" s="30"/>
+      <c r="N65" s="30">
         <v>65.746300000000005</v>
       </c>
-      <c r="O64" s="12">
+      <c r="O65" s="30">
         <v>3588.5074299999997</v>
       </c>
     </row>
-    <row r="65" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="23">
+    <row r="66" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="15">
         <v>2019</v>
       </c>
-      <c r="C65" s="24" t="s">
+      <c r="C66" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D66" s="17">
         <f t="shared" si="3"/>
         <v>31763.522410000001</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E66" s="18">
         <v>1.76</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F66" s="18">
         <v>80.100999999999999</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G66" s="18">
         <v>9752.0519999999997</v>
       </c>
-      <c r="H65" s="4">
+      <c r="H66" s="18">
         <v>1595.383</v>
       </c>
-      <c r="I65" s="4">
+      <c r="I66" s="18">
         <v>5103.0559999999996</v>
       </c>
-      <c r="J65" s="4">
+      <c r="J66" s="18">
         <v>2658.252</v>
       </c>
-      <c r="K65" s="4">
+      <c r="K66" s="18">
         <v>3015.0219999999999</v>
       </c>
-      <c r="L65" s="4">
+      <c r="L66" s="18">
         <v>5793.69</v>
       </c>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4">
+      <c r="M66" s="18"/>
+      <c r="N66" s="18">
         <v>12.758299999999998</v>
       </c>
-      <c r="O65" s="4">
+      <c r="O66" s="18">
         <v>3751.4481100000003</v>
       </c>
     </row>
-    <row r="66" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="21">
+    <row r="67" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="19">
         <v>2019</v>
       </c>
-      <c r="C66" s="22" t="s">
+      <c r="C67" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D67" s="21">
         <f t="shared" si="3"/>
         <v>31229.518959999994</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E67" s="22">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F67" s="22">
         <v>72</v>
       </c>
-      <c r="G66" s="7">
+      <c r="G67" s="22">
         <v>9994.6419999999998</v>
       </c>
-      <c r="H66" s="7">
+      <c r="H67" s="22">
         <v>1608.7059999999999</v>
       </c>
-      <c r="I66" s="7">
+      <c r="I67" s="22">
         <v>4575.3310000000001</v>
       </c>
-      <c r="J66" s="7">
+      <c r="J67" s="22">
         <v>2828.3510000000001</v>
       </c>
-      <c r="K66" s="7">
+      <c r="K67" s="22">
         <v>2682.761</v>
       </c>
-      <c r="L66" s="7">
+      <c r="L67" s="22">
         <v>5549.9949999999999</v>
       </c>
-      <c r="M66" s="7"/>
-      <c r="N66" s="7"/>
-      <c r="O66" s="7">
+      <c r="M67" s="22"/>
+      <c r="N67" s="22"/>
+      <c r="O67" s="22">
         <v>3917.6479599999998</v>
       </c>
     </row>
-    <row r="67" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="23">
+    <row r="68" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="15">
         <v>2019</v>
       </c>
-      <c r="C67" s="24" t="s">
+      <c r="C68" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D68" s="17">
         <f t="shared" si="3"/>
         <v>29172.540249999998</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E68" s="18">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F68" s="18">
         <v>54.752000000000002</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G68" s="18">
         <v>9010.31</v>
       </c>
-      <c r="H67" s="4">
+      <c r="H68" s="18">
         <v>1396.2560000000001</v>
       </c>
-      <c r="I67" s="4">
+      <c r="I68" s="18">
         <v>5775.3389999999999</v>
       </c>
-      <c r="J67" s="4">
+      <c r="J68" s="18">
         <v>2331.1950000000002</v>
       </c>
-      <c r="K67" s="4">
+      <c r="K68" s="18">
         <v>2334.8119999999999</v>
       </c>
-      <c r="L67" s="4">
+      <c r="L68" s="18">
         <v>4893.7089999999998</v>
       </c>
-      <c r="M67" s="4"/>
-      <c r="N67" s="4"/>
-      <c r="O67" s="4">
+      <c r="M68" s="18"/>
+      <c r="N68" s="18"/>
+      <c r="O68" s="18">
         <v>3376.1322500000001</v>
       </c>
     </row>
-    <row r="68" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="21">
+    <row r="69" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="19">
         <v>2019</v>
       </c>
-      <c r="C68" s="22" t="s">
+      <c r="C69" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D69" s="21">
         <f t="shared" si="3"/>
         <v>28718.377859999997</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E69" s="22">
         <v>5.59633</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F69" s="22">
         <v>57.29</v>
       </c>
-      <c r="G68" s="7">
+      <c r="G69" s="22">
         <v>8610.5910000000003</v>
       </c>
-      <c r="H68" s="7">
+      <c r="H69" s="22">
         <v>1665.9570000000001</v>
       </c>
-      <c r="I68" s="7">
+      <c r="I69" s="22">
         <v>5196.0309999999999</v>
       </c>
-      <c r="J68" s="7">
+      <c r="J69" s="22">
         <v>2672.4050000000002</v>
       </c>
-      <c r="K68" s="7">
+      <c r="K69" s="22">
         <v>2511.7330000000002</v>
       </c>
-      <c r="L68" s="7">
+      <c r="L69" s="22">
         <v>4774.3459999999995</v>
       </c>
-      <c r="M68" s="7"/>
-      <c r="N68" s="7"/>
-      <c r="O68" s="7">
+      <c r="M69" s="22"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="22">
         <v>3224.4285300000001</v>
       </c>
     </row>
-    <row r="69" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="23">
+    <row r="70" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="15">
         <v>2019</v>
       </c>
-      <c r="C69" s="24" t="s">
+      <c r="C70" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D70" s="17">
         <f t="shared" si="3"/>
         <v>28707.78629</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E70" s="18">
         <v>6.0529999999999999</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F70" s="18">
         <v>57.801000000000002</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G70" s="18">
         <v>8986.9670000000006</v>
       </c>
-      <c r="H69" s="4">
+      <c r="H70" s="18">
         <v>1788.191</v>
       </c>
-      <c r="I69" s="4">
+      <c r="I70" s="18">
         <v>5135.1639999999998</v>
       </c>
-      <c r="J69" s="4">
+      <c r="J70" s="18">
         <v>2578.5520000000001</v>
       </c>
-      <c r="K69" s="4">
+      <c r="K70" s="18">
         <v>2341.8049999999998</v>
       </c>
-      <c r="L69" s="4">
+      <c r="L70" s="18">
         <v>4798.0159999999996</v>
       </c>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
-      <c r="O69" s="4">
+      <c r="M70" s="18"/>
+      <c r="N70" s="18"/>
+      <c r="O70" s="18">
         <v>3015.23729</v>
       </c>
     </row>
-    <row r="70" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="21">
+    <row r="71" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="19">
         <v>2019</v>
       </c>
-      <c r="C70" s="22" t="s">
+      <c r="C71" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D71" s="21">
         <f t="shared" si="3"/>
         <v>27292.410609999999</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E71" s="22">
         <v>5.46</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F71" s="22">
         <v>55.997999999999998</v>
       </c>
-      <c r="G70" s="7">
+      <c r="G71" s="22">
         <v>8069.7749999999996</v>
       </c>
-      <c r="H70" s="7">
+      <c r="H71" s="22">
         <v>1587.973</v>
       </c>
-      <c r="I70" s="7">
+      <c r="I71" s="22">
         <v>5215.268</v>
       </c>
-      <c r="J70" s="7">
+      <c r="J71" s="22">
         <v>2428.5169999999998</v>
       </c>
-      <c r="K70" s="7">
+      <c r="K71" s="22">
         <v>2360.0700000000002</v>
       </c>
-      <c r="L70" s="7">
+      <c r="L71" s="22">
         <v>4450.9750000000004</v>
       </c>
-      <c r="M70" s="7"/>
-      <c r="N70" s="7"/>
-      <c r="O70" s="7">
+      <c r="M71" s="22"/>
+      <c r="N71" s="22"/>
+      <c r="O71" s="22">
         <v>3118.3746100000003</v>
       </c>
     </row>
-    <row r="71" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="23">
+    <row r="72" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="15">
         <v>2019</v>
       </c>
-      <c r="C71" s="24" t="s">
+      <c r="C72" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D72" s="17">
         <f t="shared" si="3"/>
         <v>29113.054540000001</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E72" s="18">
         <v>6.2110000000000003</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F72" s="18">
         <v>67.53</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G72" s="18">
         <v>8472.9789999999994</v>
       </c>
-      <c r="H71" s="4">
+      <c r="H72" s="18">
         <v>1708.221</v>
       </c>
-      <c r="I71" s="4">
+      <c r="I72" s="18">
         <v>5081.5749999999998</v>
       </c>
-      <c r="J71" s="4">
+      <c r="J72" s="18">
         <v>2646.9789999999998</v>
       </c>
-      <c r="K71" s="4">
+      <c r="K72" s="18">
         <v>2406.2260000000001</v>
       </c>
-      <c r="L71" s="4">
+      <c r="L72" s="18">
         <v>5332.5439999999999</v>
       </c>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4"/>
-      <c r="O71" s="4">
+      <c r="M72" s="18"/>
+      <c r="N72" s="18"/>
+      <c r="O72" s="18">
         <v>3390.7895400000002</v>
       </c>
     </row>
-    <row r="72" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="21">
+    <row r="73" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="19">
         <v>2019</v>
       </c>
-      <c r="C72" s="22" t="s">
+      <c r="C73" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D73" s="21">
         <f t="shared" si="3"/>
         <v>31250.364179999997</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E73" s="22">
         <v>7.8460000000000001</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F73" s="22">
         <v>56.534999999999997</v>
       </c>
-      <c r="G72" s="7">
+      <c r="G73" s="22">
         <v>8624.3449999999993</v>
       </c>
-      <c r="H72" s="7">
+      <c r="H73" s="22">
         <v>1621.0229999999999</v>
       </c>
-      <c r="I72" s="7">
+      <c r="I73" s="22">
         <v>8671.3349999999991</v>
       </c>
-      <c r="J72" s="7">
+      <c r="J73" s="22">
         <v>2304.8890000000001</v>
       </c>
-      <c r="K72" s="7">
+      <c r="K73" s="22">
         <v>2447.4609999999998</v>
       </c>
-      <c r="L72" s="7">
+      <c r="L73" s="22">
         <v>4465.5820000000003</v>
       </c>
-      <c r="M72" s="7"/>
-      <c r="N72" s="7"/>
-      <c r="O72" s="7">
+      <c r="M73" s="22"/>
+      <c r="N73" s="22"/>
+      <c r="O73" s="22">
         <v>3051.34818</v>
       </c>
     </row>
-    <row r="73" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="23">
+    <row r="74" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="15">
         <v>2019</v>
       </c>
-      <c r="C73" s="24" t="s">
+      <c r="C74" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D74" s="17">
         <f t="shared" si="3"/>
         <v>31365.490560000002</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E74" s="18">
         <v>5.36</v>
       </c>
-      <c r="F73" s="4">
+      <c r="F74" s="18">
         <v>59.417999999999999</v>
       </c>
-      <c r="G73" s="4">
+      <c r="G74" s="18">
         <v>9153.4</v>
       </c>
-      <c r="H73" s="4">
+      <c r="H74" s="18">
         <v>1573.4939999999999</v>
       </c>
-      <c r="I73" s="4">
+      <c r="I74" s="18">
         <v>7744.9759999999997</v>
       </c>
-      <c r="J73" s="4">
+      <c r="J74" s="18">
         <v>2483.4180000000001</v>
       </c>
-      <c r="K73" s="4">
+      <c r="K74" s="18">
         <v>2376.971</v>
       </c>
-      <c r="L73" s="4">
+      <c r="L74" s="18">
         <v>4955.9579999999996</v>
       </c>
-      <c r="M73" s="4"/>
-      <c r="N73" s="4"/>
-      <c r="O73" s="4">
+      <c r="M74" s="18"/>
+      <c r="N74" s="18"/>
+      <c r="O74" s="18">
         <v>3012.4955599999998</v>
       </c>
     </row>
-    <row r="74" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="21">
+    <row r="75" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="19">
         <v>2019</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="C75" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D75" s="21">
         <f t="shared" si="3"/>
         <v>27676.571899999999</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E75" s="22">
         <v>5.3540000000000001</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F75" s="22">
         <v>60.44</v>
       </c>
-      <c r="G74" s="7">
+      <c r="G75" s="22">
         <v>8240.6730000000007</v>
       </c>
-      <c r="H74" s="7">
+      <c r="H75" s="22">
         <v>1223.51</v>
       </c>
-      <c r="I74" s="7">
+      <c r="I75" s="22">
         <v>6582.1109999999999</v>
       </c>
-      <c r="J74" s="7">
+      <c r="J75" s="22">
         <v>2315.9119999999998</v>
       </c>
-      <c r="K74" s="7">
+      <c r="K75" s="22">
         <v>2451.8209999999999</v>
       </c>
-      <c r="L74" s="7">
+      <c r="L75" s="22">
         <v>3688.9839999999999</v>
       </c>
-      <c r="M74" s="7"/>
-      <c r="N74" s="7"/>
-      <c r="O74" s="7">
+      <c r="M75" s="22"/>
+      <c r="N75" s="22"/>
+      <c r="O75" s="22">
         <v>3107.7669000000001</v>
       </c>
     </row>
-    <row r="75" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="25">
+    <row r="76" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="23">
         <v>2019</v>
       </c>
-      <c r="C75" s="26" t="s">
+      <c r="C76" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="10">
-        <f t="shared" ref="D75:D87" si="4">SUM(E75:O75)</f>
+      <c r="D76" s="25">
+        <f t="shared" ref="D76:D88" si="4">SUM(E76:O76)</f>
         <v>31729.582690000007</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E76" s="26">
         <v>6.7610000000000001</v>
       </c>
-      <c r="F75" s="6">
+      <c r="F76" s="26">
         <v>74.009</v>
       </c>
-      <c r="G75" s="6">
+      <c r="G76" s="26">
         <v>7747.527</v>
       </c>
-      <c r="H75" s="6">
+      <c r="H76" s="26">
         <v>1196.4000000000001</v>
       </c>
-      <c r="I75" s="6">
+      <c r="I76" s="26">
         <v>8376.51</v>
       </c>
-      <c r="J75" s="6">
+      <c r="J76" s="26">
         <v>2613.239</v>
       </c>
-      <c r="K75" s="6">
+      <c r="K76" s="26">
         <v>4476.8249999999998</v>
       </c>
-      <c r="L75" s="6">
+      <c r="L76" s="26">
         <v>3965.1860000000001</v>
       </c>
-      <c r="M75" s="6"/>
-      <c r="N75" s="6"/>
-      <c r="O75" s="6">
+      <c r="M76" s="26"/>
+      <c r="N76" s="26"/>
+      <c r="O76" s="26">
         <v>3273.1256899999998</v>
       </c>
     </row>
-    <row r="76" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="22">
+    <row r="77" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="20">
         <v>2018</v>
       </c>
-      <c r="C76" s="22" t="s">
+      <c r="C77" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D77" s="21">
         <f t="shared" si="4"/>
         <v>27825.537</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E77" s="22">
         <v>11.624000000000001</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F77" s="22">
         <v>93.391999999999996</v>
       </c>
-      <c r="G76" s="7">
+      <c r="G77" s="22">
         <v>8828.0380000000005</v>
       </c>
-      <c r="H76" s="7">
+      <c r="H77" s="22">
         <v>1419.221</v>
       </c>
-      <c r="I76" s="7">
+      <c r="I77" s="22">
         <v>8160.1949999999997</v>
       </c>
-      <c r="J76" s="7">
+      <c r="J77" s="22">
         <v>2550.1379999999999</v>
       </c>
-      <c r="K76" s="7">
+      <c r="K77" s="22">
         <v>2539.4380000000001</v>
       </c>
-      <c r="L76" s="7">
+      <c r="L77" s="22">
         <v>4208.37</v>
       </c>
-      <c r="M76" s="7"/>
-      <c r="N76" s="7"/>
-      <c r="O76" s="7">
+      <c r="M77" s="22"/>
+      <c r="N77" s="22"/>
+      <c r="O77" s="22">
         <v>15.121</v>
       </c>
     </row>
-    <row r="77" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="24">
+    <row r="78" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="16">
         <v>2018</v>
       </c>
-      <c r="C77" s="24" t="s">
+      <c r="C78" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D78" s="17">
         <f t="shared" si="4"/>
         <v>30438.187000000005</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E78" s="18">
         <v>9.8219999999999992</v>
       </c>
-      <c r="F77" s="4">
+      <c r="F78" s="18">
         <v>90.676000000000002</v>
       </c>
-      <c r="G77" s="4">
+      <c r="G78" s="18">
         <v>9033.7459999999992</v>
       </c>
-      <c r="H77" s="4">
+      <c r="H78" s="18">
         <v>1677.8789999999999</v>
       </c>
-      <c r="I77" s="4">
+      <c r="I78" s="18">
         <v>9087.1730000000007</v>
       </c>
-      <c r="J77" s="4">
+      <c r="J78" s="18">
         <v>2973.703</v>
       </c>
-      <c r="K77" s="4">
+      <c r="K78" s="18">
         <v>2449.9479999999999</v>
       </c>
-      <c r="L77" s="4">
+      <c r="L78" s="18">
         <v>5104.8959999999997</v>
       </c>
-      <c r="M77" s="4"/>
-      <c r="N77" s="4"/>
-      <c r="O77" s="4">
+      <c r="M78" s="18"/>
+      <c r="N78" s="18"/>
+      <c r="O78" s="18">
         <v>10.343999999999999</v>
       </c>
     </row>
-    <row r="78" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="22">
+    <row r="79" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="20">
         <v>2018</v>
       </c>
-      <c r="C78" s="22" t="s">
+      <c r="C79" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D79" s="21">
         <f t="shared" si="4"/>
         <v>30428.691999999999</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E79" s="22">
         <v>8.2870000000000008</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F79" s="22">
         <v>78.7</v>
       </c>
-      <c r="G78" s="7">
+      <c r="G79" s="22">
         <v>8819.0689999999995</v>
       </c>
-      <c r="H78" s="7">
+      <c r="H79" s="22">
         <v>1516.8230000000001</v>
       </c>
-      <c r="I78" s="7">
+      <c r="I79" s="22">
         <v>9777.8709999999992</v>
       </c>
-      <c r="J78" s="7">
+      <c r="J79" s="22">
         <v>2987.6489999999999</v>
       </c>
-      <c r="K78" s="7">
+      <c r="K79" s="22">
         <v>1751.569</v>
       </c>
-      <c r="L78" s="7">
+      <c r="L79" s="22">
         <v>5477.6930000000002</v>
       </c>
-      <c r="M78" s="7"/>
-      <c r="N78" s="7"/>
-      <c r="O78" s="7">
+      <c r="M79" s="22"/>
+      <c r="N79" s="22"/>
+      <c r="O79" s="22">
         <v>11.031000000000001</v>
       </c>
     </row>
-    <row r="79" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="24">
+    <row r="80" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="16">
         <v>2018</v>
       </c>
-      <c r="C79" s="24" t="s">
+      <c r="C80" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D80" s="17">
         <f t="shared" si="4"/>
         <v>27010.514999999999</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E80" s="18">
         <v>10.707000000000001</v>
       </c>
-      <c r="F79" s="4">
+      <c r="F80" s="18">
         <v>62.167000000000002</v>
       </c>
-      <c r="G79" s="4">
+      <c r="G80" s="18">
         <v>8102.4960000000001</v>
       </c>
-      <c r="H79" s="4">
+      <c r="H80" s="18">
         <v>1416.539</v>
       </c>
-      <c r="I79" s="4">
+      <c r="I80" s="18">
         <v>8463.5859999999993</v>
       </c>
-      <c r="J79" s="4">
+      <c r="J80" s="18">
         <v>2463.84</v>
       </c>
-      <c r="K79" s="4">
+      <c r="K80" s="18">
         <v>1662.82</v>
       </c>
-      <c r="L79" s="4">
+      <c r="L80" s="18">
         <v>4814.68</v>
       </c>
-      <c r="M79" s="4"/>
-      <c r="N79" s="4"/>
-      <c r="O79" s="4">
+      <c r="M80" s="18"/>
+      <c r="N80" s="18"/>
+      <c r="O80" s="18">
         <v>13.68</v>
       </c>
     </row>
-    <row r="80" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="22">
+    <row r="81" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="20">
         <v>2018</v>
       </c>
-      <c r="C80" s="22" t="s">
+      <c r="C81" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D81" s="21">
         <f t="shared" si="4"/>
         <v>27455.597999999998</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E81" s="22">
         <v>10.06</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F81" s="22">
         <v>67.233999999999995</v>
       </c>
-      <c r="G80" s="7">
+      <c r="G81" s="22">
         <v>8035.7269999999999</v>
       </c>
-      <c r="H80" s="7">
+      <c r="H81" s="22">
         <v>1692.001</v>
       </c>
-      <c r="I80" s="7">
+      <c r="I81" s="22">
         <v>8464.9650000000001</v>
       </c>
-      <c r="J80" s="7">
+      <c r="J81" s="22">
         <v>2758.96</v>
       </c>
-      <c r="K80" s="7">
+      <c r="K81" s="22">
         <v>1732.587</v>
       </c>
-      <c r="L80" s="7">
+      <c r="L81" s="22">
         <v>4679.0959999999995</v>
       </c>
-      <c r="M80" s="7"/>
-      <c r="N80" s="7"/>
-      <c r="O80" s="7">
+      <c r="M81" s="22"/>
+      <c r="N81" s="22"/>
+      <c r="O81" s="22">
         <v>14.968</v>
       </c>
     </row>
-    <row r="81" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="24">
+    <row r="82" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="16">
         <v>2018</v>
       </c>
-      <c r="C81" s="24" t="s">
+      <c r="C82" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D82" s="17">
         <f t="shared" si="4"/>
         <v>27442.177</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E82" s="18">
         <v>10.051</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F82" s="18">
         <v>63.811</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G82" s="18">
         <v>7722.7290000000003</v>
       </c>
-      <c r="H81" s="4">
+      <c r="H82" s="18">
         <v>1496.4</v>
       </c>
-      <c r="I81" s="4">
+      <c r="I82" s="18">
         <v>8747.1980000000003</v>
       </c>
-      <c r="J81" s="4">
+      <c r="J82" s="18">
         <v>2551.65</v>
       </c>
-      <c r="K81" s="4">
+      <c r="K82" s="18">
         <v>1697.7090000000001</v>
       </c>
-      <c r="L81" s="4">
+      <c r="L82" s="18">
         <v>5136.6130000000003</v>
       </c>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
-      <c r="O81" s="4">
+      <c r="M82" s="18"/>
+      <c r="N82" s="18"/>
+      <c r="O82" s="18">
         <v>16.015999999999998</v>
       </c>
     </row>
-    <row r="82" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="22">
+    <row r="83" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="20">
         <v>2018</v>
       </c>
-      <c r="C82" s="22" t="s">
+      <c r="C83" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D82" s="9">
+      <c r="D83" s="21">
         <f t="shared" si="4"/>
         <v>27934.611100000002</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E83" s="22">
         <v>5.8701000000000008</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F83" s="22">
         <v>68.567999999999998</v>
       </c>
-      <c r="G82" s="7">
+      <c r="G83" s="22">
         <v>7714.4070000000002</v>
       </c>
-      <c r="H82" s="7">
+      <c r="H83" s="22">
         <v>1561.0450000000001</v>
       </c>
-      <c r="I82" s="7">
+      <c r="I83" s="22">
         <v>8940.5429999999997</v>
       </c>
-      <c r="J82" s="7">
+      <c r="J83" s="22">
         <v>2632.7139999999999</v>
       </c>
-      <c r="K82" s="7">
+      <c r="K83" s="22">
         <v>1889.998</v>
       </c>
-      <c r="L82" s="7">
+      <c r="L83" s="22">
         <v>5110.2619999999997</v>
       </c>
-      <c r="M82" s="7"/>
-      <c r="N82" s="7"/>
-      <c r="O82" s="7">
+      <c r="M83" s="22"/>
+      <c r="N83" s="22"/>
+      <c r="O83" s="22">
         <v>11.204000000000001</v>
       </c>
     </row>
-    <row r="83" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="24">
+    <row r="84" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="16">
         <v>2018</v>
       </c>
-      <c r="C83" s="24" t="s">
+      <c r="C84" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D84" s="17">
         <f t="shared" si="4"/>
         <v>28918.192660000001</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E84" s="18">
         <v>7.8816600000000001</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F84" s="18">
         <v>82.861999999999995</v>
       </c>
-      <c r="G83" s="4">
+      <c r="G84" s="18">
         <v>8118.165</v>
       </c>
-      <c r="H83" s="4">
+      <c r="H84" s="18">
         <v>1532.5719999999999</v>
       </c>
-      <c r="I83" s="4">
+      <c r="I84" s="18">
         <v>8129.585</v>
       </c>
-      <c r="J83" s="4">
+      <c r="J84" s="18">
         <v>2956.08</v>
       </c>
-      <c r="K83" s="4">
+      <c r="K84" s="18">
         <v>1988.6780000000001</v>
       </c>
-      <c r="L83" s="4">
+      <c r="L84" s="18">
         <v>6089.1620000000003</v>
       </c>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4"/>
-      <c r="O83" s="4">
+      <c r="M84" s="18"/>
+      <c r="N84" s="18"/>
+      <c r="O84" s="18">
         <v>13.207000000000001</v>
       </c>
     </row>
-    <row r="84" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="22">
+    <row r="85" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="20">
         <v>2018</v>
       </c>
-      <c r="C84" s="22" t="s">
+      <c r="C85" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D84" s="9">
+      <c r="D85" s="21">
         <f t="shared" si="4"/>
         <v>29273.39678000001</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E85" s="22">
         <v>9.12378</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F85" s="22">
         <v>60.970999999999997</v>
       </c>
-      <c r="G84" s="7">
+      <c r="G85" s="22">
         <v>7926.723</v>
       </c>
-      <c r="H84" s="7">
+      <c r="H85" s="22">
         <v>1477.489</v>
       </c>
-      <c r="I84" s="7">
+      <c r="I85" s="22">
         <v>9672.3250000000007</v>
       </c>
-      <c r="J84" s="7">
+      <c r="J85" s="22">
         <v>2860.578</v>
       </c>
-      <c r="K84" s="7">
+      <c r="K85" s="22">
         <v>1829.883</v>
       </c>
-      <c r="L84" s="7">
+      <c r="L85" s="22">
         <v>5423.6540000000005</v>
       </c>
-      <c r="M84" s="7"/>
-      <c r="N84" s="7"/>
-      <c r="O84" s="7">
+      <c r="M85" s="22"/>
+      <c r="N85" s="22"/>
+      <c r="O85" s="22">
         <v>12.65</v>
       </c>
     </row>
-    <row r="85" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="24">
+    <row r="86" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="16">
         <v>2018</v>
       </c>
-      <c r="C85" s="24" t="s">
+      <c r="C86" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D86" s="17">
         <f t="shared" si="4"/>
         <v>30126.28328</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E86" s="18">
         <v>8.1962799999999998</v>
       </c>
-      <c r="F85" s="4">
+      <c r="F86" s="18">
         <v>71.811000000000007</v>
       </c>
-      <c r="G85" s="4">
+      <c r="G86" s="18">
         <v>8844.2019999999993</v>
       </c>
-      <c r="H85" s="4">
+      <c r="H86" s="18">
         <v>1647.098</v>
       </c>
-      <c r="I85" s="4">
+      <c r="I86" s="18">
         <v>9860.2800000000007</v>
       </c>
-      <c r="J85" s="4">
+      <c r="J86" s="18">
         <v>2743.1410000000001</v>
       </c>
-      <c r="K85" s="4">
+      <c r="K86" s="18">
         <v>1551.7840000000001</v>
       </c>
-      <c r="L85" s="4">
+      <c r="L86" s="18">
         <v>5387.3890000000001</v>
       </c>
-      <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
-      <c r="O85" s="4">
+      <c r="M86" s="18"/>
+      <c r="N86" s="18"/>
+      <c r="O86" s="18">
         <v>12.382</v>
       </c>
     </row>
-    <row r="86" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="22">
+    <row r="87" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="20">
         <v>2018</v>
       </c>
-      <c r="C86" s="22" t="s">
+      <c r="C87" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D86" s="9">
+      <c r="D87" s="21">
         <f t="shared" si="4"/>
         <v>25208.202900000004</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E87" s="22">
         <v>6.7148999999999992</v>
       </c>
-      <c r="F86" s="7">
+      <c r="F87" s="22">
         <v>59.457000000000001</v>
       </c>
-      <c r="G86" s="7">
+      <c r="G87" s="22">
         <v>7977.2039999999997</v>
       </c>
-      <c r="H86" s="7">
+      <c r="H87" s="22">
         <v>1378.8910000000001</v>
       </c>
-      <c r="I86" s="7">
+      <c r="I87" s="22">
         <v>7402.5730000000003</v>
       </c>
-      <c r="J86" s="7">
+      <c r="J87" s="22">
         <v>2577</v>
       </c>
-      <c r="K86" s="7">
+      <c r="K87" s="22">
         <v>1364.6120000000001</v>
       </c>
-      <c r="L86" s="7">
+      <c r="L87" s="22">
         <v>4430.4210000000003</v>
       </c>
-      <c r="M86" s="7"/>
-      <c r="N86" s="7"/>
-      <c r="O86" s="7">
+      <c r="M87" s="22"/>
+      <c r="N87" s="22"/>
+      <c r="O87" s="22">
         <v>11.33</v>
       </c>
     </row>
-    <row r="87" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="24">
+    <row r="88" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="16">
         <v>2018</v>
       </c>
-      <c r="C87" s="24" t="s">
+      <c r="C88" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D88" s="17">
         <f t="shared" si="4"/>
         <v>25018.165999999997</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E88" s="18">
         <v>6.9589999999999996</v>
       </c>
-      <c r="F87" s="4">
+      <c r="F88" s="18">
         <v>66.08</v>
       </c>
-      <c r="G87" s="4">
+      <c r="G88" s="18">
         <v>7737.0140000000001</v>
       </c>
-      <c r="H87" s="4">
+      <c r="H88" s="18">
         <v>1410.72</v>
       </c>
-      <c r="I87" s="4">
+      <c r="I88" s="18">
         <v>6932.2910000000002</v>
       </c>
-      <c r="J87" s="4">
+      <c r="J88" s="18">
         <v>2789.42</v>
       </c>
-      <c r="K87" s="4">
+      <c r="K88" s="18">
         <v>1379.2329999999999</v>
       </c>
-      <c r="L87" s="4">
+      <c r="L88" s="18">
         <v>4684.1959999999999</v>
       </c>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4"/>
-      <c r="O87" s="4">
+      <c r="M88" s="18"/>
+      <c r="N88" s="18"/>
+      <c r="O88" s="18">
         <v>12.253</v>
       </c>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B88" s="17" t="s">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B89" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C88" s="17"/>
-    </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B89" s="17" t="s">
+      <c r="C89" s="31"/>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B90" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C89" s="17"/>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B90" s="17" t="s">
+      <c r="C90" s="31"/>
+      <c r="O90" s="32"/>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B91" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C90" s="17"/>
-    </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B91" s="17" t="s">
+      <c r="C91" s="31"/>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B92" s="31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B93" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D98" s="17"/>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D99" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E4:O4"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Carga_por_aerolinea_nac.xlsx
+++ b/Carga_por_aerolinea_nac.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44CC4E2-BCE7-4FB7-8050-0998D980A92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045C691B-7126-4286-8C3B-161EA351E012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_35" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="34">
   <si>
     <t>Total</t>
   </si>
@@ -137,7 +137,7 @@
     <t>Mexicana (Aerolínea del Estado Mexicano)</t>
   </si>
   <si>
-    <t>Actualización: Noviembre 2024.</t>
+    <t>Actualización: Diciembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -397,15 +397,6 @@
     <xf numFmtId="1" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -455,6 +446,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -752,8 +752,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O88" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
-  <autoFilter ref="B5:O88" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O89" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
+  <autoFilter ref="B5:O89" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -1005,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O99"/>
+  <dimension ref="B2:O100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1049,3462 +1049,3501 @@
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="10"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="32"/>
     </row>
     <row r="5" spans="2:15" ht="58.5" x14ac:dyDescent="0.45">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B6" s="15">
+      <c r="B6" s="16">
         <v>2024</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="18">
+        <f>SUM(E6:O6)</f>
+        <v>27947.306936000001</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19">
+        <v>12904.705</v>
+      </c>
+      <c r="H6" s="19">
+        <v>706.62800000000004</v>
+      </c>
+      <c r="I6" s="19">
+        <v>2110.4124860000002</v>
+      </c>
+      <c r="J6" s="19">
+        <v>2910.0949999999998</v>
+      </c>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19">
+        <v>6062.4089999999997</v>
+      </c>
+      <c r="M6" s="19">
+        <v>44.347099999999998</v>
+      </c>
+      <c r="N6" s="19">
+        <v>1092.7723999999998</v>
+      </c>
+      <c r="O6" s="19">
+        <v>2115.93795</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B7" s="12">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="17">
-        <f>SUM(E6:O6)</f>
+      <c r="D7" s="14">
+        <f>SUM(E7:O7)</f>
         <v>27502.893514000003</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18">
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15">
         <v>13474.445</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H7" s="15">
         <v>756.11400000000003</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I7" s="15">
         <v>1892.0454140000002</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J7" s="15">
         <v>3303.9810000000002</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18">
+      <c r="K7" s="15"/>
+      <c r="L7" s="15">
         <v>4393.0249999999996</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M7" s="15">
         <v>44.302</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N7" s="15">
         <v>1298.3136000000002</v>
       </c>
-      <c r="O6" s="18">
+      <c r="O7" s="15">
         <v>2340.6675</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B7" s="19">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B8" s="16">
         <v>2024</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C8" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="21">
-        <f t="shared" ref="D7" si="0">SUM(E7:O7)</f>
+      <c r="D8" s="18">
+        <f t="shared" ref="D8" si="0">SUM(E8:O8)</f>
         <v>27181.326313000001</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22">
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19">
         <v>13225.465</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H8" s="19">
         <v>615.21100000000001</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I8" s="19">
         <v>1642.003113</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J8" s="19">
         <v>3194.15</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22">
+      <c r="K8" s="19"/>
+      <c r="L8" s="19">
         <v>4834.0540000000001</v>
       </c>
-      <c r="M7" s="22">
+      <c r="M8" s="19">
         <v>24.026</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N8" s="19">
         <v>1321.6451999999999</v>
       </c>
-      <c r="O7" s="22">
+      <c r="O8" s="19">
         <v>2324.7719999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B8" s="15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B9" s="12">
         <v>2024</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="17">
-        <f>SUM(E8:O8)</f>
+      <c r="D9" s="14">
+        <f>SUM(E9:O9)</f>
         <v>23947.075499999999</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18">
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15">
         <v>11815.414000000001</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H9" s="15">
         <v>610.077</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I9" s="15">
         <v>1877.9970000000001</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J9" s="15">
         <v>2701.4140000000002</v>
       </c>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18">
+      <c r="K9" s="15"/>
+      <c r="L9" s="15">
         <v>4037.3809999999999</v>
       </c>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18">
+      <c r="M9" s="15"/>
+      <c r="N9" s="15">
         <v>1121.0953</v>
       </c>
-      <c r="O8" s="18">
+      <c r="O9" s="15">
         <v>1783.6972000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B9" s="19">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B10" s="16">
         <v>2024</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="21">
-        <f t="shared" ref="D9:D43" si="1">SUM(E9:O9)</f>
+      <c r="D10" s="18">
+        <f t="shared" ref="D10:D44" si="1">SUM(E10:O10)</f>
         <v>25976.447568099997</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22">
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19">
         <v>12383.605</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H10" s="19">
         <v>692.93</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I10" s="19">
         <v>997.61693810000008</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J10" s="19">
         <v>3089.9549999999999</v>
       </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22">
+      <c r="K10" s="19"/>
+      <c r="L10" s="19">
         <v>5823.1229999999996</v>
       </c>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22">
+      <c r="M10" s="19"/>
+      <c r="N10" s="19">
         <v>1059.0245</v>
       </c>
-      <c r="O9" s="22">
+      <c r="O10" s="19">
         <v>1930.1931300000001</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B10" s="15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B11" s="12">
         <v>2024</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="17">
-        <f t="shared" ref="D10:D12" si="2">SUM(E10:O10)</f>
+      <c r="D11" s="14">
+        <f t="shared" ref="D11:D13" si="2">SUM(E11:O11)</f>
         <v>24449.559196240007</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18">
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15">
         <v>12150.298000000001</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H11" s="15">
         <v>643.75300000000004</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I11" s="15">
         <v>1750.5007562400001</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J11" s="15">
         <v>3035.9490000000001</v>
       </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18">
+      <c r="K11" s="15"/>
+      <c r="L11" s="15">
         <v>4137.7550000000001</v>
       </c>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18">
+      <c r="M11" s="15"/>
+      <c r="N11" s="15">
         <v>767.15459999999996</v>
       </c>
-      <c r="O10" s="18">
+      <c r="O11" s="15">
         <v>1964.1488400000001</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11" s="19">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B12" s="16">
         <v>2024</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D12" s="18">
         <f t="shared" si="2"/>
         <v>22991.837380000001</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22">
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19">
         <v>11786.278</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H12" s="19">
         <v>560.85299999999995</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I12" s="19">
         <v>455.33683000000002</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J12" s="19">
         <v>2749.279</v>
       </c>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22">
+      <c r="K12" s="19"/>
+      <c r="L12" s="19">
         <v>4777.0950000000003</v>
       </c>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22">
+      <c r="M12" s="19"/>
+      <c r="N12" s="19">
         <v>821.03269999999998</v>
       </c>
-      <c r="O11" s="22">
+      <c r="O12" s="19">
         <v>1841.9628499999999</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12" s="15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13" s="12">
         <v>2024</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D13" s="14">
         <f t="shared" si="2"/>
         <v>25584.530360000004</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18">
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15">
         <v>12162.084000000001</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H13" s="15">
         <v>597.245</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I13" s="15">
         <v>670.93826000000001</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J13" s="15">
         <v>3023.1210000000001</v>
       </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18">
+      <c r="K13" s="15"/>
+      <c r="L13" s="15">
         <v>5951.4530000000004</v>
       </c>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18">
+      <c r="M13" s="15"/>
+      <c r="N13" s="15">
         <v>966.64210000000003</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O13" s="15">
         <v>2213.047</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13" s="19">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14" s="16">
         <v>2024</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C14" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D14" s="18">
         <f t="shared" si="1"/>
         <v>24530.56366</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22">
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19">
         <v>11531.746999999999</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H14" s="19">
         <v>592.245</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I14" s="19">
         <v>1345.6157599999999</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J14" s="19">
         <v>3069.6970000000001</v>
       </c>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22">
+      <c r="K14" s="19"/>
+      <c r="L14" s="19">
         <v>5033.8580000000002</v>
       </c>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22">
+      <c r="M14" s="19"/>
+      <c r="N14" s="19">
         <v>917.64800000000002</v>
       </c>
-      <c r="O13" s="22">
+      <c r="O14" s="19">
         <v>2039.7529000000002</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14" s="15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B15" s="12">
         <v>2024</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D15" s="14">
         <f t="shared" si="1"/>
         <v>23773.473269999999</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18">
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15">
         <v>11871.233</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H15" s="15">
         <v>551.64300000000003</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I15" s="15">
         <v>1657.1516799999999</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J15" s="15">
         <v>2749.279</v>
       </c>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18">
+      <c r="K15" s="15"/>
+      <c r="L15" s="15">
         <v>3908.877</v>
       </c>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18">
+      <c r="M15" s="15"/>
+      <c r="N15" s="15">
         <v>901.89159999999993</v>
       </c>
-      <c r="O14" s="18">
+      <c r="O15" s="15">
         <v>2133.3979899999999</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" s="19">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B16" s="16">
         <v>2024</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C16" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D16" s="18">
         <f t="shared" si="1"/>
         <v>23760.617010000002</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22">
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19">
         <v>11159.713</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H16" s="19">
         <v>540.17999999999995</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I16" s="19">
         <v>1664.87067</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J16" s="19">
         <v>3032.2710000000002</v>
       </c>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22">
+      <c r="K16" s="19"/>
+      <c r="L16" s="19">
         <v>4672.6559999999999</v>
       </c>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22">
+      <c r="M16" s="19"/>
+      <c r="N16" s="19">
         <v>878.4058</v>
       </c>
-      <c r="O15" s="22">
+      <c r="O16" s="19">
         <v>1812.52054</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B16" s="23">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B17" s="20">
         <v>2024</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C17" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D17" s="22">
         <f t="shared" si="1"/>
         <v>22658.754440000004</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26">
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23">
         <v>10099.106</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H17" s="23">
         <v>778.92200000000003</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I17" s="23">
         <v>1334.1081499999998</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J17" s="23">
         <v>3205.1840000000002</v>
       </c>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26">
+      <c r="K17" s="23"/>
+      <c r="L17" s="23">
         <v>4132.0780000000004</v>
       </c>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26">
+      <c r="M17" s="23"/>
+      <c r="N17" s="23">
         <v>1138.7986000000001</v>
       </c>
-      <c r="O16" s="26">
+      <c r="O17" s="23">
         <v>1970.5576899999999</v>
       </c>
     </row>
-    <row r="17" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="27">
+    <row r="18" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="24">
         <v>2023</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C18" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D18" s="26">
         <f t="shared" si="1"/>
         <v>24330.252739999996</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E18" s="27">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30">
+      <c r="F18" s="27"/>
+      <c r="G18" s="27">
         <v>11988.567999999999</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H18" s="27">
         <v>936.15599999999995</v>
       </c>
-      <c r="I17" s="30">
+      <c r="I18" s="27">
         <v>1439.51802</v>
       </c>
-      <c r="J17" s="30">
+      <c r="J18" s="27">
         <v>3166.9259999999999</v>
       </c>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30">
+      <c r="K18" s="27"/>
+      <c r="L18" s="27">
         <v>3182.1170000000002</v>
       </c>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30">
+      <c r="M18" s="27"/>
+      <c r="N18" s="27">
         <v>1409.9010999999998</v>
       </c>
-      <c r="O17" s="30">
+      <c r="O18" s="27">
         <v>2207.0626200000002</v>
       </c>
     </row>
-    <row r="18" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="15">
+    <row r="19" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="12">
         <v>2023</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C19" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D19" s="14">
         <f t="shared" si="1"/>
         <v>25951.682420000005</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E19" s="15">
         <v>2E-3</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18">
+      <c r="F19" s="15"/>
+      <c r="G19" s="15">
         <v>11389.349</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H19" s="15">
         <v>878.84500000000003</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I19" s="15">
         <v>3104.8114999999998</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J19" s="15">
         <v>3477.9340000000002</v>
       </c>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18">
+      <c r="K19" s="15"/>
+      <c r="L19" s="15">
         <v>3383.1860000000001</v>
       </c>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18">
+      <c r="M19" s="15"/>
+      <c r="N19" s="15">
         <v>1367.4911999999999</v>
       </c>
-      <c r="O18" s="18">
+      <c r="O19" s="15">
         <v>2350.0637200000001</v>
       </c>
     </row>
-    <row r="19" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="19">
+    <row r="20" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="16">
         <v>2023</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C20" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D20" s="18">
         <f t="shared" si="1"/>
         <v>29736.471784000001</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E20" s="19">
         <v>2E-3</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22">
+      <c r="F20" s="19"/>
+      <c r="G20" s="19">
         <v>11497.116</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H20" s="19">
         <v>766.34</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I20" s="19">
         <v>1778.049084</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J20" s="19">
         <v>3354.9290000000001</v>
       </c>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22">
+      <c r="K20" s="19"/>
+      <c r="L20" s="19">
         <v>8846.14</v>
       </c>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22">
+      <c r="M20" s="19"/>
+      <c r="N20" s="19">
         <v>1254.5563</v>
       </c>
-      <c r="O19" s="22">
+      <c r="O20" s="19">
         <v>2239.3393999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="15">
+    <row r="21" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="12">
         <v>2023</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C21" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D21" s="14">
         <f t="shared" si="1"/>
         <v>25495.398430000001</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E21" s="15">
         <v>1E-3</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18">
+      <c r="F21" s="15"/>
+      <c r="G21" s="15">
         <v>10214.496999999999</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H21" s="15">
         <v>745.19799999999998</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I21" s="15">
         <v>1692.6589100000001</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J21" s="15">
         <v>3160.6</v>
       </c>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18">
+      <c r="K21" s="15"/>
+      <c r="L21" s="15">
         <v>6870.7169999999996</v>
       </c>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18">
+      <c r="M21" s="15"/>
+      <c r="N21" s="15">
         <v>1029.982</v>
       </c>
-      <c r="O20" s="18">
+      <c r="O21" s="15">
         <v>1781.74452</v>
       </c>
     </row>
-    <row r="21" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="19">
+    <row r="22" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="16">
         <v>2023</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C22" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D22" s="18">
         <f t="shared" si="1"/>
         <v>27795.111850000001</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E22" s="19">
         <v>2E-3</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22">
+      <c r="F22" s="19"/>
+      <c r="G22" s="19">
         <v>10670.395</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H22" s="19">
         <v>688.12199999999996</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I22" s="19">
         <v>2332.9001999999996</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J22" s="19">
         <v>3597.163</v>
       </c>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22">
+      <c r="K22" s="19"/>
+      <c r="L22" s="19">
         <v>7529.75</v>
       </c>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22">
+      <c r="M22" s="19"/>
+      <c r="N22" s="19">
         <v>1106.6980000000001</v>
       </c>
-      <c r="O21" s="22">
+      <c r="O22" s="19">
         <v>1870.0816499999999</v>
       </c>
     </row>
-    <row r="22" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="15">
+    <row r="23" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="12">
         <v>2023</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C23" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D23" s="14">
         <f t="shared" si="1"/>
         <v>27392.805111000001</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E23" s="15">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18">
+      <c r="F23" s="15"/>
+      <c r="G23" s="15">
         <v>11104.486000000001</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H23" s="15">
         <v>582.98800000000006</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I23" s="15">
         <v>2097.893521</v>
       </c>
-      <c r="J22" s="18">
+      <c r="J23" s="15">
         <v>3132.8069999999998</v>
       </c>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18">
+      <c r="K23" s="15"/>
+      <c r="L23" s="15">
         <v>7920.2030000000004</v>
       </c>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18">
+      <c r="M23" s="15"/>
+      <c r="N23" s="15">
         <v>632.07899999999995</v>
       </c>
-      <c r="O22" s="18">
+      <c r="O23" s="15">
         <v>1922.34159</v>
       </c>
     </row>
-    <row r="23" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="19">
+    <row r="24" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="16">
         <v>2023</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D24" s="18">
         <f t="shared" si="1"/>
         <v>26257.615949999999</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E24" s="19">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22">
+      <c r="F24" s="19"/>
+      <c r="G24" s="19">
         <v>9903.1360000000004</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H24" s="19">
         <v>604.97799999999995</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I24" s="19">
         <v>2029.77441</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J24" s="19">
         <v>3359.4630000000002</v>
       </c>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22">
+      <c r="K24" s="19"/>
+      <c r="L24" s="19">
         <v>7581.4750000000004</v>
       </c>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22">
+      <c r="M24" s="19"/>
+      <c r="N24" s="19">
         <v>808.51900000000001</v>
       </c>
-      <c r="O23" s="22">
+      <c r="O24" s="19">
         <v>1970.2655400000001</v>
       </c>
     </row>
-    <row r="24" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="15">
+    <row r="25" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="12">
         <v>2023</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C25" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D25" s="14">
         <f t="shared" si="1"/>
         <v>27189.140660000001</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E25" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18">
+      <c r="F25" s="15"/>
+      <c r="G25" s="15">
         <v>9247.2430000000004</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H25" s="15">
         <v>646.67899999999997</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I25" s="15">
         <v>1841.1321099999998</v>
       </c>
-      <c r="J24" s="18">
+      <c r="J25" s="15">
         <v>3239.5920000000001</v>
       </c>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18">
+      <c r="K25" s="15"/>
+      <c r="L25" s="15">
         <v>9116.9560000000001</v>
       </c>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18">
+      <c r="M25" s="15"/>
+      <c r="N25" s="15">
         <v>871.53</v>
       </c>
-      <c r="O24" s="18">
+      <c r="O25" s="15">
         <v>2226.0035500000004</v>
       </c>
     </row>
-    <row r="25" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="19">
+    <row r="26" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="16">
         <v>2023</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D26" s="18">
         <f t="shared" si="1"/>
         <v>26065.695520000001</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E26" s="19">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22">
+      <c r="F26" s="19"/>
+      <c r="G26" s="19">
         <v>8823.5010000000002</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H26" s="19">
         <v>643.87900000000002</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I26" s="19">
         <v>2656.5120000000002</v>
       </c>
-      <c r="J25" s="22">
+      <c r="J26" s="19">
         <v>2882.6640000000002</v>
       </c>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22">
+      <c r="K26" s="19"/>
+      <c r="L26" s="19">
         <v>8495.7070000000003</v>
       </c>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22">
+      <c r="M26" s="19"/>
+      <c r="N26" s="19">
         <v>807.85400000000004</v>
       </c>
-      <c r="O25" s="22">
+      <c r="O26" s="19">
         <v>1755.5725199999999</v>
       </c>
     </row>
-    <row r="26" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="15">
+    <row r="27" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="12">
         <v>2023</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C27" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D27" s="14">
         <f t="shared" si="1"/>
         <v>29416.146090000002</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E27" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18">
+      <c r="F27" s="15"/>
+      <c r="G27" s="15">
         <v>10420.953</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H27" s="15">
         <v>850.89200000000005</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I27" s="15">
         <v>2714.1550000000002</v>
       </c>
-      <c r="J26" s="18">
+      <c r="J27" s="15">
         <v>3284.2510000000002</v>
       </c>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18">
+      <c r="K27" s="15"/>
+      <c r="L27" s="15">
         <v>9320.09</v>
       </c>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18">
+      <c r="M27" s="15"/>
+      <c r="N27" s="15">
         <v>754.07100000000003</v>
       </c>
-      <c r="O26" s="18">
+      <c r="O27" s="15">
         <v>2071.7290899999998</v>
       </c>
     </row>
-    <row r="27" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="19">
+    <row r="28" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="16">
         <v>2023</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C28" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D28" s="18">
         <f t="shared" si="1"/>
         <v>26501.790870000004</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E28" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22">
+      <c r="F28" s="19"/>
+      <c r="G28" s="19">
         <v>9688.0110000000004</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H28" s="19">
         <v>782.84</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I28" s="19">
         <v>3020.3270000000002</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J28" s="19">
         <v>2745.6669999999999</v>
       </c>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22">
+      <c r="K28" s="19"/>
+      <c r="L28" s="19">
         <v>7686.6450000000004</v>
       </c>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22">
+      <c r="M28" s="19"/>
+      <c r="N28" s="19">
         <v>685.12</v>
       </c>
-      <c r="O27" s="22">
+      <c r="O28" s="19">
         <v>1893.1698699999999</v>
       </c>
     </row>
-    <row r="28" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="23">
+    <row r="29" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="20">
         <v>2023</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C29" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D29" s="22">
         <f t="shared" si="1"/>
         <v>26308.171539999999</v>
       </c>
-      <c r="E28" s="26">
+      <c r="E29" s="23">
         <v>2E-3</v>
       </c>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26">
+      <c r="F29" s="23"/>
+      <c r="G29" s="23">
         <v>8914.4519999999993</v>
       </c>
-      <c r="H28" s="26">
+      <c r="H29" s="23">
         <v>734.09199999999998</v>
       </c>
-      <c r="I28" s="26">
+      <c r="I29" s="23">
         <v>3159.0940000000001</v>
       </c>
-      <c r="J28" s="26">
+      <c r="J29" s="23">
         <v>3012.8209999999999</v>
       </c>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26">
+      <c r="K29" s="23"/>
+      <c r="L29" s="23">
         <v>7907.8890000000001</v>
       </c>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26">
+      <c r="M29" s="23"/>
+      <c r="N29" s="23">
         <v>670.48</v>
       </c>
-      <c r="O28" s="26">
+      <c r="O29" s="23">
         <v>1909.3415400000001</v>
       </c>
     </row>
-    <row r="29" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="27">
+    <row r="30" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="24">
         <v>2022</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C30" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="29">
+      <c r="D30" s="26">
         <f t="shared" si="1"/>
         <v>29865.323240000002</v>
       </c>
-      <c r="E29" s="30">
+      <c r="E30" s="27">
         <v>1E-3</v>
       </c>
-      <c r="F29" s="30">
+      <c r="F30" s="27">
         <v>12.166</v>
       </c>
-      <c r="G29" s="30">
+      <c r="G30" s="27">
         <v>10484.763000000001</v>
       </c>
-      <c r="H29" s="30">
+      <c r="H30" s="27">
         <v>925.66499999999996</v>
       </c>
-      <c r="I29" s="30">
+      <c r="I30" s="27">
         <v>4138.0259999999998</v>
       </c>
-      <c r="J29" s="30">
+      <c r="J30" s="27">
         <v>3314.2310000000002</v>
       </c>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30">
+      <c r="K30" s="27"/>
+      <c r="L30" s="27">
         <v>7746.2759999999998</v>
       </c>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30">
+      <c r="M30" s="27"/>
+      <c r="N30" s="27">
         <v>961.79730000000006</v>
       </c>
-      <c r="O29" s="30">
+      <c r="O30" s="27">
         <v>2282.3979400000003</v>
       </c>
     </row>
-    <row r="30" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="15">
+    <row r="31" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="12">
         <v>2022</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C31" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D31" s="14">
         <f t="shared" si="1"/>
         <v>29983.373589999999</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E31" s="15">
         <v>2E-3</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F31" s="15">
         <v>32.463999999999999</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G31" s="15">
         <v>10081.717000000001</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H31" s="15">
         <v>990.43700000000001</v>
       </c>
-      <c r="I30" s="18">
+      <c r="I31" s="15">
         <v>5149.683</v>
       </c>
-      <c r="J30" s="18">
+      <c r="J31" s="15">
         <v>3384.6909999999998</v>
       </c>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18">
+      <c r="K31" s="15"/>
+      <c r="L31" s="15">
         <v>7113.482</v>
       </c>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18">
+      <c r="M31" s="15"/>
+      <c r="N31" s="15">
         <v>970.55570000000012</v>
       </c>
-      <c r="O30" s="18">
+      <c r="O31" s="15">
         <v>2260.3418900000001</v>
       </c>
     </row>
-    <row r="31" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="19">
+    <row r="32" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="16">
         <v>2022</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C32" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D32" s="18">
         <f t="shared" si="1"/>
         <v>29295.863820000002</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E32" s="19">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F32" s="19">
         <v>31.343</v>
       </c>
-      <c r="G31" s="22">
+      <c r="G32" s="19">
         <v>9947.3389999999999</v>
       </c>
-      <c r="H31" s="22">
+      <c r="H32" s="19">
         <v>926.49599999999998</v>
       </c>
-      <c r="I31" s="22">
+      <c r="I32" s="19">
         <v>5335.3050000000003</v>
       </c>
-      <c r="J31" s="22">
+      <c r="J32" s="19">
         <v>3159.48</v>
       </c>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22">
+      <c r="K32" s="19"/>
+      <c r="L32" s="19">
         <v>6728.7049999999999</v>
       </c>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22">
+      <c r="M32" s="19"/>
+      <c r="N32" s="19">
         <v>979.74129999999991</v>
       </c>
-      <c r="O31" s="22">
+      <c r="O32" s="19">
         <v>2187.4515200000001</v>
       </c>
     </row>
-    <row r="32" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="15">
+    <row r="33" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="12">
         <v>2022</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C33" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D33" s="14">
         <f t="shared" si="1"/>
         <v>26447.132749999997</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E33" s="15">
         <v>2E-3</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F33" s="15">
         <v>23.175000000000001</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G33" s="15">
         <v>9081.3619999999992</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H33" s="15">
         <v>703.86900000000003</v>
       </c>
-      <c r="I32" s="18">
+      <c r="I33" s="15">
         <v>4176.1049999999996</v>
       </c>
-      <c r="J32" s="18">
+      <c r="J33" s="15">
         <v>3254.7069999999999</v>
       </c>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18">
+      <c r="K33" s="15"/>
+      <c r="L33" s="15">
         <v>6617.3549999999996</v>
       </c>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18">
+      <c r="M33" s="15"/>
+      <c r="N33" s="15">
         <v>824.20899999999995</v>
       </c>
-      <c r="O32" s="18">
+      <c r="O33" s="15">
         <v>1766.3487500000001</v>
       </c>
     </row>
-    <row r="33" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="19">
+    <row r="34" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="16">
         <v>2022</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C34" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D34" s="18">
         <f t="shared" si="1"/>
         <v>26279.741409999995</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E34" s="19">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F34" s="19">
         <v>28.286999999999999</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G34" s="19">
         <v>9293.5259999999998</v>
       </c>
-      <c r="H33" s="22">
+      <c r="H34" s="19">
         <v>859.87</v>
       </c>
-      <c r="I33" s="22">
+      <c r="I34" s="19">
         <v>4037.6669999999999</v>
       </c>
-      <c r="J33" s="22">
+      <c r="J34" s="19">
         <v>3520.194</v>
       </c>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22">
+      <c r="K34" s="19"/>
+      <c r="L34" s="19">
         <v>5886.08</v>
       </c>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22">
+      <c r="M34" s="19"/>
+      <c r="N34" s="19">
         <v>804.58889999999997</v>
       </c>
-      <c r="O33" s="22">
+      <c r="O34" s="19">
         <v>1849.52451</v>
       </c>
     </row>
-    <row r="34" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="15">
+    <row r="35" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="12">
         <v>2022</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C35" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D35" s="14">
         <f t="shared" si="1"/>
         <v>30603.772699999998</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E35" s="15">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F35" s="15">
         <v>31.623000000000001</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G35" s="15">
         <v>9435.7099999999991</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H35" s="15">
         <v>852.04499999999996</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I35" s="15">
         <v>4353.799</v>
       </c>
-      <c r="J34" s="18">
+      <c r="J35" s="15">
         <v>3361.634</v>
       </c>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18">
+      <c r="K35" s="15"/>
+      <c r="L35" s="15">
         <v>10038.903</v>
       </c>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18">
+      <c r="M35" s="15"/>
+      <c r="N35" s="15">
         <v>692.77719999999999</v>
       </c>
-      <c r="O34" s="18">
+      <c r="O35" s="15">
         <v>1837.2745</v>
       </c>
     </row>
-    <row r="35" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="19">
+    <row r="36" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="16">
         <v>2022</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C36" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D36" s="18">
         <f t="shared" si="1"/>
         <v>32911.434350000003</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E36" s="19">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F36" s="19">
         <v>29.89</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G36" s="19">
         <v>9434.6640000000007</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H36" s="19">
         <v>704.59900000000005</v>
       </c>
-      <c r="I35" s="22">
+      <c r="I36" s="19">
         <v>4932.3429999999998</v>
       </c>
-      <c r="J35" s="22">
+      <c r="J36" s="19">
         <v>3363.165</v>
       </c>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22">
+      <c r="K36" s="19"/>
+      <c r="L36" s="19">
         <v>11698.642</v>
       </c>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22">
+      <c r="M36" s="19"/>
+      <c r="N36" s="19">
         <v>750.94670000000008</v>
       </c>
-      <c r="O35" s="22">
+      <c r="O36" s="19">
         <v>1997.1796499999998</v>
       </c>
     </row>
-    <row r="36" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="15">
+    <row r="37" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="12">
         <v>2022</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C37" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D37" s="14">
         <f t="shared" si="1"/>
         <v>32136.140250000004</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E37" s="15">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F37" s="15">
         <v>28.506</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G37" s="15">
         <v>9520.1350000000002</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H37" s="15">
         <v>707.80499999999995</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I37" s="15">
         <v>5145.5190000000002</v>
       </c>
-      <c r="J36" s="18">
+      <c r="J37" s="15">
         <v>3217.3589999999999</v>
       </c>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18">
+      <c r="K37" s="15"/>
+      <c r="L37" s="15">
         <v>10677.519</v>
       </c>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18">
+      <c r="M37" s="15"/>
+      <c r="N37" s="15">
         <v>667.7</v>
       </c>
-      <c r="O36" s="18">
+      <c r="O37" s="15">
         <v>2171.5932499999999</v>
       </c>
     </row>
-    <row r="37" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="19">
+    <row r="38" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="16">
         <v>2022</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C38" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D38" s="18">
         <f t="shared" si="1"/>
         <v>27514.741269999999</v>
       </c>
-      <c r="E37" s="22">
+      <c r="E38" s="19">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F37" s="22">
+      <c r="F38" s="19">
         <v>33.442</v>
       </c>
-      <c r="G37" s="22">
+      <c r="G38" s="19">
         <v>8677.1650000000009</v>
       </c>
-      <c r="H37" s="22">
+      <c r="H38" s="19">
         <v>704.93700000000001</v>
       </c>
-      <c r="I37" s="22">
+      <c r="I38" s="19">
         <v>4385.1239999999998</v>
       </c>
-      <c r="J37" s="22">
+      <c r="J38" s="19">
         <v>3089.9090000000001</v>
       </c>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22">
+      <c r="K38" s="19"/>
+      <c r="L38" s="19">
         <v>7847.8879999999999</v>
       </c>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22">
+      <c r="M38" s="19"/>
+      <c r="N38" s="19">
         <v>761.38699999999994</v>
       </c>
-      <c r="O37" s="22">
+      <c r="O38" s="19">
         <v>2014.8862699999997</v>
       </c>
     </row>
-    <row r="38" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="15">
+    <row r="39" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="12">
         <v>2022</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C39" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D39" s="14">
         <f t="shared" si="1"/>
         <v>30859.440460000002</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E39" s="15">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F39" s="15">
         <v>30.175999999999998</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G39" s="15">
         <v>9761.2630000000008</v>
       </c>
-      <c r="H38" s="18">
+      <c r="H39" s="15">
         <v>1009.9829999999999</v>
       </c>
-      <c r="I38" s="18">
+      <c r="I39" s="15">
         <v>6578.5140000000001</v>
       </c>
-      <c r="J38" s="18">
+      <c r="J39" s="15">
         <v>3448.0540000000001</v>
       </c>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18">
+      <c r="K39" s="15"/>
+      <c r="L39" s="15">
         <v>7191.5020000000004</v>
       </c>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18">
+      <c r="M39" s="15"/>
+      <c r="N39" s="15">
         <v>742.69299999999998</v>
       </c>
-      <c r="O38" s="18">
+      <c r="O39" s="15">
         <v>2097.25146</v>
       </c>
     </row>
-    <row r="39" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="19">
+    <row r="40" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="16">
         <v>2022</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C40" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D40" s="18">
         <f t="shared" si="1"/>
         <v>26857.410190000002</v>
       </c>
-      <c r="E39" s="22">
+      <c r="E40" s="19">
         <v>0</v>
       </c>
-      <c r="F39" s="22">
+      <c r="F40" s="19">
         <v>26.463999999999999</v>
       </c>
-      <c r="G39" s="22">
+      <c r="G40" s="19">
         <v>8399.2009999999991</v>
       </c>
-      <c r="H39" s="22">
+      <c r="H40" s="19">
         <v>816.23900000000003</v>
       </c>
-      <c r="I39" s="22">
+      <c r="I40" s="19">
         <v>4488.2250000000004</v>
       </c>
-      <c r="J39" s="22">
+      <c r="J40" s="19">
         <v>3087.74</v>
       </c>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22">
+      <c r="K40" s="19"/>
+      <c r="L40" s="19">
         <v>7675.5219999999999</v>
       </c>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22">
+      <c r="M40" s="19"/>
+      <c r="N40" s="19">
         <v>680.0145</v>
       </c>
-      <c r="O39" s="22">
+      <c r="O40" s="19">
         <v>1684.00469</v>
       </c>
     </row>
-    <row r="40" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="23">
+    <row r="41" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="20">
         <v>2022</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C41" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="25">
+      <c r="D41" s="22">
         <f t="shared" si="1"/>
         <v>26010.419900000001</v>
       </c>
-      <c r="E40" s="26">
+      <c r="E41" s="23">
         <v>0.01</v>
       </c>
-      <c r="F40" s="26">
+      <c r="F41" s="23">
         <v>29.917000000000002</v>
       </c>
-      <c r="G40" s="26">
+      <c r="G41" s="23">
         <v>8064.9719999999998</v>
       </c>
-      <c r="H40" s="26">
+      <c r="H41" s="23">
         <v>759.41499999999996</v>
       </c>
-      <c r="I40" s="26">
+      <c r="I41" s="23">
         <v>4874.95</v>
       </c>
-      <c r="J40" s="26">
+      <c r="J41" s="23">
         <v>3142.1970000000001</v>
       </c>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26">
+      <c r="K41" s="23"/>
+      <c r="L41" s="23">
         <v>6776.384</v>
       </c>
-      <c r="M40" s="26"/>
-      <c r="N40" s="26">
+      <c r="M41" s="23"/>
+      <c r="N41" s="23">
         <v>751.90069999999992</v>
       </c>
-      <c r="O40" s="26">
+      <c r="O41" s="23">
         <v>1610.6742000000002</v>
       </c>
     </row>
-    <row r="41" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="27">
+    <row r="42" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="24">
         <v>2021</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C42" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="29">
+      <c r="D42" s="26">
         <f t="shared" si="1"/>
         <v>31566.167749999997</v>
       </c>
-      <c r="E41" s="30">
+      <c r="E42" s="27">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F41" s="30">
+      <c r="F42" s="27">
         <v>37.055</v>
       </c>
-      <c r="G41" s="30">
+      <c r="G42" s="27">
         <v>9575.5380000000005</v>
       </c>
-      <c r="H41" s="30">
+      <c r="H42" s="27">
         <v>889.38</v>
       </c>
-      <c r="I41" s="30">
+      <c r="I42" s="27">
         <v>6288.674</v>
       </c>
-      <c r="J41" s="30">
+      <c r="J42" s="27">
         <v>4403.6390000000001</v>
       </c>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30">
+      <c r="K42" s="27"/>
+      <c r="L42" s="27">
         <v>7812.2049999999999</v>
       </c>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30">
+      <c r="M42" s="27"/>
+      <c r="N42" s="27">
         <v>644.26139999999998</v>
       </c>
-      <c r="O41" s="30">
+      <c r="O42" s="27">
         <v>1915.4123500000001</v>
       </c>
     </row>
-    <row r="42" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="15">
+    <row r="43" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="12">
         <v>2021</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C43" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D43" s="14">
         <f t="shared" si="1"/>
         <v>29944.972509999996</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E43" s="15">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F43" s="15">
         <v>42.304000000000002</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G43" s="15">
         <v>8541.3799999999992</v>
       </c>
-      <c r="H42" s="18">
+      <c r="H43" s="15">
         <v>797.55100000000004</v>
       </c>
-      <c r="I42" s="18">
+      <c r="I43" s="15">
         <v>5779.326</v>
       </c>
-      <c r="J42" s="18">
+      <c r="J43" s="15">
         <v>3742.5929999999998</v>
       </c>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18">
+      <c r="K43" s="15"/>
+      <c r="L43" s="15">
         <v>8308.2459999999992</v>
       </c>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18">
+      <c r="M43" s="15"/>
+      <c r="N43" s="15">
         <v>761.88139999999999</v>
       </c>
-      <c r="O42" s="18">
+      <c r="O43" s="15">
         <v>1971.6851100000001</v>
       </c>
     </row>
-    <row r="43" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="19">
+    <row r="44" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="16">
         <v>2021</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C44" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D44" s="18">
         <f t="shared" si="1"/>
         <v>30000.867740000002</v>
       </c>
-      <c r="E43" s="22">
+      <c r="E44" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F43" s="22">
+      <c r="F44" s="19">
         <v>29.148</v>
       </c>
-      <c r="G43" s="22">
+      <c r="G44" s="19">
         <v>9141.5849999999991</v>
       </c>
-      <c r="H43" s="22">
+      <c r="H44" s="19">
         <v>935.53599999999994</v>
       </c>
-      <c r="I43" s="22">
+      <c r="I44" s="19">
         <v>5740.3919999999998</v>
       </c>
-      <c r="J43" s="22">
+      <c r="J44" s="19">
         <v>3221.6640000000002</v>
       </c>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22">
+      <c r="K44" s="19"/>
+      <c r="L44" s="19">
         <v>8292.1039999999994</v>
       </c>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22">
+      <c r="M44" s="19"/>
+      <c r="N44" s="19">
         <v>722.20399999999995</v>
       </c>
-      <c r="O43" s="22">
+      <c r="O44" s="19">
         <v>1918.2237399999999</v>
       </c>
     </row>
-    <row r="44" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="15">
+    <row r="45" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="12">
         <v>2021</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C45" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="17">
-        <f t="shared" ref="D44:D75" si="3">SUM(E44:O44)</f>
+      <c r="D45" s="14">
+        <f t="shared" ref="D45:D76" si="3">SUM(E45:O45)</f>
         <v>25044.998970000004</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E45" s="15">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F45" s="15">
         <v>27.141999999999999</v>
       </c>
-      <c r="G44" s="18">
+      <c r="G45" s="15">
         <v>7906.91</v>
       </c>
-      <c r="H44" s="18">
+      <c r="H45" s="15">
         <v>875.76900000000001</v>
       </c>
-      <c r="I44" s="18">
+      <c r="I45" s="15">
         <v>4566.3109999999997</v>
       </c>
-      <c r="J44" s="18">
+      <c r="J45" s="15">
         <v>3115.0770000000002</v>
       </c>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18">
+      <c r="K45" s="15"/>
+      <c r="L45" s="15">
         <v>6415.2790000000005</v>
       </c>
-      <c r="M44" s="18"/>
-      <c r="N44" s="18">
+      <c r="M45" s="15"/>
+      <c r="N45" s="15">
         <v>491.27</v>
       </c>
-      <c r="O44" s="18">
+      <c r="O45" s="15">
         <v>1647.23197</v>
       </c>
     </row>
-    <row r="45" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="19">
+    <row r="46" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="16">
         <v>2021</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C46" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D46" s="18">
         <f t="shared" si="3"/>
         <v>26801.51179</v>
       </c>
-      <c r="E45" s="22">
+      <c r="E46" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F45" s="22">
+      <c r="F46" s="19">
         <v>26.024000000000001</v>
       </c>
-      <c r="G45" s="22">
+      <c r="G46" s="19">
         <v>7787.3339999999998</v>
       </c>
-      <c r="H45" s="22">
+      <c r="H46" s="19">
         <v>951.82</v>
       </c>
-      <c r="I45" s="22">
+      <c r="I46" s="19">
         <v>5861.0240000000003</v>
       </c>
-      <c r="J45" s="22">
+      <c r="J46" s="19">
         <v>2963.1660000000002</v>
       </c>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22">
+      <c r="K46" s="19"/>
+      <c r="L46" s="19">
         <v>6924.8339999999998</v>
       </c>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22">
+      <c r="M46" s="19"/>
+      <c r="N46" s="19">
         <v>590.37950000000001</v>
       </c>
-      <c r="O45" s="22">
+      <c r="O46" s="19">
         <v>1696.91929</v>
       </c>
     </row>
-    <row r="46" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="15">
+    <row r="47" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="12">
         <v>2021</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C47" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D47" s="14">
         <f t="shared" si="3"/>
         <v>29570.534019999996</v>
       </c>
-      <c r="E46" s="18">
+      <c r="E47" s="15">
         <v>1.6E-2</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F47" s="15">
         <v>33.762999999999998</v>
       </c>
-      <c r="G46" s="18">
+      <c r="G47" s="15">
         <v>7960.9809999999998</v>
       </c>
-      <c r="H46" s="18">
+      <c r="H47" s="15">
         <v>980.41300000000001</v>
       </c>
-      <c r="I46" s="18">
+      <c r="I47" s="15">
         <v>6238.2730000000001</v>
       </c>
-      <c r="J46" s="18">
+      <c r="J47" s="15">
         <v>3189.866</v>
       </c>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18">
+      <c r="K47" s="15"/>
+      <c r="L47" s="15">
         <v>8884.8860000000004</v>
       </c>
-      <c r="M46" s="18"/>
-      <c r="N46" s="18">
+      <c r="M47" s="15"/>
+      <c r="N47" s="15">
         <v>570.02250000000004</v>
       </c>
-      <c r="O46" s="18">
+      <c r="O47" s="15">
         <v>1712.3135199999999</v>
       </c>
     </row>
-    <row r="47" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="19">
+    <row r="48" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="16">
         <v>2021</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C48" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D48" s="18">
         <f t="shared" si="3"/>
         <v>26984.257880000001</v>
       </c>
-      <c r="E47" s="22">
+      <c r="E48" s="19">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F47" s="22">
+      <c r="F48" s="19">
         <v>30.326000000000001</v>
       </c>
-      <c r="G47" s="22">
+      <c r="G48" s="19">
         <v>6994.8090000000002</v>
       </c>
-      <c r="H47" s="22">
+      <c r="H48" s="19">
         <v>938.22799999999995</v>
       </c>
-      <c r="I47" s="22">
+      <c r="I48" s="19">
         <v>5685.7610000000004</v>
       </c>
-      <c r="J47" s="22">
+      <c r="J48" s="19">
         <v>2933.55</v>
       </c>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22">
+      <c r="K48" s="19"/>
+      <c r="L48" s="19">
         <v>8239.3950000000004</v>
       </c>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22">
+      <c r="M48" s="19"/>
+      <c r="N48" s="19">
         <v>517.37900000000002</v>
       </c>
-      <c r="O47" s="22">
+      <c r="O48" s="19">
         <v>1644.78388</v>
       </c>
     </row>
-    <row r="48" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="15">
+    <row r="49" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="12">
         <v>2021</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C49" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D49" s="14">
         <f t="shared" si="3"/>
         <v>27395.161769999999</v>
       </c>
-      <c r="E48" s="18">
+      <c r="E49" s="15">
         <v>1.2E-2</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F49" s="15">
         <v>34.064</v>
       </c>
-      <c r="G48" s="18">
+      <c r="G49" s="15">
         <v>5853.0280000000002</v>
       </c>
-      <c r="H48" s="18">
+      <c r="H49" s="15">
         <v>804.99099999999999</v>
       </c>
-      <c r="I48" s="18">
+      <c r="I49" s="15">
         <v>6221.6310000000003</v>
       </c>
-      <c r="J48" s="18">
+      <c r="J49" s="15">
         <v>2753.0189999999998</v>
       </c>
-      <c r="K48" s="18"/>
-      <c r="L48" s="18">
+      <c r="K49" s="15"/>
+      <c r="L49" s="15">
         <v>9369.7039999999997</v>
       </c>
-      <c r="M48" s="18"/>
-      <c r="N48" s="18">
+      <c r="M49" s="15"/>
+      <c r="N49" s="15">
         <v>581.25</v>
       </c>
-      <c r="O48" s="18">
+      <c r="O49" s="15">
         <v>1777.4627700000001</v>
       </c>
     </row>
-    <row r="49" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="19">
+    <row r="50" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="16">
         <v>2021</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C50" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="21">
+      <c r="D50" s="18">
         <f t="shared" si="3"/>
         <v>26794.383829999999</v>
       </c>
-      <c r="E49" s="22">
+      <c r="E50" s="19">
         <v>1.4E-2</v>
       </c>
-      <c r="F49" s="22">
+      <c r="F50" s="19">
         <v>28.870999999999999</v>
       </c>
-      <c r="G49" s="22">
+      <c r="G50" s="19">
         <v>5583.2060000000001</v>
       </c>
-      <c r="H49" s="22">
+      <c r="H50" s="19">
         <v>855.89099999999996</v>
       </c>
-      <c r="I49" s="22">
+      <c r="I50" s="19">
         <v>5955.3379999999997</v>
       </c>
-      <c r="J49" s="22">
+      <c r="J50" s="19">
         <v>2553.587</v>
       </c>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22">
+      <c r="K50" s="19"/>
+      <c r="L50" s="19">
         <v>9635.8649999999998</v>
       </c>
-      <c r="M49" s="22"/>
-      <c r="N49" s="22">
+      <c r="M50" s="19"/>
+      <c r="N50" s="19">
         <v>569.29200000000003</v>
       </c>
-      <c r="O49" s="22">
+      <c r="O50" s="19">
         <v>1612.3198300000001</v>
       </c>
     </row>
-    <row r="50" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="15">
+    <row r="51" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="12">
         <v>2021</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C51" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D51" s="14">
         <f t="shared" si="3"/>
         <v>28888.855879999999</v>
       </c>
-      <c r="E50" s="18">
+      <c r="E51" s="15">
         <v>0.01</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F51" s="15">
         <v>30.994</v>
       </c>
-      <c r="G50" s="18">
+      <c r="G51" s="15">
         <v>5972.1139999999996</v>
       </c>
-      <c r="H50" s="18">
+      <c r="H51" s="15">
         <v>961.24900000000002</v>
       </c>
-      <c r="I50" s="18">
+      <c r="I51" s="15">
         <v>6821.0630000000001</v>
       </c>
-      <c r="J50" s="18">
+      <c r="J51" s="15">
         <v>2527.971</v>
       </c>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18">
+      <c r="K51" s="15"/>
+      <c r="L51" s="15">
         <v>10350.735000000001</v>
       </c>
-      <c r="M50" s="18"/>
-      <c r="N50" s="18">
+      <c r="M51" s="15"/>
+      <c r="N51" s="15">
         <v>537.19399999999996</v>
       </c>
-      <c r="O50" s="18">
+      <c r="O51" s="15">
         <v>1687.5258799999999</v>
       </c>
     </row>
-    <row r="51" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="19">
+    <row r="52" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="16">
         <v>2021</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C52" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D51" s="21">
+      <c r="D52" s="18">
         <f t="shared" si="3"/>
         <v>25842.507199999996</v>
       </c>
-      <c r="E51" s="22">
+      <c r="E52" s="19">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F51" s="22">
+      <c r="F52" s="19">
         <v>23.164999999999999</v>
       </c>
-      <c r="G51" s="22">
+      <c r="G52" s="19">
         <v>5676.3119999999999</v>
       </c>
-      <c r="H51" s="22">
+      <c r="H52" s="19">
         <v>842.12599999999998</v>
       </c>
-      <c r="I51" s="22">
+      <c r="I52" s="19">
         <v>6447.9210000000003</v>
       </c>
-      <c r="J51" s="22">
+      <c r="J52" s="19">
         <v>2143.1759999999999</v>
       </c>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22">
+      <c r="K52" s="19"/>
+      <c r="L52" s="19">
         <v>8771.1730000000007</v>
       </c>
-      <c r="M51" s="22"/>
-      <c r="N51" s="22">
+      <c r="M52" s="19"/>
+      <c r="N52" s="19">
         <v>441.65600000000001</v>
       </c>
-      <c r="O51" s="22">
+      <c r="O52" s="19">
         <v>1496.9692</v>
       </c>
     </row>
-    <row r="52" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="23">
+    <row r="53" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="20">
         <v>2021</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C53" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D52" s="25">
+      <c r="D53" s="22">
         <f t="shared" si="3"/>
         <v>26743.09706</v>
       </c>
-      <c r="E52" s="26">
+      <c r="E53" s="23">
         <v>2.3E-2</v>
       </c>
-      <c r="F52" s="26">
+      <c r="F53" s="23">
         <v>22.483000000000001</v>
       </c>
-      <c r="G52" s="26">
+      <c r="G53" s="23">
         <v>5633.7330000000002</v>
       </c>
-      <c r="H52" s="26">
+      <c r="H53" s="23">
         <v>893.20500000000004</v>
       </c>
-      <c r="I52" s="26">
+      <c r="I53" s="23">
         <v>5852.174</v>
       </c>
-      <c r="J52" s="26">
+      <c r="J53" s="23">
         <v>2714.6959999999999</v>
       </c>
-      <c r="K52" s="26"/>
-      <c r="L52" s="26">
+      <c r="K53" s="23"/>
+      <c r="L53" s="23">
         <v>9764.4040000000005</v>
       </c>
-      <c r="M52" s="26"/>
-      <c r="N52" s="26">
+      <c r="M53" s="23"/>
+      <c r="N53" s="23">
         <v>374.46</v>
       </c>
-      <c r="O52" s="26">
+      <c r="O53" s="23">
         <v>1487.9190599999999</v>
       </c>
     </row>
-    <row r="53" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="27">
+    <row r="54" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="24">
         <v>2020</v>
       </c>
-      <c r="C53" s="28" t="s">
+      <c r="C54" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D53" s="29">
+      <c r="D54" s="26">
         <f t="shared" si="3"/>
         <v>29335.748110000004</v>
       </c>
-      <c r="E53" s="30">
+      <c r="E54" s="27">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F53" s="30">
+      <c r="F54" s="27">
         <v>30.75</v>
       </c>
-      <c r="G53" s="30">
+      <c r="G54" s="27">
         <v>5388.74</v>
       </c>
-      <c r="H53" s="30">
+      <c r="H54" s="27">
         <v>1227.8499999999999</v>
       </c>
-      <c r="I53" s="30">
+      <c r="I54" s="27">
         <v>8063.0550000000003</v>
       </c>
-      <c r="J53" s="30">
+      <c r="J54" s="27">
         <v>3485.029</v>
       </c>
-      <c r="K53" s="30">
+      <c r="K54" s="27">
         <v>16.4115</v>
       </c>
-      <c r="L53" s="30">
+      <c r="L54" s="27">
         <v>8808.3330000000005</v>
       </c>
-      <c r="M53" s="30"/>
-      <c r="N53" s="30">
+      <c r="M54" s="27"/>
+      <c r="N54" s="27">
         <v>499.45499999999998</v>
       </c>
-      <c r="O53" s="30">
+      <c r="O54" s="27">
         <v>1816.0996100000002</v>
       </c>
     </row>
-    <row r="54" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="15">
+    <row r="55" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="12">
         <v>2020</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C55" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D54" s="17">
+      <c r="D55" s="14">
         <f t="shared" si="3"/>
         <v>31111.598979999999</v>
       </c>
-      <c r="E54" s="18">
+      <c r="E55" s="15">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="F54" s="18">
+      <c r="F55" s="15">
         <v>29.420999999999999</v>
       </c>
-      <c r="G54" s="18">
+      <c r="G55" s="15">
         <v>4646.3059999999996</v>
       </c>
-      <c r="H54" s="18">
+      <c r="H55" s="15">
         <v>918.31700000000001</v>
       </c>
-      <c r="I54" s="18">
+      <c r="I55" s="15">
         <v>10405.393</v>
       </c>
-      <c r="J54" s="18">
+      <c r="J55" s="15">
         <v>3080.1370000000002</v>
       </c>
-      <c r="K54" s="18">
+      <c r="K55" s="15">
         <v>86.034999999999997</v>
       </c>
-      <c r="L54" s="18">
+      <c r="L55" s="15">
         <v>9680.3340000000007</v>
       </c>
-      <c r="M54" s="18"/>
-      <c r="N54" s="18">
+      <c r="M55" s="15"/>
+      <c r="N55" s="15">
         <v>427.87200000000001</v>
       </c>
-      <c r="O54" s="18">
+      <c r="O55" s="15">
         <v>1837.75198</v>
       </c>
     </row>
-    <row r="55" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="19">
+    <row r="56" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="16">
         <v>2020</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C56" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D55" s="21">
+      <c r="D56" s="18">
         <f t="shared" si="3"/>
         <v>29198.211449999999</v>
       </c>
-      <c r="E55" s="22">
+      <c r="E56" s="19">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F55" s="22">
+      <c r="F56" s="19">
         <v>25.18</v>
       </c>
-      <c r="G55" s="22">
+      <c r="G56" s="19">
         <v>4168.3999999999996</v>
       </c>
-      <c r="H55" s="22">
+      <c r="H56" s="19">
         <v>855.53599999999994</v>
       </c>
-      <c r="I55" s="22">
+      <c r="I56" s="19">
         <v>9141.11</v>
       </c>
-      <c r="J55" s="22">
+      <c r="J56" s="19">
         <v>2910.5740000000001</v>
       </c>
-      <c r="K55" s="22">
+      <c r="K56" s="19">
         <v>131.53100000000001</v>
       </c>
-      <c r="L55" s="22">
+      <c r="L56" s="19">
         <v>9811.7209999999995</v>
       </c>
-      <c r="M55" s="22"/>
-      <c r="N55" s="22">
+      <c r="M56" s="19"/>
+      <c r="N56" s="19">
         <v>328.78100000000001</v>
       </c>
-      <c r="O55" s="22">
+      <c r="O56" s="19">
         <v>1825.3604499999999</v>
       </c>
     </row>
-    <row r="56" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="15">
+    <row r="57" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="12">
         <v>2020</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C57" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D57" s="14">
         <f t="shared" si="3"/>
         <v>25824.25403</v>
       </c>
-      <c r="E56" s="18">
+      <c r="E57" s="15">
         <v>1.6E-2</v>
       </c>
-      <c r="F56" s="18">
+      <c r="F57" s="15">
         <v>19.38</v>
       </c>
-      <c r="G56" s="18">
+      <c r="G57" s="15">
         <v>3354.4870000000001</v>
       </c>
-      <c r="H56" s="18">
+      <c r="H57" s="15">
         <v>815.01599999999996</v>
       </c>
-      <c r="I56" s="18">
+      <c r="I57" s="15">
         <v>9094.2099999999991</v>
       </c>
-      <c r="J56" s="18">
+      <c r="J57" s="15">
         <v>2742.8449999999998</v>
       </c>
-      <c r="K56" s="18">
+      <c r="K57" s="15">
         <v>94.078000000000003</v>
       </c>
-      <c r="L56" s="18">
+      <c r="L57" s="15">
         <v>7889.5420000000004</v>
       </c>
-      <c r="M56" s="18"/>
-      <c r="N56" s="18">
+      <c r="M57" s="15"/>
+      <c r="N57" s="15">
         <v>300.25099999999998</v>
       </c>
-      <c r="O56" s="18">
+      <c r="O57" s="15">
         <v>1514.42903</v>
       </c>
     </row>
-    <row r="57" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="19">
+    <row r="58" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="16">
         <v>2020</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C58" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="21">
+      <c r="D58" s="18">
         <f t="shared" si="3"/>
         <v>23354.829529999999</v>
       </c>
-      <c r="E57" s="22">
+      <c r="E58" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F57" s="22">
+      <c r="F58" s="19">
         <v>19.126000000000001</v>
       </c>
-      <c r="G57" s="22">
+      <c r="G58" s="19">
         <v>2845.2860000000001</v>
       </c>
-      <c r="H57" s="22">
+      <c r="H58" s="19">
         <v>913.84799999999996</v>
       </c>
-      <c r="I57" s="22">
+      <c r="I58" s="19">
         <v>8628.9339999999993</v>
       </c>
-      <c r="J57" s="22">
+      <c r="J58" s="19">
         <v>2494.9360000000001</v>
       </c>
-      <c r="K57" s="22">
+      <c r="K58" s="19">
         <v>102.148</v>
       </c>
-      <c r="L57" s="22">
+      <c r="L58" s="19">
         <v>6734.2569999999996</v>
       </c>
-      <c r="M57" s="22"/>
-      <c r="N57" s="22">
+      <c r="M58" s="19"/>
+      <c r="N58" s="19">
         <v>214.13300000000001</v>
       </c>
-      <c r="O57" s="22">
+      <c r="O58" s="19">
         <v>1402.1505300000001</v>
       </c>
     </row>
-    <row r="58" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="15">
+    <row r="59" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="12">
         <v>2020</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C59" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D59" s="14">
         <f t="shared" si="3"/>
         <v>19260.244039999998</v>
       </c>
-      <c r="E58" s="18">
+      <c r="E59" s="15">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F58" s="18">
+      <c r="F59" s="15">
         <v>18.687000000000001</v>
       </c>
-      <c r="G58" s="18">
+      <c r="G59" s="15">
         <v>2326.4090000000001</v>
       </c>
-      <c r="H58" s="18">
+      <c r="H59" s="15">
         <v>969.73</v>
       </c>
-      <c r="I58" s="18">
+      <c r="I59" s="15">
         <v>5828.2169999999996</v>
       </c>
-      <c r="J58" s="18">
+      <c r="J59" s="15">
         <v>2394.4169999999999</v>
       </c>
-      <c r="K58" s="18">
+      <c r="K59" s="15">
         <v>76.744</v>
       </c>
-      <c r="L58" s="18">
+      <c r="L59" s="15">
         <v>6273.5619999999999</v>
       </c>
-      <c r="M58" s="18"/>
-      <c r="N58" s="18">
+      <c r="M59" s="15"/>
+      <c r="N59" s="15">
         <v>151.30000000000001</v>
       </c>
-      <c r="O58" s="18">
+      <c r="O59" s="15">
         <v>1221.17004</v>
       </c>
     </row>
-    <row r="59" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="19">
+    <row r="60" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="16">
         <v>2020</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C60" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D59" s="21">
+      <c r="D60" s="18">
         <f t="shared" si="3"/>
         <v>16681.950259999998</v>
       </c>
-      <c r="E59" s="22">
+      <c r="E60" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F59" s="22">
+      <c r="F60" s="19">
         <v>15.773</v>
       </c>
-      <c r="G59" s="22">
+      <c r="G60" s="19">
         <v>1336.4849999999999</v>
       </c>
-      <c r="H59" s="22">
+      <c r="H60" s="19">
         <v>585.92899999999997</v>
       </c>
-      <c r="I59" s="22">
+      <c r="I60" s="19">
         <v>5587.4769999999999</v>
       </c>
-      <c r="J59" s="22">
+      <c r="J60" s="19">
         <v>2256.6930000000002</v>
       </c>
-      <c r="K59" s="22">
+      <c r="K60" s="19">
         <v>42.146999999999998</v>
       </c>
-      <c r="L59" s="22">
+      <c r="L60" s="19">
         <v>5744.8710000000001</v>
       </c>
-      <c r="M59" s="22"/>
-      <c r="N59" s="22">
+      <c r="M60" s="19"/>
+      <c r="N60" s="19">
         <v>118.29600000000001</v>
       </c>
-      <c r="O59" s="22">
+      <c r="O60" s="19">
         <v>994.26826000000005</v>
       </c>
     </row>
-    <row r="60" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="15">
+    <row r="61" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="12">
         <v>2020</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C61" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D60" s="17">
+      <c r="D61" s="14">
         <f t="shared" si="3"/>
         <v>15536.86291</v>
       </c>
-      <c r="E60" s="18">
+      <c r="E61" s="15">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F60" s="18">
+      <c r="F61" s="15">
         <v>9.4559999999999995</v>
       </c>
-      <c r="G60" s="18">
+      <c r="G61" s="15">
         <v>799.72500000000002</v>
       </c>
-      <c r="H60" s="18">
+      <c r="H61" s="15">
         <v>697.28700000000003</v>
       </c>
-      <c r="I60" s="18">
+      <c r="I61" s="15">
         <v>5542.4840000000004</v>
       </c>
-      <c r="J60" s="18">
+      <c r="J61" s="15">
         <v>2132.3310000000001</v>
       </c>
-      <c r="K60" s="18">
+      <c r="K61" s="15">
         <v>69.804000000000002</v>
       </c>
-      <c r="L60" s="18">
+      <c r="L61" s="15">
         <v>5558.576</v>
       </c>
-      <c r="M60" s="18"/>
-      <c r="N60" s="18">
+      <c r="M61" s="15"/>
+      <c r="N61" s="15">
         <v>143.20510000000002</v>
       </c>
-      <c r="O60" s="18">
+      <c r="O61" s="15">
         <v>583.9918100000001</v>
       </c>
     </row>
-    <row r="61" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="19">
+    <row r="62" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="16">
         <v>2020</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C62" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D61" s="21">
+      <c r="D62" s="18">
         <f t="shared" si="3"/>
         <v>13161.648870000003</v>
       </c>
-      <c r="E61" s="22">
+      <c r="E62" s="19">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F61" s="22">
+      <c r="F62" s="19">
         <v>7.4619999999999997</v>
       </c>
-      <c r="G61" s="22">
+      <c r="G62" s="19">
         <v>1038.125</v>
       </c>
-      <c r="H61" s="22">
+      <c r="H62" s="19">
         <v>754.48400000000004</v>
       </c>
-      <c r="I61" s="22">
+      <c r="I62" s="19">
         <v>5034.1760000000004</v>
       </c>
-      <c r="J61" s="22">
+      <c r="J62" s="19">
         <v>1894.93</v>
       </c>
-      <c r="K61" s="22">
+      <c r="K62" s="19">
         <v>59.36</v>
       </c>
-      <c r="L61" s="22">
+      <c r="L62" s="19">
         <v>3753.6880000000001</v>
       </c>
-      <c r="M61" s="22"/>
-      <c r="N61" s="22">
+      <c r="M62" s="19"/>
+      <c r="N62" s="19">
         <v>60.6843</v>
       </c>
-      <c r="O61" s="22">
+      <c r="O62" s="19">
         <v>558.7325699999999</v>
       </c>
     </row>
-    <row r="62" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="15">
+    <row r="63" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="12">
         <v>2020</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C63" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D62" s="17">
+      <c r="D63" s="14">
         <f t="shared" si="3"/>
         <v>22714.14399</v>
       </c>
-      <c r="E62" s="18">
+      <c r="E63" s="15">
         <v>3.1E-2</v>
       </c>
-      <c r="F62" s="18">
+      <c r="F63" s="15">
         <v>35.988999999999997</v>
       </c>
-      <c r="G62" s="18">
+      <c r="G63" s="15">
         <v>7356.9930000000004</v>
       </c>
-      <c r="H62" s="18">
+      <c r="H63" s="15">
         <v>1318.52</v>
       </c>
-      <c r="I62" s="18">
+      <c r="I63" s="15">
         <v>4797.09</v>
       </c>
-      <c r="J62" s="18">
+      <c r="J63" s="15">
         <v>1722.712</v>
       </c>
-      <c r="K62" s="18">
+      <c r="K63" s="15">
         <v>1659.4059999999999</v>
       </c>
-      <c r="L62" s="18">
+      <c r="L63" s="15">
         <v>4510.4480000000003</v>
       </c>
-      <c r="M62" s="18"/>
-      <c r="N62" s="18">
+      <c r="M63" s="15"/>
+      <c r="N63" s="15">
         <v>102.3022</v>
       </c>
-      <c r="O62" s="18">
+      <c r="O63" s="15">
         <v>1210.6527900000001</v>
       </c>
     </row>
-    <row r="63" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="19">
+    <row r="64" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="16">
         <v>2020</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C64" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D63" s="21">
+      <c r="D64" s="18">
         <f t="shared" si="3"/>
         <v>23622.028510000007</v>
       </c>
-      <c r="E63" s="22">
+      <c r="E64" s="19">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F63" s="22">
+      <c r="F64" s="19">
         <v>56.369</v>
       </c>
-      <c r="G63" s="22">
+      <c r="G64" s="19">
         <v>9237.1190000000006</v>
       </c>
-      <c r="H63" s="22">
+      <c r="H64" s="19">
         <v>1428.3530000000001</v>
       </c>
-      <c r="I63" s="22">
+      <c r="I64" s="19">
         <v>3273.0720000000001</v>
       </c>
-      <c r="J63" s="22">
+      <c r="J64" s="19">
         <v>1520.239</v>
       </c>
-      <c r="K63" s="22">
+      <c r="K64" s="19">
         <v>2283.7510000000002</v>
       </c>
-      <c r="L63" s="22">
+      <c r="L64" s="19">
         <v>4116.8599999999997</v>
       </c>
-      <c r="M63" s="22"/>
-      <c r="N63" s="22">
+      <c r="M64" s="19"/>
+      <c r="N64" s="19">
         <v>132.3349</v>
       </c>
-      <c r="O63" s="22">
+      <c r="O64" s="19">
         <v>1573.90461</v>
       </c>
     </row>
-    <row r="64" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="23">
+    <row r="65" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="20">
         <v>2020</v>
       </c>
-      <c r="C64" s="24" t="s">
+      <c r="C65" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D64" s="25">
+      <c r="D65" s="22">
         <f t="shared" si="3"/>
         <v>26687.883509999996</v>
       </c>
-      <c r="E64" s="26">
+      <c r="E65" s="23">
         <v>4.7E-2</v>
       </c>
-      <c r="F64" s="26">
+      <c r="F65" s="23">
         <v>53.219000000000001</v>
       </c>
-      <c r="G64" s="26">
+      <c r="G65" s="23">
         <v>8754.5229999999992</v>
       </c>
-      <c r="H64" s="26">
+      <c r="H65" s="23">
         <v>1369.674</v>
       </c>
-      <c r="I64" s="26">
+      <c r="I65" s="23">
         <v>5338.8549999999996</v>
       </c>
-      <c r="J64" s="26">
+      <c r="J65" s="23">
         <v>1679.8140000000001</v>
       </c>
-      <c r="K64" s="26">
+      <c r="K65" s="23">
         <v>2456.4389999999999</v>
       </c>
-      <c r="L64" s="26">
+      <c r="L65" s="23">
         <v>5287.6</v>
       </c>
-      <c r="M64" s="26"/>
-      <c r="N64" s="26">
+      <c r="M65" s="23"/>
+      <c r="N65" s="23">
         <v>71.972800000000007</v>
       </c>
-      <c r="O64" s="26">
+      <c r="O65" s="23">
         <v>1675.7397100000001</v>
       </c>
     </row>
-    <row r="65" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="27">
+    <row r="66" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="24">
         <v>2019</v>
       </c>
-      <c r="C65" s="28" t="s">
+      <c r="C66" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D65" s="29">
+      <c r="D66" s="26">
         <f t="shared" si="3"/>
         <v>31427.187729999998</v>
       </c>
-      <c r="E65" s="30">
+      <c r="E66" s="27">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="F65" s="30">
+      <c r="F66" s="27">
         <v>86.153999999999996</v>
       </c>
-      <c r="G65" s="30">
+      <c r="G66" s="27">
         <v>9577.1149999999998</v>
       </c>
-      <c r="H65" s="30">
+      <c r="H66" s="27">
         <v>1676.4159999999999</v>
       </c>
-      <c r="I65" s="30">
+      <c r="I66" s="27">
         <v>6029.0749999999998</v>
       </c>
-      <c r="J65" s="30">
+      <c r="J66" s="27">
         <v>2445.3470000000002</v>
       </c>
-      <c r="K65" s="30">
+      <c r="K66" s="27">
         <v>2928.4569999999999</v>
       </c>
-      <c r="L65" s="30">
+      <c r="L66" s="27">
         <v>5030.2939999999999</v>
       </c>
-      <c r="M65" s="30"/>
-      <c r="N65" s="30">
+      <c r="M66" s="27"/>
+      <c r="N66" s="27">
         <v>65.746300000000005</v>
       </c>
-      <c r="O65" s="30">
+      <c r="O66" s="27">
         <v>3588.5074299999997</v>
       </c>
     </row>
-    <row r="66" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="15">
+    <row r="67" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="12">
         <v>2019</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C67" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="17">
+      <c r="D67" s="14">
         <f t="shared" si="3"/>
         <v>31763.522410000001</v>
       </c>
-      <c r="E66" s="18">
+      <c r="E67" s="15">
         <v>1.76</v>
       </c>
-      <c r="F66" s="18">
+      <c r="F67" s="15">
         <v>80.100999999999999</v>
       </c>
-      <c r="G66" s="18">
+      <c r="G67" s="15">
         <v>9752.0519999999997</v>
       </c>
-      <c r="H66" s="18">
+      <c r="H67" s="15">
         <v>1595.383</v>
       </c>
-      <c r="I66" s="18">
+      <c r="I67" s="15">
         <v>5103.0559999999996</v>
       </c>
-      <c r="J66" s="18">
+      <c r="J67" s="15">
         <v>2658.252</v>
       </c>
-      <c r="K66" s="18">
+      <c r="K67" s="15">
         <v>3015.0219999999999</v>
       </c>
-      <c r="L66" s="18">
+      <c r="L67" s="15">
         <v>5793.69</v>
       </c>
-      <c r="M66" s="18"/>
-      <c r="N66" s="18">
+      <c r="M67" s="15"/>
+      <c r="N67" s="15">
         <v>12.758299999999998</v>
       </c>
-      <c r="O66" s="18">
+      <c r="O67" s="15">
         <v>3751.4481100000003</v>
       </c>
     </row>
-    <row r="67" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="19">
+    <row r="68" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="16">
         <v>2019</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C68" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D67" s="21">
+      <c r="D68" s="18">
         <f t="shared" si="3"/>
         <v>31229.518959999994</v>
       </c>
-      <c r="E67" s="22">
+      <c r="E68" s="19">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="F67" s="22">
+      <c r="F68" s="19">
         <v>72</v>
       </c>
-      <c r="G67" s="22">
+      <c r="G68" s="19">
         <v>9994.6419999999998</v>
       </c>
-      <c r="H67" s="22">
+      <c r="H68" s="19">
         <v>1608.7059999999999</v>
       </c>
-      <c r="I67" s="22">
+      <c r="I68" s="19">
         <v>4575.3310000000001</v>
       </c>
-      <c r="J67" s="22">
+      <c r="J68" s="19">
         <v>2828.3510000000001</v>
       </c>
-      <c r="K67" s="22">
+      <c r="K68" s="19">
         <v>2682.761</v>
       </c>
-      <c r="L67" s="22">
+      <c r="L68" s="19">
         <v>5549.9949999999999</v>
       </c>
-      <c r="M67" s="22"/>
-      <c r="N67" s="22"/>
-      <c r="O67" s="22">
+      <c r="M68" s="19"/>
+      <c r="N68" s="19"/>
+      <c r="O68" s="19">
         <v>3917.6479599999998</v>
       </c>
     </row>
-    <row r="68" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="15">
+    <row r="69" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="12">
         <v>2019</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C69" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D68" s="17">
+      <c r="D69" s="14">
         <f t="shared" si="3"/>
         <v>29172.540249999998</v>
       </c>
-      <c r="E68" s="18">
+      <c r="E69" s="15">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F68" s="18">
+      <c r="F69" s="15">
         <v>54.752000000000002</v>
       </c>
-      <c r="G68" s="18">
+      <c r="G69" s="15">
         <v>9010.31</v>
       </c>
-      <c r="H68" s="18">
+      <c r="H69" s="15">
         <v>1396.2560000000001</v>
       </c>
-      <c r="I68" s="18">
+      <c r="I69" s="15">
         <v>5775.3389999999999</v>
       </c>
-      <c r="J68" s="18">
+      <c r="J69" s="15">
         <v>2331.1950000000002</v>
       </c>
-      <c r="K68" s="18">
+      <c r="K69" s="15">
         <v>2334.8119999999999</v>
       </c>
-      <c r="L68" s="18">
+      <c r="L69" s="15">
         <v>4893.7089999999998</v>
       </c>
-      <c r="M68" s="18"/>
-      <c r="N68" s="18"/>
-      <c r="O68" s="18">
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15">
         <v>3376.1322500000001</v>
       </c>
     </row>
-    <row r="69" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="19">
+    <row r="70" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="16">
         <v>2019</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C70" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D69" s="21">
+      <c r="D70" s="18">
         <f t="shared" si="3"/>
         <v>28718.377859999997</v>
       </c>
-      <c r="E69" s="22">
+      <c r="E70" s="19">
         <v>5.59633</v>
       </c>
-      <c r="F69" s="22">
+      <c r="F70" s="19">
         <v>57.29</v>
       </c>
-      <c r="G69" s="22">
+      <c r="G70" s="19">
         <v>8610.5910000000003</v>
       </c>
-      <c r="H69" s="22">
+      <c r="H70" s="19">
         <v>1665.9570000000001</v>
       </c>
-      <c r="I69" s="22">
+      <c r="I70" s="19">
         <v>5196.0309999999999</v>
       </c>
-      <c r="J69" s="22">
+      <c r="J70" s="19">
         <v>2672.4050000000002</v>
       </c>
-      <c r="K69" s="22">
+      <c r="K70" s="19">
         <v>2511.7330000000002</v>
       </c>
-      <c r="L69" s="22">
+      <c r="L70" s="19">
         <v>4774.3459999999995</v>
       </c>
-      <c r="M69" s="22"/>
-      <c r="N69" s="22"/>
-      <c r="O69" s="22">
+      <c r="M70" s="19"/>
+      <c r="N70" s="19"/>
+      <c r="O70" s="19">
         <v>3224.4285300000001</v>
       </c>
     </row>
-    <row r="70" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="15">
+    <row r="71" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="12">
         <v>2019</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C71" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D70" s="17">
+      <c r="D71" s="14">
         <f t="shared" si="3"/>
         <v>28707.78629</v>
       </c>
-      <c r="E70" s="18">
+      <c r="E71" s="15">
         <v>6.0529999999999999</v>
       </c>
-      <c r="F70" s="18">
+      <c r="F71" s="15">
         <v>57.801000000000002</v>
       </c>
-      <c r="G70" s="18">
+      <c r="G71" s="15">
         <v>8986.9670000000006</v>
       </c>
-      <c r="H70" s="18">
+      <c r="H71" s="15">
         <v>1788.191</v>
       </c>
-      <c r="I70" s="18">
+      <c r="I71" s="15">
         <v>5135.1639999999998</v>
       </c>
-      <c r="J70" s="18">
+      <c r="J71" s="15">
         <v>2578.5520000000001</v>
       </c>
-      <c r="K70" s="18">
+      <c r="K71" s="15">
         <v>2341.8049999999998</v>
       </c>
-      <c r="L70" s="18">
+      <c r="L71" s="15">
         <v>4798.0159999999996</v>
       </c>
-      <c r="M70" s="18"/>
-      <c r="N70" s="18"/>
-      <c r="O70" s="18">
+      <c r="M71" s="15"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="15">
         <v>3015.23729</v>
       </c>
     </row>
-    <row r="71" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="19">
+    <row r="72" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="16">
         <v>2019</v>
       </c>
-      <c r="C71" s="20" t="s">
+      <c r="C72" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D71" s="21">
+      <c r="D72" s="18">
         <f t="shared" si="3"/>
         <v>27292.410609999999</v>
       </c>
-      <c r="E71" s="22">
+      <c r="E72" s="19">
         <v>5.46</v>
       </c>
-      <c r="F71" s="22">
+      <c r="F72" s="19">
         <v>55.997999999999998</v>
       </c>
-      <c r="G71" s="22">
+      <c r="G72" s="19">
         <v>8069.7749999999996</v>
       </c>
-      <c r="H71" s="22">
+      <c r="H72" s="19">
         <v>1587.973</v>
       </c>
-      <c r="I71" s="22">
+      <c r="I72" s="19">
         <v>5215.268</v>
       </c>
-      <c r="J71" s="22">
+      <c r="J72" s="19">
         <v>2428.5169999999998</v>
       </c>
-      <c r="K71" s="22">
+      <c r="K72" s="19">
         <v>2360.0700000000002</v>
       </c>
-      <c r="L71" s="22">
+      <c r="L72" s="19">
         <v>4450.9750000000004</v>
       </c>
-      <c r="M71" s="22"/>
-      <c r="N71" s="22"/>
-      <c r="O71" s="22">
+      <c r="M72" s="19"/>
+      <c r="N72" s="19"/>
+      <c r="O72" s="19">
         <v>3118.3746100000003</v>
       </c>
     </row>
-    <row r="72" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="15">
+    <row r="73" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="12">
         <v>2019</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C73" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D72" s="17">
+      <c r="D73" s="14">
         <f t="shared" si="3"/>
         <v>29113.054540000001</v>
       </c>
-      <c r="E72" s="18">
+      <c r="E73" s="15">
         <v>6.2110000000000003</v>
       </c>
-      <c r="F72" s="18">
+      <c r="F73" s="15">
         <v>67.53</v>
       </c>
-      <c r="G72" s="18">
+      <c r="G73" s="15">
         <v>8472.9789999999994</v>
       </c>
-      <c r="H72" s="18">
+      <c r="H73" s="15">
         <v>1708.221</v>
       </c>
-      <c r="I72" s="18">
+      <c r="I73" s="15">
         <v>5081.5749999999998</v>
       </c>
-      <c r="J72" s="18">
+      <c r="J73" s="15">
         <v>2646.9789999999998</v>
       </c>
-      <c r="K72" s="18">
+      <c r="K73" s="15">
         <v>2406.2260000000001</v>
       </c>
-      <c r="L72" s="18">
+      <c r="L73" s="15">
         <v>5332.5439999999999</v>
       </c>
-      <c r="M72" s="18"/>
-      <c r="N72" s="18"/>
-      <c r="O72" s="18">
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="15">
         <v>3390.7895400000002</v>
       </c>
     </row>
-    <row r="73" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="19">
+    <row r="74" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="16">
         <v>2019</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="C74" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D73" s="21">
+      <c r="D74" s="18">
         <f t="shared" si="3"/>
         <v>31250.364179999997</v>
       </c>
-      <c r="E73" s="22">
+      <c r="E74" s="19">
         <v>7.8460000000000001</v>
       </c>
-      <c r="F73" s="22">
+      <c r="F74" s="19">
         <v>56.534999999999997</v>
       </c>
-      <c r="G73" s="22">
+      <c r="G74" s="19">
         <v>8624.3449999999993</v>
       </c>
-      <c r="H73" s="22">
+      <c r="H74" s="19">
         <v>1621.0229999999999</v>
       </c>
-      <c r="I73" s="22">
+      <c r="I74" s="19">
         <v>8671.3349999999991</v>
       </c>
-      <c r="J73" s="22">
+      <c r="J74" s="19">
         <v>2304.8890000000001</v>
       </c>
-      <c r="K73" s="22">
+      <c r="K74" s="19">
         <v>2447.4609999999998</v>
       </c>
-      <c r="L73" s="22">
+      <c r="L74" s="19">
         <v>4465.5820000000003</v>
       </c>
-      <c r="M73" s="22"/>
-      <c r="N73" s="22"/>
-      <c r="O73" s="22">
+      <c r="M74" s="19"/>
+      <c r="N74" s="19"/>
+      <c r="O74" s="19">
         <v>3051.34818</v>
       </c>
     </row>
-    <row r="74" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="15">
+    <row r="75" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="12">
         <v>2019</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="C75" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D74" s="17">
+      <c r="D75" s="14">
         <f t="shared" si="3"/>
         <v>31365.490560000002</v>
       </c>
-      <c r="E74" s="18">
+      <c r="E75" s="15">
         <v>5.36</v>
       </c>
-      <c r="F74" s="18">
+      <c r="F75" s="15">
         <v>59.417999999999999</v>
       </c>
-      <c r="G74" s="18">
+      <c r="G75" s="15">
         <v>9153.4</v>
       </c>
-      <c r="H74" s="18">
+      <c r="H75" s="15">
         <v>1573.4939999999999</v>
       </c>
-      <c r="I74" s="18">
+      <c r="I75" s="15">
         <v>7744.9759999999997</v>
       </c>
-      <c r="J74" s="18">
+      <c r="J75" s="15">
         <v>2483.4180000000001</v>
       </c>
-      <c r="K74" s="18">
+      <c r="K75" s="15">
         <v>2376.971</v>
       </c>
-      <c r="L74" s="18">
+      <c r="L75" s="15">
         <v>4955.9579999999996</v>
       </c>
-      <c r="M74" s="18"/>
-      <c r="N74" s="18"/>
-      <c r="O74" s="18">
+      <c r="M75" s="15"/>
+      <c r="N75" s="15"/>
+      <c r="O75" s="15">
         <v>3012.4955599999998</v>
       </c>
     </row>
-    <row r="75" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="19">
+    <row r="76" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="16">
         <v>2019</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="C76" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D75" s="21">
+      <c r="D76" s="18">
         <f t="shared" si="3"/>
         <v>27676.571899999999</v>
       </c>
-      <c r="E75" s="22">
+      <c r="E76" s="19">
         <v>5.3540000000000001</v>
       </c>
-      <c r="F75" s="22">
+      <c r="F76" s="19">
         <v>60.44</v>
       </c>
-      <c r="G75" s="22">
+      <c r="G76" s="19">
         <v>8240.6730000000007</v>
       </c>
-      <c r="H75" s="22">
+      <c r="H76" s="19">
         <v>1223.51</v>
       </c>
-      <c r="I75" s="22">
+      <c r="I76" s="19">
         <v>6582.1109999999999</v>
       </c>
-      <c r="J75" s="22">
+      <c r="J76" s="19">
         <v>2315.9119999999998</v>
       </c>
-      <c r="K75" s="22">
+      <c r="K76" s="19">
         <v>2451.8209999999999</v>
       </c>
-      <c r="L75" s="22">
+      <c r="L76" s="19">
         <v>3688.9839999999999</v>
       </c>
-      <c r="M75" s="22"/>
-      <c r="N75" s="22"/>
-      <c r="O75" s="22">
+      <c r="M76" s="19"/>
+      <c r="N76" s="19"/>
+      <c r="O76" s="19">
         <v>3107.7669000000001</v>
-      </c>
-    </row>
-    <row r="76" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="23">
-        <v>2019</v>
-      </c>
-      <c r="C76" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D76" s="25">
-        <f t="shared" ref="D76:D88" si="4">SUM(E76:O76)</f>
-        <v>31729.582690000007</v>
-      </c>
-      <c r="E76" s="26">
-        <v>6.7610000000000001</v>
-      </c>
-      <c r="F76" s="26">
-        <v>74.009</v>
-      </c>
-      <c r="G76" s="26">
-        <v>7747.527</v>
-      </c>
-      <c r="H76" s="26">
-        <v>1196.4000000000001</v>
-      </c>
-      <c r="I76" s="26">
-        <v>8376.51</v>
-      </c>
-      <c r="J76" s="26">
-        <v>2613.239</v>
-      </c>
-      <c r="K76" s="26">
-        <v>4476.8249999999998</v>
-      </c>
-      <c r="L76" s="26">
-        <v>3965.1860000000001</v>
-      </c>
-      <c r="M76" s="26"/>
-      <c r="N76" s="26"/>
-      <c r="O76" s="26">
-        <v>3273.1256899999998</v>
       </c>
     </row>
     <row r="77" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="B77" s="20">
+        <v>2019</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D77" s="22">
+        <f t="shared" ref="D77:D89" si="4">SUM(E77:O77)</f>
+        <v>31729.582690000007</v>
+      </c>
+      <c r="E77" s="23">
+        <v>6.7610000000000001</v>
+      </c>
+      <c r="F77" s="23">
+        <v>74.009</v>
+      </c>
+      <c r="G77" s="23">
+        <v>7747.527</v>
+      </c>
+      <c r="H77" s="23">
+        <v>1196.4000000000001</v>
+      </c>
+      <c r="I77" s="23">
+        <v>8376.51</v>
+      </c>
+      <c r="J77" s="23">
+        <v>2613.239</v>
+      </c>
+      <c r="K77" s="23">
+        <v>4476.8249999999998</v>
+      </c>
+      <c r="L77" s="23">
+        <v>3965.1860000000001</v>
+      </c>
+      <c r="M77" s="23"/>
+      <c r="N77" s="23"/>
+      <c r="O77" s="23">
+        <v>3273.1256899999998</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="17">
         <v>2018</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C78" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D77" s="21">
+      <c r="D78" s="18">
         <f t="shared" si="4"/>
         <v>27825.537</v>
       </c>
-      <c r="E77" s="22">
+      <c r="E78" s="19">
         <v>11.624000000000001</v>
       </c>
-      <c r="F77" s="22">
+      <c r="F78" s="19">
         <v>93.391999999999996</v>
       </c>
-      <c r="G77" s="22">
+      <c r="G78" s="19">
         <v>8828.0380000000005</v>
       </c>
-      <c r="H77" s="22">
+      <c r="H78" s="19">
         <v>1419.221</v>
       </c>
-      <c r="I77" s="22">
+      <c r="I78" s="19">
         <v>8160.1949999999997</v>
       </c>
-      <c r="J77" s="22">
+      <c r="J78" s="19">
         <v>2550.1379999999999</v>
       </c>
-      <c r="K77" s="22">
+      <c r="K78" s="19">
         <v>2539.4380000000001</v>
       </c>
-      <c r="L77" s="22">
+      <c r="L78" s="19">
         <v>4208.37</v>
       </c>
-      <c r="M77" s="22"/>
-      <c r="N77" s="22"/>
-      <c r="O77" s="22">
+      <c r="M78" s="19"/>
+      <c r="N78" s="19"/>
+      <c r="O78" s="19">
         <v>15.121</v>
       </c>
     </row>
-    <row r="78" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="16">
+    <row r="79" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="13">
         <v>2018</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C79" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D78" s="17">
+      <c r="D79" s="14">
         <f t="shared" si="4"/>
         <v>30438.187000000005</v>
       </c>
-      <c r="E78" s="18">
+      <c r="E79" s="15">
         <v>9.8219999999999992</v>
       </c>
-      <c r="F78" s="18">
+      <c r="F79" s="15">
         <v>90.676000000000002</v>
       </c>
-      <c r="G78" s="18">
+      <c r="G79" s="15">
         <v>9033.7459999999992</v>
       </c>
-      <c r="H78" s="18">
+      <c r="H79" s="15">
         <v>1677.8789999999999</v>
       </c>
-      <c r="I78" s="18">
+      <c r="I79" s="15">
         <v>9087.1730000000007</v>
       </c>
-      <c r="J78" s="18">
+      <c r="J79" s="15">
         <v>2973.703</v>
       </c>
-      <c r="K78" s="18">
+      <c r="K79" s="15">
         <v>2449.9479999999999</v>
       </c>
-      <c r="L78" s="18">
+      <c r="L79" s="15">
         <v>5104.8959999999997</v>
       </c>
-      <c r="M78" s="18"/>
-      <c r="N78" s="18"/>
-      <c r="O78" s="18">
+      <c r="M79" s="15"/>
+      <c r="N79" s="15"/>
+      <c r="O79" s="15">
         <v>10.343999999999999</v>
       </c>
     </row>
-    <row r="79" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="20">
+    <row r="80" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="17">
         <v>2018</v>
       </c>
-      <c r="C79" s="20" t="s">
+      <c r="C80" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D79" s="21">
+      <c r="D80" s="18">
         <f t="shared" si="4"/>
         <v>30428.691999999999</v>
       </c>
-      <c r="E79" s="22">
+      <c r="E80" s="19">
         <v>8.2870000000000008</v>
       </c>
-      <c r="F79" s="22">
+      <c r="F80" s="19">
         <v>78.7</v>
       </c>
-      <c r="G79" s="22">
+      <c r="G80" s="19">
         <v>8819.0689999999995</v>
       </c>
-      <c r="H79" s="22">
+      <c r="H80" s="19">
         <v>1516.8230000000001</v>
       </c>
-      <c r="I79" s="22">
+      <c r="I80" s="19">
         <v>9777.8709999999992</v>
       </c>
-      <c r="J79" s="22">
+      <c r="J80" s="19">
         <v>2987.6489999999999</v>
       </c>
-      <c r="K79" s="22">
+      <c r="K80" s="19">
         <v>1751.569</v>
       </c>
-      <c r="L79" s="22">
+      <c r="L80" s="19">
         <v>5477.6930000000002</v>
       </c>
-      <c r="M79" s="22"/>
-      <c r="N79" s="22"/>
-      <c r="O79" s="22">
+      <c r="M80" s="19"/>
+      <c r="N80" s="19"/>
+      <c r="O80" s="19">
         <v>11.031000000000001</v>
       </c>
     </row>
-    <row r="80" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="16">
+    <row r="81" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="13">
         <v>2018</v>
       </c>
-      <c r="C80" s="16" t="s">
+      <c r="C81" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D80" s="17">
+      <c r="D81" s="14">
         <f t="shared" si="4"/>
         <v>27010.514999999999</v>
       </c>
-      <c r="E80" s="18">
+      <c r="E81" s="15">
         <v>10.707000000000001</v>
       </c>
-      <c r="F80" s="18">
+      <c r="F81" s="15">
         <v>62.167000000000002</v>
       </c>
-      <c r="G80" s="18">
+      <c r="G81" s="15">
         <v>8102.4960000000001</v>
       </c>
-      <c r="H80" s="18">
+      <c r="H81" s="15">
         <v>1416.539</v>
       </c>
-      <c r="I80" s="18">
+      <c r="I81" s="15">
         <v>8463.5859999999993</v>
       </c>
-      <c r="J80" s="18">
+      <c r="J81" s="15">
         <v>2463.84</v>
       </c>
-      <c r="K80" s="18">
+      <c r="K81" s="15">
         <v>1662.82</v>
       </c>
-      <c r="L80" s="18">
+      <c r="L81" s="15">
         <v>4814.68</v>
       </c>
-      <c r="M80" s="18"/>
-      <c r="N80" s="18"/>
-      <c r="O80" s="18">
+      <c r="M81" s="15"/>
+      <c r="N81" s="15"/>
+      <c r="O81" s="15">
         <v>13.68</v>
       </c>
     </row>
-    <row r="81" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="20">
+    <row r="82" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="17">
         <v>2018</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C82" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D81" s="21">
+      <c r="D82" s="18">
         <f t="shared" si="4"/>
         <v>27455.597999999998</v>
       </c>
-      <c r="E81" s="22">
+      <c r="E82" s="19">
         <v>10.06</v>
       </c>
-      <c r="F81" s="22">
+      <c r="F82" s="19">
         <v>67.233999999999995</v>
       </c>
-      <c r="G81" s="22">
+      <c r="G82" s="19">
         <v>8035.7269999999999</v>
       </c>
-      <c r="H81" s="22">
+      <c r="H82" s="19">
         <v>1692.001</v>
       </c>
-      <c r="I81" s="22">
+      <c r="I82" s="19">
         <v>8464.9650000000001</v>
       </c>
-      <c r="J81" s="22">
+      <c r="J82" s="19">
         <v>2758.96</v>
       </c>
-      <c r="K81" s="22">
+      <c r="K82" s="19">
         <v>1732.587</v>
       </c>
-      <c r="L81" s="22">
+      <c r="L82" s="19">
         <v>4679.0959999999995</v>
       </c>
-      <c r="M81" s="22"/>
-      <c r="N81" s="22"/>
-      <c r="O81" s="22">
+      <c r="M82" s="19"/>
+      <c r="N82" s="19"/>
+      <c r="O82" s="19">
         <v>14.968</v>
       </c>
     </row>
-    <row r="82" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="16">
+    <row r="83" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="13">
         <v>2018</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="C83" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D82" s="17">
+      <c r="D83" s="14">
         <f t="shared" si="4"/>
         <v>27442.177</v>
       </c>
-      <c r="E82" s="18">
+      <c r="E83" s="15">
         <v>10.051</v>
       </c>
-      <c r="F82" s="18">
+      <c r="F83" s="15">
         <v>63.811</v>
       </c>
-      <c r="G82" s="18">
+      <c r="G83" s="15">
         <v>7722.7290000000003</v>
       </c>
-      <c r="H82" s="18">
+      <c r="H83" s="15">
         <v>1496.4</v>
       </c>
-      <c r="I82" s="18">
+      <c r="I83" s="15">
         <v>8747.1980000000003</v>
       </c>
-      <c r="J82" s="18">
+      <c r="J83" s="15">
         <v>2551.65</v>
       </c>
-      <c r="K82" s="18">
+      <c r="K83" s="15">
         <v>1697.7090000000001</v>
       </c>
-      <c r="L82" s="18">
+      <c r="L83" s="15">
         <v>5136.6130000000003</v>
       </c>
-      <c r="M82" s="18"/>
-      <c r="N82" s="18"/>
-      <c r="O82" s="18">
+      <c r="M83" s="15"/>
+      <c r="N83" s="15"/>
+      <c r="O83" s="15">
         <v>16.015999999999998</v>
       </c>
     </row>
-    <row r="83" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="20">
+    <row r="84" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="17">
         <v>2018</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="C84" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D83" s="21">
+      <c r="D84" s="18">
         <f t="shared" si="4"/>
         <v>27934.611100000002</v>
       </c>
-      <c r="E83" s="22">
+      <c r="E84" s="19">
         <v>5.8701000000000008</v>
       </c>
-      <c r="F83" s="22">
+      <c r="F84" s="19">
         <v>68.567999999999998</v>
       </c>
-      <c r="G83" s="22">
+      <c r="G84" s="19">
         <v>7714.4070000000002</v>
       </c>
-      <c r="H83" s="22">
+      <c r="H84" s="19">
         <v>1561.0450000000001</v>
       </c>
-      <c r="I83" s="22">
+      <c r="I84" s="19">
         <v>8940.5429999999997</v>
       </c>
-      <c r="J83" s="22">
+      <c r="J84" s="19">
         <v>2632.7139999999999</v>
       </c>
-      <c r="K83" s="22">
+      <c r="K84" s="19">
         <v>1889.998</v>
       </c>
-      <c r="L83" s="22">
+      <c r="L84" s="19">
         <v>5110.2619999999997</v>
       </c>
-      <c r="M83" s="22"/>
-      <c r="N83" s="22"/>
-      <c r="O83" s="22">
+      <c r="M84" s="19"/>
+      <c r="N84" s="19"/>
+      <c r="O84" s="19">
         <v>11.204000000000001</v>
       </c>
     </row>
-    <row r="84" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="16">
+    <row r="85" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="13">
         <v>2018</v>
       </c>
-      <c r="C84" s="16" t="s">
+      <c r="C85" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D84" s="17">
+      <c r="D85" s="14">
         <f t="shared" si="4"/>
         <v>28918.192660000001</v>
       </c>
-      <c r="E84" s="18">
+      <c r="E85" s="15">
         <v>7.8816600000000001</v>
       </c>
-      <c r="F84" s="18">
+      <c r="F85" s="15">
         <v>82.861999999999995</v>
       </c>
-      <c r="G84" s="18">
+      <c r="G85" s="15">
         <v>8118.165</v>
       </c>
-      <c r="H84" s="18">
+      <c r="H85" s="15">
         <v>1532.5719999999999</v>
       </c>
-      <c r="I84" s="18">
+      <c r="I85" s="15">
         <v>8129.585</v>
       </c>
-      <c r="J84" s="18">
+      <c r="J85" s="15">
         <v>2956.08</v>
       </c>
-      <c r="K84" s="18">
+      <c r="K85" s="15">
         <v>1988.6780000000001</v>
       </c>
-      <c r="L84" s="18">
+      <c r="L85" s="15">
         <v>6089.1620000000003</v>
       </c>
-      <c r="M84" s="18"/>
-      <c r="N84" s="18"/>
-      <c r="O84" s="18">
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
+      <c r="O85" s="15">
         <v>13.207000000000001</v>
       </c>
     </row>
-    <row r="85" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="20">
+    <row r="86" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="17">
         <v>2018</v>
       </c>
-      <c r="C85" s="20" t="s">
+      <c r="C86" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D85" s="21">
+      <c r="D86" s="18">
         <f t="shared" si="4"/>
         <v>29273.39678000001</v>
       </c>
-      <c r="E85" s="22">
+      <c r="E86" s="19">
         <v>9.12378</v>
       </c>
-      <c r="F85" s="22">
+      <c r="F86" s="19">
         <v>60.970999999999997</v>
       </c>
-      <c r="G85" s="22">
+      <c r="G86" s="19">
         <v>7926.723</v>
       </c>
-      <c r="H85" s="22">
+      <c r="H86" s="19">
         <v>1477.489</v>
       </c>
-      <c r="I85" s="22">
+      <c r="I86" s="19">
         <v>9672.3250000000007</v>
       </c>
-      <c r="J85" s="22">
+      <c r="J86" s="19">
         <v>2860.578</v>
       </c>
-      <c r="K85" s="22">
+      <c r="K86" s="19">
         <v>1829.883</v>
       </c>
-      <c r="L85" s="22">
+      <c r="L86" s="19">
         <v>5423.6540000000005</v>
       </c>
-      <c r="M85" s="22"/>
-      <c r="N85" s="22"/>
-      <c r="O85" s="22">
+      <c r="M86" s="19"/>
+      <c r="N86" s="19"/>
+      <c r="O86" s="19">
         <v>12.65</v>
       </c>
     </row>
-    <row r="86" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="16">
+    <row r="87" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="13">
         <v>2018</v>
       </c>
-      <c r="C86" s="16" t="s">
+      <c r="C87" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D86" s="17">
+      <c r="D87" s="14">
         <f t="shared" si="4"/>
         <v>30126.28328</v>
       </c>
-      <c r="E86" s="18">
+      <c r="E87" s="15">
         <v>8.1962799999999998</v>
       </c>
-      <c r="F86" s="18">
+      <c r="F87" s="15">
         <v>71.811000000000007</v>
       </c>
-      <c r="G86" s="18">
+      <c r="G87" s="15">
         <v>8844.2019999999993</v>
       </c>
-      <c r="H86" s="18">
+      <c r="H87" s="15">
         <v>1647.098</v>
       </c>
-      <c r="I86" s="18">
+      <c r="I87" s="15">
         <v>9860.2800000000007</v>
       </c>
-      <c r="J86" s="18">
+      <c r="J87" s="15">
         <v>2743.1410000000001</v>
       </c>
-      <c r="K86" s="18">
+      <c r="K87" s="15">
         <v>1551.7840000000001</v>
       </c>
-      <c r="L86" s="18">
+      <c r="L87" s="15">
         <v>5387.3890000000001</v>
       </c>
-      <c r="M86" s="18"/>
-      <c r="N86" s="18"/>
-      <c r="O86" s="18">
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
+      <c r="O87" s="15">
         <v>12.382</v>
       </c>
     </row>
-    <row r="87" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="20">
+    <row r="88" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="17">
         <v>2018</v>
       </c>
-      <c r="C87" s="20" t="s">
+      <c r="C88" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D87" s="21">
+      <c r="D88" s="18">
         <f t="shared" si="4"/>
         <v>25208.202900000004</v>
       </c>
-      <c r="E87" s="22">
+      <c r="E88" s="19">
         <v>6.7148999999999992</v>
       </c>
-      <c r="F87" s="22">
+      <c r="F88" s="19">
         <v>59.457000000000001</v>
       </c>
-      <c r="G87" s="22">
+      <c r="G88" s="19">
         <v>7977.2039999999997</v>
       </c>
-      <c r="H87" s="22">
+      <c r="H88" s="19">
         <v>1378.8910000000001</v>
       </c>
-      <c r="I87" s="22">
+      <c r="I88" s="19">
         <v>7402.5730000000003</v>
       </c>
-      <c r="J87" s="22">
+      <c r="J88" s="19">
         <v>2577</v>
       </c>
-      <c r="K87" s="22">
+      <c r="K88" s="19">
         <v>1364.6120000000001</v>
       </c>
-      <c r="L87" s="22">
+      <c r="L88" s="19">
         <v>4430.4210000000003</v>
       </c>
-      <c r="M87" s="22"/>
-      <c r="N87" s="22"/>
-      <c r="O87" s="22">
+      <c r="M88" s="19"/>
+      <c r="N88" s="19"/>
+      <c r="O88" s="19">
         <v>11.33</v>
       </c>
     </row>
-    <row r="88" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="16">
+    <row r="89" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="13">
         <v>2018</v>
       </c>
-      <c r="C88" s="16" t="s">
+      <c r="C89" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D88" s="17">
+      <c r="D89" s="14">
         <f t="shared" si="4"/>
         <v>25018.165999999997</v>
       </c>
-      <c r="E88" s="18">
+      <c r="E89" s="15">
         <v>6.9589999999999996</v>
       </c>
-      <c r="F88" s="18">
+      <c r="F89" s="15">
         <v>66.08</v>
       </c>
-      <c r="G88" s="18">
+      <c r="G89" s="15">
         <v>7737.0140000000001</v>
       </c>
-      <c r="H88" s="18">
+      <c r="H89" s="15">
         <v>1410.72</v>
       </c>
-      <c r="I88" s="18">
+      <c r="I89" s="15">
         <v>6932.2910000000002</v>
       </c>
-      <c r="J88" s="18">
+      <c r="J89" s="15">
         <v>2789.42</v>
       </c>
-      <c r="K88" s="18">
+      <c r="K89" s="15">
         <v>1379.2329999999999</v>
       </c>
-      <c r="L88" s="18">
+      <c r="L89" s="15">
         <v>4684.1959999999999</v>
       </c>
-      <c r="M88" s="18"/>
-      <c r="N88" s="18"/>
-      <c r="O88" s="18">
+      <c r="M89" s="15"/>
+      <c r="N89" s="15"/>
+      <c r="O89" s="15">
         <v>12.253</v>
       </c>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B89" s="31" t="s">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B90" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C89" s="31"/>
-    </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B90" s="31" t="s">
+      <c r="C90" s="28"/>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B91" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C90" s="31"/>
-      <c r="O90" s="32"/>
-    </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B91" s="31" t="s">
+      <c r="C91" s="28"/>
+      <c r="O91" s="29"/>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B92" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C91" s="31"/>
-    </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B92" s="31" t="s">
+      <c r="C92" s="28"/>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B93" s="28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B93" s="3" t="s">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B94" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D99" s="31"/>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D100" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Carga_por_aerolinea_nac.xlsx
+++ b/Carga_por_aerolinea_nac.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045C691B-7126-4286-8C3B-161EA351E012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD5C584-089F-44F0-A46C-D575E4111AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_35" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="34">
   <si>
     <t>Total</t>
   </si>
@@ -137,7 +137,7 @@
     <t>Mexicana (Aerolínea del Estado Mexicano)</t>
   </si>
   <si>
-    <t>Actualización: Diciembre 2024.</t>
+    <t>Actualización: Enero 2025.</t>
   </si>
 </sst>
 </file>
@@ -376,7 +376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -456,6 +456,14 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -752,11 +760,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O89" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
-  <autoFilter ref="B5:O89" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O90" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
+  <autoFilter ref="B5:O90" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
+        <filter val="2025"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1005,7 +1014,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O100"/>
+  <dimension ref="B2:O101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1108,3442 +1117,3481 @@
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B6" s="16">
+      <c r="B6" s="33">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="35">
+        <f>SUM(E6:O6)</f>
+        <v>23673.877119999997</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36">
+        <v>10826.540999999999</v>
+      </c>
+      <c r="H6" s="36">
+        <v>571.43200000000002</v>
+      </c>
+      <c r="I6" s="36">
+        <v>1894.5229999999999</v>
+      </c>
+      <c r="J6" s="36">
+        <v>2721.4450000000002</v>
+      </c>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36">
+        <v>4711.6409999999996</v>
+      </c>
+      <c r="M6" s="36">
+        <v>29.370999999999999</v>
+      </c>
+      <c r="N6" s="36">
+        <v>964.65660000000003</v>
+      </c>
+      <c r="O6" s="36">
+        <v>1954.2675200000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B7" s="16">
         <v>2024</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C7" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="18">
-        <f>SUM(E6:O6)</f>
+      <c r="D7" s="18">
+        <f>SUM(E7:O7)</f>
         <v>27947.306936000001</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19">
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19">
         <v>12904.705</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H7" s="19">
         <v>706.62800000000004</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I7" s="19">
         <v>2110.4124860000002</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J7" s="19">
         <v>2910.0949999999998</v>
       </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19">
+      <c r="K7" s="19"/>
+      <c r="L7" s="19">
         <v>6062.4089999999997</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M7" s="19">
         <v>44.347099999999998</v>
       </c>
-      <c r="N6" s="19">
+      <c r="N7" s="19">
         <v>1092.7723999999998</v>
       </c>
-      <c r="O6" s="19">
+      <c r="O7" s="19">
         <v>2115.93795</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B7" s="12">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B8" s="12">
         <v>2024</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="14">
-        <f>SUM(E7:O7)</f>
+      <c r="D8" s="14">
+        <f>SUM(E8:O8)</f>
         <v>27502.893514000003</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15">
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15">
         <v>13474.445</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H8" s="15">
         <v>756.11400000000003</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I8" s="15">
         <v>1892.0454140000002</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J8" s="15">
         <v>3303.9810000000002</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15">
+      <c r="K8" s="15"/>
+      <c r="L8" s="15">
         <v>4393.0249999999996</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M8" s="15">
         <v>44.302</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N8" s="15">
         <v>1298.3136000000002</v>
       </c>
-      <c r="O7" s="15">
+      <c r="O8" s="15">
         <v>2340.6675</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B8" s="16">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B9" s="16">
         <v>2024</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="18">
-        <f t="shared" ref="D8" si="0">SUM(E8:O8)</f>
+      <c r="D9" s="18">
+        <f t="shared" ref="D9" si="0">SUM(E9:O9)</f>
         <v>27181.326313000001</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19">
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19">
         <v>13225.465</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H9" s="19">
         <v>615.21100000000001</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I9" s="19">
         <v>1642.003113</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J9" s="19">
         <v>3194.15</v>
       </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19">
+      <c r="K9" s="19"/>
+      <c r="L9" s="19">
         <v>4834.0540000000001</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M9" s="19">
         <v>24.026</v>
       </c>
-      <c r="N8" s="19">
+      <c r="N9" s="19">
         <v>1321.6451999999999</v>
       </c>
-      <c r="O8" s="19">
+      <c r="O9" s="19">
         <v>2324.7719999999999</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B9" s="12">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B10" s="12">
         <v>2024</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="14">
-        <f>SUM(E9:O9)</f>
+      <c r="D10" s="14">
+        <f>SUM(E10:O10)</f>
         <v>23947.075499999999</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15">
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15">
         <v>11815.414000000001</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H10" s="15">
         <v>610.077</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I10" s="15">
         <v>1877.9970000000001</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J10" s="15">
         <v>2701.4140000000002</v>
       </c>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15">
+      <c r="K10" s="15"/>
+      <c r="L10" s="15">
         <v>4037.3809999999999</v>
       </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15">
+      <c r="M10" s="15"/>
+      <c r="N10" s="15">
         <v>1121.0953</v>
       </c>
-      <c r="O9" s="15">
+      <c r="O10" s="15">
         <v>1783.6972000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B10" s="16">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B11" s="16">
         <v>2024</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="18">
-        <f t="shared" ref="D10:D44" si="1">SUM(E10:O10)</f>
+      <c r="D11" s="18">
+        <f t="shared" ref="D11:D45" si="1">SUM(E11:O11)</f>
         <v>25976.447568099997</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19">
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19">
         <v>12383.605</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H11" s="19">
         <v>692.93</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I11" s="19">
         <v>997.61693810000008</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J11" s="19">
         <v>3089.9549999999999</v>
       </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19">
+      <c r="K11" s="19"/>
+      <c r="L11" s="19">
         <v>5823.1229999999996</v>
       </c>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19">
+      <c r="M11" s="19"/>
+      <c r="N11" s="19">
         <v>1059.0245</v>
       </c>
-      <c r="O10" s="19">
+      <c r="O11" s="19">
         <v>1930.1931300000001</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11" s="12">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B12" s="12">
         <v>2024</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="14">
-        <f t="shared" ref="D11:D13" si="2">SUM(E11:O11)</f>
+      <c r="D12" s="14">
+        <f t="shared" ref="D12:D14" si="2">SUM(E12:O12)</f>
         <v>24449.559196240007</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15">
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15">
         <v>12150.298000000001</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H12" s="15">
         <v>643.75300000000004</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I12" s="15">
         <v>1750.5007562400001</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J12" s="15">
         <v>3035.9490000000001</v>
       </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15">
+      <c r="K12" s="15"/>
+      <c r="L12" s="15">
         <v>4137.7550000000001</v>
       </c>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15">
+      <c r="M12" s="15"/>
+      <c r="N12" s="15">
         <v>767.15459999999996</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O12" s="15">
         <v>1964.1488400000001</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12" s="16">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13" s="16">
         <v>2024</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C13" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D13" s="18">
         <f t="shared" si="2"/>
         <v>22991.837380000001</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19">
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19">
         <v>11786.278</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H13" s="19">
         <v>560.85299999999995</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I13" s="19">
         <v>455.33683000000002</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J13" s="19">
         <v>2749.279</v>
       </c>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19">
+      <c r="K13" s="19"/>
+      <c r="L13" s="19">
         <v>4777.0950000000003</v>
       </c>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19">
+      <c r="M13" s="19"/>
+      <c r="N13" s="19">
         <v>821.03269999999998</v>
       </c>
-      <c r="O12" s="19">
+      <c r="O13" s="19">
         <v>1841.9628499999999</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13" s="12">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14" s="12">
         <v>2024</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D14" s="14">
         <f t="shared" si="2"/>
         <v>25584.530360000004</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15">
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15">
         <v>12162.084000000001</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H14" s="15">
         <v>597.245</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I14" s="15">
         <v>670.93826000000001</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J14" s="15">
         <v>3023.1210000000001</v>
       </c>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15">
+      <c r="K14" s="15"/>
+      <c r="L14" s="15">
         <v>5951.4530000000004</v>
       </c>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15">
+      <c r="M14" s="15"/>
+      <c r="N14" s="15">
         <v>966.64210000000003</v>
       </c>
-      <c r="O13" s="15">
+      <c r="O14" s="15">
         <v>2213.047</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14" s="16">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B15" s="16">
         <v>2024</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C15" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D15" s="18">
         <f t="shared" si="1"/>
         <v>24530.56366</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19">
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19">
         <v>11531.746999999999</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H15" s="19">
         <v>592.245</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I15" s="19">
         <v>1345.6157599999999</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J15" s="19">
         <v>3069.6970000000001</v>
       </c>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19">
+      <c r="K15" s="19"/>
+      <c r="L15" s="19">
         <v>5033.8580000000002</v>
       </c>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19">
+      <c r="M15" s="19"/>
+      <c r="N15" s="19">
         <v>917.64800000000002</v>
       </c>
-      <c r="O14" s="19">
+      <c r="O15" s="19">
         <v>2039.7529000000002</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" s="12">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B16" s="12">
         <v>2024</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D16" s="14">
         <f t="shared" si="1"/>
         <v>23773.473269999999</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15">
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15">
         <v>11871.233</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H16" s="15">
         <v>551.64300000000003</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I16" s="15">
         <v>1657.1516799999999</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J16" s="15">
         <v>2749.279</v>
       </c>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15">
+      <c r="K16" s="15"/>
+      <c r="L16" s="15">
         <v>3908.877</v>
       </c>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15">
+      <c r="M16" s="15"/>
+      <c r="N16" s="15">
         <v>901.89159999999993</v>
       </c>
-      <c r="O15" s="15">
+      <c r="O16" s="15">
         <v>2133.3979899999999</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B16" s="16">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B17" s="16">
         <v>2024</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C17" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D17" s="18">
         <f t="shared" si="1"/>
         <v>23760.617010000002</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19">
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19">
         <v>11159.713</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H17" s="19">
         <v>540.17999999999995</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I17" s="19">
         <v>1664.87067</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J17" s="19">
         <v>3032.2710000000002</v>
       </c>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19">
+      <c r="K17" s="19"/>
+      <c r="L17" s="19">
         <v>4672.6559999999999</v>
       </c>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19">
+      <c r="M17" s="19"/>
+      <c r="N17" s="19">
         <v>878.4058</v>
       </c>
-      <c r="O16" s="19">
+      <c r="O17" s="19">
         <v>1812.52054</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B17" s="20">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B18" s="20">
         <v>2024</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C18" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D18" s="22">
         <f t="shared" si="1"/>
         <v>22658.754440000004</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23">
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23">
         <v>10099.106</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H18" s="23">
         <v>778.92200000000003</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I18" s="23">
         <v>1334.1081499999998</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J18" s="23">
         <v>3205.1840000000002</v>
       </c>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23">
+      <c r="K18" s="23"/>
+      <c r="L18" s="23">
         <v>4132.0780000000004</v>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23">
+      <c r="M18" s="23"/>
+      <c r="N18" s="23">
         <v>1138.7986000000001</v>
       </c>
-      <c r="O17" s="23">
+      <c r="O18" s="23">
         <v>1970.5576899999999</v>
       </c>
     </row>
-    <row r="18" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="24">
+    <row r="19" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="24">
         <v>2023</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C19" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D19" s="26">
         <f t="shared" si="1"/>
         <v>24330.252739999996</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E19" s="27">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27">
+      <c r="F19" s="27"/>
+      <c r="G19" s="27">
         <v>11988.567999999999</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H19" s="27">
         <v>936.15599999999995</v>
       </c>
-      <c r="I18" s="27">
+      <c r="I19" s="27">
         <v>1439.51802</v>
       </c>
-      <c r="J18" s="27">
+      <c r="J19" s="27">
         <v>3166.9259999999999</v>
       </c>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27">
+      <c r="K19" s="27"/>
+      <c r="L19" s="27">
         <v>3182.1170000000002</v>
       </c>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27">
+      <c r="M19" s="27"/>
+      <c r="N19" s="27">
         <v>1409.9010999999998</v>
       </c>
-      <c r="O18" s="27">
+      <c r="O19" s="27">
         <v>2207.0626200000002</v>
       </c>
     </row>
-    <row r="19" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="12">
+    <row r="20" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="12">
         <v>2023</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C20" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D20" s="14">
         <f t="shared" si="1"/>
         <v>25951.682420000005</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E20" s="15">
         <v>2E-3</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15">
+      <c r="F20" s="15"/>
+      <c r="G20" s="15">
         <v>11389.349</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H20" s="15">
         <v>878.84500000000003</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I20" s="15">
         <v>3104.8114999999998</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J20" s="15">
         <v>3477.9340000000002</v>
       </c>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15">
+      <c r="K20" s="15"/>
+      <c r="L20" s="15">
         <v>3383.1860000000001</v>
       </c>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15">
+      <c r="M20" s="15"/>
+      <c r="N20" s="15">
         <v>1367.4911999999999</v>
       </c>
-      <c r="O19" s="15">
+      <c r="O20" s="15">
         <v>2350.0637200000001</v>
       </c>
     </row>
-    <row r="20" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="16">
+    <row r="21" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="16">
         <v>2023</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C21" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D21" s="18">
         <f t="shared" si="1"/>
         <v>29736.471784000001</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E21" s="19">
         <v>2E-3</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19">
+      <c r="F21" s="19"/>
+      <c r="G21" s="19">
         <v>11497.116</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H21" s="19">
         <v>766.34</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I21" s="19">
         <v>1778.049084</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J21" s="19">
         <v>3354.9290000000001</v>
       </c>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19">
+      <c r="K21" s="19"/>
+      <c r="L21" s="19">
         <v>8846.14</v>
       </c>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19">
+      <c r="M21" s="19"/>
+      <c r="N21" s="19">
         <v>1254.5563</v>
       </c>
-      <c r="O20" s="19">
+      <c r="O21" s="19">
         <v>2239.3393999999998</v>
       </c>
     </row>
-    <row r="21" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="12">
+    <row r="22" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="12">
         <v>2023</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C22" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D22" s="14">
         <f t="shared" si="1"/>
         <v>25495.398430000001</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E22" s="15">
         <v>1E-3</v>
       </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15">
+      <c r="F22" s="15"/>
+      <c r="G22" s="15">
         <v>10214.496999999999</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H22" s="15">
         <v>745.19799999999998</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I22" s="15">
         <v>1692.6589100000001</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J22" s="15">
         <v>3160.6</v>
       </c>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15">
+      <c r="K22" s="15"/>
+      <c r="L22" s="15">
         <v>6870.7169999999996</v>
       </c>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15">
+      <c r="M22" s="15"/>
+      <c r="N22" s="15">
         <v>1029.982</v>
       </c>
-      <c r="O21" s="15">
+      <c r="O22" s="15">
         <v>1781.74452</v>
       </c>
     </row>
-    <row r="22" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="16">
+    <row r="23" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="16">
         <v>2023</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C23" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D23" s="18">
         <f t="shared" si="1"/>
         <v>27795.111850000001</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E23" s="19">
         <v>2E-3</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19">
+      <c r="F23" s="19"/>
+      <c r="G23" s="19">
         <v>10670.395</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H23" s="19">
         <v>688.12199999999996</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I23" s="19">
         <v>2332.9001999999996</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J23" s="19">
         <v>3597.163</v>
       </c>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19">
+      <c r="K23" s="19"/>
+      <c r="L23" s="19">
         <v>7529.75</v>
       </c>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19">
+      <c r="M23" s="19"/>
+      <c r="N23" s="19">
         <v>1106.6980000000001</v>
       </c>
-      <c r="O22" s="19">
+      <c r="O23" s="19">
         <v>1870.0816499999999</v>
       </c>
     </row>
-    <row r="23" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="12">
+    <row r="24" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="12">
         <v>2023</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C24" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D24" s="14">
         <f t="shared" si="1"/>
         <v>27392.805111000001</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E24" s="15">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15">
+      <c r="F24" s="15"/>
+      <c r="G24" s="15">
         <v>11104.486000000001</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H24" s="15">
         <v>582.98800000000006</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I24" s="15">
         <v>2097.893521</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J24" s="15">
         <v>3132.8069999999998</v>
       </c>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15">
+      <c r="K24" s="15"/>
+      <c r="L24" s="15">
         <v>7920.2030000000004</v>
       </c>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15">
+      <c r="M24" s="15"/>
+      <c r="N24" s="15">
         <v>632.07899999999995</v>
       </c>
-      <c r="O23" s="15">
+      <c r="O24" s="15">
         <v>1922.34159</v>
       </c>
     </row>
-    <row r="24" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="16">
+    <row r="25" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="16">
         <v>2023</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C25" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D25" s="18">
         <f t="shared" si="1"/>
         <v>26257.615949999999</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E25" s="19">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19">
+      <c r="F25" s="19"/>
+      <c r="G25" s="19">
         <v>9903.1360000000004</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H25" s="19">
         <v>604.97799999999995</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I25" s="19">
         <v>2029.77441</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J25" s="19">
         <v>3359.4630000000002</v>
       </c>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19">
+      <c r="K25" s="19"/>
+      <c r="L25" s="19">
         <v>7581.4750000000004</v>
       </c>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19">
+      <c r="M25" s="19"/>
+      <c r="N25" s="19">
         <v>808.51900000000001</v>
       </c>
-      <c r="O24" s="19">
+      <c r="O25" s="19">
         <v>1970.2655400000001</v>
       </c>
     </row>
-    <row r="25" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="12">
+    <row r="26" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="12">
         <v>2023</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C26" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D26" s="14">
         <f t="shared" si="1"/>
         <v>27189.140660000001</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E26" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15">
+      <c r="F26" s="15"/>
+      <c r="G26" s="15">
         <v>9247.2430000000004</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H26" s="15">
         <v>646.67899999999997</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I26" s="15">
         <v>1841.1321099999998</v>
       </c>
-      <c r="J25" s="15">
+      <c r="J26" s="15">
         <v>3239.5920000000001</v>
       </c>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15">
+      <c r="K26" s="15"/>
+      <c r="L26" s="15">
         <v>9116.9560000000001</v>
       </c>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15">
+      <c r="M26" s="15"/>
+      <c r="N26" s="15">
         <v>871.53</v>
       </c>
-      <c r="O25" s="15">
+      <c r="O26" s="15">
         <v>2226.0035500000004</v>
       </c>
     </row>
-    <row r="26" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="16">
+    <row r="27" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="16">
         <v>2023</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C27" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D27" s="18">
         <f t="shared" si="1"/>
         <v>26065.695520000001</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E27" s="19">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19">
+      <c r="F27" s="19"/>
+      <c r="G27" s="19">
         <v>8823.5010000000002</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H27" s="19">
         <v>643.87900000000002</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I27" s="19">
         <v>2656.5120000000002</v>
       </c>
-      <c r="J26" s="19">
+      <c r="J27" s="19">
         <v>2882.6640000000002</v>
       </c>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19">
+      <c r="K27" s="19"/>
+      <c r="L27" s="19">
         <v>8495.7070000000003</v>
       </c>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19">
+      <c r="M27" s="19"/>
+      <c r="N27" s="19">
         <v>807.85400000000004</v>
       </c>
-      <c r="O26" s="19">
+      <c r="O27" s="19">
         <v>1755.5725199999999</v>
       </c>
     </row>
-    <row r="27" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="12">
+    <row r="28" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="12">
         <v>2023</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C28" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D28" s="14">
         <f t="shared" si="1"/>
         <v>29416.146090000002</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E28" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15">
+      <c r="F28" s="15"/>
+      <c r="G28" s="15">
         <v>10420.953</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H28" s="15">
         <v>850.89200000000005</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I28" s="15">
         <v>2714.1550000000002</v>
       </c>
-      <c r="J27" s="15">
+      <c r="J28" s="15">
         <v>3284.2510000000002</v>
       </c>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15">
+      <c r="K28" s="15"/>
+      <c r="L28" s="15">
         <v>9320.09</v>
       </c>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15">
+      <c r="M28" s="15"/>
+      <c r="N28" s="15">
         <v>754.07100000000003</v>
       </c>
-      <c r="O27" s="15">
+      <c r="O28" s="15">
         <v>2071.7290899999998</v>
       </c>
     </row>
-    <row r="28" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="16">
+    <row r="29" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="16">
         <v>2023</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C29" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D29" s="18">
         <f t="shared" si="1"/>
         <v>26501.790870000004</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E29" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19">
+      <c r="F29" s="19"/>
+      <c r="G29" s="19">
         <v>9688.0110000000004</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H29" s="19">
         <v>782.84</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I29" s="19">
         <v>3020.3270000000002</v>
       </c>
-      <c r="J28" s="19">
+      <c r="J29" s="19">
         <v>2745.6669999999999</v>
       </c>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19">
+      <c r="K29" s="19"/>
+      <c r="L29" s="19">
         <v>7686.6450000000004</v>
       </c>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19">
+      <c r="M29" s="19"/>
+      <c r="N29" s="19">
         <v>685.12</v>
       </c>
-      <c r="O28" s="19">
+      <c r="O29" s="19">
         <v>1893.1698699999999</v>
       </c>
     </row>
-    <row r="29" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="20">
+    <row r="30" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="20">
         <v>2023</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C30" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D30" s="22">
         <f t="shared" si="1"/>
         <v>26308.171539999999</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E30" s="23">
         <v>2E-3</v>
       </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23">
+      <c r="F30" s="23"/>
+      <c r="G30" s="23">
         <v>8914.4519999999993</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H30" s="23">
         <v>734.09199999999998</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I30" s="23">
         <v>3159.0940000000001</v>
       </c>
-      <c r="J29" s="23">
+      <c r="J30" s="23">
         <v>3012.8209999999999</v>
       </c>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23">
+      <c r="K30" s="23"/>
+      <c r="L30" s="23">
         <v>7907.8890000000001</v>
       </c>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23">
+      <c r="M30" s="23"/>
+      <c r="N30" s="23">
         <v>670.48</v>
       </c>
-      <c r="O29" s="23">
+      <c r="O30" s="23">
         <v>1909.3415400000001</v>
       </c>
     </row>
-    <row r="30" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="24">
+    <row r="31" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="24">
         <v>2022</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C31" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="26">
+      <c r="D31" s="26">
         <f t="shared" si="1"/>
         <v>29865.323240000002</v>
       </c>
-      <c r="E30" s="27">
+      <c r="E31" s="27">
         <v>1E-3</v>
       </c>
-      <c r="F30" s="27">
+      <c r="F31" s="27">
         <v>12.166</v>
       </c>
-      <c r="G30" s="27">
+      <c r="G31" s="27">
         <v>10484.763000000001</v>
       </c>
-      <c r="H30" s="27">
+      <c r="H31" s="27">
         <v>925.66499999999996</v>
       </c>
-      <c r="I30" s="27">
+      <c r="I31" s="27">
         <v>4138.0259999999998</v>
       </c>
-      <c r="J30" s="27">
+      <c r="J31" s="27">
         <v>3314.2310000000002</v>
       </c>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27">
+      <c r="K31" s="27"/>
+      <c r="L31" s="27">
         <v>7746.2759999999998</v>
       </c>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27">
+      <c r="M31" s="27"/>
+      <c r="N31" s="27">
         <v>961.79730000000006</v>
       </c>
-      <c r="O30" s="27">
+      <c r="O31" s="27">
         <v>2282.3979400000003</v>
       </c>
     </row>
-    <row r="31" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="12">
+    <row r="32" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="12">
         <v>2022</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C32" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D32" s="14">
         <f t="shared" si="1"/>
         <v>29983.373589999999</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E32" s="15">
         <v>2E-3</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F32" s="15">
         <v>32.463999999999999</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G32" s="15">
         <v>10081.717000000001</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H32" s="15">
         <v>990.43700000000001</v>
       </c>
-      <c r="I31" s="15">
+      <c r="I32" s="15">
         <v>5149.683</v>
       </c>
-      <c r="J31" s="15">
+      <c r="J32" s="15">
         <v>3384.6909999999998</v>
       </c>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15">
+      <c r="K32" s="15"/>
+      <c r="L32" s="15">
         <v>7113.482</v>
       </c>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15">
+      <c r="M32" s="15"/>
+      <c r="N32" s="15">
         <v>970.55570000000012</v>
       </c>
-      <c r="O31" s="15">
+      <c r="O32" s="15">
         <v>2260.3418900000001</v>
       </c>
     </row>
-    <row r="32" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="16">
+    <row r="33" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="16">
         <v>2022</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C33" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D33" s="18">
         <f t="shared" si="1"/>
         <v>29295.863820000002</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E33" s="19">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F33" s="19">
         <v>31.343</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G33" s="19">
         <v>9947.3389999999999</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H33" s="19">
         <v>926.49599999999998</v>
       </c>
-      <c r="I32" s="19">
+      <c r="I33" s="19">
         <v>5335.3050000000003</v>
       </c>
-      <c r="J32" s="19">
+      <c r="J33" s="19">
         <v>3159.48</v>
       </c>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19">
+      <c r="K33" s="19"/>
+      <c r="L33" s="19">
         <v>6728.7049999999999</v>
       </c>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19">
+      <c r="M33" s="19"/>
+      <c r="N33" s="19">
         <v>979.74129999999991</v>
       </c>
-      <c r="O32" s="19">
+      <c r="O33" s="19">
         <v>2187.4515200000001</v>
       </c>
     </row>
-    <row r="33" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="12">
+    <row r="34" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="12">
         <v>2022</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C34" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D34" s="14">
         <f t="shared" si="1"/>
         <v>26447.132749999997</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E34" s="15">
         <v>2E-3</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F34" s="15">
         <v>23.175000000000001</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G34" s="15">
         <v>9081.3619999999992</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H34" s="15">
         <v>703.86900000000003</v>
       </c>
-      <c r="I33" s="15">
+      <c r="I34" s="15">
         <v>4176.1049999999996</v>
       </c>
-      <c r="J33" s="15">
+      <c r="J34" s="15">
         <v>3254.7069999999999</v>
       </c>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15">
+      <c r="K34" s="15"/>
+      <c r="L34" s="15">
         <v>6617.3549999999996</v>
       </c>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15">
+      <c r="M34" s="15"/>
+      <c r="N34" s="15">
         <v>824.20899999999995</v>
       </c>
-      <c r="O33" s="15">
+      <c r="O34" s="15">
         <v>1766.3487500000001</v>
       </c>
     </row>
-    <row r="34" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="16">
+    <row r="35" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="16">
         <v>2022</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C35" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D35" s="18">
         <f t="shared" si="1"/>
         <v>26279.741409999995</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E35" s="19">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F35" s="19">
         <v>28.286999999999999</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G35" s="19">
         <v>9293.5259999999998</v>
       </c>
-      <c r="H34" s="19">
+      <c r="H35" s="19">
         <v>859.87</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I35" s="19">
         <v>4037.6669999999999</v>
       </c>
-      <c r="J34" s="19">
+      <c r="J35" s="19">
         <v>3520.194</v>
       </c>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19">
+      <c r="K35" s="19"/>
+      <c r="L35" s="19">
         <v>5886.08</v>
       </c>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19">
+      <c r="M35" s="19"/>
+      <c r="N35" s="19">
         <v>804.58889999999997</v>
       </c>
-      <c r="O34" s="19">
+      <c r="O35" s="19">
         <v>1849.52451</v>
       </c>
     </row>
-    <row r="35" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="12">
+    <row r="36" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="12">
         <v>2022</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C36" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D36" s="14">
         <f t="shared" si="1"/>
         <v>30603.772699999998</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E36" s="15">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F36" s="15">
         <v>31.623000000000001</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G36" s="15">
         <v>9435.7099999999991</v>
       </c>
-      <c r="H35" s="15">
+      <c r="H36" s="15">
         <v>852.04499999999996</v>
       </c>
-      <c r="I35" s="15">
+      <c r="I36" s="15">
         <v>4353.799</v>
       </c>
-      <c r="J35" s="15">
+      <c r="J36" s="15">
         <v>3361.634</v>
       </c>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15">
+      <c r="K36" s="15"/>
+      <c r="L36" s="15">
         <v>10038.903</v>
       </c>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15">
+      <c r="M36" s="15"/>
+      <c r="N36" s="15">
         <v>692.77719999999999</v>
       </c>
-      <c r="O35" s="15">
+      <c r="O36" s="15">
         <v>1837.2745</v>
       </c>
     </row>
-    <row r="36" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="16">
+    <row r="37" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="16">
         <v>2022</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C37" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D37" s="18">
         <f t="shared" si="1"/>
         <v>32911.434350000003</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E37" s="19">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F37" s="19">
         <v>29.89</v>
       </c>
-      <c r="G36" s="19">
+      <c r="G37" s="19">
         <v>9434.6640000000007</v>
       </c>
-      <c r="H36" s="19">
+      <c r="H37" s="19">
         <v>704.59900000000005</v>
       </c>
-      <c r="I36" s="19">
+      <c r="I37" s="19">
         <v>4932.3429999999998</v>
       </c>
-      <c r="J36" s="19">
+      <c r="J37" s="19">
         <v>3363.165</v>
       </c>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19">
+      <c r="K37" s="19"/>
+      <c r="L37" s="19">
         <v>11698.642</v>
       </c>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19">
+      <c r="M37" s="19"/>
+      <c r="N37" s="19">
         <v>750.94670000000008</v>
       </c>
-      <c r="O36" s="19">
+      <c r="O37" s="19">
         <v>1997.1796499999998</v>
       </c>
     </row>
-    <row r="37" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="12">
+    <row r="38" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="12">
         <v>2022</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C38" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D38" s="14">
         <f t="shared" si="1"/>
         <v>32136.140250000004</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E38" s="15">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F37" s="15">
+      <c r="F38" s="15">
         <v>28.506</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G38" s="15">
         <v>9520.1350000000002</v>
       </c>
-      <c r="H37" s="15">
+      <c r="H38" s="15">
         <v>707.80499999999995</v>
       </c>
-      <c r="I37" s="15">
+      <c r="I38" s="15">
         <v>5145.5190000000002</v>
       </c>
-      <c r="J37" s="15">
+      <c r="J38" s="15">
         <v>3217.3589999999999</v>
       </c>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15">
+      <c r="K38" s="15"/>
+      <c r="L38" s="15">
         <v>10677.519</v>
       </c>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15">
+      <c r="M38" s="15"/>
+      <c r="N38" s="15">
         <v>667.7</v>
       </c>
-      <c r="O37" s="15">
+      <c r="O38" s="15">
         <v>2171.5932499999999</v>
       </c>
     </row>
-    <row r="38" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="16">
+    <row r="39" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="16">
         <v>2022</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C39" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D39" s="18">
         <f t="shared" si="1"/>
         <v>27514.741269999999</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E39" s="19">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F38" s="19">
+      <c r="F39" s="19">
         <v>33.442</v>
       </c>
-      <c r="G38" s="19">
+      <c r="G39" s="19">
         <v>8677.1650000000009</v>
       </c>
-      <c r="H38" s="19">
+      <c r="H39" s="19">
         <v>704.93700000000001</v>
       </c>
-      <c r="I38" s="19">
+      <c r="I39" s="19">
         <v>4385.1239999999998</v>
       </c>
-      <c r="J38" s="19">
+      <c r="J39" s="19">
         <v>3089.9090000000001</v>
       </c>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19">
+      <c r="K39" s="19"/>
+      <c r="L39" s="19">
         <v>7847.8879999999999</v>
       </c>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19">
+      <c r="M39" s="19"/>
+      <c r="N39" s="19">
         <v>761.38699999999994</v>
       </c>
-      <c r="O38" s="19">
+      <c r="O39" s="19">
         <v>2014.8862699999997</v>
       </c>
     </row>
-    <row r="39" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="12">
+    <row r="40" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="12">
         <v>2022</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C40" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D40" s="14">
         <f t="shared" si="1"/>
         <v>30859.440460000002</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E40" s="15">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F40" s="15">
         <v>30.175999999999998</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G40" s="15">
         <v>9761.2630000000008</v>
       </c>
-      <c r="H39" s="15">
+      <c r="H40" s="15">
         <v>1009.9829999999999</v>
       </c>
-      <c r="I39" s="15">
+      <c r="I40" s="15">
         <v>6578.5140000000001</v>
       </c>
-      <c r="J39" s="15">
+      <c r="J40" s="15">
         <v>3448.0540000000001</v>
       </c>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15">
+      <c r="K40" s="15"/>
+      <c r="L40" s="15">
         <v>7191.5020000000004</v>
       </c>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15">
+      <c r="M40" s="15"/>
+      <c r="N40" s="15">
         <v>742.69299999999998</v>
       </c>
-      <c r="O39" s="15">
+      <c r="O40" s="15">
         <v>2097.25146</v>
       </c>
     </row>
-    <row r="40" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="16">
+    <row r="41" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="16">
         <v>2022</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C41" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D41" s="18">
         <f t="shared" si="1"/>
         <v>26857.410190000002</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E41" s="19">
         <v>0</v>
       </c>
-      <c r="F40" s="19">
+      <c r="F41" s="19">
         <v>26.463999999999999</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G41" s="19">
         <v>8399.2009999999991</v>
       </c>
-      <c r="H40" s="19">
+      <c r="H41" s="19">
         <v>816.23900000000003</v>
       </c>
-      <c r="I40" s="19">
+      <c r="I41" s="19">
         <v>4488.2250000000004</v>
       </c>
-      <c r="J40" s="19">
+      <c r="J41" s="19">
         <v>3087.74</v>
       </c>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19">
+      <c r="K41" s="19"/>
+      <c r="L41" s="19">
         <v>7675.5219999999999</v>
       </c>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19">
+      <c r="M41" s="19"/>
+      <c r="N41" s="19">
         <v>680.0145</v>
       </c>
-      <c r="O40" s="19">
+      <c r="O41" s="19">
         <v>1684.00469</v>
       </c>
     </row>
-    <row r="41" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="20">
+    <row r="42" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="20">
         <v>2022</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C42" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="22">
+      <c r="D42" s="22">
         <f t="shared" si="1"/>
         <v>26010.419900000001</v>
       </c>
-      <c r="E41" s="23">
+      <c r="E42" s="23">
         <v>0.01</v>
       </c>
-      <c r="F41" s="23">
+      <c r="F42" s="23">
         <v>29.917000000000002</v>
       </c>
-      <c r="G41" s="23">
+      <c r="G42" s="23">
         <v>8064.9719999999998</v>
       </c>
-      <c r="H41" s="23">
+      <c r="H42" s="23">
         <v>759.41499999999996</v>
       </c>
-      <c r="I41" s="23">
+      <c r="I42" s="23">
         <v>4874.95</v>
       </c>
-      <c r="J41" s="23">
+      <c r="J42" s="23">
         <v>3142.1970000000001</v>
       </c>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23">
+      <c r="K42" s="23"/>
+      <c r="L42" s="23">
         <v>6776.384</v>
       </c>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23">
+      <c r="M42" s="23"/>
+      <c r="N42" s="23">
         <v>751.90069999999992</v>
       </c>
-      <c r="O41" s="23">
+      <c r="O42" s="23">
         <v>1610.6742000000002</v>
       </c>
     </row>
-    <row r="42" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="24">
+    <row r="43" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="24">
         <v>2021</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C43" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="26">
+      <c r="D43" s="26">
         <f t="shared" si="1"/>
         <v>31566.167749999997</v>
       </c>
-      <c r="E42" s="27">
+      <c r="E43" s="27">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F42" s="27">
+      <c r="F43" s="27">
         <v>37.055</v>
       </c>
-      <c r="G42" s="27">
+      <c r="G43" s="27">
         <v>9575.5380000000005</v>
       </c>
-      <c r="H42" s="27">
+      <c r="H43" s="27">
         <v>889.38</v>
       </c>
-      <c r="I42" s="27">
+      <c r="I43" s="27">
         <v>6288.674</v>
       </c>
-      <c r="J42" s="27">
+      <c r="J43" s="27">
         <v>4403.6390000000001</v>
       </c>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27">
+      <c r="K43" s="27"/>
+      <c r="L43" s="27">
         <v>7812.2049999999999</v>
       </c>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27">
+      <c r="M43" s="27"/>
+      <c r="N43" s="27">
         <v>644.26139999999998</v>
       </c>
-      <c r="O42" s="27">
+      <c r="O43" s="27">
         <v>1915.4123500000001</v>
       </c>
     </row>
-    <row r="43" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="12">
+    <row r="44" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="12">
         <v>2021</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C44" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D44" s="14">
         <f t="shared" si="1"/>
         <v>29944.972509999996</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E44" s="15">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F44" s="15">
         <v>42.304000000000002</v>
       </c>
-      <c r="G43" s="15">
+      <c r="G44" s="15">
         <v>8541.3799999999992</v>
       </c>
-      <c r="H43" s="15">
+      <c r="H44" s="15">
         <v>797.55100000000004</v>
       </c>
-      <c r="I43" s="15">
+      <c r="I44" s="15">
         <v>5779.326</v>
       </c>
-      <c r="J43" s="15">
+      <c r="J44" s="15">
         <v>3742.5929999999998</v>
       </c>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15">
+      <c r="K44" s="15"/>
+      <c r="L44" s="15">
         <v>8308.2459999999992</v>
       </c>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15">
+      <c r="M44" s="15"/>
+      <c r="N44" s="15">
         <v>761.88139999999999</v>
       </c>
-      <c r="O43" s="15">
+      <c r="O44" s="15">
         <v>1971.6851100000001</v>
       </c>
     </row>
-    <row r="44" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="16">
+    <row r="45" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="16">
         <v>2021</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C45" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D44" s="18">
+      <c r="D45" s="18">
         <f t="shared" si="1"/>
         <v>30000.867740000002</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E45" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F44" s="19">
+      <c r="F45" s="19">
         <v>29.148</v>
       </c>
-      <c r="G44" s="19">
+      <c r="G45" s="19">
         <v>9141.5849999999991</v>
       </c>
-      <c r="H44" s="19">
+      <c r="H45" s="19">
         <v>935.53599999999994</v>
       </c>
-      <c r="I44" s="19">
+      <c r="I45" s="19">
         <v>5740.3919999999998</v>
       </c>
-      <c r="J44" s="19">
+      <c r="J45" s="19">
         <v>3221.6640000000002</v>
       </c>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19">
+      <c r="K45" s="19"/>
+      <c r="L45" s="19">
         <v>8292.1039999999994</v>
       </c>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19">
+      <c r="M45" s="19"/>
+      <c r="N45" s="19">
         <v>722.20399999999995</v>
       </c>
-      <c r="O44" s="19">
+      <c r="O45" s="19">
         <v>1918.2237399999999</v>
       </c>
     </row>
-    <row r="45" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="12">
+    <row r="46" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="12">
         <v>2021</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C46" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="14">
-        <f t="shared" ref="D45:D76" si="3">SUM(E45:O45)</f>
+      <c r="D46" s="14">
+        <f t="shared" ref="D46:D77" si="3">SUM(E46:O46)</f>
         <v>25044.998970000004</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E46" s="15">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F46" s="15">
         <v>27.141999999999999</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G46" s="15">
         <v>7906.91</v>
       </c>
-      <c r="H45" s="15">
+      <c r="H46" s="15">
         <v>875.76900000000001</v>
       </c>
-      <c r="I45" s="15">
+      <c r="I46" s="15">
         <v>4566.3109999999997</v>
       </c>
-      <c r="J45" s="15">
+      <c r="J46" s="15">
         <v>3115.0770000000002</v>
       </c>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15">
+      <c r="K46" s="15"/>
+      <c r="L46" s="15">
         <v>6415.2790000000005</v>
       </c>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15">
+      <c r="M46" s="15"/>
+      <c r="N46" s="15">
         <v>491.27</v>
       </c>
-      <c r="O45" s="15">
+      <c r="O46" s="15">
         <v>1647.23197</v>
       </c>
     </row>
-    <row r="46" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="16">
+    <row r="47" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="16">
         <v>2021</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C47" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D47" s="18">
         <f t="shared" si="3"/>
         <v>26801.51179</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E47" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F46" s="19">
+      <c r="F47" s="19">
         <v>26.024000000000001</v>
       </c>
-      <c r="G46" s="19">
+      <c r="G47" s="19">
         <v>7787.3339999999998</v>
       </c>
-      <c r="H46" s="19">
+      <c r="H47" s="19">
         <v>951.82</v>
       </c>
-      <c r="I46" s="19">
+      <c r="I47" s="19">
         <v>5861.0240000000003</v>
       </c>
-      <c r="J46" s="19">
+      <c r="J47" s="19">
         <v>2963.1660000000002</v>
       </c>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19">
+      <c r="K47" s="19"/>
+      <c r="L47" s="19">
         <v>6924.8339999999998</v>
       </c>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19">
+      <c r="M47" s="19"/>
+      <c r="N47" s="19">
         <v>590.37950000000001</v>
       </c>
-      <c r="O46" s="19">
+      <c r="O47" s="19">
         <v>1696.91929</v>
       </c>
     </row>
-    <row r="47" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="12">
+    <row r="48" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="12">
         <v>2021</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C48" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D48" s="14">
         <f t="shared" si="3"/>
         <v>29570.534019999996</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E48" s="15">
         <v>1.6E-2</v>
       </c>
-      <c r="F47" s="15">
+      <c r="F48" s="15">
         <v>33.762999999999998</v>
       </c>
-      <c r="G47" s="15">
+      <c r="G48" s="15">
         <v>7960.9809999999998</v>
       </c>
-      <c r="H47" s="15">
+      <c r="H48" s="15">
         <v>980.41300000000001</v>
       </c>
-      <c r="I47" s="15">
+      <c r="I48" s="15">
         <v>6238.2730000000001</v>
       </c>
-      <c r="J47" s="15">
+      <c r="J48" s="15">
         <v>3189.866</v>
       </c>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15">
+      <c r="K48" s="15"/>
+      <c r="L48" s="15">
         <v>8884.8860000000004</v>
       </c>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15">
+      <c r="M48" s="15"/>
+      <c r="N48" s="15">
         <v>570.02250000000004</v>
       </c>
-      <c r="O47" s="15">
+      <c r="O48" s="15">
         <v>1712.3135199999999</v>
       </c>
     </row>
-    <row r="48" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="16">
+    <row r="49" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="16">
         <v>2021</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C49" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="18">
+      <c r="D49" s="18">
         <f t="shared" si="3"/>
         <v>26984.257880000001</v>
       </c>
-      <c r="E48" s="19">
+      <c r="E49" s="19">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F48" s="19">
+      <c r="F49" s="19">
         <v>30.326000000000001</v>
       </c>
-      <c r="G48" s="19">
+      <c r="G49" s="19">
         <v>6994.8090000000002</v>
       </c>
-      <c r="H48" s="19">
+      <c r="H49" s="19">
         <v>938.22799999999995</v>
       </c>
-      <c r="I48" s="19">
+      <c r="I49" s="19">
         <v>5685.7610000000004</v>
       </c>
-      <c r="J48" s="19">
+      <c r="J49" s="19">
         <v>2933.55</v>
       </c>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19">
+      <c r="K49" s="19"/>
+      <c r="L49" s="19">
         <v>8239.3950000000004</v>
       </c>
-      <c r="M48" s="19"/>
-      <c r="N48" s="19">
+      <c r="M49" s="19"/>
+      <c r="N49" s="19">
         <v>517.37900000000002</v>
       </c>
-      <c r="O48" s="19">
+      <c r="O49" s="19">
         <v>1644.78388</v>
       </c>
     </row>
-    <row r="49" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="12">
+    <row r="50" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="12">
         <v>2021</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C50" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D50" s="14">
         <f t="shared" si="3"/>
         <v>27395.161769999999</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E50" s="15">
         <v>1.2E-2</v>
       </c>
-      <c r="F49" s="15">
+      <c r="F50" s="15">
         <v>34.064</v>
       </c>
-      <c r="G49" s="15">
+      <c r="G50" s="15">
         <v>5853.0280000000002</v>
       </c>
-      <c r="H49" s="15">
+      <c r="H50" s="15">
         <v>804.99099999999999</v>
       </c>
-      <c r="I49" s="15">
+      <c r="I50" s="15">
         <v>6221.6310000000003</v>
       </c>
-      <c r="J49" s="15">
+      <c r="J50" s="15">
         <v>2753.0189999999998</v>
       </c>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15">
+      <c r="K50" s="15"/>
+      <c r="L50" s="15">
         <v>9369.7039999999997</v>
       </c>
-      <c r="M49" s="15"/>
-      <c r="N49" s="15">
+      <c r="M50" s="15"/>
+      <c r="N50" s="15">
         <v>581.25</v>
       </c>
-      <c r="O49" s="15">
+      <c r="O50" s="15">
         <v>1777.4627700000001</v>
       </c>
     </row>
-    <row r="50" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="16">
+    <row r="51" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="16">
         <v>2021</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C51" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="18">
+      <c r="D51" s="18">
         <f t="shared" si="3"/>
         <v>26794.383829999999</v>
       </c>
-      <c r="E50" s="19">
+      <c r="E51" s="19">
         <v>1.4E-2</v>
       </c>
-      <c r="F50" s="19">
+      <c r="F51" s="19">
         <v>28.870999999999999</v>
       </c>
-      <c r="G50" s="19">
+      <c r="G51" s="19">
         <v>5583.2060000000001</v>
       </c>
-      <c r="H50" s="19">
+      <c r="H51" s="19">
         <v>855.89099999999996</v>
       </c>
-      <c r="I50" s="19">
+      <c r="I51" s="19">
         <v>5955.3379999999997</v>
       </c>
-      <c r="J50" s="19">
+      <c r="J51" s="19">
         <v>2553.587</v>
       </c>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19">
+      <c r="K51" s="19"/>
+      <c r="L51" s="19">
         <v>9635.8649999999998</v>
       </c>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19">
+      <c r="M51" s="19"/>
+      <c r="N51" s="19">
         <v>569.29200000000003</v>
       </c>
-      <c r="O50" s="19">
+      <c r="O51" s="19">
         <v>1612.3198300000001</v>
       </c>
     </row>
-    <row r="51" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="12">
+    <row r="52" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="12">
         <v>2021</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C52" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D52" s="14">
         <f t="shared" si="3"/>
         <v>28888.855879999999</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E52" s="15">
         <v>0.01</v>
       </c>
-      <c r="F51" s="15">
+      <c r="F52" s="15">
         <v>30.994</v>
       </c>
-      <c r="G51" s="15">
+      <c r="G52" s="15">
         <v>5972.1139999999996</v>
       </c>
-      <c r="H51" s="15">
+      <c r="H52" s="15">
         <v>961.24900000000002</v>
       </c>
-      <c r="I51" s="15">
+      <c r="I52" s="15">
         <v>6821.0630000000001</v>
       </c>
-      <c r="J51" s="15">
+      <c r="J52" s="15">
         <v>2527.971</v>
       </c>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15">
+      <c r="K52" s="15"/>
+      <c r="L52" s="15">
         <v>10350.735000000001</v>
       </c>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15">
+      <c r="M52" s="15"/>
+      <c r="N52" s="15">
         <v>537.19399999999996</v>
       </c>
-      <c r="O51" s="15">
+      <c r="O52" s="15">
         <v>1687.5258799999999</v>
       </c>
     </row>
-    <row r="52" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="16">
+    <row r="53" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="16">
         <v>2021</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C53" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="18">
+      <c r="D53" s="18">
         <f t="shared" si="3"/>
         <v>25842.507199999996</v>
       </c>
-      <c r="E52" s="19">
+      <c r="E53" s="19">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F52" s="19">
+      <c r="F53" s="19">
         <v>23.164999999999999</v>
       </c>
-      <c r="G52" s="19">
+      <c r="G53" s="19">
         <v>5676.3119999999999</v>
       </c>
-      <c r="H52" s="19">
+      <c r="H53" s="19">
         <v>842.12599999999998</v>
       </c>
-      <c r="I52" s="19">
+      <c r="I53" s="19">
         <v>6447.9210000000003</v>
       </c>
-      <c r="J52" s="19">
+      <c r="J53" s="19">
         <v>2143.1759999999999</v>
       </c>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19">
+      <c r="K53" s="19"/>
+      <c r="L53" s="19">
         <v>8771.1730000000007</v>
       </c>
-      <c r="M52" s="19"/>
-      <c r="N52" s="19">
+      <c r="M53" s="19"/>
+      <c r="N53" s="19">
         <v>441.65600000000001</v>
       </c>
-      <c r="O52" s="19">
+      <c r="O53" s="19">
         <v>1496.9692</v>
       </c>
     </row>
-    <row r="53" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="20">
+    <row r="54" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="20">
         <v>2021</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C54" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="22">
+      <c r="D54" s="22">
         <f t="shared" si="3"/>
         <v>26743.09706</v>
       </c>
-      <c r="E53" s="23">
+      <c r="E54" s="23">
         <v>2.3E-2</v>
       </c>
-      <c r="F53" s="23">
+      <c r="F54" s="23">
         <v>22.483000000000001</v>
       </c>
-      <c r="G53" s="23">
+      <c r="G54" s="23">
         <v>5633.7330000000002</v>
       </c>
-      <c r="H53" s="23">
+      <c r="H54" s="23">
         <v>893.20500000000004</v>
       </c>
-      <c r="I53" s="23">
+      <c r="I54" s="23">
         <v>5852.174</v>
       </c>
-      <c r="J53" s="23">
+      <c r="J54" s="23">
         <v>2714.6959999999999</v>
       </c>
-      <c r="K53" s="23"/>
-      <c r="L53" s="23">
+      <c r="K54" s="23"/>
+      <c r="L54" s="23">
         <v>9764.4040000000005</v>
       </c>
-      <c r="M53" s="23"/>
-      <c r="N53" s="23">
+      <c r="M54" s="23"/>
+      <c r="N54" s="23">
         <v>374.46</v>
       </c>
-      <c r="O53" s="23">
+      <c r="O54" s="23">
         <v>1487.9190599999999</v>
       </c>
     </row>
-    <row r="54" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="24">
+    <row r="55" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="24">
         <v>2020</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C55" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D54" s="26">
+      <c r="D55" s="26">
         <f t="shared" si="3"/>
         <v>29335.748110000004</v>
       </c>
-      <c r="E54" s="27">
+      <c r="E55" s="27">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F54" s="27">
+      <c r="F55" s="27">
         <v>30.75</v>
       </c>
-      <c r="G54" s="27">
+      <c r="G55" s="27">
         <v>5388.74</v>
       </c>
-      <c r="H54" s="27">
+      <c r="H55" s="27">
         <v>1227.8499999999999</v>
       </c>
-      <c r="I54" s="27">
+      <c r="I55" s="27">
         <v>8063.0550000000003</v>
       </c>
-      <c r="J54" s="27">
+      <c r="J55" s="27">
         <v>3485.029</v>
       </c>
-      <c r="K54" s="27">
+      <c r="K55" s="27">
         <v>16.4115</v>
       </c>
-      <c r="L54" s="27">
+      <c r="L55" s="27">
         <v>8808.3330000000005</v>
       </c>
-      <c r="M54" s="27"/>
-      <c r="N54" s="27">
+      <c r="M55" s="27"/>
+      <c r="N55" s="27">
         <v>499.45499999999998</v>
       </c>
-      <c r="O54" s="27">
+      <c r="O55" s="27">
         <v>1816.0996100000002</v>
       </c>
     </row>
-    <row r="55" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="12">
+    <row r="56" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="12">
         <v>2020</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C56" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D56" s="14">
         <f t="shared" si="3"/>
         <v>31111.598979999999</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E56" s="15">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="F55" s="15">
+      <c r="F56" s="15">
         <v>29.420999999999999</v>
       </c>
-      <c r="G55" s="15">
+      <c r="G56" s="15">
         <v>4646.3059999999996</v>
       </c>
-      <c r="H55" s="15">
+      <c r="H56" s="15">
         <v>918.31700000000001</v>
       </c>
-      <c r="I55" s="15">
+      <c r="I56" s="15">
         <v>10405.393</v>
       </c>
-      <c r="J55" s="15">
+      <c r="J56" s="15">
         <v>3080.1370000000002</v>
       </c>
-      <c r="K55" s="15">
+      <c r="K56" s="15">
         <v>86.034999999999997</v>
       </c>
-      <c r="L55" s="15">
+      <c r="L56" s="15">
         <v>9680.3340000000007</v>
       </c>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15">
+      <c r="M56" s="15"/>
+      <c r="N56" s="15">
         <v>427.87200000000001</v>
       </c>
-      <c r="O55" s="15">
+      <c r="O56" s="15">
         <v>1837.75198</v>
       </c>
     </row>
-    <row r="56" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="16">
+    <row r="57" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="16">
         <v>2020</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C57" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="18">
+      <c r="D57" s="18">
         <f t="shared" si="3"/>
         <v>29198.211449999999</v>
       </c>
-      <c r="E56" s="19">
+      <c r="E57" s="19">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F56" s="19">
+      <c r="F57" s="19">
         <v>25.18</v>
       </c>
-      <c r="G56" s="19">
+      <c r="G57" s="19">
         <v>4168.3999999999996</v>
       </c>
-      <c r="H56" s="19">
+      <c r="H57" s="19">
         <v>855.53599999999994</v>
       </c>
-      <c r="I56" s="19">
+      <c r="I57" s="19">
         <v>9141.11</v>
       </c>
-      <c r="J56" s="19">
+      <c r="J57" s="19">
         <v>2910.5740000000001</v>
       </c>
-      <c r="K56" s="19">
+      <c r="K57" s="19">
         <v>131.53100000000001</v>
       </c>
-      <c r="L56" s="19">
+      <c r="L57" s="19">
         <v>9811.7209999999995</v>
       </c>
-      <c r="M56" s="19"/>
-      <c r="N56" s="19">
+      <c r="M57" s="19"/>
+      <c r="N57" s="19">
         <v>328.78100000000001</v>
       </c>
-      <c r="O56" s="19">
+      <c r="O57" s="19">
         <v>1825.3604499999999</v>
       </c>
     </row>
-    <row r="57" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="12">
+    <row r="58" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="12">
         <v>2020</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C58" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D58" s="14">
         <f t="shared" si="3"/>
         <v>25824.25403</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E58" s="15">
         <v>1.6E-2</v>
       </c>
-      <c r="F57" s="15">
+      <c r="F58" s="15">
         <v>19.38</v>
       </c>
-      <c r="G57" s="15">
+      <c r="G58" s="15">
         <v>3354.4870000000001</v>
       </c>
-      <c r="H57" s="15">
+      <c r="H58" s="15">
         <v>815.01599999999996</v>
       </c>
-      <c r="I57" s="15">
+      <c r="I58" s="15">
         <v>9094.2099999999991</v>
       </c>
-      <c r="J57" s="15">
+      <c r="J58" s="15">
         <v>2742.8449999999998</v>
       </c>
-      <c r="K57" s="15">
+      <c r="K58" s="15">
         <v>94.078000000000003</v>
       </c>
-      <c r="L57" s="15">
+      <c r="L58" s="15">
         <v>7889.5420000000004</v>
       </c>
-      <c r="M57" s="15"/>
-      <c r="N57" s="15">
+      <c r="M58" s="15"/>
+      <c r="N58" s="15">
         <v>300.25099999999998</v>
       </c>
-      <c r="O57" s="15">
+      <c r="O58" s="15">
         <v>1514.42903</v>
       </c>
     </row>
-    <row r="58" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="16">
+    <row r="59" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="16">
         <v>2020</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C59" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="18">
+      <c r="D59" s="18">
         <f t="shared" si="3"/>
         <v>23354.829529999999</v>
       </c>
-      <c r="E58" s="19">
+      <c r="E59" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F58" s="19">
+      <c r="F59" s="19">
         <v>19.126000000000001</v>
       </c>
-      <c r="G58" s="19">
+      <c r="G59" s="19">
         <v>2845.2860000000001</v>
       </c>
-      <c r="H58" s="19">
+      <c r="H59" s="19">
         <v>913.84799999999996</v>
       </c>
-      <c r="I58" s="19">
+      <c r="I59" s="19">
         <v>8628.9339999999993</v>
       </c>
-      <c r="J58" s="19">
+      <c r="J59" s="19">
         <v>2494.9360000000001</v>
       </c>
-      <c r="K58" s="19">
+      <c r="K59" s="19">
         <v>102.148</v>
       </c>
-      <c r="L58" s="19">
+      <c r="L59" s="19">
         <v>6734.2569999999996</v>
       </c>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19">
+      <c r="M59" s="19"/>
+      <c r="N59" s="19">
         <v>214.13300000000001</v>
       </c>
-      <c r="O58" s="19">
+      <c r="O59" s="19">
         <v>1402.1505300000001</v>
       </c>
     </row>
-    <row r="59" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="12">
+    <row r="60" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="12">
         <v>2020</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C60" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="14">
+      <c r="D60" s="14">
         <f t="shared" si="3"/>
         <v>19260.244039999998</v>
       </c>
-      <c r="E59" s="15">
+      <c r="E60" s="15">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F59" s="15">
+      <c r="F60" s="15">
         <v>18.687000000000001</v>
       </c>
-      <c r="G59" s="15">
+      <c r="G60" s="15">
         <v>2326.4090000000001</v>
       </c>
-      <c r="H59" s="15">
+      <c r="H60" s="15">
         <v>969.73</v>
       </c>
-      <c r="I59" s="15">
+      <c r="I60" s="15">
         <v>5828.2169999999996</v>
       </c>
-      <c r="J59" s="15">
+      <c r="J60" s="15">
         <v>2394.4169999999999</v>
       </c>
-      <c r="K59" s="15">
+      <c r="K60" s="15">
         <v>76.744</v>
       </c>
-      <c r="L59" s="15">
+      <c r="L60" s="15">
         <v>6273.5619999999999</v>
       </c>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15">
+      <c r="M60" s="15"/>
+      <c r="N60" s="15">
         <v>151.30000000000001</v>
       </c>
-      <c r="O59" s="15">
+      <c r="O60" s="15">
         <v>1221.17004</v>
       </c>
     </row>
-    <row r="60" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="16">
+    <row r="61" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="16">
         <v>2020</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C61" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="18">
+      <c r="D61" s="18">
         <f t="shared" si="3"/>
         <v>16681.950259999998</v>
       </c>
-      <c r="E60" s="19">
+      <c r="E61" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F60" s="19">
+      <c r="F61" s="19">
         <v>15.773</v>
       </c>
-      <c r="G60" s="19">
+      <c r="G61" s="19">
         <v>1336.4849999999999</v>
       </c>
-      <c r="H60" s="19">
+      <c r="H61" s="19">
         <v>585.92899999999997</v>
       </c>
-      <c r="I60" s="19">
+      <c r="I61" s="19">
         <v>5587.4769999999999</v>
       </c>
-      <c r="J60" s="19">
+      <c r="J61" s="19">
         <v>2256.6930000000002</v>
       </c>
-      <c r="K60" s="19">
+      <c r="K61" s="19">
         <v>42.146999999999998</v>
       </c>
-      <c r="L60" s="19">
+      <c r="L61" s="19">
         <v>5744.8710000000001</v>
       </c>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19">
+      <c r="M61" s="19"/>
+      <c r="N61" s="19">
         <v>118.29600000000001</v>
       </c>
-      <c r="O60" s="19">
+      <c r="O61" s="19">
         <v>994.26826000000005</v>
       </c>
     </row>
-    <row r="61" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="12">
+    <row r="62" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="12">
         <v>2020</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C62" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="14">
+      <c r="D62" s="14">
         <f t="shared" si="3"/>
         <v>15536.86291</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E62" s="15">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F61" s="15">
+      <c r="F62" s="15">
         <v>9.4559999999999995</v>
       </c>
-      <c r="G61" s="15">
+      <c r="G62" s="15">
         <v>799.72500000000002</v>
       </c>
-      <c r="H61" s="15">
+      <c r="H62" s="15">
         <v>697.28700000000003</v>
       </c>
-      <c r="I61" s="15">
+      <c r="I62" s="15">
         <v>5542.4840000000004</v>
       </c>
-      <c r="J61" s="15">
+      <c r="J62" s="15">
         <v>2132.3310000000001</v>
       </c>
-      <c r="K61" s="15">
+      <c r="K62" s="15">
         <v>69.804000000000002</v>
       </c>
-      <c r="L61" s="15">
+      <c r="L62" s="15">
         <v>5558.576</v>
       </c>
-      <c r="M61" s="15"/>
-      <c r="N61" s="15">
+      <c r="M62" s="15"/>
+      <c r="N62" s="15">
         <v>143.20510000000002</v>
       </c>
-      <c r="O61" s="15">
+      <c r="O62" s="15">
         <v>583.9918100000001</v>
       </c>
     </row>
-    <row r="62" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="16">
+    <row r="63" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="16">
         <v>2020</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C63" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="18">
+      <c r="D63" s="18">
         <f t="shared" si="3"/>
         <v>13161.648870000003</v>
       </c>
-      <c r="E62" s="19">
+      <c r="E63" s="19">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F62" s="19">
+      <c r="F63" s="19">
         <v>7.4619999999999997</v>
       </c>
-      <c r="G62" s="19">
+      <c r="G63" s="19">
         <v>1038.125</v>
       </c>
-      <c r="H62" s="19">
+      <c r="H63" s="19">
         <v>754.48400000000004</v>
       </c>
-      <c r="I62" s="19">
+      <c r="I63" s="19">
         <v>5034.1760000000004</v>
       </c>
-      <c r="J62" s="19">
+      <c r="J63" s="19">
         <v>1894.93</v>
       </c>
-      <c r="K62" s="19">
+      <c r="K63" s="19">
         <v>59.36</v>
       </c>
-      <c r="L62" s="19">
+      <c r="L63" s="19">
         <v>3753.6880000000001</v>
       </c>
-      <c r="M62" s="19"/>
-      <c r="N62" s="19">
+      <c r="M63" s="19"/>
+      <c r="N63" s="19">
         <v>60.6843</v>
       </c>
-      <c r="O62" s="19">
+      <c r="O63" s="19">
         <v>558.7325699999999</v>
       </c>
     </row>
-    <row r="63" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="12">
+    <row r="64" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="12">
         <v>2020</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C64" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="14">
+      <c r="D64" s="14">
         <f t="shared" si="3"/>
         <v>22714.14399</v>
       </c>
-      <c r="E63" s="15">
+      <c r="E64" s="15">
         <v>3.1E-2</v>
       </c>
-      <c r="F63" s="15">
+      <c r="F64" s="15">
         <v>35.988999999999997</v>
       </c>
-      <c r="G63" s="15">
+      <c r="G64" s="15">
         <v>7356.9930000000004</v>
       </c>
-      <c r="H63" s="15">
+      <c r="H64" s="15">
         <v>1318.52</v>
       </c>
-      <c r="I63" s="15">
+      <c r="I64" s="15">
         <v>4797.09</v>
       </c>
-      <c r="J63" s="15">
+      <c r="J64" s="15">
         <v>1722.712</v>
       </c>
-      <c r="K63" s="15">
+      <c r="K64" s="15">
         <v>1659.4059999999999</v>
       </c>
-      <c r="L63" s="15">
+      <c r="L64" s="15">
         <v>4510.4480000000003</v>
       </c>
-      <c r="M63" s="15"/>
-      <c r="N63" s="15">
+      <c r="M64" s="15"/>
+      <c r="N64" s="15">
         <v>102.3022</v>
       </c>
-      <c r="O63" s="15">
+      <c r="O64" s="15">
         <v>1210.6527900000001</v>
       </c>
     </row>
-    <row r="64" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="16">
+    <row r="65" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="16">
         <v>2020</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C65" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D64" s="18">
+      <c r="D65" s="18">
         <f t="shared" si="3"/>
         <v>23622.028510000007</v>
       </c>
-      <c r="E64" s="19">
+      <c r="E65" s="19">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F64" s="19">
+      <c r="F65" s="19">
         <v>56.369</v>
       </c>
-      <c r="G64" s="19">
+      <c r="G65" s="19">
         <v>9237.1190000000006</v>
       </c>
-      <c r="H64" s="19">
+      <c r="H65" s="19">
         <v>1428.3530000000001</v>
       </c>
-      <c r="I64" s="19">
+      <c r="I65" s="19">
         <v>3273.0720000000001</v>
       </c>
-      <c r="J64" s="19">
+      <c r="J65" s="19">
         <v>1520.239</v>
       </c>
-      <c r="K64" s="19">
+      <c r="K65" s="19">
         <v>2283.7510000000002</v>
       </c>
-      <c r="L64" s="19">
+      <c r="L65" s="19">
         <v>4116.8599999999997</v>
       </c>
-      <c r="M64" s="19"/>
-      <c r="N64" s="19">
+      <c r="M65" s="19"/>
+      <c r="N65" s="19">
         <v>132.3349</v>
       </c>
-      <c r="O64" s="19">
+      <c r="O65" s="19">
         <v>1573.90461</v>
       </c>
     </row>
-    <row r="65" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="20">
+    <row r="66" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="20">
         <v>2020</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C66" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="22">
+      <c r="D66" s="22">
         <f t="shared" si="3"/>
         <v>26687.883509999996</v>
       </c>
-      <c r="E65" s="23">
+      <c r="E66" s="23">
         <v>4.7E-2</v>
       </c>
-      <c r="F65" s="23">
+      <c r="F66" s="23">
         <v>53.219000000000001</v>
       </c>
-      <c r="G65" s="23">
+      <c r="G66" s="23">
         <v>8754.5229999999992</v>
       </c>
-      <c r="H65" s="23">
+      <c r="H66" s="23">
         <v>1369.674</v>
       </c>
-      <c r="I65" s="23">
+      <c r="I66" s="23">
         <v>5338.8549999999996</v>
       </c>
-      <c r="J65" s="23">
+      <c r="J66" s="23">
         <v>1679.8140000000001</v>
       </c>
-      <c r="K65" s="23">
+      <c r="K66" s="23">
         <v>2456.4389999999999</v>
       </c>
-      <c r="L65" s="23">
+      <c r="L66" s="23">
         <v>5287.6</v>
       </c>
-      <c r="M65" s="23"/>
-      <c r="N65" s="23">
+      <c r="M66" s="23"/>
+      <c r="N66" s="23">
         <v>71.972800000000007</v>
       </c>
-      <c r="O65" s="23">
+      <c r="O66" s="23">
         <v>1675.7397100000001</v>
       </c>
     </row>
-    <row r="66" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="24">
+    <row r="67" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="24">
         <v>2019</v>
       </c>
-      <c r="C66" s="25" t="s">
+      <c r="C67" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D66" s="26">
+      <c r="D67" s="26">
         <f t="shared" si="3"/>
         <v>31427.187729999998</v>
       </c>
-      <c r="E66" s="27">
+      <c r="E67" s="27">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="F66" s="27">
+      <c r="F67" s="27">
         <v>86.153999999999996</v>
       </c>
-      <c r="G66" s="27">
+      <c r="G67" s="27">
         <v>9577.1149999999998</v>
       </c>
-      <c r="H66" s="27">
+      <c r="H67" s="27">
         <v>1676.4159999999999</v>
       </c>
-      <c r="I66" s="27">
+      <c r="I67" s="27">
         <v>6029.0749999999998</v>
       </c>
-      <c r="J66" s="27">
+      <c r="J67" s="27">
         <v>2445.3470000000002</v>
       </c>
-      <c r="K66" s="27">
+      <c r="K67" s="27">
         <v>2928.4569999999999</v>
       </c>
-      <c r="L66" s="27">
+      <c r="L67" s="27">
         <v>5030.2939999999999</v>
       </c>
-      <c r="M66" s="27"/>
-      <c r="N66" s="27">
+      <c r="M67" s="27"/>
+      <c r="N67" s="27">
         <v>65.746300000000005</v>
       </c>
-      <c r="O66" s="27">
+      <c r="O67" s="27">
         <v>3588.5074299999997</v>
       </c>
     </row>
-    <row r="67" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="12">
+    <row r="68" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="12">
         <v>2019</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C68" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D67" s="14">
+      <c r="D68" s="14">
         <f t="shared" si="3"/>
         <v>31763.522410000001</v>
       </c>
-      <c r="E67" s="15">
+      <c r="E68" s="15">
         <v>1.76</v>
       </c>
-      <c r="F67" s="15">
+      <c r="F68" s="15">
         <v>80.100999999999999</v>
       </c>
-      <c r="G67" s="15">
+      <c r="G68" s="15">
         <v>9752.0519999999997</v>
       </c>
-      <c r="H67" s="15">
+      <c r="H68" s="15">
         <v>1595.383</v>
       </c>
-      <c r="I67" s="15">
+      <c r="I68" s="15">
         <v>5103.0559999999996</v>
       </c>
-      <c r="J67" s="15">
+      <c r="J68" s="15">
         <v>2658.252</v>
       </c>
-      <c r="K67" s="15">
+      <c r="K68" s="15">
         <v>3015.0219999999999</v>
       </c>
-      <c r="L67" s="15">
+      <c r="L68" s="15">
         <v>5793.69</v>
       </c>
-      <c r="M67" s="15"/>
-      <c r="N67" s="15">
+      <c r="M68" s="15"/>
+      <c r="N68" s="15">
         <v>12.758299999999998</v>
       </c>
-      <c r="O67" s="15">
+      <c r="O68" s="15">
         <v>3751.4481100000003</v>
       </c>
     </row>
-    <row r="68" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="16">
+    <row r="69" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="16">
         <v>2019</v>
       </c>
-      <c r="C68" s="17" t="s">
+      <c r="C69" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D68" s="18">
+      <c r="D69" s="18">
         <f t="shared" si="3"/>
         <v>31229.518959999994</v>
       </c>
-      <c r="E68" s="19">
+      <c r="E69" s="19">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="F68" s="19">
+      <c r="F69" s="19">
         <v>72</v>
       </c>
-      <c r="G68" s="19">
+      <c r="G69" s="19">
         <v>9994.6419999999998</v>
       </c>
-      <c r="H68" s="19">
+      <c r="H69" s="19">
         <v>1608.7059999999999</v>
       </c>
-      <c r="I68" s="19">
+      <c r="I69" s="19">
         <v>4575.3310000000001</v>
       </c>
-      <c r="J68" s="19">
+      <c r="J69" s="19">
         <v>2828.3510000000001</v>
       </c>
-      <c r="K68" s="19">
+      <c r="K69" s="19">
         <v>2682.761</v>
       </c>
-      <c r="L68" s="19">
+      <c r="L69" s="19">
         <v>5549.9949999999999</v>
       </c>
-      <c r="M68" s="19"/>
-      <c r="N68" s="19"/>
-      <c r="O68" s="19">
+      <c r="M69" s="19"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="19">
         <v>3917.6479599999998</v>
       </c>
     </row>
-    <row r="69" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="12">
+    <row r="70" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="12">
         <v>2019</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C70" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D69" s="14">
+      <c r="D70" s="14">
         <f t="shared" si="3"/>
         <v>29172.540249999998</v>
       </c>
-      <c r="E69" s="15">
+      <c r="E70" s="15">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F69" s="15">
+      <c r="F70" s="15">
         <v>54.752000000000002</v>
       </c>
-      <c r="G69" s="15">
+      <c r="G70" s="15">
         <v>9010.31</v>
       </c>
-      <c r="H69" s="15">
+      <c r="H70" s="15">
         <v>1396.2560000000001</v>
       </c>
-      <c r="I69" s="15">
+      <c r="I70" s="15">
         <v>5775.3389999999999</v>
       </c>
-      <c r="J69" s="15">
+      <c r="J70" s="15">
         <v>2331.1950000000002</v>
       </c>
-      <c r="K69" s="15">
+      <c r="K70" s="15">
         <v>2334.8119999999999</v>
       </c>
-      <c r="L69" s="15">
+      <c r="L70" s="15">
         <v>4893.7089999999998</v>
       </c>
-      <c r="M69" s="15"/>
-      <c r="N69" s="15"/>
-      <c r="O69" s="15">
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="15">
         <v>3376.1322500000001</v>
       </c>
     </row>
-    <row r="70" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="16">
+    <row r="71" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="16">
         <v>2019</v>
       </c>
-      <c r="C70" s="17" t="s">
+      <c r="C71" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="18">
+      <c r="D71" s="18">
         <f t="shared" si="3"/>
         <v>28718.377859999997</v>
       </c>
-      <c r="E70" s="19">
+      <c r="E71" s="19">
         <v>5.59633</v>
       </c>
-      <c r="F70" s="19">
+      <c r="F71" s="19">
         <v>57.29</v>
       </c>
-      <c r="G70" s="19">
+      <c r="G71" s="19">
         <v>8610.5910000000003</v>
       </c>
-      <c r="H70" s="19">
+      <c r="H71" s="19">
         <v>1665.9570000000001</v>
       </c>
-      <c r="I70" s="19">
+      <c r="I71" s="19">
         <v>5196.0309999999999</v>
       </c>
-      <c r="J70" s="19">
+      <c r="J71" s="19">
         <v>2672.4050000000002</v>
       </c>
-      <c r="K70" s="19">
+      <c r="K71" s="19">
         <v>2511.7330000000002</v>
       </c>
-      <c r="L70" s="19">
+      <c r="L71" s="19">
         <v>4774.3459999999995</v>
       </c>
-      <c r="M70" s="19"/>
-      <c r="N70" s="19"/>
-      <c r="O70" s="19">
+      <c r="M71" s="19"/>
+      <c r="N71" s="19"/>
+      <c r="O71" s="19">
         <v>3224.4285300000001</v>
       </c>
     </row>
-    <row r="71" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="12">
+    <row r="72" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="12">
         <v>2019</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C72" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="14">
+      <c r="D72" s="14">
         <f t="shared" si="3"/>
         <v>28707.78629</v>
       </c>
-      <c r="E71" s="15">
+      <c r="E72" s="15">
         <v>6.0529999999999999</v>
       </c>
-      <c r="F71" s="15">
+      <c r="F72" s="15">
         <v>57.801000000000002</v>
       </c>
-      <c r="G71" s="15">
+      <c r="G72" s="15">
         <v>8986.9670000000006</v>
       </c>
-      <c r="H71" s="15">
+      <c r="H72" s="15">
         <v>1788.191</v>
       </c>
-      <c r="I71" s="15">
+      <c r="I72" s="15">
         <v>5135.1639999999998</v>
       </c>
-      <c r="J71" s="15">
+      <c r="J72" s="15">
         <v>2578.5520000000001</v>
       </c>
-      <c r="K71" s="15">
+      <c r="K72" s="15">
         <v>2341.8049999999998</v>
       </c>
-      <c r="L71" s="15">
+      <c r="L72" s="15">
         <v>4798.0159999999996</v>
       </c>
-      <c r="M71" s="15"/>
-      <c r="N71" s="15"/>
-      <c r="O71" s="15">
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="15">
         <v>3015.23729</v>
       </c>
     </row>
-    <row r="72" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="16">
+    <row r="73" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="16">
         <v>2019</v>
       </c>
-      <c r="C72" s="17" t="s">
+      <c r="C73" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="18">
+      <c r="D73" s="18">
         <f t="shared" si="3"/>
         <v>27292.410609999999</v>
       </c>
-      <c r="E72" s="19">
+      <c r="E73" s="19">
         <v>5.46</v>
       </c>
-      <c r="F72" s="19">
+      <c r="F73" s="19">
         <v>55.997999999999998</v>
       </c>
-      <c r="G72" s="19">
+      <c r="G73" s="19">
         <v>8069.7749999999996</v>
       </c>
-      <c r="H72" s="19">
+      <c r="H73" s="19">
         <v>1587.973</v>
       </c>
-      <c r="I72" s="19">
+      <c r="I73" s="19">
         <v>5215.268</v>
       </c>
-      <c r="J72" s="19">
+      <c r="J73" s="19">
         <v>2428.5169999999998</v>
       </c>
-      <c r="K72" s="19">
+      <c r="K73" s="19">
         <v>2360.0700000000002</v>
       </c>
-      <c r="L72" s="19">
+      <c r="L73" s="19">
         <v>4450.9750000000004</v>
       </c>
-      <c r="M72" s="19"/>
-      <c r="N72" s="19"/>
-      <c r="O72" s="19">
+      <c r="M73" s="19"/>
+      <c r="N73" s="19"/>
+      <c r="O73" s="19">
         <v>3118.3746100000003</v>
       </c>
     </row>
-    <row r="73" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="12">
+    <row r="74" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="12">
         <v>2019</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C74" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="14">
+      <c r="D74" s="14">
         <f t="shared" si="3"/>
         <v>29113.054540000001</v>
       </c>
-      <c r="E73" s="15">
+      <c r="E74" s="15">
         <v>6.2110000000000003</v>
       </c>
-      <c r="F73" s="15">
+      <c r="F74" s="15">
         <v>67.53</v>
       </c>
-      <c r="G73" s="15">
+      <c r="G74" s="15">
         <v>8472.9789999999994</v>
       </c>
-      <c r="H73" s="15">
+      <c r="H74" s="15">
         <v>1708.221</v>
       </c>
-      <c r="I73" s="15">
+      <c r="I74" s="15">
         <v>5081.5749999999998</v>
       </c>
-      <c r="J73" s="15">
+      <c r="J74" s="15">
         <v>2646.9789999999998</v>
       </c>
-      <c r="K73" s="15">
+      <c r="K74" s="15">
         <v>2406.2260000000001</v>
       </c>
-      <c r="L73" s="15">
+      <c r="L74" s="15">
         <v>5332.5439999999999</v>
       </c>
-      <c r="M73" s="15"/>
-      <c r="N73" s="15"/>
-      <c r="O73" s="15">
+      <c r="M74" s="15"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="15">
         <v>3390.7895400000002</v>
       </c>
     </row>
-    <row r="74" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="16">
+    <row r="75" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="16">
         <v>2019</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C75" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="18">
+      <c r="D75" s="18">
         <f t="shared" si="3"/>
         <v>31250.364179999997</v>
       </c>
-      <c r="E74" s="19">
+      <c r="E75" s="19">
         <v>7.8460000000000001</v>
       </c>
-      <c r="F74" s="19">
+      <c r="F75" s="19">
         <v>56.534999999999997</v>
       </c>
-      <c r="G74" s="19">
+      <c r="G75" s="19">
         <v>8624.3449999999993</v>
       </c>
-      <c r="H74" s="19">
+      <c r="H75" s="19">
         <v>1621.0229999999999</v>
       </c>
-      <c r="I74" s="19">
+      <c r="I75" s="19">
         <v>8671.3349999999991</v>
       </c>
-      <c r="J74" s="19">
+      <c r="J75" s="19">
         <v>2304.8890000000001</v>
       </c>
-      <c r="K74" s="19">
+      <c r="K75" s="19">
         <v>2447.4609999999998</v>
       </c>
-      <c r="L74" s="19">
+      <c r="L75" s="19">
         <v>4465.5820000000003</v>
       </c>
-      <c r="M74" s="19"/>
-      <c r="N74" s="19"/>
-      <c r="O74" s="19">
+      <c r="M75" s="19"/>
+      <c r="N75" s="19"/>
+      <c r="O75" s="19">
         <v>3051.34818</v>
       </c>
     </row>
-    <row r="75" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="12">
+    <row r="76" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="12">
         <v>2019</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C76" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="14">
+      <c r="D76" s="14">
         <f t="shared" si="3"/>
         <v>31365.490560000002</v>
       </c>
-      <c r="E75" s="15">
+      <c r="E76" s="15">
         <v>5.36</v>
       </c>
-      <c r="F75" s="15">
+      <c r="F76" s="15">
         <v>59.417999999999999</v>
       </c>
-      <c r="G75" s="15">
+      <c r="G76" s="15">
         <v>9153.4</v>
       </c>
-      <c r="H75" s="15">
+      <c r="H76" s="15">
         <v>1573.4939999999999</v>
       </c>
-      <c r="I75" s="15">
+      <c r="I76" s="15">
         <v>7744.9759999999997</v>
       </c>
-      <c r="J75" s="15">
+      <c r="J76" s="15">
         <v>2483.4180000000001</v>
       </c>
-      <c r="K75" s="15">
+      <c r="K76" s="15">
         <v>2376.971</v>
       </c>
-      <c r="L75" s="15">
+      <c r="L76" s="15">
         <v>4955.9579999999996</v>
       </c>
-      <c r="M75" s="15"/>
-      <c r="N75" s="15"/>
-      <c r="O75" s="15">
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15">
         <v>3012.4955599999998</v>
       </c>
     </row>
-    <row r="76" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="16">
+    <row r="77" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="16">
         <v>2019</v>
       </c>
-      <c r="C76" s="17" t="s">
+      <c r="C77" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D76" s="18">
+      <c r="D77" s="18">
         <f t="shared" si="3"/>
         <v>27676.571899999999</v>
       </c>
-      <c r="E76" s="19">
+      <c r="E77" s="19">
         <v>5.3540000000000001</v>
       </c>
-      <c r="F76" s="19">
+      <c r="F77" s="19">
         <v>60.44</v>
       </c>
-      <c r="G76" s="19">
+      <c r="G77" s="19">
         <v>8240.6730000000007</v>
       </c>
-      <c r="H76" s="19">
+      <c r="H77" s="19">
         <v>1223.51</v>
       </c>
-      <c r="I76" s="19">
+      <c r="I77" s="19">
         <v>6582.1109999999999</v>
       </c>
-      <c r="J76" s="19">
+      <c r="J77" s="19">
         <v>2315.9119999999998</v>
       </c>
-      <c r="K76" s="19">
+      <c r="K77" s="19">
         <v>2451.8209999999999</v>
       </c>
-      <c r="L76" s="19">
+      <c r="L77" s="19">
         <v>3688.9839999999999</v>
       </c>
-      <c r="M76" s="19"/>
-      <c r="N76" s="19"/>
-      <c r="O76" s="19">
+      <c r="M77" s="19"/>
+      <c r="N77" s="19"/>
+      <c r="O77" s="19">
         <v>3107.7669000000001</v>
       </c>
     </row>
-    <row r="77" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="20">
+    <row r="78" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="20">
         <v>2019</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="C78" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="22">
-        <f t="shared" ref="D77:D89" si="4">SUM(E77:O77)</f>
+      <c r="D78" s="22">
+        <f t="shared" ref="D78:D90" si="4">SUM(E78:O78)</f>
         <v>31729.582690000007</v>
       </c>
-      <c r="E77" s="23">
+      <c r="E78" s="23">
         <v>6.7610000000000001</v>
       </c>
-      <c r="F77" s="23">
+      <c r="F78" s="23">
         <v>74.009</v>
       </c>
-      <c r="G77" s="23">
+      <c r="G78" s="23">
         <v>7747.527</v>
       </c>
-      <c r="H77" s="23">
+      <c r="H78" s="23">
         <v>1196.4000000000001</v>
       </c>
-      <c r="I77" s="23">
+      <c r="I78" s="23">
         <v>8376.51</v>
       </c>
-      <c r="J77" s="23">
+      <c r="J78" s="23">
         <v>2613.239</v>
       </c>
-      <c r="K77" s="23">
+      <c r="K78" s="23">
         <v>4476.8249999999998</v>
       </c>
-      <c r="L77" s="23">
+      <c r="L78" s="23">
         <v>3965.1860000000001</v>
       </c>
-      <c r="M77" s="23"/>
-      <c r="N77" s="23"/>
-      <c r="O77" s="23">
+      <c r="M78" s="23"/>
+      <c r="N78" s="23"/>
+      <c r="O78" s="23">
         <v>3273.1256899999998</v>
       </c>
     </row>
-    <row r="78" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="17">
+    <row r="79" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="17">
         <v>2018</v>
       </c>
-      <c r="C78" s="17" t="s">
+      <c r="C79" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D78" s="18">
+      <c r="D79" s="18">
         <f t="shared" si="4"/>
         <v>27825.537</v>
       </c>
-      <c r="E78" s="19">
+      <c r="E79" s="19">
         <v>11.624000000000001</v>
       </c>
-      <c r="F78" s="19">
+      <c r="F79" s="19">
         <v>93.391999999999996</v>
       </c>
-      <c r="G78" s="19">
+      <c r="G79" s="19">
         <v>8828.0380000000005</v>
       </c>
-      <c r="H78" s="19">
+      <c r="H79" s="19">
         <v>1419.221</v>
       </c>
-      <c r="I78" s="19">
+      <c r="I79" s="19">
         <v>8160.1949999999997</v>
       </c>
-      <c r="J78" s="19">
+      <c r="J79" s="19">
         <v>2550.1379999999999</v>
       </c>
-      <c r="K78" s="19">
+      <c r="K79" s="19">
         <v>2539.4380000000001</v>
       </c>
-      <c r="L78" s="19">
+      <c r="L79" s="19">
         <v>4208.37</v>
       </c>
-      <c r="M78" s="19"/>
-      <c r="N78" s="19"/>
-      <c r="O78" s="19">
+      <c r="M79" s="19"/>
+      <c r="N79" s="19"/>
+      <c r="O79" s="19">
         <v>15.121</v>
       </c>
     </row>
-    <row r="79" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="13">
+    <row r="80" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="13">
         <v>2018</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C80" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D79" s="14">
+      <c r="D80" s="14">
         <f t="shared" si="4"/>
         <v>30438.187000000005</v>
       </c>
-      <c r="E79" s="15">
+      <c r="E80" s="15">
         <v>9.8219999999999992</v>
       </c>
-      <c r="F79" s="15">
+      <c r="F80" s="15">
         <v>90.676000000000002</v>
       </c>
-      <c r="G79" s="15">
+      <c r="G80" s="15">
         <v>9033.7459999999992</v>
       </c>
-      <c r="H79" s="15">
+      <c r="H80" s="15">
         <v>1677.8789999999999</v>
       </c>
-      <c r="I79" s="15">
+      <c r="I80" s="15">
         <v>9087.1730000000007</v>
       </c>
-      <c r="J79" s="15">
+      <c r="J80" s="15">
         <v>2973.703</v>
       </c>
-      <c r="K79" s="15">
+      <c r="K80" s="15">
         <v>2449.9479999999999</v>
       </c>
-      <c r="L79" s="15">
+      <c r="L80" s="15">
         <v>5104.8959999999997</v>
       </c>
-      <c r="M79" s="15"/>
-      <c r="N79" s="15"/>
-      <c r="O79" s="15">
+      <c r="M80" s="15"/>
+      <c r="N80" s="15"/>
+      <c r="O80" s="15">
         <v>10.343999999999999</v>
       </c>
     </row>
-    <row r="80" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="17">
+    <row r="81" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="17">
         <v>2018</v>
       </c>
-      <c r="C80" s="17" t="s">
+      <c r="C81" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D80" s="18">
+      <c r="D81" s="18">
         <f t="shared" si="4"/>
         <v>30428.691999999999</v>
       </c>
-      <c r="E80" s="19">
+      <c r="E81" s="19">
         <v>8.2870000000000008</v>
       </c>
-      <c r="F80" s="19">
+      <c r="F81" s="19">
         <v>78.7</v>
       </c>
-      <c r="G80" s="19">
+      <c r="G81" s="19">
         <v>8819.0689999999995</v>
       </c>
-      <c r="H80" s="19">
+      <c r="H81" s="19">
         <v>1516.8230000000001</v>
       </c>
-      <c r="I80" s="19">
+      <c r="I81" s="19">
         <v>9777.8709999999992</v>
       </c>
-      <c r="J80" s="19">
+      <c r="J81" s="19">
         <v>2987.6489999999999</v>
       </c>
-      <c r="K80" s="19">
+      <c r="K81" s="19">
         <v>1751.569</v>
       </c>
-      <c r="L80" s="19">
+      <c r="L81" s="19">
         <v>5477.6930000000002</v>
       </c>
-      <c r="M80" s="19"/>
-      <c r="N80" s="19"/>
-      <c r="O80" s="19">
+      <c r="M81" s="19"/>
+      <c r="N81" s="19"/>
+      <c r="O81" s="19">
         <v>11.031000000000001</v>
       </c>
     </row>
-    <row r="81" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="13">
+    <row r="82" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="13">
         <v>2018</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C82" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D81" s="14">
+      <c r="D82" s="14">
         <f t="shared" si="4"/>
         <v>27010.514999999999</v>
       </c>
-      <c r="E81" s="15">
+      <c r="E82" s="15">
         <v>10.707000000000001</v>
       </c>
-      <c r="F81" s="15">
+      <c r="F82" s="15">
         <v>62.167000000000002</v>
       </c>
-      <c r="G81" s="15">
+      <c r="G82" s="15">
         <v>8102.4960000000001</v>
       </c>
-      <c r="H81" s="15">
+      <c r="H82" s="15">
         <v>1416.539</v>
       </c>
-      <c r="I81" s="15">
+      <c r="I82" s="15">
         <v>8463.5859999999993</v>
       </c>
-      <c r="J81" s="15">
+      <c r="J82" s="15">
         <v>2463.84</v>
       </c>
-      <c r="K81" s="15">
+      <c r="K82" s="15">
         <v>1662.82</v>
       </c>
-      <c r="L81" s="15">
+      <c r="L82" s="15">
         <v>4814.68</v>
       </c>
-      <c r="M81" s="15"/>
-      <c r="N81" s="15"/>
-      <c r="O81" s="15">
+      <c r="M82" s="15"/>
+      <c r="N82" s="15"/>
+      <c r="O82" s="15">
         <v>13.68</v>
       </c>
     </row>
-    <row r="82" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="17">
+    <row r="83" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="17">
         <v>2018</v>
       </c>
-      <c r="C82" s="17" t="s">
+      <c r="C83" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D82" s="18">
+      <c r="D83" s="18">
         <f t="shared" si="4"/>
         <v>27455.597999999998</v>
       </c>
-      <c r="E82" s="19">
+      <c r="E83" s="19">
         <v>10.06</v>
       </c>
-      <c r="F82" s="19">
+      <c r="F83" s="19">
         <v>67.233999999999995</v>
       </c>
-      <c r="G82" s="19">
+      <c r="G83" s="19">
         <v>8035.7269999999999</v>
       </c>
-      <c r="H82" s="19">
+      <c r="H83" s="19">
         <v>1692.001</v>
       </c>
-      <c r="I82" s="19">
+      <c r="I83" s="19">
         <v>8464.9650000000001</v>
       </c>
-      <c r="J82" s="19">
+      <c r="J83" s="19">
         <v>2758.96</v>
       </c>
-      <c r="K82" s="19">
+      <c r="K83" s="19">
         <v>1732.587</v>
       </c>
-      <c r="L82" s="19">
+      <c r="L83" s="19">
         <v>4679.0959999999995</v>
       </c>
-      <c r="M82" s="19"/>
-      <c r="N82" s="19"/>
-      <c r="O82" s="19">
+      <c r="M83" s="19"/>
+      <c r="N83" s="19"/>
+      <c r="O83" s="19">
         <v>14.968</v>
       </c>
     </row>
-    <row r="83" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="13">
+    <row r="84" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="13">
         <v>2018</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C84" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D83" s="14">
+      <c r="D84" s="14">
         <f t="shared" si="4"/>
         <v>27442.177</v>
       </c>
-      <c r="E83" s="15">
+      <c r="E84" s="15">
         <v>10.051</v>
       </c>
-      <c r="F83" s="15">
+      <c r="F84" s="15">
         <v>63.811</v>
       </c>
-      <c r="G83" s="15">
+      <c r="G84" s="15">
         <v>7722.7290000000003</v>
       </c>
-      <c r="H83" s="15">
+      <c r="H84" s="15">
         <v>1496.4</v>
       </c>
-      <c r="I83" s="15">
+      <c r="I84" s="15">
         <v>8747.1980000000003</v>
       </c>
-      <c r="J83" s="15">
+      <c r="J84" s="15">
         <v>2551.65</v>
       </c>
-      <c r="K83" s="15">
+      <c r="K84" s="15">
         <v>1697.7090000000001</v>
       </c>
-      <c r="L83" s="15">
+      <c r="L84" s="15">
         <v>5136.6130000000003</v>
       </c>
-      <c r="M83" s="15"/>
-      <c r="N83" s="15"/>
-      <c r="O83" s="15">
+      <c r="M84" s="15"/>
+      <c r="N84" s="15"/>
+      <c r="O84" s="15">
         <v>16.015999999999998</v>
       </c>
     </row>
-    <row r="84" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="17">
+    <row r="85" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="17">
         <v>2018</v>
       </c>
-      <c r="C84" s="17" t="s">
+      <c r="C85" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D84" s="18">
+      <c r="D85" s="18">
         <f t="shared" si="4"/>
         <v>27934.611100000002</v>
       </c>
-      <c r="E84" s="19">
+      <c r="E85" s="19">
         <v>5.8701000000000008</v>
       </c>
-      <c r="F84" s="19">
+      <c r="F85" s="19">
         <v>68.567999999999998</v>
       </c>
-      <c r="G84" s="19">
+      <c r="G85" s="19">
         <v>7714.4070000000002</v>
       </c>
-      <c r="H84" s="19">
+      <c r="H85" s="19">
         <v>1561.0450000000001</v>
       </c>
-      <c r="I84" s="19">
+      <c r="I85" s="19">
         <v>8940.5429999999997</v>
       </c>
-      <c r="J84" s="19">
+      <c r="J85" s="19">
         <v>2632.7139999999999</v>
       </c>
-      <c r="K84" s="19">
+      <c r="K85" s="19">
         <v>1889.998</v>
       </c>
-      <c r="L84" s="19">
+      <c r="L85" s="19">
         <v>5110.2619999999997</v>
       </c>
-      <c r="M84" s="19"/>
-      <c r="N84" s="19"/>
-      <c r="O84" s="19">
+      <c r="M85" s="19"/>
+      <c r="N85" s="19"/>
+      <c r="O85" s="19">
         <v>11.204000000000001</v>
       </c>
     </row>
-    <row r="85" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="13">
+    <row r="86" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="13">
         <v>2018</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C86" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D85" s="14">
+      <c r="D86" s="14">
         <f t="shared" si="4"/>
         <v>28918.192660000001</v>
       </c>
-      <c r="E85" s="15">
+      <c r="E86" s="15">
         <v>7.8816600000000001</v>
       </c>
-      <c r="F85" s="15">
+      <c r="F86" s="15">
         <v>82.861999999999995</v>
       </c>
-      <c r="G85" s="15">
+      <c r="G86" s="15">
         <v>8118.165</v>
       </c>
-      <c r="H85" s="15">
+      <c r="H86" s="15">
         <v>1532.5719999999999</v>
       </c>
-      <c r="I85" s="15">
+      <c r="I86" s="15">
         <v>8129.585</v>
       </c>
-      <c r="J85" s="15">
+      <c r="J86" s="15">
         <v>2956.08</v>
       </c>
-      <c r="K85" s="15">
+      <c r="K86" s="15">
         <v>1988.6780000000001</v>
       </c>
-      <c r="L85" s="15">
+      <c r="L86" s="15">
         <v>6089.1620000000003</v>
       </c>
-      <c r="M85" s="15"/>
-      <c r="N85" s="15"/>
-      <c r="O85" s="15">
+      <c r="M86" s="15"/>
+      <c r="N86" s="15"/>
+      <c r="O86" s="15">
         <v>13.207000000000001</v>
       </c>
     </row>
-    <row r="86" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="17">
+    <row r="87" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="17">
         <v>2018</v>
       </c>
-      <c r="C86" s="17" t="s">
+      <c r="C87" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D86" s="18">
+      <c r="D87" s="18">
         <f t="shared" si="4"/>
         <v>29273.39678000001</v>
       </c>
-      <c r="E86" s="19">
+      <c r="E87" s="19">
         <v>9.12378</v>
       </c>
-      <c r="F86" s="19">
+      <c r="F87" s="19">
         <v>60.970999999999997</v>
       </c>
-      <c r="G86" s="19">
+      <c r="G87" s="19">
         <v>7926.723</v>
       </c>
-      <c r="H86" s="19">
+      <c r="H87" s="19">
         <v>1477.489</v>
       </c>
-      <c r="I86" s="19">
+      <c r="I87" s="19">
         <v>9672.3250000000007</v>
       </c>
-      <c r="J86" s="19">
+      <c r="J87" s="19">
         <v>2860.578</v>
       </c>
-      <c r="K86" s="19">
+      <c r="K87" s="19">
         <v>1829.883</v>
       </c>
-      <c r="L86" s="19">
+      <c r="L87" s="19">
         <v>5423.6540000000005</v>
       </c>
-      <c r="M86" s="19"/>
-      <c r="N86" s="19"/>
-      <c r="O86" s="19">
+      <c r="M87" s="19"/>
+      <c r="N87" s="19"/>
+      <c r="O87" s="19">
         <v>12.65</v>
       </c>
     </row>
-    <row r="87" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="13">
+    <row r="88" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="13">
         <v>2018</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C88" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D87" s="14">
+      <c r="D88" s="14">
         <f t="shared" si="4"/>
         <v>30126.28328</v>
       </c>
-      <c r="E87" s="15">
+      <c r="E88" s="15">
         <v>8.1962799999999998</v>
       </c>
-      <c r="F87" s="15">
+      <c r="F88" s="15">
         <v>71.811000000000007</v>
       </c>
-      <c r="G87" s="15">
+      <c r="G88" s="15">
         <v>8844.2019999999993</v>
       </c>
-      <c r="H87" s="15">
+      <c r="H88" s="15">
         <v>1647.098</v>
       </c>
-      <c r="I87" s="15">
+      <c r="I88" s="15">
         <v>9860.2800000000007</v>
       </c>
-      <c r="J87" s="15">
+      <c r="J88" s="15">
         <v>2743.1410000000001</v>
       </c>
-      <c r="K87" s="15">
+      <c r="K88" s="15">
         <v>1551.7840000000001</v>
       </c>
-      <c r="L87" s="15">
+      <c r="L88" s="15">
         <v>5387.3890000000001</v>
       </c>
-      <c r="M87" s="15"/>
-      <c r="N87" s="15"/>
-      <c r="O87" s="15">
+      <c r="M88" s="15"/>
+      <c r="N88" s="15"/>
+      <c r="O88" s="15">
         <v>12.382</v>
       </c>
     </row>
-    <row r="88" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="17">
+    <row r="89" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="17">
         <v>2018</v>
       </c>
-      <c r="C88" s="17" t="s">
+      <c r="C89" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D88" s="18">
+      <c r="D89" s="18">
         <f t="shared" si="4"/>
         <v>25208.202900000004</v>
       </c>
-      <c r="E88" s="19">
+      <c r="E89" s="19">
         <v>6.7148999999999992</v>
       </c>
-      <c r="F88" s="19">
+      <c r="F89" s="19">
         <v>59.457000000000001</v>
       </c>
-      <c r="G88" s="19">
+      <c r="G89" s="19">
         <v>7977.2039999999997</v>
       </c>
-      <c r="H88" s="19">
+      <c r="H89" s="19">
         <v>1378.8910000000001</v>
       </c>
-      <c r="I88" s="19">
+      <c r="I89" s="19">
         <v>7402.5730000000003</v>
       </c>
-      <c r="J88" s="19">
+      <c r="J89" s="19">
         <v>2577</v>
       </c>
-      <c r="K88" s="19">
+      <c r="K89" s="19">
         <v>1364.6120000000001</v>
       </c>
-      <c r="L88" s="19">
+      <c r="L89" s="19">
         <v>4430.4210000000003</v>
       </c>
-      <c r="M88" s="19"/>
-      <c r="N88" s="19"/>
-      <c r="O88" s="19">
+      <c r="M89" s="19"/>
+      <c r="N89" s="19"/>
+      <c r="O89" s="19">
         <v>11.33</v>
       </c>
     </row>
-    <row r="89" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="13">
+    <row r="90" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B90" s="13">
         <v>2018</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C90" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D89" s="14">
+      <c r="D90" s="14">
         <f t="shared" si="4"/>
         <v>25018.165999999997</v>
       </c>
-      <c r="E89" s="15">
+      <c r="E90" s="15">
         <v>6.9589999999999996</v>
       </c>
-      <c r="F89" s="15">
+      <c r="F90" s="15">
         <v>66.08</v>
       </c>
-      <c r="G89" s="15">
+      <c r="G90" s="15">
         <v>7737.0140000000001</v>
       </c>
-      <c r="H89" s="15">
+      <c r="H90" s="15">
         <v>1410.72</v>
       </c>
-      <c r="I89" s="15">
+      <c r="I90" s="15">
         <v>6932.2910000000002</v>
       </c>
-      <c r="J89" s="15">
+      <c r="J90" s="15">
         <v>2789.42</v>
       </c>
-      <c r="K89" s="15">
+      <c r="K90" s="15">
         <v>1379.2329999999999</v>
       </c>
-      <c r="L89" s="15">
+      <c r="L90" s="15">
         <v>4684.1959999999999</v>
       </c>
-      <c r="M89" s="15"/>
-      <c r="N89" s="15"/>
-      <c r="O89" s="15">
+      <c r="M90" s="15"/>
+      <c r="N90" s="15"/>
+      <c r="O90" s="15">
         <v>12.253</v>
       </c>
-    </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B90" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C90" s="28"/>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B91" s="28" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C91" s="28"/>
-      <c r="O91" s="29"/>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B92" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C92" s="28"/>
+      <c r="O92" s="29"/>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B93" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" s="28"/>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B94" s="28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B94" s="3" t="s">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B95" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D100" s="28"/>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D101" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Carga_por_aerolinea_nac.xlsx
+++ b/Carga_por_aerolinea_nac.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD5C584-089F-44F0-A46C-D575E4111AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23392D7D-A46C-421E-9779-F6D08DF7B379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_35" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="34">
   <si>
     <t>Total</t>
   </si>
@@ -137,7 +137,7 @@
     <t>Mexicana (Aerolínea del Estado Mexicano)</t>
   </si>
   <si>
-    <t>Actualización: Enero 2025.</t>
+    <t>Actualización: Febrero 2025.</t>
   </si>
 </sst>
 </file>
@@ -147,7 +147,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,7 +376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -456,14 +456,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -677,7 +669,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -760,8 +752,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O90" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
-  <autoFilter ref="B5:O90" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O91" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
+  <autoFilter ref="B5:O91" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -1014,13 +1006,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O101"/>
+  <dimension ref="B2:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5" style="3" customWidth="1"/>
     <col min="2" max="2" width="7" style="3" customWidth="1"/>
@@ -1040,21 +1032,21 @@
     <col min="16" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:15" ht="18">
       <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:15">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:15">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
@@ -1072,7 +1064,7 @@
       <c r="N4" s="31"/>
       <c r="O4" s="32"/>
     </row>
-    <row r="5" spans="2:15" ht="58.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:15" ht="49.5">
       <c r="B5" s="8" t="s">
         <v>17</v>
       </c>
@@ -1116,3482 +1108,3521 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B6" s="33">
+    <row r="6" spans="2:15">
+      <c r="B6" s="16">
         <v>2025</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="18">
+        <f>SUM(E6:O6)</f>
+        <v>25748.605099709999</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19">
+        <v>11275.352000000001</v>
+      </c>
+      <c r="H6" s="19">
+        <v>620.36</v>
+      </c>
+      <c r="I6" s="19">
+        <v>1786.64945971</v>
+      </c>
+      <c r="J6" s="19">
+        <v>2412.8490000000002</v>
+      </c>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19">
+        <v>6617.8909999999996</v>
+      </c>
+      <c r="M6" s="19">
+        <v>29.823340000000002</v>
+      </c>
+      <c r="N6" s="19">
+        <v>941.21730000000014</v>
+      </c>
+      <c r="O6" s="19">
+        <v>2064.4630000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="20">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="35">
-        <f>SUM(E6:O6)</f>
+      <c r="D7" s="22">
+        <f>SUM(E7:O7)</f>
         <v>23673.877119999997</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36">
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23">
         <v>10826.540999999999</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H7" s="23">
         <v>571.43200000000002</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I7" s="23">
         <v>1894.5229999999999</v>
       </c>
-      <c r="J6" s="36">
+      <c r="J7" s="23">
         <v>2721.4450000000002</v>
       </c>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36">
+      <c r="K7" s="23"/>
+      <c r="L7" s="23">
         <v>4711.6409999999996</v>
       </c>
-      <c r="M6" s="36">
+      <c r="M7" s="23">
         <v>29.370999999999999</v>
       </c>
-      <c r="N6" s="36">
-        <v>964.65660000000003</v>
-      </c>
-      <c r="O6" s="36">
-        <v>1954.2675200000001</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B7" s="16">
+      <c r="N7" s="23">
+        <v>964.65659999999991</v>
+      </c>
+      <c r="O7" s="23">
+        <v>1954.2675200000031</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="16">
         <v>2024</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="18">
-        <f>SUM(E7:O7)</f>
-        <v>27947.306936000001</v>
-      </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19">
+      <c r="D8" s="18">
+        <f>SUM(E8:O8)</f>
+        <v>27947.306936199999</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19">
         <v>12904.705</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H8" s="19">
         <v>706.62800000000004</v>
       </c>
-      <c r="I7" s="19">
-        <v>2110.4124860000002</v>
-      </c>
-      <c r="J7" s="19">
+      <c r="I8" s="19">
+        <v>2110.4124862000003</v>
+      </c>
+      <c r="J8" s="19">
         <v>2910.0949999999998</v>
       </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19">
+      <c r="K8" s="19"/>
+      <c r="L8" s="19">
         <v>6062.4089999999997</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M8" s="19">
         <v>44.347099999999998</v>
       </c>
-      <c r="N7" s="19">
-        <v>1092.7723999999998</v>
-      </c>
-      <c r="O7" s="19">
-        <v>2115.93795</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B8" s="12">
+      <c r="N8" s="19">
+        <v>1092.7723999999989</v>
+      </c>
+      <c r="O8" s="19">
+        <v>2115.9379499999995</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="12">
         <v>2024</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="14">
-        <f>SUM(E8:O8)</f>
-        <v>27502.893514000003</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15">
+      <c r="D9" s="14">
+        <f>SUM(E9:O9)</f>
+        <v>27502.893513799998</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15">
         <v>13474.445</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H9" s="15">
         <v>756.11400000000003</v>
       </c>
-      <c r="I8" s="15">
-        <v>1892.0454140000002</v>
-      </c>
-      <c r="J8" s="15">
+      <c r="I9" s="15">
+        <v>1892.0454138</v>
+      </c>
+      <c r="J9" s="15">
         <v>3303.9810000000002</v>
       </c>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15">
+      <c r="K9" s="15"/>
+      <c r="L9" s="15">
         <v>4393.0249999999996</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M9" s="15">
         <v>44.302</v>
       </c>
-      <c r="N8" s="15">
-        <v>1298.3136000000002</v>
-      </c>
-      <c r="O8" s="15">
-        <v>2340.6675</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B9" s="16">
+      <c r="N9" s="15">
+        <v>1298.3136</v>
+      </c>
+      <c r="O9" s="15">
+        <v>2340.6674999999955</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" s="16">
         <v>2024</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="18">
-        <f t="shared" ref="D9" si="0">SUM(E9:O9)</f>
-        <v>27181.326313000001</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19">
+      <c r="D10" s="18">
+        <f t="shared" ref="D10" si="0">SUM(E10:O10)</f>
+        <v>27181.326312561851</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19">
         <v>13225.465</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H10" s="19">
         <v>615.21100000000001</v>
       </c>
-      <c r="I9" s="19">
-        <v>1642.003113</v>
-      </c>
-      <c r="J9" s="19">
+      <c r="I10" s="19">
+        <v>1642.0031125618484</v>
+      </c>
+      <c r="J10" s="19">
         <v>3194.15</v>
       </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19">
+      <c r="K10" s="19"/>
+      <c r="L10" s="19">
         <v>4834.0540000000001</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M10" s="19">
         <v>24.026</v>
       </c>
-      <c r="N9" s="19">
-        <v>1321.6451999999999</v>
-      </c>
-      <c r="O9" s="19">
+      <c r="N10" s="19">
+        <v>1321.6451999999997</v>
+      </c>
+      <c r="O10" s="19">
         <v>2324.7719999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B10" s="12">
+    <row r="11" spans="2:15">
+      <c r="B11" s="12">
         <v>2024</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="14">
-        <f>SUM(E10:O10)</f>
+      <c r="D11" s="14">
+        <f>SUM(E11:O11)</f>
         <v>23947.075499999999</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15">
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15">
         <v>11815.414000000001</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H11" s="15">
         <v>610.077</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I11" s="15">
         <v>1877.9970000000001</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J11" s="15">
         <v>2701.4140000000002</v>
       </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15">
+      <c r="K11" s="15"/>
+      <c r="L11" s="15">
         <v>4037.3809999999999</v>
       </c>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15">
+      <c r="M11" s="15"/>
+      <c r="N11" s="15">
         <v>1121.0953</v>
       </c>
-      <c r="O10" s="15">
+      <c r="O11" s="15">
         <v>1783.6972000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11" s="16">
+    <row r="12" spans="2:15">
+      <c r="B12" s="16">
         <v>2024</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C12" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="18">
-        <f t="shared" ref="D11:D45" si="1">SUM(E11:O11)</f>
+      <c r="D12" s="18">
+        <f t="shared" ref="D12:D46" si="1">SUM(E12:O12)</f>
         <v>25976.447568099997</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19">
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19">
         <v>12383.605</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H12" s="19">
         <v>692.93</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I12" s="19">
         <v>997.61693810000008</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J12" s="19">
         <v>3089.9549999999999</v>
       </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19">
+      <c r="K12" s="19"/>
+      <c r="L12" s="19">
         <v>5823.1229999999996</v>
       </c>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19">
+      <c r="M12" s="19"/>
+      <c r="N12" s="19">
         <v>1059.0245</v>
       </c>
-      <c r="O11" s="19">
+      <c r="O12" s="19">
         <v>1930.1931300000001</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12" s="12">
+    <row r="13" spans="2:15">
+      <c r="B13" s="12">
         <v>2024</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="14">
-        <f t="shared" ref="D12:D14" si="2">SUM(E12:O12)</f>
+      <c r="D13" s="14">
+        <f t="shared" ref="D13:D15" si="2">SUM(E13:O13)</f>
         <v>24449.559196240007</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15">
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15">
         <v>12150.298000000001</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H13" s="15">
         <v>643.75300000000004</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I13" s="15">
         <v>1750.5007562400001</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J13" s="15">
         <v>3035.9490000000001</v>
       </c>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15">
+      <c r="K13" s="15"/>
+      <c r="L13" s="15">
         <v>4137.7550000000001</v>
       </c>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15">
+      <c r="M13" s="15"/>
+      <c r="N13" s="15">
         <v>767.15459999999996</v>
       </c>
-      <c r="O12" s="15">
+      <c r="O13" s="15">
         <v>1964.1488400000001</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13" s="16">
+    <row r="14" spans="2:15">
+      <c r="B14" s="16">
         <v>2024</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C14" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D14" s="18">
         <f t="shared" si="2"/>
         <v>22991.837380000001</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19">
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19">
         <v>11786.278</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H14" s="19">
         <v>560.85299999999995</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I14" s="19">
         <v>455.33683000000002</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J14" s="19">
         <v>2749.279</v>
       </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19">
+      <c r="K14" s="19"/>
+      <c r="L14" s="19">
         <v>4777.0950000000003</v>
       </c>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19">
+      <c r="M14" s="19"/>
+      <c r="N14" s="19">
         <v>821.03269999999998</v>
       </c>
-      <c r="O13" s="19">
+      <c r="O14" s="19">
         <v>1841.9628499999999</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14" s="12">
+    <row r="15" spans="2:15">
+      <c r="B15" s="12">
         <v>2024</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C15" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D15" s="14">
         <f t="shared" si="2"/>
         <v>25584.530360000004</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15">
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15">
         <v>12162.084000000001</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H15" s="15">
         <v>597.245</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I15" s="15">
         <v>670.93826000000001</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J15" s="15">
         <v>3023.1210000000001</v>
       </c>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15">
+      <c r="K15" s="15"/>
+      <c r="L15" s="15">
         <v>5951.4530000000004</v>
       </c>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15">
+      <c r="M15" s="15"/>
+      <c r="N15" s="15">
         <v>966.64210000000003</v>
       </c>
-      <c r="O14" s="15">
+      <c r="O15" s="15">
         <v>2213.047</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" s="16">
+    <row r="16" spans="2:15">
+      <c r="B16" s="16">
         <v>2024</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C16" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D16" s="18">
         <f t="shared" si="1"/>
         <v>24530.56366</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19">
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19">
         <v>11531.746999999999</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H16" s="19">
         <v>592.245</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I16" s="19">
         <v>1345.6157599999999</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J16" s="19">
         <v>3069.6970000000001</v>
       </c>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19">
+      <c r="K16" s="19"/>
+      <c r="L16" s="19">
         <v>5033.8580000000002</v>
       </c>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19">
+      <c r="M16" s="19"/>
+      <c r="N16" s="19">
         <v>917.64800000000002</v>
       </c>
-      <c r="O15" s="19">
+      <c r="O16" s="19">
         <v>2039.7529000000002</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B16" s="12">
+    <row r="17" spans="2:15">
+      <c r="B17" s="12">
         <v>2024</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D17" s="14">
         <f t="shared" si="1"/>
         <v>23773.473269999999</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15">
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15">
         <v>11871.233</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H17" s="15">
         <v>551.64300000000003</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I17" s="15">
         <v>1657.1516799999999</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J17" s="15">
         <v>2749.279</v>
       </c>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15">
+      <c r="K17" s="15"/>
+      <c r="L17" s="15">
         <v>3908.877</v>
       </c>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15">
+      <c r="M17" s="15"/>
+      <c r="N17" s="15">
         <v>901.89159999999993</v>
       </c>
-      <c r="O16" s="15">
+      <c r="O17" s="15">
         <v>2133.3979899999999</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B17" s="16">
+    <row r="18" spans="2:15">
+      <c r="B18" s="16">
         <v>2024</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C18" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D18" s="18">
         <f t="shared" si="1"/>
         <v>23760.617010000002</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19">
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19">
         <v>11159.713</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H18" s="19">
         <v>540.17999999999995</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I18" s="19">
         <v>1664.87067</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J18" s="19">
         <v>3032.2710000000002</v>
       </c>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19">
+      <c r="K18" s="19"/>
+      <c r="L18" s="19">
         <v>4672.6559999999999</v>
       </c>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19">
+      <c r="M18" s="19"/>
+      <c r="N18" s="19">
         <v>878.4058</v>
       </c>
-      <c r="O17" s="19">
+      <c r="O18" s="19">
         <v>1812.52054</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B18" s="20">
+    <row r="19" spans="2:15">
+      <c r="B19" s="20">
         <v>2024</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C19" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D19" s="22">
         <f t="shared" si="1"/>
         <v>22658.754440000004</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23">
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23">
         <v>10099.106</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H19" s="23">
         <v>778.92200000000003</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I19" s="23">
         <v>1334.1081499999998</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J19" s="23">
         <v>3205.1840000000002</v>
       </c>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23">
+      <c r="K19" s="23"/>
+      <c r="L19" s="23">
         <v>4132.0780000000004</v>
       </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23">
+      <c r="M19" s="23"/>
+      <c r="N19" s="23">
         <v>1138.7986000000001</v>
       </c>
-      <c r="O18" s="23">
+      <c r="O19" s="23">
         <v>1970.5576899999999</v>
       </c>
     </row>
-    <row r="19" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="24">
+    <row r="20" spans="2:15" hidden="1">
+      <c r="B20" s="24">
         <v>2023</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C20" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D20" s="26">
         <f t="shared" si="1"/>
         <v>24330.252739999996</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E20" s="27">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27">
+      <c r="F20" s="27"/>
+      <c r="G20" s="27">
         <v>11988.567999999999</v>
       </c>
-      <c r="H19" s="27">
+      <c r="H20" s="27">
         <v>936.15599999999995</v>
       </c>
-      <c r="I19" s="27">
+      <c r="I20" s="27">
         <v>1439.51802</v>
       </c>
-      <c r="J19" s="27">
+      <c r="J20" s="27">
         <v>3166.9259999999999</v>
       </c>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27">
+      <c r="K20" s="27"/>
+      <c r="L20" s="27">
         <v>3182.1170000000002</v>
       </c>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27">
+      <c r="M20" s="27"/>
+      <c r="N20" s="27">
         <v>1409.9010999999998</v>
       </c>
-      <c r="O19" s="27">
+      <c r="O20" s="27">
         <v>2207.0626200000002</v>
       </c>
     </row>
-    <row r="20" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="12">
+    <row r="21" spans="2:15" hidden="1">
+      <c r="B21" s="12">
         <v>2023</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C21" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D21" s="14">
         <f t="shared" si="1"/>
         <v>25951.682420000005</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E21" s="15">
         <v>2E-3</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15">
+      <c r="F21" s="15"/>
+      <c r="G21" s="15">
         <v>11389.349</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H21" s="15">
         <v>878.84500000000003</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I21" s="15">
         <v>3104.8114999999998</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J21" s="15">
         <v>3477.9340000000002</v>
       </c>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15">
+      <c r="K21" s="15"/>
+      <c r="L21" s="15">
         <v>3383.1860000000001</v>
       </c>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15">
+      <c r="M21" s="15"/>
+      <c r="N21" s="15">
         <v>1367.4911999999999</v>
       </c>
-      <c r="O20" s="15">
+      <c r="O21" s="15">
         <v>2350.0637200000001</v>
       </c>
     </row>
-    <row r="21" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="16">
+    <row r="22" spans="2:15" hidden="1">
+      <c r="B22" s="16">
         <v>2023</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C22" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D22" s="18">
         <f t="shared" si="1"/>
         <v>29736.471784000001</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E22" s="19">
         <v>2E-3</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19">
+      <c r="F22" s="19"/>
+      <c r="G22" s="19">
         <v>11497.116</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H22" s="19">
         <v>766.34</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I22" s="19">
         <v>1778.049084</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J22" s="19">
         <v>3354.9290000000001</v>
       </c>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19">
+      <c r="K22" s="19"/>
+      <c r="L22" s="19">
         <v>8846.14</v>
       </c>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19">
+      <c r="M22" s="19"/>
+      <c r="N22" s="19">
         <v>1254.5563</v>
       </c>
-      <c r="O21" s="19">
+      <c r="O22" s="19">
         <v>2239.3393999999998</v>
       </c>
     </row>
-    <row r="22" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="12">
+    <row r="23" spans="2:15" hidden="1">
+      <c r="B23" s="12">
         <v>2023</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C23" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D23" s="14">
         <f t="shared" si="1"/>
         <v>25495.398430000001</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E23" s="15">
         <v>1E-3</v>
       </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15">
+      <c r="F23" s="15"/>
+      <c r="G23" s="15">
         <v>10214.496999999999</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H23" s="15">
         <v>745.19799999999998</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I23" s="15">
         <v>1692.6589100000001</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J23" s="15">
         <v>3160.6</v>
       </c>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15">
+      <c r="K23" s="15"/>
+      <c r="L23" s="15">
         <v>6870.7169999999996</v>
       </c>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15">
+      <c r="M23" s="15"/>
+      <c r="N23" s="15">
         <v>1029.982</v>
       </c>
-      <c r="O22" s="15">
+      <c r="O23" s="15">
         <v>1781.74452</v>
       </c>
     </row>
-    <row r="23" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="16">
+    <row r="24" spans="2:15" hidden="1">
+      <c r="B24" s="16">
         <v>2023</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C24" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D24" s="18">
         <f t="shared" si="1"/>
         <v>27795.111850000001</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E24" s="19">
         <v>2E-3</v>
       </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19">
+      <c r="F24" s="19"/>
+      <c r="G24" s="19">
         <v>10670.395</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H24" s="19">
         <v>688.12199999999996</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I24" s="19">
         <v>2332.9001999999996</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J24" s="19">
         <v>3597.163</v>
       </c>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19">
+      <c r="K24" s="19"/>
+      <c r="L24" s="19">
         <v>7529.75</v>
       </c>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19">
+      <c r="M24" s="19"/>
+      <c r="N24" s="19">
         <v>1106.6980000000001</v>
       </c>
-      <c r="O23" s="19">
+      <c r="O24" s="19">
         <v>1870.0816499999999</v>
       </c>
     </row>
-    <row r="24" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="12">
+    <row r="25" spans="2:15" hidden="1">
+      <c r="B25" s="12">
         <v>2023</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C25" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D25" s="14">
         <f t="shared" si="1"/>
         <v>27392.805111000001</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E25" s="15">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15">
+      <c r="F25" s="15"/>
+      <c r="G25" s="15">
         <v>11104.486000000001</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H25" s="15">
         <v>582.98800000000006</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I25" s="15">
         <v>2097.893521</v>
       </c>
-      <c r="J24" s="15">
+      <c r="J25" s="15">
         <v>3132.8069999999998</v>
       </c>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15">
+      <c r="K25" s="15"/>
+      <c r="L25" s="15">
         <v>7920.2030000000004</v>
       </c>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15">
+      <c r="M25" s="15"/>
+      <c r="N25" s="15">
         <v>632.07899999999995</v>
       </c>
-      <c r="O24" s="15">
+      <c r="O25" s="15">
         <v>1922.34159</v>
       </c>
     </row>
-    <row r="25" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="16">
+    <row r="26" spans="2:15" hidden="1">
+      <c r="B26" s="16">
         <v>2023</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C26" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D26" s="18">
         <f t="shared" si="1"/>
         <v>26257.615949999999</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E26" s="19">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19">
+      <c r="F26" s="19"/>
+      <c r="G26" s="19">
         <v>9903.1360000000004</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H26" s="19">
         <v>604.97799999999995</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I26" s="19">
         <v>2029.77441</v>
       </c>
-      <c r="J25" s="19">
+      <c r="J26" s="19">
         <v>3359.4630000000002</v>
       </c>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19">
+      <c r="K26" s="19"/>
+      <c r="L26" s="19">
         <v>7581.4750000000004</v>
       </c>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19">
+      <c r="M26" s="19"/>
+      <c r="N26" s="19">
         <v>808.51900000000001</v>
       </c>
-      <c r="O25" s="19">
+      <c r="O26" s="19">
         <v>1970.2655400000001</v>
       </c>
     </row>
-    <row r="26" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="12">
+    <row r="27" spans="2:15" hidden="1">
+      <c r="B27" s="12">
         <v>2023</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C27" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D27" s="14">
         <f t="shared" si="1"/>
         <v>27189.140660000001</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E27" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15">
+      <c r="F27" s="15"/>
+      <c r="G27" s="15">
         <v>9247.2430000000004</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H27" s="15">
         <v>646.67899999999997</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I27" s="15">
         <v>1841.1321099999998</v>
       </c>
-      <c r="J26" s="15">
+      <c r="J27" s="15">
         <v>3239.5920000000001</v>
       </c>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15">
+      <c r="K27" s="15"/>
+      <c r="L27" s="15">
         <v>9116.9560000000001</v>
       </c>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15">
+      <c r="M27" s="15"/>
+      <c r="N27" s="15">
         <v>871.53</v>
       </c>
-      <c r="O26" s="15">
+      <c r="O27" s="15">
         <v>2226.0035500000004</v>
       </c>
     </row>
-    <row r="27" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="16">
+    <row r="28" spans="2:15" hidden="1">
+      <c r="B28" s="16">
         <v>2023</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C28" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D28" s="18">
         <f t="shared" si="1"/>
         <v>26065.695520000001</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E28" s="19">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19">
+      <c r="F28" s="19"/>
+      <c r="G28" s="19">
         <v>8823.5010000000002</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H28" s="19">
         <v>643.87900000000002</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I28" s="19">
         <v>2656.5120000000002</v>
       </c>
-      <c r="J27" s="19">
+      <c r="J28" s="19">
         <v>2882.6640000000002</v>
       </c>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19">
+      <c r="K28" s="19"/>
+      <c r="L28" s="19">
         <v>8495.7070000000003</v>
       </c>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19">
+      <c r="M28" s="19"/>
+      <c r="N28" s="19">
         <v>807.85400000000004</v>
       </c>
-      <c r="O27" s="19">
+      <c r="O28" s="19">
         <v>1755.5725199999999</v>
       </c>
     </row>
-    <row r="28" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="12">
+    <row r="29" spans="2:15" hidden="1">
+      <c r="B29" s="12">
         <v>2023</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C29" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D29" s="14">
         <f t="shared" si="1"/>
         <v>29416.146090000002</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E29" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15">
+      <c r="F29" s="15"/>
+      <c r="G29" s="15">
         <v>10420.953</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H29" s="15">
         <v>850.89200000000005</v>
       </c>
-      <c r="I28" s="15">
+      <c r="I29" s="15">
         <v>2714.1550000000002</v>
       </c>
-      <c r="J28" s="15">
+      <c r="J29" s="15">
         <v>3284.2510000000002</v>
       </c>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15">
+      <c r="K29" s="15"/>
+      <c r="L29" s="15">
         <v>9320.09</v>
       </c>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15">
+      <c r="M29" s="15"/>
+      <c r="N29" s="15">
         <v>754.07100000000003</v>
       </c>
-      <c r="O28" s="15">
+      <c r="O29" s="15">
         <v>2071.7290899999998</v>
       </c>
     </row>
-    <row r="29" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="16">
+    <row r="30" spans="2:15" hidden="1">
+      <c r="B30" s="16">
         <v>2023</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C30" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D30" s="18">
         <f t="shared" si="1"/>
         <v>26501.790870000004</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E30" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19">
+      <c r="F30" s="19"/>
+      <c r="G30" s="19">
         <v>9688.0110000000004</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H30" s="19">
         <v>782.84</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I30" s="19">
         <v>3020.3270000000002</v>
       </c>
-      <c r="J29" s="19">
+      <c r="J30" s="19">
         <v>2745.6669999999999</v>
       </c>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19">
+      <c r="K30" s="19"/>
+      <c r="L30" s="19">
         <v>7686.6450000000004</v>
       </c>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19">
+      <c r="M30" s="19"/>
+      <c r="N30" s="19">
         <v>685.12</v>
       </c>
-      <c r="O29" s="19">
+      <c r="O30" s="19">
         <v>1893.1698699999999</v>
       </c>
     </row>
-    <row r="30" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="20">
+    <row r="31" spans="2:15" hidden="1">
+      <c r="B31" s="20">
         <v>2023</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C31" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D31" s="22">
         <f t="shared" si="1"/>
         <v>26308.171539999999</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E31" s="23">
         <v>2E-3</v>
       </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23">
+      <c r="F31" s="23"/>
+      <c r="G31" s="23">
         <v>8914.4519999999993</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H31" s="23">
         <v>734.09199999999998</v>
       </c>
-      <c r="I30" s="23">
+      <c r="I31" s="23">
         <v>3159.0940000000001</v>
       </c>
-      <c r="J30" s="23">
+      <c r="J31" s="23">
         <v>3012.8209999999999</v>
       </c>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23">
+      <c r="K31" s="23"/>
+      <c r="L31" s="23">
         <v>7907.8890000000001</v>
       </c>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23">
+      <c r="M31" s="23"/>
+      <c r="N31" s="23">
         <v>670.48</v>
       </c>
-      <c r="O30" s="23">
+      <c r="O31" s="23">
         <v>1909.3415400000001</v>
       </c>
     </row>
-    <row r="31" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="24">
+    <row r="32" spans="2:15" hidden="1">
+      <c r="B32" s="24">
         <v>2022</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C32" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="26">
+      <c r="D32" s="26">
         <f t="shared" si="1"/>
         <v>29865.323240000002</v>
       </c>
-      <c r="E31" s="27">
+      <c r="E32" s="27">
         <v>1E-3</v>
       </c>
-      <c r="F31" s="27">
+      <c r="F32" s="27">
         <v>12.166</v>
       </c>
-      <c r="G31" s="27">
+      <c r="G32" s="27">
         <v>10484.763000000001</v>
       </c>
-      <c r="H31" s="27">
+      <c r="H32" s="27">
         <v>925.66499999999996</v>
       </c>
-      <c r="I31" s="27">
+      <c r="I32" s="27">
         <v>4138.0259999999998</v>
       </c>
-      <c r="J31" s="27">
+      <c r="J32" s="27">
         <v>3314.2310000000002</v>
       </c>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27">
+      <c r="K32" s="27"/>
+      <c r="L32" s="27">
         <v>7746.2759999999998</v>
       </c>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27">
+      <c r="M32" s="27"/>
+      <c r="N32" s="27">
         <v>961.79730000000006</v>
       </c>
-      <c r="O31" s="27">
+      <c r="O32" s="27">
         <v>2282.3979400000003</v>
       </c>
     </row>
-    <row r="32" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="12">
+    <row r="33" spans="2:15" hidden="1">
+      <c r="B33" s="12">
         <v>2022</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C33" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D33" s="14">
         <f t="shared" si="1"/>
         <v>29983.373589999999</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E33" s="15">
         <v>2E-3</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F33" s="15">
         <v>32.463999999999999</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G33" s="15">
         <v>10081.717000000001</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H33" s="15">
         <v>990.43700000000001</v>
       </c>
-      <c r="I32" s="15">
+      <c r="I33" s="15">
         <v>5149.683</v>
       </c>
-      <c r="J32" s="15">
+      <c r="J33" s="15">
         <v>3384.6909999999998</v>
       </c>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15">
+      <c r="K33" s="15"/>
+      <c r="L33" s="15">
         <v>7113.482</v>
       </c>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15">
+      <c r="M33" s="15"/>
+      <c r="N33" s="15">
         <v>970.55570000000012</v>
       </c>
-      <c r="O32" s="15">
+      <c r="O33" s="15">
         <v>2260.3418900000001</v>
       </c>
     </row>
-    <row r="33" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="16">
+    <row r="34" spans="2:15" hidden="1">
+      <c r="B34" s="16">
         <v>2022</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C34" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D34" s="18">
         <f t="shared" si="1"/>
         <v>29295.863820000002</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E34" s="19">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F34" s="19">
         <v>31.343</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G34" s="19">
         <v>9947.3389999999999</v>
       </c>
-      <c r="H33" s="19">
+      <c r="H34" s="19">
         <v>926.49599999999998</v>
       </c>
-      <c r="I33" s="19">
+      <c r="I34" s="19">
         <v>5335.3050000000003</v>
       </c>
-      <c r="J33" s="19">
+      <c r="J34" s="19">
         <v>3159.48</v>
       </c>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19">
+      <c r="K34" s="19"/>
+      <c r="L34" s="19">
         <v>6728.7049999999999</v>
       </c>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19">
+      <c r="M34" s="19"/>
+      <c r="N34" s="19">
         <v>979.74129999999991</v>
       </c>
-      <c r="O33" s="19">
+      <c r="O34" s="19">
         <v>2187.4515200000001</v>
       </c>
     </row>
-    <row r="34" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="12">
+    <row r="35" spans="2:15" hidden="1">
+      <c r="B35" s="12">
         <v>2022</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C35" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D35" s="14">
         <f t="shared" si="1"/>
         <v>26447.132749999997</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E35" s="15">
         <v>2E-3</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F35" s="15">
         <v>23.175000000000001</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G35" s="15">
         <v>9081.3619999999992</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H35" s="15">
         <v>703.86900000000003</v>
       </c>
-      <c r="I34" s="15">
+      <c r="I35" s="15">
         <v>4176.1049999999996</v>
       </c>
-      <c r="J34" s="15">
+      <c r="J35" s="15">
         <v>3254.7069999999999</v>
       </c>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15">
+      <c r="K35" s="15"/>
+      <c r="L35" s="15">
         <v>6617.3549999999996</v>
       </c>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15">
+      <c r="M35" s="15"/>
+      <c r="N35" s="15">
         <v>824.20899999999995</v>
       </c>
-      <c r="O34" s="15">
+      <c r="O35" s="15">
         <v>1766.3487500000001</v>
       </c>
     </row>
-    <row r="35" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="16">
+    <row r="36" spans="2:15" hidden="1">
+      <c r="B36" s="16">
         <v>2022</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C36" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D36" s="18">
         <f t="shared" si="1"/>
         <v>26279.741409999995</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E36" s="19">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F36" s="19">
         <v>28.286999999999999</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G36" s="19">
         <v>9293.5259999999998</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H36" s="19">
         <v>859.87</v>
       </c>
-      <c r="I35" s="19">
+      <c r="I36" s="19">
         <v>4037.6669999999999</v>
       </c>
-      <c r="J35" s="19">
+      <c r="J36" s="19">
         <v>3520.194</v>
       </c>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19">
+      <c r="K36" s="19"/>
+      <c r="L36" s="19">
         <v>5886.08</v>
       </c>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19">
+      <c r="M36" s="19"/>
+      <c r="N36" s="19">
         <v>804.58889999999997</v>
       </c>
-      <c r="O35" s="19">
+      <c r="O36" s="19">
         <v>1849.52451</v>
       </c>
     </row>
-    <row r="36" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="12">
+    <row r="37" spans="2:15" hidden="1">
+      <c r="B37" s="12">
         <v>2022</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C37" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D37" s="14">
         <f t="shared" si="1"/>
         <v>30603.772699999998</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E37" s="15">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F37" s="15">
         <v>31.623000000000001</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G37" s="15">
         <v>9435.7099999999991</v>
       </c>
-      <c r="H36" s="15">
+      <c r="H37" s="15">
         <v>852.04499999999996</v>
       </c>
-      <c r="I36" s="15">
+      <c r="I37" s="15">
         <v>4353.799</v>
       </c>
-      <c r="J36" s="15">
+      <c r="J37" s="15">
         <v>3361.634</v>
       </c>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15">
+      <c r="K37" s="15"/>
+      <c r="L37" s="15">
         <v>10038.903</v>
       </c>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15">
+      <c r="M37" s="15"/>
+      <c r="N37" s="15">
         <v>692.77719999999999</v>
       </c>
-      <c r="O36" s="15">
+      <c r="O37" s="15">
         <v>1837.2745</v>
       </c>
     </row>
-    <row r="37" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="16">
+    <row r="38" spans="2:15" hidden="1">
+      <c r="B38" s="16">
         <v>2022</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C38" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D38" s="18">
         <f t="shared" si="1"/>
         <v>32911.434350000003</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E38" s="19">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F38" s="19">
         <v>29.89</v>
       </c>
-      <c r="G37" s="19">
+      <c r="G38" s="19">
         <v>9434.6640000000007</v>
       </c>
-      <c r="H37" s="19">
+      <c r="H38" s="19">
         <v>704.59900000000005</v>
       </c>
-      <c r="I37" s="19">
+      <c r="I38" s="19">
         <v>4932.3429999999998</v>
       </c>
-      <c r="J37" s="19">
+      <c r="J38" s="19">
         <v>3363.165</v>
       </c>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19">
+      <c r="K38" s="19"/>
+      <c r="L38" s="19">
         <v>11698.642</v>
       </c>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19">
+      <c r="M38" s="19"/>
+      <c r="N38" s="19">
         <v>750.94670000000008</v>
       </c>
-      <c r="O37" s="19">
+      <c r="O38" s="19">
         <v>1997.1796499999998</v>
       </c>
     </row>
-    <row r="38" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="12">
+    <row r="39" spans="2:15" hidden="1">
+      <c r="B39" s="12">
         <v>2022</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C39" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D39" s="14">
         <f t="shared" si="1"/>
         <v>32136.140250000004</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E39" s="15">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F38" s="15">
+      <c r="F39" s="15">
         <v>28.506</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G39" s="15">
         <v>9520.1350000000002</v>
       </c>
-      <c r="H38" s="15">
+      <c r="H39" s="15">
         <v>707.80499999999995</v>
       </c>
-      <c r="I38" s="15">
+      <c r="I39" s="15">
         <v>5145.5190000000002</v>
       </c>
-      <c r="J38" s="15">
+      <c r="J39" s="15">
         <v>3217.3589999999999</v>
       </c>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15">
+      <c r="K39" s="15"/>
+      <c r="L39" s="15">
         <v>10677.519</v>
       </c>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15">
+      <c r="M39" s="15"/>
+      <c r="N39" s="15">
         <v>667.7</v>
       </c>
-      <c r="O38" s="15">
+      <c r="O39" s="15">
         <v>2171.5932499999999</v>
       </c>
     </row>
-    <row r="39" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="16">
+    <row r="40" spans="2:15" hidden="1">
+      <c r="B40" s="16">
         <v>2022</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C40" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D40" s="18">
         <f t="shared" si="1"/>
         <v>27514.741269999999</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E40" s="19">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F39" s="19">
+      <c r="F40" s="19">
         <v>33.442</v>
       </c>
-      <c r="G39" s="19">
+      <c r="G40" s="19">
         <v>8677.1650000000009</v>
       </c>
-      <c r="H39" s="19">
+      <c r="H40" s="19">
         <v>704.93700000000001</v>
       </c>
-      <c r="I39" s="19">
+      <c r="I40" s="19">
         <v>4385.1239999999998</v>
       </c>
-      <c r="J39" s="19">
+      <c r="J40" s="19">
         <v>3089.9090000000001</v>
       </c>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19">
+      <c r="K40" s="19"/>
+      <c r="L40" s="19">
         <v>7847.8879999999999</v>
       </c>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19">
+      <c r="M40" s="19"/>
+      <c r="N40" s="19">
         <v>761.38699999999994</v>
       </c>
-      <c r="O39" s="19">
+      <c r="O40" s="19">
         <v>2014.8862699999997</v>
       </c>
     </row>
-    <row r="40" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="12">
+    <row r="41" spans="2:15" hidden="1">
+      <c r="B41" s="12">
         <v>2022</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C41" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D41" s="14">
         <f t="shared" si="1"/>
         <v>30859.440460000002</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E41" s="15">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F40" s="15">
+      <c r="F41" s="15">
         <v>30.175999999999998</v>
       </c>
-      <c r="G40" s="15">
+      <c r="G41" s="15">
         <v>9761.2630000000008</v>
       </c>
-      <c r="H40" s="15">
+      <c r="H41" s="15">
         <v>1009.9829999999999</v>
       </c>
-      <c r="I40" s="15">
+      <c r="I41" s="15">
         <v>6578.5140000000001</v>
       </c>
-      <c r="J40" s="15">
+      <c r="J41" s="15">
         <v>3448.0540000000001</v>
       </c>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15">
+      <c r="K41" s="15"/>
+      <c r="L41" s="15">
         <v>7191.5020000000004</v>
       </c>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15">
+      <c r="M41" s="15"/>
+      <c r="N41" s="15">
         <v>742.69299999999998</v>
       </c>
-      <c r="O40" s="15">
+      <c r="O41" s="15">
         <v>2097.25146</v>
       </c>
     </row>
-    <row r="41" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="16">
+    <row r="42" spans="2:15" hidden="1">
+      <c r="B42" s="16">
         <v>2022</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C42" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="18">
+      <c r="D42" s="18">
         <f t="shared" si="1"/>
         <v>26857.410190000002</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E42" s="19">
         <v>0</v>
       </c>
-      <c r="F41" s="19">
+      <c r="F42" s="19">
         <v>26.463999999999999</v>
       </c>
-      <c r="G41" s="19">
+      <c r="G42" s="19">
         <v>8399.2009999999991</v>
       </c>
-      <c r="H41" s="19">
+      <c r="H42" s="19">
         <v>816.23900000000003</v>
       </c>
-      <c r="I41" s="19">
+      <c r="I42" s="19">
         <v>4488.2250000000004</v>
       </c>
-      <c r="J41" s="19">
+      <c r="J42" s="19">
         <v>3087.74</v>
       </c>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19">
+      <c r="K42" s="19"/>
+      <c r="L42" s="19">
         <v>7675.5219999999999</v>
       </c>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19">
+      <c r="M42" s="19"/>
+      <c r="N42" s="19">
         <v>680.0145</v>
       </c>
-      <c r="O41" s="19">
+      <c r="O42" s="19">
         <v>1684.00469</v>
       </c>
     </row>
-    <row r="42" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="20">
+    <row r="43" spans="2:15" hidden="1">
+      <c r="B43" s="20">
         <v>2022</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C43" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="22">
+      <c r="D43" s="22">
         <f t="shared" si="1"/>
         <v>26010.419900000001</v>
       </c>
-      <c r="E42" s="23">
+      <c r="E43" s="23">
         <v>0.01</v>
       </c>
-      <c r="F42" s="23">
+      <c r="F43" s="23">
         <v>29.917000000000002</v>
       </c>
-      <c r="G42" s="23">
+      <c r="G43" s="23">
         <v>8064.9719999999998</v>
       </c>
-      <c r="H42" s="23">
+      <c r="H43" s="23">
         <v>759.41499999999996</v>
       </c>
-      <c r="I42" s="23">
+      <c r="I43" s="23">
         <v>4874.95</v>
       </c>
-      <c r="J42" s="23">
+      <c r="J43" s="23">
         <v>3142.1970000000001</v>
       </c>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23">
+      <c r="K43" s="23"/>
+      <c r="L43" s="23">
         <v>6776.384</v>
       </c>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23">
+      <c r="M43" s="23"/>
+      <c r="N43" s="23">
         <v>751.90069999999992</v>
       </c>
-      <c r="O42" s="23">
+      <c r="O43" s="23">
         <v>1610.6742000000002</v>
       </c>
     </row>
-    <row r="43" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="24">
+    <row r="44" spans="2:15" hidden="1">
+      <c r="B44" s="24">
         <v>2021</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C44" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="26">
+      <c r="D44" s="26">
         <f t="shared" si="1"/>
         <v>31566.167749999997</v>
       </c>
-      <c r="E43" s="27">
+      <c r="E44" s="27">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F43" s="27">
+      <c r="F44" s="27">
         <v>37.055</v>
       </c>
-      <c r="G43" s="27">
+      <c r="G44" s="27">
         <v>9575.5380000000005</v>
       </c>
-      <c r="H43" s="27">
+      <c r="H44" s="27">
         <v>889.38</v>
       </c>
-      <c r="I43" s="27">
+      <c r="I44" s="27">
         <v>6288.674</v>
       </c>
-      <c r="J43" s="27">
+      <c r="J44" s="27">
         <v>4403.6390000000001</v>
       </c>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27">
+      <c r="K44" s="27"/>
+      <c r="L44" s="27">
         <v>7812.2049999999999</v>
       </c>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27">
+      <c r="M44" s="27"/>
+      <c r="N44" s="27">
         <v>644.26139999999998</v>
       </c>
-      <c r="O43" s="27">
+      <c r="O44" s="27">
         <v>1915.4123500000001</v>
       </c>
     </row>
-    <row r="44" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="12">
+    <row r="45" spans="2:15" hidden="1">
+      <c r="B45" s="12">
         <v>2021</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C45" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D45" s="14">
         <f t="shared" si="1"/>
         <v>29944.972509999996</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E45" s="15">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F44" s="15">
+      <c r="F45" s="15">
         <v>42.304000000000002</v>
       </c>
-      <c r="G44" s="15">
+      <c r="G45" s="15">
         <v>8541.3799999999992</v>
       </c>
-      <c r="H44" s="15">
+      <c r="H45" s="15">
         <v>797.55100000000004</v>
       </c>
-      <c r="I44" s="15">
+      <c r="I45" s="15">
         <v>5779.326</v>
       </c>
-      <c r="J44" s="15">
+      <c r="J45" s="15">
         <v>3742.5929999999998</v>
       </c>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15">
+      <c r="K45" s="15"/>
+      <c r="L45" s="15">
         <v>8308.2459999999992</v>
       </c>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15">
+      <c r="M45" s="15"/>
+      <c r="N45" s="15">
         <v>761.88139999999999</v>
       </c>
-      <c r="O44" s="15">
+      <c r="O45" s="15">
         <v>1971.6851100000001</v>
       </c>
     </row>
-    <row r="45" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="16">
+    <row r="46" spans="2:15" hidden="1">
+      <c r="B46" s="16">
         <v>2021</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C46" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D46" s="18">
         <f t="shared" si="1"/>
         <v>30000.867740000002</v>
       </c>
-      <c r="E45" s="19">
+      <c r="E46" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F45" s="19">
+      <c r="F46" s="19">
         <v>29.148</v>
       </c>
-      <c r="G45" s="19">
+      <c r="G46" s="19">
         <v>9141.5849999999991</v>
       </c>
-      <c r="H45" s="19">
+      <c r="H46" s="19">
         <v>935.53599999999994</v>
       </c>
-      <c r="I45" s="19">
+      <c r="I46" s="19">
         <v>5740.3919999999998</v>
       </c>
-      <c r="J45" s="19">
+      <c r="J46" s="19">
         <v>3221.6640000000002</v>
       </c>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19">
+      <c r="K46" s="19"/>
+      <c r="L46" s="19">
         <v>8292.1039999999994</v>
       </c>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19">
+      <c r="M46" s="19"/>
+      <c r="N46" s="19">
         <v>722.20399999999995</v>
       </c>
-      <c r="O45" s="19">
+      <c r="O46" s="19">
         <v>1918.2237399999999</v>
       </c>
     </row>
-    <row r="46" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="12">
+    <row r="47" spans="2:15" hidden="1">
+      <c r="B47" s="12">
         <v>2021</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C47" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D46" s="14">
-        <f t="shared" ref="D46:D77" si="3">SUM(E46:O46)</f>
+      <c r="D47" s="14">
+        <f t="shared" ref="D47:D78" si="3">SUM(E47:O47)</f>
         <v>25044.998970000004</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E47" s="15">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F46" s="15">
+      <c r="F47" s="15">
         <v>27.141999999999999</v>
       </c>
-      <c r="G46" s="15">
+      <c r="G47" s="15">
         <v>7906.91</v>
       </c>
-      <c r="H46" s="15">
+      <c r="H47" s="15">
         <v>875.76900000000001</v>
       </c>
-      <c r="I46" s="15">
+      <c r="I47" s="15">
         <v>4566.3109999999997</v>
       </c>
-      <c r="J46" s="15">
+      <c r="J47" s="15">
         <v>3115.0770000000002</v>
       </c>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15">
+      <c r="K47" s="15"/>
+      <c r="L47" s="15">
         <v>6415.2790000000005</v>
       </c>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15">
+      <c r="M47" s="15"/>
+      <c r="N47" s="15">
         <v>491.27</v>
       </c>
-      <c r="O46" s="15">
+      <c r="O47" s="15">
         <v>1647.23197</v>
       </c>
     </row>
-    <row r="47" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="16">
+    <row r="48" spans="2:15" hidden="1">
+      <c r="B48" s="16">
         <v>2021</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C48" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="18">
+      <c r="D48" s="18">
         <f t="shared" si="3"/>
         <v>26801.51179</v>
       </c>
-      <c r="E47" s="19">
+      <c r="E48" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F47" s="19">
+      <c r="F48" s="19">
         <v>26.024000000000001</v>
       </c>
-      <c r="G47" s="19">
+      <c r="G48" s="19">
         <v>7787.3339999999998</v>
       </c>
-      <c r="H47" s="19">
+      <c r="H48" s="19">
         <v>951.82</v>
       </c>
-      <c r="I47" s="19">
+      <c r="I48" s="19">
         <v>5861.0240000000003</v>
       </c>
-      <c r="J47" s="19">
+      <c r="J48" s="19">
         <v>2963.1660000000002</v>
       </c>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19">
+      <c r="K48" s="19"/>
+      <c r="L48" s="19">
         <v>6924.8339999999998</v>
       </c>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19">
+      <c r="M48" s="19"/>
+      <c r="N48" s="19">
         <v>590.37950000000001</v>
       </c>
-      <c r="O47" s="19">
+      <c r="O48" s="19">
         <v>1696.91929</v>
       </c>
     </row>
-    <row r="48" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="12">
+    <row r="49" spans="2:15" hidden="1">
+      <c r="B49" s="12">
         <v>2021</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C49" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D49" s="14">
         <f t="shared" si="3"/>
         <v>29570.534019999996</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E49" s="15">
         <v>1.6E-2</v>
       </c>
-      <c r="F48" s="15">
+      <c r="F49" s="15">
         <v>33.762999999999998</v>
       </c>
-      <c r="G48" s="15">
+      <c r="G49" s="15">
         <v>7960.9809999999998</v>
       </c>
-      <c r="H48" s="15">
+      <c r="H49" s="15">
         <v>980.41300000000001</v>
       </c>
-      <c r="I48" s="15">
+      <c r="I49" s="15">
         <v>6238.2730000000001</v>
       </c>
-      <c r="J48" s="15">
+      <c r="J49" s="15">
         <v>3189.866</v>
       </c>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15">
+      <c r="K49" s="15"/>
+      <c r="L49" s="15">
         <v>8884.8860000000004</v>
       </c>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15">
+      <c r="M49" s="15"/>
+      <c r="N49" s="15">
         <v>570.02250000000004</v>
       </c>
-      <c r="O48" s="15">
+      <c r="O49" s="15">
         <v>1712.3135199999999</v>
       </c>
     </row>
-    <row r="49" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="16">
+    <row r="50" spans="2:15" hidden="1">
+      <c r="B50" s="16">
         <v>2021</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C50" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="18">
+      <c r="D50" s="18">
         <f t="shared" si="3"/>
         <v>26984.257880000001</v>
       </c>
-      <c r="E49" s="19">
+      <c r="E50" s="19">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F49" s="19">
+      <c r="F50" s="19">
         <v>30.326000000000001</v>
       </c>
-      <c r="G49" s="19">
+      <c r="G50" s="19">
         <v>6994.8090000000002</v>
       </c>
-      <c r="H49" s="19">
+      <c r="H50" s="19">
         <v>938.22799999999995</v>
       </c>
-      <c r="I49" s="19">
+      <c r="I50" s="19">
         <v>5685.7610000000004</v>
       </c>
-      <c r="J49" s="19">
+      <c r="J50" s="19">
         <v>2933.55</v>
       </c>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19">
+      <c r="K50" s="19"/>
+      <c r="L50" s="19">
         <v>8239.3950000000004</v>
       </c>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19">
+      <c r="M50" s="19"/>
+      <c r="N50" s="19">
         <v>517.37900000000002</v>
       </c>
-      <c r="O49" s="19">
+      <c r="O50" s="19">
         <v>1644.78388</v>
       </c>
     </row>
-    <row r="50" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="12">
+    <row r="51" spans="2:15" hidden="1">
+      <c r="B51" s="12">
         <v>2021</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C51" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D51" s="14">
         <f t="shared" si="3"/>
         <v>27395.161769999999</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E51" s="15">
         <v>1.2E-2</v>
       </c>
-      <c r="F50" s="15">
+      <c r="F51" s="15">
         <v>34.064</v>
       </c>
-      <c r="G50" s="15">
+      <c r="G51" s="15">
         <v>5853.0280000000002</v>
       </c>
-      <c r="H50" s="15">
+      <c r="H51" s="15">
         <v>804.99099999999999</v>
       </c>
-      <c r="I50" s="15">
+      <c r="I51" s="15">
         <v>6221.6310000000003</v>
       </c>
-      <c r="J50" s="15">
+      <c r="J51" s="15">
         <v>2753.0189999999998</v>
       </c>
-      <c r="K50" s="15"/>
-      <c r="L50" s="15">
+      <c r="K51" s="15"/>
+      <c r="L51" s="15">
         <v>9369.7039999999997</v>
       </c>
-      <c r="M50" s="15"/>
-      <c r="N50" s="15">
+      <c r="M51" s="15"/>
+      <c r="N51" s="15">
         <v>581.25</v>
       </c>
-      <c r="O50" s="15">
+      <c r="O51" s="15">
         <v>1777.4627700000001</v>
       </c>
     </row>
-    <row r="51" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="16">
+    <row r="52" spans="2:15" hidden="1">
+      <c r="B52" s="16">
         <v>2021</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C52" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D52" s="18">
         <f t="shared" si="3"/>
         <v>26794.383829999999</v>
       </c>
-      <c r="E51" s="19">
+      <c r="E52" s="19">
         <v>1.4E-2</v>
       </c>
-      <c r="F51" s="19">
+      <c r="F52" s="19">
         <v>28.870999999999999</v>
       </c>
-      <c r="G51" s="19">
+      <c r="G52" s="19">
         <v>5583.2060000000001</v>
       </c>
-      <c r="H51" s="19">
+      <c r="H52" s="19">
         <v>855.89099999999996</v>
       </c>
-      <c r="I51" s="19">
+      <c r="I52" s="19">
         <v>5955.3379999999997</v>
       </c>
-      <c r="J51" s="19">
+      <c r="J52" s="19">
         <v>2553.587</v>
       </c>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19">
+      <c r="K52" s="19"/>
+      <c r="L52" s="19">
         <v>9635.8649999999998</v>
       </c>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19">
+      <c r="M52" s="19"/>
+      <c r="N52" s="19">
         <v>569.29200000000003</v>
       </c>
-      <c r="O51" s="19">
+      <c r="O52" s="19">
         <v>1612.3198300000001</v>
       </c>
     </row>
-    <row r="52" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="12">
+    <row r="53" spans="2:15" hidden="1">
+      <c r="B53" s="12">
         <v>2021</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C53" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="14">
+      <c r="D53" s="14">
         <f t="shared" si="3"/>
         <v>28888.855879999999</v>
       </c>
-      <c r="E52" s="15">
+      <c r="E53" s="15">
         <v>0.01</v>
       </c>
-      <c r="F52" s="15">
+      <c r="F53" s="15">
         <v>30.994</v>
       </c>
-      <c r="G52" s="15">
+      <c r="G53" s="15">
         <v>5972.1139999999996</v>
       </c>
-      <c r="H52" s="15">
+      <c r="H53" s="15">
         <v>961.24900000000002</v>
       </c>
-      <c r="I52" s="15">
+      <c r="I53" s="15">
         <v>6821.0630000000001</v>
       </c>
-      <c r="J52" s="15">
+      <c r="J53" s="15">
         <v>2527.971</v>
       </c>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15">
+      <c r="K53" s="15"/>
+      <c r="L53" s="15">
         <v>10350.735000000001</v>
       </c>
-      <c r="M52" s="15"/>
-      <c r="N52" s="15">
+      <c r="M53" s="15"/>
+      <c r="N53" s="15">
         <v>537.19399999999996</v>
       </c>
-      <c r="O52" s="15">
+      <c r="O53" s="15">
         <v>1687.5258799999999</v>
       </c>
     </row>
-    <row r="53" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="16">
+    <row r="54" spans="2:15" hidden="1">
+      <c r="B54" s="16">
         <v>2021</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C54" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="18">
+      <c r="D54" s="18">
         <f t="shared" si="3"/>
         <v>25842.507199999996</v>
       </c>
-      <c r="E53" s="19">
+      <c r="E54" s="19">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F53" s="19">
+      <c r="F54" s="19">
         <v>23.164999999999999</v>
       </c>
-      <c r="G53" s="19">
+      <c r="G54" s="19">
         <v>5676.3119999999999</v>
       </c>
-      <c r="H53" s="19">
+      <c r="H54" s="19">
         <v>842.12599999999998</v>
       </c>
-      <c r="I53" s="19">
+      <c r="I54" s="19">
         <v>6447.9210000000003</v>
       </c>
-      <c r="J53" s="19">
+      <c r="J54" s="19">
         <v>2143.1759999999999</v>
       </c>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19">
+      <c r="K54" s="19"/>
+      <c r="L54" s="19">
         <v>8771.1730000000007</v>
       </c>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19">
+      <c r="M54" s="19"/>
+      <c r="N54" s="19">
         <v>441.65600000000001</v>
       </c>
-      <c r="O53" s="19">
+      <c r="O54" s="19">
         <v>1496.9692</v>
       </c>
     </row>
-    <row r="54" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="20">
+    <row r="55" spans="2:15" hidden="1">
+      <c r="B55" s="20">
         <v>2021</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C55" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D54" s="22">
+      <c r="D55" s="22">
         <f t="shared" si="3"/>
         <v>26743.09706</v>
       </c>
-      <c r="E54" s="23">
+      <c r="E55" s="23">
         <v>2.3E-2</v>
       </c>
-      <c r="F54" s="23">
+      <c r="F55" s="23">
         <v>22.483000000000001</v>
       </c>
-      <c r="G54" s="23">
+      <c r="G55" s="23">
         <v>5633.7330000000002</v>
       </c>
-      <c r="H54" s="23">
+      <c r="H55" s="23">
         <v>893.20500000000004</v>
       </c>
-      <c r="I54" s="23">
+      <c r="I55" s="23">
         <v>5852.174</v>
       </c>
-      <c r="J54" s="23">
+      <c r="J55" s="23">
         <v>2714.6959999999999</v>
       </c>
-      <c r="K54" s="23"/>
-      <c r="L54" s="23">
+      <c r="K55" s="23"/>
+      <c r="L55" s="23">
         <v>9764.4040000000005</v>
       </c>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23">
+      <c r="M55" s="23"/>
+      <c r="N55" s="23">
         <v>374.46</v>
       </c>
-      <c r="O54" s="23">
+      <c r="O55" s="23">
         <v>1487.9190599999999</v>
       </c>
     </row>
-    <row r="55" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="24">
+    <row r="56" spans="2:15" hidden="1">
+      <c r="B56" s="24">
         <v>2020</v>
       </c>
-      <c r="C55" s="25" t="s">
+      <c r="C56" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D55" s="26">
+      <c r="D56" s="26">
         <f t="shared" si="3"/>
         <v>29335.748110000004</v>
       </c>
-      <c r="E55" s="27">
+      <c r="E56" s="27">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F55" s="27">
+      <c r="F56" s="27">
         <v>30.75</v>
       </c>
-      <c r="G55" s="27">
+      <c r="G56" s="27">
         <v>5388.74</v>
       </c>
-      <c r="H55" s="27">
+      <c r="H56" s="27">
         <v>1227.8499999999999</v>
       </c>
-      <c r="I55" s="27">
+      <c r="I56" s="27">
         <v>8063.0550000000003</v>
       </c>
-      <c r="J55" s="27">
+      <c r="J56" s="27">
         <v>3485.029</v>
       </c>
-      <c r="K55" s="27">
+      <c r="K56" s="27">
         <v>16.4115</v>
       </c>
-      <c r="L55" s="27">
+      <c r="L56" s="27">
         <v>8808.3330000000005</v>
       </c>
-      <c r="M55" s="27"/>
-      <c r="N55" s="27">
+      <c r="M56" s="27"/>
+      <c r="N56" s="27">
         <v>499.45499999999998</v>
       </c>
-      <c r="O55" s="27">
+      <c r="O56" s="27">
         <v>1816.0996100000002</v>
       </c>
     </row>
-    <row r="56" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="12">
+    <row r="57" spans="2:15" hidden="1">
+      <c r="B57" s="12">
         <v>2020</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C57" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D56" s="14">
+      <c r="D57" s="14">
         <f t="shared" si="3"/>
         <v>31111.598979999999</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E57" s="15">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="F56" s="15">
+      <c r="F57" s="15">
         <v>29.420999999999999</v>
       </c>
-      <c r="G56" s="15">
+      <c r="G57" s="15">
         <v>4646.3059999999996</v>
       </c>
-      <c r="H56" s="15">
+      <c r="H57" s="15">
         <v>918.31700000000001</v>
       </c>
-      <c r="I56" s="15">
+      <c r="I57" s="15">
         <v>10405.393</v>
       </c>
-      <c r="J56" s="15">
+      <c r="J57" s="15">
         <v>3080.1370000000002</v>
       </c>
-      <c r="K56" s="15">
+      <c r="K57" s="15">
         <v>86.034999999999997</v>
       </c>
-      <c r="L56" s="15">
+      <c r="L57" s="15">
         <v>9680.3340000000007</v>
       </c>
-      <c r="M56" s="15"/>
-      <c r="N56" s="15">
+      <c r="M57" s="15"/>
+      <c r="N57" s="15">
         <v>427.87200000000001</v>
       </c>
-      <c r="O56" s="15">
+      <c r="O57" s="15">
         <v>1837.75198</v>
       </c>
     </row>
-    <row r="57" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="16">
+    <row r="58" spans="2:15" hidden="1">
+      <c r="B58" s="16">
         <v>2020</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C58" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D57" s="18">
+      <c r="D58" s="18">
         <f t="shared" si="3"/>
         <v>29198.211449999999</v>
       </c>
-      <c r="E57" s="19">
+      <c r="E58" s="19">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F57" s="19">
+      <c r="F58" s="19">
         <v>25.18</v>
       </c>
-      <c r="G57" s="19">
+      <c r="G58" s="19">
         <v>4168.3999999999996</v>
       </c>
-      <c r="H57" s="19">
+      <c r="H58" s="19">
         <v>855.53599999999994</v>
       </c>
-      <c r="I57" s="19">
+      <c r="I58" s="19">
         <v>9141.11</v>
       </c>
-      <c r="J57" s="19">
+      <c r="J58" s="19">
         <v>2910.5740000000001</v>
       </c>
-      <c r="K57" s="19">
+      <c r="K58" s="19">
         <v>131.53100000000001</v>
       </c>
-      <c r="L57" s="19">
+      <c r="L58" s="19">
         <v>9811.7209999999995</v>
       </c>
-      <c r="M57" s="19"/>
-      <c r="N57" s="19">
+      <c r="M58" s="19"/>
+      <c r="N58" s="19">
         <v>328.78100000000001</v>
       </c>
-      <c r="O57" s="19">
+      <c r="O58" s="19">
         <v>1825.3604499999999</v>
       </c>
     </row>
-    <row r="58" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="12">
+    <row r="59" spans="2:15" hidden="1">
+      <c r="B59" s="12">
         <v>2020</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C59" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D58" s="14">
+      <c r="D59" s="14">
         <f t="shared" si="3"/>
         <v>25824.25403</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E59" s="15">
         <v>1.6E-2</v>
       </c>
-      <c r="F58" s="15">
+      <c r="F59" s="15">
         <v>19.38</v>
       </c>
-      <c r="G58" s="15">
+      <c r="G59" s="15">
         <v>3354.4870000000001</v>
       </c>
-      <c r="H58" s="15">
+      <c r="H59" s="15">
         <v>815.01599999999996</v>
       </c>
-      <c r="I58" s="15">
+      <c r="I59" s="15">
         <v>9094.2099999999991</v>
       </c>
-      <c r="J58" s="15">
+      <c r="J59" s="15">
         <v>2742.8449999999998</v>
       </c>
-      <c r="K58" s="15">
+      <c r="K59" s="15">
         <v>94.078000000000003</v>
       </c>
-      <c r="L58" s="15">
+      <c r="L59" s="15">
         <v>7889.5420000000004</v>
       </c>
-      <c r="M58" s="15"/>
-      <c r="N58" s="15">
+      <c r="M59" s="15"/>
+      <c r="N59" s="15">
         <v>300.25099999999998</v>
       </c>
-      <c r="O58" s="15">
+      <c r="O59" s="15">
         <v>1514.42903</v>
       </c>
     </row>
-    <row r="59" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="16">
+    <row r="60" spans="2:15" hidden="1">
+      <c r="B60" s="16">
         <v>2020</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C60" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D59" s="18">
+      <c r="D60" s="18">
         <f t="shared" si="3"/>
         <v>23354.829529999999</v>
       </c>
-      <c r="E59" s="19">
+      <c r="E60" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F59" s="19">
+      <c r="F60" s="19">
         <v>19.126000000000001</v>
       </c>
-      <c r="G59" s="19">
+      <c r="G60" s="19">
         <v>2845.2860000000001</v>
       </c>
-      <c r="H59" s="19">
+      <c r="H60" s="19">
         <v>913.84799999999996</v>
       </c>
-      <c r="I59" s="19">
+      <c r="I60" s="19">
         <v>8628.9339999999993</v>
       </c>
-      <c r="J59" s="19">
+      <c r="J60" s="19">
         <v>2494.9360000000001</v>
       </c>
-      <c r="K59" s="19">
+      <c r="K60" s="19">
         <v>102.148</v>
       </c>
-      <c r="L59" s="19">
+      <c r="L60" s="19">
         <v>6734.2569999999996</v>
       </c>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19">
+      <c r="M60" s="19"/>
+      <c r="N60" s="19">
         <v>214.13300000000001</v>
       </c>
-      <c r="O59" s="19">
+      <c r="O60" s="19">
         <v>1402.1505300000001</v>
       </c>
     </row>
-    <row r="60" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="12">
+    <row r="61" spans="2:15" hidden="1">
+      <c r="B61" s="12">
         <v>2020</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C61" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D60" s="14">
+      <c r="D61" s="14">
         <f t="shared" si="3"/>
         <v>19260.244039999998</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E61" s="15">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F60" s="15">
+      <c r="F61" s="15">
         <v>18.687000000000001</v>
       </c>
-      <c r="G60" s="15">
+      <c r="G61" s="15">
         <v>2326.4090000000001</v>
       </c>
-      <c r="H60" s="15">
+      <c r="H61" s="15">
         <v>969.73</v>
       </c>
-      <c r="I60" s="15">
+      <c r="I61" s="15">
         <v>5828.2169999999996</v>
       </c>
-      <c r="J60" s="15">
+      <c r="J61" s="15">
         <v>2394.4169999999999</v>
       </c>
-      <c r="K60" s="15">
+      <c r="K61" s="15">
         <v>76.744</v>
       </c>
-      <c r="L60" s="15">
+      <c r="L61" s="15">
         <v>6273.5619999999999</v>
       </c>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15">
+      <c r="M61" s="15"/>
+      <c r="N61" s="15">
         <v>151.30000000000001</v>
       </c>
-      <c r="O60" s="15">
+      <c r="O61" s="15">
         <v>1221.17004</v>
       </c>
     </row>
-    <row r="61" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="16">
+    <row r="62" spans="2:15" hidden="1">
+      <c r="B62" s="16">
         <v>2020</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C62" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D61" s="18">
+      <c r="D62" s="18">
         <f t="shared" si="3"/>
         <v>16681.950259999998</v>
       </c>
-      <c r="E61" s="19">
+      <c r="E62" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F61" s="19">
+      <c r="F62" s="19">
         <v>15.773</v>
       </c>
-      <c r="G61" s="19">
+      <c r="G62" s="19">
         <v>1336.4849999999999</v>
       </c>
-      <c r="H61" s="19">
+      <c r="H62" s="19">
         <v>585.92899999999997</v>
       </c>
-      <c r="I61" s="19">
+      <c r="I62" s="19">
         <v>5587.4769999999999</v>
       </c>
-      <c r="J61" s="19">
+      <c r="J62" s="19">
         <v>2256.6930000000002</v>
       </c>
-      <c r="K61" s="19">
+      <c r="K62" s="19">
         <v>42.146999999999998</v>
       </c>
-      <c r="L61" s="19">
+      <c r="L62" s="19">
         <v>5744.8710000000001</v>
       </c>
-      <c r="M61" s="19"/>
-      <c r="N61" s="19">
+      <c r="M62" s="19"/>
+      <c r="N62" s="19">
         <v>118.29600000000001</v>
       </c>
-      <c r="O61" s="19">
+      <c r="O62" s="19">
         <v>994.26826000000005</v>
       </c>
     </row>
-    <row r="62" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="12">
+    <row r="63" spans="2:15" hidden="1">
+      <c r="B63" s="12">
         <v>2020</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C63" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D62" s="14">
+      <c r="D63" s="14">
         <f t="shared" si="3"/>
         <v>15536.86291</v>
       </c>
-      <c r="E62" s="15">
+      <c r="E63" s="15">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F62" s="15">
+      <c r="F63" s="15">
         <v>9.4559999999999995</v>
       </c>
-      <c r="G62" s="15">
+      <c r="G63" s="15">
         <v>799.72500000000002</v>
       </c>
-      <c r="H62" s="15">
+      <c r="H63" s="15">
         <v>697.28700000000003</v>
       </c>
-      <c r="I62" s="15">
+      <c r="I63" s="15">
         <v>5542.4840000000004</v>
       </c>
-      <c r="J62" s="15">
+      <c r="J63" s="15">
         <v>2132.3310000000001</v>
       </c>
-      <c r="K62" s="15">
+      <c r="K63" s="15">
         <v>69.804000000000002</v>
       </c>
-      <c r="L62" s="15">
+      <c r="L63" s="15">
         <v>5558.576</v>
       </c>
-      <c r="M62" s="15"/>
-      <c r="N62" s="15">
+      <c r="M63" s="15"/>
+      <c r="N63" s="15">
         <v>143.20510000000002</v>
       </c>
-      <c r="O62" s="15">
+      <c r="O63" s="15">
         <v>583.9918100000001</v>
       </c>
     </row>
-    <row r="63" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="16">
+    <row r="64" spans="2:15" hidden="1">
+      <c r="B64" s="16">
         <v>2020</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C64" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D63" s="18">
+      <c r="D64" s="18">
         <f t="shared" si="3"/>
         <v>13161.648870000003</v>
       </c>
-      <c r="E63" s="19">
+      <c r="E64" s="19">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F63" s="19">
+      <c r="F64" s="19">
         <v>7.4619999999999997</v>
       </c>
-      <c r="G63" s="19">
+      <c r="G64" s="19">
         <v>1038.125</v>
       </c>
-      <c r="H63" s="19">
+      <c r="H64" s="19">
         <v>754.48400000000004</v>
       </c>
-      <c r="I63" s="19">
+      <c r="I64" s="19">
         <v>5034.1760000000004</v>
       </c>
-      <c r="J63" s="19">
+      <c r="J64" s="19">
         <v>1894.93</v>
       </c>
-      <c r="K63" s="19">
+      <c r="K64" s="19">
         <v>59.36</v>
       </c>
-      <c r="L63" s="19">
+      <c r="L64" s="19">
         <v>3753.6880000000001</v>
       </c>
-      <c r="M63" s="19"/>
-      <c r="N63" s="19">
+      <c r="M64" s="19"/>
+      <c r="N64" s="19">
         <v>60.6843</v>
       </c>
-      <c r="O63" s="19">
+      <c r="O64" s="19">
         <v>558.7325699999999</v>
       </c>
     </row>
-    <row r="64" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="12">
+    <row r="65" spans="2:15" hidden="1">
+      <c r="B65" s="12">
         <v>2020</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C65" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D64" s="14">
+      <c r="D65" s="14">
         <f t="shared" si="3"/>
         <v>22714.14399</v>
       </c>
-      <c r="E64" s="15">
+      <c r="E65" s="15">
         <v>3.1E-2</v>
       </c>
-      <c r="F64" s="15">
+      <c r="F65" s="15">
         <v>35.988999999999997</v>
       </c>
-      <c r="G64" s="15">
+      <c r="G65" s="15">
         <v>7356.9930000000004</v>
       </c>
-      <c r="H64" s="15">
+      <c r="H65" s="15">
         <v>1318.52</v>
       </c>
-      <c r="I64" s="15">
+      <c r="I65" s="15">
         <v>4797.09</v>
       </c>
-      <c r="J64" s="15">
+      <c r="J65" s="15">
         <v>1722.712</v>
       </c>
-      <c r="K64" s="15">
+      <c r="K65" s="15">
         <v>1659.4059999999999</v>
       </c>
-      <c r="L64" s="15">
+      <c r="L65" s="15">
         <v>4510.4480000000003</v>
       </c>
-      <c r="M64" s="15"/>
-      <c r="N64" s="15">
+      <c r="M65" s="15"/>
+      <c r="N65" s="15">
         <v>102.3022</v>
       </c>
-      <c r="O64" s="15">
+      <c r="O65" s="15">
         <v>1210.6527900000001</v>
       </c>
     </row>
-    <row r="65" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="16">
+    <row r="66" spans="2:15" hidden="1">
+      <c r="B66" s="16">
         <v>2020</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="C66" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="18">
+      <c r="D66" s="18">
         <f t="shared" si="3"/>
         <v>23622.028510000007</v>
       </c>
-      <c r="E65" s="19">
+      <c r="E66" s="19">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F65" s="19">
+      <c r="F66" s="19">
         <v>56.369</v>
       </c>
-      <c r="G65" s="19">
+      <c r="G66" s="19">
         <v>9237.1190000000006</v>
       </c>
-      <c r="H65" s="19">
+      <c r="H66" s="19">
         <v>1428.3530000000001</v>
       </c>
-      <c r="I65" s="19">
+      <c r="I66" s="19">
         <v>3273.0720000000001</v>
       </c>
-      <c r="J65" s="19">
+      <c r="J66" s="19">
         <v>1520.239</v>
       </c>
-      <c r="K65" s="19">
+      <c r="K66" s="19">
         <v>2283.7510000000002</v>
       </c>
-      <c r="L65" s="19">
+      <c r="L66" s="19">
         <v>4116.8599999999997</v>
       </c>
-      <c r="M65" s="19"/>
-      <c r="N65" s="19">
+      <c r="M66" s="19"/>
+      <c r="N66" s="19">
         <v>132.3349</v>
       </c>
-      <c r="O65" s="19">
+      <c r="O66" s="19">
         <v>1573.90461</v>
       </c>
     </row>
-    <row r="66" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="20">
+    <row r="67" spans="2:15" hidden="1">
+      <c r="B67" s="20">
         <v>2020</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C67" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="22">
+      <c r="D67" s="22">
         <f t="shared" si="3"/>
         <v>26687.883509999996</v>
       </c>
-      <c r="E66" s="23">
+      <c r="E67" s="23">
         <v>4.7E-2</v>
       </c>
-      <c r="F66" s="23">
+      <c r="F67" s="23">
         <v>53.219000000000001</v>
       </c>
-      <c r="G66" s="23">
+      <c r="G67" s="23">
         <v>8754.5229999999992</v>
       </c>
-      <c r="H66" s="23">
+      <c r="H67" s="23">
         <v>1369.674</v>
       </c>
-      <c r="I66" s="23">
+      <c r="I67" s="23">
         <v>5338.8549999999996</v>
       </c>
-      <c r="J66" s="23">
+      <c r="J67" s="23">
         <v>1679.8140000000001</v>
       </c>
-      <c r="K66" s="23">
+      <c r="K67" s="23">
         <v>2456.4389999999999</v>
       </c>
-      <c r="L66" s="23">
+      <c r="L67" s="23">
         <v>5287.6</v>
       </c>
-      <c r="M66" s="23"/>
-      <c r="N66" s="23">
+      <c r="M67" s="23"/>
+      <c r="N67" s="23">
         <v>71.972800000000007</v>
       </c>
-      <c r="O66" s="23">
+      <c r="O67" s="23">
         <v>1675.7397100000001</v>
       </c>
     </row>
-    <row r="67" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="24">
+    <row r="68" spans="2:15" hidden="1">
+      <c r="B68" s="24">
         <v>2019</v>
       </c>
-      <c r="C67" s="25" t="s">
+      <c r="C68" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="26">
+      <c r="D68" s="26">
         <f t="shared" si="3"/>
         <v>31427.187729999998</v>
       </c>
-      <c r="E67" s="27">
+      <c r="E68" s="27">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="F67" s="27">
+      <c r="F68" s="27">
         <v>86.153999999999996</v>
       </c>
-      <c r="G67" s="27">
+      <c r="G68" s="27">
         <v>9577.1149999999998</v>
       </c>
-      <c r="H67" s="27">
+      <c r="H68" s="27">
         <v>1676.4159999999999</v>
       </c>
-      <c r="I67" s="27">
+      <c r="I68" s="27">
         <v>6029.0749999999998</v>
       </c>
-      <c r="J67" s="27">
+      <c r="J68" s="27">
         <v>2445.3470000000002</v>
       </c>
-      <c r="K67" s="27">
+      <c r="K68" s="27">
         <v>2928.4569999999999</v>
       </c>
-      <c r="L67" s="27">
+      <c r="L68" s="27">
         <v>5030.2939999999999</v>
       </c>
-      <c r="M67" s="27"/>
-      <c r="N67" s="27">
+      <c r="M68" s="27"/>
+      <c r="N68" s="27">
         <v>65.746300000000005</v>
       </c>
-      <c r="O67" s="27">
+      <c r="O68" s="27">
         <v>3588.5074299999997</v>
       </c>
     </row>
-    <row r="68" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="12">
+    <row r="69" spans="2:15" hidden="1">
+      <c r="B69" s="12">
         <v>2019</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C69" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="14">
+      <c r="D69" s="14">
         <f t="shared" si="3"/>
         <v>31763.522410000001</v>
       </c>
-      <c r="E68" s="15">
+      <c r="E69" s="15">
         <v>1.76</v>
       </c>
-      <c r="F68" s="15">
+      <c r="F69" s="15">
         <v>80.100999999999999</v>
       </c>
-      <c r="G68" s="15">
+      <c r="G69" s="15">
         <v>9752.0519999999997</v>
       </c>
-      <c r="H68" s="15">
+      <c r="H69" s="15">
         <v>1595.383</v>
       </c>
-      <c r="I68" s="15">
+      <c r="I69" s="15">
         <v>5103.0559999999996</v>
       </c>
-      <c r="J68" s="15">
+      <c r="J69" s="15">
         <v>2658.252</v>
       </c>
-      <c r="K68" s="15">
+      <c r="K69" s="15">
         <v>3015.0219999999999</v>
       </c>
-      <c r="L68" s="15">
+      <c r="L69" s="15">
         <v>5793.69</v>
       </c>
-      <c r="M68" s="15"/>
-      <c r="N68" s="15">
+      <c r="M69" s="15"/>
+      <c r="N69" s="15">
         <v>12.758299999999998</v>
       </c>
-      <c r="O68" s="15">
+      <c r="O69" s="15">
         <v>3751.4481100000003</v>
       </c>
     </row>
-    <row r="69" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="16">
+    <row r="70" spans="2:15" hidden="1">
+      <c r="B70" s="16">
         <v>2019</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="C70" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="18">
+      <c r="D70" s="18">
         <f t="shared" si="3"/>
         <v>31229.518959999994</v>
       </c>
-      <c r="E69" s="19">
+      <c r="E70" s="19">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="F69" s="19">
+      <c r="F70" s="19">
         <v>72</v>
       </c>
-      <c r="G69" s="19">
+      <c r="G70" s="19">
         <v>9994.6419999999998</v>
       </c>
-      <c r="H69" s="19">
+      <c r="H70" s="19">
         <v>1608.7059999999999</v>
       </c>
-      <c r="I69" s="19">
+      <c r="I70" s="19">
         <v>4575.3310000000001</v>
       </c>
-      <c r="J69" s="19">
+      <c r="J70" s="19">
         <v>2828.3510000000001</v>
       </c>
-      <c r="K69" s="19">
+      <c r="K70" s="19">
         <v>2682.761</v>
       </c>
-      <c r="L69" s="19">
+      <c r="L70" s="19">
         <v>5549.9949999999999</v>
       </c>
-      <c r="M69" s="19"/>
-      <c r="N69" s="19"/>
-      <c r="O69" s="19">
+      <c r="M70" s="19"/>
+      <c r="N70" s="19"/>
+      <c r="O70" s="19">
         <v>3917.6479599999998</v>
       </c>
     </row>
-    <row r="70" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="12">
+    <row r="71" spans="2:15" hidden="1">
+      <c r="B71" s="12">
         <v>2019</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C71" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="14">
+      <c r="D71" s="14">
         <f t="shared" si="3"/>
         <v>29172.540249999998</v>
       </c>
-      <c r="E70" s="15">
+      <c r="E71" s="15">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F70" s="15">
+      <c r="F71" s="15">
         <v>54.752000000000002</v>
       </c>
-      <c r="G70" s="15">
+      <c r="G71" s="15">
         <v>9010.31</v>
       </c>
-      <c r="H70" s="15">
+      <c r="H71" s="15">
         <v>1396.2560000000001</v>
       </c>
-      <c r="I70" s="15">
+      <c r="I71" s="15">
         <v>5775.3389999999999</v>
       </c>
-      <c r="J70" s="15">
+      <c r="J71" s="15">
         <v>2331.1950000000002</v>
       </c>
-      <c r="K70" s="15">
+      <c r="K71" s="15">
         <v>2334.8119999999999</v>
       </c>
-      <c r="L70" s="15">
+      <c r="L71" s="15">
         <v>4893.7089999999998</v>
       </c>
-      <c r="M70" s="15"/>
-      <c r="N70" s="15"/>
-      <c r="O70" s="15">
+      <c r="M71" s="15"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="15">
         <v>3376.1322500000001</v>
       </c>
     </row>
-    <row r="71" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="16">
+    <row r="72" spans="2:15" hidden="1">
+      <c r="B72" s="16">
         <v>2019</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="C72" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D71" s="18">
+      <c r="D72" s="18">
         <f t="shared" si="3"/>
         <v>28718.377859999997</v>
       </c>
-      <c r="E71" s="19">
+      <c r="E72" s="19">
         <v>5.59633</v>
       </c>
-      <c r="F71" s="19">
+      <c r="F72" s="19">
         <v>57.29</v>
       </c>
-      <c r="G71" s="19">
+      <c r="G72" s="19">
         <v>8610.5910000000003</v>
       </c>
-      <c r="H71" s="19">
+      <c r="H72" s="19">
         <v>1665.9570000000001</v>
       </c>
-      <c r="I71" s="19">
+      <c r="I72" s="19">
         <v>5196.0309999999999</v>
       </c>
-      <c r="J71" s="19">
+      <c r="J72" s="19">
         <v>2672.4050000000002</v>
       </c>
-      <c r="K71" s="19">
+      <c r="K72" s="19">
         <v>2511.7330000000002</v>
       </c>
-      <c r="L71" s="19">
+      <c r="L72" s="19">
         <v>4774.3459999999995</v>
       </c>
-      <c r="M71" s="19"/>
-      <c r="N71" s="19"/>
-      <c r="O71" s="19">
+      <c r="M72" s="19"/>
+      <c r="N72" s="19"/>
+      <c r="O72" s="19">
         <v>3224.4285300000001</v>
       </c>
     </row>
-    <row r="72" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="12">
+    <row r="73" spans="2:15" hidden="1">
+      <c r="B73" s="12">
         <v>2019</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C73" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D72" s="14">
+      <c r="D73" s="14">
         <f t="shared" si="3"/>
         <v>28707.78629</v>
       </c>
-      <c r="E72" s="15">
+      <c r="E73" s="15">
         <v>6.0529999999999999</v>
       </c>
-      <c r="F72" s="15">
+      <c r="F73" s="15">
         <v>57.801000000000002</v>
       </c>
-      <c r="G72" s="15">
+      <c r="G73" s="15">
         <v>8986.9670000000006</v>
       </c>
-      <c r="H72" s="15">
+      <c r="H73" s="15">
         <v>1788.191</v>
       </c>
-      <c r="I72" s="15">
+      <c r="I73" s="15">
         <v>5135.1639999999998</v>
       </c>
-      <c r="J72" s="15">
+      <c r="J73" s="15">
         <v>2578.5520000000001</v>
       </c>
-      <c r="K72" s="15">
+      <c r="K73" s="15">
         <v>2341.8049999999998</v>
       </c>
-      <c r="L72" s="15">
+      <c r="L73" s="15">
         <v>4798.0159999999996</v>
       </c>
-      <c r="M72" s="15"/>
-      <c r="N72" s="15"/>
-      <c r="O72" s="15">
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="15">
         <v>3015.23729</v>
       </c>
     </row>
-    <row r="73" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="16">
+    <row r="74" spans="2:15" hidden="1">
+      <c r="B74" s="16">
         <v>2019</v>
       </c>
-      <c r="C73" s="17" t="s">
+      <c r="C74" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="18">
+      <c r="D74" s="18">
         <f t="shared" si="3"/>
         <v>27292.410609999999</v>
       </c>
-      <c r="E73" s="19">
+      <c r="E74" s="19">
         <v>5.46</v>
       </c>
-      <c r="F73" s="19">
+      <c r="F74" s="19">
         <v>55.997999999999998</v>
       </c>
-      <c r="G73" s="19">
+      <c r="G74" s="19">
         <v>8069.7749999999996</v>
       </c>
-      <c r="H73" s="19">
+      <c r="H74" s="19">
         <v>1587.973</v>
       </c>
-      <c r="I73" s="19">
+      <c r="I74" s="19">
         <v>5215.268</v>
       </c>
-      <c r="J73" s="19">
+      <c r="J74" s="19">
         <v>2428.5169999999998</v>
       </c>
-      <c r="K73" s="19">
+      <c r="K74" s="19">
         <v>2360.0700000000002</v>
       </c>
-      <c r="L73" s="19">
+      <c r="L74" s="19">
         <v>4450.9750000000004</v>
       </c>
-      <c r="M73" s="19"/>
-      <c r="N73" s="19"/>
-      <c r="O73" s="19">
+      <c r="M74" s="19"/>
+      <c r="N74" s="19"/>
+      <c r="O74" s="19">
         <v>3118.3746100000003</v>
       </c>
     </row>
-    <row r="74" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="12">
+    <row r="75" spans="2:15" hidden="1">
+      <c r="B75" s="12">
         <v>2019</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C75" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="14">
+      <c r="D75" s="14">
         <f t="shared" si="3"/>
         <v>29113.054540000001</v>
       </c>
-      <c r="E74" s="15">
+      <c r="E75" s="15">
         <v>6.2110000000000003</v>
       </c>
-      <c r="F74" s="15">
+      <c r="F75" s="15">
         <v>67.53</v>
       </c>
-      <c r="G74" s="15">
+      <c r="G75" s="15">
         <v>8472.9789999999994</v>
       </c>
-      <c r="H74" s="15">
+      <c r="H75" s="15">
         <v>1708.221</v>
       </c>
-      <c r="I74" s="15">
+      <c r="I75" s="15">
         <v>5081.5749999999998</v>
       </c>
-      <c r="J74" s="15">
+      <c r="J75" s="15">
         <v>2646.9789999999998</v>
       </c>
-      <c r="K74" s="15">
+      <c r="K75" s="15">
         <v>2406.2260000000001</v>
       </c>
-      <c r="L74" s="15">
+      <c r="L75" s="15">
         <v>5332.5439999999999</v>
       </c>
-      <c r="M74" s="15"/>
-      <c r="N74" s="15"/>
-      <c r="O74" s="15">
+      <c r="M75" s="15"/>
+      <c r="N75" s="15"/>
+      <c r="O75" s="15">
         <v>3390.7895400000002</v>
       </c>
     </row>
-    <row r="75" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="16">
+    <row r="76" spans="2:15" hidden="1">
+      <c r="B76" s="16">
         <v>2019</v>
       </c>
-      <c r="C75" s="17" t="s">
+      <c r="C76" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D75" s="18">
+      <c r="D76" s="18">
         <f t="shared" si="3"/>
         <v>31250.364179999997</v>
       </c>
-      <c r="E75" s="19">
+      <c r="E76" s="19">
         <v>7.8460000000000001</v>
       </c>
-      <c r="F75" s="19">
+      <c r="F76" s="19">
         <v>56.534999999999997</v>
       </c>
-      <c r="G75" s="19">
+      <c r="G76" s="19">
         <v>8624.3449999999993</v>
       </c>
-      <c r="H75" s="19">
+      <c r="H76" s="19">
         <v>1621.0229999999999</v>
       </c>
-      <c r="I75" s="19">
+      <c r="I76" s="19">
         <v>8671.3349999999991</v>
       </c>
-      <c r="J75" s="19">
+      <c r="J76" s="19">
         <v>2304.8890000000001</v>
       </c>
-      <c r="K75" s="19">
+      <c r="K76" s="19">
         <v>2447.4609999999998</v>
       </c>
-      <c r="L75" s="19">
+      <c r="L76" s="19">
         <v>4465.5820000000003</v>
       </c>
-      <c r="M75" s="19"/>
-      <c r="N75" s="19"/>
-      <c r="O75" s="19">
+      <c r="M76" s="19"/>
+      <c r="N76" s="19"/>
+      <c r="O76" s="19">
         <v>3051.34818</v>
       </c>
     </row>
-    <row r="76" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="12">
+    <row r="77" spans="2:15" hidden="1">
+      <c r="B77" s="12">
         <v>2019</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C77" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D76" s="14">
+      <c r="D77" s="14">
         <f t="shared" si="3"/>
         <v>31365.490560000002</v>
       </c>
-      <c r="E76" s="15">
+      <c r="E77" s="15">
         <v>5.36</v>
       </c>
-      <c r="F76" s="15">
+      <c r="F77" s="15">
         <v>59.417999999999999</v>
       </c>
-      <c r="G76" s="15">
+      <c r="G77" s="15">
         <v>9153.4</v>
       </c>
-      <c r="H76" s="15">
+      <c r="H77" s="15">
         <v>1573.4939999999999</v>
       </c>
-      <c r="I76" s="15">
+      <c r="I77" s="15">
         <v>7744.9759999999997</v>
       </c>
-      <c r="J76" s="15">
+      <c r="J77" s="15">
         <v>2483.4180000000001</v>
       </c>
-      <c r="K76" s="15">
+      <c r="K77" s="15">
         <v>2376.971</v>
       </c>
-      <c r="L76" s="15">
+      <c r="L77" s="15">
         <v>4955.9579999999996</v>
       </c>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="15">
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15">
         <v>3012.4955599999998</v>
       </c>
     </row>
-    <row r="77" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="16">
+    <row r="78" spans="2:15" hidden="1">
+      <c r="B78" s="16">
         <v>2019</v>
       </c>
-      <c r="C77" s="17" t="s">
+      <c r="C78" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D77" s="18">
+      <c r="D78" s="18">
         <f t="shared" si="3"/>
         <v>27676.571899999999</v>
       </c>
-      <c r="E77" s="19">
+      <c r="E78" s="19">
         <v>5.3540000000000001</v>
       </c>
-      <c r="F77" s="19">
+      <c r="F78" s="19">
         <v>60.44</v>
       </c>
-      <c r="G77" s="19">
+      <c r="G78" s="19">
         <v>8240.6730000000007</v>
       </c>
-      <c r="H77" s="19">
+      <c r="H78" s="19">
         <v>1223.51</v>
       </c>
-      <c r="I77" s="19">
+      <c r="I78" s="19">
         <v>6582.1109999999999</v>
       </c>
-      <c r="J77" s="19">
+      <c r="J78" s="19">
         <v>2315.9119999999998</v>
       </c>
-      <c r="K77" s="19">
+      <c r="K78" s="19">
         <v>2451.8209999999999</v>
       </c>
-      <c r="L77" s="19">
+      <c r="L78" s="19">
         <v>3688.9839999999999</v>
       </c>
-      <c r="M77" s="19"/>
-      <c r="N77" s="19"/>
-      <c r="O77" s="19">
+      <c r="M78" s="19"/>
+      <c r="N78" s="19"/>
+      <c r="O78" s="19">
         <v>3107.7669000000001</v>
       </c>
     </row>
-    <row r="78" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="20">
+    <row r="79" spans="2:15" hidden="1">
+      <c r="B79" s="20">
         <v>2019</v>
       </c>
-      <c r="C78" s="21" t="s">
+      <c r="C79" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D78" s="22">
-        <f t="shared" ref="D78:D90" si="4">SUM(E78:O78)</f>
+      <c r="D79" s="22">
+        <f t="shared" ref="D79:D91" si="4">SUM(E79:O79)</f>
         <v>31729.582690000007</v>
       </c>
-      <c r="E78" s="23">
+      <c r="E79" s="23">
         <v>6.7610000000000001</v>
       </c>
-      <c r="F78" s="23">
+      <c r="F79" s="23">
         <v>74.009</v>
       </c>
-      <c r="G78" s="23">
+      <c r="G79" s="23">
         <v>7747.527</v>
       </c>
-      <c r="H78" s="23">
+      <c r="H79" s="23">
         <v>1196.4000000000001</v>
       </c>
-      <c r="I78" s="23">
+      <c r="I79" s="23">
         <v>8376.51</v>
       </c>
-      <c r="J78" s="23">
+      <c r="J79" s="23">
         <v>2613.239</v>
       </c>
-      <c r="K78" s="23">
+      <c r="K79" s="23">
         <v>4476.8249999999998</v>
       </c>
-      <c r="L78" s="23">
+      <c r="L79" s="23">
         <v>3965.1860000000001</v>
       </c>
-      <c r="M78" s="23"/>
-      <c r="N78" s="23"/>
-      <c r="O78" s="23">
+      <c r="M79" s="23"/>
+      <c r="N79" s="23"/>
+      <c r="O79" s="23">
         <v>3273.1256899999998</v>
       </c>
     </row>
-    <row r="79" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="17">
+    <row r="80" spans="2:15" hidden="1">
+      <c r="B80" s="17">
         <v>2018</v>
       </c>
-      <c r="C79" s="17" t="s">
+      <c r="C80" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D79" s="18">
+      <c r="D80" s="18">
         <f t="shared" si="4"/>
         <v>27825.537</v>
       </c>
-      <c r="E79" s="19">
+      <c r="E80" s="19">
         <v>11.624000000000001</v>
       </c>
-      <c r="F79" s="19">
+      <c r="F80" s="19">
         <v>93.391999999999996</v>
       </c>
-      <c r="G79" s="19">
+      <c r="G80" s="19">
         <v>8828.0380000000005</v>
       </c>
-      <c r="H79" s="19">
+      <c r="H80" s="19">
         <v>1419.221</v>
       </c>
-      <c r="I79" s="19">
+      <c r="I80" s="19">
         <v>8160.1949999999997</v>
       </c>
-      <c r="J79" s="19">
+      <c r="J80" s="19">
         <v>2550.1379999999999</v>
       </c>
-      <c r="K79" s="19">
+      <c r="K80" s="19">
         <v>2539.4380000000001</v>
       </c>
-      <c r="L79" s="19">
+      <c r="L80" s="19">
         <v>4208.37</v>
       </c>
-      <c r="M79" s="19"/>
-      <c r="N79" s="19"/>
-      <c r="O79" s="19">
+      <c r="M80" s="19"/>
+      <c r="N80" s="19"/>
+      <c r="O80" s="19">
         <v>15.121</v>
       </c>
     </row>
-    <row r="80" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="13">
+    <row r="81" spans="2:15" hidden="1">
+      <c r="B81" s="13">
         <v>2018</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C81" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D80" s="14">
+      <c r="D81" s="14">
         <f t="shared" si="4"/>
         <v>30438.187000000005</v>
       </c>
-      <c r="E80" s="15">
+      <c r="E81" s="15">
         <v>9.8219999999999992</v>
       </c>
-      <c r="F80" s="15">
+      <c r="F81" s="15">
         <v>90.676000000000002</v>
       </c>
-      <c r="G80" s="15">
+      <c r="G81" s="15">
         <v>9033.7459999999992</v>
       </c>
-      <c r="H80" s="15">
+      <c r="H81" s="15">
         <v>1677.8789999999999</v>
       </c>
-      <c r="I80" s="15">
+      <c r="I81" s="15">
         <v>9087.1730000000007</v>
       </c>
-      <c r="J80" s="15">
+      <c r="J81" s="15">
         <v>2973.703</v>
       </c>
-      <c r="K80" s="15">
+      <c r="K81" s="15">
         <v>2449.9479999999999</v>
       </c>
-      <c r="L80" s="15">
+      <c r="L81" s="15">
         <v>5104.8959999999997</v>
       </c>
-      <c r="M80" s="15"/>
-      <c r="N80" s="15"/>
-      <c r="O80" s="15">
+      <c r="M81" s="15"/>
+      <c r="N81" s="15"/>
+      <c r="O81" s="15">
         <v>10.343999999999999</v>
       </c>
     </row>
-    <row r="81" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="17">
+    <row r="82" spans="2:15" hidden="1">
+      <c r="B82" s="17">
         <v>2018</v>
       </c>
-      <c r="C81" s="17" t="s">
+      <c r="C82" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D81" s="18">
+      <c r="D82" s="18">
         <f t="shared" si="4"/>
         <v>30428.691999999999</v>
       </c>
-      <c r="E81" s="19">
+      <c r="E82" s="19">
         <v>8.2870000000000008</v>
       </c>
-      <c r="F81" s="19">
+      <c r="F82" s="19">
         <v>78.7</v>
       </c>
-      <c r="G81" s="19">
+      <c r="G82" s="19">
         <v>8819.0689999999995</v>
       </c>
-      <c r="H81" s="19">
+      <c r="H82" s="19">
         <v>1516.8230000000001</v>
       </c>
-      <c r="I81" s="19">
+      <c r="I82" s="19">
         <v>9777.8709999999992</v>
       </c>
-      <c r="J81" s="19">
+      <c r="J82" s="19">
         <v>2987.6489999999999</v>
       </c>
-      <c r="K81" s="19">
+      <c r="K82" s="19">
         <v>1751.569</v>
       </c>
-      <c r="L81" s="19">
+      <c r="L82" s="19">
         <v>5477.6930000000002</v>
       </c>
-      <c r="M81" s="19"/>
-      <c r="N81" s="19"/>
-      <c r="O81" s="19">
+      <c r="M82" s="19"/>
+      <c r="N82" s="19"/>
+      <c r="O82" s="19">
         <v>11.031000000000001</v>
       </c>
     </row>
-    <row r="82" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="13">
+    <row r="83" spans="2:15" hidden="1">
+      <c r="B83" s="13">
         <v>2018</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C83" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D82" s="14">
+      <c r="D83" s="14">
         <f t="shared" si="4"/>
         <v>27010.514999999999</v>
       </c>
-      <c r="E82" s="15">
+      <c r="E83" s="15">
         <v>10.707000000000001</v>
       </c>
-      <c r="F82" s="15">
+      <c r="F83" s="15">
         <v>62.167000000000002</v>
       </c>
-      <c r="G82" s="15">
+      <c r="G83" s="15">
         <v>8102.4960000000001</v>
       </c>
-      <c r="H82" s="15">
+      <c r="H83" s="15">
         <v>1416.539</v>
       </c>
-      <c r="I82" s="15">
+      <c r="I83" s="15">
         <v>8463.5859999999993</v>
       </c>
-      <c r="J82" s="15">
+      <c r="J83" s="15">
         <v>2463.84</v>
       </c>
-      <c r="K82" s="15">
+      <c r="K83" s="15">
         <v>1662.82</v>
       </c>
-      <c r="L82" s="15">
+      <c r="L83" s="15">
         <v>4814.68</v>
       </c>
-      <c r="M82" s="15"/>
-      <c r="N82" s="15"/>
-      <c r="O82" s="15">
+      <c r="M83" s="15"/>
+      <c r="N83" s="15"/>
+      <c r="O83" s="15">
         <v>13.68</v>
       </c>
     </row>
-    <row r="83" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="17">
+    <row r="84" spans="2:15" hidden="1">
+      <c r="B84" s="17">
         <v>2018</v>
       </c>
-      <c r="C83" s="17" t="s">
+      <c r="C84" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D83" s="18">
+      <c r="D84" s="18">
         <f t="shared" si="4"/>
         <v>27455.597999999998</v>
       </c>
-      <c r="E83" s="19">
+      <c r="E84" s="19">
         <v>10.06</v>
       </c>
-      <c r="F83" s="19">
+      <c r="F84" s="19">
         <v>67.233999999999995</v>
       </c>
-      <c r="G83" s="19">
+      <c r="G84" s="19">
         <v>8035.7269999999999</v>
       </c>
-      <c r="H83" s="19">
+      <c r="H84" s="19">
         <v>1692.001</v>
       </c>
-      <c r="I83" s="19">
+      <c r="I84" s="19">
         <v>8464.9650000000001</v>
       </c>
-      <c r="J83" s="19">
+      <c r="J84" s="19">
         <v>2758.96</v>
       </c>
-      <c r="K83" s="19">
+      <c r="K84" s="19">
         <v>1732.587</v>
       </c>
-      <c r="L83" s="19">
+      <c r="L84" s="19">
         <v>4679.0959999999995</v>
       </c>
-      <c r="M83" s="19"/>
-      <c r="N83" s="19"/>
-      <c r="O83" s="19">
+      <c r="M84" s="19"/>
+      <c r="N84" s="19"/>
+      <c r="O84" s="19">
         <v>14.968</v>
       </c>
     </row>
-    <row r="84" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="13">
+    <row r="85" spans="2:15" hidden="1">
+      <c r="B85" s="13">
         <v>2018</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C85" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D84" s="14">
+      <c r="D85" s="14">
         <f t="shared" si="4"/>
         <v>27442.177</v>
       </c>
-      <c r="E84" s="15">
+      <c r="E85" s="15">
         <v>10.051</v>
       </c>
-      <c r="F84" s="15">
+      <c r="F85" s="15">
         <v>63.811</v>
       </c>
-      <c r="G84" s="15">
+      <c r="G85" s="15">
         <v>7722.7290000000003</v>
       </c>
-      <c r="H84" s="15">
+      <c r="H85" s="15">
         <v>1496.4</v>
       </c>
-      <c r="I84" s="15">
+      <c r="I85" s="15">
         <v>8747.1980000000003</v>
       </c>
-      <c r="J84" s="15">
+      <c r="J85" s="15">
         <v>2551.65</v>
       </c>
-      <c r="K84" s="15">
+      <c r="K85" s="15">
         <v>1697.7090000000001</v>
       </c>
-      <c r="L84" s="15">
+      <c r="L85" s="15">
         <v>5136.6130000000003</v>
       </c>
-      <c r="M84" s="15"/>
-      <c r="N84" s="15"/>
-      <c r="O84" s="15">
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
+      <c r="O85" s="15">
         <v>16.015999999999998</v>
       </c>
     </row>
-    <row r="85" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="17">
+    <row r="86" spans="2:15" hidden="1">
+      <c r="B86" s="17">
         <v>2018</v>
       </c>
-      <c r="C85" s="17" t="s">
+      <c r="C86" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D85" s="18">
+      <c r="D86" s="18">
         <f t="shared" si="4"/>
         <v>27934.611100000002</v>
       </c>
-      <c r="E85" s="19">
+      <c r="E86" s="19">
         <v>5.8701000000000008</v>
       </c>
-      <c r="F85" s="19">
+      <c r="F86" s="19">
         <v>68.567999999999998</v>
       </c>
-      <c r="G85" s="19">
+      <c r="G86" s="19">
         <v>7714.4070000000002</v>
       </c>
-      <c r="H85" s="19">
+      <c r="H86" s="19">
         <v>1561.0450000000001</v>
       </c>
-      <c r="I85" s="19">
+      <c r="I86" s="19">
         <v>8940.5429999999997</v>
       </c>
-      <c r="J85" s="19">
+      <c r="J86" s="19">
         <v>2632.7139999999999</v>
       </c>
-      <c r="K85" s="19">
+      <c r="K86" s="19">
         <v>1889.998</v>
       </c>
-      <c r="L85" s="19">
+      <c r="L86" s="19">
         <v>5110.2619999999997</v>
       </c>
-      <c r="M85" s="19"/>
-      <c r="N85" s="19"/>
-      <c r="O85" s="19">
+      <c r="M86" s="19"/>
+      <c r="N86" s="19"/>
+      <c r="O86" s="19">
         <v>11.204000000000001</v>
       </c>
     </row>
-    <row r="86" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="13">
+    <row r="87" spans="2:15" hidden="1">
+      <c r="B87" s="13">
         <v>2018</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C87" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D86" s="14">
+      <c r="D87" s="14">
         <f t="shared" si="4"/>
         <v>28918.192660000001</v>
       </c>
-      <c r="E86" s="15">
+      <c r="E87" s="15">
         <v>7.8816600000000001</v>
       </c>
-      <c r="F86" s="15">
+      <c r="F87" s="15">
         <v>82.861999999999995</v>
       </c>
-      <c r="G86" s="15">
+      <c r="G87" s="15">
         <v>8118.165</v>
       </c>
-      <c r="H86" s="15">
+      <c r="H87" s="15">
         <v>1532.5719999999999</v>
       </c>
-      <c r="I86" s="15">
+      <c r="I87" s="15">
         <v>8129.585</v>
       </c>
-      <c r="J86" s="15">
+      <c r="J87" s="15">
         <v>2956.08</v>
       </c>
-      <c r="K86" s="15">
+      <c r="K87" s="15">
         <v>1988.6780000000001</v>
       </c>
-      <c r="L86" s="15">
+      <c r="L87" s="15">
         <v>6089.1620000000003</v>
       </c>
-      <c r="M86" s="15"/>
-      <c r="N86" s="15"/>
-      <c r="O86" s="15">
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
+      <c r="O87" s="15">
         <v>13.207000000000001</v>
       </c>
     </row>
-    <row r="87" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="17">
+    <row r="88" spans="2:15" hidden="1">
+      <c r="B88" s="17">
         <v>2018</v>
       </c>
-      <c r="C87" s="17" t="s">
+      <c r="C88" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D87" s="18">
+      <c r="D88" s="18">
         <f t="shared" si="4"/>
         <v>29273.39678000001</v>
       </c>
-      <c r="E87" s="19">
+      <c r="E88" s="19">
         <v>9.12378</v>
       </c>
-      <c r="F87" s="19">
+      <c r="F88" s="19">
         <v>60.970999999999997</v>
       </c>
-      <c r="G87" s="19">
+      <c r="G88" s="19">
         <v>7926.723</v>
       </c>
-      <c r="H87" s="19">
+      <c r="H88" s="19">
         <v>1477.489</v>
       </c>
-      <c r="I87" s="19">
+      <c r="I88" s="19">
         <v>9672.3250000000007</v>
       </c>
-      <c r="J87" s="19">
+      <c r="J88" s="19">
         <v>2860.578</v>
       </c>
-      <c r="K87" s="19">
+      <c r="K88" s="19">
         <v>1829.883</v>
       </c>
-      <c r="L87" s="19">
+      <c r="L88" s="19">
         <v>5423.6540000000005</v>
       </c>
-      <c r="M87" s="19"/>
-      <c r="N87" s="19"/>
-      <c r="O87" s="19">
+      <c r="M88" s="19"/>
+      <c r="N88" s="19"/>
+      <c r="O88" s="19">
         <v>12.65</v>
       </c>
     </row>
-    <row r="88" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="13">
+    <row r="89" spans="2:15" hidden="1">
+      <c r="B89" s="13">
         <v>2018</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C89" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D88" s="14">
+      <c r="D89" s="14">
         <f t="shared" si="4"/>
         <v>30126.28328</v>
       </c>
-      <c r="E88" s="15">
+      <c r="E89" s="15">
         <v>8.1962799999999998</v>
       </c>
-      <c r="F88" s="15">
+      <c r="F89" s="15">
         <v>71.811000000000007</v>
       </c>
-      <c r="G88" s="15">
+      <c r="G89" s="15">
         <v>8844.2019999999993</v>
       </c>
-      <c r="H88" s="15">
+      <c r="H89" s="15">
         <v>1647.098</v>
       </c>
-      <c r="I88" s="15">
+      <c r="I89" s="15">
         <v>9860.2800000000007</v>
       </c>
-      <c r="J88" s="15">
+      <c r="J89" s="15">
         <v>2743.1410000000001</v>
       </c>
-      <c r="K88" s="15">
+      <c r="K89" s="15">
         <v>1551.7840000000001</v>
       </c>
-      <c r="L88" s="15">
+      <c r="L89" s="15">
         <v>5387.3890000000001</v>
       </c>
-      <c r="M88" s="15"/>
-      <c r="N88" s="15"/>
-      <c r="O88" s="15">
+      <c r="M89" s="15"/>
+      <c r="N89" s="15"/>
+      <c r="O89" s="15">
         <v>12.382</v>
       </c>
     </row>
-    <row r="89" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="17">
+    <row r="90" spans="2:15" hidden="1">
+      <c r="B90" s="17">
         <v>2018</v>
       </c>
-      <c r="C89" s="17" t="s">
+      <c r="C90" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D89" s="18">
+      <c r="D90" s="18">
         <f t="shared" si="4"/>
         <v>25208.202900000004</v>
       </c>
-      <c r="E89" s="19">
+      <c r="E90" s="19">
         <v>6.7148999999999992</v>
       </c>
-      <c r="F89" s="19">
+      <c r="F90" s="19">
         <v>59.457000000000001</v>
       </c>
-      <c r="G89" s="19">
+      <c r="G90" s="19">
         <v>7977.2039999999997</v>
       </c>
-      <c r="H89" s="19">
+      <c r="H90" s="19">
         <v>1378.8910000000001</v>
       </c>
-      <c r="I89" s="19">
+      <c r="I90" s="19">
         <v>7402.5730000000003</v>
       </c>
-      <c r="J89" s="19">
+      <c r="J90" s="19">
         <v>2577</v>
       </c>
-      <c r="K89" s="19">
+      <c r="K90" s="19">
         <v>1364.6120000000001</v>
       </c>
-      <c r="L89" s="19">
+      <c r="L90" s="19">
         <v>4430.4210000000003</v>
       </c>
-      <c r="M89" s="19"/>
-      <c r="N89" s="19"/>
-      <c r="O89" s="19">
+      <c r="M90" s="19"/>
+      <c r="N90" s="19"/>
+      <c r="O90" s="19">
         <v>11.33</v>
       </c>
     </row>
-    <row r="90" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B90" s="13">
+    <row r="91" spans="2:15" hidden="1">
+      <c r="B91" s="13">
         <v>2018</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="C91" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D90" s="14">
+      <c r="D91" s="14">
         <f t="shared" si="4"/>
         <v>25018.165999999997</v>
       </c>
-      <c r="E90" s="15">
+      <c r="E91" s="15">
         <v>6.9589999999999996</v>
       </c>
-      <c r="F90" s="15">
+      <c r="F91" s="15">
         <v>66.08</v>
       </c>
-      <c r="G90" s="15">
+      <c r="G91" s="15">
         <v>7737.0140000000001</v>
       </c>
-      <c r="H90" s="15">
+      <c r="H91" s="15">
         <v>1410.72</v>
       </c>
-      <c r="I90" s="15">
+      <c r="I91" s="15">
         <v>6932.2910000000002</v>
       </c>
-      <c r="J90" s="15">
+      <c r="J91" s="15">
         <v>2789.42</v>
       </c>
-      <c r="K90" s="15">
+      <c r="K91" s="15">
         <v>1379.2329999999999</v>
       </c>
-      <c r="L90" s="15">
+      <c r="L91" s="15">
         <v>4684.1959999999999</v>
       </c>
-      <c r="M90" s="15"/>
-      <c r="N90" s="15"/>
-      <c r="O90" s="15">
+      <c r="M91" s="15"/>
+      <c r="N91" s="15"/>
+      <c r="O91" s="15">
         <v>12.253</v>
       </c>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B91" s="28" t="s">
+    <row r="92" spans="2:15">
+      <c r="B92" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C91" s="28"/>
-    </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B92" s="28" t="s">
+      <c r="C92" s="28"/>
+    </row>
+    <row r="93" spans="2:15">
+      <c r="B93" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C92" s="28"/>
-      <c r="O92" s="29"/>
-    </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B93" s="28" t="s">
+      <c r="C93" s="28"/>
+      <c r="O93" s="29"/>
+    </row>
+    <row r="94" spans="2:15">
+      <c r="B94" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C93" s="28"/>
-    </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B94" s="28" t="s">
+      <c r="C94" s="28"/>
+    </row>
+    <row r="95" spans="2:15">
+      <c r="B95" s="28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B95" s="3" t="s">
+    <row r="96" spans="2:15">
+      <c r="B96" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D101" s="28"/>
+    <row r="102" spans="4:4">
+      <c r="D102" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Carga_por_aerolinea_nac.xlsx
+++ b/Carga_por_aerolinea_nac.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23392D7D-A46C-421E-9779-F6D08DF7B379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8278DCBC-9DB4-45F2-ABCD-F7C1DEF591AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="34">
   <si>
     <t>Total</t>
   </si>
@@ -137,7 +137,7 @@
     <t>Mexicana (Aerolínea del Estado Mexicano)</t>
   </si>
   <si>
-    <t>Actualización: Febrero 2025.</t>
+    <t>Actualización: Marzo 2025.</t>
   </si>
 </sst>
 </file>
@@ -669,13 +669,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -700,6 +693,13 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -752,8 +752,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O91" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
-  <autoFilter ref="B5:O91" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O92" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
+  <autoFilter ref="B5:O92" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -1006,7 +1006,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O102"/>
+  <dimension ref="B2:O103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1109,3520 +1109,3559 @@
       </c>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="16">
+      <c r="B6" s="12">
         <v>2025</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="14">
+        <f>SUM(E6:O6)</f>
+        <v>27980.780070000001</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15">
+        <v>13263.271000000001</v>
+      </c>
+      <c r="H6" s="15">
+        <v>761.86699999999996</v>
+      </c>
+      <c r="I6" s="15">
+        <v>1932.6751200000001</v>
+      </c>
+      <c r="J6" s="15">
+        <v>2544.1959999999999</v>
+      </c>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15">
+        <v>6302.9059999999999</v>
+      </c>
+      <c r="M6" s="15">
+        <v>33.307000000000002</v>
+      </c>
+      <c r="N6" s="15">
+        <v>1009.0963999999997</v>
+      </c>
+      <c r="O6" s="15">
+        <v>2133.46155</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="18">
-        <f>SUM(E6:O6)</f>
+      <c r="D7" s="18">
+        <f>SUM(E7:O7)</f>
         <v>25748.605099709999</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19">
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19">
         <v>11275.352000000001</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H7" s="19">
         <v>620.36</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I7" s="19">
         <v>1786.64945971</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J7" s="19">
         <v>2412.8490000000002</v>
       </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19">
+      <c r="K7" s="19"/>
+      <c r="L7" s="19">
         <v>6617.8909999999996</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M7" s="19">
         <v>29.823340000000002</v>
       </c>
-      <c r="N6" s="19">
+      <c r="N7" s="19">
         <v>941.21730000000014</v>
       </c>
-      <c r="O6" s="19">
+      <c r="O7" s="19">
         <v>2064.4630000000002</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="20">
+    <row r="8" spans="2:15">
+      <c r="B8" s="20">
         <v>2025</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C8" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="22">
-        <f>SUM(E7:O7)</f>
+      <c r="D8" s="22">
+        <f>SUM(E8:O8)</f>
         <v>23673.877119999997</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23">
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23">
         <v>10826.540999999999</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H8" s="23">
         <v>571.43200000000002</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I8" s="23">
         <v>1894.5229999999999</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J8" s="23">
         <v>2721.4450000000002</v>
       </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23">
+      <c r="K8" s="23"/>
+      <c r="L8" s="23">
         <v>4711.6409999999996</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M8" s="23">
         <v>29.370999999999999</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N8" s="23">
         <v>964.65659999999991</v>
       </c>
-      <c r="O7" s="23">
+      <c r="O8" s="23">
         <v>1954.2675200000031</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="16">
+    <row r="9" spans="2:15">
+      <c r="B9" s="16">
         <v>2024</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C9" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="18">
-        <f>SUM(E8:O8)</f>
+      <c r="D9" s="18">
+        <f>SUM(E9:O9)</f>
         <v>27947.306936199999</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19">
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19">
         <v>12904.705</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H9" s="19">
         <v>706.62800000000004</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I9" s="19">
         <v>2110.4124862000003</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J9" s="19">
         <v>2910.0949999999998</v>
       </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19">
+      <c r="K9" s="19"/>
+      <c r="L9" s="19">
         <v>6062.4089999999997</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M9" s="19">
         <v>44.347099999999998</v>
       </c>
-      <c r="N8" s="19">
+      <c r="N9" s="19">
         <v>1092.7723999999989</v>
       </c>
-      <c r="O8" s="19">
+      <c r="O9" s="19">
         <v>2115.9379499999995</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="12">
+    <row r="10" spans="2:15">
+      <c r="B10" s="12">
         <v>2024</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="14">
-        <f>SUM(E9:O9)</f>
+      <c r="D10" s="14">
+        <f>SUM(E10:O10)</f>
         <v>27502.893513799998</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15">
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15">
         <v>13474.445</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H10" s="15">
         <v>756.11400000000003</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I10" s="15">
         <v>1892.0454138</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J10" s="15">
         <v>3303.9810000000002</v>
       </c>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15">
+      <c r="K10" s="15"/>
+      <c r="L10" s="15">
         <v>4393.0249999999996</v>
       </c>
-      <c r="M9" s="15">
+      <c r="M10" s="15">
         <v>44.302</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N10" s="15">
         <v>1298.3136</v>
       </c>
-      <c r="O9" s="15">
+      <c r="O10" s="15">
         <v>2340.6674999999955</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
-      <c r="B10" s="16">
+    <row r="11" spans="2:15">
+      <c r="B11" s="16">
         <v>2024</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C11" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="18">
-        <f t="shared" ref="D10" si="0">SUM(E10:O10)</f>
+      <c r="D11" s="18">
+        <f t="shared" ref="D11" si="0">SUM(E11:O11)</f>
         <v>27181.326312561851</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19">
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19">
         <v>13225.465</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H11" s="19">
         <v>615.21100000000001</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I11" s="19">
         <v>1642.0031125618484</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J11" s="19">
         <v>3194.15</v>
       </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19">
+      <c r="K11" s="19"/>
+      <c r="L11" s="19">
         <v>4834.0540000000001</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M11" s="19">
         <v>24.026</v>
       </c>
-      <c r="N10" s="19">
+      <c r="N11" s="19">
         <v>1321.6451999999997</v>
       </c>
-      <c r="O10" s="19">
+      <c r="O11" s="19">
         <v>2324.7719999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
-      <c r="B11" s="12">
+    <row r="12" spans="2:15">
+      <c r="B12" s="12">
         <v>2024</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C12" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="14">
-        <f>SUM(E11:O11)</f>
+      <c r="D12" s="14">
+        <f>SUM(E12:O12)</f>
         <v>23947.075499999999</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15">
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15">
         <v>11815.414000000001</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H12" s="15">
         <v>610.077</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I12" s="15">
         <v>1877.9970000000001</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J12" s="15">
         <v>2701.4140000000002</v>
       </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15">
+      <c r="K12" s="15"/>
+      <c r="L12" s="15">
         <v>4037.3809999999999</v>
       </c>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15">
-        <v>1121.0953</v>
-      </c>
-      <c r="O11" s="15">
-        <v>1783.6972000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15">
-      <c r="B12" s="16">
+      <c r="M12" s="15"/>
+      <c r="N12" s="15">
+        <v>1121.0953000000004</v>
+      </c>
+      <c r="O12" s="15">
+        <v>1783.6971999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="16">
         <v>2024</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C13" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="18">
-        <f t="shared" ref="D12:D46" si="1">SUM(E12:O12)</f>
-        <v>25976.447568099997</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19">
+      <c r="D13" s="18">
+        <f t="shared" ref="D13:D47" si="1">SUM(E13:O13)</f>
+        <v>25976.44756810151</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19">
         <v>12383.605</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H13" s="19">
         <v>692.93</v>
       </c>
-      <c r="I12" s="19">
-        <v>997.61693810000008</v>
-      </c>
-      <c r="J12" s="19">
+      <c r="I13" s="19">
+        <v>997.61693810151405</v>
+      </c>
+      <c r="J13" s="19">
         <v>3089.9549999999999</v>
       </c>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19">
+      <c r="K13" s="19"/>
+      <c r="L13" s="19">
         <v>5823.1229999999996</v>
       </c>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19">
-        <v>1059.0245</v>
-      </c>
-      <c r="O12" s="19">
-        <v>1930.1931300000001</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="12">
+      <c r="M13" s="19"/>
+      <c r="N13" s="19">
+        <v>1059.0244999999993</v>
+      </c>
+      <c r="O13" s="19">
+        <v>1930.193130000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="12">
         <v>2024</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="14">
-        <f t="shared" ref="D13:D15" si="2">SUM(E13:O13)</f>
-        <v>24449.559196240007</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15">
+      <c r="D14" s="14">
+        <f t="shared" ref="D14:D16" si="2">SUM(E14:O14)</f>
+        <v>24449.559196296865</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15">
         <v>12150.298000000001</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H14" s="15">
         <v>643.75300000000004</v>
       </c>
-      <c r="I13" s="15">
-        <v>1750.5007562400001</v>
-      </c>
-      <c r="J13" s="15">
+      <c r="I14" s="15">
+        <v>1750.5007562968667</v>
+      </c>
+      <c r="J14" s="15">
         <v>3035.9490000000001</v>
       </c>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15">
+      <c r="K14" s="15"/>
+      <c r="L14" s="15">
         <v>4137.7550000000001</v>
       </c>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15">
-        <v>767.15459999999996</v>
-      </c>
-      <c r="O13" s="15">
-        <v>1964.1488400000001</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15">
-      <c r="B14" s="16">
+      <c r="M14" s="15"/>
+      <c r="N14" s="15">
+        <v>767.15459999999973</v>
+      </c>
+      <c r="O14" s="15">
+        <v>1964.1488399999987</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="16">
         <v>2024</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C15" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D15" s="18">
         <f t="shared" si="2"/>
         <v>22991.837380000001</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19">
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19">
         <v>11786.278</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H15" s="19">
         <v>560.85299999999995</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I15" s="19">
         <v>455.33683000000002</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J15" s="19">
         <v>2749.279</v>
       </c>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19">
+      <c r="K15" s="19"/>
+      <c r="L15" s="19">
         <v>4777.0950000000003</v>
       </c>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19">
-        <v>821.03269999999998</v>
-      </c>
-      <c r="O14" s="19">
-        <v>1841.9628499999999</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15">
-      <c r="B15" s="12">
+      <c r="M15" s="19"/>
+      <c r="N15" s="19">
+        <v>821.03270000000009</v>
+      </c>
+      <c r="O15" s="19">
+        <v>1841.9628499999985</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="12">
         <v>2024</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D16" s="14">
         <f t="shared" si="2"/>
         <v>25584.530360000004</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15">
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15">
         <v>12162.084000000001</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H16" s="15">
         <v>597.245</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I16" s="15">
         <v>670.93826000000001</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J16" s="15">
         <v>3023.1210000000001</v>
       </c>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15">
+      <c r="K16" s="15"/>
+      <c r="L16" s="15">
         <v>5951.4530000000004</v>
       </c>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15">
-        <v>966.64210000000003</v>
-      </c>
-      <c r="O15" s="15">
+      <c r="M16" s="15"/>
+      <c r="N16" s="15">
+        <v>966.6420999999998</v>
+      </c>
+      <c r="O16" s="15">
         <v>2213.047</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="16">
+    <row r="17" spans="2:15">
+      <c r="B17" s="16">
         <v>2024</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C17" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D17" s="18">
         <f t="shared" si="1"/>
         <v>24530.56366</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19">
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19">
         <v>11531.746999999999</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H17" s="19">
         <v>592.245</v>
       </c>
-      <c r="I16" s="19">
-        <v>1345.6157599999999</v>
-      </c>
-      <c r="J16" s="19">
+      <c r="I17" s="19">
+        <v>1345.6157600000001</v>
+      </c>
+      <c r="J17" s="19">
         <v>3069.6970000000001</v>
       </c>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19">
+      <c r="K17" s="19"/>
+      <c r="L17" s="19">
         <v>5033.8580000000002</v>
       </c>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19">
-        <v>917.64800000000002</v>
-      </c>
-      <c r="O16" s="19">
-        <v>2039.7529000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15">
-      <c r="B17" s="12">
+      <c r="M17" s="19"/>
+      <c r="N17" s="19">
+        <v>917.64800000000014</v>
+      </c>
+      <c r="O17" s="19">
+        <v>2039.7528999999981</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="12">
         <v>2024</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D18" s="14">
         <f t="shared" si="1"/>
         <v>23773.473269999999</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15">
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15">
         <v>11871.233</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H18" s="15">
         <v>551.64300000000003</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I18" s="15">
         <v>1657.1516799999999</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J18" s="15">
         <v>2749.279</v>
       </c>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15">
+      <c r="K18" s="15"/>
+      <c r="L18" s="15">
         <v>3908.877</v>
       </c>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15">
-        <v>901.89159999999993</v>
-      </c>
-      <c r="O17" s="15">
-        <v>2133.3979899999999</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15">
-      <c r="B18" s="16">
+      <c r="M18" s="15"/>
+      <c r="N18" s="15">
+        <v>901.89159999999958</v>
+      </c>
+      <c r="O18" s="15">
+        <v>2133.3979900000022</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" s="16">
         <v>2024</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C19" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D19" s="18">
         <f t="shared" si="1"/>
         <v>23760.617010000002</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19">
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19">
         <v>11159.713</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H19" s="19">
         <v>540.17999999999995</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I19" s="19">
         <v>1664.87067</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J19" s="19">
         <v>3032.2710000000002</v>
       </c>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19">
+      <c r="K19" s="19"/>
+      <c r="L19" s="19">
         <v>4672.6559999999999</v>
       </c>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19">
-        <v>878.4058</v>
-      </c>
-      <c r="O18" s="19">
-        <v>1812.52054</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15">
-      <c r="B19" s="20">
+      <c r="M19" s="19"/>
+      <c r="N19" s="19">
+        <v>878.40580000000011</v>
+      </c>
+      <c r="O19" s="19">
+        <v>1812.5205400000013</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="20">
         <v>2024</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C20" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D20" s="22">
         <f t="shared" si="1"/>
         <v>22658.754440000004</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23">
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23">
         <v>10099.106</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H20" s="23">
         <v>778.92200000000003</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I20" s="23">
         <v>1334.1081499999998</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J20" s="23">
         <v>3205.1840000000002</v>
       </c>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23">
+      <c r="K20" s="23"/>
+      <c r="L20" s="23">
         <v>4132.0780000000004</v>
       </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23">
+      <c r="M20" s="23"/>
+      <c r="N20" s="23">
         <v>1138.7986000000001</v>
       </c>
-      <c r="O19" s="23">
-        <v>1970.5576899999999</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" hidden="1">
-      <c r="B20" s="24">
+      <c r="O20" s="23">
+        <v>1970.5576900000021</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" hidden="1">
+      <c r="B21" s="24">
         <v>2023</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C21" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D21" s="26">
         <f t="shared" si="1"/>
         <v>24330.252739999996</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E21" s="27">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27">
+      <c r="F21" s="27"/>
+      <c r="G21" s="27">
         <v>11988.567999999999</v>
       </c>
-      <c r="H20" s="27">
+      <c r="H21" s="27">
         <v>936.15599999999995</v>
       </c>
-      <c r="I20" s="27">
+      <c r="I21" s="27">
         <v>1439.51802</v>
       </c>
-      <c r="J20" s="27">
+      <c r="J21" s="27">
         <v>3166.9259999999999</v>
       </c>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27">
+      <c r="K21" s="27"/>
+      <c r="L21" s="27">
         <v>3182.1170000000002</v>
       </c>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27">
+      <c r="M21" s="27"/>
+      <c r="N21" s="27">
         <v>1409.9010999999998</v>
       </c>
-      <c r="O20" s="27">
-        <v>2207.0626200000002</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" hidden="1">
-      <c r="B21" s="12">
+      <c r="O21" s="27">
+        <v>2207.0626199999997</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" hidden="1">
+      <c r="B22" s="12">
         <v>2023</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C22" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D22" s="14">
         <f t="shared" si="1"/>
-        <v>25951.682420000005</v>
-      </c>
-      <c r="E21" s="15">
+        <v>25951.682419999997</v>
+      </c>
+      <c r="E22" s="15">
         <v>2E-3</v>
       </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15">
+      <c r="F22" s="15"/>
+      <c r="G22" s="15">
         <v>11389.349</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H22" s="15">
         <v>878.84500000000003</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I22" s="15">
         <v>3104.8114999999998</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J22" s="15">
         <v>3477.9340000000002</v>
       </c>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15">
+      <c r="K22" s="15"/>
+      <c r="L22" s="15">
         <v>3383.1860000000001</v>
       </c>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15">
-        <v>1367.4911999999999</v>
-      </c>
-      <c r="O21" s="15">
-        <v>2350.0637200000001</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" hidden="1">
-      <c r="B22" s="16">
+      <c r="M22" s="15"/>
+      <c r="N22" s="15">
+        <v>1367.4912000000006</v>
+      </c>
+      <c r="O22" s="15">
+        <v>2350.0637199999942</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" hidden="1">
+      <c r="B23" s="16">
         <v>2023</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C23" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D23" s="18">
         <f t="shared" si="1"/>
-        <v>29736.471784000001</v>
-      </c>
-      <c r="E22" s="19">
+        <v>29736.471783999994</v>
+      </c>
+      <c r="E23" s="19">
         <v>2E-3</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19">
+      <c r="F23" s="19"/>
+      <c r="G23" s="19">
         <v>11497.116</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H23" s="19">
         <v>766.34</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I23" s="19">
         <v>1778.049084</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J23" s="19">
         <v>3354.9290000000001</v>
       </c>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19">
+      <c r="K23" s="19"/>
+      <c r="L23" s="19">
         <v>8846.14</v>
       </c>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19">
-        <v>1254.5563</v>
-      </c>
-      <c r="O22" s="19">
-        <v>2239.3393999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" hidden="1">
-      <c r="B23" s="12">
+      <c r="M23" s="19"/>
+      <c r="N23" s="19">
+        <v>1254.5563000000009</v>
+      </c>
+      <c r="O23" s="19">
+        <v>2239.3393999999939</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" hidden="1">
+      <c r="B24" s="12">
         <v>2023</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C24" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D24" s="14">
         <f t="shared" si="1"/>
         <v>25495.398430000001</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E24" s="15">
         <v>1E-3</v>
       </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15">
+      <c r="F24" s="15"/>
+      <c r="G24" s="15">
         <v>10214.496999999999</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H24" s="15">
         <v>745.19799999999998</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I24" s="15">
         <v>1692.6589100000001</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J24" s="15">
         <v>3160.6</v>
       </c>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15">
+      <c r="K24" s="15"/>
+      <c r="L24" s="15">
         <v>6870.7169999999996</v>
       </c>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15">
+      <c r="M24" s="15"/>
+      <c r="N24" s="15">
         <v>1029.982</v>
       </c>
-      <c r="O23" s="15">
+      <c r="O24" s="15">
         <v>1781.74452</v>
       </c>
     </row>
-    <row r="24" spans="2:15" hidden="1">
-      <c r="B24" s="16">
+    <row r="25" spans="2:15" hidden="1">
+      <c r="B25" s="16">
         <v>2023</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C25" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D25" s="18">
         <f t="shared" si="1"/>
         <v>27795.111850000001</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E25" s="19">
         <v>2E-3</v>
       </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19">
+      <c r="F25" s="19"/>
+      <c r="G25" s="19">
         <v>10670.395</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H25" s="19">
         <v>688.12199999999996</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I25" s="19">
         <v>2332.9001999999996</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J25" s="19">
         <v>3597.163</v>
       </c>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19">
+      <c r="K25" s="19"/>
+      <c r="L25" s="19">
         <v>7529.75</v>
       </c>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19">
+      <c r="M25" s="19"/>
+      <c r="N25" s="19">
         <v>1106.6980000000001</v>
       </c>
-      <c r="O24" s="19">
+      <c r="O25" s="19">
         <v>1870.0816499999999</v>
       </c>
     </row>
-    <row r="25" spans="2:15" hidden="1">
-      <c r="B25" s="12">
+    <row r="26" spans="2:15" hidden="1">
+      <c r="B26" s="12">
         <v>2023</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C26" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D26" s="14">
         <f t="shared" si="1"/>
         <v>27392.805111000001</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E26" s="15">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15">
+      <c r="F26" s="15"/>
+      <c r="G26" s="15">
         <v>11104.486000000001</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H26" s="15">
         <v>582.98800000000006</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I26" s="15">
         <v>2097.893521</v>
       </c>
-      <c r="J25" s="15">
+      <c r="J26" s="15">
         <v>3132.8069999999998</v>
       </c>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15">
+      <c r="K26" s="15"/>
+      <c r="L26" s="15">
         <v>7920.2030000000004</v>
       </c>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15">
+      <c r="M26" s="15"/>
+      <c r="N26" s="15">
         <v>632.07899999999995</v>
       </c>
-      <c r="O25" s="15">
+      <c r="O26" s="15">
         <v>1922.34159</v>
       </c>
     </row>
-    <row r="26" spans="2:15" hidden="1">
-      <c r="B26" s="16">
+    <row r="27" spans="2:15" hidden="1">
+      <c r="B27" s="16">
         <v>2023</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C27" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D27" s="18">
         <f t="shared" si="1"/>
         <v>26257.615949999999</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E27" s="19">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19">
+      <c r="F27" s="19"/>
+      <c r="G27" s="19">
         <v>9903.1360000000004</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H27" s="19">
         <v>604.97799999999995</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I27" s="19">
         <v>2029.77441</v>
       </c>
-      <c r="J26" s="19">
+      <c r="J27" s="19">
         <v>3359.4630000000002</v>
       </c>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19">
+      <c r="K27" s="19"/>
+      <c r="L27" s="19">
         <v>7581.4750000000004</v>
       </c>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19">
+      <c r="M27" s="19"/>
+      <c r="N27" s="19">
         <v>808.51900000000001</v>
       </c>
-      <c r="O26" s="19">
+      <c r="O27" s="19">
         <v>1970.2655400000001</v>
       </c>
     </row>
-    <row r="27" spans="2:15" hidden="1">
-      <c r="B27" s="12">
+    <row r="28" spans="2:15" hidden="1">
+      <c r="B28" s="12">
         <v>2023</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C28" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D28" s="14">
         <f t="shared" si="1"/>
         <v>27189.140660000001</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E28" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15">
+      <c r="F28" s="15"/>
+      <c r="G28" s="15">
         <v>9247.2430000000004</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H28" s="15">
         <v>646.67899999999997</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I28" s="15">
         <v>1841.1321099999998</v>
       </c>
-      <c r="J27" s="15">
+      <c r="J28" s="15">
         <v>3239.5920000000001</v>
       </c>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15">
+      <c r="K28" s="15"/>
+      <c r="L28" s="15">
         <v>9116.9560000000001</v>
       </c>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15">
+      <c r="M28" s="15"/>
+      <c r="N28" s="15">
         <v>871.53</v>
       </c>
-      <c r="O27" s="15">
+      <c r="O28" s="15">
         <v>2226.0035500000004</v>
       </c>
     </row>
-    <row r="28" spans="2:15" hidden="1">
-      <c r="B28" s="16">
+    <row r="29" spans="2:15" hidden="1">
+      <c r="B29" s="16">
         <v>2023</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C29" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D29" s="18">
         <f t="shared" si="1"/>
         <v>26065.695520000001</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E29" s="19">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19">
+      <c r="F29" s="19"/>
+      <c r="G29" s="19">
         <v>8823.5010000000002</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H29" s="19">
         <v>643.87900000000002</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I29" s="19">
         <v>2656.5120000000002</v>
       </c>
-      <c r="J28" s="19">
+      <c r="J29" s="19">
         <v>2882.6640000000002</v>
       </c>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19">
+      <c r="K29" s="19"/>
+      <c r="L29" s="19">
         <v>8495.7070000000003</v>
       </c>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19">
+      <c r="M29" s="19"/>
+      <c r="N29" s="19">
         <v>807.85400000000004</v>
       </c>
-      <c r="O28" s="19">
+      <c r="O29" s="19">
         <v>1755.5725199999999</v>
       </c>
     </row>
-    <row r="29" spans="2:15" hidden="1">
-      <c r="B29" s="12">
+    <row r="30" spans="2:15" hidden="1">
+      <c r="B30" s="12">
         <v>2023</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C30" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D30" s="14">
         <f t="shared" si="1"/>
         <v>29416.146090000002</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E30" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15">
+      <c r="F30" s="15"/>
+      <c r="G30" s="15">
         <v>10420.953</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H30" s="15">
         <v>850.89200000000005</v>
       </c>
-      <c r="I29" s="15">
+      <c r="I30" s="15">
         <v>2714.1550000000002</v>
       </c>
-      <c r="J29" s="15">
+      <c r="J30" s="15">
         <v>3284.2510000000002</v>
       </c>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15">
+      <c r="K30" s="15"/>
+      <c r="L30" s="15">
         <v>9320.09</v>
       </c>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15">
+      <c r="M30" s="15"/>
+      <c r="N30" s="15">
         <v>754.07100000000003</v>
       </c>
-      <c r="O29" s="15">
+      <c r="O30" s="15">
         <v>2071.7290899999998</v>
       </c>
     </row>
-    <row r="30" spans="2:15" hidden="1">
-      <c r="B30" s="16">
+    <row r="31" spans="2:15" hidden="1">
+      <c r="B31" s="16">
         <v>2023</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C31" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D31" s="18">
         <f t="shared" si="1"/>
         <v>26501.790870000004</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E31" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19">
+      <c r="F31" s="19"/>
+      <c r="G31" s="19">
         <v>9688.0110000000004</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H31" s="19">
         <v>782.84</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I31" s="19">
         <v>3020.3270000000002</v>
       </c>
-      <c r="J30" s="19">
+      <c r="J31" s="19">
         <v>2745.6669999999999</v>
       </c>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19">
+      <c r="K31" s="19"/>
+      <c r="L31" s="19">
         <v>7686.6450000000004</v>
       </c>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19">
+      <c r="M31" s="19"/>
+      <c r="N31" s="19">
         <v>685.12</v>
       </c>
-      <c r="O30" s="19">
+      <c r="O31" s="19">
         <v>1893.1698699999999</v>
       </c>
     </row>
-    <row r="31" spans="2:15" hidden="1">
-      <c r="B31" s="20">
+    <row r="32" spans="2:15" hidden="1">
+      <c r="B32" s="20">
         <v>2023</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C32" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D32" s="22">
         <f t="shared" si="1"/>
         <v>26308.171539999999</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E32" s="23">
         <v>2E-3</v>
       </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23">
+      <c r="F32" s="23"/>
+      <c r="G32" s="23">
         <v>8914.4519999999993</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H32" s="23">
         <v>734.09199999999998</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I32" s="23">
         <v>3159.0940000000001</v>
       </c>
-      <c r="J31" s="23">
+      <c r="J32" s="23">
         <v>3012.8209999999999</v>
       </c>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23">
+      <c r="K32" s="23"/>
+      <c r="L32" s="23">
         <v>7907.8890000000001</v>
       </c>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23">
+      <c r="M32" s="23"/>
+      <c r="N32" s="23">
         <v>670.48</v>
       </c>
-      <c r="O31" s="23">
+      <c r="O32" s="23">
         <v>1909.3415400000001</v>
       </c>
     </row>
-    <row r="32" spans="2:15" hidden="1">
-      <c r="B32" s="24">
+    <row r="33" spans="2:15" hidden="1">
+      <c r="B33" s="24">
         <v>2022</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C33" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="26">
+      <c r="D33" s="26">
         <f t="shared" si="1"/>
         <v>29865.323240000002</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E33" s="27">
         <v>1E-3</v>
       </c>
-      <c r="F32" s="27">
+      <c r="F33" s="27">
         <v>12.166</v>
       </c>
-      <c r="G32" s="27">
+      <c r="G33" s="27">
         <v>10484.763000000001</v>
       </c>
-      <c r="H32" s="27">
+      <c r="H33" s="27">
         <v>925.66499999999996</v>
       </c>
-      <c r="I32" s="27">
+      <c r="I33" s="27">
         <v>4138.0259999999998</v>
       </c>
-      <c r="J32" s="27">
+      <c r="J33" s="27">
         <v>3314.2310000000002</v>
       </c>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27">
+      <c r="K33" s="27"/>
+      <c r="L33" s="27">
         <v>7746.2759999999998</v>
       </c>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27">
+      <c r="M33" s="27"/>
+      <c r="N33" s="27">
         <v>961.79730000000006</v>
       </c>
-      <c r="O32" s="27">
+      <c r="O33" s="27">
         <v>2282.3979400000003</v>
       </c>
     </row>
-    <row r="33" spans="2:15" hidden="1">
-      <c r="B33" s="12">
+    <row r="34" spans="2:15" hidden="1">
+      <c r="B34" s="12">
         <v>2022</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C34" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D34" s="14">
         <f t="shared" si="1"/>
         <v>29983.373589999999</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E34" s="15">
         <v>2E-3</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F34" s="15">
         <v>32.463999999999999</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G34" s="15">
         <v>10081.717000000001</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H34" s="15">
         <v>990.43700000000001</v>
       </c>
-      <c r="I33" s="15">
+      <c r="I34" s="15">
         <v>5149.683</v>
       </c>
-      <c r="J33" s="15">
+      <c r="J34" s="15">
         <v>3384.6909999999998</v>
       </c>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15">
+      <c r="K34" s="15"/>
+      <c r="L34" s="15">
         <v>7113.482</v>
       </c>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15">
+      <c r="M34" s="15"/>
+      <c r="N34" s="15">
         <v>970.55570000000012</v>
       </c>
-      <c r="O33" s="15">
+      <c r="O34" s="15">
         <v>2260.3418900000001</v>
       </c>
     </row>
-    <row r="34" spans="2:15" hidden="1">
-      <c r="B34" s="16">
+    <row r="35" spans="2:15" hidden="1">
+      <c r="B35" s="16">
         <v>2022</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C35" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D35" s="18">
         <f t="shared" si="1"/>
         <v>29295.863820000002</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E35" s="19">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F35" s="19">
         <v>31.343</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G35" s="19">
         <v>9947.3389999999999</v>
       </c>
-      <c r="H34" s="19">
+      <c r="H35" s="19">
         <v>926.49599999999998</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I35" s="19">
         <v>5335.3050000000003</v>
       </c>
-      <c r="J34" s="19">
+      <c r="J35" s="19">
         <v>3159.48</v>
       </c>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19">
+      <c r="K35" s="19"/>
+      <c r="L35" s="19">
         <v>6728.7049999999999</v>
       </c>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19">
+      <c r="M35" s="19"/>
+      <c r="N35" s="19">
         <v>979.74129999999991</v>
       </c>
-      <c r="O34" s="19">
+      <c r="O35" s="19">
         <v>2187.4515200000001</v>
       </c>
     </row>
-    <row r="35" spans="2:15" hidden="1">
-      <c r="B35" s="12">
+    <row r="36" spans="2:15" hidden="1">
+      <c r="B36" s="12">
         <v>2022</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C36" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D36" s="14">
         <f t="shared" si="1"/>
         <v>26447.132749999997</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E36" s="15">
         <v>2E-3</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F36" s="15">
         <v>23.175000000000001</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G36" s="15">
         <v>9081.3619999999992</v>
       </c>
-      <c r="H35" s="15">
+      <c r="H36" s="15">
         <v>703.86900000000003</v>
       </c>
-      <c r="I35" s="15">
+      <c r="I36" s="15">
         <v>4176.1049999999996</v>
       </c>
-      <c r="J35" s="15">
+      <c r="J36" s="15">
         <v>3254.7069999999999</v>
       </c>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15">
+      <c r="K36" s="15"/>
+      <c r="L36" s="15">
         <v>6617.3549999999996</v>
       </c>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15">
+      <c r="M36" s="15"/>
+      <c r="N36" s="15">
         <v>824.20899999999995</v>
       </c>
-      <c r="O35" s="15">
+      <c r="O36" s="15">
         <v>1766.3487500000001</v>
       </c>
     </row>
-    <row r="36" spans="2:15" hidden="1">
-      <c r="B36" s="16">
+    <row r="37" spans="2:15" hidden="1">
+      <c r="B37" s="16">
         <v>2022</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C37" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D37" s="18">
         <f t="shared" si="1"/>
         <v>26279.741409999995</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E37" s="19">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F37" s="19">
         <v>28.286999999999999</v>
       </c>
-      <c r="G36" s="19">
+      <c r="G37" s="19">
         <v>9293.5259999999998</v>
       </c>
-      <c r="H36" s="19">
+      <c r="H37" s="19">
         <v>859.87</v>
       </c>
-      <c r="I36" s="19">
+      <c r="I37" s="19">
         <v>4037.6669999999999</v>
       </c>
-      <c r="J36" s="19">
+      <c r="J37" s="19">
         <v>3520.194</v>
       </c>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19">
+      <c r="K37" s="19"/>
+      <c r="L37" s="19">
         <v>5886.08</v>
       </c>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19">
+      <c r="M37" s="19"/>
+      <c r="N37" s="19">
         <v>804.58889999999997</v>
       </c>
-      <c r="O36" s="19">
+      <c r="O37" s="19">
         <v>1849.52451</v>
       </c>
     </row>
-    <row r="37" spans="2:15" hidden="1">
-      <c r="B37" s="12">
+    <row r="38" spans="2:15" hidden="1">
+      <c r="B38" s="12">
         <v>2022</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C38" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D38" s="14">
         <f t="shared" si="1"/>
         <v>30603.772699999998</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E38" s="15">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F37" s="15">
+      <c r="F38" s="15">
         <v>31.623000000000001</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G38" s="15">
         <v>9435.7099999999991</v>
       </c>
-      <c r="H37" s="15">
+      <c r="H38" s="15">
         <v>852.04499999999996</v>
       </c>
-      <c r="I37" s="15">
+      <c r="I38" s="15">
         <v>4353.799</v>
       </c>
-      <c r="J37" s="15">
+      <c r="J38" s="15">
         <v>3361.634</v>
       </c>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15">
+      <c r="K38" s="15"/>
+      <c r="L38" s="15">
         <v>10038.903</v>
       </c>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15">
+      <c r="M38" s="15"/>
+      <c r="N38" s="15">
         <v>692.77719999999999</v>
       </c>
-      <c r="O37" s="15">
+      <c r="O38" s="15">
         <v>1837.2745</v>
       </c>
     </row>
-    <row r="38" spans="2:15" hidden="1">
-      <c r="B38" s="16">
+    <row r="39" spans="2:15" hidden="1">
+      <c r="B39" s="16">
         <v>2022</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C39" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D39" s="18">
         <f t="shared" si="1"/>
         <v>32911.434350000003</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E39" s="19">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F38" s="19">
+      <c r="F39" s="19">
         <v>29.89</v>
       </c>
-      <c r="G38" s="19">
+      <c r="G39" s="19">
         <v>9434.6640000000007</v>
       </c>
-      <c r="H38" s="19">
+      <c r="H39" s="19">
         <v>704.59900000000005</v>
       </c>
-      <c r="I38" s="19">
+      <c r="I39" s="19">
         <v>4932.3429999999998</v>
       </c>
-      <c r="J38" s="19">
+      <c r="J39" s="19">
         <v>3363.165</v>
       </c>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19">
+      <c r="K39" s="19"/>
+      <c r="L39" s="19">
         <v>11698.642</v>
       </c>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19">
+      <c r="M39" s="19"/>
+      <c r="N39" s="19">
         <v>750.94670000000008</v>
       </c>
-      <c r="O38" s="19">
+      <c r="O39" s="19">
         <v>1997.1796499999998</v>
       </c>
     </row>
-    <row r="39" spans="2:15" hidden="1">
-      <c r="B39" s="12">
+    <row r="40" spans="2:15" hidden="1">
+      <c r="B40" s="12">
         <v>2022</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C40" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D40" s="14">
         <f t="shared" si="1"/>
         <v>32136.140250000004</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E40" s="15">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F40" s="15">
         <v>28.506</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G40" s="15">
         <v>9520.1350000000002</v>
       </c>
-      <c r="H39" s="15">
+      <c r="H40" s="15">
         <v>707.80499999999995</v>
       </c>
-      <c r="I39" s="15">
+      <c r="I40" s="15">
         <v>5145.5190000000002</v>
       </c>
-      <c r="J39" s="15">
+      <c r="J40" s="15">
         <v>3217.3589999999999</v>
       </c>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15">
+      <c r="K40" s="15"/>
+      <c r="L40" s="15">
         <v>10677.519</v>
       </c>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15">
+      <c r="M40" s="15"/>
+      <c r="N40" s="15">
         <v>667.7</v>
       </c>
-      <c r="O39" s="15">
+      <c r="O40" s="15">
         <v>2171.5932499999999</v>
       </c>
     </row>
-    <row r="40" spans="2:15" hidden="1">
-      <c r="B40" s="16">
+    <row r="41" spans="2:15" hidden="1">
+      <c r="B41" s="16">
         <v>2022</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C41" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D41" s="18">
         <f t="shared" si="1"/>
         <v>27514.741269999999</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E41" s="19">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F40" s="19">
+      <c r="F41" s="19">
         <v>33.442</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G41" s="19">
         <v>8677.1650000000009</v>
       </c>
-      <c r="H40" s="19">
+      <c r="H41" s="19">
         <v>704.93700000000001</v>
       </c>
-      <c r="I40" s="19">
+      <c r="I41" s="19">
         <v>4385.1239999999998</v>
       </c>
-      <c r="J40" s="19">
+      <c r="J41" s="19">
         <v>3089.9090000000001</v>
       </c>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19">
+      <c r="K41" s="19"/>
+      <c r="L41" s="19">
         <v>7847.8879999999999</v>
       </c>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19">
+      <c r="M41" s="19"/>
+      <c r="N41" s="19">
         <v>761.38699999999994</v>
       </c>
-      <c r="O40" s="19">
+      <c r="O41" s="19">
         <v>2014.8862699999997</v>
       </c>
     </row>
-    <row r="41" spans="2:15" hidden="1">
-      <c r="B41" s="12">
+    <row r="42" spans="2:15" hidden="1">
+      <c r="B42" s="12">
         <v>2022</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C42" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D42" s="14">
         <f t="shared" si="1"/>
         <v>30859.440460000002</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E42" s="15">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F42" s="15">
         <v>30.175999999999998</v>
       </c>
-      <c r="G41" s="15">
+      <c r="G42" s="15">
         <v>9761.2630000000008</v>
       </c>
-      <c r="H41" s="15">
+      <c r="H42" s="15">
         <v>1009.9829999999999</v>
       </c>
-      <c r="I41" s="15">
+      <c r="I42" s="15">
         <v>6578.5140000000001</v>
       </c>
-      <c r="J41" s="15">
+      <c r="J42" s="15">
         <v>3448.0540000000001</v>
       </c>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15">
+      <c r="K42" s="15"/>
+      <c r="L42" s="15">
         <v>7191.5020000000004</v>
       </c>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15">
+      <c r="M42" s="15"/>
+      <c r="N42" s="15">
         <v>742.69299999999998</v>
       </c>
-      <c r="O41" s="15">
+      <c r="O42" s="15">
         <v>2097.25146</v>
       </c>
     </row>
-    <row r="42" spans="2:15" hidden="1">
-      <c r="B42" s="16">
+    <row r="43" spans="2:15" hidden="1">
+      <c r="B43" s="16">
         <v>2022</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C43" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D42" s="18">
+      <c r="D43" s="18">
         <f t="shared" si="1"/>
         <v>26857.410190000002</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E43" s="19">
         <v>0</v>
       </c>
-      <c r="F42" s="19">
+      <c r="F43" s="19">
         <v>26.463999999999999</v>
       </c>
-      <c r="G42" s="19">
+      <c r="G43" s="19">
         <v>8399.2009999999991</v>
       </c>
-      <c r="H42" s="19">
+      <c r="H43" s="19">
         <v>816.23900000000003</v>
       </c>
-      <c r="I42" s="19">
+      <c r="I43" s="19">
         <v>4488.2250000000004</v>
       </c>
-      <c r="J42" s="19">
+      <c r="J43" s="19">
         <v>3087.74</v>
       </c>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19">
+      <c r="K43" s="19"/>
+      <c r="L43" s="19">
         <v>7675.5219999999999</v>
       </c>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19">
+      <c r="M43" s="19"/>
+      <c r="N43" s="19">
         <v>680.0145</v>
       </c>
-      <c r="O42" s="19">
+      <c r="O43" s="19">
         <v>1684.00469</v>
       </c>
     </row>
-    <row r="43" spans="2:15" hidden="1">
-      <c r="B43" s="20">
+    <row r="44" spans="2:15" hidden="1">
+      <c r="B44" s="20">
         <v>2022</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C44" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D44" s="22">
         <f t="shared" si="1"/>
         <v>26010.419900000001</v>
       </c>
-      <c r="E43" s="23">
+      <c r="E44" s="23">
         <v>0.01</v>
       </c>
-      <c r="F43" s="23">
+      <c r="F44" s="23">
         <v>29.917000000000002</v>
       </c>
-      <c r="G43" s="23">
+      <c r="G44" s="23">
         <v>8064.9719999999998</v>
       </c>
-      <c r="H43" s="23">
+      <c r="H44" s="23">
         <v>759.41499999999996</v>
       </c>
-      <c r="I43" s="23">
+      <c r="I44" s="23">
         <v>4874.95</v>
       </c>
-      <c r="J43" s="23">
+      <c r="J44" s="23">
         <v>3142.1970000000001</v>
       </c>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23">
+      <c r="K44" s="23"/>
+      <c r="L44" s="23">
         <v>6776.384</v>
       </c>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23">
+      <c r="M44" s="23"/>
+      <c r="N44" s="23">
         <v>751.90069999999992</v>
       </c>
-      <c r="O43" s="23">
+      <c r="O44" s="23">
         <v>1610.6742000000002</v>
       </c>
     </row>
-    <row r="44" spans="2:15" hidden="1">
-      <c r="B44" s="24">
+    <row r="45" spans="2:15" hidden="1">
+      <c r="B45" s="24">
         <v>2021</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C45" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D44" s="26">
+      <c r="D45" s="26">
         <f t="shared" si="1"/>
         <v>31566.167749999997</v>
       </c>
-      <c r="E44" s="27">
+      <c r="E45" s="27">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F44" s="27">
+      <c r="F45" s="27">
         <v>37.055</v>
       </c>
-      <c r="G44" s="27">
+      <c r="G45" s="27">
         <v>9575.5380000000005</v>
       </c>
-      <c r="H44" s="27">
+      <c r="H45" s="27">
         <v>889.38</v>
       </c>
-      <c r="I44" s="27">
+      <c r="I45" s="27">
         <v>6288.674</v>
       </c>
-      <c r="J44" s="27">
+      <c r="J45" s="27">
         <v>4403.6390000000001</v>
       </c>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27">
+      <c r="K45" s="27"/>
+      <c r="L45" s="27">
         <v>7812.2049999999999</v>
       </c>
-      <c r="M44" s="27"/>
-      <c r="N44" s="27">
+      <c r="M45" s="27"/>
+      <c r="N45" s="27">
         <v>644.26139999999998</v>
       </c>
-      <c r="O44" s="27">
+      <c r="O45" s="27">
         <v>1915.4123500000001</v>
       </c>
     </row>
-    <row r="45" spans="2:15" hidden="1">
-      <c r="B45" s="12">
+    <row r="46" spans="2:15" hidden="1">
+      <c r="B46" s="12">
         <v>2021</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C46" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D46" s="14">
         <f t="shared" si="1"/>
         <v>29944.972509999996</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E46" s="15">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F46" s="15">
         <v>42.304000000000002</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G46" s="15">
         <v>8541.3799999999992</v>
       </c>
-      <c r="H45" s="15">
+      <c r="H46" s="15">
         <v>797.55100000000004</v>
       </c>
-      <c r="I45" s="15">
+      <c r="I46" s="15">
         <v>5779.326</v>
       </c>
-      <c r="J45" s="15">
+      <c r="J46" s="15">
         <v>3742.5929999999998</v>
       </c>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15">
+      <c r="K46" s="15"/>
+      <c r="L46" s="15">
         <v>8308.2459999999992</v>
       </c>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15">
+      <c r="M46" s="15"/>
+      <c r="N46" s="15">
         <v>761.88139999999999</v>
       </c>
-      <c r="O45" s="15">
+      <c r="O46" s="15">
         <v>1971.6851100000001</v>
       </c>
     </row>
-    <row r="46" spans="2:15" hidden="1">
-      <c r="B46" s="16">
+    <row r="47" spans="2:15" hidden="1">
+      <c r="B47" s="16">
         <v>2021</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C47" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D47" s="18">
         <f t="shared" si="1"/>
         <v>30000.867740000002</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E47" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F46" s="19">
+      <c r="F47" s="19">
         <v>29.148</v>
       </c>
-      <c r="G46" s="19">
+      <c r="G47" s="19">
         <v>9141.5849999999991</v>
       </c>
-      <c r="H46" s="19">
+      <c r="H47" s="19">
         <v>935.53599999999994</v>
       </c>
-      <c r="I46" s="19">
+      <c r="I47" s="19">
         <v>5740.3919999999998</v>
       </c>
-      <c r="J46" s="19">
+      <c r="J47" s="19">
         <v>3221.6640000000002</v>
       </c>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19">
+      <c r="K47" s="19"/>
+      <c r="L47" s="19">
         <v>8292.1039999999994</v>
       </c>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19">
+      <c r="M47" s="19"/>
+      <c r="N47" s="19">
         <v>722.20399999999995</v>
       </c>
-      <c r="O46" s="19">
+      <c r="O47" s="19">
         <v>1918.2237399999999</v>
       </c>
     </row>
-    <row r="47" spans="2:15" hidden="1">
-      <c r="B47" s="12">
+    <row r="48" spans="2:15" hidden="1">
+      <c r="B48" s="12">
         <v>2021</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C48" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="14">
-        <f t="shared" ref="D47:D78" si="3">SUM(E47:O47)</f>
+      <c r="D48" s="14">
+        <f t="shared" ref="D48:D79" si="3">SUM(E48:O48)</f>
         <v>25044.998970000004</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E48" s="15">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F47" s="15">
+      <c r="F48" s="15">
         <v>27.141999999999999</v>
       </c>
-      <c r="G47" s="15">
+      <c r="G48" s="15">
         <v>7906.91</v>
       </c>
-      <c r="H47" s="15">
+      <c r="H48" s="15">
         <v>875.76900000000001</v>
       </c>
-      <c r="I47" s="15">
+      <c r="I48" s="15">
         <v>4566.3109999999997</v>
       </c>
-      <c r="J47" s="15">
+      <c r="J48" s="15">
         <v>3115.0770000000002</v>
       </c>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15">
+      <c r="K48" s="15"/>
+      <c r="L48" s="15">
         <v>6415.2790000000005</v>
       </c>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15">
+      <c r="M48" s="15"/>
+      <c r="N48" s="15">
         <v>491.27</v>
       </c>
-      <c r="O47" s="15">
+      <c r="O48" s="15">
         <v>1647.23197</v>
       </c>
     </row>
-    <row r="48" spans="2:15" hidden="1">
-      <c r="B48" s="16">
+    <row r="49" spans="2:15" hidden="1">
+      <c r="B49" s="16">
         <v>2021</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C49" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D48" s="18">
+      <c r="D49" s="18">
         <f t="shared" si="3"/>
         <v>26801.51179</v>
       </c>
-      <c r="E48" s="19">
+      <c r="E49" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F48" s="19">
+      <c r="F49" s="19">
         <v>26.024000000000001</v>
       </c>
-      <c r="G48" s="19">
+      <c r="G49" s="19">
         <v>7787.3339999999998</v>
       </c>
-      <c r="H48" s="19">
+      <c r="H49" s="19">
         <v>951.82</v>
       </c>
-      <c r="I48" s="19">
+      <c r="I49" s="19">
         <v>5861.0240000000003</v>
       </c>
-      <c r="J48" s="19">
+      <c r="J49" s="19">
         <v>2963.1660000000002</v>
       </c>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19">
+      <c r="K49" s="19"/>
+      <c r="L49" s="19">
         <v>6924.8339999999998</v>
       </c>
-      <c r="M48" s="19"/>
-      <c r="N48" s="19">
+      <c r="M49" s="19"/>
+      <c r="N49" s="19">
         <v>590.37950000000001</v>
       </c>
-      <c r="O48" s="19">
+      <c r="O49" s="19">
         <v>1696.91929</v>
       </c>
     </row>
-    <row r="49" spans="2:15" hidden="1">
-      <c r="B49" s="12">
+    <row r="50" spans="2:15" hidden="1">
+      <c r="B50" s="12">
         <v>2021</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C50" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D50" s="14">
         <f t="shared" si="3"/>
         <v>29570.534019999996</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E50" s="15">
         <v>1.6E-2</v>
       </c>
-      <c r="F49" s="15">
+      <c r="F50" s="15">
         <v>33.762999999999998</v>
       </c>
-      <c r="G49" s="15">
+      <c r="G50" s="15">
         <v>7960.9809999999998</v>
       </c>
-      <c r="H49" s="15">
+      <c r="H50" s="15">
         <v>980.41300000000001</v>
       </c>
-      <c r="I49" s="15">
+      <c r="I50" s="15">
         <v>6238.2730000000001</v>
       </c>
-      <c r="J49" s="15">
+      <c r="J50" s="15">
         <v>3189.866</v>
       </c>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15">
+      <c r="K50" s="15"/>
+      <c r="L50" s="15">
         <v>8884.8860000000004</v>
       </c>
-      <c r="M49" s="15"/>
-      <c r="N49" s="15">
+      <c r="M50" s="15"/>
+      <c r="N50" s="15">
         <v>570.02250000000004</v>
       </c>
-      <c r="O49" s="15">
+      <c r="O50" s="15">
         <v>1712.3135199999999</v>
       </c>
     </row>
-    <row r="50" spans="2:15" hidden="1">
-      <c r="B50" s="16">
+    <row r="51" spans="2:15" hidden="1">
+      <c r="B51" s="16">
         <v>2021</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C51" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="18">
+      <c r="D51" s="18">
         <f t="shared" si="3"/>
         <v>26984.257880000001</v>
       </c>
-      <c r="E50" s="19">
+      <c r="E51" s="19">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F50" s="19">
+      <c r="F51" s="19">
         <v>30.326000000000001</v>
       </c>
-      <c r="G50" s="19">
+      <c r="G51" s="19">
         <v>6994.8090000000002</v>
       </c>
-      <c r="H50" s="19">
+      <c r="H51" s="19">
         <v>938.22799999999995</v>
       </c>
-      <c r="I50" s="19">
+      <c r="I51" s="19">
         <v>5685.7610000000004</v>
       </c>
-      <c r="J50" s="19">
+      <c r="J51" s="19">
         <v>2933.55</v>
       </c>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19">
+      <c r="K51" s="19"/>
+      <c r="L51" s="19">
         <v>8239.3950000000004</v>
       </c>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19">
+      <c r="M51" s="19"/>
+      <c r="N51" s="19">
         <v>517.37900000000002</v>
       </c>
-      <c r="O50" s="19">
+      <c r="O51" s="19">
         <v>1644.78388</v>
       </c>
     </row>
-    <row r="51" spans="2:15" hidden="1">
-      <c r="B51" s="12">
+    <row r="52" spans="2:15" hidden="1">
+      <c r="B52" s="12">
         <v>2021</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C52" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D52" s="14">
         <f t="shared" si="3"/>
         <v>27395.161769999999</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E52" s="15">
         <v>1.2E-2</v>
       </c>
-      <c r="F51" s="15">
+      <c r="F52" s="15">
         <v>34.064</v>
       </c>
-      <c r="G51" s="15">
+      <c r="G52" s="15">
         <v>5853.0280000000002</v>
       </c>
-      <c r="H51" s="15">
+      <c r="H52" s="15">
         <v>804.99099999999999</v>
       </c>
-      <c r="I51" s="15">
+      <c r="I52" s="15">
         <v>6221.6310000000003</v>
       </c>
-      <c r="J51" s="15">
+      <c r="J52" s="15">
         <v>2753.0189999999998</v>
       </c>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15">
+      <c r="K52" s="15"/>
+      <c r="L52" s="15">
         <v>9369.7039999999997</v>
       </c>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15">
+      <c r="M52" s="15"/>
+      <c r="N52" s="15">
         <v>581.25</v>
       </c>
-      <c r="O51" s="15">
+      <c r="O52" s="15">
         <v>1777.4627700000001</v>
       </c>
     </row>
-    <row r="52" spans="2:15" hidden="1">
-      <c r="B52" s="16">
+    <row r="53" spans="2:15" hidden="1">
+      <c r="B53" s="16">
         <v>2021</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C53" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D52" s="18">
+      <c r="D53" s="18">
         <f t="shared" si="3"/>
         <v>26794.383829999999</v>
       </c>
-      <c r="E52" s="19">
+      <c r="E53" s="19">
         <v>1.4E-2</v>
       </c>
-      <c r="F52" s="19">
+      <c r="F53" s="19">
         <v>28.870999999999999</v>
       </c>
-      <c r="G52" s="19">
+      <c r="G53" s="19">
         <v>5583.2060000000001</v>
       </c>
-      <c r="H52" s="19">
+      <c r="H53" s="19">
         <v>855.89099999999996</v>
       </c>
-      <c r="I52" s="19">
+      <c r="I53" s="19">
         <v>5955.3379999999997</v>
       </c>
-      <c r="J52" s="19">
+      <c r="J53" s="19">
         <v>2553.587</v>
       </c>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19">
+      <c r="K53" s="19"/>
+      <c r="L53" s="19">
         <v>9635.8649999999998</v>
       </c>
-      <c r="M52" s="19"/>
-      <c r="N52" s="19">
+      <c r="M53" s="19"/>
+      <c r="N53" s="19">
         <v>569.29200000000003</v>
       </c>
-      <c r="O52" s="19">
+      <c r="O53" s="19">
         <v>1612.3198300000001</v>
       </c>
     </row>
-    <row r="53" spans="2:15" hidden="1">
-      <c r="B53" s="12">
+    <row r="54" spans="2:15" hidden="1">
+      <c r="B54" s="12">
         <v>2021</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C54" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D54" s="14">
         <f t="shared" si="3"/>
         <v>28888.855879999999</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E54" s="15">
         <v>0.01</v>
       </c>
-      <c r="F53" s="15">
+      <c r="F54" s="15">
         <v>30.994</v>
       </c>
-      <c r="G53" s="15">
+      <c r="G54" s="15">
         <v>5972.1139999999996</v>
       </c>
-      <c r="H53" s="15">
+      <c r="H54" s="15">
         <v>961.24900000000002</v>
       </c>
-      <c r="I53" s="15">
+      <c r="I54" s="15">
         <v>6821.0630000000001</v>
       </c>
-      <c r="J53" s="15">
+      <c r="J54" s="15">
         <v>2527.971</v>
       </c>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15">
+      <c r="K54" s="15"/>
+      <c r="L54" s="15">
         <v>10350.735000000001</v>
       </c>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15">
+      <c r="M54" s="15"/>
+      <c r="N54" s="15">
         <v>537.19399999999996</v>
       </c>
-      <c r="O53" s="15">
+      <c r="O54" s="15">
         <v>1687.5258799999999</v>
       </c>
     </row>
-    <row r="54" spans="2:15" hidden="1">
-      <c r="B54" s="16">
+    <row r="55" spans="2:15" hidden="1">
+      <c r="B55" s="16">
         <v>2021</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C55" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D54" s="18">
+      <c r="D55" s="18">
         <f t="shared" si="3"/>
         <v>25842.507199999996</v>
       </c>
-      <c r="E54" s="19">
+      <c r="E55" s="19">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F54" s="19">
+      <c r="F55" s="19">
         <v>23.164999999999999</v>
       </c>
-      <c r="G54" s="19">
+      <c r="G55" s="19">
         <v>5676.3119999999999</v>
       </c>
-      <c r="H54" s="19">
+      <c r="H55" s="19">
         <v>842.12599999999998</v>
       </c>
-      <c r="I54" s="19">
+      <c r="I55" s="19">
         <v>6447.9210000000003</v>
       </c>
-      <c r="J54" s="19">
+      <c r="J55" s="19">
         <v>2143.1759999999999</v>
       </c>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19">
+      <c r="K55" s="19"/>
+      <c r="L55" s="19">
         <v>8771.1730000000007</v>
       </c>
-      <c r="M54" s="19"/>
-      <c r="N54" s="19">
+      <c r="M55" s="19"/>
+      <c r="N55" s="19">
         <v>441.65600000000001</v>
       </c>
-      <c r="O54" s="19">
+      <c r="O55" s="19">
         <v>1496.9692</v>
       </c>
     </row>
-    <row r="55" spans="2:15" hidden="1">
-      <c r="B55" s="20">
+    <row r="56" spans="2:15" hidden="1">
+      <c r="B56" s="20">
         <v>2021</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C56" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="22">
+      <c r="D56" s="22">
         <f t="shared" si="3"/>
         <v>26743.09706</v>
       </c>
-      <c r="E55" s="23">
+      <c r="E56" s="23">
         <v>2.3E-2</v>
       </c>
-      <c r="F55" s="23">
+      <c r="F56" s="23">
         <v>22.483000000000001</v>
       </c>
-      <c r="G55" s="23">
+      <c r="G56" s="23">
         <v>5633.7330000000002</v>
       </c>
-      <c r="H55" s="23">
+      <c r="H56" s="23">
         <v>893.20500000000004</v>
       </c>
-      <c r="I55" s="23">
+      <c r="I56" s="23">
         <v>5852.174</v>
       </c>
-      <c r="J55" s="23">
+      <c r="J56" s="23">
         <v>2714.6959999999999</v>
       </c>
-      <c r="K55" s="23"/>
-      <c r="L55" s="23">
+      <c r="K56" s="23"/>
+      <c r="L56" s="23">
         <v>9764.4040000000005</v>
       </c>
-      <c r="M55" s="23"/>
-      <c r="N55" s="23">
+      <c r="M56" s="23"/>
+      <c r="N56" s="23">
         <v>374.46</v>
       </c>
-      <c r="O55" s="23">
+      <c r="O56" s="23">
         <v>1487.9190599999999</v>
       </c>
     </row>
-    <row r="56" spans="2:15" hidden="1">
-      <c r="B56" s="24">
+    <row r="57" spans="2:15" hidden="1">
+      <c r="B57" s="24">
         <v>2020</v>
       </c>
-      <c r="C56" s="25" t="s">
+      <c r="C57" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D56" s="26">
+      <c r="D57" s="26">
         <f t="shared" si="3"/>
         <v>29335.748110000004</v>
       </c>
-      <c r="E56" s="27">
+      <c r="E57" s="27">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F56" s="27">
+      <c r="F57" s="27">
         <v>30.75</v>
       </c>
-      <c r="G56" s="27">
+      <c r="G57" s="27">
         <v>5388.74</v>
       </c>
-      <c r="H56" s="27">
+      <c r="H57" s="27">
         <v>1227.8499999999999</v>
       </c>
-      <c r="I56" s="27">
+      <c r="I57" s="27">
         <v>8063.0550000000003</v>
       </c>
-      <c r="J56" s="27">
+      <c r="J57" s="27">
         <v>3485.029</v>
       </c>
-      <c r="K56" s="27">
+      <c r="K57" s="27">
         <v>16.4115</v>
       </c>
-      <c r="L56" s="27">
+      <c r="L57" s="27">
         <v>8808.3330000000005</v>
       </c>
-      <c r="M56" s="27"/>
-      <c r="N56" s="27">
+      <c r="M57" s="27"/>
+      <c r="N57" s="27">
         <v>499.45499999999998</v>
       </c>
-      <c r="O56" s="27">
+      <c r="O57" s="27">
         <v>1816.0996100000002</v>
       </c>
     </row>
-    <row r="57" spans="2:15" hidden="1">
-      <c r="B57" s="12">
+    <row r="58" spans="2:15" hidden="1">
+      <c r="B58" s="12">
         <v>2020</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C58" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D58" s="14">
         <f t="shared" si="3"/>
         <v>31111.598979999999</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E58" s="15">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="F57" s="15">
+      <c r="F58" s="15">
         <v>29.420999999999999</v>
       </c>
-      <c r="G57" s="15">
+      <c r="G58" s="15">
         <v>4646.3059999999996</v>
       </c>
-      <c r="H57" s="15">
+      <c r="H58" s="15">
         <v>918.31700000000001</v>
       </c>
-      <c r="I57" s="15">
+      <c r="I58" s="15">
         <v>10405.393</v>
       </c>
-      <c r="J57" s="15">
+      <c r="J58" s="15">
         <v>3080.1370000000002</v>
       </c>
-      <c r="K57" s="15">
+      <c r="K58" s="15">
         <v>86.034999999999997</v>
       </c>
-      <c r="L57" s="15">
+      <c r="L58" s="15">
         <v>9680.3340000000007</v>
       </c>
-      <c r="M57" s="15"/>
-      <c r="N57" s="15">
+      <c r="M58" s="15"/>
+      <c r="N58" s="15">
         <v>427.87200000000001</v>
       </c>
-      <c r="O57" s="15">
+      <c r="O58" s="15">
         <v>1837.75198</v>
       </c>
     </row>
-    <row r="58" spans="2:15" hidden="1">
-      <c r="B58" s="16">
+    <row r="59" spans="2:15" hidden="1">
+      <c r="B59" s="16">
         <v>2020</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C59" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D58" s="18">
+      <c r="D59" s="18">
         <f t="shared" si="3"/>
         <v>29198.211449999999</v>
       </c>
-      <c r="E58" s="19">
+      <c r="E59" s="19">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F58" s="19">
+      <c r="F59" s="19">
         <v>25.18</v>
       </c>
-      <c r="G58" s="19">
+      <c r="G59" s="19">
         <v>4168.3999999999996</v>
       </c>
-      <c r="H58" s="19">
+      <c r="H59" s="19">
         <v>855.53599999999994</v>
       </c>
-      <c r="I58" s="19">
+      <c r="I59" s="19">
         <v>9141.11</v>
       </c>
-      <c r="J58" s="19">
+      <c r="J59" s="19">
         <v>2910.5740000000001</v>
       </c>
-      <c r="K58" s="19">
+      <c r="K59" s="19">
         <v>131.53100000000001</v>
       </c>
-      <c r="L58" s="19">
+      <c r="L59" s="19">
         <v>9811.7209999999995</v>
       </c>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19">
+      <c r="M59" s="19"/>
+      <c r="N59" s="19">
         <v>328.78100000000001</v>
       </c>
-      <c r="O58" s="19">
+      <c r="O59" s="19">
         <v>1825.3604499999999</v>
       </c>
     </row>
-    <row r="59" spans="2:15" hidden="1">
-      <c r="B59" s="12">
+    <row r="60" spans="2:15" hidden="1">
+      <c r="B60" s="12">
         <v>2020</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C60" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D59" s="14">
+      <c r="D60" s="14">
         <f t="shared" si="3"/>
         <v>25824.25403</v>
       </c>
-      <c r="E59" s="15">
+      <c r="E60" s="15">
         <v>1.6E-2</v>
       </c>
-      <c r="F59" s="15">
+      <c r="F60" s="15">
         <v>19.38</v>
       </c>
-      <c r="G59" s="15">
+      <c r="G60" s="15">
         <v>3354.4870000000001</v>
       </c>
-      <c r="H59" s="15">
+      <c r="H60" s="15">
         <v>815.01599999999996</v>
       </c>
-      <c r="I59" s="15">
+      <c r="I60" s="15">
         <v>9094.2099999999991</v>
       </c>
-      <c r="J59" s="15">
+      <c r="J60" s="15">
         <v>2742.8449999999998</v>
       </c>
-      <c r="K59" s="15">
+      <c r="K60" s="15">
         <v>94.078000000000003</v>
       </c>
-      <c r="L59" s="15">
+      <c r="L60" s="15">
         <v>7889.5420000000004</v>
       </c>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15">
+      <c r="M60" s="15"/>
+      <c r="N60" s="15">
         <v>300.25099999999998</v>
       </c>
-      <c r="O59" s="15">
+      <c r="O60" s="15">
         <v>1514.42903</v>
       </c>
     </row>
-    <row r="60" spans="2:15" hidden="1">
-      <c r="B60" s="16">
+    <row r="61" spans="2:15" hidden="1">
+      <c r="B61" s="16">
         <v>2020</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C61" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D60" s="18">
+      <c r="D61" s="18">
         <f t="shared" si="3"/>
         <v>23354.829529999999</v>
       </c>
-      <c r="E60" s="19">
+      <c r="E61" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F60" s="19">
+      <c r="F61" s="19">
         <v>19.126000000000001</v>
       </c>
-      <c r="G60" s="19">
+      <c r="G61" s="19">
         <v>2845.2860000000001</v>
       </c>
-      <c r="H60" s="19">
+      <c r="H61" s="19">
         <v>913.84799999999996</v>
       </c>
-      <c r="I60" s="19">
+      <c r="I61" s="19">
         <v>8628.9339999999993</v>
       </c>
-      <c r="J60" s="19">
+      <c r="J61" s="19">
         <v>2494.9360000000001</v>
       </c>
-      <c r="K60" s="19">
+      <c r="K61" s="19">
         <v>102.148</v>
       </c>
-      <c r="L60" s="19">
+      <c r="L61" s="19">
         <v>6734.2569999999996</v>
       </c>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19">
+      <c r="M61" s="19"/>
+      <c r="N61" s="19">
         <v>214.13300000000001</v>
       </c>
-      <c r="O60" s="19">
+      <c r="O61" s="19">
         <v>1402.1505300000001</v>
       </c>
     </row>
-    <row r="61" spans="2:15" hidden="1">
-      <c r="B61" s="12">
+    <row r="62" spans="2:15" hidden="1">
+      <c r="B62" s="12">
         <v>2020</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C62" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D61" s="14">
+      <c r="D62" s="14">
         <f t="shared" si="3"/>
         <v>19260.244039999998</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E62" s="15">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F61" s="15">
+      <c r="F62" s="15">
         <v>18.687000000000001</v>
       </c>
-      <c r="G61" s="15">
+      <c r="G62" s="15">
         <v>2326.4090000000001</v>
       </c>
-      <c r="H61" s="15">
+      <c r="H62" s="15">
         <v>969.73</v>
       </c>
-      <c r="I61" s="15">
+      <c r="I62" s="15">
         <v>5828.2169999999996</v>
       </c>
-      <c r="J61" s="15">
+      <c r="J62" s="15">
         <v>2394.4169999999999</v>
       </c>
-      <c r="K61" s="15">
+      <c r="K62" s="15">
         <v>76.744</v>
       </c>
-      <c r="L61" s="15">
+      <c r="L62" s="15">
         <v>6273.5619999999999</v>
       </c>
-      <c r="M61" s="15"/>
-      <c r="N61" s="15">
+      <c r="M62" s="15"/>
+      <c r="N62" s="15">
         <v>151.30000000000001</v>
       </c>
-      <c r="O61" s="15">
+      <c r="O62" s="15">
         <v>1221.17004</v>
       </c>
     </row>
-    <row r="62" spans="2:15" hidden="1">
-      <c r="B62" s="16">
+    <row r="63" spans="2:15" hidden="1">
+      <c r="B63" s="16">
         <v>2020</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C63" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="18">
+      <c r="D63" s="18">
         <f t="shared" si="3"/>
         <v>16681.950259999998</v>
       </c>
-      <c r="E62" s="19">
+      <c r="E63" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F62" s="19">
+      <c r="F63" s="19">
         <v>15.773</v>
       </c>
-      <c r="G62" s="19">
+      <c r="G63" s="19">
         <v>1336.4849999999999</v>
       </c>
-      <c r="H62" s="19">
+      <c r="H63" s="19">
         <v>585.92899999999997</v>
       </c>
-      <c r="I62" s="19">
+      <c r="I63" s="19">
         <v>5587.4769999999999</v>
       </c>
-      <c r="J62" s="19">
+      <c r="J63" s="19">
         <v>2256.6930000000002</v>
       </c>
-      <c r="K62" s="19">
+      <c r="K63" s="19">
         <v>42.146999999999998</v>
       </c>
-      <c r="L62" s="19">
+      <c r="L63" s="19">
         <v>5744.8710000000001</v>
       </c>
-      <c r="M62" s="19"/>
-      <c r="N62" s="19">
+      <c r="M63" s="19"/>
+      <c r="N63" s="19">
         <v>118.29600000000001</v>
       </c>
-      <c r="O62" s="19">
+      <c r="O63" s="19">
         <v>994.26826000000005</v>
       </c>
     </row>
-    <row r="63" spans="2:15" hidden="1">
-      <c r="B63" s="12">
+    <row r="64" spans="2:15" hidden="1">
+      <c r="B64" s="12">
         <v>2020</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C64" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D63" s="14">
+      <c r="D64" s="14">
         <f t="shared" si="3"/>
         <v>15536.86291</v>
       </c>
-      <c r="E63" s="15">
+      <c r="E64" s="15">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F63" s="15">
+      <c r="F64" s="15">
         <v>9.4559999999999995</v>
       </c>
-      <c r="G63" s="15">
+      <c r="G64" s="15">
         <v>799.72500000000002</v>
       </c>
-      <c r="H63" s="15">
+      <c r="H64" s="15">
         <v>697.28700000000003</v>
       </c>
-      <c r="I63" s="15">
+      <c r="I64" s="15">
         <v>5542.4840000000004</v>
       </c>
-      <c r="J63" s="15">
+      <c r="J64" s="15">
         <v>2132.3310000000001</v>
       </c>
-      <c r="K63" s="15">
+      <c r="K64" s="15">
         <v>69.804000000000002</v>
       </c>
-      <c r="L63" s="15">
+      <c r="L64" s="15">
         <v>5558.576</v>
       </c>
-      <c r="M63" s="15"/>
-      <c r="N63" s="15">
+      <c r="M64" s="15"/>
+      <c r="N64" s="15">
         <v>143.20510000000002</v>
       </c>
-      <c r="O63" s="15">
+      <c r="O64" s="15">
         <v>583.9918100000001</v>
       </c>
     </row>
-    <row r="64" spans="2:15" hidden="1">
-      <c r="B64" s="16">
+    <row r="65" spans="2:15" hidden="1">
+      <c r="B65" s="16">
         <v>2020</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C65" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D64" s="18">
+      <c r="D65" s="18">
         <f t="shared" si="3"/>
         <v>13161.648870000003</v>
       </c>
-      <c r="E64" s="19">
+      <c r="E65" s="19">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F64" s="19">
+      <c r="F65" s="19">
         <v>7.4619999999999997</v>
       </c>
-      <c r="G64" s="19">
+      <c r="G65" s="19">
         <v>1038.125</v>
       </c>
-      <c r="H64" s="19">
+      <c r="H65" s="19">
         <v>754.48400000000004</v>
       </c>
-      <c r="I64" s="19">
+      <c r="I65" s="19">
         <v>5034.1760000000004</v>
       </c>
-      <c r="J64" s="19">
+      <c r="J65" s="19">
         <v>1894.93</v>
       </c>
-      <c r="K64" s="19">
+      <c r="K65" s="19">
         <v>59.36</v>
       </c>
-      <c r="L64" s="19">
+      <c r="L65" s="19">
         <v>3753.6880000000001</v>
       </c>
-      <c r="M64" s="19"/>
-      <c r="N64" s="19">
+      <c r="M65" s="19"/>
+      <c r="N65" s="19">
         <v>60.6843</v>
       </c>
-      <c r="O64" s="19">
+      <c r="O65" s="19">
         <v>558.7325699999999</v>
       </c>
     </row>
-    <row r="65" spans="2:15" hidden="1">
-      <c r="B65" s="12">
+    <row r="66" spans="2:15" hidden="1">
+      <c r="B66" s="12">
         <v>2020</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C66" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D65" s="14">
+      <c r="D66" s="14">
         <f t="shared" si="3"/>
         <v>22714.14399</v>
       </c>
-      <c r="E65" s="15">
+      <c r="E66" s="15">
         <v>3.1E-2</v>
       </c>
-      <c r="F65" s="15">
+      <c r="F66" s="15">
         <v>35.988999999999997</v>
       </c>
-      <c r="G65" s="15">
+      <c r="G66" s="15">
         <v>7356.9930000000004</v>
       </c>
-      <c r="H65" s="15">
+      <c r="H66" s="15">
         <v>1318.52</v>
       </c>
-      <c r="I65" s="15">
+      <c r="I66" s="15">
         <v>4797.09</v>
       </c>
-      <c r="J65" s="15">
+      <c r="J66" s="15">
         <v>1722.712</v>
       </c>
-      <c r="K65" s="15">
+      <c r="K66" s="15">
         <v>1659.4059999999999</v>
       </c>
-      <c r="L65" s="15">
+      <c r="L66" s="15">
         <v>4510.4480000000003</v>
       </c>
-      <c r="M65" s="15"/>
-      <c r="N65" s="15">
+      <c r="M66" s="15"/>
+      <c r="N66" s="15">
         <v>102.3022</v>
       </c>
-      <c r="O65" s="15">
+      <c r="O66" s="15">
         <v>1210.6527900000001</v>
       </c>
     </row>
-    <row r="66" spans="2:15" hidden="1">
-      <c r="B66" s="16">
+    <row r="67" spans="2:15" hidden="1">
+      <c r="B67" s="16">
         <v>2020</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C67" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D66" s="18">
+      <c r="D67" s="18">
         <f t="shared" si="3"/>
         <v>23622.028510000007</v>
       </c>
-      <c r="E66" s="19">
+      <c r="E67" s="19">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F66" s="19">
+      <c r="F67" s="19">
         <v>56.369</v>
       </c>
-      <c r="G66" s="19">
+      <c r="G67" s="19">
         <v>9237.1190000000006</v>
       </c>
-      <c r="H66" s="19">
+      <c r="H67" s="19">
         <v>1428.3530000000001</v>
       </c>
-      <c r="I66" s="19">
+      <c r="I67" s="19">
         <v>3273.0720000000001</v>
       </c>
-      <c r="J66" s="19">
+      <c r="J67" s="19">
         <v>1520.239</v>
       </c>
-      <c r="K66" s="19">
+      <c r="K67" s="19">
         <v>2283.7510000000002</v>
       </c>
-      <c r="L66" s="19">
+      <c r="L67" s="19">
         <v>4116.8599999999997</v>
       </c>
-      <c r="M66" s="19"/>
-      <c r="N66" s="19">
+      <c r="M67" s="19"/>
+      <c r="N67" s="19">
         <v>132.3349</v>
       </c>
-      <c r="O66" s="19">
+      <c r="O67" s="19">
         <v>1573.90461</v>
       </c>
     </row>
-    <row r="67" spans="2:15" hidden="1">
-      <c r="B67" s="20">
+    <row r="68" spans="2:15" hidden="1">
+      <c r="B68" s="20">
         <v>2020</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C68" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D67" s="22">
+      <c r="D68" s="22">
         <f t="shared" si="3"/>
         <v>26687.883509999996</v>
       </c>
-      <c r="E67" s="23">
+      <c r="E68" s="23">
         <v>4.7E-2</v>
       </c>
-      <c r="F67" s="23">
+      <c r="F68" s="23">
         <v>53.219000000000001</v>
       </c>
-      <c r="G67" s="23">
+      <c r="G68" s="23">
         <v>8754.5229999999992</v>
       </c>
-      <c r="H67" s="23">
+      <c r="H68" s="23">
         <v>1369.674</v>
       </c>
-      <c r="I67" s="23">
+      <c r="I68" s="23">
         <v>5338.8549999999996</v>
       </c>
-      <c r="J67" s="23">
+      <c r="J68" s="23">
         <v>1679.8140000000001</v>
       </c>
-      <c r="K67" s="23">
+      <c r="K68" s="23">
         <v>2456.4389999999999</v>
       </c>
-      <c r="L67" s="23">
+      <c r="L68" s="23">
         <v>5287.6</v>
       </c>
-      <c r="M67" s="23"/>
-      <c r="N67" s="23">
+      <c r="M68" s="23"/>
+      <c r="N68" s="23">
         <v>71.972800000000007</v>
       </c>
-      <c r="O67" s="23">
+      <c r="O68" s="23">
         <v>1675.7397100000001</v>
       </c>
     </row>
-    <row r="68" spans="2:15" hidden="1">
-      <c r="B68" s="24">
+    <row r="69" spans="2:15" hidden="1">
+      <c r="B69" s="24">
         <v>2019</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="C69" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D68" s="26">
+      <c r="D69" s="26">
         <f t="shared" si="3"/>
         <v>31427.187729999998</v>
       </c>
-      <c r="E68" s="27">
+      <c r="E69" s="27">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="F68" s="27">
+      <c r="F69" s="27">
         <v>86.153999999999996</v>
       </c>
-      <c r="G68" s="27">
+      <c r="G69" s="27">
         <v>9577.1149999999998</v>
       </c>
-      <c r="H68" s="27">
+      <c r="H69" s="27">
         <v>1676.4159999999999</v>
       </c>
-      <c r="I68" s="27">
+      <c r="I69" s="27">
         <v>6029.0749999999998</v>
       </c>
-      <c r="J68" s="27">
+      <c r="J69" s="27">
         <v>2445.3470000000002</v>
       </c>
-      <c r="K68" s="27">
+      <c r="K69" s="27">
         <v>2928.4569999999999</v>
       </c>
-      <c r="L68" s="27">
+      <c r="L69" s="27">
         <v>5030.2939999999999</v>
       </c>
-      <c r="M68" s="27"/>
-      <c r="N68" s="27">
+      <c r="M69" s="27"/>
+      <c r="N69" s="27">
         <v>65.746300000000005</v>
       </c>
-      <c r="O68" s="27">
+      <c r="O69" s="27">
         <v>3588.5074299999997</v>
       </c>
     </row>
-    <row r="69" spans="2:15" hidden="1">
-      <c r="B69" s="12">
+    <row r="70" spans="2:15" hidden="1">
+      <c r="B70" s="12">
         <v>2019</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C70" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D69" s="14">
+      <c r="D70" s="14">
         <f t="shared" si="3"/>
         <v>31763.522410000001</v>
       </c>
-      <c r="E69" s="15">
+      <c r="E70" s="15">
         <v>1.76</v>
       </c>
-      <c r="F69" s="15">
+      <c r="F70" s="15">
         <v>80.100999999999999</v>
       </c>
-      <c r="G69" s="15">
+      <c r="G70" s="15">
         <v>9752.0519999999997</v>
       </c>
-      <c r="H69" s="15">
+      <c r="H70" s="15">
         <v>1595.383</v>
       </c>
-      <c r="I69" s="15">
+      <c r="I70" s="15">
         <v>5103.0559999999996</v>
       </c>
-      <c r="J69" s="15">
+      <c r="J70" s="15">
         <v>2658.252</v>
       </c>
-      <c r="K69" s="15">
+      <c r="K70" s="15">
         <v>3015.0219999999999</v>
       </c>
-      <c r="L69" s="15">
+      <c r="L70" s="15">
         <v>5793.69</v>
       </c>
-      <c r="M69" s="15"/>
-      <c r="N69" s="15">
+      <c r="M70" s="15"/>
+      <c r="N70" s="15">
         <v>12.758299999999998</v>
       </c>
-      <c r="O69" s="15">
+      <c r="O70" s="15">
         <v>3751.4481100000003</v>
       </c>
     </row>
-    <row r="70" spans="2:15" hidden="1">
-      <c r="B70" s="16">
+    <row r="71" spans="2:15" hidden="1">
+      <c r="B71" s="16">
         <v>2019</v>
       </c>
-      <c r="C70" s="17" t="s">
+      <c r="C71" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D70" s="18">
+      <c r="D71" s="18">
         <f t="shared" si="3"/>
         <v>31229.518959999994</v>
       </c>
-      <c r="E70" s="19">
+      <c r="E71" s="19">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="F70" s="19">
+      <c r="F71" s="19">
         <v>72</v>
       </c>
-      <c r="G70" s="19">
+      <c r="G71" s="19">
         <v>9994.6419999999998</v>
       </c>
-      <c r="H70" s="19">
+      <c r="H71" s="19">
         <v>1608.7059999999999</v>
       </c>
-      <c r="I70" s="19">
+      <c r="I71" s="19">
         <v>4575.3310000000001</v>
       </c>
-      <c r="J70" s="19">
+      <c r="J71" s="19">
         <v>2828.3510000000001</v>
       </c>
-      <c r="K70" s="19">
+      <c r="K71" s="19">
         <v>2682.761</v>
       </c>
-      <c r="L70" s="19">
+      <c r="L71" s="19">
         <v>5549.9949999999999</v>
       </c>
-      <c r="M70" s="19"/>
-      <c r="N70" s="19"/>
-      <c r="O70" s="19">
+      <c r="M71" s="19"/>
+      <c r="N71" s="19"/>
+      <c r="O71" s="19">
         <v>3917.6479599999998</v>
       </c>
     </row>
-    <row r="71" spans="2:15" hidden="1">
-      <c r="B71" s="12">
+    <row r="72" spans="2:15" hidden="1">
+      <c r="B72" s="12">
         <v>2019</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C72" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D71" s="14">
+      <c r="D72" s="14">
         <f t="shared" si="3"/>
         <v>29172.540249999998</v>
       </c>
-      <c r="E71" s="15">
+      <c r="E72" s="15">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F71" s="15">
+      <c r="F72" s="15">
         <v>54.752000000000002</v>
       </c>
-      <c r="G71" s="15">
+      <c r="G72" s="15">
         <v>9010.31</v>
       </c>
-      <c r="H71" s="15">
+      <c r="H72" s="15">
         <v>1396.2560000000001</v>
       </c>
-      <c r="I71" s="15">
+      <c r="I72" s="15">
         <v>5775.3389999999999</v>
       </c>
-      <c r="J71" s="15">
+      <c r="J72" s="15">
         <v>2331.1950000000002</v>
       </c>
-      <c r="K71" s="15">
+      <c r="K72" s="15">
         <v>2334.8119999999999</v>
       </c>
-      <c r="L71" s="15">
+      <c r="L72" s="15">
         <v>4893.7089999999998</v>
       </c>
-      <c r="M71" s="15"/>
-      <c r="N71" s="15"/>
-      <c r="O71" s="15">
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="15">
         <v>3376.1322500000001</v>
       </c>
     </row>
-    <row r="72" spans="2:15" hidden="1">
-      <c r="B72" s="16">
+    <row r="73" spans="2:15" hidden="1">
+      <c r="B73" s="16">
         <v>2019</v>
       </c>
-      <c r="C72" s="17" t="s">
+      <c r="C73" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D72" s="18">
+      <c r="D73" s="18">
         <f t="shared" si="3"/>
         <v>28718.377859999997</v>
       </c>
-      <c r="E72" s="19">
+      <c r="E73" s="19">
         <v>5.59633</v>
       </c>
-      <c r="F72" s="19">
+      <c r="F73" s="19">
         <v>57.29</v>
       </c>
-      <c r="G72" s="19">
+      <c r="G73" s="19">
         <v>8610.5910000000003</v>
       </c>
-      <c r="H72" s="19">
+      <c r="H73" s="19">
         <v>1665.9570000000001</v>
       </c>
-      <c r="I72" s="19">
+      <c r="I73" s="19">
         <v>5196.0309999999999</v>
       </c>
-      <c r="J72" s="19">
+      <c r="J73" s="19">
         <v>2672.4050000000002</v>
       </c>
-      <c r="K72" s="19">
+      <c r="K73" s="19">
         <v>2511.7330000000002</v>
       </c>
-      <c r="L72" s="19">
+      <c r="L73" s="19">
         <v>4774.3459999999995</v>
       </c>
-      <c r="M72" s="19"/>
-      <c r="N72" s="19"/>
-      <c r="O72" s="19">
+      <c r="M73" s="19"/>
+      <c r="N73" s="19"/>
+      <c r="O73" s="19">
         <v>3224.4285300000001</v>
       </c>
     </row>
-    <row r="73" spans="2:15" hidden="1">
-      <c r="B73" s="12">
+    <row r="74" spans="2:15" hidden="1">
+      <c r="B74" s="12">
         <v>2019</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C74" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D73" s="14">
+      <c r="D74" s="14">
         <f t="shared" si="3"/>
         <v>28707.78629</v>
       </c>
-      <c r="E73" s="15">
+      <c r="E74" s="15">
         <v>6.0529999999999999</v>
       </c>
-      <c r="F73" s="15">
+      <c r="F74" s="15">
         <v>57.801000000000002</v>
       </c>
-      <c r="G73" s="15">
+      <c r="G74" s="15">
         <v>8986.9670000000006</v>
       </c>
-      <c r="H73" s="15">
+      <c r="H74" s="15">
         <v>1788.191</v>
       </c>
-      <c r="I73" s="15">
+      <c r="I74" s="15">
         <v>5135.1639999999998</v>
       </c>
-      <c r="J73" s="15">
+      <c r="J74" s="15">
         <v>2578.5520000000001</v>
       </c>
-      <c r="K73" s="15">
+      <c r="K74" s="15">
         <v>2341.8049999999998</v>
       </c>
-      <c r="L73" s="15">
+      <c r="L74" s="15">
         <v>4798.0159999999996</v>
       </c>
-      <c r="M73" s="15"/>
-      <c r="N73" s="15"/>
-      <c r="O73" s="15">
+      <c r="M74" s="15"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="15">
         <v>3015.23729</v>
       </c>
     </row>
-    <row r="74" spans="2:15" hidden="1">
-      <c r="B74" s="16">
+    <row r="75" spans="2:15" hidden="1">
+      <c r="B75" s="16">
         <v>2019</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C75" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="18">
+      <c r="D75" s="18">
         <f t="shared" si="3"/>
         <v>27292.410609999999</v>
       </c>
-      <c r="E74" s="19">
+      <c r="E75" s="19">
         <v>5.46</v>
       </c>
-      <c r="F74" s="19">
+      <c r="F75" s="19">
         <v>55.997999999999998</v>
       </c>
-      <c r="G74" s="19">
+      <c r="G75" s="19">
         <v>8069.7749999999996</v>
       </c>
-      <c r="H74" s="19">
+      <c r="H75" s="19">
         <v>1587.973</v>
       </c>
-      <c r="I74" s="19">
+      <c r="I75" s="19">
         <v>5215.268</v>
       </c>
-      <c r="J74" s="19">
+      <c r="J75" s="19">
         <v>2428.5169999999998</v>
       </c>
-      <c r="K74" s="19">
+      <c r="K75" s="19">
         <v>2360.0700000000002</v>
       </c>
-      <c r="L74" s="19">
+      <c r="L75" s="19">
         <v>4450.9750000000004</v>
       </c>
-      <c r="M74" s="19"/>
-      <c r="N74" s="19"/>
-      <c r="O74" s="19">
+      <c r="M75" s="19"/>
+      <c r="N75" s="19"/>
+      <c r="O75" s="19">
         <v>3118.3746100000003</v>
       </c>
     </row>
-    <row r="75" spans="2:15" hidden="1">
-      <c r="B75" s="12">
+    <row r="76" spans="2:15" hidden="1">
+      <c r="B76" s="12">
         <v>2019</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C76" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D75" s="14">
+      <c r="D76" s="14">
         <f t="shared" si="3"/>
         <v>29113.054540000001</v>
       </c>
-      <c r="E75" s="15">
+      <c r="E76" s="15">
         <v>6.2110000000000003</v>
       </c>
-      <c r="F75" s="15">
+      <c r="F76" s="15">
         <v>67.53</v>
       </c>
-      <c r="G75" s="15">
+      <c r="G76" s="15">
         <v>8472.9789999999994</v>
       </c>
-      <c r="H75" s="15">
+      <c r="H76" s="15">
         <v>1708.221</v>
       </c>
-      <c r="I75" s="15">
+      <c r="I76" s="15">
         <v>5081.5749999999998</v>
       </c>
-      <c r="J75" s="15">
+      <c r="J76" s="15">
         <v>2646.9789999999998</v>
       </c>
-      <c r="K75" s="15">
+      <c r="K76" s="15">
         <v>2406.2260000000001</v>
       </c>
-      <c r="L75" s="15">
+      <c r="L76" s="15">
         <v>5332.5439999999999</v>
       </c>
-      <c r="M75" s="15"/>
-      <c r="N75" s="15"/>
-      <c r="O75" s="15">
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15">
         <v>3390.7895400000002</v>
       </c>
     </row>
-    <row r="76" spans="2:15" hidden="1">
-      <c r="B76" s="16">
+    <row r="77" spans="2:15" hidden="1">
+      <c r="B77" s="16">
         <v>2019</v>
       </c>
-      <c r="C76" s="17" t="s">
+      <c r="C77" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D76" s="18">
+      <c r="D77" s="18">
         <f t="shared" si="3"/>
         <v>31250.364179999997</v>
       </c>
-      <c r="E76" s="19">
+      <c r="E77" s="19">
         <v>7.8460000000000001</v>
       </c>
-      <c r="F76" s="19">
+      <c r="F77" s="19">
         <v>56.534999999999997</v>
       </c>
-      <c r="G76" s="19">
+      <c r="G77" s="19">
         <v>8624.3449999999993</v>
       </c>
-      <c r="H76" s="19">
+      <c r="H77" s="19">
         <v>1621.0229999999999</v>
       </c>
-      <c r="I76" s="19">
+      <c r="I77" s="19">
         <v>8671.3349999999991</v>
       </c>
-      <c r="J76" s="19">
+      <c r="J77" s="19">
         <v>2304.8890000000001</v>
       </c>
-      <c r="K76" s="19">
+      <c r="K77" s="19">
         <v>2447.4609999999998</v>
       </c>
-      <c r="L76" s="19">
+      <c r="L77" s="19">
         <v>4465.5820000000003</v>
       </c>
-      <c r="M76" s="19"/>
-      <c r="N76" s="19"/>
-      <c r="O76" s="19">
+      <c r="M77" s="19"/>
+      <c r="N77" s="19"/>
+      <c r="O77" s="19">
         <v>3051.34818</v>
       </c>
     </row>
-    <row r="77" spans="2:15" hidden="1">
-      <c r="B77" s="12">
+    <row r="78" spans="2:15" hidden="1">
+      <c r="B78" s="12">
         <v>2019</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C78" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D77" s="14">
+      <c r="D78" s="14">
         <f t="shared" si="3"/>
         <v>31365.490560000002</v>
       </c>
-      <c r="E77" s="15">
+      <c r="E78" s="15">
         <v>5.36</v>
       </c>
-      <c r="F77" s="15">
+      <c r="F78" s="15">
         <v>59.417999999999999</v>
       </c>
-      <c r="G77" s="15">
+      <c r="G78" s="15">
         <v>9153.4</v>
       </c>
-      <c r="H77" s="15">
+      <c r="H78" s="15">
         <v>1573.4939999999999</v>
       </c>
-      <c r="I77" s="15">
+      <c r="I78" s="15">
         <v>7744.9759999999997</v>
       </c>
-      <c r="J77" s="15">
+      <c r="J78" s="15">
         <v>2483.4180000000001</v>
       </c>
-      <c r="K77" s="15">
+      <c r="K78" s="15">
         <v>2376.971</v>
       </c>
-      <c r="L77" s="15">
+      <c r="L78" s="15">
         <v>4955.9579999999996</v>
       </c>
-      <c r="M77" s="15"/>
-      <c r="N77" s="15"/>
-      <c r="O77" s="15">
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="15">
         <v>3012.4955599999998</v>
       </c>
     </row>
-    <row r="78" spans="2:15" hidden="1">
-      <c r="B78" s="16">
+    <row r="79" spans="2:15" hidden="1">
+      <c r="B79" s="16">
         <v>2019</v>
       </c>
-      <c r="C78" s="17" t="s">
+      <c r="C79" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D78" s="18">
+      <c r="D79" s="18">
         <f t="shared" si="3"/>
         <v>27676.571899999999</v>
       </c>
-      <c r="E78" s="19">
+      <c r="E79" s="19">
         <v>5.3540000000000001</v>
       </c>
-      <c r="F78" s="19">
+      <c r="F79" s="19">
         <v>60.44</v>
       </c>
-      <c r="G78" s="19">
+      <c r="G79" s="19">
         <v>8240.6730000000007</v>
       </c>
-      <c r="H78" s="19">
+      <c r="H79" s="19">
         <v>1223.51</v>
       </c>
-      <c r="I78" s="19">
+      <c r="I79" s="19">
         <v>6582.1109999999999</v>
       </c>
-      <c r="J78" s="19">
+      <c r="J79" s="19">
         <v>2315.9119999999998</v>
       </c>
-      <c r="K78" s="19">
+      <c r="K79" s="19">
         <v>2451.8209999999999</v>
       </c>
-      <c r="L78" s="19">
+      <c r="L79" s="19">
         <v>3688.9839999999999</v>
       </c>
-      <c r="M78" s="19"/>
-      <c r="N78" s="19"/>
-      <c r="O78" s="19">
+      <c r="M79" s="19"/>
+      <c r="N79" s="19"/>
+      <c r="O79" s="19">
         <v>3107.7669000000001</v>
       </c>
     </row>
-    <row r="79" spans="2:15" hidden="1">
-      <c r="B79" s="20">
+    <row r="80" spans="2:15" hidden="1">
+      <c r="B80" s="20">
         <v>2019</v>
       </c>
-      <c r="C79" s="21" t="s">
+      <c r="C80" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D79" s="22">
-        <f t="shared" ref="D79:D91" si="4">SUM(E79:O79)</f>
+      <c r="D80" s="22">
+        <f t="shared" ref="D80:D92" si="4">SUM(E80:O80)</f>
         <v>31729.582690000007</v>
       </c>
-      <c r="E79" s="23">
+      <c r="E80" s="23">
         <v>6.7610000000000001</v>
       </c>
-      <c r="F79" s="23">
+      <c r="F80" s="23">
         <v>74.009</v>
       </c>
-      <c r="G79" s="23">
+      <c r="G80" s="23">
         <v>7747.527</v>
       </c>
-      <c r="H79" s="23">
+      <c r="H80" s="23">
         <v>1196.4000000000001</v>
       </c>
-      <c r="I79" s="23">
+      <c r="I80" s="23">
         <v>8376.51</v>
       </c>
-      <c r="J79" s="23">
+      <c r="J80" s="23">
         <v>2613.239</v>
       </c>
-      <c r="K79" s="23">
+      <c r="K80" s="23">
         <v>4476.8249999999998</v>
       </c>
-      <c r="L79" s="23">
+      <c r="L80" s="23">
         <v>3965.1860000000001</v>
       </c>
-      <c r="M79" s="23"/>
-      <c r="N79" s="23"/>
-      <c r="O79" s="23">
+      <c r="M80" s="23"/>
+      <c r="N80" s="23"/>
+      <c r="O80" s="23">
         <v>3273.1256899999998</v>
       </c>
     </row>
-    <row r="80" spans="2:15" hidden="1">
-      <c r="B80" s="17">
+    <row r="81" spans="2:15" hidden="1">
+      <c r="B81" s="17">
         <v>2018</v>
       </c>
-      <c r="C80" s="17" t="s">
+      <c r="C81" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D80" s="18">
+      <c r="D81" s="18">
         <f t="shared" si="4"/>
         <v>27825.537</v>
       </c>
-      <c r="E80" s="19">
+      <c r="E81" s="19">
         <v>11.624000000000001</v>
       </c>
-      <c r="F80" s="19">
+      <c r="F81" s="19">
         <v>93.391999999999996</v>
       </c>
-      <c r="G80" s="19">
+      <c r="G81" s="19">
         <v>8828.0380000000005</v>
       </c>
-      <c r="H80" s="19">
+      <c r="H81" s="19">
         <v>1419.221</v>
       </c>
-      <c r="I80" s="19">
+      <c r="I81" s="19">
         <v>8160.1949999999997</v>
       </c>
-      <c r="J80" s="19">
+      <c r="J81" s="19">
         <v>2550.1379999999999</v>
       </c>
-      <c r="K80" s="19">
+      <c r="K81" s="19">
         <v>2539.4380000000001</v>
       </c>
-      <c r="L80" s="19">
+      <c r="L81" s="19">
         <v>4208.37</v>
       </c>
-      <c r="M80" s="19"/>
-      <c r="N80" s="19"/>
-      <c r="O80" s="19">
+      <c r="M81" s="19"/>
+      <c r="N81" s="19"/>
+      <c r="O81" s="19">
         <v>15.121</v>
       </c>
     </row>
-    <row r="81" spans="2:15" hidden="1">
-      <c r="B81" s="13">
+    <row r="82" spans="2:15" hidden="1">
+      <c r="B82" s="13">
         <v>2018</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C82" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D81" s="14">
+      <c r="D82" s="14">
         <f t="shared" si="4"/>
         <v>30438.187000000005</v>
       </c>
-      <c r="E81" s="15">
+      <c r="E82" s="15">
         <v>9.8219999999999992</v>
       </c>
-      <c r="F81" s="15">
+      <c r="F82" s="15">
         <v>90.676000000000002</v>
       </c>
-      <c r="G81" s="15">
+      <c r="G82" s="15">
         <v>9033.7459999999992</v>
       </c>
-      <c r="H81" s="15">
+      <c r="H82" s="15">
         <v>1677.8789999999999</v>
       </c>
-      <c r="I81" s="15">
+      <c r="I82" s="15">
         <v>9087.1730000000007</v>
       </c>
-      <c r="J81" s="15">
+      <c r="J82" s="15">
         <v>2973.703</v>
       </c>
-      <c r="K81" s="15">
+      <c r="K82" s="15">
         <v>2449.9479999999999</v>
       </c>
-      <c r="L81" s="15">
+      <c r="L82" s="15">
         <v>5104.8959999999997</v>
       </c>
-      <c r="M81" s="15"/>
-      <c r="N81" s="15"/>
-      <c r="O81" s="15">
+      <c r="M82" s="15"/>
+      <c r="N82" s="15"/>
+      <c r="O82" s="15">
         <v>10.343999999999999</v>
       </c>
     </row>
-    <row r="82" spans="2:15" hidden="1">
-      <c r="B82" s="17">
+    <row r="83" spans="2:15" hidden="1">
+      <c r="B83" s="17">
         <v>2018</v>
       </c>
-      <c r="C82" s="17" t="s">
+      <c r="C83" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D82" s="18">
+      <c r="D83" s="18">
         <f t="shared" si="4"/>
         <v>30428.691999999999</v>
       </c>
-      <c r="E82" s="19">
+      <c r="E83" s="19">
         <v>8.2870000000000008</v>
       </c>
-      <c r="F82" s="19">
+      <c r="F83" s="19">
         <v>78.7</v>
       </c>
-      <c r="G82" s="19">
+      <c r="G83" s="19">
         <v>8819.0689999999995</v>
       </c>
-      <c r="H82" s="19">
+      <c r="H83" s="19">
         <v>1516.8230000000001</v>
       </c>
-      <c r="I82" s="19">
+      <c r="I83" s="19">
         <v>9777.8709999999992</v>
       </c>
-      <c r="J82" s="19">
+      <c r="J83" s="19">
         <v>2987.6489999999999</v>
       </c>
-      <c r="K82" s="19">
+      <c r="K83" s="19">
         <v>1751.569</v>
       </c>
-      <c r="L82" s="19">
+      <c r="L83" s="19">
         <v>5477.6930000000002</v>
       </c>
-      <c r="M82" s="19"/>
-      <c r="N82" s="19"/>
-      <c r="O82" s="19">
+      <c r="M83" s="19"/>
+      <c r="N83" s="19"/>
+      <c r="O83" s="19">
         <v>11.031000000000001</v>
       </c>
     </row>
-    <row r="83" spans="2:15" hidden="1">
-      <c r="B83" s="13">
+    <row r="84" spans="2:15" hidden="1">
+      <c r="B84" s="13">
         <v>2018</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C84" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D83" s="14">
+      <c r="D84" s="14">
         <f t="shared" si="4"/>
         <v>27010.514999999999</v>
       </c>
-      <c r="E83" s="15">
+      <c r="E84" s="15">
         <v>10.707000000000001</v>
       </c>
-      <c r="F83" s="15">
+      <c r="F84" s="15">
         <v>62.167000000000002</v>
       </c>
-      <c r="G83" s="15">
+      <c r="G84" s="15">
         <v>8102.4960000000001</v>
       </c>
-      <c r="H83" s="15">
+      <c r="H84" s="15">
         <v>1416.539</v>
       </c>
-      <c r="I83" s="15">
+      <c r="I84" s="15">
         <v>8463.5859999999993</v>
       </c>
-      <c r="J83" s="15">
+      <c r="J84" s="15">
         <v>2463.84</v>
       </c>
-      <c r="K83" s="15">
+      <c r="K84" s="15">
         <v>1662.82</v>
       </c>
-      <c r="L83" s="15">
+      <c r="L84" s="15">
         <v>4814.68</v>
       </c>
-      <c r="M83" s="15"/>
-      <c r="N83" s="15"/>
-      <c r="O83" s="15">
+      <c r="M84" s="15"/>
+      <c r="N84" s="15"/>
+      <c r="O84" s="15">
         <v>13.68</v>
       </c>
     </row>
-    <row r="84" spans="2:15" hidden="1">
-      <c r="B84" s="17">
+    <row r="85" spans="2:15" hidden="1">
+      <c r="B85" s="17">
         <v>2018</v>
       </c>
-      <c r="C84" s="17" t="s">
+      <c r="C85" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="18">
+      <c r="D85" s="18">
         <f t="shared" si="4"/>
         <v>27455.597999999998</v>
       </c>
-      <c r="E84" s="19">
+      <c r="E85" s="19">
         <v>10.06</v>
       </c>
-      <c r="F84" s="19">
+      <c r="F85" s="19">
         <v>67.233999999999995</v>
       </c>
-      <c r="G84" s="19">
+      <c r="G85" s="19">
         <v>8035.7269999999999</v>
       </c>
-      <c r="H84" s="19">
+      <c r="H85" s="19">
         <v>1692.001</v>
       </c>
-      <c r="I84" s="19">
+      <c r="I85" s="19">
         <v>8464.9650000000001</v>
       </c>
-      <c r="J84" s="19">
+      <c r="J85" s="19">
         <v>2758.96</v>
       </c>
-      <c r="K84" s="19">
+      <c r="K85" s="19">
         <v>1732.587</v>
       </c>
-      <c r="L84" s="19">
+      <c r="L85" s="19">
         <v>4679.0959999999995</v>
       </c>
-      <c r="M84" s="19"/>
-      <c r="N84" s="19"/>
-      <c r="O84" s="19">
+      <c r="M85" s="19"/>
+      <c r="N85" s="19"/>
+      <c r="O85" s="19">
         <v>14.968</v>
       </c>
     </row>
-    <row r="85" spans="2:15" hidden="1">
-      <c r="B85" s="13">
+    <row r="86" spans="2:15" hidden="1">
+      <c r="B86" s="13">
         <v>2018</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C86" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D85" s="14">
+      <c r="D86" s="14">
         <f t="shared" si="4"/>
         <v>27442.177</v>
       </c>
-      <c r="E85" s="15">
+      <c r="E86" s="15">
         <v>10.051</v>
       </c>
-      <c r="F85" s="15">
+      <c r="F86" s="15">
         <v>63.811</v>
       </c>
-      <c r="G85" s="15">
+      <c r="G86" s="15">
         <v>7722.7290000000003</v>
       </c>
-      <c r="H85" s="15">
+      <c r="H86" s="15">
         <v>1496.4</v>
       </c>
-      <c r="I85" s="15">
+      <c r="I86" s="15">
         <v>8747.1980000000003</v>
       </c>
-      <c r="J85" s="15">
+      <c r="J86" s="15">
         <v>2551.65</v>
       </c>
-      <c r="K85" s="15">
+      <c r="K86" s="15">
         <v>1697.7090000000001</v>
       </c>
-      <c r="L85" s="15">
+      <c r="L86" s="15">
         <v>5136.6130000000003</v>
       </c>
-      <c r="M85" s="15"/>
-      <c r="N85" s="15"/>
-      <c r="O85" s="15">
+      <c r="M86" s="15"/>
+      <c r="N86" s="15"/>
+      <c r="O86" s="15">
         <v>16.015999999999998</v>
       </c>
     </row>
-    <row r="86" spans="2:15" hidden="1">
-      <c r="B86" s="17">
+    <row r="87" spans="2:15" hidden="1">
+      <c r="B87" s="17">
         <v>2018</v>
       </c>
-      <c r="C86" s="17" t="s">
+      <c r="C87" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="18">
+      <c r="D87" s="18">
         <f t="shared" si="4"/>
         <v>27934.611100000002</v>
       </c>
-      <c r="E86" s="19">
+      <c r="E87" s="19">
         <v>5.8701000000000008</v>
       </c>
-      <c r="F86" s="19">
+      <c r="F87" s="19">
         <v>68.567999999999998</v>
       </c>
-      <c r="G86" s="19">
+      <c r="G87" s="19">
         <v>7714.4070000000002</v>
       </c>
-      <c r="H86" s="19">
+      <c r="H87" s="19">
         <v>1561.0450000000001</v>
       </c>
-      <c r="I86" s="19">
+      <c r="I87" s="19">
         <v>8940.5429999999997</v>
       </c>
-      <c r="J86" s="19">
+      <c r="J87" s="19">
         <v>2632.7139999999999</v>
       </c>
-      <c r="K86" s="19">
+      <c r="K87" s="19">
         <v>1889.998</v>
       </c>
-      <c r="L86" s="19">
+      <c r="L87" s="19">
         <v>5110.2619999999997</v>
       </c>
-      <c r="M86" s="19"/>
-      <c r="N86" s="19"/>
-      <c r="O86" s="19">
+      <c r="M87" s="19"/>
+      <c r="N87" s="19"/>
+      <c r="O87" s="19">
         <v>11.204000000000001</v>
       </c>
     </row>
-    <row r="87" spans="2:15" hidden="1">
-      <c r="B87" s="13">
+    <row r="88" spans="2:15" hidden="1">
+      <c r="B88" s="13">
         <v>2018</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C88" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="14">
+      <c r="D88" s="14">
         <f t="shared" si="4"/>
         <v>28918.192660000001</v>
       </c>
-      <c r="E87" s="15">
+      <c r="E88" s="15">
         <v>7.8816600000000001</v>
       </c>
-      <c r="F87" s="15">
+      <c r="F88" s="15">
         <v>82.861999999999995</v>
       </c>
-      <c r="G87" s="15">
+      <c r="G88" s="15">
         <v>8118.165</v>
       </c>
-      <c r="H87" s="15">
+      <c r="H88" s="15">
         <v>1532.5719999999999</v>
       </c>
-      <c r="I87" s="15">
+      <c r="I88" s="15">
         <v>8129.585</v>
       </c>
-      <c r="J87" s="15">
+      <c r="J88" s="15">
         <v>2956.08</v>
       </c>
-      <c r="K87" s="15">
+      <c r="K88" s="15">
         <v>1988.6780000000001</v>
       </c>
-      <c r="L87" s="15">
+      <c r="L88" s="15">
         <v>6089.1620000000003</v>
       </c>
-      <c r="M87" s="15"/>
-      <c r="N87" s="15"/>
-      <c r="O87" s="15">
+      <c r="M88" s="15"/>
+      <c r="N88" s="15"/>
+      <c r="O88" s="15">
         <v>13.207000000000001</v>
       </c>
     </row>
-    <row r="88" spans="2:15" hidden="1">
-      <c r="B88" s="17">
+    <row r="89" spans="2:15" hidden="1">
+      <c r="B89" s="17">
         <v>2018</v>
       </c>
-      <c r="C88" s="17" t="s">
+      <c r="C89" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D88" s="18">
+      <c r="D89" s="18">
         <f t="shared" si="4"/>
         <v>29273.39678000001</v>
       </c>
-      <c r="E88" s="19">
+      <c r="E89" s="19">
         <v>9.12378</v>
       </c>
-      <c r="F88" s="19">
+      <c r="F89" s="19">
         <v>60.970999999999997</v>
       </c>
-      <c r="G88" s="19">
+      <c r="G89" s="19">
         <v>7926.723</v>
       </c>
-      <c r="H88" s="19">
+      <c r="H89" s="19">
         <v>1477.489</v>
       </c>
-      <c r="I88" s="19">
+      <c r="I89" s="19">
         <v>9672.3250000000007</v>
       </c>
-      <c r="J88" s="19">
+      <c r="J89" s="19">
         <v>2860.578</v>
       </c>
-      <c r="K88" s="19">
+      <c r="K89" s="19">
         <v>1829.883</v>
       </c>
-      <c r="L88" s="19">
+      <c r="L89" s="19">
         <v>5423.6540000000005</v>
       </c>
-      <c r="M88" s="19"/>
-      <c r="N88" s="19"/>
-      <c r="O88" s="19">
+      <c r="M89" s="19"/>
+      <c r="N89" s="19"/>
+      <c r="O89" s="19">
         <v>12.65</v>
       </c>
     </row>
-    <row r="89" spans="2:15" hidden="1">
-      <c r="B89" s="13">
+    <row r="90" spans="2:15" hidden="1">
+      <c r="B90" s="13">
         <v>2018</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C90" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D89" s="14">
+      <c r="D90" s="14">
         <f t="shared" si="4"/>
         <v>30126.28328</v>
       </c>
-      <c r="E89" s="15">
+      <c r="E90" s="15">
         <v>8.1962799999999998</v>
       </c>
-      <c r="F89" s="15">
+      <c r="F90" s="15">
         <v>71.811000000000007</v>
       </c>
-      <c r="G89" s="15">
+      <c r="G90" s="15">
         <v>8844.2019999999993</v>
       </c>
-      <c r="H89" s="15">
+      <c r="H90" s="15">
         <v>1647.098</v>
       </c>
-      <c r="I89" s="15">
+      <c r="I90" s="15">
         <v>9860.2800000000007</v>
       </c>
-      <c r="J89" s="15">
+      <c r="J90" s="15">
         <v>2743.1410000000001</v>
       </c>
-      <c r="K89" s="15">
+      <c r="K90" s="15">
         <v>1551.7840000000001</v>
       </c>
-      <c r="L89" s="15">
+      <c r="L90" s="15">
         <v>5387.3890000000001</v>
       </c>
-      <c r="M89" s="15"/>
-      <c r="N89" s="15"/>
-      <c r="O89" s="15">
+      <c r="M90" s="15"/>
+      <c r="N90" s="15"/>
+      <c r="O90" s="15">
         <v>12.382</v>
       </c>
     </row>
-    <row r="90" spans="2:15" hidden="1">
-      <c r="B90" s="17">
+    <row r="91" spans="2:15" hidden="1">
+      <c r="B91" s="17">
         <v>2018</v>
       </c>
-      <c r="C90" s="17" t="s">
+      <c r="C91" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D90" s="18">
+      <c r="D91" s="18">
         <f t="shared" si="4"/>
         <v>25208.202900000004</v>
       </c>
-      <c r="E90" s="19">
+      <c r="E91" s="19">
         <v>6.7148999999999992</v>
       </c>
-      <c r="F90" s="19">
+      <c r="F91" s="19">
         <v>59.457000000000001</v>
       </c>
-      <c r="G90" s="19">
+      <c r="G91" s="19">
         <v>7977.2039999999997</v>
       </c>
-      <c r="H90" s="19">
+      <c r="H91" s="19">
         <v>1378.8910000000001</v>
       </c>
-      <c r="I90" s="19">
+      <c r="I91" s="19">
         <v>7402.5730000000003</v>
       </c>
-      <c r="J90" s="19">
+      <c r="J91" s="19">
         <v>2577</v>
       </c>
-      <c r="K90" s="19">
+      <c r="K91" s="19">
         <v>1364.6120000000001</v>
       </c>
-      <c r="L90" s="19">
+      <c r="L91" s="19">
         <v>4430.4210000000003</v>
       </c>
-      <c r="M90" s="19"/>
-      <c r="N90" s="19"/>
-      <c r="O90" s="19">
+      <c r="M91" s="19"/>
+      <c r="N91" s="19"/>
+      <c r="O91" s="19">
         <v>11.33</v>
       </c>
     </row>
-    <row r="91" spans="2:15" hidden="1">
-      <c r="B91" s="13">
+    <row r="92" spans="2:15" hidden="1">
+      <c r="B92" s="13">
         <v>2018</v>
       </c>
-      <c r="C91" s="13" t="s">
+      <c r="C92" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="14">
+      <c r="D92" s="14">
         <f t="shared" si="4"/>
         <v>25018.165999999997</v>
       </c>
-      <c r="E91" s="15">
+      <c r="E92" s="15">
         <v>6.9589999999999996</v>
       </c>
-      <c r="F91" s="15">
+      <c r="F92" s="15">
         <v>66.08</v>
       </c>
-      <c r="G91" s="15">
+      <c r="G92" s="15">
         <v>7737.0140000000001</v>
       </c>
-      <c r="H91" s="15">
+      <c r="H92" s="15">
         <v>1410.72</v>
       </c>
-      <c r="I91" s="15">
+      <c r="I92" s="15">
         <v>6932.2910000000002</v>
       </c>
-      <c r="J91" s="15">
+      <c r="J92" s="15">
         <v>2789.42</v>
       </c>
-      <c r="K91" s="15">
+      <c r="K92" s="15">
         <v>1379.2329999999999</v>
       </c>
-      <c r="L91" s="15">
+      <c r="L92" s="15">
         <v>4684.1959999999999</v>
       </c>
-      <c r="M91" s="15"/>
-      <c r="N91" s="15"/>
-      <c r="O91" s="15">
+      <c r="M92" s="15"/>
+      <c r="N92" s="15"/>
+      <c r="O92" s="15">
         <v>12.253</v>
       </c>
-    </row>
-    <row r="92" spans="2:15">
-      <c r="B92" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C92" s="28"/>
     </row>
     <row r="93" spans="2:15">
       <c r="B93" s="28" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C93" s="28"/>
-      <c r="O93" s="29"/>
     </row>
     <row r="94" spans="2:15">
       <c r="B94" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C94" s="28"/>
+      <c r="O94" s="29"/>
     </row>
     <row r="95" spans="2:15">
       <c r="B95" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="28"/>
+    </row>
+    <row r="96" spans="2:15">
+      <c r="B96" s="28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="2:15">
-      <c r="B96" s="3" t="s">
+    <row r="97" spans="2:4">
+      <c r="B97" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="4:4">
-      <c r="D102" s="28"/>
+    <row r="103" spans="2:4">
+      <c r="D103" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Carga_por_aerolinea_nac.xlsx
+++ b/Carga_por_aerolinea_nac.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8278DCBC-9DB4-45F2-ABCD-F7C1DEF591AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05C7F92-1DAC-4BAF-BEBC-54E59E628078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_35" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="34">
   <si>
     <t>Total</t>
   </si>
@@ -137,7 +137,7 @@
     <t>Mexicana (Aerolínea del Estado Mexicano)</t>
   </si>
   <si>
-    <t>Actualización: Marzo 2025.</t>
+    <t>Actualización: Abril 2025.</t>
   </si>
 </sst>
 </file>
@@ -669,6 +669,13 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -693,13 +700,6 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -752,8 +752,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O92" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
-  <autoFilter ref="B5:O92" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O93" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
+  <autoFilter ref="B5:O93" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -1006,7 +1006,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O103"/>
+  <dimension ref="B2:O104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1109,3559 +1109,3598 @@
       </c>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="12">
+      <c r="B6" s="16">
         <v>2025</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="18">
+        <f>SUM(E6:O6)</f>
+        <v>27422.053609999999</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19">
+        <v>12152.825000000001</v>
+      </c>
+      <c r="H6" s="19">
+        <v>795.68899999999996</v>
+      </c>
+      <c r="I6" s="19">
+        <v>2071.3298999999997</v>
+      </c>
+      <c r="J6" s="19">
+        <v>2726.0720000000001</v>
+      </c>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19">
+        <v>6692.1670000000004</v>
+      </c>
+      <c r="M6" s="19">
+        <v>11.987500000000001</v>
+      </c>
+      <c r="N6" s="19">
+        <v>859.24420000000077</v>
+      </c>
+      <c r="O6" s="19">
+        <v>2112.7390099999984</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="12">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="14">
-        <f>SUM(E6:O6)</f>
+      <c r="D7" s="14">
+        <f>SUM(E7:O7)</f>
         <v>27980.780070000001</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15">
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15">
         <v>13263.271000000001</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H7" s="15">
         <v>761.86699999999996</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I7" s="15">
         <v>1932.6751200000001</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J7" s="15">
         <v>2544.1959999999999</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15">
+      <c r="K7" s="15"/>
+      <c r="L7" s="15">
         <v>6302.9059999999999</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M7" s="15">
         <v>33.307000000000002</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N7" s="15">
         <v>1009.0963999999997</v>
       </c>
-      <c r="O6" s="15">
+      <c r="O7" s="15">
         <v>2133.46155</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="16">
+    <row r="8" spans="2:15">
+      <c r="B8" s="16">
         <v>2025</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="18">
-        <f>SUM(E7:O7)</f>
+      <c r="D8" s="18">
+        <f>SUM(E8:O8)</f>
         <v>25748.605099709999</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19">
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19">
         <v>11275.352000000001</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H8" s="19">
         <v>620.36</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I8" s="19">
         <v>1786.64945971</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J8" s="19">
         <v>2412.8490000000002</v>
       </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19">
+      <c r="K8" s="19"/>
+      <c r="L8" s="19">
         <v>6617.8909999999996</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M8" s="19">
         <v>29.823340000000002</v>
       </c>
-      <c r="N7" s="19">
+      <c r="N8" s="19">
         <v>941.21730000000014</v>
       </c>
-      <c r="O7" s="19">
+      <c r="O8" s="19">
         <v>2064.4630000000002</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="20">
+    <row r="9" spans="2:15">
+      <c r="B9" s="20">
         <v>2025</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C9" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="22">
-        <f>SUM(E8:O8)</f>
+      <c r="D9" s="22">
+        <f>SUM(E9:O9)</f>
         <v>23673.877119999997</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23">
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23">
         <v>10826.540999999999</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H9" s="23">
         <v>571.43200000000002</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I9" s="23">
         <v>1894.5229999999999</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J9" s="23">
         <v>2721.4450000000002</v>
       </c>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23">
+      <c r="K9" s="23"/>
+      <c r="L9" s="23">
         <v>4711.6409999999996</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M9" s="23">
         <v>29.370999999999999</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N9" s="23">
         <v>964.65659999999991</v>
       </c>
-      <c r="O8" s="23">
+      <c r="O9" s="23">
         <v>1954.2675200000031</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="16">
+    <row r="10" spans="2:15">
+      <c r="B10" s="16">
         <v>2024</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C10" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="18">
-        <f>SUM(E9:O9)</f>
+      <c r="D10" s="18">
+        <f>SUM(E10:O10)</f>
         <v>27947.306936199999</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19">
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19">
         <v>12904.705</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H10" s="19">
         <v>706.62800000000004</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I10" s="19">
         <v>2110.4124862000003</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J10" s="19">
         <v>2910.0949999999998</v>
       </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19">
+      <c r="K10" s="19"/>
+      <c r="L10" s="19">
         <v>6062.4089999999997</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M10" s="19">
         <v>44.347099999999998</v>
       </c>
-      <c r="N9" s="19">
+      <c r="N10" s="19">
         <v>1092.7723999999989</v>
       </c>
-      <c r="O9" s="19">
+      <c r="O10" s="19">
         <v>2115.9379499999995</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
-      <c r="B10" s="12">
+    <row r="11" spans="2:15">
+      <c r="B11" s="12">
         <v>2024</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="14">
-        <f>SUM(E10:O10)</f>
+      <c r="D11" s="14">
+        <f>SUM(E11:O11)</f>
         <v>27502.893513799998</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15">
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15">
         <v>13474.445</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H11" s="15">
         <v>756.11400000000003</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I11" s="15">
         <v>1892.0454138</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J11" s="15">
         <v>3303.9810000000002</v>
       </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15">
+      <c r="K11" s="15"/>
+      <c r="L11" s="15">
         <v>4393.0249999999996</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M11" s="15">
         <v>44.302</v>
       </c>
-      <c r="N10" s="15">
+      <c r="N11" s="15">
         <v>1298.3136</v>
       </c>
-      <c r="O10" s="15">
+      <c r="O11" s="15">
         <v>2340.6674999999955</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
-      <c r="B11" s="16">
+    <row r="12" spans="2:15">
+      <c r="B12" s="16">
         <v>2024</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C12" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="18">
-        <f t="shared" ref="D11" si="0">SUM(E11:O11)</f>
+      <c r="D12" s="18">
+        <f t="shared" ref="D12" si="0">SUM(E12:O12)</f>
         <v>27181.326312561851</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19">
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19">
         <v>13225.465</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H12" s="19">
         <v>615.21100000000001</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I12" s="19">
         <v>1642.0031125618484</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J12" s="19">
         <v>3194.15</v>
       </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19">
+      <c r="K12" s="19"/>
+      <c r="L12" s="19">
         <v>4834.0540000000001</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M12" s="19">
         <v>24.026</v>
       </c>
-      <c r="N11" s="19">
+      <c r="N12" s="19">
         <v>1321.6451999999997</v>
       </c>
-      <c r="O11" s="19">
+      <c r="O12" s="19">
         <v>2324.7719999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
-      <c r="B12" s="12">
+    <row r="13" spans="2:15">
+      <c r="B13" s="12">
         <v>2024</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C13" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="14">
-        <f>SUM(E12:O12)</f>
+      <c r="D13" s="14">
+        <f>SUM(E13:O13)</f>
         <v>23947.075499999999</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15">
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15">
         <v>11815.414000000001</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H13" s="15">
         <v>610.077</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I13" s="15">
         <v>1877.9970000000001</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J13" s="15">
         <v>2701.4140000000002</v>
       </c>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15">
+      <c r="K13" s="15"/>
+      <c r="L13" s="15">
         <v>4037.3809999999999</v>
       </c>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15">
+      <c r="M13" s="15"/>
+      <c r="N13" s="15">
         <v>1121.0953000000004</v>
       </c>
-      <c r="O12" s="15">
+      <c r="O13" s="15">
         <v>1783.6971999999994</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="16">
+    <row r="14" spans="2:15">
+      <c r="B14" s="16">
         <v>2024</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="18">
-        <f t="shared" ref="D13:D47" si="1">SUM(E13:O13)</f>
+      <c r="D14" s="18">
+        <f t="shared" ref="D14:D48" si="1">SUM(E14:O14)</f>
         <v>25976.44756810151</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19">
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19">
         <v>12383.605</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H14" s="19">
         <v>692.93</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I14" s="19">
         <v>997.61693810151405</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J14" s="19">
         <v>3089.9549999999999</v>
       </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19">
+      <c r="K14" s="19"/>
+      <c r="L14" s="19">
         <v>5823.1229999999996</v>
       </c>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19">
+      <c r="M14" s="19"/>
+      <c r="N14" s="19">
         <v>1059.0244999999993</v>
       </c>
-      <c r="O13" s="19">
+      <c r="O14" s="19">
         <v>1930.193130000001</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
-      <c r="B14" s="12">
+    <row r="15" spans="2:15">
+      <c r="B15" s="12">
         <v>2024</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="14">
-        <f t="shared" ref="D14:D16" si="2">SUM(E14:O14)</f>
+      <c r="D15" s="14">
+        <f t="shared" ref="D15:D17" si="2">SUM(E15:O15)</f>
         <v>24449.559196296865</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15">
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15">
         <v>12150.298000000001</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H15" s="15">
         <v>643.75300000000004</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I15" s="15">
         <v>1750.5007562968667</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J15" s="15">
         <v>3035.9490000000001</v>
       </c>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15">
+      <c r="K15" s="15"/>
+      <c r="L15" s="15">
         <v>4137.7550000000001</v>
       </c>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15">
+      <c r="M15" s="15"/>
+      <c r="N15" s="15">
         <v>767.15459999999973</v>
       </c>
-      <c r="O14" s="15">
+      <c r="O15" s="15">
         <v>1964.1488399999987</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
-      <c r="B15" s="16">
+    <row r="16" spans="2:15">
+      <c r="B16" s="16">
         <v>2024</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C16" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D16" s="18">
         <f t="shared" si="2"/>
         <v>22991.837380000001</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19">
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19">
         <v>11786.278</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H16" s="19">
         <v>560.85299999999995</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I16" s="19">
         <v>455.33683000000002</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J16" s="19">
         <v>2749.279</v>
       </c>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19">
+      <c r="K16" s="19"/>
+      <c r="L16" s="19">
         <v>4777.0950000000003</v>
       </c>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19">
+      <c r="M16" s="19"/>
+      <c r="N16" s="19">
         <v>821.03270000000009</v>
       </c>
-      <c r="O15" s="19">
+      <c r="O16" s="19">
         <v>1841.9628499999985</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="12">
+    <row r="17" spans="2:15">
+      <c r="B17" s="12">
         <v>2024</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D17" s="14">
         <f t="shared" si="2"/>
         <v>25584.530360000004</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15">
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15">
         <v>12162.084000000001</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H17" s="15">
         <v>597.245</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I17" s="15">
         <v>670.93826000000001</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J17" s="15">
         <v>3023.1210000000001</v>
       </c>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15">
+      <c r="K17" s="15"/>
+      <c r="L17" s="15">
         <v>5951.4530000000004</v>
       </c>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15">
+      <c r="M17" s="15"/>
+      <c r="N17" s="15">
         <v>966.6420999999998</v>
       </c>
-      <c r="O16" s="15">
+      <c r="O17" s="15">
         <v>2213.047</v>
       </c>
     </row>
-    <row r="17" spans="2:15">
-      <c r="B17" s="16">
+    <row r="18" spans="2:15">
+      <c r="B18" s="16">
         <v>2024</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C18" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D18" s="18">
         <f t="shared" si="1"/>
         <v>24530.56366</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19">
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19">
         <v>11531.746999999999</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H18" s="19">
         <v>592.245</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I18" s="19">
         <v>1345.6157600000001</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J18" s="19">
         <v>3069.6970000000001</v>
       </c>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19">
+      <c r="K18" s="19"/>
+      <c r="L18" s="19">
         <v>5033.8580000000002</v>
       </c>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19">
+      <c r="M18" s="19"/>
+      <c r="N18" s="19">
         <v>917.64800000000014</v>
       </c>
-      <c r="O17" s="19">
+      <c r="O18" s="19">
         <v>2039.7528999999981</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
-      <c r="B18" s="12">
+    <row r="19" spans="2:15">
+      <c r="B19" s="12">
         <v>2024</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D19" s="14">
         <f t="shared" si="1"/>
         <v>23773.473269999999</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15">
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15">
         <v>11871.233</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H19" s="15">
         <v>551.64300000000003</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I19" s="15">
         <v>1657.1516799999999</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J19" s="15">
         <v>2749.279</v>
       </c>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15">
+      <c r="K19" s="15"/>
+      <c r="L19" s="15">
         <v>3908.877</v>
       </c>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15">
+      <c r="M19" s="15"/>
+      <c r="N19" s="15">
         <v>901.89159999999958</v>
       </c>
-      <c r="O18" s="15">
+      <c r="O19" s="15">
         <v>2133.3979900000022</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
-      <c r="B19" s="16">
+    <row r="20" spans="2:15">
+      <c r="B20" s="16">
         <v>2024</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C20" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D20" s="18">
         <f t="shared" si="1"/>
         <v>23760.617010000002</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19">
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19">
         <v>11159.713</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H20" s="19">
         <v>540.17999999999995</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I20" s="19">
         <v>1664.87067</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J20" s="19">
         <v>3032.2710000000002</v>
       </c>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19">
+      <c r="K20" s="19"/>
+      <c r="L20" s="19">
         <v>4672.6559999999999</v>
       </c>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19">
+      <c r="M20" s="19"/>
+      <c r="N20" s="19">
         <v>878.40580000000011</v>
       </c>
-      <c r="O19" s="19">
+      <c r="O20" s="19">
         <v>1812.5205400000013</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
-      <c r="B20" s="20">
+    <row r="21" spans="2:15">
+      <c r="B21" s="20">
         <v>2024</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C21" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D21" s="22">
         <f t="shared" si="1"/>
         <v>22658.754440000004</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23">
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23">
         <v>10099.106</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H21" s="23">
         <v>778.92200000000003</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I21" s="23">
         <v>1334.1081499999998</v>
       </c>
-      <c r="J20" s="23">
+      <c r="J21" s="23">
         <v>3205.1840000000002</v>
       </c>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23">
+      <c r="K21" s="23"/>
+      <c r="L21" s="23">
         <v>4132.0780000000004</v>
       </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23">
+      <c r="M21" s="23"/>
+      <c r="N21" s="23">
         <v>1138.7986000000001</v>
       </c>
-      <c r="O20" s="23">
+      <c r="O21" s="23">
         <v>1970.5576900000021</v>
       </c>
     </row>
-    <row r="21" spans="2:15" hidden="1">
-      <c r="B21" s="24">
+    <row r="22" spans="2:15" hidden="1">
+      <c r="B22" s="24">
         <v>2023</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C22" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D22" s="26">
         <f t="shared" si="1"/>
         <v>24330.252739999996</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E22" s="27">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27">
+      <c r="F22" s="27"/>
+      <c r="G22" s="27">
         <v>11988.567999999999</v>
       </c>
-      <c r="H21" s="27">
+      <c r="H22" s="27">
         <v>936.15599999999995</v>
       </c>
-      <c r="I21" s="27">
+      <c r="I22" s="27">
         <v>1439.51802</v>
       </c>
-      <c r="J21" s="27">
+      <c r="J22" s="27">
         <v>3166.9259999999999</v>
       </c>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27">
+      <c r="K22" s="27"/>
+      <c r="L22" s="27">
         <v>3182.1170000000002</v>
       </c>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27">
+      <c r="M22" s="27"/>
+      <c r="N22" s="27">
         <v>1409.9010999999998</v>
       </c>
-      <c r="O21" s="27">
+      <c r="O22" s="27">
         <v>2207.0626199999997</v>
       </c>
     </row>
-    <row r="22" spans="2:15" hidden="1">
-      <c r="B22" s="12">
+    <row r="23" spans="2:15" hidden="1">
+      <c r="B23" s="12">
         <v>2023</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C23" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D23" s="14">
         <f t="shared" si="1"/>
         <v>25951.682419999997</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E23" s="15">
         <v>2E-3</v>
       </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15">
+      <c r="F23" s="15"/>
+      <c r="G23" s="15">
         <v>11389.349</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H23" s="15">
         <v>878.84500000000003</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I23" s="15">
         <v>3104.8114999999998</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J23" s="15">
         <v>3477.9340000000002</v>
       </c>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15">
+      <c r="K23" s="15"/>
+      <c r="L23" s="15">
         <v>3383.1860000000001</v>
       </c>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15">
+      <c r="M23" s="15"/>
+      <c r="N23" s="15">
         <v>1367.4912000000006</v>
       </c>
-      <c r="O22" s="15">
+      <c r="O23" s="15">
         <v>2350.0637199999942</v>
       </c>
     </row>
-    <row r="23" spans="2:15" hidden="1">
-      <c r="B23" s="16">
+    <row r="24" spans="2:15" hidden="1">
+      <c r="B24" s="16">
         <v>2023</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C24" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D24" s="18">
         <f t="shared" si="1"/>
         <v>29736.471783999994</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E24" s="19">
         <v>2E-3</v>
       </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19">
+      <c r="F24" s="19"/>
+      <c r="G24" s="19">
         <v>11497.116</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H24" s="19">
         <v>766.34</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I24" s="19">
         <v>1778.049084</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J24" s="19">
         <v>3354.9290000000001</v>
       </c>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19">
+      <c r="K24" s="19"/>
+      <c r="L24" s="19">
         <v>8846.14</v>
       </c>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19">
+      <c r="M24" s="19"/>
+      <c r="N24" s="19">
         <v>1254.5563000000009</v>
       </c>
-      <c r="O23" s="19">
+      <c r="O24" s="19">
         <v>2239.3393999999939</v>
       </c>
     </row>
-    <row r="24" spans="2:15" hidden="1">
-      <c r="B24" s="12">
+    <row r="25" spans="2:15" hidden="1">
+      <c r="B25" s="12">
         <v>2023</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C25" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D25" s="14">
         <f t="shared" si="1"/>
         <v>25495.398430000001</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E25" s="15">
         <v>1E-3</v>
       </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15">
+      <c r="F25" s="15"/>
+      <c r="G25" s="15">
         <v>10214.496999999999</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H25" s="15">
         <v>745.19799999999998</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I25" s="15">
         <v>1692.6589100000001</v>
       </c>
-      <c r="J24" s="15">
+      <c r="J25" s="15">
         <v>3160.6</v>
       </c>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15">
+      <c r="K25" s="15"/>
+      <c r="L25" s="15">
         <v>6870.7169999999996</v>
       </c>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15">
+      <c r="M25" s="15"/>
+      <c r="N25" s="15">
         <v>1029.982</v>
       </c>
-      <c r="O24" s="15">
+      <c r="O25" s="15">
         <v>1781.74452</v>
       </c>
     </row>
-    <row r="25" spans="2:15" hidden="1">
-      <c r="B25" s="16">
+    <row r="26" spans="2:15" hidden="1">
+      <c r="B26" s="16">
         <v>2023</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C26" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D26" s="18">
         <f t="shared" si="1"/>
         <v>27795.111850000001</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E26" s="19">
         <v>2E-3</v>
       </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19">
+      <c r="F26" s="19"/>
+      <c r="G26" s="19">
         <v>10670.395</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H26" s="19">
         <v>688.12199999999996</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I26" s="19">
         <v>2332.9001999999996</v>
       </c>
-      <c r="J25" s="19">
+      <c r="J26" s="19">
         <v>3597.163</v>
       </c>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19">
+      <c r="K26" s="19"/>
+      <c r="L26" s="19">
         <v>7529.75</v>
       </c>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19">
+      <c r="M26" s="19"/>
+      <c r="N26" s="19">
         <v>1106.6980000000001</v>
       </c>
-      <c r="O25" s="19">
+      <c r="O26" s="19">
         <v>1870.0816499999999</v>
       </c>
     </row>
-    <row r="26" spans="2:15" hidden="1">
-      <c r="B26" s="12">
+    <row r="27" spans="2:15" hidden="1">
+      <c r="B27" s="12">
         <v>2023</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C27" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D27" s="14">
         <f t="shared" si="1"/>
         <v>27392.805111000001</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E27" s="15">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15">
+      <c r="F27" s="15"/>
+      <c r="G27" s="15">
         <v>11104.486000000001</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H27" s="15">
         <v>582.98800000000006</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I27" s="15">
         <v>2097.893521</v>
       </c>
-      <c r="J26" s="15">
+      <c r="J27" s="15">
         <v>3132.8069999999998</v>
       </c>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15">
+      <c r="K27" s="15"/>
+      <c r="L27" s="15">
         <v>7920.2030000000004</v>
       </c>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15">
+      <c r="M27" s="15"/>
+      <c r="N27" s="15">
         <v>632.07899999999995</v>
       </c>
-      <c r="O26" s="15">
+      <c r="O27" s="15">
         <v>1922.34159</v>
       </c>
     </row>
-    <row r="27" spans="2:15" hidden="1">
-      <c r="B27" s="16">
+    <row r="28" spans="2:15" hidden="1">
+      <c r="B28" s="16">
         <v>2023</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C28" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D28" s="18">
         <f t="shared" si="1"/>
         <v>26257.615949999999</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E28" s="19">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19">
+      <c r="F28" s="19"/>
+      <c r="G28" s="19">
         <v>9903.1360000000004</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H28" s="19">
         <v>604.97799999999995</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I28" s="19">
         <v>2029.77441</v>
       </c>
-      <c r="J27" s="19">
+      <c r="J28" s="19">
         <v>3359.4630000000002</v>
       </c>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19">
+      <c r="K28" s="19"/>
+      <c r="L28" s="19">
         <v>7581.4750000000004</v>
       </c>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19">
+      <c r="M28" s="19"/>
+      <c r="N28" s="19">
         <v>808.51900000000001</v>
       </c>
-      <c r="O27" s="19">
+      <c r="O28" s="19">
         <v>1970.2655400000001</v>
       </c>
     </row>
-    <row r="28" spans="2:15" hidden="1">
-      <c r="B28" s="12">
+    <row r="29" spans="2:15" hidden="1">
+      <c r="B29" s="12">
         <v>2023</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C29" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D29" s="14">
         <f t="shared" si="1"/>
         <v>27189.140660000001</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E29" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15">
+      <c r="F29" s="15"/>
+      <c r="G29" s="15">
         <v>9247.2430000000004</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H29" s="15">
         <v>646.67899999999997</v>
       </c>
-      <c r="I28" s="15">
+      <c r="I29" s="15">
         <v>1841.1321099999998</v>
       </c>
-      <c r="J28" s="15">
+      <c r="J29" s="15">
         <v>3239.5920000000001</v>
       </c>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15">
+      <c r="K29" s="15"/>
+      <c r="L29" s="15">
         <v>9116.9560000000001</v>
       </c>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15">
+      <c r="M29" s="15"/>
+      <c r="N29" s="15">
         <v>871.53</v>
       </c>
-      <c r="O28" s="15">
+      <c r="O29" s="15">
         <v>2226.0035500000004</v>
       </c>
     </row>
-    <row r="29" spans="2:15" hidden="1">
-      <c r="B29" s="16">
+    <row r="30" spans="2:15" hidden="1">
+      <c r="B30" s="16">
         <v>2023</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C30" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D30" s="18">
         <f t="shared" si="1"/>
         <v>26065.695520000001</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E30" s="19">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19">
+      <c r="F30" s="19"/>
+      <c r="G30" s="19">
         <v>8823.5010000000002</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H30" s="19">
         <v>643.87900000000002</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I30" s="19">
         <v>2656.5120000000002</v>
       </c>
-      <c r="J29" s="19">
+      <c r="J30" s="19">
         <v>2882.6640000000002</v>
       </c>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19">
+      <c r="K30" s="19"/>
+      <c r="L30" s="19">
         <v>8495.7070000000003</v>
       </c>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19">
+      <c r="M30" s="19"/>
+      <c r="N30" s="19">
         <v>807.85400000000004</v>
       </c>
-      <c r="O29" s="19">
+      <c r="O30" s="19">
         <v>1755.5725199999999</v>
       </c>
     </row>
-    <row r="30" spans="2:15" hidden="1">
-      <c r="B30" s="12">
+    <row r="31" spans="2:15" hidden="1">
+      <c r="B31" s="12">
         <v>2023</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C31" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D31" s="14">
         <f t="shared" si="1"/>
         <v>29416.146090000002</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E31" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15">
+      <c r="F31" s="15"/>
+      <c r="G31" s="15">
         <v>10420.953</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H31" s="15">
         <v>850.89200000000005</v>
       </c>
-      <c r="I30" s="15">
+      <c r="I31" s="15">
         <v>2714.1550000000002</v>
       </c>
-      <c r="J30" s="15">
+      <c r="J31" s="15">
         <v>3284.2510000000002</v>
       </c>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15">
+      <c r="K31" s="15"/>
+      <c r="L31" s="15">
         <v>9320.09</v>
       </c>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15">
+      <c r="M31" s="15"/>
+      <c r="N31" s="15">
         <v>754.07100000000003</v>
       </c>
-      <c r="O30" s="15">
+      <c r="O31" s="15">
         <v>2071.7290899999998</v>
       </c>
     </row>
-    <row r="31" spans="2:15" hidden="1">
-      <c r="B31" s="16">
+    <row r="32" spans="2:15" hidden="1">
+      <c r="B32" s="16">
         <v>2023</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C32" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D32" s="18">
         <f t="shared" si="1"/>
         <v>26501.790870000004</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E32" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19">
+      <c r="F32" s="19"/>
+      <c r="G32" s="19">
         <v>9688.0110000000004</v>
       </c>
-      <c r="H31" s="19">
+      <c r="H32" s="19">
         <v>782.84</v>
       </c>
-      <c r="I31" s="19">
+      <c r="I32" s="19">
         <v>3020.3270000000002</v>
       </c>
-      <c r="J31" s="19">
+      <c r="J32" s="19">
         <v>2745.6669999999999</v>
       </c>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19">
+      <c r="K32" s="19"/>
+      <c r="L32" s="19">
         <v>7686.6450000000004</v>
       </c>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19">
+      <c r="M32" s="19"/>
+      <c r="N32" s="19">
         <v>685.12</v>
       </c>
-      <c r="O31" s="19">
+      <c r="O32" s="19">
         <v>1893.1698699999999</v>
       </c>
     </row>
-    <row r="32" spans="2:15" hidden="1">
-      <c r="B32" s="20">
+    <row r="33" spans="2:15" hidden="1">
+      <c r="B33" s="20">
         <v>2023</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C33" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D33" s="22">
         <f t="shared" si="1"/>
         <v>26308.171539999999</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E33" s="23">
         <v>2E-3</v>
       </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23">
+      <c r="F33" s="23"/>
+      <c r="G33" s="23">
         <v>8914.4519999999993</v>
       </c>
-      <c r="H32" s="23">
+      <c r="H33" s="23">
         <v>734.09199999999998</v>
       </c>
-      <c r="I32" s="23">
+      <c r="I33" s="23">
         <v>3159.0940000000001</v>
       </c>
-      <c r="J32" s="23">
+      <c r="J33" s="23">
         <v>3012.8209999999999</v>
       </c>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23">
+      <c r="K33" s="23"/>
+      <c r="L33" s="23">
         <v>7907.8890000000001</v>
       </c>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23">
+      <c r="M33" s="23"/>
+      <c r="N33" s="23">
         <v>670.48</v>
       </c>
-      <c r="O32" s="23">
+      <c r="O33" s="23">
         <v>1909.3415400000001</v>
       </c>
     </row>
-    <row r="33" spans="2:15" hidden="1">
-      <c r="B33" s="24">
+    <row r="34" spans="2:15" hidden="1">
+      <c r="B34" s="24">
         <v>2022</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C34" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="26">
+      <c r="D34" s="26">
         <f t="shared" si="1"/>
         <v>29865.323240000002</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E34" s="27">
         <v>1E-3</v>
       </c>
-      <c r="F33" s="27">
+      <c r="F34" s="27">
         <v>12.166</v>
       </c>
-      <c r="G33" s="27">
+      <c r="G34" s="27">
         <v>10484.763000000001</v>
       </c>
-      <c r="H33" s="27">
+      <c r="H34" s="27">
         <v>925.66499999999996</v>
       </c>
-      <c r="I33" s="27">
+      <c r="I34" s="27">
         <v>4138.0259999999998</v>
       </c>
-      <c r="J33" s="27">
+      <c r="J34" s="27">
         <v>3314.2310000000002</v>
       </c>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27">
+      <c r="K34" s="27"/>
+      <c r="L34" s="27">
         <v>7746.2759999999998</v>
       </c>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27">
+      <c r="M34" s="27"/>
+      <c r="N34" s="27">
         <v>961.79730000000006</v>
       </c>
-      <c r="O33" s="27">
+      <c r="O34" s="27">
         <v>2282.3979400000003</v>
       </c>
     </row>
-    <row r="34" spans="2:15" hidden="1">
-      <c r="B34" s="12">
+    <row r="35" spans="2:15" hidden="1">
+      <c r="B35" s="12">
         <v>2022</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C35" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D35" s="14">
         <f t="shared" si="1"/>
         <v>29983.373589999999</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E35" s="15">
         <v>2E-3</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F35" s="15">
         <v>32.463999999999999</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G35" s="15">
         <v>10081.717000000001</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H35" s="15">
         <v>990.43700000000001</v>
       </c>
-      <c r="I34" s="15">
+      <c r="I35" s="15">
         <v>5149.683</v>
       </c>
-      <c r="J34" s="15">
+      <c r="J35" s="15">
         <v>3384.6909999999998</v>
       </c>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15">
+      <c r="K35" s="15"/>
+      <c r="L35" s="15">
         <v>7113.482</v>
       </c>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15">
+      <c r="M35" s="15"/>
+      <c r="N35" s="15">
         <v>970.55570000000012</v>
       </c>
-      <c r="O34" s="15">
+      <c r="O35" s="15">
         <v>2260.3418900000001</v>
       </c>
     </row>
-    <row r="35" spans="2:15" hidden="1">
-      <c r="B35" s="16">
+    <row r="36" spans="2:15" hidden="1">
+      <c r="B36" s="16">
         <v>2022</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C36" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D36" s="18">
         <f t="shared" si="1"/>
         <v>29295.863820000002</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E36" s="19">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F36" s="19">
         <v>31.343</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G36" s="19">
         <v>9947.3389999999999</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H36" s="19">
         <v>926.49599999999998</v>
       </c>
-      <c r="I35" s="19">
+      <c r="I36" s="19">
         <v>5335.3050000000003</v>
       </c>
-      <c r="J35" s="19">
+      <c r="J36" s="19">
         <v>3159.48</v>
       </c>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19">
+      <c r="K36" s="19"/>
+      <c r="L36" s="19">
         <v>6728.7049999999999</v>
       </c>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19">
+      <c r="M36" s="19"/>
+      <c r="N36" s="19">
         <v>979.74129999999991</v>
       </c>
-      <c r="O35" s="19">
+      <c r="O36" s="19">
         <v>2187.4515200000001</v>
       </c>
     </row>
-    <row r="36" spans="2:15" hidden="1">
-      <c r="B36" s="12">
+    <row r="37" spans="2:15" hidden="1">
+      <c r="B37" s="12">
         <v>2022</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C37" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D37" s="14">
         <f t="shared" si="1"/>
         <v>26447.132749999997</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E37" s="15">
         <v>2E-3</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F37" s="15">
         <v>23.175000000000001</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G37" s="15">
         <v>9081.3619999999992</v>
       </c>
-      <c r="H36" s="15">
+      <c r="H37" s="15">
         <v>703.86900000000003</v>
       </c>
-      <c r="I36" s="15">
+      <c r="I37" s="15">
         <v>4176.1049999999996</v>
       </c>
-      <c r="J36" s="15">
+      <c r="J37" s="15">
         <v>3254.7069999999999</v>
       </c>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15">
+      <c r="K37" s="15"/>
+      <c r="L37" s="15">
         <v>6617.3549999999996</v>
       </c>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15">
+      <c r="M37" s="15"/>
+      <c r="N37" s="15">
         <v>824.20899999999995</v>
       </c>
-      <c r="O36" s="15">
+      <c r="O37" s="15">
         <v>1766.3487500000001</v>
       </c>
     </row>
-    <row r="37" spans="2:15" hidden="1">
-      <c r="B37" s="16">
+    <row r="38" spans="2:15" hidden="1">
+      <c r="B38" s="16">
         <v>2022</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C38" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D38" s="18">
         <f t="shared" si="1"/>
         <v>26279.741409999995</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E38" s="19">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F38" s="19">
         <v>28.286999999999999</v>
       </c>
-      <c r="G37" s="19">
+      <c r="G38" s="19">
         <v>9293.5259999999998</v>
       </c>
-      <c r="H37" s="19">
+      <c r="H38" s="19">
         <v>859.87</v>
       </c>
-      <c r="I37" s="19">
+      <c r="I38" s="19">
         <v>4037.6669999999999</v>
       </c>
-      <c r="J37" s="19">
+      <c r="J38" s="19">
         <v>3520.194</v>
       </c>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19">
+      <c r="K38" s="19"/>
+      <c r="L38" s="19">
         <v>5886.08</v>
       </c>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19">
+      <c r="M38" s="19"/>
+      <c r="N38" s="19">
         <v>804.58889999999997</v>
       </c>
-      <c r="O37" s="19">
+      <c r="O38" s="19">
         <v>1849.52451</v>
       </c>
     </row>
-    <row r="38" spans="2:15" hidden="1">
-      <c r="B38" s="12">
+    <row r="39" spans="2:15" hidden="1">
+      <c r="B39" s="12">
         <v>2022</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C39" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D39" s="14">
         <f t="shared" si="1"/>
         <v>30603.772699999998</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E39" s="15">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F38" s="15">
+      <c r="F39" s="15">
         <v>31.623000000000001</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G39" s="15">
         <v>9435.7099999999991</v>
       </c>
-      <c r="H38" s="15">
+      <c r="H39" s="15">
         <v>852.04499999999996</v>
       </c>
-      <c r="I38" s="15">
+      <c r="I39" s="15">
         <v>4353.799</v>
       </c>
-      <c r="J38" s="15">
+      <c r="J39" s="15">
         <v>3361.634</v>
       </c>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15">
+      <c r="K39" s="15"/>
+      <c r="L39" s="15">
         <v>10038.903</v>
       </c>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15">
+      <c r="M39" s="15"/>
+      <c r="N39" s="15">
         <v>692.77719999999999</v>
       </c>
-      <c r="O38" s="15">
+      <c r="O39" s="15">
         <v>1837.2745</v>
       </c>
     </row>
-    <row r="39" spans="2:15" hidden="1">
-      <c r="B39" s="16">
+    <row r="40" spans="2:15" hidden="1">
+      <c r="B40" s="16">
         <v>2022</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C40" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D40" s="18">
         <f t="shared" si="1"/>
         <v>32911.434350000003</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E40" s="19">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F39" s="19">
+      <c r="F40" s="19">
         <v>29.89</v>
       </c>
-      <c r="G39" s="19">
+      <c r="G40" s="19">
         <v>9434.6640000000007</v>
       </c>
-      <c r="H39" s="19">
+      <c r="H40" s="19">
         <v>704.59900000000005</v>
       </c>
-      <c r="I39" s="19">
+      <c r="I40" s="19">
         <v>4932.3429999999998</v>
       </c>
-      <c r="J39" s="19">
+      <c r="J40" s="19">
         <v>3363.165</v>
       </c>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19">
+      <c r="K40" s="19"/>
+      <c r="L40" s="19">
         <v>11698.642</v>
       </c>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19">
+      <c r="M40" s="19"/>
+      <c r="N40" s="19">
         <v>750.94670000000008</v>
       </c>
-      <c r="O39" s="19">
+      <c r="O40" s="19">
         <v>1997.1796499999998</v>
       </c>
     </row>
-    <row r="40" spans="2:15" hidden="1">
-      <c r="B40" s="12">
+    <row r="41" spans="2:15" hidden="1">
+      <c r="B41" s="12">
         <v>2022</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C41" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D41" s="14">
         <f t="shared" si="1"/>
         <v>32136.140250000004</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E41" s="15">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F40" s="15">
+      <c r="F41" s="15">
         <v>28.506</v>
       </c>
-      <c r="G40" s="15">
+      <c r="G41" s="15">
         <v>9520.1350000000002</v>
       </c>
-      <c r="H40" s="15">
+      <c r="H41" s="15">
         <v>707.80499999999995</v>
       </c>
-      <c r="I40" s="15">
+      <c r="I41" s="15">
         <v>5145.5190000000002</v>
       </c>
-      <c r="J40" s="15">
+      <c r="J41" s="15">
         <v>3217.3589999999999</v>
       </c>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15">
+      <c r="K41" s="15"/>
+      <c r="L41" s="15">
         <v>10677.519</v>
       </c>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15">
+      <c r="M41" s="15"/>
+      <c r="N41" s="15">
         <v>667.7</v>
       </c>
-      <c r="O40" s="15">
+      <c r="O41" s="15">
         <v>2171.5932499999999</v>
       </c>
     </row>
-    <row r="41" spans="2:15" hidden="1">
-      <c r="B41" s="16">
+    <row r="42" spans="2:15" hidden="1">
+      <c r="B42" s="16">
         <v>2022</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C42" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="18">
+      <c r="D42" s="18">
         <f t="shared" si="1"/>
         <v>27514.741269999999</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E42" s="19">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F41" s="19">
+      <c r="F42" s="19">
         <v>33.442</v>
       </c>
-      <c r="G41" s="19">
+      <c r="G42" s="19">
         <v>8677.1650000000009</v>
       </c>
-      <c r="H41" s="19">
+      <c r="H42" s="19">
         <v>704.93700000000001</v>
       </c>
-      <c r="I41" s="19">
+      <c r="I42" s="19">
         <v>4385.1239999999998</v>
       </c>
-      <c r="J41" s="19">
+      <c r="J42" s="19">
         <v>3089.9090000000001</v>
       </c>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19">
+      <c r="K42" s="19"/>
+      <c r="L42" s="19">
         <v>7847.8879999999999</v>
       </c>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19">
+      <c r="M42" s="19"/>
+      <c r="N42" s="19">
         <v>761.38699999999994</v>
       </c>
-      <c r="O41" s="19">
+      <c r="O42" s="19">
         <v>2014.8862699999997</v>
       </c>
     </row>
-    <row r="42" spans="2:15" hidden="1">
-      <c r="B42" s="12">
+    <row r="43" spans="2:15" hidden="1">
+      <c r="B43" s="12">
         <v>2022</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C43" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D43" s="14">
         <f t="shared" si="1"/>
         <v>30859.440460000002</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E43" s="15">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F43" s="15">
         <v>30.175999999999998</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G43" s="15">
         <v>9761.2630000000008</v>
       </c>
-      <c r="H42" s="15">
+      <c r="H43" s="15">
         <v>1009.9829999999999</v>
       </c>
-      <c r="I42" s="15">
+      <c r="I43" s="15">
         <v>6578.5140000000001</v>
       </c>
-      <c r="J42" s="15">
+      <c r="J43" s="15">
         <v>3448.0540000000001</v>
       </c>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15">
+      <c r="K43" s="15"/>
+      <c r="L43" s="15">
         <v>7191.5020000000004</v>
       </c>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15">
+      <c r="M43" s="15"/>
+      <c r="N43" s="15">
         <v>742.69299999999998</v>
       </c>
-      <c r="O42" s="15">
+      <c r="O43" s="15">
         <v>2097.25146</v>
       </c>
     </row>
-    <row r="43" spans="2:15" hidden="1">
-      <c r="B43" s="16">
+    <row r="44" spans="2:15" hidden="1">
+      <c r="B44" s="16">
         <v>2022</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C44" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D44" s="18">
         <f t="shared" si="1"/>
         <v>26857.410190000002</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E44" s="19">
         <v>0</v>
       </c>
-      <c r="F43" s="19">
+      <c r="F44" s="19">
         <v>26.463999999999999</v>
       </c>
-      <c r="G43" s="19">
+      <c r="G44" s="19">
         <v>8399.2009999999991</v>
       </c>
-      <c r="H43" s="19">
+      <c r="H44" s="19">
         <v>816.23900000000003</v>
       </c>
-      <c r="I43" s="19">
+      <c r="I44" s="19">
         <v>4488.2250000000004</v>
       </c>
-      <c r="J43" s="19">
+      <c r="J44" s="19">
         <v>3087.74</v>
       </c>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19">
+      <c r="K44" s="19"/>
+      <c r="L44" s="19">
         <v>7675.5219999999999</v>
       </c>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19">
+      <c r="M44" s="19"/>
+      <c r="N44" s="19">
         <v>680.0145</v>
       </c>
-      <c r="O43" s="19">
+      <c r="O44" s="19">
         <v>1684.00469</v>
       </c>
     </row>
-    <row r="44" spans="2:15" hidden="1">
-      <c r="B44" s="20">
+    <row r="45" spans="2:15" hidden="1">
+      <c r="B45" s="20">
         <v>2022</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C45" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="22">
+      <c r="D45" s="22">
         <f t="shared" si="1"/>
         <v>26010.419900000001</v>
       </c>
-      <c r="E44" s="23">
+      <c r="E45" s="23">
         <v>0.01</v>
       </c>
-      <c r="F44" s="23">
+      <c r="F45" s="23">
         <v>29.917000000000002</v>
       </c>
-      <c r="G44" s="23">
+      <c r="G45" s="23">
         <v>8064.9719999999998</v>
       </c>
-      <c r="H44" s="23">
+      <c r="H45" s="23">
         <v>759.41499999999996</v>
       </c>
-      <c r="I44" s="23">
+      <c r="I45" s="23">
         <v>4874.95</v>
       </c>
-      <c r="J44" s="23">
+      <c r="J45" s="23">
         <v>3142.1970000000001</v>
       </c>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23">
+      <c r="K45" s="23"/>
+      <c r="L45" s="23">
         <v>6776.384</v>
       </c>
-      <c r="M44" s="23"/>
-      <c r="N44" s="23">
+      <c r="M45" s="23"/>
+      <c r="N45" s="23">
         <v>751.90069999999992</v>
       </c>
-      <c r="O44" s="23">
+      <c r="O45" s="23">
         <v>1610.6742000000002</v>
       </c>
     </row>
-    <row r="45" spans="2:15" hidden="1">
-      <c r="B45" s="24">
+    <row r="46" spans="2:15" hidden="1">
+      <c r="B46" s="24">
         <v>2021</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C46" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="26">
+      <c r="D46" s="26">
         <f t="shared" si="1"/>
         <v>31566.167749999997</v>
       </c>
-      <c r="E45" s="27">
+      <c r="E46" s="27">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F45" s="27">
+      <c r="F46" s="27">
         <v>37.055</v>
       </c>
-      <c r="G45" s="27">
+      <c r="G46" s="27">
         <v>9575.5380000000005</v>
       </c>
-      <c r="H45" s="27">
+      <c r="H46" s="27">
         <v>889.38</v>
       </c>
-      <c r="I45" s="27">
+      <c r="I46" s="27">
         <v>6288.674</v>
       </c>
-      <c r="J45" s="27">
+      <c r="J46" s="27">
         <v>4403.6390000000001</v>
       </c>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27">
+      <c r="K46" s="27"/>
+      <c r="L46" s="27">
         <v>7812.2049999999999</v>
       </c>
-      <c r="M45" s="27"/>
-      <c r="N45" s="27">
+      <c r="M46" s="27"/>
+      <c r="N46" s="27">
         <v>644.26139999999998</v>
       </c>
-      <c r="O45" s="27">
+      <c r="O46" s="27">
         <v>1915.4123500000001</v>
       </c>
     </row>
-    <row r="46" spans="2:15" hidden="1">
-      <c r="B46" s="12">
+    <row r="47" spans="2:15" hidden="1">
+      <c r="B47" s="12">
         <v>2021</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C47" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D47" s="14">
         <f t="shared" si="1"/>
         <v>29944.972509999996</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E47" s="15">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F46" s="15">
+      <c r="F47" s="15">
         <v>42.304000000000002</v>
       </c>
-      <c r="G46" s="15">
+      <c r="G47" s="15">
         <v>8541.3799999999992</v>
       </c>
-      <c r="H46" s="15">
+      <c r="H47" s="15">
         <v>797.55100000000004</v>
       </c>
-      <c r="I46" s="15">
+      <c r="I47" s="15">
         <v>5779.326</v>
       </c>
-      <c r="J46" s="15">
+      <c r="J47" s="15">
         <v>3742.5929999999998</v>
       </c>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15">
+      <c r="K47" s="15"/>
+      <c r="L47" s="15">
         <v>8308.2459999999992</v>
       </c>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15">
+      <c r="M47" s="15"/>
+      <c r="N47" s="15">
         <v>761.88139999999999</v>
       </c>
-      <c r="O46" s="15">
+      <c r="O47" s="15">
         <v>1971.6851100000001</v>
       </c>
     </row>
-    <row r="47" spans="2:15" hidden="1">
-      <c r="B47" s="16">
+    <row r="48" spans="2:15" hidden="1">
+      <c r="B48" s="16">
         <v>2021</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C48" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="18">
+      <c r="D48" s="18">
         <f t="shared" si="1"/>
         <v>30000.867740000002</v>
       </c>
-      <c r="E47" s="19">
+      <c r="E48" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F47" s="19">
+      <c r="F48" s="19">
         <v>29.148</v>
       </c>
-      <c r="G47" s="19">
+      <c r="G48" s="19">
         <v>9141.5849999999991</v>
       </c>
-      <c r="H47" s="19">
+      <c r="H48" s="19">
         <v>935.53599999999994</v>
       </c>
-      <c r="I47" s="19">
+      <c r="I48" s="19">
         <v>5740.3919999999998</v>
       </c>
-      <c r="J47" s="19">
+      <c r="J48" s="19">
         <v>3221.6640000000002</v>
       </c>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19">
+      <c r="K48" s="19"/>
+      <c r="L48" s="19">
         <v>8292.1039999999994</v>
       </c>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19">
+      <c r="M48" s="19"/>
+      <c r="N48" s="19">
         <v>722.20399999999995</v>
       </c>
-      <c r="O47" s="19">
+      <c r="O48" s="19">
         <v>1918.2237399999999</v>
       </c>
     </row>
-    <row r="48" spans="2:15" hidden="1">
-      <c r="B48" s="12">
+    <row r="49" spans="2:15" hidden="1">
+      <c r="B49" s="12">
         <v>2021</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C49" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="14">
-        <f t="shared" ref="D48:D79" si="3">SUM(E48:O48)</f>
+      <c r="D49" s="14">
+        <f t="shared" ref="D49:D80" si="3">SUM(E49:O49)</f>
         <v>25044.998970000004</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E49" s="15">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F48" s="15">
+      <c r="F49" s="15">
         <v>27.141999999999999</v>
       </c>
-      <c r="G48" s="15">
+      <c r="G49" s="15">
         <v>7906.91</v>
       </c>
-      <c r="H48" s="15">
+      <c r="H49" s="15">
         <v>875.76900000000001</v>
       </c>
-      <c r="I48" s="15">
+      <c r="I49" s="15">
         <v>4566.3109999999997</v>
       </c>
-      <c r="J48" s="15">
+      <c r="J49" s="15">
         <v>3115.0770000000002</v>
       </c>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15">
+      <c r="K49" s="15"/>
+      <c r="L49" s="15">
         <v>6415.2790000000005</v>
       </c>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15">
+      <c r="M49" s="15"/>
+      <c r="N49" s="15">
         <v>491.27</v>
       </c>
-      <c r="O48" s="15">
+      <c r="O49" s="15">
         <v>1647.23197</v>
       </c>
     </row>
-    <row r="49" spans="2:15" hidden="1">
-      <c r="B49" s="16">
+    <row r="50" spans="2:15" hidden="1">
+      <c r="B50" s="16">
         <v>2021</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C50" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D49" s="18">
+      <c r="D50" s="18">
         <f t="shared" si="3"/>
         <v>26801.51179</v>
       </c>
-      <c r="E49" s="19">
+      <c r="E50" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F49" s="19">
+      <c r="F50" s="19">
         <v>26.024000000000001</v>
       </c>
-      <c r="G49" s="19">
+      <c r="G50" s="19">
         <v>7787.3339999999998</v>
       </c>
-      <c r="H49" s="19">
+      <c r="H50" s="19">
         <v>951.82</v>
       </c>
-      <c r="I49" s="19">
+      <c r="I50" s="19">
         <v>5861.0240000000003</v>
       </c>
-      <c r="J49" s="19">
+      <c r="J50" s="19">
         <v>2963.1660000000002</v>
       </c>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19">
+      <c r="K50" s="19"/>
+      <c r="L50" s="19">
         <v>6924.8339999999998</v>
       </c>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19">
+      <c r="M50" s="19"/>
+      <c r="N50" s="19">
         <v>590.37950000000001</v>
       </c>
-      <c r="O49" s="19">
+      <c r="O50" s="19">
         <v>1696.91929</v>
       </c>
     </row>
-    <row r="50" spans="2:15" hidden="1">
-      <c r="B50" s="12">
+    <row r="51" spans="2:15" hidden="1">
+      <c r="B51" s="12">
         <v>2021</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C51" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D51" s="14">
         <f t="shared" si="3"/>
         <v>29570.534019999996</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E51" s="15">
         <v>1.6E-2</v>
       </c>
-      <c r="F50" s="15">
+      <c r="F51" s="15">
         <v>33.762999999999998</v>
       </c>
-      <c r="G50" s="15">
+      <c r="G51" s="15">
         <v>7960.9809999999998</v>
       </c>
-      <c r="H50" s="15">
+      <c r="H51" s="15">
         <v>980.41300000000001</v>
       </c>
-      <c r="I50" s="15">
+      <c r="I51" s="15">
         <v>6238.2730000000001</v>
       </c>
-      <c r="J50" s="15">
+      <c r="J51" s="15">
         <v>3189.866</v>
       </c>
-      <c r="K50" s="15"/>
-      <c r="L50" s="15">
+      <c r="K51" s="15"/>
+      <c r="L51" s="15">
         <v>8884.8860000000004</v>
       </c>
-      <c r="M50" s="15"/>
-      <c r="N50" s="15">
+      <c r="M51" s="15"/>
+      <c r="N51" s="15">
         <v>570.02250000000004</v>
       </c>
-      <c r="O50" s="15">
+      <c r="O51" s="15">
         <v>1712.3135199999999</v>
       </c>
     </row>
-    <row r="51" spans="2:15" hidden="1">
-      <c r="B51" s="16">
+    <row r="52" spans="2:15" hidden="1">
+      <c r="B52" s="16">
         <v>2021</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C52" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D52" s="18">
         <f t="shared" si="3"/>
         <v>26984.257880000001</v>
       </c>
-      <c r="E51" s="19">
+      <c r="E52" s="19">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F51" s="19">
+      <c r="F52" s="19">
         <v>30.326000000000001</v>
       </c>
-      <c r="G51" s="19">
+      <c r="G52" s="19">
         <v>6994.8090000000002</v>
       </c>
-      <c r="H51" s="19">
+      <c r="H52" s="19">
         <v>938.22799999999995</v>
       </c>
-      <c r="I51" s="19">
+      <c r="I52" s="19">
         <v>5685.7610000000004</v>
       </c>
-      <c r="J51" s="19">
+      <c r="J52" s="19">
         <v>2933.55</v>
       </c>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19">
+      <c r="K52" s="19"/>
+      <c r="L52" s="19">
         <v>8239.3950000000004</v>
       </c>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19">
+      <c r="M52" s="19"/>
+      <c r="N52" s="19">
         <v>517.37900000000002</v>
       </c>
-      <c r="O51" s="19">
+      <c r="O52" s="19">
         <v>1644.78388</v>
       </c>
     </row>
-    <row r="52" spans="2:15" hidden="1">
-      <c r="B52" s="12">
+    <row r="53" spans="2:15" hidden="1">
+      <c r="B53" s="12">
         <v>2021</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C53" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="14">
+      <c r="D53" s="14">
         <f t="shared" si="3"/>
         <v>27395.161769999999</v>
       </c>
-      <c r="E52" s="15">
+      <c r="E53" s="15">
         <v>1.2E-2</v>
       </c>
-      <c r="F52" s="15">
+      <c r="F53" s="15">
         <v>34.064</v>
       </c>
-      <c r="G52" s="15">
+      <c r="G53" s="15">
         <v>5853.0280000000002</v>
       </c>
-      <c r="H52" s="15">
+      <c r="H53" s="15">
         <v>804.99099999999999</v>
       </c>
-      <c r="I52" s="15">
+      <c r="I53" s="15">
         <v>6221.6310000000003</v>
       </c>
-      <c r="J52" s="15">
+      <c r="J53" s="15">
         <v>2753.0189999999998</v>
       </c>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15">
+      <c r="K53" s="15"/>
+      <c r="L53" s="15">
         <v>9369.7039999999997</v>
       </c>
-      <c r="M52" s="15"/>
-      <c r="N52" s="15">
+      <c r="M53" s="15"/>
+      <c r="N53" s="15">
         <v>581.25</v>
       </c>
-      <c r="O52" s="15">
+      <c r="O53" s="15">
         <v>1777.4627700000001</v>
       </c>
     </row>
-    <row r="53" spans="2:15" hidden="1">
-      <c r="B53" s="16">
+    <row r="54" spans="2:15" hidden="1">
+      <c r="B54" s="16">
         <v>2021</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C54" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D53" s="18">
+      <c r="D54" s="18">
         <f t="shared" si="3"/>
         <v>26794.383829999999</v>
       </c>
-      <c r="E53" s="19">
+      <c r="E54" s="19">
         <v>1.4E-2</v>
       </c>
-      <c r="F53" s="19">
+      <c r="F54" s="19">
         <v>28.870999999999999</v>
       </c>
-      <c r="G53" s="19">
+      <c r="G54" s="19">
         <v>5583.2060000000001</v>
       </c>
-      <c r="H53" s="19">
+      <c r="H54" s="19">
         <v>855.89099999999996</v>
       </c>
-      <c r="I53" s="19">
+      <c r="I54" s="19">
         <v>5955.3379999999997</v>
       </c>
-      <c r="J53" s="19">
+      <c r="J54" s="19">
         <v>2553.587</v>
       </c>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19">
+      <c r="K54" s="19"/>
+      <c r="L54" s="19">
         <v>9635.8649999999998</v>
       </c>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19">
+      <c r="M54" s="19"/>
+      <c r="N54" s="19">
         <v>569.29200000000003</v>
       </c>
-      <c r="O53" s="19">
+      <c r="O54" s="19">
         <v>1612.3198300000001</v>
       </c>
     </row>
-    <row r="54" spans="2:15" hidden="1">
-      <c r="B54" s="12">
+    <row r="55" spans="2:15" hidden="1">
+      <c r="B55" s="12">
         <v>2021</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C55" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D55" s="14">
         <f t="shared" si="3"/>
         <v>28888.855879999999</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E55" s="15">
         <v>0.01</v>
       </c>
-      <c r="F54" s="15">
+      <c r="F55" s="15">
         <v>30.994</v>
       </c>
-      <c r="G54" s="15">
+      <c r="G55" s="15">
         <v>5972.1139999999996</v>
       </c>
-      <c r="H54" s="15">
+      <c r="H55" s="15">
         <v>961.24900000000002</v>
       </c>
-      <c r="I54" s="15">
+      <c r="I55" s="15">
         <v>6821.0630000000001</v>
       </c>
-      <c r="J54" s="15">
+      <c r="J55" s="15">
         <v>2527.971</v>
       </c>
-      <c r="K54" s="15"/>
-      <c r="L54" s="15">
+      <c r="K55" s="15"/>
+      <c r="L55" s="15">
         <v>10350.735000000001</v>
       </c>
-      <c r="M54" s="15"/>
-      <c r="N54" s="15">
+      <c r="M55" s="15"/>
+      <c r="N55" s="15">
         <v>537.19399999999996</v>
       </c>
-      <c r="O54" s="15">
+      <c r="O55" s="15">
         <v>1687.5258799999999</v>
       </c>
     </row>
-    <row r="55" spans="2:15" hidden="1">
-      <c r="B55" s="16">
+    <row r="56" spans="2:15" hidden="1">
+      <c r="B56" s="16">
         <v>2021</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C56" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D55" s="18">
+      <c r="D56" s="18">
         <f t="shared" si="3"/>
         <v>25842.507199999996</v>
       </c>
-      <c r="E55" s="19">
+      <c r="E56" s="19">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F55" s="19">
+      <c r="F56" s="19">
         <v>23.164999999999999</v>
       </c>
-      <c r="G55" s="19">
+      <c r="G56" s="19">
         <v>5676.3119999999999</v>
       </c>
-      <c r="H55" s="19">
+      <c r="H56" s="19">
         <v>842.12599999999998</v>
       </c>
-      <c r="I55" s="19">
+      <c r="I56" s="19">
         <v>6447.9210000000003</v>
       </c>
-      <c r="J55" s="19">
+      <c r="J56" s="19">
         <v>2143.1759999999999</v>
       </c>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19">
+      <c r="K56" s="19"/>
+      <c r="L56" s="19">
         <v>8771.1730000000007</v>
       </c>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19">
+      <c r="M56" s="19"/>
+      <c r="N56" s="19">
         <v>441.65600000000001</v>
       </c>
-      <c r="O55" s="19">
+      <c r="O56" s="19">
         <v>1496.9692</v>
       </c>
     </row>
-    <row r="56" spans="2:15" hidden="1">
-      <c r="B56" s="20">
+    <row r="57" spans="2:15" hidden="1">
+      <c r="B57" s="20">
         <v>2021</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C57" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D56" s="22">
+      <c r="D57" s="22">
         <f t="shared" si="3"/>
         <v>26743.09706</v>
       </c>
-      <c r="E56" s="23">
+      <c r="E57" s="23">
         <v>2.3E-2</v>
       </c>
-      <c r="F56" s="23">
+      <c r="F57" s="23">
         <v>22.483000000000001</v>
       </c>
-      <c r="G56" s="23">
+      <c r="G57" s="23">
         <v>5633.7330000000002</v>
       </c>
-      <c r="H56" s="23">
+      <c r="H57" s="23">
         <v>893.20500000000004</v>
       </c>
-      <c r="I56" s="23">
+      <c r="I57" s="23">
         <v>5852.174</v>
       </c>
-      <c r="J56" s="23">
+      <c r="J57" s="23">
         <v>2714.6959999999999</v>
       </c>
-      <c r="K56" s="23"/>
-      <c r="L56" s="23">
+      <c r="K57" s="23"/>
+      <c r="L57" s="23">
         <v>9764.4040000000005</v>
       </c>
-      <c r="M56" s="23"/>
-      <c r="N56" s="23">
+      <c r="M57" s="23"/>
+      <c r="N57" s="23">
         <v>374.46</v>
       </c>
-      <c r="O56" s="23">
+      <c r="O57" s="23">
         <v>1487.9190599999999</v>
       </c>
     </row>
-    <row r="57" spans="2:15" hidden="1">
-      <c r="B57" s="24">
+    <row r="58" spans="2:15" hidden="1">
+      <c r="B58" s="24">
         <v>2020</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C58" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D57" s="26">
+      <c r="D58" s="26">
         <f t="shared" si="3"/>
         <v>29335.748110000004</v>
       </c>
-      <c r="E57" s="27">
+      <c r="E58" s="27">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F57" s="27">
+      <c r="F58" s="27">
         <v>30.75</v>
       </c>
-      <c r="G57" s="27">
+      <c r="G58" s="27">
         <v>5388.74</v>
       </c>
-      <c r="H57" s="27">
+      <c r="H58" s="27">
         <v>1227.8499999999999</v>
       </c>
-      <c r="I57" s="27">
+      <c r="I58" s="27">
         <v>8063.0550000000003</v>
       </c>
-      <c r="J57" s="27">
+      <c r="J58" s="27">
         <v>3485.029</v>
       </c>
-      <c r="K57" s="27">
+      <c r="K58" s="27">
         <v>16.4115</v>
       </c>
-      <c r="L57" s="27">
+      <c r="L58" s="27">
         <v>8808.3330000000005</v>
       </c>
-      <c r="M57" s="27"/>
-      <c r="N57" s="27">
+      <c r="M58" s="27"/>
+      <c r="N58" s="27">
         <v>499.45499999999998</v>
       </c>
-      <c r="O57" s="27">
+      <c r="O58" s="27">
         <v>1816.0996100000002</v>
       </c>
     </row>
-    <row r="58" spans="2:15" hidden="1">
-      <c r="B58" s="12">
+    <row r="59" spans="2:15" hidden="1">
+      <c r="B59" s="12">
         <v>2020</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C59" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D58" s="14">
+      <c r="D59" s="14">
         <f t="shared" si="3"/>
         <v>31111.598979999999</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E59" s="15">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="F58" s="15">
+      <c r="F59" s="15">
         <v>29.420999999999999</v>
       </c>
-      <c r="G58" s="15">
+      <c r="G59" s="15">
         <v>4646.3059999999996</v>
       </c>
-      <c r="H58" s="15">
+      <c r="H59" s="15">
         <v>918.31700000000001</v>
       </c>
-      <c r="I58" s="15">
+      <c r="I59" s="15">
         <v>10405.393</v>
       </c>
-      <c r="J58" s="15">
+      <c r="J59" s="15">
         <v>3080.1370000000002</v>
       </c>
-      <c r="K58" s="15">
+      <c r="K59" s="15">
         <v>86.034999999999997</v>
       </c>
-      <c r="L58" s="15">
+      <c r="L59" s="15">
         <v>9680.3340000000007</v>
       </c>
-      <c r="M58" s="15"/>
-      <c r="N58" s="15">
+      <c r="M59" s="15"/>
+      <c r="N59" s="15">
         <v>427.87200000000001</v>
       </c>
-      <c r="O58" s="15">
+      <c r="O59" s="15">
         <v>1837.75198</v>
       </c>
     </row>
-    <row r="59" spans="2:15" hidden="1">
-      <c r="B59" s="16">
+    <row r="60" spans="2:15" hidden="1">
+      <c r="B60" s="16">
         <v>2020</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C60" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D59" s="18">
+      <c r="D60" s="18">
         <f t="shared" si="3"/>
         <v>29198.211449999999</v>
       </c>
-      <c r="E59" s="19">
+      <c r="E60" s="19">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F59" s="19">
+      <c r="F60" s="19">
         <v>25.18</v>
       </c>
-      <c r="G59" s="19">
+      <c r="G60" s="19">
         <v>4168.3999999999996</v>
       </c>
-      <c r="H59" s="19">
+      <c r="H60" s="19">
         <v>855.53599999999994</v>
       </c>
-      <c r="I59" s="19">
+      <c r="I60" s="19">
         <v>9141.11</v>
       </c>
-      <c r="J59" s="19">
+      <c r="J60" s="19">
         <v>2910.5740000000001</v>
       </c>
-      <c r="K59" s="19">
+      <c r="K60" s="19">
         <v>131.53100000000001</v>
       </c>
-      <c r="L59" s="19">
+      <c r="L60" s="19">
         <v>9811.7209999999995</v>
       </c>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19">
+      <c r="M60" s="19"/>
+      <c r="N60" s="19">
         <v>328.78100000000001</v>
       </c>
-      <c r="O59" s="19">
+      <c r="O60" s="19">
         <v>1825.3604499999999</v>
       </c>
     </row>
-    <row r="60" spans="2:15" hidden="1">
-      <c r="B60" s="12">
+    <row r="61" spans="2:15" hidden="1">
+      <c r="B61" s="12">
         <v>2020</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C61" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D60" s="14">
+      <c r="D61" s="14">
         <f t="shared" si="3"/>
         <v>25824.25403</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E61" s="15">
         <v>1.6E-2</v>
       </c>
-      <c r="F60" s="15">
+      <c r="F61" s="15">
         <v>19.38</v>
       </c>
-      <c r="G60" s="15">
+      <c r="G61" s="15">
         <v>3354.4870000000001</v>
       </c>
-      <c r="H60" s="15">
+      <c r="H61" s="15">
         <v>815.01599999999996</v>
       </c>
-      <c r="I60" s="15">
+      <c r="I61" s="15">
         <v>9094.2099999999991</v>
       </c>
-      <c r="J60" s="15">
+      <c r="J61" s="15">
         <v>2742.8449999999998</v>
       </c>
-      <c r="K60" s="15">
+      <c r="K61" s="15">
         <v>94.078000000000003</v>
       </c>
-      <c r="L60" s="15">
+      <c r="L61" s="15">
         <v>7889.5420000000004</v>
       </c>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15">
+      <c r="M61" s="15"/>
+      <c r="N61" s="15">
         <v>300.25099999999998</v>
       </c>
-      <c r="O60" s="15">
+      <c r="O61" s="15">
         <v>1514.42903</v>
       </c>
     </row>
-    <row r="61" spans="2:15" hidden="1">
-      <c r="B61" s="16">
+    <row r="62" spans="2:15" hidden="1">
+      <c r="B62" s="16">
         <v>2020</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C62" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D61" s="18">
+      <c r="D62" s="18">
         <f t="shared" si="3"/>
         <v>23354.829529999999</v>
       </c>
-      <c r="E61" s="19">
+      <c r="E62" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F61" s="19">
+      <c r="F62" s="19">
         <v>19.126000000000001</v>
       </c>
-      <c r="G61" s="19">
+      <c r="G62" s="19">
         <v>2845.2860000000001</v>
       </c>
-      <c r="H61" s="19">
+      <c r="H62" s="19">
         <v>913.84799999999996</v>
       </c>
-      <c r="I61" s="19">
+      <c r="I62" s="19">
         <v>8628.9339999999993</v>
       </c>
-      <c r="J61" s="19">
+      <c r="J62" s="19">
         <v>2494.9360000000001</v>
       </c>
-      <c r="K61" s="19">
+      <c r="K62" s="19">
         <v>102.148</v>
       </c>
-      <c r="L61" s="19">
+      <c r="L62" s="19">
         <v>6734.2569999999996</v>
       </c>
-      <c r="M61" s="19"/>
-      <c r="N61" s="19">
+      <c r="M62" s="19"/>
+      <c r="N62" s="19">
         <v>214.13300000000001</v>
       </c>
-      <c r="O61" s="19">
+      <c r="O62" s="19">
         <v>1402.1505300000001</v>
       </c>
     </row>
-    <row r="62" spans="2:15" hidden="1">
-      <c r="B62" s="12">
+    <row r="63" spans="2:15" hidden="1">
+      <c r="B63" s="12">
         <v>2020</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C63" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D62" s="14">
+      <c r="D63" s="14">
         <f t="shared" si="3"/>
         <v>19260.244039999998</v>
       </c>
-      <c r="E62" s="15">
+      <c r="E63" s="15">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F62" s="15">
+      <c r="F63" s="15">
         <v>18.687000000000001</v>
       </c>
-      <c r="G62" s="15">
+      <c r="G63" s="15">
         <v>2326.4090000000001</v>
       </c>
-      <c r="H62" s="15">
+      <c r="H63" s="15">
         <v>969.73</v>
       </c>
-      <c r="I62" s="15">
+      <c r="I63" s="15">
         <v>5828.2169999999996</v>
       </c>
-      <c r="J62" s="15">
+      <c r="J63" s="15">
         <v>2394.4169999999999</v>
       </c>
-      <c r="K62" s="15">
+      <c r="K63" s="15">
         <v>76.744</v>
       </c>
-      <c r="L62" s="15">
+      <c r="L63" s="15">
         <v>6273.5619999999999</v>
       </c>
-      <c r="M62" s="15"/>
-      <c r="N62" s="15">
+      <c r="M63" s="15"/>
+      <c r="N63" s="15">
         <v>151.30000000000001</v>
       </c>
-      <c r="O62" s="15">
+      <c r="O63" s="15">
         <v>1221.17004</v>
       </c>
     </row>
-    <row r="63" spans="2:15" hidden="1">
-      <c r="B63" s="16">
+    <row r="64" spans="2:15" hidden="1">
+      <c r="B64" s="16">
         <v>2020</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C64" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="18">
+      <c r="D64" s="18">
         <f t="shared" si="3"/>
         <v>16681.950259999998</v>
       </c>
-      <c r="E63" s="19">
+      <c r="E64" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F63" s="19">
+      <c r="F64" s="19">
         <v>15.773</v>
       </c>
-      <c r="G63" s="19">
+      <c r="G64" s="19">
         <v>1336.4849999999999</v>
       </c>
-      <c r="H63" s="19">
+      <c r="H64" s="19">
         <v>585.92899999999997</v>
       </c>
-      <c r="I63" s="19">
+      <c r="I64" s="19">
         <v>5587.4769999999999</v>
       </c>
-      <c r="J63" s="19">
+      <c r="J64" s="19">
         <v>2256.6930000000002</v>
       </c>
-      <c r="K63" s="19">
+      <c r="K64" s="19">
         <v>42.146999999999998</v>
       </c>
-      <c r="L63" s="19">
+      <c r="L64" s="19">
         <v>5744.8710000000001</v>
       </c>
-      <c r="M63" s="19"/>
-      <c r="N63" s="19">
+      <c r="M64" s="19"/>
+      <c r="N64" s="19">
         <v>118.29600000000001</v>
       </c>
-      <c r="O63" s="19">
+      <c r="O64" s="19">
         <v>994.26826000000005</v>
       </c>
     </row>
-    <row r="64" spans="2:15" hidden="1">
-      <c r="B64" s="12">
+    <row r="65" spans="2:15" hidden="1">
+      <c r="B65" s="12">
         <v>2020</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C65" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D64" s="14">
+      <c r="D65" s="14">
         <f t="shared" si="3"/>
         <v>15536.86291</v>
       </c>
-      <c r="E64" s="15">
+      <c r="E65" s="15">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F64" s="15">
+      <c r="F65" s="15">
         <v>9.4559999999999995</v>
       </c>
-      <c r="G64" s="15">
+      <c r="G65" s="15">
         <v>799.72500000000002</v>
       </c>
-      <c r="H64" s="15">
+      <c r="H65" s="15">
         <v>697.28700000000003</v>
       </c>
-      <c r="I64" s="15">
+      <c r="I65" s="15">
         <v>5542.4840000000004</v>
       </c>
-      <c r="J64" s="15">
+      <c r="J65" s="15">
         <v>2132.3310000000001</v>
       </c>
-      <c r="K64" s="15">
+      <c r="K65" s="15">
         <v>69.804000000000002</v>
       </c>
-      <c r="L64" s="15">
+      <c r="L65" s="15">
         <v>5558.576</v>
       </c>
-      <c r="M64" s="15"/>
-      <c r="N64" s="15">
+      <c r="M65" s="15"/>
+      <c r="N65" s="15">
         <v>143.20510000000002</v>
       </c>
-      <c r="O64" s="15">
+      <c r="O65" s="15">
         <v>583.9918100000001</v>
       </c>
     </row>
-    <row r="65" spans="2:15" hidden="1">
-      <c r="B65" s="16">
+    <row r="66" spans="2:15" hidden="1">
+      <c r="B66" s="16">
         <v>2020</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="C66" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D65" s="18">
+      <c r="D66" s="18">
         <f t="shared" si="3"/>
         <v>13161.648870000003</v>
       </c>
-      <c r="E65" s="19">
+      <c r="E66" s="19">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F65" s="19">
+      <c r="F66" s="19">
         <v>7.4619999999999997</v>
       </c>
-      <c r="G65" s="19">
+      <c r="G66" s="19">
         <v>1038.125</v>
       </c>
-      <c r="H65" s="19">
+      <c r="H66" s="19">
         <v>754.48400000000004</v>
       </c>
-      <c r="I65" s="19">
+      <c r="I66" s="19">
         <v>5034.1760000000004</v>
       </c>
-      <c r="J65" s="19">
+      <c r="J66" s="19">
         <v>1894.93</v>
       </c>
-      <c r="K65" s="19">
+      <c r="K66" s="19">
         <v>59.36</v>
       </c>
-      <c r="L65" s="19">
+      <c r="L66" s="19">
         <v>3753.6880000000001</v>
       </c>
-      <c r="M65" s="19"/>
-      <c r="N65" s="19">
+      <c r="M66" s="19"/>
+      <c r="N66" s="19">
         <v>60.6843</v>
       </c>
-      <c r="O65" s="19">
+      <c r="O66" s="19">
         <v>558.7325699999999</v>
       </c>
     </row>
-    <row r="66" spans="2:15" hidden="1">
-      <c r="B66" s="12">
+    <row r="67" spans="2:15" hidden="1">
+      <c r="B67" s="12">
         <v>2020</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C67" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D66" s="14">
+      <c r="D67" s="14">
         <f t="shared" si="3"/>
         <v>22714.14399</v>
       </c>
-      <c r="E66" s="15">
+      <c r="E67" s="15">
         <v>3.1E-2</v>
       </c>
-      <c r="F66" s="15">
+      <c r="F67" s="15">
         <v>35.988999999999997</v>
       </c>
-      <c r="G66" s="15">
+      <c r="G67" s="15">
         <v>7356.9930000000004</v>
       </c>
-      <c r="H66" s="15">
+      <c r="H67" s="15">
         <v>1318.52</v>
       </c>
-      <c r="I66" s="15">
+      <c r="I67" s="15">
         <v>4797.09</v>
       </c>
-      <c r="J66" s="15">
+      <c r="J67" s="15">
         <v>1722.712</v>
       </c>
-      <c r="K66" s="15">
+      <c r="K67" s="15">
         <v>1659.4059999999999</v>
       </c>
-      <c r="L66" s="15">
+      <c r="L67" s="15">
         <v>4510.4480000000003</v>
       </c>
-      <c r="M66" s="15"/>
-      <c r="N66" s="15">
+      <c r="M67" s="15"/>
+      <c r="N67" s="15">
         <v>102.3022</v>
       </c>
-      <c r="O66" s="15">
+      <c r="O67" s="15">
         <v>1210.6527900000001</v>
       </c>
     </row>
-    <row r="67" spans="2:15" hidden="1">
-      <c r="B67" s="16">
+    <row r="68" spans="2:15" hidden="1">
+      <c r="B68" s="16">
         <v>2020</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="C68" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D67" s="18">
+      <c r="D68" s="18">
         <f t="shared" si="3"/>
         <v>23622.028510000007</v>
       </c>
-      <c r="E67" s="19">
+      <c r="E68" s="19">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F67" s="19">
+      <c r="F68" s="19">
         <v>56.369</v>
       </c>
-      <c r="G67" s="19">
+      <c r="G68" s="19">
         <v>9237.1190000000006</v>
       </c>
-      <c r="H67" s="19">
+      <c r="H68" s="19">
         <v>1428.3530000000001</v>
       </c>
-      <c r="I67" s="19">
+      <c r="I68" s="19">
         <v>3273.0720000000001</v>
       </c>
-      <c r="J67" s="19">
+      <c r="J68" s="19">
         <v>1520.239</v>
       </c>
-      <c r="K67" s="19">
+      <c r="K68" s="19">
         <v>2283.7510000000002</v>
       </c>
-      <c r="L67" s="19">
+      <c r="L68" s="19">
         <v>4116.8599999999997</v>
       </c>
-      <c r="M67" s="19"/>
-      <c r="N67" s="19">
+      <c r="M68" s="19"/>
+      <c r="N68" s="19">
         <v>132.3349</v>
       </c>
-      <c r="O67" s="19">
+      <c r="O68" s="19">
         <v>1573.90461</v>
       </c>
     </row>
-    <row r="68" spans="2:15" hidden="1">
-      <c r="B68" s="20">
+    <row r="69" spans="2:15" hidden="1">
+      <c r="B69" s="20">
         <v>2020</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C69" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D68" s="22">
+      <c r="D69" s="22">
         <f t="shared" si="3"/>
         <v>26687.883509999996</v>
       </c>
-      <c r="E68" s="23">
+      <c r="E69" s="23">
         <v>4.7E-2</v>
       </c>
-      <c r="F68" s="23">
+      <c r="F69" s="23">
         <v>53.219000000000001</v>
       </c>
-      <c r="G68" s="23">
+      <c r="G69" s="23">
         <v>8754.5229999999992</v>
       </c>
-      <c r="H68" s="23">
+      <c r="H69" s="23">
         <v>1369.674</v>
       </c>
-      <c r="I68" s="23">
+      <c r="I69" s="23">
         <v>5338.8549999999996</v>
       </c>
-      <c r="J68" s="23">
+      <c r="J69" s="23">
         <v>1679.8140000000001</v>
       </c>
-      <c r="K68" s="23">
+      <c r="K69" s="23">
         <v>2456.4389999999999</v>
       </c>
-      <c r="L68" s="23">
+      <c r="L69" s="23">
         <v>5287.6</v>
       </c>
-      <c r="M68" s="23"/>
-      <c r="N68" s="23">
+      <c r="M69" s="23"/>
+      <c r="N69" s="23">
         <v>71.972800000000007</v>
       </c>
-      <c r="O68" s="23">
+      <c r="O69" s="23">
         <v>1675.7397100000001</v>
       </c>
     </row>
-    <row r="69" spans="2:15" hidden="1">
-      <c r="B69" s="24">
+    <row r="70" spans="2:15" hidden="1">
+      <c r="B70" s="24">
         <v>2019</v>
       </c>
-      <c r="C69" s="25" t="s">
+      <c r="C70" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D69" s="26">
+      <c r="D70" s="26">
         <f t="shared" si="3"/>
         <v>31427.187729999998</v>
       </c>
-      <c r="E69" s="27">
+      <c r="E70" s="27">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="F69" s="27">
+      <c r="F70" s="27">
         <v>86.153999999999996</v>
       </c>
-      <c r="G69" s="27">
+      <c r="G70" s="27">
         <v>9577.1149999999998</v>
       </c>
-      <c r="H69" s="27">
+      <c r="H70" s="27">
         <v>1676.4159999999999</v>
       </c>
-      <c r="I69" s="27">
+      <c r="I70" s="27">
         <v>6029.0749999999998</v>
       </c>
-      <c r="J69" s="27">
+      <c r="J70" s="27">
         <v>2445.3470000000002</v>
       </c>
-      <c r="K69" s="27">
+      <c r="K70" s="27">
         <v>2928.4569999999999</v>
       </c>
-      <c r="L69" s="27">
+      <c r="L70" s="27">
         <v>5030.2939999999999</v>
       </c>
-      <c r="M69" s="27"/>
-      <c r="N69" s="27">
+      <c r="M70" s="27"/>
+      <c r="N70" s="27">
         <v>65.746300000000005</v>
       </c>
-      <c r="O69" s="27">
+      <c r="O70" s="27">
         <v>3588.5074299999997</v>
       </c>
     </row>
-    <row r="70" spans="2:15" hidden="1">
-      <c r="B70" s="12">
+    <row r="71" spans="2:15" hidden="1">
+      <c r="B71" s="12">
         <v>2019</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C71" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D70" s="14">
+      <c r="D71" s="14">
         <f t="shared" si="3"/>
         <v>31763.522410000001</v>
       </c>
-      <c r="E70" s="15">
+      <c r="E71" s="15">
         <v>1.76</v>
       </c>
-      <c r="F70" s="15">
+      <c r="F71" s="15">
         <v>80.100999999999999</v>
       </c>
-      <c r="G70" s="15">
+      <c r="G71" s="15">
         <v>9752.0519999999997</v>
       </c>
-      <c r="H70" s="15">
+      <c r="H71" s="15">
         <v>1595.383</v>
       </c>
-      <c r="I70" s="15">
+      <c r="I71" s="15">
         <v>5103.0559999999996</v>
       </c>
-      <c r="J70" s="15">
+      <c r="J71" s="15">
         <v>2658.252</v>
       </c>
-      <c r="K70" s="15">
+      <c r="K71" s="15">
         <v>3015.0219999999999</v>
       </c>
-      <c r="L70" s="15">
+      <c r="L71" s="15">
         <v>5793.69</v>
       </c>
-      <c r="M70" s="15"/>
-      <c r="N70" s="15">
+      <c r="M71" s="15"/>
+      <c r="N71" s="15">
         <v>12.758299999999998</v>
       </c>
-      <c r="O70" s="15">
+      <c r="O71" s="15">
         <v>3751.4481100000003</v>
       </c>
     </row>
-    <row r="71" spans="2:15" hidden="1">
-      <c r="B71" s="16">
+    <row r="72" spans="2:15" hidden="1">
+      <c r="B72" s="16">
         <v>2019</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="C72" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D71" s="18">
+      <c r="D72" s="18">
         <f t="shared" si="3"/>
         <v>31229.518959999994</v>
       </c>
-      <c r="E71" s="19">
+      <c r="E72" s="19">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="F71" s="19">
+      <c r="F72" s="19">
         <v>72</v>
       </c>
-      <c r="G71" s="19">
+      <c r="G72" s="19">
         <v>9994.6419999999998</v>
       </c>
-      <c r="H71" s="19">
+      <c r="H72" s="19">
         <v>1608.7059999999999</v>
       </c>
-      <c r="I71" s="19">
+      <c r="I72" s="19">
         <v>4575.3310000000001</v>
       </c>
-      <c r="J71" s="19">
+      <c r="J72" s="19">
         <v>2828.3510000000001</v>
       </c>
-      <c r="K71" s="19">
+      <c r="K72" s="19">
         <v>2682.761</v>
       </c>
-      <c r="L71" s="19">
+      <c r="L72" s="19">
         <v>5549.9949999999999</v>
       </c>
-      <c r="M71" s="19"/>
-      <c r="N71" s="19"/>
-      <c r="O71" s="19">
+      <c r="M72" s="19"/>
+      <c r="N72" s="19"/>
+      <c r="O72" s="19">
         <v>3917.6479599999998</v>
       </c>
     </row>
-    <row r="72" spans="2:15" hidden="1">
-      <c r="B72" s="12">
+    <row r="73" spans="2:15" hidden="1">
+      <c r="B73" s="12">
         <v>2019</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C73" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D72" s="14">
+      <c r="D73" s="14">
         <f t="shared" si="3"/>
         <v>29172.540249999998</v>
       </c>
-      <c r="E72" s="15">
+      <c r="E73" s="15">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F72" s="15">
+      <c r="F73" s="15">
         <v>54.752000000000002</v>
       </c>
-      <c r="G72" s="15">
+      <c r="G73" s="15">
         <v>9010.31</v>
       </c>
-      <c r="H72" s="15">
+      <c r="H73" s="15">
         <v>1396.2560000000001</v>
       </c>
-      <c r="I72" s="15">
+      <c r="I73" s="15">
         <v>5775.3389999999999</v>
       </c>
-      <c r="J72" s="15">
+      <c r="J73" s="15">
         <v>2331.1950000000002</v>
       </c>
-      <c r="K72" s="15">
+      <c r="K73" s="15">
         <v>2334.8119999999999</v>
       </c>
-      <c r="L72" s="15">
+      <c r="L73" s="15">
         <v>4893.7089999999998</v>
       </c>
-      <c r="M72" s="15"/>
-      <c r="N72" s="15"/>
-      <c r="O72" s="15">
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="15">
         <v>3376.1322500000001</v>
       </c>
     </row>
-    <row r="73" spans="2:15" hidden="1">
-      <c r="B73" s="16">
+    <row r="74" spans="2:15" hidden="1">
+      <c r="B74" s="16">
         <v>2019</v>
       </c>
-      <c r="C73" s="17" t="s">
+      <c r="C74" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D73" s="18">
+      <c r="D74" s="18">
         <f t="shared" si="3"/>
         <v>28718.377859999997</v>
       </c>
-      <c r="E73" s="19">
+      <c r="E74" s="19">
         <v>5.59633</v>
       </c>
-      <c r="F73" s="19">
+      <c r="F74" s="19">
         <v>57.29</v>
       </c>
-      <c r="G73" s="19">
+      <c r="G74" s="19">
         <v>8610.5910000000003</v>
       </c>
-      <c r="H73" s="19">
+      <c r="H74" s="19">
         <v>1665.9570000000001</v>
       </c>
-      <c r="I73" s="19">
+      <c r="I74" s="19">
         <v>5196.0309999999999</v>
       </c>
-      <c r="J73" s="19">
+      <c r="J74" s="19">
         <v>2672.4050000000002</v>
       </c>
-      <c r="K73" s="19">
+      <c r="K74" s="19">
         <v>2511.7330000000002</v>
       </c>
-      <c r="L73" s="19">
+      <c r="L74" s="19">
         <v>4774.3459999999995</v>
       </c>
-      <c r="M73" s="19"/>
-      <c r="N73" s="19"/>
-      <c r="O73" s="19">
+      <c r="M74" s="19"/>
+      <c r="N74" s="19"/>
+      <c r="O74" s="19">
         <v>3224.4285300000001</v>
       </c>
     </row>
-    <row r="74" spans="2:15" hidden="1">
-      <c r="B74" s="12">
+    <row r="75" spans="2:15" hidden="1">
+      <c r="B75" s="12">
         <v>2019</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C75" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D74" s="14">
+      <c r="D75" s="14">
         <f t="shared" si="3"/>
         <v>28707.78629</v>
       </c>
-      <c r="E74" s="15">
+      <c r="E75" s="15">
         <v>6.0529999999999999</v>
       </c>
-      <c r="F74" s="15">
+      <c r="F75" s="15">
         <v>57.801000000000002</v>
       </c>
-      <c r="G74" s="15">
+      <c r="G75" s="15">
         <v>8986.9670000000006</v>
       </c>
-      <c r="H74" s="15">
+      <c r="H75" s="15">
         <v>1788.191</v>
       </c>
-      <c r="I74" s="15">
+      <c r="I75" s="15">
         <v>5135.1639999999998</v>
       </c>
-      <c r="J74" s="15">
+      <c r="J75" s="15">
         <v>2578.5520000000001</v>
       </c>
-      <c r="K74" s="15">
+      <c r="K75" s="15">
         <v>2341.8049999999998</v>
       </c>
-      <c r="L74" s="15">
+      <c r="L75" s="15">
         <v>4798.0159999999996</v>
       </c>
-      <c r="M74" s="15"/>
-      <c r="N74" s="15"/>
-      <c r="O74" s="15">
+      <c r="M75" s="15"/>
+      <c r="N75" s="15"/>
+      <c r="O75" s="15">
         <v>3015.23729</v>
       </c>
     </row>
-    <row r="75" spans="2:15" hidden="1">
-      <c r="B75" s="16">
+    <row r="76" spans="2:15" hidden="1">
+      <c r="B76" s="16">
         <v>2019</v>
       </c>
-      <c r="C75" s="17" t="s">
+      <c r="C76" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D75" s="18">
+      <c r="D76" s="18">
         <f t="shared" si="3"/>
         <v>27292.410609999999</v>
       </c>
-      <c r="E75" s="19">
+      <c r="E76" s="19">
         <v>5.46</v>
       </c>
-      <c r="F75" s="19">
+      <c r="F76" s="19">
         <v>55.997999999999998</v>
       </c>
-      <c r="G75" s="19">
+      <c r="G76" s="19">
         <v>8069.7749999999996</v>
       </c>
-      <c r="H75" s="19">
+      <c r="H76" s="19">
         <v>1587.973</v>
       </c>
-      <c r="I75" s="19">
+      <c r="I76" s="19">
         <v>5215.268</v>
       </c>
-      <c r="J75" s="19">
+      <c r="J76" s="19">
         <v>2428.5169999999998</v>
       </c>
-      <c r="K75" s="19">
+      <c r="K76" s="19">
         <v>2360.0700000000002</v>
       </c>
-      <c r="L75" s="19">
+      <c r="L76" s="19">
         <v>4450.9750000000004</v>
       </c>
-      <c r="M75" s="19"/>
-      <c r="N75" s="19"/>
-      <c r="O75" s="19">
+      <c r="M76" s="19"/>
+      <c r="N76" s="19"/>
+      <c r="O76" s="19">
         <v>3118.3746100000003</v>
       </c>
     </row>
-    <row r="76" spans="2:15" hidden="1">
-      <c r="B76" s="12">
+    <row r="77" spans="2:15" hidden="1">
+      <c r="B77" s="12">
         <v>2019</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C77" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D76" s="14">
+      <c r="D77" s="14">
         <f t="shared" si="3"/>
         <v>29113.054540000001</v>
       </c>
-      <c r="E76" s="15">
+      <c r="E77" s="15">
         <v>6.2110000000000003</v>
       </c>
-      <c r="F76" s="15">
+      <c r="F77" s="15">
         <v>67.53</v>
       </c>
-      <c r="G76" s="15">
+      <c r="G77" s="15">
         <v>8472.9789999999994</v>
       </c>
-      <c r="H76" s="15">
+      <c r="H77" s="15">
         <v>1708.221</v>
       </c>
-      <c r="I76" s="15">
+      <c r="I77" s="15">
         <v>5081.5749999999998</v>
       </c>
-      <c r="J76" s="15">
+      <c r="J77" s="15">
         <v>2646.9789999999998</v>
       </c>
-      <c r="K76" s="15">
+      <c r="K77" s="15">
         <v>2406.2260000000001</v>
       </c>
-      <c r="L76" s="15">
+      <c r="L77" s="15">
         <v>5332.5439999999999</v>
       </c>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="15">
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15">
         <v>3390.7895400000002</v>
       </c>
     </row>
-    <row r="77" spans="2:15" hidden="1">
-      <c r="B77" s="16">
+    <row r="78" spans="2:15" hidden="1">
+      <c r="B78" s="16">
         <v>2019</v>
       </c>
-      <c r="C77" s="17" t="s">
+      <c r="C78" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D77" s="18">
+      <c r="D78" s="18">
         <f t="shared" si="3"/>
         <v>31250.364179999997</v>
       </c>
-      <c r="E77" s="19">
+      <c r="E78" s="19">
         <v>7.8460000000000001</v>
       </c>
-      <c r="F77" s="19">
+      <c r="F78" s="19">
         <v>56.534999999999997</v>
       </c>
-      <c r="G77" s="19">
+      <c r="G78" s="19">
         <v>8624.3449999999993</v>
       </c>
-      <c r="H77" s="19">
+      <c r="H78" s="19">
         <v>1621.0229999999999</v>
       </c>
-      <c r="I77" s="19">
+      <c r="I78" s="19">
         <v>8671.3349999999991</v>
       </c>
-      <c r="J77" s="19">
+      <c r="J78" s="19">
         <v>2304.8890000000001</v>
       </c>
-      <c r="K77" s="19">
+      <c r="K78" s="19">
         <v>2447.4609999999998</v>
       </c>
-      <c r="L77" s="19">
+      <c r="L78" s="19">
         <v>4465.5820000000003</v>
       </c>
-      <c r="M77" s="19"/>
-      <c r="N77" s="19"/>
-      <c r="O77" s="19">
+      <c r="M78" s="19"/>
+      <c r="N78" s="19"/>
+      <c r="O78" s="19">
         <v>3051.34818</v>
       </c>
     </row>
-    <row r="78" spans="2:15" hidden="1">
-      <c r="B78" s="12">
+    <row r="79" spans="2:15" hidden="1">
+      <c r="B79" s="12">
         <v>2019</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C79" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D78" s="14">
+      <c r="D79" s="14">
         <f t="shared" si="3"/>
         <v>31365.490560000002</v>
       </c>
-      <c r="E78" s="15">
+      <c r="E79" s="15">
         <v>5.36</v>
       </c>
-      <c r="F78" s="15">
+      <c r="F79" s="15">
         <v>59.417999999999999</v>
       </c>
-      <c r="G78" s="15">
+      <c r="G79" s="15">
         <v>9153.4</v>
       </c>
-      <c r="H78" s="15">
+      <c r="H79" s="15">
         <v>1573.4939999999999</v>
       </c>
-      <c r="I78" s="15">
+      <c r="I79" s="15">
         <v>7744.9759999999997</v>
       </c>
-      <c r="J78" s="15">
+      <c r="J79" s="15">
         <v>2483.4180000000001</v>
       </c>
-      <c r="K78" s="15">
+      <c r="K79" s="15">
         <v>2376.971</v>
       </c>
-      <c r="L78" s="15">
+      <c r="L79" s="15">
         <v>4955.9579999999996</v>
       </c>
-      <c r="M78" s="15"/>
-      <c r="N78" s="15"/>
-      <c r="O78" s="15">
+      <c r="M79" s="15"/>
+      <c r="N79" s="15"/>
+      <c r="O79" s="15">
         <v>3012.4955599999998</v>
       </c>
     </row>
-    <row r="79" spans="2:15" hidden="1">
-      <c r="B79" s="16">
+    <row r="80" spans="2:15" hidden="1">
+      <c r="B80" s="16">
         <v>2019</v>
       </c>
-      <c r="C79" s="17" t="s">
+      <c r="C80" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D79" s="18">
+      <c r="D80" s="18">
         <f t="shared" si="3"/>
         <v>27676.571899999999</v>
       </c>
-      <c r="E79" s="19">
+      <c r="E80" s="19">
         <v>5.3540000000000001</v>
       </c>
-      <c r="F79" s="19">
+      <c r="F80" s="19">
         <v>60.44</v>
       </c>
-      <c r="G79" s="19">
+      <c r="G80" s="19">
         <v>8240.6730000000007</v>
       </c>
-      <c r="H79" s="19">
+      <c r="H80" s="19">
         <v>1223.51</v>
       </c>
-      <c r="I79" s="19">
+      <c r="I80" s="19">
         <v>6582.1109999999999</v>
       </c>
-      <c r="J79" s="19">
+      <c r="J80" s="19">
         <v>2315.9119999999998</v>
       </c>
-      <c r="K79" s="19">
+      <c r="K80" s="19">
         <v>2451.8209999999999</v>
       </c>
-      <c r="L79" s="19">
+      <c r="L80" s="19">
         <v>3688.9839999999999</v>
       </c>
-      <c r="M79" s="19"/>
-      <c r="N79" s="19"/>
-      <c r="O79" s="19">
+      <c r="M80" s="19"/>
+      <c r="N80" s="19"/>
+      <c r="O80" s="19">
         <v>3107.7669000000001</v>
       </c>
     </row>
-    <row r="80" spans="2:15" hidden="1">
-      <c r="B80" s="20">
+    <row r="81" spans="2:15" hidden="1">
+      <c r="B81" s="20">
         <v>2019</v>
       </c>
-      <c r="C80" s="21" t="s">
+      <c r="C81" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D80" s="22">
-        <f t="shared" ref="D80:D92" si="4">SUM(E80:O80)</f>
+      <c r="D81" s="22">
+        <f t="shared" ref="D81:D93" si="4">SUM(E81:O81)</f>
         <v>31729.582690000007</v>
       </c>
-      <c r="E80" s="23">
+      <c r="E81" s="23">
         <v>6.7610000000000001</v>
       </c>
-      <c r="F80" s="23">
+      <c r="F81" s="23">
         <v>74.009</v>
       </c>
-      <c r="G80" s="23">
+      <c r="G81" s="23">
         <v>7747.527</v>
       </c>
-      <c r="H80" s="23">
+      <c r="H81" s="23">
         <v>1196.4000000000001</v>
       </c>
-      <c r="I80" s="23">
+      <c r="I81" s="23">
         <v>8376.51</v>
       </c>
-      <c r="J80" s="23">
+      <c r="J81" s="23">
         <v>2613.239</v>
       </c>
-      <c r="K80" s="23">
+      <c r="K81" s="23">
         <v>4476.8249999999998</v>
       </c>
-      <c r="L80" s="23">
+      <c r="L81" s="23">
         <v>3965.1860000000001</v>
       </c>
-      <c r="M80" s="23"/>
-      <c r="N80" s="23"/>
-      <c r="O80" s="23">
+      <c r="M81" s="23"/>
+      <c r="N81" s="23"/>
+      <c r="O81" s="23">
         <v>3273.1256899999998</v>
       </c>
     </row>
-    <row r="81" spans="2:15" hidden="1">
-      <c r="B81" s="17">
+    <row r="82" spans="2:15" hidden="1">
+      <c r="B82" s="17">
         <v>2018</v>
       </c>
-      <c r="C81" s="17" t="s">
+      <c r="C82" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="18">
+      <c r="D82" s="18">
         <f t="shared" si="4"/>
         <v>27825.537</v>
       </c>
-      <c r="E81" s="19">
+      <c r="E82" s="19">
         <v>11.624000000000001</v>
       </c>
-      <c r="F81" s="19">
+      <c r="F82" s="19">
         <v>93.391999999999996</v>
       </c>
-      <c r="G81" s="19">
+      <c r="G82" s="19">
         <v>8828.0380000000005</v>
       </c>
-      <c r="H81" s="19">
+      <c r="H82" s="19">
         <v>1419.221</v>
       </c>
-      <c r="I81" s="19">
+      <c r="I82" s="19">
         <v>8160.1949999999997</v>
       </c>
-      <c r="J81" s="19">
+      <c r="J82" s="19">
         <v>2550.1379999999999</v>
       </c>
-      <c r="K81" s="19">
+      <c r="K82" s="19">
         <v>2539.4380000000001</v>
       </c>
-      <c r="L81" s="19">
+      <c r="L82" s="19">
         <v>4208.37</v>
       </c>
-      <c r="M81" s="19"/>
-      <c r="N81" s="19"/>
-      <c r="O81" s="19">
+      <c r="M82" s="19"/>
+      <c r="N82" s="19"/>
+      <c r="O82" s="19">
         <v>15.121</v>
       </c>
     </row>
-    <row r="82" spans="2:15" hidden="1">
-      <c r="B82" s="13">
+    <row r="83" spans="2:15" hidden="1">
+      <c r="B83" s="13">
         <v>2018</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C83" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D82" s="14">
+      <c r="D83" s="14">
         <f t="shared" si="4"/>
         <v>30438.187000000005</v>
       </c>
-      <c r="E82" s="15">
+      <c r="E83" s="15">
         <v>9.8219999999999992</v>
       </c>
-      <c r="F82" s="15">
+      <c r="F83" s="15">
         <v>90.676000000000002</v>
       </c>
-      <c r="G82" s="15">
+      <c r="G83" s="15">
         <v>9033.7459999999992</v>
       </c>
-      <c r="H82" s="15">
+      <c r="H83" s="15">
         <v>1677.8789999999999</v>
       </c>
-      <c r="I82" s="15">
+      <c r="I83" s="15">
         <v>9087.1730000000007</v>
       </c>
-      <c r="J82" s="15">
+      <c r="J83" s="15">
         <v>2973.703</v>
       </c>
-      <c r="K82" s="15">
+      <c r="K83" s="15">
         <v>2449.9479999999999</v>
       </c>
-      <c r="L82" s="15">
+      <c r="L83" s="15">
         <v>5104.8959999999997</v>
       </c>
-      <c r="M82" s="15"/>
-      <c r="N82" s="15"/>
-      <c r="O82" s="15">
+      <c r="M83" s="15"/>
+      <c r="N83" s="15"/>
+      <c r="O83" s="15">
         <v>10.343999999999999</v>
       </c>
     </row>
-    <row r="83" spans="2:15" hidden="1">
-      <c r="B83" s="17">
+    <row r="84" spans="2:15" hidden="1">
+      <c r="B84" s="17">
         <v>2018</v>
       </c>
-      <c r="C83" s="17" t="s">
+      <c r="C84" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D83" s="18">
+      <c r="D84" s="18">
         <f t="shared" si="4"/>
         <v>30428.691999999999</v>
       </c>
-      <c r="E83" s="19">
+      <c r="E84" s="19">
         <v>8.2870000000000008</v>
       </c>
-      <c r="F83" s="19">
+      <c r="F84" s="19">
         <v>78.7</v>
       </c>
-      <c r="G83" s="19">
+      <c r="G84" s="19">
         <v>8819.0689999999995</v>
       </c>
-      <c r="H83" s="19">
+      <c r="H84" s="19">
         <v>1516.8230000000001</v>
       </c>
-      <c r="I83" s="19">
+      <c r="I84" s="19">
         <v>9777.8709999999992</v>
       </c>
-      <c r="J83" s="19">
+      <c r="J84" s="19">
         <v>2987.6489999999999</v>
       </c>
-      <c r="K83" s="19">
+      <c r="K84" s="19">
         <v>1751.569</v>
       </c>
-      <c r="L83" s="19">
+      <c r="L84" s="19">
         <v>5477.6930000000002</v>
       </c>
-      <c r="M83" s="19"/>
-      <c r="N83" s="19"/>
-      <c r="O83" s="19">
+      <c r="M84" s="19"/>
+      <c r="N84" s="19"/>
+      <c r="O84" s="19">
         <v>11.031000000000001</v>
       </c>
     </row>
-    <row r="84" spans="2:15" hidden="1">
-      <c r="B84" s="13">
+    <row r="85" spans="2:15" hidden="1">
+      <c r="B85" s="13">
         <v>2018</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C85" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D84" s="14">
+      <c r="D85" s="14">
         <f t="shared" si="4"/>
         <v>27010.514999999999</v>
       </c>
-      <c r="E84" s="15">
+      <c r="E85" s="15">
         <v>10.707000000000001</v>
       </c>
-      <c r="F84" s="15">
+      <c r="F85" s="15">
         <v>62.167000000000002</v>
       </c>
-      <c r="G84" s="15">
+      <c r="G85" s="15">
         <v>8102.4960000000001</v>
       </c>
-      <c r="H84" s="15">
+      <c r="H85" s="15">
         <v>1416.539</v>
       </c>
-      <c r="I84" s="15">
+      <c r="I85" s="15">
         <v>8463.5859999999993</v>
       </c>
-      <c r="J84" s="15">
+      <c r="J85" s="15">
         <v>2463.84</v>
       </c>
-      <c r="K84" s="15">
+      <c r="K85" s="15">
         <v>1662.82</v>
       </c>
-      <c r="L84" s="15">
+      <c r="L85" s="15">
         <v>4814.68</v>
       </c>
-      <c r="M84" s="15"/>
-      <c r="N84" s="15"/>
-      <c r="O84" s="15">
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
+      <c r="O85" s="15">
         <v>13.68</v>
       </c>
     </row>
-    <row r="85" spans="2:15" hidden="1">
-      <c r="B85" s="17">
+    <row r="86" spans="2:15" hidden="1">
+      <c r="B86" s="17">
         <v>2018</v>
       </c>
-      <c r="C85" s="17" t="s">
+      <c r="C86" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D85" s="18">
+      <c r="D86" s="18">
         <f t="shared" si="4"/>
         <v>27455.597999999998</v>
       </c>
-      <c r="E85" s="19">
+      <c r="E86" s="19">
         <v>10.06</v>
       </c>
-      <c r="F85" s="19">
+      <c r="F86" s="19">
         <v>67.233999999999995</v>
       </c>
-      <c r="G85" s="19">
+      <c r="G86" s="19">
         <v>8035.7269999999999</v>
       </c>
-      <c r="H85" s="19">
+      <c r="H86" s="19">
         <v>1692.001</v>
       </c>
-      <c r="I85" s="19">
+      <c r="I86" s="19">
         <v>8464.9650000000001</v>
       </c>
-      <c r="J85" s="19">
+      <c r="J86" s="19">
         <v>2758.96</v>
       </c>
-      <c r="K85" s="19">
+      <c r="K86" s="19">
         <v>1732.587</v>
       </c>
-      <c r="L85" s="19">
+      <c r="L86" s="19">
         <v>4679.0959999999995</v>
       </c>
-      <c r="M85" s="19"/>
-      <c r="N85" s="19"/>
-      <c r="O85" s="19">
+      <c r="M86" s="19"/>
+      <c r="N86" s="19"/>
+      <c r="O86" s="19">
         <v>14.968</v>
       </c>
     </row>
-    <row r="86" spans="2:15" hidden="1">
-      <c r="B86" s="13">
+    <row r="87" spans="2:15" hidden="1">
+      <c r="B87" s="13">
         <v>2018</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C87" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D86" s="14">
+      <c r="D87" s="14">
         <f t="shared" si="4"/>
         <v>27442.177</v>
       </c>
-      <c r="E86" s="15">
+      <c r="E87" s="15">
         <v>10.051</v>
       </c>
-      <c r="F86" s="15">
+      <c r="F87" s="15">
         <v>63.811</v>
       </c>
-      <c r="G86" s="15">
+      <c r="G87" s="15">
         <v>7722.7290000000003</v>
       </c>
-      <c r="H86" s="15">
+      <c r="H87" s="15">
         <v>1496.4</v>
       </c>
-      <c r="I86" s="15">
+      <c r="I87" s="15">
         <v>8747.1980000000003</v>
       </c>
-      <c r="J86" s="15">
+      <c r="J87" s="15">
         <v>2551.65</v>
       </c>
-      <c r="K86" s="15">
+      <c r="K87" s="15">
         <v>1697.7090000000001</v>
       </c>
-      <c r="L86" s="15">
+      <c r="L87" s="15">
         <v>5136.6130000000003</v>
       </c>
-      <c r="M86" s="15"/>
-      <c r="N86" s="15"/>
-      <c r="O86" s="15">
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
+      <c r="O87" s="15">
         <v>16.015999999999998</v>
       </c>
     </row>
-    <row r="87" spans="2:15" hidden="1">
-      <c r="B87" s="17">
+    <row r="88" spans="2:15" hidden="1">
+      <c r="B88" s="17">
         <v>2018</v>
       </c>
-      <c r="C87" s="17" t="s">
+      <c r="C88" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D87" s="18">
+      <c r="D88" s="18">
         <f t="shared" si="4"/>
         <v>27934.611100000002</v>
       </c>
-      <c r="E87" s="19">
+      <c r="E88" s="19">
         <v>5.8701000000000008</v>
       </c>
-      <c r="F87" s="19">
+      <c r="F88" s="19">
         <v>68.567999999999998</v>
       </c>
-      <c r="G87" s="19">
+      <c r="G88" s="19">
         <v>7714.4070000000002</v>
       </c>
-      <c r="H87" s="19">
+      <c r="H88" s="19">
         <v>1561.0450000000001</v>
       </c>
-      <c r="I87" s="19">
+      <c r="I88" s="19">
         <v>8940.5429999999997</v>
       </c>
-      <c r="J87" s="19">
+      <c r="J88" s="19">
         <v>2632.7139999999999</v>
       </c>
-      <c r="K87" s="19">
+      <c r="K88" s="19">
         <v>1889.998</v>
       </c>
-      <c r="L87" s="19">
+      <c r="L88" s="19">
         <v>5110.2619999999997</v>
       </c>
-      <c r="M87" s="19"/>
-      <c r="N87" s="19"/>
-      <c r="O87" s="19">
+      <c r="M88" s="19"/>
+      <c r="N88" s="19"/>
+      <c r="O88" s="19">
         <v>11.204000000000001</v>
       </c>
     </row>
-    <row r="88" spans="2:15" hidden="1">
-      <c r="B88" s="13">
+    <row r="89" spans="2:15" hidden="1">
+      <c r="B89" s="13">
         <v>2018</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C89" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D88" s="14">
+      <c r="D89" s="14">
         <f t="shared" si="4"/>
         <v>28918.192660000001</v>
       </c>
-      <c r="E88" s="15">
+      <c r="E89" s="15">
         <v>7.8816600000000001</v>
       </c>
-      <c r="F88" s="15">
+      <c r="F89" s="15">
         <v>82.861999999999995</v>
       </c>
-      <c r="G88" s="15">
+      <c r="G89" s="15">
         <v>8118.165</v>
       </c>
-      <c r="H88" s="15">
+      <c r="H89" s="15">
         <v>1532.5719999999999</v>
       </c>
-      <c r="I88" s="15">
+      <c r="I89" s="15">
         <v>8129.585</v>
       </c>
-      <c r="J88" s="15">
+      <c r="J89" s="15">
         <v>2956.08</v>
       </c>
-      <c r="K88" s="15">
+      <c r="K89" s="15">
         <v>1988.6780000000001</v>
       </c>
-      <c r="L88" s="15">
+      <c r="L89" s="15">
         <v>6089.1620000000003</v>
       </c>
-      <c r="M88" s="15"/>
-      <c r="N88" s="15"/>
-      <c r="O88" s="15">
+      <c r="M89" s="15"/>
+      <c r="N89" s="15"/>
+      <c r="O89" s="15">
         <v>13.207000000000001</v>
       </c>
     </row>
-    <row r="89" spans="2:15" hidden="1">
-      <c r="B89" s="17">
+    <row r="90" spans="2:15" hidden="1">
+      <c r="B90" s="17">
         <v>2018</v>
       </c>
-      <c r="C89" s="17" t="s">
+      <c r="C90" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D89" s="18">
+      <c r="D90" s="18">
         <f t="shared" si="4"/>
         <v>29273.39678000001</v>
       </c>
-      <c r="E89" s="19">
+      <c r="E90" s="19">
         <v>9.12378</v>
       </c>
-      <c r="F89" s="19">
+      <c r="F90" s="19">
         <v>60.970999999999997</v>
       </c>
-      <c r="G89" s="19">
+      <c r="G90" s="19">
         <v>7926.723</v>
       </c>
-      <c r="H89" s="19">
+      <c r="H90" s="19">
         <v>1477.489</v>
       </c>
-      <c r="I89" s="19">
+      <c r="I90" s="19">
         <v>9672.3250000000007</v>
       </c>
-      <c r="J89" s="19">
+      <c r="J90" s="19">
         <v>2860.578</v>
       </c>
-      <c r="K89" s="19">
+      <c r="K90" s="19">
         <v>1829.883</v>
       </c>
-      <c r="L89" s="19">
+      <c r="L90" s="19">
         <v>5423.6540000000005</v>
       </c>
-      <c r="M89" s="19"/>
-      <c r="N89" s="19"/>
-      <c r="O89" s="19">
+      <c r="M90" s="19"/>
+      <c r="N90" s="19"/>
+      <c r="O90" s="19">
         <v>12.65</v>
       </c>
     </row>
-    <row r="90" spans="2:15" hidden="1">
-      <c r="B90" s="13">
+    <row r="91" spans="2:15" hidden="1">
+      <c r="B91" s="13">
         <v>2018</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="C91" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D90" s="14">
+      <c r="D91" s="14">
         <f t="shared" si="4"/>
         <v>30126.28328</v>
       </c>
-      <c r="E90" s="15">
+      <c r="E91" s="15">
         <v>8.1962799999999998</v>
       </c>
-      <c r="F90" s="15">
+      <c r="F91" s="15">
         <v>71.811000000000007</v>
       </c>
-      <c r="G90" s="15">
+      <c r="G91" s="15">
         <v>8844.2019999999993</v>
       </c>
-      <c r="H90" s="15">
+      <c r="H91" s="15">
         <v>1647.098</v>
       </c>
-      <c r="I90" s="15">
+      <c r="I91" s="15">
         <v>9860.2800000000007</v>
       </c>
-      <c r="J90" s="15">
+      <c r="J91" s="15">
         <v>2743.1410000000001</v>
       </c>
-      <c r="K90" s="15">
+      <c r="K91" s="15">
         <v>1551.7840000000001</v>
       </c>
-      <c r="L90" s="15">
+      <c r="L91" s="15">
         <v>5387.3890000000001</v>
       </c>
-      <c r="M90" s="15"/>
-      <c r="N90" s="15"/>
-      <c r="O90" s="15">
+      <c r="M91" s="15"/>
+      <c r="N91" s="15"/>
+      <c r="O91" s="15">
         <v>12.382</v>
       </c>
     </row>
-    <row r="91" spans="2:15" hidden="1">
-      <c r="B91" s="17">
+    <row r="92" spans="2:15" hidden="1">
+      <c r="B92" s="17">
         <v>2018</v>
       </c>
-      <c r="C91" s="17" t="s">
+      <c r="C92" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D91" s="18">
+      <c r="D92" s="18">
         <f t="shared" si="4"/>
         <v>25208.202900000004</v>
       </c>
-      <c r="E91" s="19">
+      <c r="E92" s="19">
         <v>6.7148999999999992</v>
       </c>
-      <c r="F91" s="19">
+      <c r="F92" s="19">
         <v>59.457000000000001</v>
       </c>
-      <c r="G91" s="19">
+      <c r="G92" s="19">
         <v>7977.2039999999997</v>
       </c>
-      <c r="H91" s="19">
+      <c r="H92" s="19">
         <v>1378.8910000000001</v>
       </c>
-      <c r="I91" s="19">
+      <c r="I92" s="19">
         <v>7402.5730000000003</v>
       </c>
-      <c r="J91" s="19">
+      <c r="J92" s="19">
         <v>2577</v>
       </c>
-      <c r="K91" s="19">
+      <c r="K92" s="19">
         <v>1364.6120000000001</v>
       </c>
-      <c r="L91" s="19">
+      <c r="L92" s="19">
         <v>4430.4210000000003</v>
       </c>
-      <c r="M91" s="19"/>
-      <c r="N91" s="19"/>
-      <c r="O91" s="19">
+      <c r="M92" s="19"/>
+      <c r="N92" s="19"/>
+      <c r="O92" s="19">
         <v>11.33</v>
       </c>
     </row>
-    <row r="92" spans="2:15" hidden="1">
-      <c r="B92" s="13">
+    <row r="93" spans="2:15" hidden="1">
+      <c r="B93" s="13">
         <v>2018</v>
       </c>
-      <c r="C92" s="13" t="s">
+      <c r="C93" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D92" s="14">
+      <c r="D93" s="14">
         <f t="shared" si="4"/>
         <v>25018.165999999997</v>
       </c>
-      <c r="E92" s="15">
+      <c r="E93" s="15">
         <v>6.9589999999999996</v>
       </c>
-      <c r="F92" s="15">
+      <c r="F93" s="15">
         <v>66.08</v>
       </c>
-      <c r="G92" s="15">
+      <c r="G93" s="15">
         <v>7737.0140000000001</v>
       </c>
-      <c r="H92" s="15">
+      <c r="H93" s="15">
         <v>1410.72</v>
       </c>
-      <c r="I92" s="15">
+      <c r="I93" s="15">
         <v>6932.2910000000002</v>
       </c>
-      <c r="J92" s="15">
+      <c r="J93" s="15">
         <v>2789.42</v>
       </c>
-      <c r="K92" s="15">
+      <c r="K93" s="15">
         <v>1379.2329999999999</v>
       </c>
-      <c r="L92" s="15">
+      <c r="L93" s="15">
         <v>4684.1959999999999</v>
       </c>
-      <c r="M92" s="15"/>
-      <c r="N92" s="15"/>
-      <c r="O92" s="15">
+      <c r="M93" s="15"/>
+      <c r="N93" s="15"/>
+      <c r="O93" s="15">
         <v>12.253</v>
       </c>
-    </row>
-    <row r="93" spans="2:15">
-      <c r="B93" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C93" s="28"/>
     </row>
     <row r="94" spans="2:15">
       <c r="B94" s="28" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C94" s="28"/>
-      <c r="O94" s="29"/>
     </row>
     <row r="95" spans="2:15">
       <c r="B95" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C95" s="28"/>
+      <c r="O95" s="29"/>
     </row>
     <row r="96" spans="2:15">
       <c r="B96" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="28"/>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="B97" s="28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="2:4">
-      <c r="B97" s="3" t="s">
+    <row r="98" spans="2:4">
+      <c r="B98" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="2:4">
-      <c r="D103" s="28"/>
+    <row r="104" spans="2:4">
+      <c r="D104" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Carga_por_aerolinea_nac.xlsx
+++ b/Carga_por_aerolinea_nac.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05C7F92-1DAC-4BAF-BEBC-54E59E628078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057CD2C3-4682-49F8-8C61-855DE8166CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="32">
   <si>
     <t>Total</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Estafeta (Carga Aérea)</t>
   </si>
   <si>
-    <t>Interjet (ABC Aerolíneas)</t>
-  </si>
-  <si>
     <t>Mas Air (Más de Carga)</t>
   </si>
   <si>
@@ -72,12 +69,6 @@
   </si>
   <si>
     <t>Volaris (Concesionaria Vuela Cia de Aviación)</t>
-  </si>
-  <si>
-    <t>Nota: Interjet suspendió operaciones a partir del 11 de diciembre de 2020.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            La línea aérea Aeromar suspendió operaciones a partir del 16 de febrero de 2023.</t>
   </si>
   <si>
     <t xml:space="preserve">            El acumulado de enero-mayo 2024, Variación porcentual con relación al mismo periodo del año anterior.</t>
@@ -137,7 +128,10 @@
     <t>Mexicana (Aerolínea del Estado Mexicano)</t>
   </si>
   <si>
-    <t>Actualización: Abril 2025.</t>
+    <t>Nota: La línea aérea Aeromar suspendió operaciones a partir del 16 de febrero de 2023.</t>
+  </si>
+  <si>
+    <t>Actualización: Junio 2025.</t>
   </si>
 </sst>
 </file>
@@ -302,19 +296,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -371,6 +352,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -388,16 +380,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -406,7 +398,7 @@
     <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -433,27 +425,25 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -461,21 +451,7 @@
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <strike val="0"/>
@@ -752,8 +728,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O93" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
-  <autoFilter ref="B5:O93" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:N95" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14">
+  <autoFilter ref="B5:N95" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -761,19 +737,18 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{12231CE8-D2C5-4148-BC9F-F824430AA01E}" name="Mes" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{86077915-C170-40DA-9DB4-19E81910B485}" name="Total" dataDxfId="11">
-      <calculatedColumnFormula>SUM(E6:O6)</calculatedColumnFormula>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{12231CE8-D2C5-4148-BC9F-F824430AA01E}" name="Mes" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{86077915-C170-40DA-9DB4-19E81910B485}" name="Total" dataDxfId="10">
+      <calculatedColumnFormula>SUM(E6:N6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Aéreo Calafia" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Aeromar" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Aeroméxico (Aerovías de México)" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{A869730C-1719-4A70-8838-10376967FD05}" name="Aeroméxico Connect (Aerolitoral)" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{523CBB34-1DEE-445B-8474-FD8E64117197}" name="Aerounión (Aerotransportes de Carga Unión)" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{631795EF-E72C-4257-9376-F3F950D2CD24}" name="Estafeta (Carga Aérea)" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{7825E645-762A-41A2-B4FE-F68035B408F7}" name="Interjet (ABC Aerolíneas)" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Aéreo Calafia" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Aeromar" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Aeroméxico (Aerovías de México)" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{A869730C-1719-4A70-8838-10376967FD05}" name="Aeroméxico Connect (Aerolitoral)" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{523CBB34-1DEE-445B-8474-FD8E64117197}" name="Aerounión (Aerotransportes de Carga Unión)" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{631795EF-E72C-4257-9376-F3F950D2CD24}" name="Estafeta (Carga Aérea)" dataDxfId="4"/>
     <tableColumn id="10" xr3:uid="{ABE62262-6A70-4763-8581-1FC262023BDA}" name="Mas Air (Más de Carga)" dataDxfId="3"/>
     <tableColumn id="14" xr3:uid="{D1C87568-7DD7-4B4E-809C-0DB1C221D6F4}" name="Mexicana (Aerolínea del Estado Mexicano)" dataDxfId="2"/>
     <tableColumn id="11" xr3:uid="{79063C30-2596-43D4-82AD-DC7007BA3E47}" name="Vivaaerobus (Aeroenlaces)" dataDxfId="1"/>
@@ -1006,7 +981,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O104"/>
+  <dimension ref="B2:O105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1032,44 +1007,43 @@
     <col min="16" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18">
+    <row r="2" spans="2:14" ht="18">
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:14">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:14">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="32"/>
-    </row>
-    <row r="5" spans="2:15" ht="49.5">
+      <c r="E4" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+    </row>
+    <row r="5" spans="2:14" ht="66">
       <c r="B5" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>0</v>
@@ -1087,7 +1061,7 @@
         <v>6</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>7</v>
@@ -1096,3168 +1070,3035 @@
         <v>8</v>
       </c>
       <c r="L5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="11" t="s">
         <v>9</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>32</v>
       </c>
       <c r="N5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15">
+    </row>
+    <row r="6" spans="2:14">
       <c r="B6" s="16">
         <v>2025</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D6" s="18">
-        <f>SUM(E6:O6)</f>
-        <v>27422.053609999999</v>
+        <f>SUM(E6:N6)</f>
+        <v>29149.049193534269</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19">
-        <v>12152.825000000001</v>
+        <v>13070.148999999999</v>
       </c>
       <c r="H6" s="19">
-        <v>795.68899999999996</v>
+        <v>697.11199999999997</v>
       </c>
       <c r="I6" s="19">
-        <v>2071.3298999999997</v>
+        <v>1896.0541835342726</v>
       </c>
       <c r="J6" s="19">
-        <v>2726.0720000000001</v>
-      </c>
-      <c r="K6" s="19"/>
+        <v>2998.576</v>
+      </c>
+      <c r="K6" s="19">
+        <v>7604.1769999999997</v>
+      </c>
       <c r="L6" s="19">
-        <v>6692.1670000000004</v>
+        <v>33.5276</v>
       </c>
       <c r="M6" s="19">
-        <v>11.987500000000001</v>
+        <v>941.83019999999999</v>
       </c>
       <c r="N6" s="19">
-        <v>859.24420000000077</v>
-      </c>
-      <c r="O6" s="19">
-        <v>2112.7390099999984</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15">
+        <v>1907.6232099999988</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
       <c r="B7" s="12">
         <v>2025</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D7" s="14">
-        <f>SUM(E7:O7)</f>
-        <v>27980.780070000001</v>
+        <f t="shared" ref="D7:D38" si="0">SUM(E7:N7)</f>
+        <v>29005.288634240002</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15">
-        <v>13263.271000000001</v>
+        <v>12436.241</v>
       </c>
       <c r="H7" s="15">
-        <v>761.86699999999996</v>
+        <v>766.13099999999997</v>
       </c>
       <c r="I7" s="15">
-        <v>1932.6751200000001</v>
+        <v>1996.4528442400001</v>
       </c>
       <c r="J7" s="15">
-        <v>2544.1959999999999</v>
-      </c>
-      <c r="K7" s="15"/>
+        <v>2856.5039999999999</v>
+      </c>
+      <c r="K7" s="15">
+        <v>7767.5050000000001</v>
+      </c>
       <c r="L7" s="15">
-        <v>6302.9059999999999</v>
+        <v>26.459919999999997</v>
       </c>
       <c r="M7" s="15">
-        <v>33.307000000000002</v>
+        <v>879.4796999999993</v>
       </c>
       <c r="N7" s="15">
-        <v>1009.0963999999997</v>
-      </c>
-      <c r="O7" s="15">
-        <v>2133.46155</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15">
+        <v>2276.5151700000006</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
       <c r="B8" s="16">
         <v>2025</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D8" s="18">
-        <f>SUM(E8:O8)</f>
-        <v>25748.605099709999</v>
+        <f t="shared" si="0"/>
+        <v>27422.053609999999</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
       <c r="G8" s="19">
-        <v>11275.352000000001</v>
+        <v>12152.825000000001</v>
       </c>
       <c r="H8" s="19">
-        <v>620.36</v>
+        <v>795.68899999999996</v>
       </c>
       <c r="I8" s="19">
-        <v>1786.64945971</v>
+        <v>2071.3298999999997</v>
       </c>
       <c r="J8" s="19">
-        <v>2412.8490000000002</v>
-      </c>
-      <c r="K8" s="19"/>
+        <v>2726.0720000000001</v>
+      </c>
+      <c r="K8" s="19">
+        <v>6692.1670000000004</v>
+      </c>
       <c r="L8" s="19">
-        <v>6617.8909999999996</v>
+        <v>11.987500000000001</v>
       </c>
       <c r="M8" s="19">
-        <v>29.823340000000002</v>
+        <v>859.24420000000077</v>
       </c>
       <c r="N8" s="19">
-        <v>941.21730000000014</v>
-      </c>
-      <c r="O8" s="19">
-        <v>2064.4630000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="20">
+        <v>2112.7390099999984</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="12">
         <v>2025</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="22">
-        <f>SUM(E9:O9)</f>
-        <v>23673.877119999997</v>
-      </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23">
-        <v>10826.540999999999</v>
-      </c>
-      <c r="H9" s="23">
-        <v>571.43200000000002</v>
-      </c>
-      <c r="I9" s="23">
-        <v>1894.5229999999999</v>
-      </c>
-      <c r="J9" s="23">
-        <v>2721.4450000000002</v>
-      </c>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23">
-        <v>4711.6409999999996</v>
-      </c>
-      <c r="M9" s="23">
-        <v>29.370999999999999</v>
-      </c>
-      <c r="N9" s="23">
-        <v>964.65659999999991</v>
-      </c>
-      <c r="O9" s="23">
-        <v>1954.2675200000031</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15">
+      <c r="C9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="14">
+        <f t="shared" si="0"/>
+        <v>27980.780070000001</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15">
+        <v>13263.271000000001</v>
+      </c>
+      <c r="H9" s="15">
+        <v>761.86699999999996</v>
+      </c>
+      <c r="I9" s="15">
+        <v>1932.6751200000001</v>
+      </c>
+      <c r="J9" s="15">
+        <v>2544.1959999999999</v>
+      </c>
+      <c r="K9" s="15">
+        <v>6302.9059999999999</v>
+      </c>
+      <c r="L9" s="15">
+        <v>33.307000000000002</v>
+      </c>
+      <c r="M9" s="15">
+        <v>1009.0963999999997</v>
+      </c>
+      <c r="N9" s="15">
+        <v>2133.46155</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
       <c r="B10" s="16">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D10" s="18">
-        <f>SUM(E10:O10)</f>
-        <v>27947.306936199999</v>
+        <f t="shared" si="0"/>
+        <v>25748.605099709999</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19">
-        <v>12904.705</v>
+        <v>11275.352000000001</v>
       </c>
       <c r="H10" s="19">
-        <v>706.62800000000004</v>
+        <v>620.36</v>
       </c>
       <c r="I10" s="19">
-        <v>2110.4124862000003</v>
+        <v>1786.64945971</v>
       </c>
       <c r="J10" s="19">
-        <v>2910.0949999999998</v>
-      </c>
-      <c r="K10" s="19"/>
+        <v>2412.8490000000002</v>
+      </c>
+      <c r="K10" s="19">
+        <v>6617.8909999999996</v>
+      </c>
       <c r="L10" s="19">
-        <v>6062.4089999999997</v>
+        <v>29.823340000000002</v>
       </c>
       <c r="M10" s="19">
-        <v>44.347099999999998</v>
+        <v>941.21730000000014</v>
       </c>
       <c r="N10" s="19">
-        <v>1092.7723999999989</v>
-      </c>
-      <c r="O10" s="19">
-        <v>2115.9379499999995</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15">
-      <c r="B11" s="12">
-        <v>2024</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="14">
-        <f>SUM(E11:O11)</f>
-        <v>27502.893513799998</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15">
-        <v>13474.445</v>
-      </c>
-      <c r="H11" s="15">
-        <v>756.11400000000003</v>
-      </c>
-      <c r="I11" s="15">
-        <v>1892.0454138</v>
-      </c>
-      <c r="J11" s="15">
-        <v>3303.9810000000002</v>
-      </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15">
-        <v>4393.0249999999996</v>
-      </c>
-      <c r="M11" s="15">
-        <v>44.302</v>
-      </c>
-      <c r="N11" s="15">
-        <v>1298.3136</v>
-      </c>
-      <c r="O11" s="15">
-        <v>2340.6674999999955</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15">
+        <v>2064.4630000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="20">
+        <v>2025</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="22">
+        <f t="shared" si="0"/>
+        <v>23673.877119999997</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23">
+        <v>10826.540999999999</v>
+      </c>
+      <c r="H11" s="23">
+        <v>571.43200000000002</v>
+      </c>
+      <c r="I11" s="23">
+        <v>1894.5229999999999</v>
+      </c>
+      <c r="J11" s="23">
+        <v>2721.4450000000002</v>
+      </c>
+      <c r="K11" s="23">
+        <v>4711.6409999999996</v>
+      </c>
+      <c r="L11" s="23">
+        <v>29.370999999999999</v>
+      </c>
+      <c r="M11" s="23">
+        <v>964.65659999999991</v>
+      </c>
+      <c r="N11" s="23">
+        <v>1954.2675200000031</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
       <c r="B12" s="16">
         <v>2024</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D12" s="18">
-        <f t="shared" ref="D12" si="0">SUM(E12:O12)</f>
-        <v>27181.326312561851</v>
+        <f t="shared" si="0"/>
+        <v>27947.306936199999</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="19">
-        <v>13225.465</v>
+        <v>12904.705</v>
       </c>
       <c r="H12" s="19">
-        <v>615.21100000000001</v>
+        <v>706.62800000000004</v>
       </c>
       <c r="I12" s="19">
-        <v>1642.0031125618484</v>
+        <v>2110.4124862000003</v>
       </c>
       <c r="J12" s="19">
-        <v>3194.15</v>
-      </c>
-      <c r="K12" s="19"/>
+        <v>2910.0949999999998</v>
+      </c>
+      <c r="K12" s="19">
+        <v>6062.4089999999997</v>
+      </c>
       <c r="L12" s="19">
-        <v>4834.0540000000001</v>
+        <v>44.347099999999998</v>
       </c>
       <c r="M12" s="19">
-        <v>24.026</v>
+        <v>1092.7723999999989</v>
       </c>
       <c r="N12" s="19">
-        <v>1321.6451999999997</v>
-      </c>
-      <c r="O12" s="19">
-        <v>2324.7719999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15">
+        <v>2115.9379499999995</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
       <c r="B13" s="12">
         <v>2024</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D13" s="14">
-        <f>SUM(E13:O13)</f>
-        <v>23947.075499999999</v>
+        <f t="shared" si="0"/>
+        <v>27502.893513799998</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15">
-        <v>11815.414000000001</v>
+        <v>13474.445</v>
       </c>
       <c r="H13" s="15">
-        <v>610.077</v>
+        <v>756.11400000000003</v>
       </c>
       <c r="I13" s="15">
-        <v>1877.9970000000001</v>
+        <v>1892.0454138</v>
       </c>
       <c r="J13" s="15">
-        <v>2701.4140000000002</v>
-      </c>
-      <c r="K13" s="15"/>
+        <v>3303.9810000000002</v>
+      </c>
+      <c r="K13" s="15">
+        <v>4393.0249999999996</v>
+      </c>
       <c r="L13" s="15">
-        <v>4037.3809999999999</v>
-      </c>
-      <c r="M13" s="15"/>
+        <v>44.302</v>
+      </c>
+      <c r="M13" s="15">
+        <v>1298.3136</v>
+      </c>
       <c r="N13" s="15">
-        <v>1121.0953000000004</v>
-      </c>
-      <c r="O13" s="15">
-        <v>1783.6971999999994</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15">
+        <v>2340.6674999999955</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
       <c r="B14" s="16">
         <v>2024</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D14" s="18">
-        <f t="shared" ref="D14:D48" si="1">SUM(E14:O14)</f>
-        <v>25976.44756810151</v>
+        <f t="shared" si="0"/>
+        <v>27181.326312561851</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19">
-        <v>12383.605</v>
+        <v>13225.465</v>
       </c>
       <c r="H14" s="19">
-        <v>692.93</v>
+        <v>615.21100000000001</v>
       </c>
       <c r="I14" s="19">
-        <v>997.61693810151405</v>
+        <v>1642.0031125618484</v>
       </c>
       <c r="J14" s="19">
-        <v>3089.9549999999999</v>
-      </c>
-      <c r="K14" s="19"/>
+        <v>3194.15</v>
+      </c>
+      <c r="K14" s="19">
+        <v>4834.0540000000001</v>
+      </c>
       <c r="L14" s="19">
-        <v>5823.1229999999996</v>
-      </c>
-      <c r="M14" s="19"/>
+        <v>24.026</v>
+      </c>
+      <c r="M14" s="19">
+        <v>1321.6451999999997</v>
+      </c>
       <c r="N14" s="19">
-        <v>1059.0244999999993</v>
-      </c>
-      <c r="O14" s="19">
-        <v>1930.193130000001</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15">
+        <v>2324.7719999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
       <c r="B15" s="12">
         <v>2024</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D15" s="14">
-        <f t="shared" ref="D15:D17" si="2">SUM(E15:O15)</f>
-        <v>24449.559196296865</v>
+        <f t="shared" si="0"/>
+        <v>23947.075499999999</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15">
-        <v>12150.298000000001</v>
+        <v>11815.414000000001</v>
       </c>
       <c r="H15" s="15">
-        <v>643.75300000000004</v>
+        <v>610.077</v>
       </c>
       <c r="I15" s="15">
-        <v>1750.5007562968667</v>
+        <v>1877.9970000000001</v>
       </c>
       <c r="J15" s="15">
-        <v>3035.9490000000001</v>
-      </c>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15">
-        <v>4137.7550000000001</v>
-      </c>
-      <c r="M15" s="15"/>
+        <v>2701.4140000000002</v>
+      </c>
+      <c r="K15" s="15">
+        <v>4037.3809999999999</v>
+      </c>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15">
+        <v>1121.0953000000004</v>
+      </c>
       <c r="N15" s="15">
-        <v>767.15459999999973</v>
-      </c>
-      <c r="O15" s="15">
-        <v>1964.1488399999987</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15">
+        <v>1783.6971999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
       <c r="B16" s="16">
         <v>2024</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D16" s="18">
-        <f t="shared" si="2"/>
-        <v>22991.837380000001</v>
+        <f t="shared" si="0"/>
+        <v>25976.44756810151</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19">
-        <v>11786.278</v>
+        <v>12383.605</v>
       </c>
       <c r="H16" s="19">
-        <v>560.85299999999995</v>
+        <v>692.93</v>
       </c>
       <c r="I16" s="19">
-        <v>455.33683000000002</v>
+        <v>997.61693810151405</v>
       </c>
       <c r="J16" s="19">
-        <v>2749.279</v>
-      </c>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19">
-        <v>4777.0950000000003</v>
-      </c>
-      <c r="M16" s="19"/>
+        <v>3089.9549999999999</v>
+      </c>
+      <c r="K16" s="19">
+        <v>5823.1229999999996</v>
+      </c>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19">
+        <v>1059.0244999999993</v>
+      </c>
       <c r="N16" s="19">
-        <v>821.03270000000009</v>
-      </c>
-      <c r="O16" s="19">
-        <v>1841.9628499999985</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15">
+        <v>1930.193130000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
       <c r="B17" s="12">
         <v>2024</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D17" s="14">
-        <f t="shared" si="2"/>
-        <v>25584.530360000004</v>
+        <f t="shared" si="0"/>
+        <v>24449.559196296865</v>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15">
-        <v>12162.084000000001</v>
+        <v>12150.298000000001</v>
       </c>
       <c r="H17" s="15">
-        <v>597.245</v>
+        <v>643.75300000000004</v>
       </c>
       <c r="I17" s="15">
-        <v>670.93826000000001</v>
+        <v>1750.5007562968667</v>
       </c>
       <c r="J17" s="15">
-        <v>3023.1210000000001</v>
-      </c>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15">
-        <v>5951.4530000000004</v>
-      </c>
-      <c r="M17" s="15"/>
+        <v>3035.9490000000001</v>
+      </c>
+      <c r="K17" s="15">
+        <v>4137.7550000000001</v>
+      </c>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15">
+        <v>767.15459999999973</v>
+      </c>
       <c r="N17" s="15">
-        <v>966.6420999999998</v>
-      </c>
-      <c r="O17" s="15">
-        <v>2213.047</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15">
+        <v>1964.1488399999987</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
       <c r="B18" s="16">
         <v>2024</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D18" s="18">
-        <f t="shared" si="1"/>
-        <v>24530.56366</v>
+        <f t="shared" si="0"/>
+        <v>22991.837380000001</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19">
-        <v>11531.746999999999</v>
+        <v>11786.278</v>
       </c>
       <c r="H18" s="19">
-        <v>592.245</v>
+        <v>560.85299999999995</v>
       </c>
       <c r="I18" s="19">
-        <v>1345.6157600000001</v>
+        <v>455.33683000000002</v>
       </c>
       <c r="J18" s="19">
-        <v>3069.6970000000001</v>
-      </c>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19">
-        <v>5033.8580000000002</v>
-      </c>
-      <c r="M18" s="19"/>
+        <v>2749.279</v>
+      </c>
+      <c r="K18" s="19">
+        <v>4777.0950000000003</v>
+      </c>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19">
+        <v>821.03270000000009</v>
+      </c>
       <c r="N18" s="19">
-        <v>917.64800000000014</v>
-      </c>
-      <c r="O18" s="19">
-        <v>2039.7528999999981</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15">
+        <v>1841.9628499999985</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
       <c r="B19" s="12">
         <v>2024</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D19" s="14">
-        <f t="shared" si="1"/>
-        <v>23773.473269999999</v>
+        <f t="shared" si="0"/>
+        <v>25584.530360000004</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15">
-        <v>11871.233</v>
+        <v>12162.084000000001</v>
       </c>
       <c r="H19" s="15">
-        <v>551.64300000000003</v>
+        <v>597.245</v>
       </c>
       <c r="I19" s="15">
-        <v>1657.1516799999999</v>
+        <v>670.93826000000001</v>
       </c>
       <c r="J19" s="15">
-        <v>2749.279</v>
-      </c>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15">
-        <v>3908.877</v>
-      </c>
-      <c r="M19" s="15"/>
+        <v>3023.1210000000001</v>
+      </c>
+      <c r="K19" s="15">
+        <v>5951.4530000000004</v>
+      </c>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15">
+        <v>966.6420999999998</v>
+      </c>
       <c r="N19" s="15">
-        <v>901.89159999999958</v>
-      </c>
-      <c r="O19" s="15">
-        <v>2133.3979900000022</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15">
+        <v>2213.047</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
       <c r="B20" s="16">
         <v>2024</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D20" s="18">
-        <f t="shared" si="1"/>
-        <v>23760.617010000002</v>
+        <f t="shared" si="0"/>
+        <v>24530.56366</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19">
+        <v>11531.746999999999</v>
+      </c>
+      <c r="H20" s="19">
+        <v>592.245</v>
+      </c>
+      <c r="I20" s="19">
+        <v>1345.6157600000001</v>
+      </c>
+      <c r="J20" s="19">
+        <v>3069.6970000000001</v>
+      </c>
+      <c r="K20" s="19">
+        <v>5033.8580000000002</v>
+      </c>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19">
+        <v>917.64800000000014</v>
+      </c>
+      <c r="N20" s="19">
+        <v>2039.7528999999981</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" s="12">
+        <v>2024</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="14">
+        <f t="shared" si="0"/>
+        <v>23773.473269999999</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15">
+        <v>11871.233</v>
+      </c>
+      <c r="H21" s="15">
+        <v>551.64300000000003</v>
+      </c>
+      <c r="I21" s="15">
+        <v>1657.1516799999999</v>
+      </c>
+      <c r="J21" s="15">
+        <v>2749.279</v>
+      </c>
+      <c r="K21" s="15">
+        <v>3908.877</v>
+      </c>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15">
+        <v>901.89159999999958</v>
+      </c>
+      <c r="N21" s="15">
+        <v>2133.3979900000022</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22" s="16">
+        <v>2024</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="18">
+        <f t="shared" si="0"/>
+        <v>23760.617010000002</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19">
         <v>11159.713</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H22" s="19">
         <v>540.17999999999995</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I22" s="19">
         <v>1664.87067</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J22" s="19">
         <v>3032.2710000000002</v>
       </c>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19">
+      <c r="K22" s="19">
         <v>4672.6559999999999</v>
       </c>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19">
+      <c r="L22" s="19"/>
+      <c r="M22" s="19">
         <v>878.40580000000011</v>
       </c>
-      <c r="O20" s="19">
+      <c r="N22" s="19">
         <v>1812.5205400000013</v>
       </c>
     </row>
-    <row r="21" spans="2:15">
-      <c r="B21" s="20">
+    <row r="23" spans="2:14">
+      <c r="B23" s="20">
         <v>2024</v>
       </c>
-      <c r="C21" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="22">
-        <f t="shared" si="1"/>
+      <c r="C23" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="22">
+        <f t="shared" si="0"/>
         <v>22658.754440000004</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23">
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23">
         <v>10099.106</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H23" s="23">
         <v>778.92200000000003</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I23" s="23">
         <v>1334.1081499999998</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J23" s="23">
         <v>3205.1840000000002</v>
       </c>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23">
+      <c r="K23" s="23">
         <v>4132.0780000000004</v>
       </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23">
+      <c r="L23" s="23"/>
+      <c r="M23" s="23">
         <v>1138.7986000000001</v>
       </c>
-      <c r="O21" s="23">
+      <c r="N23" s="23">
         <v>1970.5576900000021</v>
       </c>
     </row>
-    <row r="22" spans="2:15" hidden="1">
-      <c r="B22" s="24">
+    <row r="24" spans="2:14" hidden="1">
+      <c r="B24" s="24">
         <v>2023</v>
       </c>
-      <c r="C22" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="26">
-        <f t="shared" si="1"/>
+      <c r="C24" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="26">
+        <f t="shared" si="0"/>
         <v>24330.252739999996</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E24" s="27">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27">
+      <c r="F24" s="27"/>
+      <c r="G24" s="27">
         <v>11988.567999999999</v>
       </c>
-      <c r="H22" s="27">
+      <c r="H24" s="27">
         <v>936.15599999999995</v>
       </c>
-      <c r="I22" s="27">
+      <c r="I24" s="27">
         <v>1439.51802</v>
       </c>
-      <c r="J22" s="27">
+      <c r="J24" s="27">
         <v>3166.9259999999999</v>
       </c>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27">
+      <c r="K24" s="27">
         <v>3182.1170000000002</v>
       </c>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27">
+      <c r="L24" s="27"/>
+      <c r="M24" s="27">
         <v>1409.9010999999998</v>
       </c>
-      <c r="O22" s="27">
+      <c r="N24" s="30">
         <v>2207.0626199999997</v>
       </c>
     </row>
-    <row r="23" spans="2:15" hidden="1">
-      <c r="B23" s="12">
-        <v>2023</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="14">
-        <f t="shared" si="1"/>
-        <v>25951.682419999997</v>
-      </c>
-      <c r="E23" s="15">
-        <v>2E-3</v>
-      </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15">
-        <v>11389.349</v>
-      </c>
-      <c r="H23" s="15">
-        <v>878.84500000000003</v>
-      </c>
-      <c r="I23" s="15">
-        <v>3104.8114999999998</v>
-      </c>
-      <c r="J23" s="15">
-        <v>3477.9340000000002</v>
-      </c>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15">
-        <v>3383.1860000000001</v>
-      </c>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15">
-        <v>1367.4912000000006</v>
-      </c>
-      <c r="O23" s="15">
-        <v>2350.0637199999942</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" hidden="1">
-      <c r="B24" s="16">
-        <v>2023</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="18">
-        <f t="shared" si="1"/>
-        <v>29736.471783999994</v>
-      </c>
-      <c r="E24" s="19">
-        <v>2E-3</v>
-      </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19">
-        <v>11497.116</v>
-      </c>
-      <c r="H24" s="19">
-        <v>766.34</v>
-      </c>
-      <c r="I24" s="19">
-        <v>1778.049084</v>
-      </c>
-      <c r="J24" s="19">
-        <v>3354.9290000000001</v>
-      </c>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19">
-        <v>8846.14</v>
-      </c>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19">
-        <v>1254.5563000000009</v>
-      </c>
-      <c r="O24" s="19">
-        <v>2239.3393999999939</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" hidden="1">
+    <row r="25" spans="2:14" hidden="1">
       <c r="B25" s="12">
         <v>2023</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D25" s="14">
-        <f t="shared" si="1"/>
-        <v>25495.398430000001</v>
+        <f t="shared" si="0"/>
+        <v>25951.682419999997</v>
       </c>
       <c r="E25" s="15">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15">
-        <v>10214.496999999999</v>
+        <v>11389.349</v>
       </c>
       <c r="H25" s="15">
-        <v>745.19799999999998</v>
+        <v>878.84500000000003</v>
       </c>
       <c r="I25" s="15">
-        <v>1692.6589100000001</v>
+        <v>3104.8114999999998</v>
       </c>
       <c r="J25" s="15">
-        <v>3160.6</v>
-      </c>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15">
-        <v>6870.7169999999996</v>
-      </c>
-      <c r="M25" s="15"/>
+        <v>3477.9340000000002</v>
+      </c>
+      <c r="K25" s="15">
+        <v>3383.1860000000001</v>
+      </c>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15">
+        <v>1367.4912000000006</v>
+      </c>
       <c r="N25" s="15">
-        <v>1029.982</v>
-      </c>
-      <c r="O25" s="15">
-        <v>1781.74452</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" hidden="1">
+        <v>2350.0637199999942</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" hidden="1">
       <c r="B26" s="16">
         <v>2023</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D26" s="18">
-        <f t="shared" si="1"/>
-        <v>27795.111850000001</v>
+        <f t="shared" si="0"/>
+        <v>29736.471783999994</v>
       </c>
       <c r="E26" s="19">
         <v>2E-3</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19">
-        <v>10670.395</v>
+        <v>11497.116</v>
       </c>
       <c r="H26" s="19">
-        <v>688.12199999999996</v>
+        <v>766.34</v>
       </c>
       <c r="I26" s="19">
-        <v>2332.9001999999996</v>
+        <v>1778.049084</v>
       </c>
       <c r="J26" s="19">
-        <v>3597.163</v>
-      </c>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19">
-        <v>7529.75</v>
-      </c>
-      <c r="M26" s="19"/>
+        <v>3354.9290000000001</v>
+      </c>
+      <c r="K26" s="19">
+        <v>8846.14</v>
+      </c>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19">
+        <v>1254.5563000000009</v>
+      </c>
       <c r="N26" s="19">
-        <v>1106.6980000000001</v>
-      </c>
-      <c r="O26" s="19">
-        <v>1870.0816499999999</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" hidden="1">
+        <v>2239.3393999999939</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" hidden="1">
       <c r="B27" s="12">
         <v>2023</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D27" s="14">
-        <f t="shared" si="1"/>
-        <v>27392.805111000001</v>
+        <f t="shared" si="0"/>
+        <v>25495.398430000001</v>
       </c>
       <c r="E27" s="15">
-        <v>7.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="15">
-        <v>11104.486000000001</v>
+        <v>10214.496999999999</v>
       </c>
       <c r="H27" s="15">
-        <v>582.98800000000006</v>
+        <v>745.19799999999998</v>
       </c>
       <c r="I27" s="15">
-        <v>2097.893521</v>
+        <v>1692.6589100000001</v>
       </c>
       <c r="J27" s="15">
-        <v>3132.8069999999998</v>
-      </c>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15">
-        <v>7920.2030000000004</v>
-      </c>
-      <c r="M27" s="15"/>
+        <v>3160.6</v>
+      </c>
+      <c r="K27" s="15">
+        <v>6870.7169999999996</v>
+      </c>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15">
+        <v>1029.982</v>
+      </c>
       <c r="N27" s="15">
-        <v>632.07899999999995</v>
-      </c>
-      <c r="O27" s="15">
-        <v>1922.34159</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" hidden="1">
+        <v>1781.74452</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" hidden="1">
       <c r="B28" s="16">
         <v>2023</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D28" s="18">
-        <f t="shared" si="1"/>
-        <v>26257.615949999999</v>
+        <f t="shared" si="0"/>
+        <v>27795.111850000001</v>
       </c>
       <c r="E28" s="19">
-        <v>5.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="19">
-        <v>9903.1360000000004</v>
+        <v>10670.395</v>
       </c>
       <c r="H28" s="19">
-        <v>604.97799999999995</v>
+        <v>688.12199999999996</v>
       </c>
       <c r="I28" s="19">
-        <v>2029.77441</v>
+        <v>2332.9001999999996</v>
       </c>
       <c r="J28" s="19">
-        <v>3359.4630000000002</v>
-      </c>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19">
-        <v>7581.4750000000004</v>
-      </c>
-      <c r="M28" s="19"/>
+        <v>3597.163</v>
+      </c>
+      <c r="K28" s="19">
+        <v>7529.75</v>
+      </c>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19">
+        <v>1106.6980000000001</v>
+      </c>
       <c r="N28" s="19">
-        <v>808.51900000000001</v>
-      </c>
-      <c r="O28" s="19">
-        <v>1970.2655400000001</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" hidden="1">
+        <v>1870.0816499999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" hidden="1">
       <c r="B29" s="12">
         <v>2023</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D29" s="14">
-        <f t="shared" si="1"/>
-        <v>27189.140660000001</v>
+        <f t="shared" si="0"/>
+        <v>27392.805111000001</v>
       </c>
       <c r="E29" s="15">
-        <v>5.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="15">
-        <v>9247.2430000000004</v>
+        <v>11104.486000000001</v>
       </c>
       <c r="H29" s="15">
-        <v>646.67899999999997</v>
+        <v>582.98800000000006</v>
       </c>
       <c r="I29" s="15">
-        <v>1841.1321099999998</v>
+        <v>2097.893521</v>
       </c>
       <c r="J29" s="15">
-        <v>3239.5920000000001</v>
-      </c>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15">
-        <v>9116.9560000000001</v>
-      </c>
-      <c r="M29" s="15"/>
+        <v>3132.8069999999998</v>
+      </c>
+      <c r="K29" s="15">
+        <v>7920.2030000000004</v>
+      </c>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15">
+        <v>632.07899999999995</v>
+      </c>
       <c r="N29" s="15">
-        <v>871.53</v>
-      </c>
-      <c r="O29" s="15">
-        <v>2226.0035500000004</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" hidden="1">
+        <v>1922.34159</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" hidden="1">
       <c r="B30" s="16">
         <v>2023</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D30" s="18">
-        <f t="shared" si="1"/>
-        <v>26065.695520000001</v>
+        <f t="shared" si="0"/>
+        <v>26257.615949999999</v>
       </c>
       <c r="E30" s="19">
-        <v>6.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="19">
-        <v>8823.5010000000002</v>
+        <v>9903.1360000000004</v>
       </c>
       <c r="H30" s="19">
-        <v>643.87900000000002</v>
+        <v>604.97799999999995</v>
       </c>
       <c r="I30" s="19">
-        <v>2656.5120000000002</v>
+        <v>2029.77441</v>
       </c>
       <c r="J30" s="19">
-        <v>2882.6640000000002</v>
-      </c>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19">
-        <v>8495.7070000000003</v>
-      </c>
-      <c r="M30" s="19"/>
+        <v>3359.4630000000002</v>
+      </c>
+      <c r="K30" s="19">
+        <v>7581.4750000000004</v>
+      </c>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19">
+        <v>808.51900000000001</v>
+      </c>
       <c r="N30" s="19">
-        <v>807.85400000000004</v>
-      </c>
-      <c r="O30" s="19">
-        <v>1755.5725199999999</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" hidden="1">
+        <v>1970.2655400000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" hidden="1">
       <c r="B31" s="12">
         <v>2023</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D31" s="14">
-        <f t="shared" si="1"/>
-        <v>29416.146090000002</v>
+        <f t="shared" si="0"/>
+        <v>27189.140660000001</v>
       </c>
       <c r="E31" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="15">
-        <v>10420.953</v>
+        <v>9247.2430000000004</v>
       </c>
       <c r="H31" s="15">
-        <v>850.89200000000005</v>
+        <v>646.67899999999997</v>
       </c>
       <c r="I31" s="15">
-        <v>2714.1550000000002</v>
+        <v>1841.1321099999998</v>
       </c>
       <c r="J31" s="15">
-        <v>3284.2510000000002</v>
-      </c>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15">
-        <v>9320.09</v>
-      </c>
-      <c r="M31" s="15"/>
+        <v>3239.5920000000001</v>
+      </c>
+      <c r="K31" s="15">
+        <v>9116.9560000000001</v>
+      </c>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15">
+        <v>871.53</v>
+      </c>
       <c r="N31" s="15">
-        <v>754.07100000000003</v>
-      </c>
-      <c r="O31" s="15">
-        <v>2071.7290899999998</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" hidden="1">
+        <v>2226.0035500000004</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" hidden="1">
       <c r="B32" s="16">
         <v>2023</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D32" s="18">
-        <f t="shared" si="1"/>
-        <v>26501.790870000004</v>
+        <f t="shared" si="0"/>
+        <v>26065.695520000001</v>
       </c>
       <c r="E32" s="19">
-        <v>1.0999999999999999E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F32" s="19"/>
       <c r="G32" s="19">
+        <v>8823.5010000000002</v>
+      </c>
+      <c r="H32" s="19">
+        <v>643.87900000000002</v>
+      </c>
+      <c r="I32" s="19">
+        <v>2656.5120000000002</v>
+      </c>
+      <c r="J32" s="19">
+        <v>2882.6640000000002</v>
+      </c>
+      <c r="K32" s="19">
+        <v>8495.7070000000003</v>
+      </c>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19">
+        <v>807.85400000000004</v>
+      </c>
+      <c r="N32" s="19">
+        <v>1755.5725199999999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" hidden="1">
+      <c r="B33" s="12">
+        <v>2023</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="14">
+        <f t="shared" si="0"/>
+        <v>29416.146090000002</v>
+      </c>
+      <c r="E33" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15">
+        <v>10420.953</v>
+      </c>
+      <c r="H33" s="15">
+        <v>850.89200000000005</v>
+      </c>
+      <c r="I33" s="15">
+        <v>2714.1550000000002</v>
+      </c>
+      <c r="J33" s="15">
+        <v>3284.2510000000002</v>
+      </c>
+      <c r="K33" s="15">
+        <v>9320.09</v>
+      </c>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15">
+        <v>754.07100000000003</v>
+      </c>
+      <c r="N33" s="15">
+        <v>2071.7290899999998</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" hidden="1">
+      <c r="B34" s="16">
+        <v>2023</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="18">
+        <f t="shared" si="0"/>
+        <v>26501.790870000004</v>
+      </c>
+      <c r="E34" s="19">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19">
         <v>9688.0110000000004</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H34" s="19">
         <v>782.84</v>
       </c>
-      <c r="I32" s="19">
+      <c r="I34" s="19">
         <v>3020.3270000000002</v>
       </c>
-      <c r="J32" s="19">
+      <c r="J34" s="19">
         <v>2745.6669999999999</v>
       </c>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19">
+      <c r="K34" s="19">
         <v>7686.6450000000004</v>
       </c>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19">
+      <c r="L34" s="19"/>
+      <c r="M34" s="19">
         <v>685.12</v>
       </c>
-      <c r="O32" s="19">
+      <c r="N34" s="19">
         <v>1893.1698699999999</v>
       </c>
     </row>
-    <row r="33" spans="2:15" hidden="1">
-      <c r="B33" s="20">
+    <row r="35" spans="2:14" hidden="1">
+      <c r="B35" s="20">
         <v>2023</v>
       </c>
-      <c r="C33" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="22">
-        <f t="shared" si="1"/>
+      <c r="C35" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="22">
+        <f t="shared" si="0"/>
         <v>26308.171539999999</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E35" s="23">
         <v>2E-3</v>
       </c>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23">
+      <c r="F35" s="23"/>
+      <c r="G35" s="23">
         <v>8914.4519999999993</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H35" s="23">
         <v>734.09199999999998</v>
       </c>
-      <c r="I33" s="23">
+      <c r="I35" s="23">
         <v>3159.0940000000001</v>
       </c>
-      <c r="J33" s="23">
+      <c r="J35" s="23">
         <v>3012.8209999999999</v>
       </c>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23">
+      <c r="K35" s="23">
         <v>7907.8890000000001</v>
       </c>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23">
+      <c r="L35" s="23"/>
+      <c r="M35" s="23">
         <v>670.48</v>
       </c>
-      <c r="O33" s="23">
+      <c r="N35" s="23">
         <v>1909.3415400000001</v>
       </c>
     </row>
-    <row r="34" spans="2:15" hidden="1">
-      <c r="B34" s="24">
+    <row r="36" spans="2:14" hidden="1">
+      <c r="B36" s="24">
         <v>2022</v>
       </c>
-      <c r="C34" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="26">
-        <f t="shared" si="1"/>
+      <c r="C36" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="26">
+        <f t="shared" si="0"/>
         <v>29865.323240000002</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E36" s="27">
         <v>1E-3</v>
       </c>
-      <c r="F34" s="27">
+      <c r="F36" s="27">
         <v>12.166</v>
       </c>
-      <c r="G34" s="27">
+      <c r="G36" s="27">
         <v>10484.763000000001</v>
       </c>
-      <c r="H34" s="27">
+      <c r="H36" s="27">
         <v>925.66499999999996</v>
       </c>
-      <c r="I34" s="27">
+      <c r="I36" s="27">
         <v>4138.0259999999998</v>
       </c>
-      <c r="J34" s="27">
+      <c r="J36" s="27">
         <v>3314.2310000000002</v>
       </c>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27">
+      <c r="K36" s="27">
         <v>7746.2759999999998</v>
       </c>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27">
+      <c r="L36" s="27"/>
+      <c r="M36" s="27">
         <v>961.79730000000006</v>
       </c>
-      <c r="O34" s="27">
+      <c r="N36" s="27">
         <v>2282.3979400000003</v>
       </c>
     </row>
-    <row r="35" spans="2:15" hidden="1">
-      <c r="B35" s="12">
-        <v>2022</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="14">
-        <f t="shared" si="1"/>
-        <v>29983.373589999999</v>
-      </c>
-      <c r="E35" s="15">
-        <v>2E-3</v>
-      </c>
-      <c r="F35" s="15">
-        <v>32.463999999999999</v>
-      </c>
-      <c r="G35" s="15">
-        <v>10081.717000000001</v>
-      </c>
-      <c r="H35" s="15">
-        <v>990.43700000000001</v>
-      </c>
-      <c r="I35" s="15">
-        <v>5149.683</v>
-      </c>
-      <c r="J35" s="15">
-        <v>3384.6909999999998</v>
-      </c>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15">
-        <v>7113.482</v>
-      </c>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15">
-        <v>970.55570000000012</v>
-      </c>
-      <c r="O35" s="15">
-        <v>2260.3418900000001</v>
-      </c>
-    </row>
-    <row r="36" spans="2:15" hidden="1">
-      <c r="B36" s="16">
-        <v>2022</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="18">
-        <f t="shared" si="1"/>
-        <v>29295.863820000002</v>
-      </c>
-      <c r="E36" s="19">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F36" s="19">
-        <v>31.343</v>
-      </c>
-      <c r="G36" s="19">
-        <v>9947.3389999999999</v>
-      </c>
-      <c r="H36" s="19">
-        <v>926.49599999999998</v>
-      </c>
-      <c r="I36" s="19">
-        <v>5335.3050000000003</v>
-      </c>
-      <c r="J36" s="19">
-        <v>3159.48</v>
-      </c>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19">
-        <v>6728.7049999999999</v>
-      </c>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19">
-        <v>979.74129999999991</v>
-      </c>
-      <c r="O36" s="19">
-        <v>2187.4515200000001</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" hidden="1">
+    <row r="37" spans="2:14" hidden="1">
       <c r="B37" s="12">
         <v>2022</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D37" s="14">
-        <f t="shared" si="1"/>
-        <v>26447.132749999997</v>
+        <f t="shared" si="0"/>
+        <v>29983.373589999999</v>
       </c>
       <c r="E37" s="15">
         <v>2E-3</v>
       </c>
       <c r="F37" s="15">
-        <v>23.175000000000001</v>
+        <v>32.463999999999999</v>
       </c>
       <c r="G37" s="15">
-        <v>9081.3619999999992</v>
+        <v>10081.717000000001</v>
       </c>
       <c r="H37" s="15">
-        <v>703.86900000000003</v>
+        <v>990.43700000000001</v>
       </c>
       <c r="I37" s="15">
-        <v>4176.1049999999996</v>
+        <v>5149.683</v>
       </c>
       <c r="J37" s="15">
-        <v>3254.7069999999999</v>
-      </c>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15">
-        <v>6617.3549999999996</v>
-      </c>
-      <c r="M37" s="15"/>
+        <v>3384.6909999999998</v>
+      </c>
+      <c r="K37" s="15">
+        <v>7113.482</v>
+      </c>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15">
+        <v>970.55570000000012</v>
+      </c>
       <c r="N37" s="15">
-        <v>824.20899999999995</v>
-      </c>
-      <c r="O37" s="15">
-        <v>1766.3487500000001</v>
-      </c>
-    </row>
-    <row r="38" spans="2:15" hidden="1">
+        <v>2260.3418900000001</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" hidden="1">
       <c r="B38" s="16">
         <v>2022</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D38" s="18">
+        <f t="shared" si="0"/>
+        <v>29295.863820000002</v>
+      </c>
+      <c r="E38" s="19">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F38" s="19">
+        <v>31.343</v>
+      </c>
+      <c r="G38" s="19">
+        <v>9947.3389999999999</v>
+      </c>
+      <c r="H38" s="19">
+        <v>926.49599999999998</v>
+      </c>
+      <c r="I38" s="19">
+        <v>5335.3050000000003</v>
+      </c>
+      <c r="J38" s="19">
+        <v>3159.48</v>
+      </c>
+      <c r="K38" s="19">
+        <v>6728.7049999999999</v>
+      </c>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19">
+        <v>979.74129999999991</v>
+      </c>
+      <c r="N38" s="19">
+        <v>2187.4515200000001</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" hidden="1">
+      <c r="B39" s="12">
+        <v>2022</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="14">
+        <f t="shared" ref="D39:D70" si="1">SUM(E39:N39)</f>
+        <v>26447.132749999997</v>
+      </c>
+      <c r="E39" s="15">
+        <v>2E-3</v>
+      </c>
+      <c r="F39" s="15">
+        <v>23.175000000000001</v>
+      </c>
+      <c r="G39" s="15">
+        <v>9081.3619999999992</v>
+      </c>
+      <c r="H39" s="15">
+        <v>703.86900000000003</v>
+      </c>
+      <c r="I39" s="15">
+        <v>4176.1049999999996</v>
+      </c>
+      <c r="J39" s="15">
+        <v>3254.7069999999999</v>
+      </c>
+      <c r="K39" s="15">
+        <v>6617.3549999999996</v>
+      </c>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15">
+        <v>824.20899999999995</v>
+      </c>
+      <c r="N39" s="15">
+        <v>1766.3487500000001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" hidden="1">
+      <c r="B40" s="16">
+        <v>2022</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="18">
         <f t="shared" si="1"/>
         <v>26279.741409999995</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E40" s="19">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F38" s="19">
+      <c r="F40" s="19">
         <v>28.286999999999999</v>
       </c>
-      <c r="G38" s="19">
+      <c r="G40" s="19">
         <v>9293.5259999999998</v>
       </c>
-      <c r="H38" s="19">
+      <c r="H40" s="19">
         <v>859.87</v>
       </c>
-      <c r="I38" s="19">
+      <c r="I40" s="19">
         <v>4037.6669999999999</v>
       </c>
-      <c r="J38" s="19">
+      <c r="J40" s="19">
         <v>3520.194</v>
       </c>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19">
+      <c r="K40" s="19">
         <v>5886.08</v>
       </c>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19">
+      <c r="L40" s="19"/>
+      <c r="M40" s="19">
         <v>804.58889999999997</v>
       </c>
-      <c r="O38" s="19">
+      <c r="N40" s="19">
         <v>1849.52451</v>
       </c>
     </row>
-    <row r="39" spans="2:15" hidden="1">
-      <c r="B39" s="12">
+    <row r="41" spans="2:14" hidden="1">
+      <c r="B41" s="12">
         <v>2022</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="14">
+      <c r="C41" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="14">
         <f t="shared" si="1"/>
         <v>30603.772699999998</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E41" s="15">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F41" s="15">
         <v>31.623000000000001</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G41" s="15">
         <v>9435.7099999999991</v>
       </c>
-      <c r="H39" s="15">
+      <c r="H41" s="15">
         <v>852.04499999999996</v>
       </c>
-      <c r="I39" s="15">
+      <c r="I41" s="15">
         <v>4353.799</v>
       </c>
-      <c r="J39" s="15">
+      <c r="J41" s="15">
         <v>3361.634</v>
       </c>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15">
+      <c r="K41" s="15">
         <v>10038.903</v>
       </c>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15">
+      <c r="L41" s="15"/>
+      <c r="M41" s="15">
         <v>692.77719999999999</v>
       </c>
-      <c r="O39" s="15">
+      <c r="N41" s="15">
         <v>1837.2745</v>
       </c>
     </row>
-    <row r="40" spans="2:15" hidden="1">
-      <c r="B40" s="16">
+    <row r="42" spans="2:14" hidden="1">
+      <c r="B42" s="16">
         <v>2022</v>
       </c>
-      <c r="C40" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="18">
+      <c r="C42" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="18">
         <f t="shared" si="1"/>
         <v>32911.434350000003</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E42" s="19">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F40" s="19">
+      <c r="F42" s="19">
         <v>29.89</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G42" s="19">
         <v>9434.6640000000007</v>
       </c>
-      <c r="H40" s="19">
+      <c r="H42" s="19">
         <v>704.59900000000005</v>
       </c>
-      <c r="I40" s="19">
+      <c r="I42" s="19">
         <v>4932.3429999999998</v>
       </c>
-      <c r="J40" s="19">
+      <c r="J42" s="19">
         <v>3363.165</v>
       </c>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19">
+      <c r="K42" s="19">
         <v>11698.642</v>
       </c>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19">
+      <c r="L42" s="19"/>
+      <c r="M42" s="19">
         <v>750.94670000000008</v>
       </c>
-      <c r="O40" s="19">
+      <c r="N42" s="19">
         <v>1997.1796499999998</v>
       </c>
     </row>
-    <row r="41" spans="2:15" hidden="1">
-      <c r="B41" s="12">
+    <row r="43" spans="2:14" hidden="1">
+      <c r="B43" s="12">
         <v>2022</v>
       </c>
-      <c r="C41" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" s="14">
+      <c r="C43" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="14">
         <f t="shared" si="1"/>
         <v>32136.140250000004</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E43" s="15">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F43" s="15">
         <v>28.506</v>
       </c>
-      <c r="G41" s="15">
+      <c r="G43" s="15">
         <v>9520.1350000000002</v>
       </c>
-      <c r="H41" s="15">
+      <c r="H43" s="15">
         <v>707.80499999999995</v>
       </c>
-      <c r="I41" s="15">
+      <c r="I43" s="15">
         <v>5145.5190000000002</v>
       </c>
-      <c r="J41" s="15">
+      <c r="J43" s="15">
         <v>3217.3589999999999</v>
       </c>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15">
+      <c r="K43" s="15">
         <v>10677.519</v>
       </c>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15">
+      <c r="L43" s="15"/>
+      <c r="M43" s="15">
         <v>667.7</v>
       </c>
-      <c r="O41" s="15">
+      <c r="N43" s="15">
         <v>2171.5932499999999</v>
       </c>
     </row>
-    <row r="42" spans="2:15" hidden="1">
-      <c r="B42" s="16">
+    <row r="44" spans="2:14" hidden="1">
+      <c r="B44" s="16">
         <v>2022</v>
       </c>
-      <c r="C42" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="18">
+      <c r="C44" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="18">
         <f t="shared" si="1"/>
         <v>27514.741269999999</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E44" s="19">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F42" s="19">
+      <c r="F44" s="19">
         <v>33.442</v>
       </c>
-      <c r="G42" s="19">
+      <c r="G44" s="19">
         <v>8677.1650000000009</v>
       </c>
-      <c r="H42" s="19">
+      <c r="H44" s="19">
         <v>704.93700000000001</v>
       </c>
-      <c r="I42" s="19">
+      <c r="I44" s="19">
         <v>4385.1239999999998</v>
       </c>
-      <c r="J42" s="19">
+      <c r="J44" s="19">
         <v>3089.9090000000001</v>
       </c>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19">
+      <c r="K44" s="19">
         <v>7847.8879999999999</v>
       </c>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19">
+      <c r="L44" s="19"/>
+      <c r="M44" s="19">
         <v>761.38699999999994</v>
       </c>
-      <c r="O42" s="19">
+      <c r="N44" s="19">
         <v>2014.8862699999997</v>
       </c>
     </row>
-    <row r="43" spans="2:15" hidden="1">
-      <c r="B43" s="12">
+    <row r="45" spans="2:14" hidden="1">
+      <c r="B45" s="12">
         <v>2022</v>
       </c>
-      <c r="C43" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" s="14">
+      <c r="C45" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="14">
         <f t="shared" si="1"/>
         <v>30859.440460000002</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E45" s="15">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F45" s="15">
         <v>30.175999999999998</v>
       </c>
-      <c r="G43" s="15">
+      <c r="G45" s="15">
         <v>9761.2630000000008</v>
       </c>
-      <c r="H43" s="15">
+      <c r="H45" s="15">
         <v>1009.9829999999999</v>
       </c>
-      <c r="I43" s="15">
+      <c r="I45" s="15">
         <v>6578.5140000000001</v>
       </c>
-      <c r="J43" s="15">
+      <c r="J45" s="15">
         <v>3448.0540000000001</v>
       </c>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15">
+      <c r="K45" s="15">
         <v>7191.5020000000004</v>
       </c>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15">
+      <c r="L45" s="15"/>
+      <c r="M45" s="15">
         <v>742.69299999999998</v>
       </c>
-      <c r="O43" s="15">
+      <c r="N45" s="15">
         <v>2097.25146</v>
       </c>
     </row>
-    <row r="44" spans="2:15" hidden="1">
-      <c r="B44" s="16">
+    <row r="46" spans="2:14" hidden="1">
+      <c r="B46" s="16">
         <v>2022</v>
       </c>
-      <c r="C44" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D44" s="18">
+      <c r="C46" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="18">
         <f t="shared" si="1"/>
         <v>26857.410190000002</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E46" s="19">
         <v>0</v>
       </c>
-      <c r="F44" s="19">
+      <c r="F46" s="19">
         <v>26.463999999999999</v>
       </c>
-      <c r="G44" s="19">
+      <c r="G46" s="19">
         <v>8399.2009999999991</v>
       </c>
-      <c r="H44" s="19">
+      <c r="H46" s="19">
         <v>816.23900000000003</v>
       </c>
-      <c r="I44" s="19">
+      <c r="I46" s="19">
         <v>4488.2250000000004</v>
       </c>
-      <c r="J44" s="19">
+      <c r="J46" s="19">
         <v>3087.74</v>
       </c>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19">
+      <c r="K46" s="19">
         <v>7675.5219999999999</v>
       </c>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19">
+      <c r="L46" s="19"/>
+      <c r="M46" s="19">
         <v>680.0145</v>
       </c>
-      <c r="O44" s="19">
+      <c r="N46" s="19">
         <v>1684.00469</v>
       </c>
     </row>
-    <row r="45" spans="2:15" hidden="1">
-      <c r="B45" s="20">
+    <row r="47" spans="2:14" hidden="1">
+      <c r="B47" s="20">
         <v>2022</v>
       </c>
-      <c r="C45" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D45" s="22">
+      <c r="C47" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="22">
         <f t="shared" si="1"/>
         <v>26010.419900000001</v>
       </c>
-      <c r="E45" s="23">
+      <c r="E47" s="23">
         <v>0.01</v>
       </c>
-      <c r="F45" s="23">
+      <c r="F47" s="23">
         <v>29.917000000000002</v>
       </c>
-      <c r="G45" s="23">
+      <c r="G47" s="23">
         <v>8064.9719999999998</v>
       </c>
-      <c r="H45" s="23">
+      <c r="H47" s="23">
         <v>759.41499999999996</v>
       </c>
-      <c r="I45" s="23">
+      <c r="I47" s="23">
         <v>4874.95</v>
       </c>
-      <c r="J45" s="23">
+      <c r="J47" s="23">
         <v>3142.1970000000001</v>
       </c>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23">
+      <c r="K47" s="23">
         <v>6776.384</v>
       </c>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23">
+      <c r="L47" s="23"/>
+      <c r="M47" s="23">
         <v>751.90069999999992</v>
       </c>
-      <c r="O45" s="23">
+      <c r="N47" s="23">
         <v>1610.6742000000002</v>
       </c>
     </row>
-    <row r="46" spans="2:15" hidden="1">
-      <c r="B46" s="24">
+    <row r="48" spans="2:14" hidden="1">
+      <c r="B48" s="24">
         <v>2021</v>
       </c>
-      <c r="C46" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46" s="26">
+      <c r="C48" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="26">
         <f t="shared" si="1"/>
         <v>31566.167749999997</v>
       </c>
-      <c r="E46" s="27">
+      <c r="E48" s="27">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F46" s="27">
+      <c r="F48" s="27">
         <v>37.055</v>
       </c>
-      <c r="G46" s="27">
+      <c r="G48" s="27">
         <v>9575.5380000000005</v>
       </c>
-      <c r="H46" s="27">
+      <c r="H48" s="27">
         <v>889.38</v>
       </c>
-      <c r="I46" s="27">
+      <c r="I48" s="27">
         <v>6288.674</v>
       </c>
-      <c r="J46" s="27">
+      <c r="J48" s="27">
         <v>4403.6390000000001</v>
       </c>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27">
+      <c r="K48" s="27">
         <v>7812.2049999999999</v>
       </c>
-      <c r="M46" s="27"/>
-      <c r="N46" s="27">
+      <c r="L48" s="27"/>
+      <c r="M48" s="27">
         <v>644.26139999999998</v>
       </c>
-      <c r="O46" s="27">
+      <c r="N48" s="27">
         <v>1915.4123500000001</v>
       </c>
     </row>
-    <row r="47" spans="2:15" hidden="1">
-      <c r="B47" s="12">
+    <row r="49" spans="2:14" hidden="1">
+      <c r="B49" s="12">
         <v>2021</v>
       </c>
-      <c r="C47" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="14">
+      <c r="C49" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="14">
         <f t="shared" si="1"/>
         <v>29944.972509999996</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E49" s="15">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F47" s="15">
+      <c r="F49" s="15">
         <v>42.304000000000002</v>
       </c>
-      <c r="G47" s="15">
+      <c r="G49" s="15">
         <v>8541.3799999999992</v>
       </c>
-      <c r="H47" s="15">
+      <c r="H49" s="15">
         <v>797.55100000000004</v>
       </c>
-      <c r="I47" s="15">
+      <c r="I49" s="15">
         <v>5779.326</v>
       </c>
-      <c r="J47" s="15">
+      <c r="J49" s="15">
         <v>3742.5929999999998</v>
       </c>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15">
+      <c r="K49" s="15">
         <v>8308.2459999999992</v>
       </c>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15">
+      <c r="L49" s="15"/>
+      <c r="M49" s="15">
         <v>761.88139999999999</v>
       </c>
-      <c r="O47" s="15">
+      <c r="N49" s="15">
         <v>1971.6851100000001</v>
       </c>
     </row>
-    <row r="48" spans="2:15" hidden="1">
-      <c r="B48" s="16">
+    <row r="50" spans="2:14" hidden="1">
+      <c r="B50" s="16">
         <v>2021</v>
       </c>
-      <c r="C48" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="18">
+      <c r="C50" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="18">
         <f t="shared" si="1"/>
         <v>30000.867740000002</v>
       </c>
-      <c r="E48" s="19">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="F48" s="19">
-        <v>29.148</v>
-      </c>
-      <c r="G48" s="19">
-        <v>9141.5849999999991</v>
-      </c>
-      <c r="H48" s="19">
-        <v>935.53599999999994</v>
-      </c>
-      <c r="I48" s="19">
-        <v>5740.3919999999998</v>
-      </c>
-      <c r="J48" s="19">
-        <v>3221.6640000000002</v>
-      </c>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19">
-        <v>8292.1039999999994</v>
-      </c>
-      <c r="M48" s="19"/>
-      <c r="N48" s="19">
-        <v>722.20399999999995</v>
-      </c>
-      <c r="O48" s="19">
-        <v>1918.2237399999999</v>
-      </c>
-    </row>
-    <row r="49" spans="2:15" hidden="1">
-      <c r="B49" s="12">
-        <v>2021</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D49" s="14">
-        <f t="shared" ref="D49:D80" si="3">SUM(E49:O49)</f>
-        <v>25044.998970000004</v>
-      </c>
-      <c r="E49" s="15">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="F49" s="15">
-        <v>27.141999999999999</v>
-      </c>
-      <c r="G49" s="15">
-        <v>7906.91</v>
-      </c>
-      <c r="H49" s="15">
-        <v>875.76900000000001</v>
-      </c>
-      <c r="I49" s="15">
-        <v>4566.3109999999997</v>
-      </c>
-      <c r="J49" s="15">
-        <v>3115.0770000000002</v>
-      </c>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15">
-        <v>6415.2790000000005</v>
-      </c>
-      <c r="M49" s="15"/>
-      <c r="N49" s="15">
-        <v>491.27</v>
-      </c>
-      <c r="O49" s="15">
-        <v>1647.23197</v>
-      </c>
-    </row>
-    <row r="50" spans="2:15" hidden="1">
-      <c r="B50" s="16">
-        <v>2021</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50" s="18">
-        <f t="shared" si="3"/>
-        <v>26801.51179</v>
-      </c>
       <c r="E50" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="F50" s="19">
-        <v>26.024000000000001</v>
+        <v>29.148</v>
       </c>
       <c r="G50" s="19">
-        <v>7787.3339999999998</v>
+        <v>9141.5849999999991</v>
       </c>
       <c r="H50" s="19">
-        <v>951.82</v>
+        <v>935.53599999999994</v>
       </c>
       <c r="I50" s="19">
-        <v>5861.0240000000003</v>
+        <v>5740.3919999999998</v>
       </c>
       <c r="J50" s="19">
-        <v>2963.1660000000002</v>
-      </c>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19">
-        <v>6924.8339999999998</v>
-      </c>
-      <c r="M50" s="19"/>
+        <v>3221.6640000000002</v>
+      </c>
+      <c r="K50" s="19">
+        <v>8292.1039999999994</v>
+      </c>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19">
+        <v>722.20399999999995</v>
+      </c>
       <c r="N50" s="19">
-        <v>590.37950000000001</v>
-      </c>
-      <c r="O50" s="19">
-        <v>1696.91929</v>
-      </c>
-    </row>
-    <row r="51" spans="2:15" hidden="1">
+        <v>1918.2237399999999</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" hidden="1">
       <c r="B51" s="12">
         <v>2021</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D51" s="14">
-        <f t="shared" si="3"/>
-        <v>29570.534019999996</v>
+        <f t="shared" si="1"/>
+        <v>25044.998970000004</v>
       </c>
       <c r="E51" s="15">
-        <v>1.6E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="F51" s="15">
-        <v>33.762999999999998</v>
+        <v>27.141999999999999</v>
       </c>
       <c r="G51" s="15">
-        <v>7960.9809999999998</v>
+        <v>7906.91</v>
       </c>
       <c r="H51" s="15">
-        <v>980.41300000000001</v>
+        <v>875.76900000000001</v>
       </c>
       <c r="I51" s="15">
-        <v>6238.2730000000001</v>
+        <v>4566.3109999999997</v>
       </c>
       <c r="J51" s="15">
-        <v>3189.866</v>
-      </c>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15">
-        <v>8884.8860000000004</v>
-      </c>
-      <c r="M51" s="15"/>
+        <v>3115.0770000000002</v>
+      </c>
+      <c r="K51" s="15">
+        <v>6415.2790000000005</v>
+      </c>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15">
+        <v>491.27</v>
+      </c>
       <c r="N51" s="15">
-        <v>570.02250000000004</v>
-      </c>
-      <c r="O51" s="15">
-        <v>1712.3135199999999</v>
-      </c>
-    </row>
-    <row r="52" spans="2:15" hidden="1">
+        <v>1647.23197</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" hidden="1">
       <c r="B52" s="16">
         <v>2021</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D52" s="18">
-        <f t="shared" si="3"/>
-        <v>26984.257880000001</v>
+        <f t="shared" si="1"/>
+        <v>26801.51179</v>
       </c>
       <c r="E52" s="19">
-        <v>2.5999999999999999E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="F52" s="19">
-        <v>30.326000000000001</v>
+        <v>26.024000000000001</v>
       </c>
       <c r="G52" s="19">
-        <v>6994.8090000000002</v>
+        <v>7787.3339999999998</v>
       </c>
       <c r="H52" s="19">
-        <v>938.22799999999995</v>
+        <v>951.82</v>
       </c>
       <c r="I52" s="19">
-        <v>5685.7610000000004</v>
+        <v>5861.0240000000003</v>
       </c>
       <c r="J52" s="19">
-        <v>2933.55</v>
-      </c>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19">
-        <v>8239.3950000000004</v>
-      </c>
-      <c r="M52" s="19"/>
+        <v>2963.1660000000002</v>
+      </c>
+      <c r="K52" s="19">
+        <v>6924.8339999999998</v>
+      </c>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19">
+        <v>590.37950000000001</v>
+      </c>
       <c r="N52" s="19">
-        <v>517.37900000000002</v>
-      </c>
-      <c r="O52" s="19">
-        <v>1644.78388</v>
-      </c>
-    </row>
-    <row r="53" spans="2:15" hidden="1">
+        <v>1696.91929</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" hidden="1">
       <c r="B53" s="12">
         <v>2021</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D53" s="14">
-        <f t="shared" si="3"/>
-        <v>27395.161769999999</v>
+        <f t="shared" si="1"/>
+        <v>29570.534019999996</v>
       </c>
       <c r="E53" s="15">
-        <v>1.2E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F53" s="15">
-        <v>34.064</v>
+        <v>33.762999999999998</v>
       </c>
       <c r="G53" s="15">
-        <v>5853.0280000000002</v>
+        <v>7960.9809999999998</v>
       </c>
       <c r="H53" s="15">
-        <v>804.99099999999999</v>
+        <v>980.41300000000001</v>
       </c>
       <c r="I53" s="15">
-        <v>6221.6310000000003</v>
+        <v>6238.2730000000001</v>
       </c>
       <c r="J53" s="15">
-        <v>2753.0189999999998</v>
-      </c>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15">
-        <v>9369.7039999999997</v>
-      </c>
-      <c r="M53" s="15"/>
+        <v>3189.866</v>
+      </c>
+      <c r="K53" s="15">
+        <v>8884.8860000000004</v>
+      </c>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15">
+        <v>570.02250000000004</v>
+      </c>
       <c r="N53" s="15">
-        <v>581.25</v>
-      </c>
-      <c r="O53" s="15">
-        <v>1777.4627700000001</v>
-      </c>
-    </row>
-    <row r="54" spans="2:15" hidden="1">
+        <v>1712.3135199999999</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" hidden="1">
       <c r="B54" s="16">
         <v>2021</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D54" s="18">
-        <f t="shared" si="3"/>
-        <v>26794.383829999999</v>
+        <f t="shared" si="1"/>
+        <v>26984.257880000001</v>
       </c>
       <c r="E54" s="19">
-        <v>1.4E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="F54" s="19">
-        <v>28.870999999999999</v>
+        <v>30.326000000000001</v>
       </c>
       <c r="G54" s="19">
-        <v>5583.2060000000001</v>
+        <v>6994.8090000000002</v>
       </c>
       <c r="H54" s="19">
-        <v>855.89099999999996</v>
+        <v>938.22799999999995</v>
       </c>
       <c r="I54" s="19">
-        <v>5955.3379999999997</v>
+        <v>5685.7610000000004</v>
       </c>
       <c r="J54" s="19">
-        <v>2553.587</v>
-      </c>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19">
-        <v>9635.8649999999998</v>
-      </c>
-      <c r="M54" s="19"/>
+        <v>2933.55</v>
+      </c>
+      <c r="K54" s="19">
+        <v>8239.3950000000004</v>
+      </c>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19">
+        <v>517.37900000000002</v>
+      </c>
       <c r="N54" s="19">
-        <v>569.29200000000003</v>
-      </c>
-      <c r="O54" s="19">
-        <v>1612.3198300000001</v>
-      </c>
-    </row>
-    <row r="55" spans="2:15" hidden="1">
+        <v>1644.78388</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" hidden="1">
       <c r="B55" s="12">
         <v>2021</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D55" s="14">
-        <f t="shared" si="3"/>
-        <v>28888.855879999999</v>
+        <f t="shared" si="1"/>
+        <v>27395.161769999999</v>
       </c>
       <c r="E55" s="15">
-        <v>0.01</v>
+        <v>1.2E-2</v>
       </c>
       <c r="F55" s="15">
-        <v>30.994</v>
+        <v>34.064</v>
       </c>
       <c r="G55" s="15">
-        <v>5972.1139999999996</v>
+        <v>5853.0280000000002</v>
       </c>
       <c r="H55" s="15">
-        <v>961.24900000000002</v>
+        <v>804.99099999999999</v>
       </c>
       <c r="I55" s="15">
-        <v>6821.0630000000001</v>
+        <v>6221.6310000000003</v>
       </c>
       <c r="J55" s="15">
-        <v>2527.971</v>
-      </c>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15">
-        <v>10350.735000000001</v>
-      </c>
-      <c r="M55" s="15"/>
+        <v>2753.0189999999998</v>
+      </c>
+      <c r="K55" s="15">
+        <v>9369.7039999999997</v>
+      </c>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15">
+        <v>581.25</v>
+      </c>
       <c r="N55" s="15">
-        <v>537.19399999999996</v>
-      </c>
-      <c r="O55" s="15">
-        <v>1687.5258799999999</v>
-      </c>
-    </row>
-    <row r="56" spans="2:15" hidden="1">
+        <v>1777.4627700000001</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" hidden="1">
       <c r="B56" s="16">
         <v>2021</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D56" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
+        <v>26794.383829999999</v>
+      </c>
+      <c r="E56" s="19">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F56" s="19">
+        <v>28.870999999999999</v>
+      </c>
+      <c r="G56" s="19">
+        <v>5583.2060000000001</v>
+      </c>
+      <c r="H56" s="19">
+        <v>855.89099999999996</v>
+      </c>
+      <c r="I56" s="19">
+        <v>5955.3379999999997</v>
+      </c>
+      <c r="J56" s="19">
+        <v>2553.587</v>
+      </c>
+      <c r="K56" s="19">
+        <v>9635.8649999999998</v>
+      </c>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19">
+        <v>569.29200000000003</v>
+      </c>
+      <c r="N56" s="19">
+        <v>1612.3198300000001</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" hidden="1">
+      <c r="B57" s="12">
+        <v>2021</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="14">
+        <f t="shared" si="1"/>
+        <v>28888.855879999999</v>
+      </c>
+      <c r="E57" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F57" s="15">
+        <v>30.994</v>
+      </c>
+      <c r="G57" s="15">
+        <v>5972.1139999999996</v>
+      </c>
+      <c r="H57" s="15">
+        <v>961.24900000000002</v>
+      </c>
+      <c r="I57" s="15">
+        <v>6821.0630000000001</v>
+      </c>
+      <c r="J57" s="15">
+        <v>2527.971</v>
+      </c>
+      <c r="K57" s="15">
+        <v>10350.735000000001</v>
+      </c>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15">
+        <v>537.19399999999996</v>
+      </c>
+      <c r="N57" s="15">
+        <v>1687.5258799999999</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" hidden="1">
+      <c r="B58" s="16">
+        <v>2021</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="18">
+        <f t="shared" si="1"/>
         <v>25842.507199999996</v>
       </c>
-      <c r="E56" s="19">
+      <c r="E58" s="19">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F56" s="19">
+      <c r="F58" s="19">
         <v>23.164999999999999</v>
       </c>
-      <c r="G56" s="19">
+      <c r="G58" s="19">
         <v>5676.3119999999999</v>
       </c>
-      <c r="H56" s="19">
+      <c r="H58" s="19">
         <v>842.12599999999998</v>
       </c>
-      <c r="I56" s="19">
+      <c r="I58" s="19">
         <v>6447.9210000000003</v>
       </c>
-      <c r="J56" s="19">
+      <c r="J58" s="19">
         <v>2143.1759999999999</v>
       </c>
-      <c r="K56" s="19"/>
-      <c r="L56" s="19">
+      <c r="K58" s="19">
         <v>8771.1730000000007</v>
       </c>
-      <c r="M56" s="19"/>
-      <c r="N56" s="19">
+      <c r="L58" s="19"/>
+      <c r="M58" s="19">
         <v>441.65600000000001</v>
       </c>
-      <c r="O56" s="19">
+      <c r="N58" s="19">
         <v>1496.9692</v>
       </c>
     </row>
-    <row r="57" spans="2:15" hidden="1">
-      <c r="B57" s="20">
+    <row r="59" spans="2:14" hidden="1">
+      <c r="B59" s="20">
         <v>2021</v>
       </c>
-      <c r="C57" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D57" s="22">
-        <f t="shared" si="3"/>
+      <c r="C59" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" s="22">
+        <f t="shared" si="1"/>
         <v>26743.09706</v>
       </c>
-      <c r="E57" s="23">
+      <c r="E59" s="23">
         <v>2.3E-2</v>
       </c>
-      <c r="F57" s="23">
+      <c r="F59" s="23">
         <v>22.483000000000001</v>
       </c>
-      <c r="G57" s="23">
+      <c r="G59" s="23">
         <v>5633.7330000000002</v>
       </c>
-      <c r="H57" s="23">
+      <c r="H59" s="23">
         <v>893.20500000000004</v>
       </c>
-      <c r="I57" s="23">
+      <c r="I59" s="23">
         <v>5852.174</v>
       </c>
-      <c r="J57" s="23">
+      <c r="J59" s="23">
         <v>2714.6959999999999</v>
       </c>
-      <c r="K57" s="23"/>
-      <c r="L57" s="23">
+      <c r="K59" s="23">
         <v>9764.4040000000005</v>
       </c>
-      <c r="M57" s="23"/>
-      <c r="N57" s="23">
+      <c r="L59" s="23"/>
+      <c r="M59" s="23">
         <v>374.46</v>
       </c>
-      <c r="O57" s="23">
+      <c r="N59" s="23">
         <v>1487.9190599999999</v>
       </c>
     </row>
-    <row r="58" spans="2:15" hidden="1">
-      <c r="B58" s="24">
+    <row r="60" spans="2:14" hidden="1">
+      <c r="B60" s="24">
         <v>2020</v>
       </c>
-      <c r="C58" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D58" s="26">
-        <f t="shared" si="3"/>
-        <v>29335.748110000004</v>
-      </c>
-      <c r="E58" s="27">
+      <c r="C60" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" s="26">
+        <f t="shared" si="1"/>
+        <v>29319.336610000002</v>
+      </c>
+      <c r="E60" s="27">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F58" s="27">
+      <c r="F60" s="27">
         <v>30.75</v>
       </c>
-      <c r="G58" s="27">
+      <c r="G60" s="27">
         <v>5388.74</v>
       </c>
-      <c r="H58" s="27">
+      <c r="H60" s="27">
         <v>1227.8499999999999</v>
       </c>
-      <c r="I58" s="27">
+      <c r="I60" s="27">
         <v>8063.0550000000003</v>
       </c>
-      <c r="J58" s="27">
+      <c r="J60" s="27">
         <v>3485.029</v>
       </c>
-      <c r="K58" s="27">
-        <v>16.4115</v>
-      </c>
-      <c r="L58" s="27">
+      <c r="K60" s="27">
         <v>8808.3330000000005</v>
       </c>
-      <c r="M58" s="27"/>
-      <c r="N58" s="27">
+      <c r="L60" s="27"/>
+      <c r="M60" s="27">
         <v>499.45499999999998</v>
       </c>
-      <c r="O58" s="27">
+      <c r="N60" s="27">
         <v>1816.0996100000002</v>
       </c>
     </row>
-    <row r="59" spans="2:15" hidden="1">
-      <c r="B59" s="12">
-        <v>2020</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D59" s="14">
-        <f t="shared" si="3"/>
-        <v>31111.598979999999</v>
-      </c>
-      <c r="E59" s="15">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="F59" s="15">
-        <v>29.420999999999999</v>
-      </c>
-      <c r="G59" s="15">
-        <v>4646.3059999999996</v>
-      </c>
-      <c r="H59" s="15">
-        <v>918.31700000000001</v>
-      </c>
-      <c r="I59" s="15">
-        <v>10405.393</v>
-      </c>
-      <c r="J59" s="15">
-        <v>3080.1370000000002</v>
-      </c>
-      <c r="K59" s="15">
-        <v>86.034999999999997</v>
-      </c>
-      <c r="L59" s="15">
-        <v>9680.3340000000007</v>
-      </c>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15">
-        <v>427.87200000000001</v>
-      </c>
-      <c r="O59" s="15">
-        <v>1837.75198</v>
-      </c>
-    </row>
-    <row r="60" spans="2:15" hidden="1">
-      <c r="B60" s="16">
-        <v>2020</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D60" s="18">
-        <f t="shared" si="3"/>
-        <v>29198.211449999999</v>
-      </c>
-      <c r="E60" s="19">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="F60" s="19">
-        <v>25.18</v>
-      </c>
-      <c r="G60" s="19">
-        <v>4168.3999999999996</v>
-      </c>
-      <c r="H60" s="19">
-        <v>855.53599999999994</v>
-      </c>
-      <c r="I60" s="19">
-        <v>9141.11</v>
-      </c>
-      <c r="J60" s="19">
-        <v>2910.5740000000001</v>
-      </c>
-      <c r="K60" s="19">
-        <v>131.53100000000001</v>
-      </c>
-      <c r="L60" s="19">
-        <v>9811.7209999999995</v>
-      </c>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19">
-        <v>328.78100000000001</v>
-      </c>
-      <c r="O60" s="19">
-        <v>1825.3604499999999</v>
-      </c>
-    </row>
-    <row r="61" spans="2:15" hidden="1">
+    <row r="61" spans="2:14" hidden="1">
       <c r="B61" s="12">
         <v>2020</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D61" s="14">
-        <f t="shared" si="3"/>
-        <v>25824.25403</v>
+        <f t="shared" si="1"/>
+        <v>31025.563980000003</v>
       </c>
       <c r="E61" s="15">
-        <v>1.6E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="F61" s="15">
-        <v>19.38</v>
+        <v>29.420999999999999</v>
       </c>
       <c r="G61" s="15">
-        <v>3354.4870000000001</v>
+        <v>4646.3059999999996</v>
       </c>
       <c r="H61" s="15">
-        <v>815.01599999999996</v>
+        <v>918.31700000000001</v>
       </c>
       <c r="I61" s="15">
-        <v>9094.2099999999991</v>
+        <v>10405.393</v>
       </c>
       <c r="J61" s="15">
-        <v>2742.8449999999998</v>
+        <v>3080.1370000000002</v>
       </c>
       <c r="K61" s="15">
-        <v>94.078000000000003</v>
-      </c>
-      <c r="L61" s="15">
-        <v>7889.5420000000004</v>
-      </c>
-      <c r="M61" s="15"/>
+        <v>9680.3340000000007</v>
+      </c>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15">
+        <v>427.87200000000001</v>
+      </c>
       <c r="N61" s="15">
-        <v>300.25099999999998</v>
-      </c>
-      <c r="O61" s="15">
-        <v>1514.42903</v>
-      </c>
-    </row>
-    <row r="62" spans="2:15" hidden="1">
+        <v>1837.75198</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" hidden="1">
       <c r="B62" s="16">
         <v>2020</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D62" s="18">
-        <f t="shared" si="3"/>
-        <v>23354.829529999999</v>
+        <f t="shared" si="1"/>
+        <v>29066.680449999996</v>
       </c>
       <c r="E62" s="19">
-        <v>1.0999999999999999E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F62" s="19">
-        <v>19.126000000000001</v>
+        <v>25.18</v>
       </c>
       <c r="G62" s="19">
-        <v>2845.2860000000001</v>
+        <v>4168.3999999999996</v>
       </c>
       <c r="H62" s="19">
-        <v>913.84799999999996</v>
+        <v>855.53599999999994</v>
       </c>
       <c r="I62" s="19">
-        <v>8628.9339999999993</v>
+        <v>9141.11</v>
       </c>
       <c r="J62" s="19">
-        <v>2494.9360000000001</v>
+        <v>2910.5740000000001</v>
       </c>
       <c r="K62" s="19">
-        <v>102.148</v>
-      </c>
-      <c r="L62" s="19">
-        <v>6734.2569999999996</v>
-      </c>
-      <c r="M62" s="19"/>
+        <v>9811.7209999999995</v>
+      </c>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19">
+        <v>328.78100000000001</v>
+      </c>
       <c r="N62" s="19">
-        <v>214.13300000000001</v>
-      </c>
-      <c r="O62" s="19">
-        <v>1402.1505300000001</v>
-      </c>
-    </row>
-    <row r="63" spans="2:15" hidden="1">
+        <v>1825.3604499999999</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" hidden="1">
       <c r="B63" s="12">
         <v>2020</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D63" s="14">
-        <f t="shared" si="3"/>
-        <v>19260.244039999998</v>
+        <f t="shared" si="1"/>
+        <v>25730.176029999999</v>
       </c>
       <c r="E63" s="15">
-        <v>8.0000000000000002E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F63" s="15">
-        <v>18.687000000000001</v>
+        <v>19.38</v>
       </c>
       <c r="G63" s="15">
-        <v>2326.4090000000001</v>
+        <v>3354.4870000000001</v>
       </c>
       <c r="H63" s="15">
-        <v>969.73</v>
+        <v>815.01599999999996</v>
       </c>
       <c r="I63" s="15">
-        <v>5828.2169999999996</v>
+        <v>9094.2099999999991</v>
       </c>
       <c r="J63" s="15">
-        <v>2394.4169999999999</v>
+        <v>2742.8449999999998</v>
       </c>
       <c r="K63" s="15">
-        <v>76.744</v>
-      </c>
-      <c r="L63" s="15">
-        <v>6273.5619999999999</v>
-      </c>
-      <c r="M63" s="15"/>
+        <v>7889.5420000000004</v>
+      </c>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15">
+        <v>300.25099999999998</v>
+      </c>
       <c r="N63" s="15">
-        <v>151.30000000000001</v>
-      </c>
-      <c r="O63" s="15">
-        <v>1221.17004</v>
-      </c>
-    </row>
-    <row r="64" spans="2:15" hidden="1">
+        <v>1514.42903</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" hidden="1">
       <c r="B64" s="16">
         <v>2020</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D64" s="18">
-        <f t="shared" si="3"/>
-        <v>16681.950259999998</v>
+        <f t="shared" si="1"/>
+        <v>23252.681530000002</v>
       </c>
       <c r="E64" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="F64" s="19">
-        <v>15.773</v>
+        <v>19.126000000000001</v>
       </c>
       <c r="G64" s="19">
-        <v>1336.4849999999999</v>
+        <v>2845.2860000000001</v>
       </c>
       <c r="H64" s="19">
-        <v>585.92899999999997</v>
+        <v>913.84799999999996</v>
       </c>
       <c r="I64" s="19">
-        <v>5587.4769999999999</v>
+        <v>8628.9339999999993</v>
       </c>
       <c r="J64" s="19">
-        <v>2256.6930000000002</v>
+        <v>2494.9360000000001</v>
       </c>
       <c r="K64" s="19">
-        <v>42.146999999999998</v>
-      </c>
-      <c r="L64" s="19">
-        <v>5744.8710000000001</v>
-      </c>
-      <c r="M64" s="19"/>
+        <v>6734.2569999999996</v>
+      </c>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19">
+        <v>214.13300000000001</v>
+      </c>
       <c r="N64" s="19">
-        <v>118.29600000000001</v>
-      </c>
-      <c r="O64" s="19">
-        <v>994.26826000000005</v>
-      </c>
-    </row>
-    <row r="65" spans="2:15" hidden="1">
+        <v>1402.1505300000001</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" hidden="1">
       <c r="B65" s="12">
         <v>2020</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D65" s="14">
-        <f t="shared" si="3"/>
-        <v>15536.86291</v>
+        <f t="shared" si="1"/>
+        <v>19183.500039999999</v>
       </c>
       <c r="E65" s="15">
-        <v>3.0000000000000001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="F65" s="15">
-        <v>9.4559999999999995</v>
+        <v>18.687000000000001</v>
       </c>
       <c r="G65" s="15">
-        <v>799.72500000000002</v>
+        <v>2326.4090000000001</v>
       </c>
       <c r="H65" s="15">
-        <v>697.28700000000003</v>
+        <v>969.73</v>
       </c>
       <c r="I65" s="15">
-        <v>5542.4840000000004</v>
+        <v>5828.2169999999996</v>
       </c>
       <c r="J65" s="15">
-        <v>2132.3310000000001</v>
+        <v>2394.4169999999999</v>
       </c>
       <c r="K65" s="15">
-        <v>69.804000000000002</v>
-      </c>
-      <c r="L65" s="15">
-        <v>5558.576</v>
-      </c>
-      <c r="M65" s="15"/>
+        <v>6273.5619999999999</v>
+      </c>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15">
+        <v>151.30000000000001</v>
+      </c>
       <c r="N65" s="15">
-        <v>143.20510000000002</v>
-      </c>
-      <c r="O65" s="15">
-        <v>583.9918100000001</v>
-      </c>
-    </row>
-    <row r="66" spans="2:15" hidden="1">
+        <v>1221.17004</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" hidden="1">
       <c r="B66" s="16">
         <v>2020</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D66" s="18">
-        <f t="shared" si="3"/>
-        <v>13161.648870000003</v>
+        <f t="shared" si="1"/>
+        <v>16639.803259999997</v>
       </c>
       <c r="E66" s="19">
-        <v>7.0000000000000001E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="F66" s="19">
-        <v>7.4619999999999997</v>
+        <v>15.773</v>
       </c>
       <c r="G66" s="19">
-        <v>1038.125</v>
+        <v>1336.4849999999999</v>
       </c>
       <c r="H66" s="19">
-        <v>754.48400000000004</v>
+        <v>585.92899999999997</v>
       </c>
       <c r="I66" s="19">
-        <v>5034.1760000000004</v>
+        <v>5587.4769999999999</v>
       </c>
       <c r="J66" s="19">
-        <v>1894.93</v>
+        <v>2256.6930000000002</v>
       </c>
       <c r="K66" s="19">
-        <v>59.36</v>
-      </c>
-      <c r="L66" s="19">
-        <v>3753.6880000000001</v>
-      </c>
-      <c r="M66" s="19"/>
+        <v>5744.8710000000001</v>
+      </c>
+      <c r="L66" s="19"/>
+      <c r="M66" s="19">
+        <v>118.29600000000001</v>
+      </c>
       <c r="N66" s="19">
-        <v>60.6843</v>
-      </c>
-      <c r="O66" s="19">
-        <v>558.7325699999999</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" hidden="1">
+        <v>994.26826000000005</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" hidden="1">
       <c r="B67" s="12">
         <v>2020</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D67" s="14">
-        <f t="shared" si="3"/>
-        <v>22714.14399</v>
+        <f t="shared" si="1"/>
+        <v>15467.05891</v>
       </c>
       <c r="E67" s="15">
-        <v>3.1E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F67" s="15">
-        <v>35.988999999999997</v>
+        <v>9.4559999999999995</v>
       </c>
       <c r="G67" s="15">
-        <v>7356.9930000000004</v>
+        <v>799.72500000000002</v>
       </c>
       <c r="H67" s="15">
-        <v>1318.52</v>
+        <v>697.28700000000003</v>
       </c>
       <c r="I67" s="15">
-        <v>4797.09</v>
+        <v>5542.4840000000004</v>
       </c>
       <c r="J67" s="15">
-        <v>1722.712</v>
+        <v>2132.3310000000001</v>
       </c>
       <c r="K67" s="15">
-        <v>1659.4059999999999</v>
-      </c>
-      <c r="L67" s="15">
-        <v>4510.4480000000003</v>
-      </c>
-      <c r="M67" s="15"/>
+        <v>5558.576</v>
+      </c>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15">
+        <v>143.20510000000002</v>
+      </c>
       <c r="N67" s="15">
-        <v>102.3022</v>
-      </c>
-      <c r="O67" s="15">
-        <v>1210.6527900000001</v>
-      </c>
-    </row>
-    <row r="68" spans="2:15" hidden="1">
+        <v>583.9918100000001</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" hidden="1">
       <c r="B68" s="16">
         <v>2020</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D68" s="18">
-        <f t="shared" si="3"/>
-        <v>23622.028510000007</v>
+        <f t="shared" si="1"/>
+        <v>13102.288870000002</v>
       </c>
       <c r="E68" s="19">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F68" s="19">
+        <v>7.4619999999999997</v>
+      </c>
+      <c r="G68" s="19">
+        <v>1038.125</v>
+      </c>
+      <c r="H68" s="19">
+        <v>754.48400000000004</v>
+      </c>
+      <c r="I68" s="19">
+        <v>5034.1760000000004</v>
+      </c>
+      <c r="J68" s="19">
+        <v>1894.93</v>
+      </c>
+      <c r="K68" s="19">
+        <v>3753.6880000000001</v>
+      </c>
+      <c r="L68" s="19"/>
+      <c r="M68" s="19">
+        <v>60.6843</v>
+      </c>
+      <c r="N68" s="19">
+        <v>558.7325699999999</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" hidden="1">
+      <c r="B69" s="12">
+        <v>2020</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" s="14">
+        <f t="shared" si="1"/>
+        <v>21054.737990000001</v>
+      </c>
+      <c r="E69" s="15">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F69" s="15">
+        <v>35.988999999999997</v>
+      </c>
+      <c r="G69" s="15">
+        <v>7356.9930000000004</v>
+      </c>
+      <c r="H69" s="15">
+        <v>1318.52</v>
+      </c>
+      <c r="I69" s="15">
+        <v>4797.09</v>
+      </c>
+      <c r="J69" s="15">
+        <v>1722.712</v>
+      </c>
+      <c r="K69" s="15">
+        <v>4510.4480000000003</v>
+      </c>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15">
+        <v>102.3022</v>
+      </c>
+      <c r="N69" s="15">
+        <v>1210.6527900000001</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" hidden="1">
+      <c r="B70" s="16">
+        <v>2020</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="18">
+        <f t="shared" si="1"/>
+        <v>21338.277510000004</v>
+      </c>
+      <c r="E70" s="19">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F68" s="19">
+      <c r="F70" s="19">
         <v>56.369</v>
       </c>
-      <c r="G68" s="19">
+      <c r="G70" s="19">
         <v>9237.1190000000006</v>
       </c>
-      <c r="H68" s="19">
+      <c r="H70" s="19">
         <v>1428.3530000000001</v>
       </c>
-      <c r="I68" s="19">
+      <c r="I70" s="19">
         <v>3273.0720000000001</v>
       </c>
-      <c r="J68" s="19">
+      <c r="J70" s="19">
         <v>1520.239</v>
       </c>
-      <c r="K68" s="19">
-        <v>2283.7510000000002</v>
-      </c>
-      <c r="L68" s="19">
+      <c r="K70" s="19">
         <v>4116.8599999999997</v>
       </c>
-      <c r="M68" s="19"/>
-      <c r="N68" s="19">
+      <c r="L70" s="19"/>
+      <c r="M70" s="19">
         <v>132.3349</v>
       </c>
-      <c r="O68" s="19">
+      <c r="N70" s="19">
         <v>1573.90461</v>
       </c>
     </row>
-    <row r="69" spans="2:15" hidden="1">
-      <c r="B69" s="20">
+    <row r="71" spans="2:14" hidden="1">
+      <c r="B71" s="20">
         <v>2020</v>
       </c>
-      <c r="C69" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D69" s="22">
-        <f t="shared" si="3"/>
-        <v>26687.883509999996</v>
-      </c>
-      <c r="E69" s="23">
+      <c r="C71" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" s="22">
+        <f t="shared" ref="D71:D102" si="2">SUM(E71:N71)</f>
+        <v>24231.444509999998</v>
+      </c>
+      <c r="E71" s="23">
         <v>4.7E-2</v>
       </c>
-      <c r="F69" s="23">
+      <c r="F71" s="23">
         <v>53.219000000000001</v>
       </c>
-      <c r="G69" s="23">
+      <c r="G71" s="23">
         <v>8754.5229999999992</v>
       </c>
-      <c r="H69" s="23">
+      <c r="H71" s="23">
         <v>1369.674</v>
       </c>
-      <c r="I69" s="23">
+      <c r="I71" s="23">
         <v>5338.8549999999996</v>
       </c>
-      <c r="J69" s="23">
+      <c r="J71" s="23">
         <v>1679.8140000000001</v>
       </c>
-      <c r="K69" s="23">
-        <v>2456.4389999999999</v>
-      </c>
-      <c r="L69" s="23">
+      <c r="K71" s="23">
         <v>5287.6</v>
       </c>
-      <c r="M69" s="23"/>
-      <c r="N69" s="23">
+      <c r="L71" s="23"/>
+      <c r="M71" s="23">
         <v>71.972800000000007</v>
       </c>
-      <c r="O69" s="23">
+      <c r="N71" s="23">
         <v>1675.7397100000001</v>
       </c>
     </row>
-    <row r="70" spans="2:15" hidden="1">
-      <c r="B70" s="24">
+    <row r="72" spans="2:14" hidden="1">
+      <c r="B72" s="24">
         <v>2019</v>
       </c>
-      <c r="C70" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D70" s="26">
-        <f t="shared" si="3"/>
-        <v>31427.187729999998</v>
-      </c>
-      <c r="E70" s="27">
+      <c r="C72" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="26">
+        <f t="shared" si="2"/>
+        <v>28498.730729999996</v>
+      </c>
+      <c r="E72" s="27">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="F70" s="27">
+      <c r="F72" s="27">
         <v>86.153999999999996</v>
       </c>
-      <c r="G70" s="27">
+      <c r="G72" s="27">
         <v>9577.1149999999998</v>
       </c>
-      <c r="H70" s="27">
+      <c r="H72" s="27">
         <v>1676.4159999999999</v>
       </c>
-      <c r="I70" s="27">
+      <c r="I72" s="27">
         <v>6029.0749999999998</v>
       </c>
-      <c r="J70" s="27">
+      <c r="J72" s="27">
         <v>2445.3470000000002</v>
       </c>
-      <c r="K70" s="27">
-        <v>2928.4569999999999</v>
-      </c>
-      <c r="L70" s="27">
+      <c r="K72" s="27">
         <v>5030.2939999999999</v>
       </c>
-      <c r="M70" s="27"/>
-      <c r="N70" s="27">
+      <c r="L72" s="27"/>
+      <c r="M72" s="27">
         <v>65.746300000000005</v>
       </c>
-      <c r="O70" s="27">
+      <c r="N72" s="27">
         <v>3588.5074299999997</v>
       </c>
     </row>
-    <row r="71" spans="2:15" hidden="1">
-      <c r="B71" s="12">
-        <v>2019</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D71" s="14">
-        <f t="shared" si="3"/>
-        <v>31763.522410000001</v>
-      </c>
-      <c r="E71" s="15">
-        <v>1.76</v>
-      </c>
-      <c r="F71" s="15">
-        <v>80.100999999999999</v>
-      </c>
-      <c r="G71" s="15">
-        <v>9752.0519999999997</v>
-      </c>
-      <c r="H71" s="15">
-        <v>1595.383</v>
-      </c>
-      <c r="I71" s="15">
-        <v>5103.0559999999996</v>
-      </c>
-      <c r="J71" s="15">
-        <v>2658.252</v>
-      </c>
-      <c r="K71" s="15">
-        <v>3015.0219999999999</v>
-      </c>
-      <c r="L71" s="15">
-        <v>5793.69</v>
-      </c>
-      <c r="M71" s="15"/>
-      <c r="N71" s="15">
-        <v>12.758299999999998</v>
-      </c>
-      <c r="O71" s="15">
-        <v>3751.4481100000003</v>
-      </c>
-    </row>
-    <row r="72" spans="2:15" hidden="1">
-      <c r="B72" s="16">
-        <v>2019</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D72" s="18">
-        <f t="shared" si="3"/>
-        <v>31229.518959999994</v>
-      </c>
-      <c r="E72" s="19">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="F72" s="19">
-        <v>72</v>
-      </c>
-      <c r="G72" s="19">
-        <v>9994.6419999999998</v>
-      </c>
-      <c r="H72" s="19">
-        <v>1608.7059999999999</v>
-      </c>
-      <c r="I72" s="19">
-        <v>4575.3310000000001</v>
-      </c>
-      <c r="J72" s="19">
-        <v>2828.3510000000001</v>
-      </c>
-      <c r="K72" s="19">
-        <v>2682.761</v>
-      </c>
-      <c r="L72" s="19">
-        <v>5549.9949999999999</v>
-      </c>
-      <c r="M72" s="19"/>
-      <c r="N72" s="19"/>
-      <c r="O72" s="19">
-        <v>3917.6479599999998</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" hidden="1">
+    <row r="73" spans="2:14" hidden="1">
       <c r="B73" s="12">
         <v>2019</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D73" s="14">
-        <f t="shared" si="3"/>
-        <v>29172.540249999998</v>
+        <f t="shared" si="2"/>
+        <v>28748.500410000001</v>
       </c>
       <c r="E73" s="15">
-        <v>3.5000000000000003E-2</v>
+        <v>1.76</v>
       </c>
       <c r="F73" s="15">
-        <v>54.752000000000002</v>
+        <v>80.100999999999999</v>
       </c>
       <c r="G73" s="15">
-        <v>9010.31</v>
+        <v>9752.0519999999997</v>
       </c>
       <c r="H73" s="15">
-        <v>1396.2560000000001</v>
+        <v>1595.383</v>
       </c>
       <c r="I73" s="15">
-        <v>5775.3389999999999</v>
+        <v>5103.0559999999996</v>
       </c>
       <c r="J73" s="15">
-        <v>2331.1950000000002</v>
+        <v>2658.252</v>
       </c>
       <c r="K73" s="15">
-        <v>2334.8119999999999</v>
-      </c>
-      <c r="L73" s="15">
-        <v>4893.7089999999998</v>
-      </c>
-      <c r="M73" s="15"/>
-      <c r="N73" s="15"/>
-      <c r="O73" s="15">
-        <v>3376.1322500000001</v>
-      </c>
-    </row>
-    <row r="74" spans="2:15" hidden="1">
+        <v>5793.69</v>
+      </c>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15">
+        <v>12.758299999999998</v>
+      </c>
+      <c r="N73" s="15">
+        <v>3751.4481100000003</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" hidden="1">
       <c r="B74" s="16">
         <v>2019</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D74" s="18">
-        <f t="shared" si="3"/>
-        <v>28718.377859999997</v>
+        <f t="shared" si="2"/>
+        <v>28546.757959999995</v>
       </c>
       <c r="E74" s="19">
-        <v>5.59633</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="F74" s="19">
-        <v>57.29</v>
+        <v>72</v>
       </c>
       <c r="G74" s="19">
-        <v>8610.5910000000003</v>
+        <v>9994.6419999999998</v>
       </c>
       <c r="H74" s="19">
-        <v>1665.9570000000001</v>
+        <v>1608.7059999999999</v>
       </c>
       <c r="I74" s="19">
-        <v>5196.0309999999999</v>
+        <v>4575.3310000000001</v>
       </c>
       <c r="J74" s="19">
-        <v>2672.4050000000002</v>
+        <v>2828.3510000000001</v>
       </c>
       <c r="K74" s="19">
-        <v>2511.7330000000002</v>
-      </c>
-      <c r="L74" s="19">
-        <v>4774.3459999999995</v>
-      </c>
+        <v>5549.9949999999999</v>
+      </c>
+      <c r="L74" s="19"/>
       <c r="M74" s="19"/>
-      <c r="N74" s="19"/>
-      <c r="O74" s="19">
-        <v>3224.4285300000001</v>
-      </c>
-    </row>
-    <row r="75" spans="2:15" hidden="1">
+      <c r="N74" s="19">
+        <v>3917.6479599999998</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" hidden="1">
       <c r="B75" s="12">
         <v>2019</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D75" s="14">
-        <f t="shared" si="3"/>
-        <v>28707.78629</v>
+        <f t="shared" si="2"/>
+        <v>26837.728249999996</v>
       </c>
       <c r="E75" s="15">
-        <v>6.0529999999999999</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="F75" s="15">
-        <v>57.801000000000002</v>
+        <v>54.752000000000002</v>
       </c>
       <c r="G75" s="15">
-        <v>8986.9670000000006</v>
+        <v>9010.31</v>
       </c>
       <c r="H75" s="15">
-        <v>1788.191</v>
+        <v>1396.2560000000001</v>
       </c>
       <c r="I75" s="15">
-        <v>5135.1639999999998</v>
+        <v>5775.3389999999999</v>
       </c>
       <c r="J75" s="15">
-        <v>2578.5520000000001</v>
+        <v>2331.1950000000002</v>
       </c>
       <c r="K75" s="15">
-        <v>2341.8049999999998</v>
-      </c>
-      <c r="L75" s="15">
-        <v>4798.0159999999996</v>
-      </c>
+        <v>4893.7089999999998</v>
+      </c>
+      <c r="L75" s="15"/>
       <c r="M75" s="15"/>
-      <c r="N75" s="15"/>
-      <c r="O75" s="15">
-        <v>3015.23729</v>
-      </c>
-    </row>
-    <row r="76" spans="2:15" hidden="1">
+      <c r="N75" s="15">
+        <v>3376.1322500000001</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" hidden="1">
       <c r="B76" s="16">
         <v>2019</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D76" s="18">
-        <f t="shared" si="3"/>
-        <v>27292.410609999999</v>
+        <f t="shared" si="2"/>
+        <v>26206.644859999997</v>
       </c>
       <c r="E76" s="19">
-        <v>5.46</v>
+        <v>5.59633</v>
       </c>
       <c r="F76" s="19">
-        <v>55.997999999999998</v>
+        <v>57.29</v>
       </c>
       <c r="G76" s="19">
-        <v>8069.7749999999996</v>
+        <v>8610.5910000000003</v>
       </c>
       <c r="H76" s="19">
-        <v>1587.973</v>
+        <v>1665.9570000000001</v>
       </c>
       <c r="I76" s="19">
-        <v>5215.268</v>
+        <v>5196.0309999999999</v>
       </c>
       <c r="J76" s="19">
-        <v>2428.5169999999998</v>
+        <v>2672.4050000000002</v>
       </c>
       <c r="K76" s="19">
-        <v>2360.0700000000002</v>
-      </c>
-      <c r="L76" s="19">
-        <v>4450.9750000000004</v>
-      </c>
+        <v>4774.3459999999995</v>
+      </c>
+      <c r="L76" s="19"/>
       <c r="M76" s="19"/>
-      <c r="N76" s="19"/>
-      <c r="O76" s="19">
-        <v>3118.3746100000003</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" hidden="1">
+      <c r="N76" s="19">
+        <v>3224.4285300000001</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" hidden="1">
       <c r="B77" s="12">
         <v>2019</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D77" s="14">
-        <f t="shared" si="3"/>
-        <v>29113.054540000001</v>
+        <f t="shared" si="2"/>
+        <v>26365.98129</v>
       </c>
       <c r="E77" s="15">
-        <v>6.2110000000000003</v>
+        <v>6.0529999999999999</v>
       </c>
       <c r="F77" s="15">
-        <v>67.53</v>
+        <v>57.801000000000002</v>
       </c>
       <c r="G77" s="15">
-        <v>8472.9789999999994</v>
+        <v>8986.9670000000006</v>
       </c>
       <c r="H77" s="15">
-        <v>1708.221</v>
+        <v>1788.191</v>
       </c>
       <c r="I77" s="15">
-        <v>5081.5749999999998</v>
+        <v>5135.1639999999998</v>
       </c>
       <c r="J77" s="15">
-        <v>2646.9789999999998</v>
+        <v>2578.5520000000001</v>
       </c>
       <c r="K77" s="15">
-        <v>2406.2260000000001</v>
-      </c>
-      <c r="L77" s="15">
-        <v>5332.5439999999999</v>
-      </c>
+        <v>4798.0159999999996</v>
+      </c>
+      <c r="L77" s="15"/>
       <c r="M77" s="15"/>
-      <c r="N77" s="15"/>
-      <c r="O77" s="15">
-        <v>3390.7895400000002</v>
-      </c>
-    </row>
-    <row r="78" spans="2:15" hidden="1">
+      <c r="N77" s="15">
+        <v>3015.23729</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" hidden="1">
       <c r="B78" s="16">
         <v>2019</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D78" s="18">
-        <f t="shared" si="3"/>
-        <v>31250.364179999997</v>
+        <f t="shared" si="2"/>
+        <v>24932.340609999999</v>
       </c>
       <c r="E78" s="19">
-        <v>7.8460000000000001</v>
+        <v>5.46</v>
       </c>
       <c r="F78" s="19">
-        <v>56.534999999999997</v>
+        <v>55.997999999999998</v>
       </c>
       <c r="G78" s="19">
-        <v>8624.3449999999993</v>
+        <v>8069.7749999999996</v>
       </c>
       <c r="H78" s="19">
-        <v>1621.0229999999999</v>
+        <v>1587.973</v>
       </c>
       <c r="I78" s="19">
-        <v>8671.3349999999991</v>
+        <v>5215.268</v>
       </c>
       <c r="J78" s="19">
-        <v>2304.8890000000001</v>
+        <v>2428.5169999999998</v>
       </c>
       <c r="K78" s="19">
-        <v>2447.4609999999998</v>
-      </c>
-      <c r="L78" s="19">
-        <v>4465.5820000000003</v>
-      </c>
+        <v>4450.9750000000004</v>
+      </c>
+      <c r="L78" s="19"/>
       <c r="M78" s="19"/>
-      <c r="N78" s="19"/>
-      <c r="O78" s="19">
-        <v>3051.34818</v>
-      </c>
-    </row>
-    <row r="79" spans="2:15" hidden="1">
+      <c r="N78" s="19">
+        <v>3118.3746100000003</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" hidden="1">
       <c r="B79" s="12">
         <v>2019</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D79" s="14">
-        <f t="shared" si="3"/>
-        <v>31365.490560000002</v>
+        <f t="shared" si="2"/>
+        <v>26706.828539999999</v>
       </c>
       <c r="E79" s="15">
-        <v>5.36</v>
+        <v>6.2110000000000003</v>
       </c>
       <c r="F79" s="15">
-        <v>59.417999999999999</v>
+        <v>67.53</v>
       </c>
       <c r="G79" s="15">
-        <v>9153.4</v>
+        <v>8472.9789999999994</v>
       </c>
       <c r="H79" s="15">
-        <v>1573.4939999999999</v>
+        <v>1708.221</v>
       </c>
       <c r="I79" s="15">
-        <v>7744.9759999999997</v>
+        <v>5081.5749999999998</v>
       </c>
       <c r="J79" s="15">
-        <v>2483.4180000000001</v>
+        <v>2646.9789999999998</v>
       </c>
       <c r="K79" s="15">
-        <v>2376.971</v>
-      </c>
-      <c r="L79" s="15">
-        <v>4955.9579999999996</v>
-      </c>
+        <v>5332.5439999999999</v>
+      </c>
+      <c r="L79" s="15"/>
       <c r="M79" s="15"/>
-      <c r="N79" s="15"/>
-      <c r="O79" s="15">
-        <v>3012.4955599999998</v>
-      </c>
-    </row>
-    <row r="80" spans="2:15" hidden="1">
+      <c r="N79" s="15">
+        <v>3390.7895400000002</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" hidden="1">
       <c r="B80" s="16">
         <v>2019</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D80" s="18">
-        <f t="shared" si="3"/>
-        <v>27676.571899999999</v>
+        <f t="shared" si="2"/>
+        <v>28802.903179999994</v>
       </c>
       <c r="E80" s="19">
+        <v>7.8460000000000001</v>
+      </c>
+      <c r="F80" s="19">
+        <v>56.534999999999997</v>
+      </c>
+      <c r="G80" s="19">
+        <v>8624.3449999999993</v>
+      </c>
+      <c r="H80" s="19">
+        <v>1621.0229999999999</v>
+      </c>
+      <c r="I80" s="19">
+        <v>8671.3349999999991</v>
+      </c>
+      <c r="J80" s="19">
+        <v>2304.8890000000001</v>
+      </c>
+      <c r="K80" s="19">
+        <v>4465.5820000000003</v>
+      </c>
+      <c r="L80" s="19"/>
+      <c r="M80" s="19"/>
+      <c r="N80" s="19">
+        <v>3051.34818</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15" hidden="1">
+      <c r="B81" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" s="14">
+        <f t="shared" si="2"/>
+        <v>28988.519560000001</v>
+      </c>
+      <c r="E81" s="15">
+        <v>5.36</v>
+      </c>
+      <c r="F81" s="15">
+        <v>59.417999999999999</v>
+      </c>
+      <c r="G81" s="15">
+        <v>9153.4</v>
+      </c>
+      <c r="H81" s="15">
+        <v>1573.4939999999999</v>
+      </c>
+      <c r="I81" s="15">
+        <v>7744.9759999999997</v>
+      </c>
+      <c r="J81" s="15">
+        <v>2483.4180000000001</v>
+      </c>
+      <c r="K81" s="15">
+        <v>4955.9579999999996</v>
+      </c>
+      <c r="L81" s="15"/>
+      <c r="M81" s="15"/>
+      <c r="N81" s="15">
+        <v>3012.4955599999998</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" hidden="1">
+      <c r="B82" s="16">
+        <v>2019</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82" s="18">
+        <f t="shared" si="2"/>
+        <v>25224.750899999999</v>
+      </c>
+      <c r="E82" s="19">
         <v>5.3540000000000001</v>
       </c>
-      <c r="F80" s="19">
+      <c r="F82" s="19">
         <v>60.44</v>
       </c>
-      <c r="G80" s="19">
+      <c r="G82" s="19">
         <v>8240.6730000000007</v>
       </c>
-      <c r="H80" s="19">
+      <c r="H82" s="19">
         <v>1223.51</v>
       </c>
-      <c r="I80" s="19">
+      <c r="I82" s="19">
         <v>6582.1109999999999</v>
       </c>
-      <c r="J80" s="19">
+      <c r="J82" s="19">
         <v>2315.9119999999998</v>
       </c>
-      <c r="K80" s="19">
-        <v>2451.8209999999999</v>
-      </c>
-      <c r="L80" s="19">
+      <c r="K82" s="19">
         <v>3688.9839999999999</v>
       </c>
-      <c r="M80" s="19"/>
-      <c r="N80" s="19"/>
-      <c r="O80" s="19">
+      <c r="L82" s="19"/>
+      <c r="M82" s="19"/>
+      <c r="N82" s="19">
         <v>3107.7669000000001</v>
       </c>
     </row>
-    <row r="81" spans="2:15" hidden="1">
-      <c r="B81" s="20">
+    <row r="83" spans="2:15" hidden="1">
+      <c r="B83" s="20">
         <v>2019</v>
       </c>
-      <c r="C81" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D81" s="22">
-        <f t="shared" ref="D81:D93" si="4">SUM(E81:O81)</f>
-        <v>31729.582690000007</v>
-      </c>
-      <c r="E81" s="23">
+      <c r="C83" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D83" s="22">
+        <f t="shared" si="2"/>
+        <v>27252.757690000006</v>
+      </c>
+      <c r="E83" s="23">
         <v>6.7610000000000001</v>
       </c>
-      <c r="F81" s="23">
+      <c r="F83" s="23">
         <v>74.009</v>
       </c>
-      <c r="G81" s="23">
+      <c r="G83" s="23">
         <v>7747.527</v>
       </c>
-      <c r="H81" s="23">
+      <c r="H83" s="23">
         <v>1196.4000000000001</v>
       </c>
-      <c r="I81" s="23">
+      <c r="I83" s="23">
         <v>8376.51</v>
       </c>
-      <c r="J81" s="23">
+      <c r="J83" s="23">
         <v>2613.239</v>
       </c>
-      <c r="K81" s="23">
-        <v>4476.8249999999998</v>
-      </c>
-      <c r="L81" s="23">
+      <c r="K83" s="23">
         <v>3965.1860000000001</v>
       </c>
-      <c r="M81" s="23"/>
-      <c r="N81" s="23"/>
-      <c r="O81" s="23">
+      <c r="L83" s="23"/>
+      <c r="M83" s="23"/>
+      <c r="N83" s="23">
         <v>3273.1256899999998</v>
-      </c>
-    </row>
-    <row r="82" spans="2:15" hidden="1">
-      <c r="B82" s="17">
-        <v>2018</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D82" s="18">
-        <f t="shared" si="4"/>
-        <v>27825.537</v>
-      </c>
-      <c r="E82" s="19">
-        <v>11.624000000000001</v>
-      </c>
-      <c r="F82" s="19">
-        <v>93.391999999999996</v>
-      </c>
-      <c r="G82" s="19">
-        <v>8828.0380000000005</v>
-      </c>
-      <c r="H82" s="19">
-        <v>1419.221</v>
-      </c>
-      <c r="I82" s="19">
-        <v>8160.1949999999997</v>
-      </c>
-      <c r="J82" s="19">
-        <v>2550.1379999999999</v>
-      </c>
-      <c r="K82" s="19">
-        <v>2539.4380000000001</v>
-      </c>
-      <c r="L82" s="19">
-        <v>4208.37</v>
-      </c>
-      <c r="M82" s="19"/>
-      <c r="N82" s="19"/>
-      <c r="O82" s="19">
-        <v>15.121</v>
-      </c>
-    </row>
-    <row r="83" spans="2:15" hidden="1">
-      <c r="B83" s="13">
-        <v>2018</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D83" s="14">
-        <f t="shared" si="4"/>
-        <v>30438.187000000005</v>
-      </c>
-      <c r="E83" s="15">
-        <v>9.8219999999999992</v>
-      </c>
-      <c r="F83" s="15">
-        <v>90.676000000000002</v>
-      </c>
-      <c r="G83" s="15">
-        <v>9033.7459999999992</v>
-      </c>
-      <c r="H83" s="15">
-        <v>1677.8789999999999</v>
-      </c>
-      <c r="I83" s="15">
-        <v>9087.1730000000007</v>
-      </c>
-      <c r="J83" s="15">
-        <v>2973.703</v>
-      </c>
-      <c r="K83" s="15">
-        <v>2449.9479999999999</v>
-      </c>
-      <c r="L83" s="15">
-        <v>5104.8959999999997</v>
-      </c>
-      <c r="M83" s="15"/>
-      <c r="N83" s="15"/>
-      <c r="O83" s="15">
-        <v>10.343999999999999</v>
       </c>
     </row>
     <row r="84" spans="2:15" hidden="1">
@@ -4265,40 +4106,37 @@
         <v>2018</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D84" s="18">
-        <f t="shared" si="4"/>
-        <v>30428.691999999999</v>
+        <f t="shared" si="2"/>
+        <v>25286.098999999998</v>
       </c>
       <c r="E84" s="19">
-        <v>8.2870000000000008</v>
+        <v>11.624000000000001</v>
       </c>
       <c r="F84" s="19">
-        <v>78.7</v>
+        <v>93.391999999999996</v>
       </c>
       <c r="G84" s="19">
-        <v>8819.0689999999995</v>
+        <v>8828.0380000000005</v>
       </c>
       <c r="H84" s="19">
-        <v>1516.8230000000001</v>
+        <v>1419.221</v>
       </c>
       <c r="I84" s="19">
-        <v>9777.8709999999992</v>
+        <v>8160.1949999999997</v>
       </c>
       <c r="J84" s="19">
-        <v>2987.6489999999999</v>
+        <v>2550.1379999999999</v>
       </c>
       <c r="K84" s="19">
-        <v>1751.569</v>
-      </c>
-      <c r="L84" s="19">
-        <v>5477.6930000000002</v>
-      </c>
+        <v>4208.37</v>
+      </c>
+      <c r="L84" s="19"/>
       <c r="M84" s="19"/>
-      <c r="N84" s="19"/>
-      <c r="O84" s="19">
-        <v>11.031000000000001</v>
+      <c r="N84" s="19">
+        <v>15.121</v>
       </c>
     </row>
     <row r="85" spans="2:15" hidden="1">
@@ -4306,40 +4144,37 @@
         <v>2018</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D85" s="14">
-        <f t="shared" si="4"/>
-        <v>27010.514999999999</v>
+        <f t="shared" si="2"/>
+        <v>27988.239000000005</v>
       </c>
       <c r="E85" s="15">
-        <v>10.707000000000001</v>
+        <v>9.8219999999999992</v>
       </c>
       <c r="F85" s="15">
-        <v>62.167000000000002</v>
+        <v>90.676000000000002</v>
       </c>
       <c r="G85" s="15">
-        <v>8102.4960000000001</v>
+        <v>9033.7459999999992</v>
       </c>
       <c r="H85" s="15">
-        <v>1416.539</v>
+        <v>1677.8789999999999</v>
       </c>
       <c r="I85" s="15">
-        <v>8463.5859999999993</v>
+        <v>9087.1730000000007</v>
       </c>
       <c r="J85" s="15">
-        <v>2463.84</v>
+        <v>2973.703</v>
       </c>
       <c r="K85" s="15">
-        <v>1662.82</v>
-      </c>
-      <c r="L85" s="15">
-        <v>4814.68</v>
-      </c>
+        <v>5104.8959999999997</v>
+      </c>
+      <c r="L85" s="15"/>
       <c r="M85" s="15"/>
-      <c r="N85" s="15"/>
-      <c r="O85" s="15">
-        <v>13.68</v>
+      <c r="N85" s="15">
+        <v>10.343999999999999</v>
       </c>
     </row>
     <row r="86" spans="2:15" hidden="1">
@@ -4347,40 +4182,37 @@
         <v>2018</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D86" s="18">
-        <f t="shared" si="4"/>
-        <v>27455.597999999998</v>
+        <f t="shared" si="2"/>
+        <v>28677.123</v>
       </c>
       <c r="E86" s="19">
-        <v>10.06</v>
+        <v>8.2870000000000008</v>
       </c>
       <c r="F86" s="19">
-        <v>67.233999999999995</v>
+        <v>78.7</v>
       </c>
       <c r="G86" s="19">
-        <v>8035.7269999999999</v>
+        <v>8819.0689999999995</v>
       </c>
       <c r="H86" s="19">
-        <v>1692.001</v>
+        <v>1516.8230000000001</v>
       </c>
       <c r="I86" s="19">
-        <v>8464.9650000000001</v>
+        <v>9777.8709999999992</v>
       </c>
       <c r="J86" s="19">
-        <v>2758.96</v>
+        <v>2987.6489999999999</v>
       </c>
       <c r="K86" s="19">
-        <v>1732.587</v>
-      </c>
-      <c r="L86" s="19">
-        <v>4679.0959999999995</v>
-      </c>
+        <v>5477.6930000000002</v>
+      </c>
+      <c r="L86" s="19"/>
       <c r="M86" s="19"/>
-      <c r="N86" s="19"/>
-      <c r="O86" s="19">
-        <v>14.968</v>
+      <c r="N86" s="19">
+        <v>11.031000000000001</v>
       </c>
     </row>
     <row r="87" spans="2:15" hidden="1">
@@ -4388,40 +4220,37 @@
         <v>2018</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D87" s="14">
-        <f t="shared" si="4"/>
-        <v>27442.177</v>
+        <f t="shared" si="2"/>
+        <v>25347.695</v>
       </c>
       <c r="E87" s="15">
-        <v>10.051</v>
+        <v>10.707000000000001</v>
       </c>
       <c r="F87" s="15">
-        <v>63.811</v>
+        <v>62.167000000000002</v>
       </c>
       <c r="G87" s="15">
-        <v>7722.7290000000003</v>
+        <v>8102.4960000000001</v>
       </c>
       <c r="H87" s="15">
-        <v>1496.4</v>
+        <v>1416.539</v>
       </c>
       <c r="I87" s="15">
-        <v>8747.1980000000003</v>
+        <v>8463.5859999999993</v>
       </c>
       <c r="J87" s="15">
-        <v>2551.65</v>
+        <v>2463.84</v>
       </c>
       <c r="K87" s="15">
-        <v>1697.7090000000001</v>
-      </c>
-      <c r="L87" s="15">
-        <v>5136.6130000000003</v>
-      </c>
+        <v>4814.68</v>
+      </c>
+      <c r="L87" s="15"/>
       <c r="M87" s="15"/>
-      <c r="N87" s="15"/>
-      <c r="O87" s="15">
-        <v>16.015999999999998</v>
+      <c r="N87" s="15">
+        <v>13.68</v>
       </c>
     </row>
     <row r="88" spans="2:15" hidden="1">
@@ -4429,40 +4258,37 @@
         <v>2018</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D88" s="18">
-        <f t="shared" si="4"/>
-        <v>27934.611100000002</v>
+        <f t="shared" si="2"/>
+        <v>25723.010999999999</v>
       </c>
       <c r="E88" s="19">
-        <v>5.8701000000000008</v>
+        <v>10.06</v>
       </c>
       <c r="F88" s="19">
-        <v>68.567999999999998</v>
+        <v>67.233999999999995</v>
       </c>
       <c r="G88" s="19">
-        <v>7714.4070000000002</v>
+        <v>8035.7269999999999</v>
       </c>
       <c r="H88" s="19">
-        <v>1561.0450000000001</v>
+        <v>1692.001</v>
       </c>
       <c r="I88" s="19">
-        <v>8940.5429999999997</v>
+        <v>8464.9650000000001</v>
       </c>
       <c r="J88" s="19">
-        <v>2632.7139999999999</v>
+        <v>2758.96</v>
       </c>
       <c r="K88" s="19">
-        <v>1889.998</v>
-      </c>
-      <c r="L88" s="19">
-        <v>5110.2619999999997</v>
-      </c>
+        <v>4679.0959999999995</v>
+      </c>
+      <c r="L88" s="19"/>
       <c r="M88" s="19"/>
-      <c r="N88" s="19"/>
-      <c r="O88" s="19">
-        <v>11.204000000000001</v>
+      <c r="N88" s="19">
+        <v>14.968</v>
       </c>
     </row>
     <row r="89" spans="2:15" hidden="1">
@@ -4470,40 +4296,37 @@
         <v>2018</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D89" s="14">
-        <f t="shared" si="4"/>
-        <v>28918.192660000001</v>
+        <f t="shared" si="2"/>
+        <v>25744.468000000001</v>
       </c>
       <c r="E89" s="15">
-        <v>7.8816600000000001</v>
+        <v>10.051</v>
       </c>
       <c r="F89" s="15">
-        <v>82.861999999999995</v>
+        <v>63.811</v>
       </c>
       <c r="G89" s="15">
-        <v>8118.165</v>
+        <v>7722.7290000000003</v>
       </c>
       <c r="H89" s="15">
-        <v>1532.5719999999999</v>
+        <v>1496.4</v>
       </c>
       <c r="I89" s="15">
-        <v>8129.585</v>
+        <v>8747.1980000000003</v>
       </c>
       <c r="J89" s="15">
-        <v>2956.08</v>
+        <v>2551.65</v>
       </c>
       <c r="K89" s="15">
-        <v>1988.6780000000001</v>
-      </c>
-      <c r="L89" s="15">
-        <v>6089.1620000000003</v>
-      </c>
+        <v>5136.6130000000003</v>
+      </c>
+      <c r="L89" s="15"/>
       <c r="M89" s="15"/>
-      <c r="N89" s="15"/>
-      <c r="O89" s="15">
-        <v>13.207000000000001</v>
+      <c r="N89" s="15">
+        <v>16.015999999999998</v>
       </c>
     </row>
     <row r="90" spans="2:15" hidden="1">
@@ -4511,40 +4334,37 @@
         <v>2018</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D90" s="18">
-        <f t="shared" si="4"/>
-        <v>29273.39678000001</v>
+        <f t="shared" si="2"/>
+        <v>26044.613100000002</v>
       </c>
       <c r="E90" s="19">
-        <v>9.12378</v>
+        <v>5.8701000000000008</v>
       </c>
       <c r="F90" s="19">
-        <v>60.970999999999997</v>
+        <v>68.567999999999998</v>
       </c>
       <c r="G90" s="19">
-        <v>7926.723</v>
+        <v>7714.4070000000002</v>
       </c>
       <c r="H90" s="19">
-        <v>1477.489</v>
+        <v>1561.0450000000001</v>
       </c>
       <c r="I90" s="19">
-        <v>9672.3250000000007</v>
+        <v>8940.5429999999997</v>
       </c>
       <c r="J90" s="19">
-        <v>2860.578</v>
+        <v>2632.7139999999999</v>
       </c>
       <c r="K90" s="19">
-        <v>1829.883</v>
-      </c>
-      <c r="L90" s="19">
-        <v>5423.6540000000005</v>
-      </c>
+        <v>5110.2619999999997</v>
+      </c>
+      <c r="L90" s="19"/>
       <c r="M90" s="19"/>
-      <c r="N90" s="19"/>
-      <c r="O90" s="19">
-        <v>12.65</v>
+      <c r="N90" s="19">
+        <v>11.204000000000001</v>
       </c>
     </row>
     <row r="91" spans="2:15" hidden="1">
@@ -4552,40 +4372,37 @@
         <v>2018</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D91" s="14">
-        <f t="shared" si="4"/>
-        <v>30126.28328</v>
+        <f t="shared" si="2"/>
+        <v>26929.514660000001</v>
       </c>
       <c r="E91" s="15">
-        <v>8.1962799999999998</v>
+        <v>7.8816600000000001</v>
       </c>
       <c r="F91" s="15">
-        <v>71.811000000000007</v>
+        <v>82.861999999999995</v>
       </c>
       <c r="G91" s="15">
-        <v>8844.2019999999993</v>
+        <v>8118.165</v>
       </c>
       <c r="H91" s="15">
-        <v>1647.098</v>
+        <v>1532.5719999999999</v>
       </c>
       <c r="I91" s="15">
-        <v>9860.2800000000007</v>
+        <v>8129.585</v>
       </c>
       <c r="J91" s="15">
-        <v>2743.1410000000001</v>
+        <v>2956.08</v>
       </c>
       <c r="K91" s="15">
-        <v>1551.7840000000001</v>
-      </c>
-      <c r="L91" s="15">
-        <v>5387.3890000000001</v>
-      </c>
+        <v>6089.1620000000003</v>
+      </c>
+      <c r="L91" s="15"/>
       <c r="M91" s="15"/>
-      <c r="N91" s="15"/>
-      <c r="O91" s="15">
-        <v>12.382</v>
+      <c r="N91" s="15">
+        <v>13.207000000000001</v>
       </c>
     </row>
     <row r="92" spans="2:15" hidden="1">
@@ -4593,40 +4410,37 @@
         <v>2018</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D92" s="18">
-        <f t="shared" si="4"/>
-        <v>25208.202900000004</v>
+        <f t="shared" si="2"/>
+        <v>27443.513780000008</v>
       </c>
       <c r="E92" s="19">
-        <v>6.7148999999999992</v>
+        <v>9.12378</v>
       </c>
       <c r="F92" s="19">
-        <v>59.457000000000001</v>
+        <v>60.970999999999997</v>
       </c>
       <c r="G92" s="19">
-        <v>7977.2039999999997</v>
+        <v>7926.723</v>
       </c>
       <c r="H92" s="19">
-        <v>1378.8910000000001</v>
+        <v>1477.489</v>
       </c>
       <c r="I92" s="19">
-        <v>7402.5730000000003</v>
+        <v>9672.3250000000007</v>
       </c>
       <c r="J92" s="19">
-        <v>2577</v>
+        <v>2860.578</v>
       </c>
       <c r="K92" s="19">
-        <v>1364.6120000000001</v>
-      </c>
-      <c r="L92" s="19">
-        <v>4430.4210000000003</v>
-      </c>
+        <v>5423.6540000000005</v>
+      </c>
+      <c r="L92" s="19"/>
       <c r="M92" s="19"/>
-      <c r="N92" s="19"/>
-      <c r="O92" s="19">
-        <v>11.33</v>
+      <c r="N92" s="19">
+        <v>12.65</v>
       </c>
     </row>
     <row r="93" spans="2:15" hidden="1">
@@ -4634,77 +4448,144 @@
         <v>2018</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D93" s="14">
-        <f t="shared" si="4"/>
-        <v>25018.165999999997</v>
+        <f t="shared" si="2"/>
+        <v>28574.49928</v>
       </c>
       <c r="E93" s="15">
+        <v>8.1962799999999998</v>
+      </c>
+      <c r="F93" s="15">
+        <v>71.811000000000007</v>
+      </c>
+      <c r="G93" s="15">
+        <v>8844.2019999999993</v>
+      </c>
+      <c r="H93" s="15">
+        <v>1647.098</v>
+      </c>
+      <c r="I93" s="15">
+        <v>9860.2800000000007</v>
+      </c>
+      <c r="J93" s="15">
+        <v>2743.1410000000001</v>
+      </c>
+      <c r="K93" s="15">
+        <v>5387.3890000000001</v>
+      </c>
+      <c r="L93" s="15"/>
+      <c r="M93" s="15"/>
+      <c r="N93" s="15">
+        <v>12.382</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" hidden="1">
+      <c r="B94" s="17">
+        <v>2018</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D94" s="18">
+        <f t="shared" si="2"/>
+        <v>23843.590900000003</v>
+      </c>
+      <c r="E94" s="19">
+        <v>6.7148999999999992</v>
+      </c>
+      <c r="F94" s="19">
+        <v>59.457000000000001</v>
+      </c>
+      <c r="G94" s="19">
+        <v>7977.2039999999997</v>
+      </c>
+      <c r="H94" s="19">
+        <v>1378.8910000000001</v>
+      </c>
+      <c r="I94" s="19">
+        <v>7402.5730000000003</v>
+      </c>
+      <c r="J94" s="19">
+        <v>2577</v>
+      </c>
+      <c r="K94" s="19">
+        <v>4430.4210000000003</v>
+      </c>
+      <c r="L94" s="19"/>
+      <c r="M94" s="19"/>
+      <c r="N94" s="19">
+        <v>11.33</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" hidden="1">
+      <c r="B95" s="13">
+        <v>2018</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D95" s="14">
+        <f t="shared" si="2"/>
+        <v>23638.932999999997</v>
+      </c>
+      <c r="E95" s="15">
         <v>6.9589999999999996</v>
       </c>
-      <c r="F93" s="15">
+      <c r="F95" s="15">
         <v>66.08</v>
       </c>
-      <c r="G93" s="15">
+      <c r="G95" s="15">
         <v>7737.0140000000001</v>
       </c>
-      <c r="H93" s="15">
+      <c r="H95" s="15">
         <v>1410.72</v>
       </c>
-      <c r="I93" s="15">
+      <c r="I95" s="15">
         <v>6932.2910000000002</v>
       </c>
-      <c r="J93" s="15">
+      <c r="J95" s="15">
         <v>2789.42</v>
       </c>
-      <c r="K93" s="15">
-        <v>1379.2329999999999</v>
-      </c>
-      <c r="L93" s="15">
+      <c r="K95" s="15">
         <v>4684.1959999999999</v>
       </c>
-      <c r="M93" s="15"/>
-      <c r="N93" s="15"/>
-      <c r="O93" s="15">
+      <c r="L95" s="15"/>
+      <c r="M95" s="15"/>
+      <c r="N95" s="15">
         <v>12.253</v>
       </c>
-    </row>
-    <row r="94" spans="2:15">
-      <c r="B94" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C94" s="28"/>
-    </row>
-    <row r="95" spans="2:15">
-      <c r="B95" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C95" s="28"/>
-      <c r="O95" s="29"/>
     </row>
     <row r="96" spans="2:15">
       <c r="B96" s="28" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C96" s="28"/>
+      <c r="O96" s="29"/>
     </row>
     <row r="97" spans="2:4">
       <c r="B97" s="28" t="s">
-        <v>14</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C97" s="28"/>
     </row>
     <row r="98" spans="2:4">
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="2:4">
-      <c r="D104" s="28"/>
+    <row r="105" spans="2:4">
+      <c r="D105" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E4:O4"/>
+    <mergeCell ref="E4:N4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Carga_por_aerolinea_nac.xlsx
+++ b/Carga_por_aerolinea_nac.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057CD2C3-4682-49F8-8C61-855DE8166CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD82CE91-607C-4FE4-B840-88C11D9A9BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_35" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="32">
   <si>
     <t>Total</t>
   </si>
@@ -131,7 +131,7 @@
     <t>Nota: La línea aérea Aeromar suspendió operaciones a partir del 16 de febrero de 2023.</t>
   </si>
   <si>
-    <t>Actualización: Junio 2025.</t>
+    <t>Actualización: Julio 2025.</t>
   </si>
 </sst>
 </file>
@@ -368,7 +368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -446,6 +446,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -728,8 +729,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:N95" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14">
-  <autoFilter ref="B5:N95" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:N96" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14">
+  <autoFilter ref="B5:N96" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -981,7 +982,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O105"/>
+  <dimension ref="B1:O106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1007,6 +1008,9 @@
     <col min="16" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:14">
+      <c r="I1" s="33"/>
+    </row>
     <row r="2" spans="2:14" ht="18">
       <c r="B2" s="1" t="s">
         <v>12</v>
@@ -1080,3508 +1084,3546 @@
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="16">
+      <c r="B6" s="12">
         <v>2025</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="14">
+        <f>SUM(E6:N6)</f>
+        <v>28914.934771729997</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15">
+        <v>13187.252</v>
+      </c>
+      <c r="H6" s="15">
+        <v>495.75299999999999</v>
+      </c>
+      <c r="I6" s="15">
+        <v>2349.5632917299999</v>
+      </c>
+      <c r="J6" s="15">
+        <v>3255.39</v>
+      </c>
+      <c r="K6" s="15">
+        <v>6373.6670000000004</v>
+      </c>
+      <c r="L6" s="15">
+        <v>25.545249999999999</v>
+      </c>
+      <c r="M6" s="15">
+        <v>1016.6810000000002</v>
+      </c>
+      <c r="N6" s="15">
+        <v>2211.0832299999961</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="16">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="18">
-        <f>SUM(E6:N6)</f>
+      <c r="D7" s="18">
+        <f>SUM(E7:N7)</f>
         <v>29149.049193534269</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19">
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19">
         <v>13070.148999999999</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H7" s="19">
         <v>697.11199999999997</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I7" s="19">
         <v>1896.0541835342726</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J7" s="19">
         <v>2998.576</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K7" s="19">
         <v>7604.1769999999997</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L7" s="19">
         <v>33.5276</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M7" s="19">
         <v>941.83019999999999</v>
       </c>
-      <c r="N6" s="19">
+      <c r="N7" s="19">
         <v>1907.6232099999988</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
-      <c r="B7" s="12">
+    <row r="8" spans="2:14">
+      <c r="B8" s="12">
         <v>2025</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="14">
-        <f t="shared" ref="D7:D38" si="0">SUM(E7:N7)</f>
+      <c r="D8" s="14">
+        <f t="shared" ref="D8:D39" si="0">SUM(E8:N8)</f>
         <v>29005.288634240002</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15">
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15">
         <v>12436.241</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H8" s="15">
         <v>766.13099999999997</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I8" s="15">
         <v>1996.4528442400001</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J8" s="15">
         <v>2856.5039999999999</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K8" s="15">
         <v>7767.5050000000001</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L8" s="15">
         <v>26.459919999999997</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M8" s="15">
         <v>879.4796999999993</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N8" s="15">
         <v>2276.5151700000006</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
-      <c r="B8" s="16">
+    <row r="9" spans="2:14">
+      <c r="B9" s="16">
         <v>2025</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D9" s="18">
         <f t="shared" si="0"/>
         <v>27422.053609999999</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19">
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19">
         <v>12152.825000000001</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H9" s="19">
         <v>795.68899999999996</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I9" s="19">
         <v>2071.3298999999997</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J9" s="19">
         <v>2726.0720000000001</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K9" s="19">
         <v>6692.1670000000004</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L9" s="19">
         <v>11.987500000000001</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M9" s="19">
         <v>859.24420000000077</v>
       </c>
-      <c r="N8" s="19">
+      <c r="N9" s="19">
         <v>2112.7390099999984</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="12">
+    <row r="10" spans="2:14">
+      <c r="B10" s="12">
         <v>2025</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D10" s="14">
         <f t="shared" si="0"/>
         <v>27980.780070000001</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15">
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15">
         <v>13263.271000000001</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H10" s="15">
         <v>761.86699999999996</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I10" s="15">
         <v>1932.6751200000001</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J10" s="15">
         <v>2544.1959999999999</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K10" s="15">
         <v>6302.9059999999999</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L10" s="15">
         <v>33.307000000000002</v>
       </c>
-      <c r="M9" s="15">
+      <c r="M10" s="15">
         <v>1009.0963999999997</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N10" s="15">
         <v>2133.46155</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
-      <c r="B10" s="16">
+    <row r="11" spans="2:14">
+      <c r="B11" s="16">
         <v>2025</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D11" s="18">
         <f t="shared" si="0"/>
         <v>25748.605099709999</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19">
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19">
         <v>11275.352000000001</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H11" s="19">
         <v>620.36</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I11" s="19">
         <v>1786.64945971</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J11" s="19">
         <v>2412.8490000000002</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K11" s="19">
         <v>6617.8909999999996</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L11" s="19">
         <v>29.823340000000002</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M11" s="19">
         <v>941.21730000000014</v>
       </c>
-      <c r="N10" s="19">
+      <c r="N11" s="19">
         <v>2064.4630000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
-      <c r="B11" s="20">
+    <row r="12" spans="2:14">
+      <c r="B12" s="20">
         <v>2025</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D12" s="22">
         <f t="shared" si="0"/>
         <v>23673.877119999997</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23">
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23">
         <v>10826.540999999999</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H12" s="23">
         <v>571.43200000000002</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I12" s="23">
         <v>1894.5229999999999</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J12" s="23">
         <v>2721.4450000000002</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K12" s="23">
         <v>4711.6409999999996</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L12" s="23">
         <v>29.370999999999999</v>
       </c>
-      <c r="M11" s="23">
+      <c r="M12" s="23">
         <v>964.65659999999991</v>
       </c>
-      <c r="N11" s="23">
+      <c r="N12" s="23">
         <v>1954.2675200000031</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
-      <c r="B12" s="16">
+    <row r="13" spans="2:14">
+      <c r="B13" s="16">
         <v>2024</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C13" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D13" s="18">
         <f t="shared" si="0"/>
-        <v>27947.306936199999</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19">
+        <v>27568.6859362</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19">
         <v>12904.705</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H13" s="19">
         <v>706.62800000000004</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I13" s="19">
         <v>2110.4124862000003</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J13" s="19">
         <v>2910.0949999999998</v>
       </c>
-      <c r="K12" s="19">
-        <v>6062.4089999999997</v>
-      </c>
-      <c r="L12" s="19">
+      <c r="K13" s="19">
+        <v>5683.7879999999996</v>
+      </c>
+      <c r="L13" s="19">
         <v>44.347099999999998</v>
       </c>
-      <c r="M12" s="19">
+      <c r="M13" s="19">
         <v>1092.7723999999989</v>
       </c>
-      <c r="N12" s="19">
+      <c r="N13" s="19">
         <v>2115.9379499999995</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
-      <c r="B13" s="12">
+    <row r="14" spans="2:14">
+      <c r="B14" s="12">
         <v>2024</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D14" s="14">
         <f t="shared" si="0"/>
-        <v>27502.893513799998</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15">
+        <v>28159.683513799995</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15">
         <v>13474.445</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H14" s="15">
         <v>756.11400000000003</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I14" s="15">
         <v>1892.0454138</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J14" s="15">
         <v>3303.9810000000002</v>
       </c>
-      <c r="K13" s="15">
-        <v>4393.0249999999996</v>
-      </c>
-      <c r="L13" s="15">
+      <c r="K14" s="15">
+        <v>5049.8149999999996</v>
+      </c>
+      <c r="L14" s="15">
         <v>44.302</v>
       </c>
-      <c r="M13" s="15">
+      <c r="M14" s="15">
         <v>1298.3136</v>
       </c>
-      <c r="N13" s="15">
+      <c r="N14" s="15">
         <v>2340.6674999999955</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
-      <c r="B14" s="16">
+    <row r="15" spans="2:14">
+      <c r="B15" s="16">
         <v>2024</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C15" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>27181.326312561851</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19">
+        <v>28510.812312561851</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19">
         <v>13225.465</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H15" s="19">
         <v>615.21100000000001</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I15" s="19">
         <v>1642.0031125618484</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J15" s="19">
         <v>3194.15</v>
       </c>
-      <c r="K14" s="19">
-        <v>4834.0540000000001</v>
-      </c>
-      <c r="L14" s="19">
+      <c r="K15" s="19">
+        <v>6163.54</v>
+      </c>
+      <c r="L15" s="19">
         <v>24.026</v>
       </c>
-      <c r="M14" s="19">
+      <c r="M15" s="19">
         <v>1321.6451999999997</v>
       </c>
-      <c r="N14" s="19">
+      <c r="N15" s="19">
         <v>2324.7719999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
-      <c r="B15" s="12">
+    <row r="16" spans="2:14">
+      <c r="B16" s="12">
         <v>2024</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D16" s="14">
         <f t="shared" si="0"/>
-        <v>23947.075499999999</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15">
+        <v>25253.478499999997</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15">
         <v>11815.414000000001</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H16" s="15">
         <v>610.077</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I16" s="15">
         <v>1877.9970000000001</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J16" s="15">
         <v>2701.4140000000002</v>
       </c>
-      <c r="K15" s="15">
-        <v>4037.3809999999999</v>
-      </c>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15">
+      <c r="K16" s="15">
+        <v>5343.7839999999997</v>
+      </c>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15">
         <v>1121.0953000000004</v>
       </c>
-      <c r="N15" s="15">
+      <c r="N16" s="15">
         <v>1783.6971999999994</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
-      <c r="B16" s="16">
+    <row r="17" spans="2:14">
+      <c r="B17" s="16">
         <v>2024</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C17" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D17" s="18">
         <f t="shared" si="0"/>
-        <v>25976.44756810151</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19">
+        <v>25825.738568101511</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19">
         <v>12383.605</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H17" s="19">
         <v>692.93</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I17" s="19">
         <v>997.61693810151405</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J17" s="19">
         <v>3089.9549999999999</v>
       </c>
-      <c r="K16" s="19">
-        <v>5823.1229999999996</v>
-      </c>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19">
+      <c r="K17" s="19">
+        <v>5672.4139999999998</v>
+      </c>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19">
         <v>1059.0244999999993</v>
       </c>
-      <c r="N16" s="19">
+      <c r="N17" s="19">
         <v>1930.193130000001</v>
       </c>
     </row>
-    <row r="17" spans="2:14">
-      <c r="B17" s="12">
+    <row r="18" spans="2:14">
+      <c r="B18" s="12">
         <v>2024</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D18" s="14">
         <f t="shared" si="0"/>
-        <v>24449.559196296865</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15">
+        <v>25258.292196296865</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15">
         <v>12150.298000000001</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H18" s="15">
         <v>643.75300000000004</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I18" s="15">
         <v>1750.5007562968667</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J18" s="15">
         <v>3035.9490000000001</v>
       </c>
-      <c r="K17" s="15">
-        <v>4137.7550000000001</v>
-      </c>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15">
+      <c r="K18" s="15">
+        <v>4946.4880000000003</v>
+      </c>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15">
         <v>767.15459999999973</v>
       </c>
-      <c r="N17" s="15">
+      <c r="N18" s="15">
         <v>1964.1488399999987</v>
       </c>
     </row>
-    <row r="18" spans="2:14">
-      <c r="B18" s="16">
+    <row r="19" spans="2:14">
+      <c r="B19" s="16">
         <v>2024</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C19" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D19" s="18">
         <f t="shared" si="0"/>
-        <v>22991.837380000001</v>
-      </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19">
+        <v>23220.985379999998</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19">
         <v>11786.278</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H19" s="19">
         <v>560.85299999999995</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I19" s="19">
         <v>455.33683000000002</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J19" s="19">
         <v>2749.279</v>
       </c>
-      <c r="K18" s="19">
-        <v>4777.0950000000003</v>
-      </c>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19">
+      <c r="K19" s="19">
+        <v>5006.2430000000004</v>
+      </c>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19">
         <v>821.03270000000009</v>
       </c>
-      <c r="N18" s="19">
+      <c r="N19" s="19">
         <v>1841.9628499999985</v>
       </c>
     </row>
-    <row r="19" spans="2:14">
-      <c r="B19" s="12">
+    <row r="20" spans="2:14">
+      <c r="B20" s="12">
         <v>2024</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C20" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D20" s="14">
         <f t="shared" si="0"/>
-        <v>25584.530360000004</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15">
+        <v>25699.188360000004</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15">
         <v>12162.084000000001</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H20" s="15">
         <v>597.245</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I20" s="15">
         <v>670.93826000000001</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J20" s="15">
         <v>3023.1210000000001</v>
       </c>
-      <c r="K19" s="15">
-        <v>5951.4530000000004</v>
-      </c>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15">
+      <c r="K20" s="15">
+        <v>6066.1109999999999</v>
+      </c>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15">
         <v>966.6420999999998</v>
       </c>
-      <c r="N19" s="15">
+      <c r="N20" s="15">
         <v>2213.047</v>
       </c>
     </row>
-    <row r="20" spans="2:14">
-      <c r="B20" s="16">
+    <row r="21" spans="2:14">
+      <c r="B21" s="16">
         <v>2024</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>24530.56366</v>
-      </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19">
+        <v>24530.287660000002</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19">
         <v>11531.746999999999</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H21" s="19">
         <v>592.245</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I21" s="19">
         <v>1345.6157600000001</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J21" s="19">
         <v>3069.6970000000001</v>
       </c>
-      <c r="K20" s="19">
-        <v>5033.8580000000002</v>
-      </c>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19">
+      <c r="K21" s="19">
+        <v>5033.5820000000003</v>
+      </c>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19">
         <v>917.64800000000014</v>
       </c>
-      <c r="N20" s="19">
+      <c r="N21" s="19">
         <v>2039.7528999999981</v>
       </c>
     </row>
-    <row r="21" spans="2:14">
-      <c r="B21" s="12">
+    <row r="22" spans="2:14">
+      <c r="B22" s="12">
         <v>2024</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D22" s="14">
         <f t="shared" si="0"/>
-        <v>23773.473269999999</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15">
+        <v>23774.991269999999</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15">
         <v>11871.233</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H22" s="15">
         <v>551.64300000000003</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I22" s="15">
         <v>1657.1516799999999</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J22" s="15">
         <v>2749.279</v>
       </c>
-      <c r="K21" s="15">
-        <v>3908.877</v>
-      </c>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15">
+      <c r="K22" s="15">
+        <v>3910.395</v>
+      </c>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15">
         <v>901.89159999999958</v>
       </c>
-      <c r="N21" s="15">
+      <c r="N22" s="15">
         <v>2133.3979900000022</v>
       </c>
     </row>
-    <row r="22" spans="2:14">
-      <c r="B22" s="16">
+    <row r="23" spans="2:14">
+      <c r="B23" s="16">
         <v>2024</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C23" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D23" s="18">
         <f t="shared" si="0"/>
-        <v>23760.617010000002</v>
-      </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19">
+        <v>23833.491010000002</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19">
         <v>11159.713</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H23" s="19">
         <v>540.17999999999995</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I23" s="19">
         <v>1664.87067</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J23" s="19">
         <v>3032.2710000000002</v>
       </c>
-      <c r="K22" s="19">
-        <v>4672.6559999999999</v>
-      </c>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19">
+      <c r="K23" s="19">
+        <v>4745.53</v>
+      </c>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19">
         <v>878.40580000000011</v>
       </c>
-      <c r="N22" s="19">
+      <c r="N23" s="19">
         <v>1812.5205400000013</v>
       </c>
     </row>
-    <row r="23" spans="2:14">
-      <c r="B23" s="20">
+    <row r="24" spans="2:14">
+      <c r="B24" s="20">
         <v>2024</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C24" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D24" s="22">
         <f t="shared" si="0"/>
-        <v>22658.754440000004</v>
-      </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23">
+        <v>22601.231440000003</v>
+      </c>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23">
         <v>10099.106</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H24" s="23">
         <v>778.92200000000003</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I24" s="23">
         <v>1334.1081499999998</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J24" s="23">
         <v>3205.1840000000002</v>
       </c>
-      <c r="K23" s="23">
-        <v>4132.0780000000004</v>
-      </c>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23">
+      <c r="K24" s="23">
+        <v>4074.5549999999998</v>
+      </c>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23">
         <v>1138.7986000000001</v>
       </c>
-      <c r="N23" s="23">
+      <c r="N24" s="23">
         <v>1970.5576900000021</v>
       </c>
     </row>
-    <row r="24" spans="2:14" hidden="1">
-      <c r="B24" s="24">
+    <row r="25" spans="2:14" hidden="1">
+      <c r="B25" s="24">
         <v>2023</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C25" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D25" s="26">
         <f t="shared" si="0"/>
         <v>24330.252739999996</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E25" s="27">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27">
+      <c r="F25" s="27"/>
+      <c r="G25" s="27">
         <v>11988.567999999999</v>
       </c>
-      <c r="H24" s="27">
+      <c r="H25" s="27">
         <v>936.15599999999995</v>
       </c>
-      <c r="I24" s="27">
+      <c r="I25" s="27">
         <v>1439.51802</v>
       </c>
-      <c r="J24" s="27">
+      <c r="J25" s="27">
         <v>3166.9259999999999</v>
       </c>
-      <c r="K24" s="27">
+      <c r="K25" s="27">
         <v>3182.1170000000002</v>
       </c>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27">
+      <c r="L25" s="27"/>
+      <c r="M25" s="27">
         <v>1409.9010999999998</v>
       </c>
-      <c r="N24" s="30">
+      <c r="N25" s="30">
         <v>2207.0626199999997</v>
       </c>
     </row>
-    <row r="25" spans="2:14" hidden="1">
-      <c r="B25" s="12">
+    <row r="26" spans="2:14" hidden="1">
+      <c r="B26" s="12">
         <v>2023</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C26" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D26" s="14">
         <f t="shared" si="0"/>
         <v>25951.682419999997</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E26" s="15">
         <v>2E-3</v>
       </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15">
+      <c r="F26" s="15"/>
+      <c r="G26" s="15">
         <v>11389.349</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H26" s="15">
         <v>878.84500000000003</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I26" s="15">
         <v>3104.8114999999998</v>
       </c>
-      <c r="J25" s="15">
+      <c r="J26" s="15">
         <v>3477.9340000000002</v>
       </c>
-      <c r="K25" s="15">
+      <c r="K26" s="15">
         <v>3383.1860000000001</v>
       </c>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15">
+      <c r="L26" s="15"/>
+      <c r="M26" s="15">
         <v>1367.4912000000006</v>
       </c>
-      <c r="N25" s="15">
+      <c r="N26" s="15">
         <v>2350.0637199999942</v>
       </c>
     </row>
-    <row r="26" spans="2:14" hidden="1">
-      <c r="B26" s="16">
+    <row r="27" spans="2:14" hidden="1">
+      <c r="B27" s="16">
         <v>2023</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C27" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D27" s="18">
         <f t="shared" si="0"/>
         <v>29736.471783999994</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E27" s="19">
         <v>2E-3</v>
       </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19">
+      <c r="F27" s="19"/>
+      <c r="G27" s="19">
         <v>11497.116</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H27" s="19">
         <v>766.34</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I27" s="19">
         <v>1778.049084</v>
       </c>
-      <c r="J26" s="19">
+      <c r="J27" s="19">
         <v>3354.9290000000001</v>
       </c>
-      <c r="K26" s="19">
+      <c r="K27" s="19">
         <v>8846.14</v>
       </c>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19">
+      <c r="L27" s="19"/>
+      <c r="M27" s="19">
         <v>1254.5563000000009</v>
       </c>
-      <c r="N26" s="19">
+      <c r="N27" s="19">
         <v>2239.3393999999939</v>
       </c>
     </row>
-    <row r="27" spans="2:14" hidden="1">
-      <c r="B27" s="12">
+    <row r="28" spans="2:14" hidden="1">
+      <c r="B28" s="12">
         <v>2023</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C28" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D28" s="14">
         <f t="shared" si="0"/>
         <v>25495.398430000001</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E28" s="15">
         <v>1E-3</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15">
+      <c r="F28" s="15"/>
+      <c r="G28" s="15">
         <v>10214.496999999999</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H28" s="15">
         <v>745.19799999999998</v>
       </c>
-      <c r="I27" s="15">
-        <v>1692.6589100000001</v>
-      </c>
-      <c r="J27" s="15">
+      <c r="I28" s="15">
+        <v>1692.6589099999999</v>
+      </c>
+      <c r="J28" s="15">
         <v>3160.6</v>
       </c>
-      <c r="K27" s="15">
+      <c r="K28" s="15">
         <v>6870.7169999999996</v>
       </c>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15">
+      <c r="L28" s="15"/>
+      <c r="M28" s="15">
         <v>1029.982</v>
       </c>
-      <c r="N27" s="15">
-        <v>1781.74452</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" hidden="1">
-      <c r="B28" s="16">
+      <c r="N28" s="15">
+        <v>1781.7445200000004</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" hidden="1">
+      <c r="B29" s="16">
         <v>2023</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C29" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D29" s="18">
         <f t="shared" si="0"/>
         <v>27795.111850000001</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E29" s="19">
         <v>2E-3</v>
       </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19">
+      <c r="F29" s="19"/>
+      <c r="G29" s="19">
         <v>10670.395</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H29" s="19">
         <v>688.12199999999996</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I29" s="19">
         <v>2332.9001999999996</v>
       </c>
-      <c r="J28" s="19">
+      <c r="J29" s="19">
         <v>3597.163</v>
       </c>
-      <c r="K28" s="19">
+      <c r="K29" s="19">
         <v>7529.75</v>
       </c>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19">
+      <c r="L29" s="19"/>
+      <c r="M29" s="19">
         <v>1106.6980000000001</v>
       </c>
-      <c r="N28" s="19">
+      <c r="N29" s="19">
         <v>1870.0816499999999</v>
       </c>
     </row>
-    <row r="29" spans="2:14" hidden="1">
-      <c r="B29" s="12">
+    <row r="30" spans="2:14" hidden="1">
+      <c r="B30" s="12">
         <v>2023</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C30" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D30" s="14">
         <f t="shared" si="0"/>
         <v>27392.805111000001</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E30" s="15">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15">
+      <c r="F30" s="15"/>
+      <c r="G30" s="15">
         <v>11104.486000000001</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H30" s="15">
         <v>582.98800000000006</v>
       </c>
-      <c r="I29" s="15">
+      <c r="I30" s="15">
         <v>2097.893521</v>
       </c>
-      <c r="J29" s="15">
+      <c r="J30" s="15">
         <v>3132.8069999999998</v>
       </c>
-      <c r="K29" s="15">
+      <c r="K30" s="15">
         <v>7920.2030000000004</v>
       </c>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15">
+      <c r="L30" s="15"/>
+      <c r="M30" s="15">
         <v>632.07899999999995</v>
       </c>
-      <c r="N29" s="15">
+      <c r="N30" s="15">
         <v>1922.34159</v>
       </c>
     </row>
-    <row r="30" spans="2:14" hidden="1">
-      <c r="B30" s="16">
+    <row r="31" spans="2:14" hidden="1">
+      <c r="B31" s="16">
         <v>2023</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C31" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D31" s="18">
         <f t="shared" si="0"/>
         <v>26257.615949999999</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E31" s="19">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19">
+      <c r="F31" s="19"/>
+      <c r="G31" s="19">
         <v>9903.1360000000004</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H31" s="19">
         <v>604.97799999999995</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I31" s="19">
         <v>2029.77441</v>
       </c>
-      <c r="J30" s="19">
+      <c r="J31" s="19">
         <v>3359.4630000000002</v>
       </c>
-      <c r="K30" s="19">
+      <c r="K31" s="19">
         <v>7581.4750000000004</v>
       </c>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19">
+      <c r="L31" s="19"/>
+      <c r="M31" s="19">
         <v>808.51900000000001</v>
       </c>
-      <c r="N30" s="19">
+      <c r="N31" s="19">
         <v>1970.2655400000001</v>
       </c>
     </row>
-    <row r="31" spans="2:14" hidden="1">
-      <c r="B31" s="12">
+    <row r="32" spans="2:14" hidden="1">
+      <c r="B32" s="12">
         <v>2023</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C32" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D32" s="14">
         <f t="shared" si="0"/>
         <v>27189.140660000001</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E32" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15">
+      <c r="F32" s="15"/>
+      <c r="G32" s="15">
         <v>9247.2430000000004</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H32" s="15">
         <v>646.67899999999997</v>
       </c>
-      <c r="I31" s="15">
+      <c r="I32" s="15">
         <v>1841.1321099999998</v>
       </c>
-      <c r="J31" s="15">
+      <c r="J32" s="15">
         <v>3239.5920000000001</v>
       </c>
-      <c r="K31" s="15">
+      <c r="K32" s="15">
         <v>9116.9560000000001</v>
       </c>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15">
+      <c r="L32" s="15"/>
+      <c r="M32" s="15">
         <v>871.53</v>
       </c>
-      <c r="N31" s="15">
+      <c r="N32" s="15">
         <v>2226.0035500000004</v>
       </c>
     </row>
-    <row r="32" spans="2:14" hidden="1">
-      <c r="B32" s="16">
+    <row r="33" spans="2:14" hidden="1">
+      <c r="B33" s="16">
         <v>2023</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C33" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D33" s="18">
         <f t="shared" si="0"/>
         <v>26065.695520000001</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E33" s="19">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19">
+      <c r="F33" s="19"/>
+      <c r="G33" s="19">
         <v>8823.5010000000002</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H33" s="19">
         <v>643.87900000000002</v>
       </c>
-      <c r="I32" s="19">
+      <c r="I33" s="19">
         <v>2656.5120000000002</v>
       </c>
-      <c r="J32" s="19">
+      <c r="J33" s="19">
         <v>2882.6640000000002</v>
       </c>
-      <c r="K32" s="19">
+      <c r="K33" s="19">
         <v>8495.7070000000003</v>
       </c>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19">
+      <c r="L33" s="19"/>
+      <c r="M33" s="19">
         <v>807.85400000000004</v>
       </c>
-      <c r="N32" s="19">
+      <c r="N33" s="19">
         <v>1755.5725199999999</v>
       </c>
     </row>
-    <row r="33" spans="2:14" hidden="1">
-      <c r="B33" s="12">
+    <row r="34" spans="2:14" hidden="1">
+      <c r="B34" s="12">
         <v>2023</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C34" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D34" s="14">
         <f t="shared" si="0"/>
         <v>29416.146090000002</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E34" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15">
+      <c r="F34" s="15"/>
+      <c r="G34" s="15">
         <v>10420.953</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H34" s="15">
         <v>850.89200000000005</v>
       </c>
-      <c r="I33" s="15">
+      <c r="I34" s="15">
         <v>2714.1550000000002</v>
       </c>
-      <c r="J33" s="15">
+      <c r="J34" s="15">
         <v>3284.2510000000002</v>
       </c>
-      <c r="K33" s="15">
+      <c r="K34" s="15">
         <v>9320.09</v>
       </c>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15">
+      <c r="L34" s="15"/>
+      <c r="M34" s="15">
         <v>754.07100000000003</v>
       </c>
-      <c r="N33" s="15">
+      <c r="N34" s="15">
         <v>2071.7290899999998</v>
       </c>
     </row>
-    <row r="34" spans="2:14" hidden="1">
-      <c r="B34" s="16">
+    <row r="35" spans="2:14" hidden="1">
+      <c r="B35" s="16">
         <v>2023</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C35" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D35" s="18">
         <f t="shared" si="0"/>
         <v>26501.790870000004</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E35" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19">
+      <c r="F35" s="19"/>
+      <c r="G35" s="19">
         <v>9688.0110000000004</v>
       </c>
-      <c r="H34" s="19">
+      <c r="H35" s="19">
         <v>782.84</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I35" s="19">
         <v>3020.3270000000002</v>
       </c>
-      <c r="J34" s="19">
+      <c r="J35" s="19">
         <v>2745.6669999999999</v>
       </c>
-      <c r="K34" s="19">
+      <c r="K35" s="19">
         <v>7686.6450000000004</v>
       </c>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19">
+      <c r="L35" s="19"/>
+      <c r="M35" s="19">
         <v>685.12</v>
       </c>
-      <c r="N34" s="19">
+      <c r="N35" s="19">
         <v>1893.1698699999999</v>
       </c>
     </row>
-    <row r="35" spans="2:14" hidden="1">
-      <c r="B35" s="20">
+    <row r="36" spans="2:14" hidden="1">
+      <c r="B36" s="20">
         <v>2023</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C36" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D36" s="22">
         <f t="shared" si="0"/>
         <v>26308.171539999999</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E36" s="23">
         <v>2E-3</v>
       </c>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23">
+      <c r="F36" s="23"/>
+      <c r="G36" s="23">
         <v>8914.4519999999993</v>
       </c>
-      <c r="H35" s="23">
+      <c r="H36" s="23">
         <v>734.09199999999998</v>
       </c>
-      <c r="I35" s="23">
+      <c r="I36" s="23">
         <v>3159.0940000000001</v>
       </c>
-      <c r="J35" s="23">
+      <c r="J36" s="23">
         <v>3012.8209999999999</v>
       </c>
-      <c r="K35" s="23">
+      <c r="K36" s="23">
         <v>7907.8890000000001</v>
       </c>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23">
+      <c r="L36" s="23"/>
+      <c r="M36" s="23">
         <v>670.48</v>
       </c>
-      <c r="N35" s="23">
+      <c r="N36" s="23">
         <v>1909.3415400000001</v>
       </c>
     </row>
-    <row r="36" spans="2:14" hidden="1">
-      <c r="B36" s="24">
+    <row r="37" spans="2:14" hidden="1">
+      <c r="B37" s="24">
         <v>2022</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C37" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="26">
+      <c r="D37" s="26">
         <f t="shared" si="0"/>
         <v>29865.323240000002</v>
       </c>
-      <c r="E36" s="27">
+      <c r="E37" s="27">
         <v>1E-3</v>
       </c>
-      <c r="F36" s="27">
+      <c r="F37" s="27">
         <v>12.166</v>
       </c>
-      <c r="G36" s="27">
+      <c r="G37" s="27">
         <v>10484.763000000001</v>
       </c>
-      <c r="H36" s="27">
+      <c r="H37" s="27">
         <v>925.66499999999996</v>
       </c>
-      <c r="I36" s="27">
+      <c r="I37" s="27">
         <v>4138.0259999999998</v>
       </c>
-      <c r="J36" s="27">
+      <c r="J37" s="27">
         <v>3314.2310000000002</v>
       </c>
-      <c r="K36" s="27">
+      <c r="K37" s="27">
         <v>7746.2759999999998</v>
       </c>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27">
+      <c r="L37" s="27"/>
+      <c r="M37" s="27">
         <v>961.79730000000006</v>
       </c>
-      <c r="N36" s="27">
+      <c r="N37" s="27">
         <v>2282.3979400000003</v>
       </c>
     </row>
-    <row r="37" spans="2:14" hidden="1">
-      <c r="B37" s="12">
+    <row r="38" spans="2:14" hidden="1">
+      <c r="B38" s="12">
         <v>2022</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C38" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D38" s="14">
         <f t="shared" si="0"/>
         <v>29983.373589999999</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E38" s="15">
         <v>2E-3</v>
       </c>
-      <c r="F37" s="15">
+      <c r="F38" s="15">
         <v>32.463999999999999</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G38" s="15">
         <v>10081.717000000001</v>
       </c>
-      <c r="H37" s="15">
+      <c r="H38" s="15">
         <v>990.43700000000001</v>
       </c>
-      <c r="I37" s="15">
+      <c r="I38" s="15">
         <v>5149.683</v>
       </c>
-      <c r="J37" s="15">
+      <c r="J38" s="15">
         <v>3384.6909999999998</v>
       </c>
-      <c r="K37" s="15">
+      <c r="K38" s="15">
         <v>7113.482</v>
       </c>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15">
+      <c r="L38" s="15"/>
+      <c r="M38" s="15">
         <v>970.55570000000012</v>
       </c>
-      <c r="N37" s="15">
+      <c r="N38" s="15">
         <v>2260.3418900000001</v>
       </c>
     </row>
-    <row r="38" spans="2:14" hidden="1">
-      <c r="B38" s="16">
+    <row r="39" spans="2:14" hidden="1">
+      <c r="B39" s="16">
         <v>2022</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C39" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D39" s="18">
         <f t="shared" si="0"/>
         <v>29295.863820000002</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E39" s="19">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F38" s="19">
+      <c r="F39" s="19">
         <v>31.343</v>
       </c>
-      <c r="G38" s="19">
+      <c r="G39" s="19">
         <v>9947.3389999999999</v>
       </c>
-      <c r="H38" s="19">
+      <c r="H39" s="19">
         <v>926.49599999999998</v>
       </c>
-      <c r="I38" s="19">
+      <c r="I39" s="19">
         <v>5335.3050000000003</v>
       </c>
-      <c r="J38" s="19">
+      <c r="J39" s="19">
         <v>3159.48</v>
       </c>
-      <c r="K38" s="19">
+      <c r="K39" s="19">
         <v>6728.7049999999999</v>
       </c>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19">
+      <c r="L39" s="19"/>
+      <c r="M39" s="19">
         <v>979.74129999999991</v>
       </c>
-      <c r="N38" s="19">
+      <c r="N39" s="19">
         <v>2187.4515200000001</v>
       </c>
     </row>
-    <row r="39" spans="2:14" hidden="1">
-      <c r="B39" s="12">
+    <row r="40" spans="2:14" hidden="1">
+      <c r="B40" s="12">
         <v>2022</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C40" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="14">
-        <f t="shared" ref="D39:D70" si="1">SUM(E39:N39)</f>
+      <c r="D40" s="14">
+        <f t="shared" ref="D40:D71" si="1">SUM(E40:N40)</f>
         <v>26447.132749999997</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E40" s="15">
         <v>2E-3</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F40" s="15">
         <v>23.175000000000001</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G40" s="15">
         <v>9081.3619999999992</v>
       </c>
-      <c r="H39" s="15">
+      <c r="H40" s="15">
         <v>703.86900000000003</v>
       </c>
-      <c r="I39" s="15">
+      <c r="I40" s="15">
         <v>4176.1049999999996</v>
       </c>
-      <c r="J39" s="15">
+      <c r="J40" s="15">
         <v>3254.7069999999999</v>
       </c>
-      <c r="K39" s="15">
+      <c r="K40" s="15">
         <v>6617.3549999999996</v>
       </c>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15">
+      <c r="L40" s="15"/>
+      <c r="M40" s="15">
         <v>824.20899999999995</v>
       </c>
-      <c r="N39" s="15">
+      <c r="N40" s="15">
         <v>1766.3487500000001</v>
       </c>
     </row>
-    <row r="40" spans="2:14" hidden="1">
-      <c r="B40" s="16">
+    <row r="41" spans="2:14" hidden="1">
+      <c r="B41" s="16">
         <v>2022</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C41" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D41" s="18">
         <f t="shared" si="1"/>
         <v>26279.741409999995</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E41" s="19">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F40" s="19">
+      <c r="F41" s="19">
         <v>28.286999999999999</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G41" s="19">
         <v>9293.5259999999998</v>
       </c>
-      <c r="H40" s="19">
+      <c r="H41" s="19">
         <v>859.87</v>
       </c>
-      <c r="I40" s="19">
+      <c r="I41" s="19">
         <v>4037.6669999999999</v>
       </c>
-      <c r="J40" s="19">
+      <c r="J41" s="19">
         <v>3520.194</v>
       </c>
-      <c r="K40" s="19">
+      <c r="K41" s="19">
         <v>5886.08</v>
       </c>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19">
+      <c r="L41" s="19"/>
+      <c r="M41" s="19">
         <v>804.58889999999997</v>
       </c>
-      <c r="N40" s="19">
+      <c r="N41" s="19">
         <v>1849.52451</v>
       </c>
     </row>
-    <row r="41" spans="2:14" hidden="1">
-      <c r="B41" s="12">
+    <row r="42" spans="2:14" hidden="1">
+      <c r="B42" s="12">
         <v>2022</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C42" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D42" s="14">
         <f t="shared" si="1"/>
         <v>30603.772699999998</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E42" s="15">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F42" s="15">
         <v>31.623000000000001</v>
       </c>
-      <c r="G41" s="15">
+      <c r="G42" s="15">
         <v>9435.7099999999991</v>
       </c>
-      <c r="H41" s="15">
+      <c r="H42" s="15">
         <v>852.04499999999996</v>
       </c>
-      <c r="I41" s="15">
+      <c r="I42" s="15">
         <v>4353.799</v>
       </c>
-      <c r="J41" s="15">
+      <c r="J42" s="15">
         <v>3361.634</v>
       </c>
-      <c r="K41" s="15">
+      <c r="K42" s="15">
         <v>10038.903</v>
       </c>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15">
+      <c r="L42" s="15"/>
+      <c r="M42" s="15">
         <v>692.77719999999999</v>
       </c>
-      <c r="N41" s="15">
+      <c r="N42" s="15">
         <v>1837.2745</v>
       </c>
     </row>
-    <row r="42" spans="2:14" hidden="1">
-      <c r="B42" s="16">
+    <row r="43" spans="2:14" hidden="1">
+      <c r="B43" s="16">
         <v>2022</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C43" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="18">
+      <c r="D43" s="18">
         <f t="shared" si="1"/>
         <v>32911.434350000003</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E43" s="19">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F42" s="19">
+      <c r="F43" s="19">
         <v>29.89</v>
       </c>
-      <c r="G42" s="19">
+      <c r="G43" s="19">
         <v>9434.6640000000007</v>
       </c>
-      <c r="H42" s="19">
+      <c r="H43" s="19">
         <v>704.59900000000005</v>
       </c>
-      <c r="I42" s="19">
+      <c r="I43" s="19">
         <v>4932.3429999999998</v>
       </c>
-      <c r="J42" s="19">
+      <c r="J43" s="19">
         <v>3363.165</v>
       </c>
-      <c r="K42" s="19">
+      <c r="K43" s="19">
         <v>11698.642</v>
       </c>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19">
+      <c r="L43" s="19"/>
+      <c r="M43" s="19">
         <v>750.94670000000008</v>
       </c>
-      <c r="N42" s="19">
+      <c r="N43" s="19">
         <v>1997.1796499999998</v>
       </c>
     </row>
-    <row r="43" spans="2:14" hidden="1">
-      <c r="B43" s="12">
+    <row r="44" spans="2:14" hidden="1">
+      <c r="B44" s="12">
         <v>2022</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C44" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D44" s="14">
         <f t="shared" si="1"/>
         <v>32136.140250000004</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E44" s="15">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F44" s="15">
         <v>28.506</v>
       </c>
-      <c r="G43" s="15">
+      <c r="G44" s="15">
         <v>9520.1350000000002</v>
       </c>
-      <c r="H43" s="15">
+      <c r="H44" s="15">
         <v>707.80499999999995</v>
       </c>
-      <c r="I43" s="15">
+      <c r="I44" s="15">
         <v>5145.5190000000002</v>
       </c>
-      <c r="J43" s="15">
+      <c r="J44" s="15">
         <v>3217.3589999999999</v>
       </c>
-      <c r="K43" s="15">
+      <c r="K44" s="15">
         <v>10677.519</v>
       </c>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15">
+      <c r="L44" s="15"/>
+      <c r="M44" s="15">
         <v>667.7</v>
       </c>
-      <c r="N43" s="15">
+      <c r="N44" s="15">
         <v>2171.5932499999999</v>
       </c>
     </row>
-    <row r="44" spans="2:14" hidden="1">
-      <c r="B44" s="16">
+    <row r="45" spans="2:14" hidden="1">
+      <c r="B45" s="16">
         <v>2022</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C45" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="18">
+      <c r="D45" s="18">
         <f t="shared" si="1"/>
         <v>27514.741269999999</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E45" s="19">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F44" s="19">
+      <c r="F45" s="19">
         <v>33.442</v>
       </c>
-      <c r="G44" s="19">
+      <c r="G45" s="19">
         <v>8677.1650000000009</v>
       </c>
-      <c r="H44" s="19">
+      <c r="H45" s="19">
         <v>704.93700000000001</v>
       </c>
-      <c r="I44" s="19">
+      <c r="I45" s="19">
         <v>4385.1239999999998</v>
       </c>
-      <c r="J44" s="19">
+      <c r="J45" s="19">
         <v>3089.9090000000001</v>
       </c>
-      <c r="K44" s="19">
+      <c r="K45" s="19">
         <v>7847.8879999999999</v>
       </c>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19">
+      <c r="L45" s="19"/>
+      <c r="M45" s="19">
         <v>761.38699999999994</v>
       </c>
-      <c r="N44" s="19">
+      <c r="N45" s="19">
         <v>2014.8862699999997</v>
       </c>
     </row>
-    <row r="45" spans="2:14" hidden="1">
-      <c r="B45" s="12">
+    <row r="46" spans="2:14" hidden="1">
+      <c r="B46" s="12">
         <v>2022</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C46" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D46" s="14">
         <f t="shared" si="1"/>
         <v>30859.440460000002</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E46" s="15">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F46" s="15">
         <v>30.175999999999998</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G46" s="15">
         <v>9761.2630000000008</v>
       </c>
-      <c r="H45" s="15">
+      <c r="H46" s="15">
         <v>1009.9829999999999</v>
       </c>
-      <c r="I45" s="15">
+      <c r="I46" s="15">
         <v>6578.5140000000001</v>
       </c>
-      <c r="J45" s="15">
+      <c r="J46" s="15">
         <v>3448.0540000000001</v>
       </c>
-      <c r="K45" s="15">
+      <c r="K46" s="15">
         <v>7191.5020000000004</v>
       </c>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15">
+      <c r="L46" s="15"/>
+      <c r="M46" s="15">
         <v>742.69299999999998</v>
       </c>
-      <c r="N45" s="15">
+      <c r="N46" s="15">
         <v>2097.25146</v>
       </c>
     </row>
-    <row r="46" spans="2:14" hidden="1">
-      <c r="B46" s="16">
+    <row r="47" spans="2:14" hidden="1">
+      <c r="B47" s="16">
         <v>2022</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C47" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D47" s="18">
         <f t="shared" si="1"/>
         <v>26857.410190000002</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E47" s="19">
         <v>0</v>
       </c>
-      <c r="F46" s="19">
+      <c r="F47" s="19">
         <v>26.463999999999999</v>
       </c>
-      <c r="G46" s="19">
+      <c r="G47" s="19">
         <v>8399.2009999999991</v>
       </c>
-      <c r="H46" s="19">
+      <c r="H47" s="19">
         <v>816.23900000000003</v>
       </c>
-      <c r="I46" s="19">
+      <c r="I47" s="19">
         <v>4488.2250000000004</v>
       </c>
-      <c r="J46" s="19">
+      <c r="J47" s="19">
         <v>3087.74</v>
       </c>
-      <c r="K46" s="19">
+      <c r="K47" s="19">
         <v>7675.5219999999999</v>
       </c>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19">
+      <c r="L47" s="19"/>
+      <c r="M47" s="19">
         <v>680.0145</v>
       </c>
-      <c r="N46" s="19">
+      <c r="N47" s="19">
         <v>1684.00469</v>
       </c>
     </row>
-    <row r="47" spans="2:14" hidden="1">
-      <c r="B47" s="20">
+    <row r="48" spans="2:14" hidden="1">
+      <c r="B48" s="20">
         <v>2022</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C48" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="22">
+      <c r="D48" s="22">
         <f t="shared" si="1"/>
         <v>26010.419900000001</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E48" s="23">
         <v>0.01</v>
       </c>
-      <c r="F47" s="23">
+      <c r="F48" s="23">
         <v>29.917000000000002</v>
       </c>
-      <c r="G47" s="23">
+      <c r="G48" s="23">
         <v>8064.9719999999998</v>
       </c>
-      <c r="H47" s="23">
+      <c r="H48" s="23">
         <v>759.41499999999996</v>
       </c>
-      <c r="I47" s="23">
+      <c r="I48" s="23">
         <v>4874.95</v>
       </c>
-      <c r="J47" s="23">
+      <c r="J48" s="23">
         <v>3142.1970000000001</v>
       </c>
-      <c r="K47" s="23">
+      <c r="K48" s="23">
         <v>6776.384</v>
       </c>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23">
+      <c r="L48" s="23"/>
+      <c r="M48" s="23">
         <v>751.90069999999992</v>
       </c>
-      <c r="N47" s="23">
+      <c r="N48" s="23">
         <v>1610.6742000000002</v>
       </c>
     </row>
-    <row r="48" spans="2:14" hidden="1">
-      <c r="B48" s="24">
+    <row r="49" spans="2:14" hidden="1">
+      <c r="B49" s="24">
         <v>2021</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C49" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="26">
+      <c r="D49" s="26">
         <f t="shared" si="1"/>
         <v>31566.167749999997</v>
       </c>
-      <c r="E48" s="27">
+      <c r="E49" s="27">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F48" s="27">
+      <c r="F49" s="27">
         <v>37.055</v>
       </c>
-      <c r="G48" s="27">
+      <c r="G49" s="27">
         <v>9575.5380000000005</v>
       </c>
-      <c r="H48" s="27">
+      <c r="H49" s="27">
         <v>889.38</v>
       </c>
-      <c r="I48" s="27">
+      <c r="I49" s="27">
         <v>6288.674</v>
       </c>
-      <c r="J48" s="27">
+      <c r="J49" s="27">
         <v>4403.6390000000001</v>
       </c>
-      <c r="K48" s="27">
+      <c r="K49" s="27">
         <v>7812.2049999999999</v>
       </c>
-      <c r="L48" s="27"/>
-      <c r="M48" s="27">
+      <c r="L49" s="27"/>
+      <c r="M49" s="27">
         <v>644.26139999999998</v>
       </c>
-      <c r="N48" s="27">
+      <c r="N49" s="27">
         <v>1915.4123500000001</v>
       </c>
     </row>
-    <row r="49" spans="2:14" hidden="1">
-      <c r="B49" s="12">
+    <row r="50" spans="2:14" hidden="1">
+      <c r="B50" s="12">
         <v>2021</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C50" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D50" s="14">
         <f t="shared" si="1"/>
         <v>29944.972509999996</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E50" s="15">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F49" s="15">
+      <c r="F50" s="15">
         <v>42.304000000000002</v>
       </c>
-      <c r="G49" s="15">
+      <c r="G50" s="15">
         <v>8541.3799999999992</v>
       </c>
-      <c r="H49" s="15">
+      <c r="H50" s="15">
         <v>797.55100000000004</v>
       </c>
-      <c r="I49" s="15">
+      <c r="I50" s="15">
         <v>5779.326</v>
       </c>
-      <c r="J49" s="15">
+      <c r="J50" s="15">
         <v>3742.5929999999998</v>
       </c>
-      <c r="K49" s="15">
+      <c r="K50" s="15">
         <v>8308.2459999999992</v>
       </c>
-      <c r="L49" s="15"/>
-      <c r="M49" s="15">
+      <c r="L50" s="15"/>
+      <c r="M50" s="15">
         <v>761.88139999999999</v>
       </c>
-      <c r="N49" s="15">
+      <c r="N50" s="15">
         <v>1971.6851100000001</v>
       </c>
     </row>
-    <row r="50" spans="2:14" hidden="1">
-      <c r="B50" s="16">
+    <row r="51" spans="2:14" hidden="1">
+      <c r="B51" s="16">
         <v>2021</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C51" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D50" s="18">
+      <c r="D51" s="18">
         <f t="shared" si="1"/>
         <v>30000.867740000002</v>
       </c>
-      <c r="E50" s="19">
+      <c r="E51" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F50" s="19">
+      <c r="F51" s="19">
         <v>29.148</v>
       </c>
-      <c r="G50" s="19">
+      <c r="G51" s="19">
         <v>9141.5849999999991</v>
       </c>
-      <c r="H50" s="19">
+      <c r="H51" s="19">
         <v>935.53599999999994</v>
       </c>
-      <c r="I50" s="19">
+      <c r="I51" s="19">
         <v>5740.3919999999998</v>
       </c>
-      <c r="J50" s="19">
+      <c r="J51" s="19">
         <v>3221.6640000000002</v>
       </c>
-      <c r="K50" s="19">
+      <c r="K51" s="19">
         <v>8292.1039999999994</v>
       </c>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19">
+      <c r="L51" s="19"/>
+      <c r="M51" s="19">
         <v>722.20399999999995</v>
       </c>
-      <c r="N50" s="19">
+      <c r="N51" s="19">
         <v>1918.2237399999999</v>
       </c>
     </row>
-    <row r="51" spans="2:14" hidden="1">
-      <c r="B51" s="12">
+    <row r="52" spans="2:14" hidden="1">
+      <c r="B52" s="12">
         <v>2021</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C52" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D52" s="14">
         <f t="shared" si="1"/>
         <v>25044.998970000004</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E52" s="15">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F51" s="15">
+      <c r="F52" s="15">
         <v>27.141999999999999</v>
       </c>
-      <c r="G51" s="15">
+      <c r="G52" s="15">
         <v>7906.91</v>
       </c>
-      <c r="H51" s="15">
+      <c r="H52" s="15">
         <v>875.76900000000001</v>
       </c>
-      <c r="I51" s="15">
+      <c r="I52" s="15">
         <v>4566.3109999999997</v>
       </c>
-      <c r="J51" s="15">
+      <c r="J52" s="15">
         <v>3115.0770000000002</v>
       </c>
-      <c r="K51" s="15">
+      <c r="K52" s="15">
         <v>6415.2790000000005</v>
       </c>
-      <c r="L51" s="15"/>
-      <c r="M51" s="15">
+      <c r="L52" s="15"/>
+      <c r="M52" s="15">
         <v>491.27</v>
       </c>
-      <c r="N51" s="15">
+      <c r="N52" s="15">
         <v>1647.23197</v>
       </c>
     </row>
-    <row r="52" spans="2:14" hidden="1">
-      <c r="B52" s="16">
+    <row r="53" spans="2:14" hidden="1">
+      <c r="B53" s="16">
         <v>2021</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C53" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="18">
+      <c r="D53" s="18">
         <f t="shared" si="1"/>
         <v>26801.51179</v>
       </c>
-      <c r="E52" s="19">
+      <c r="E53" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F52" s="19">
+      <c r="F53" s="19">
         <v>26.024000000000001</v>
       </c>
-      <c r="G52" s="19">
+      <c r="G53" s="19">
         <v>7787.3339999999998</v>
       </c>
-      <c r="H52" s="19">
+      <c r="H53" s="19">
         <v>951.82</v>
       </c>
-      <c r="I52" s="19">
+      <c r="I53" s="19">
         <v>5861.0240000000003</v>
       </c>
-      <c r="J52" s="19">
+      <c r="J53" s="19">
         <v>2963.1660000000002</v>
       </c>
-      <c r="K52" s="19">
+      <c r="K53" s="19">
         <v>6924.8339999999998</v>
       </c>
-      <c r="L52" s="19"/>
-      <c r="M52" s="19">
+      <c r="L53" s="19"/>
+      <c r="M53" s="19">
         <v>590.37950000000001</v>
       </c>
-      <c r="N52" s="19">
+      <c r="N53" s="19">
         <v>1696.91929</v>
       </c>
     </row>
-    <row r="53" spans="2:14" hidden="1">
-      <c r="B53" s="12">
+    <row r="54" spans="2:14" hidden="1">
+      <c r="B54" s="12">
         <v>2021</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C54" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D54" s="14">
         <f t="shared" si="1"/>
         <v>29570.534019999996</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E54" s="15">
         <v>1.6E-2</v>
       </c>
-      <c r="F53" s="15">
+      <c r="F54" s="15">
         <v>33.762999999999998</v>
       </c>
-      <c r="G53" s="15">
+      <c r="G54" s="15">
         <v>7960.9809999999998</v>
       </c>
-      <c r="H53" s="15">
+      <c r="H54" s="15">
         <v>980.41300000000001</v>
       </c>
-      <c r="I53" s="15">
+      <c r="I54" s="15">
         <v>6238.2730000000001</v>
       </c>
-      <c r="J53" s="15">
+      <c r="J54" s="15">
         <v>3189.866</v>
       </c>
-      <c r="K53" s="15">
+      <c r="K54" s="15">
         <v>8884.8860000000004</v>
       </c>
-      <c r="L53" s="15"/>
-      <c r="M53" s="15">
+      <c r="L54" s="15"/>
+      <c r="M54" s="15">
         <v>570.02250000000004</v>
       </c>
-      <c r="N53" s="15">
+      <c r="N54" s="15">
         <v>1712.3135199999999</v>
       </c>
     </row>
-    <row r="54" spans="2:14" hidden="1">
-      <c r="B54" s="16">
+    <row r="55" spans="2:14" hidden="1">
+      <c r="B55" s="16">
         <v>2021</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C55" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="18">
+      <c r="D55" s="18">
         <f t="shared" si="1"/>
         <v>26984.257880000001</v>
       </c>
-      <c r="E54" s="19">
+      <c r="E55" s="19">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F54" s="19">
+      <c r="F55" s="19">
         <v>30.326000000000001</v>
       </c>
-      <c r="G54" s="19">
+      <c r="G55" s="19">
         <v>6994.8090000000002</v>
       </c>
-      <c r="H54" s="19">
+      <c r="H55" s="19">
         <v>938.22799999999995</v>
       </c>
-      <c r="I54" s="19">
+      <c r="I55" s="19">
         <v>5685.7610000000004</v>
       </c>
-      <c r="J54" s="19">
+      <c r="J55" s="19">
         <v>2933.55</v>
       </c>
-      <c r="K54" s="19">
+      <c r="K55" s="19">
         <v>8239.3950000000004</v>
       </c>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19">
+      <c r="L55" s="19"/>
+      <c r="M55" s="19">
         <v>517.37900000000002</v>
       </c>
-      <c r="N54" s="19">
+      <c r="N55" s="19">
         <v>1644.78388</v>
       </c>
     </row>
-    <row r="55" spans="2:14" hidden="1">
-      <c r="B55" s="12">
+    <row r="56" spans="2:14" hidden="1">
+      <c r="B56" s="12">
         <v>2021</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C56" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D56" s="14">
         <f t="shared" si="1"/>
         <v>27395.161769999999</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E56" s="15">
         <v>1.2E-2</v>
       </c>
-      <c r="F55" s="15">
+      <c r="F56" s="15">
         <v>34.064</v>
       </c>
-      <c r="G55" s="15">
+      <c r="G56" s="15">
         <v>5853.0280000000002</v>
       </c>
-      <c r="H55" s="15">
+      <c r="H56" s="15">
         <v>804.99099999999999</v>
       </c>
-      <c r="I55" s="15">
+      <c r="I56" s="15">
         <v>6221.6310000000003</v>
       </c>
-      <c r="J55" s="15">
+      <c r="J56" s="15">
         <v>2753.0189999999998</v>
       </c>
-      <c r="K55" s="15">
+      <c r="K56" s="15">
         <v>9369.7039999999997</v>
       </c>
-      <c r="L55" s="15"/>
-      <c r="M55" s="15">
+      <c r="L56" s="15"/>
+      <c r="M56" s="15">
         <v>581.25</v>
       </c>
-      <c r="N55" s="15">
+      <c r="N56" s="15">
         <v>1777.4627700000001</v>
       </c>
     </row>
-    <row r="56" spans="2:14" hidden="1">
-      <c r="B56" s="16">
+    <row r="57" spans="2:14" hidden="1">
+      <c r="B57" s="16">
         <v>2021</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C57" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="18">
+      <c r="D57" s="18">
         <f t="shared" si="1"/>
         <v>26794.383829999999</v>
       </c>
-      <c r="E56" s="19">
+      <c r="E57" s="19">
         <v>1.4E-2</v>
       </c>
-      <c r="F56" s="19">
+      <c r="F57" s="19">
         <v>28.870999999999999</v>
       </c>
-      <c r="G56" s="19">
+      <c r="G57" s="19">
         <v>5583.2060000000001</v>
       </c>
-      <c r="H56" s="19">
+      <c r="H57" s="19">
         <v>855.89099999999996</v>
       </c>
-      <c r="I56" s="19">
+      <c r="I57" s="19">
         <v>5955.3379999999997</v>
       </c>
-      <c r="J56" s="19">
+      <c r="J57" s="19">
         <v>2553.587</v>
       </c>
-      <c r="K56" s="19">
+      <c r="K57" s="19">
         <v>9635.8649999999998</v>
       </c>
-      <c r="L56" s="19"/>
-      <c r="M56" s="19">
+      <c r="L57" s="19"/>
+      <c r="M57" s="19">
         <v>569.29200000000003</v>
       </c>
-      <c r="N56" s="19">
+      <c r="N57" s="19">
         <v>1612.3198300000001</v>
       </c>
     </row>
-    <row r="57" spans="2:14" hidden="1">
-      <c r="B57" s="12">
+    <row r="58" spans="2:14" hidden="1">
+      <c r="B58" s="12">
         <v>2021</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C58" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D58" s="14">
         <f t="shared" si="1"/>
         <v>28888.855879999999</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E58" s="15">
         <v>0.01</v>
       </c>
-      <c r="F57" s="15">
+      <c r="F58" s="15">
         <v>30.994</v>
       </c>
-      <c r="G57" s="15">
+      <c r="G58" s="15">
         <v>5972.1139999999996</v>
       </c>
-      <c r="H57" s="15">
+      <c r="H58" s="15">
         <v>961.24900000000002</v>
       </c>
-      <c r="I57" s="15">
+      <c r="I58" s="15">
         <v>6821.0630000000001</v>
       </c>
-      <c r="J57" s="15">
+      <c r="J58" s="15">
         <v>2527.971</v>
       </c>
-      <c r="K57" s="15">
+      <c r="K58" s="15">
         <v>10350.735000000001</v>
       </c>
-      <c r="L57" s="15"/>
-      <c r="M57" s="15">
+      <c r="L58" s="15"/>
+      <c r="M58" s="15">
         <v>537.19399999999996</v>
       </c>
-      <c r="N57" s="15">
+      <c r="N58" s="15">
         <v>1687.5258799999999</v>
       </c>
     </row>
-    <row r="58" spans="2:14" hidden="1">
-      <c r="B58" s="16">
+    <row r="59" spans="2:14" hidden="1">
+      <c r="B59" s="16">
         <v>2021</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C59" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D58" s="18">
+      <c r="D59" s="18">
         <f t="shared" si="1"/>
         <v>25842.507199999996</v>
       </c>
-      <c r="E58" s="19">
+      <c r="E59" s="19">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F58" s="19">
+      <c r="F59" s="19">
         <v>23.164999999999999</v>
       </c>
-      <c r="G58" s="19">
+      <c r="G59" s="19">
         <v>5676.3119999999999</v>
       </c>
-      <c r="H58" s="19">
+      <c r="H59" s="19">
         <v>842.12599999999998</v>
       </c>
-      <c r="I58" s="19">
+      <c r="I59" s="19">
         <v>6447.9210000000003</v>
       </c>
-      <c r="J58" s="19">
+      <c r="J59" s="19">
         <v>2143.1759999999999</v>
       </c>
-      <c r="K58" s="19">
+      <c r="K59" s="19">
         <v>8771.1730000000007</v>
       </c>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19">
+      <c r="L59" s="19"/>
+      <c r="M59" s="19">
         <v>441.65600000000001</v>
       </c>
-      <c r="N58" s="19">
+      <c r="N59" s="19">
         <v>1496.9692</v>
       </c>
     </row>
-    <row r="59" spans="2:14" hidden="1">
-      <c r="B59" s="20">
+    <row r="60" spans="2:14" hidden="1">
+      <c r="B60" s="20">
         <v>2021</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C60" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D59" s="22">
+      <c r="D60" s="22">
         <f t="shared" si="1"/>
         <v>26743.09706</v>
       </c>
-      <c r="E59" s="23">
+      <c r="E60" s="23">
         <v>2.3E-2</v>
       </c>
-      <c r="F59" s="23">
+      <c r="F60" s="23">
         <v>22.483000000000001</v>
       </c>
-      <c r="G59" s="23">
+      <c r="G60" s="23">
         <v>5633.7330000000002</v>
       </c>
-      <c r="H59" s="23">
+      <c r="H60" s="23">
         <v>893.20500000000004</v>
       </c>
-      <c r="I59" s="23">
+      <c r="I60" s="23">
         <v>5852.174</v>
       </c>
-      <c r="J59" s="23">
+      <c r="J60" s="23">
         <v>2714.6959999999999</v>
       </c>
-      <c r="K59" s="23">
+      <c r="K60" s="23">
         <v>9764.4040000000005</v>
       </c>
-      <c r="L59" s="23"/>
-      <c r="M59" s="23">
+      <c r="L60" s="23"/>
+      <c r="M60" s="23">
         <v>374.46</v>
       </c>
-      <c r="N59" s="23">
+      <c r="N60" s="23">
         <v>1487.9190599999999</v>
       </c>
     </row>
-    <row r="60" spans="2:14" hidden="1">
-      <c r="B60" s="24">
+    <row r="61" spans="2:14" hidden="1">
+      <c r="B61" s="24">
         <v>2020</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C61" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D60" s="26">
+      <c r="D61" s="26">
         <f t="shared" si="1"/>
         <v>29319.336610000002</v>
       </c>
-      <c r="E60" s="27">
+      <c r="E61" s="27">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F60" s="27">
+      <c r="F61" s="27">
         <v>30.75</v>
       </c>
-      <c r="G60" s="27">
+      <c r="G61" s="27">
         <v>5388.74</v>
       </c>
-      <c r="H60" s="27">
+      <c r="H61" s="27">
         <v>1227.8499999999999</v>
       </c>
-      <c r="I60" s="27">
+      <c r="I61" s="27">
         <v>8063.0550000000003</v>
       </c>
-      <c r="J60" s="27">
+      <c r="J61" s="27">
         <v>3485.029</v>
       </c>
-      <c r="K60" s="27">
+      <c r="K61" s="27">
         <v>8808.3330000000005</v>
       </c>
-      <c r="L60" s="27"/>
-      <c r="M60" s="27">
+      <c r="L61" s="27"/>
+      <c r="M61" s="27">
         <v>499.45499999999998</v>
       </c>
-      <c r="N60" s="27">
+      <c r="N61" s="27">
         <v>1816.0996100000002</v>
       </c>
     </row>
-    <row r="61" spans="2:14" hidden="1">
-      <c r="B61" s="12">
+    <row r="62" spans="2:14" hidden="1">
+      <c r="B62" s="12">
         <v>2020</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C62" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D61" s="14">
+      <c r="D62" s="14">
         <f t="shared" si="1"/>
         <v>31025.563980000003</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E62" s="15">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="F61" s="15">
+      <c r="F62" s="15">
         <v>29.420999999999999</v>
       </c>
-      <c r="G61" s="15">
+      <c r="G62" s="15">
         <v>4646.3059999999996</v>
       </c>
-      <c r="H61" s="15">
+      <c r="H62" s="15">
         <v>918.31700000000001</v>
       </c>
-      <c r="I61" s="15">
+      <c r="I62" s="15">
         <v>10405.393</v>
       </c>
-      <c r="J61" s="15">
+      <c r="J62" s="15">
         <v>3080.1370000000002</v>
       </c>
-      <c r="K61" s="15">
+      <c r="K62" s="15">
         <v>9680.3340000000007</v>
       </c>
-      <c r="L61" s="15"/>
-      <c r="M61" s="15">
+      <c r="L62" s="15"/>
+      <c r="M62" s="15">
         <v>427.87200000000001</v>
       </c>
-      <c r="N61" s="15">
+      <c r="N62" s="15">
         <v>1837.75198</v>
       </c>
     </row>
-    <row r="62" spans="2:14" hidden="1">
-      <c r="B62" s="16">
+    <row r="63" spans="2:14" hidden="1">
+      <c r="B63" s="16">
         <v>2020</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C63" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D62" s="18">
+      <c r="D63" s="18">
         <f t="shared" si="1"/>
         <v>29066.680449999996</v>
       </c>
-      <c r="E62" s="19">
+      <c r="E63" s="19">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F62" s="19">
+      <c r="F63" s="19">
         <v>25.18</v>
       </c>
-      <c r="G62" s="19">
+      <c r="G63" s="19">
         <v>4168.3999999999996</v>
       </c>
-      <c r="H62" s="19">
+      <c r="H63" s="19">
         <v>855.53599999999994</v>
       </c>
-      <c r="I62" s="19">
+      <c r="I63" s="19">
         <v>9141.11</v>
       </c>
-      <c r="J62" s="19">
+      <c r="J63" s="19">
         <v>2910.5740000000001</v>
       </c>
-      <c r="K62" s="19">
+      <c r="K63" s="19">
         <v>9811.7209999999995</v>
       </c>
-      <c r="L62" s="19"/>
-      <c r="M62" s="19">
+      <c r="L63" s="19"/>
+      <c r="M63" s="19">
         <v>328.78100000000001</v>
       </c>
-      <c r="N62" s="19">
+      <c r="N63" s="19">
         <v>1825.3604499999999</v>
       </c>
     </row>
-    <row r="63" spans="2:14" hidden="1">
-      <c r="B63" s="12">
+    <row r="64" spans="2:14" hidden="1">
+      <c r="B64" s="12">
         <v>2020</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C64" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="14">
+      <c r="D64" s="14">
         <f t="shared" si="1"/>
         <v>25730.176029999999</v>
       </c>
-      <c r="E63" s="15">
+      <c r="E64" s="15">
         <v>1.6E-2</v>
       </c>
-      <c r="F63" s="15">
+      <c r="F64" s="15">
         <v>19.38</v>
       </c>
-      <c r="G63" s="15">
+      <c r="G64" s="15">
         <v>3354.4870000000001</v>
       </c>
-      <c r="H63" s="15">
+      <c r="H64" s="15">
         <v>815.01599999999996</v>
       </c>
-      <c r="I63" s="15">
+      <c r="I64" s="15">
         <v>9094.2099999999991</v>
       </c>
-      <c r="J63" s="15">
+      <c r="J64" s="15">
         <v>2742.8449999999998</v>
       </c>
-      <c r="K63" s="15">
+      <c r="K64" s="15">
         <v>7889.5420000000004</v>
       </c>
-      <c r="L63" s="15"/>
-      <c r="M63" s="15">
+      <c r="L64" s="15"/>
+      <c r="M64" s="15">
         <v>300.25099999999998</v>
       </c>
-      <c r="N63" s="15">
+      <c r="N64" s="15">
         <v>1514.42903</v>
       </c>
     </row>
-    <row r="64" spans="2:14" hidden="1">
-      <c r="B64" s="16">
+    <row r="65" spans="2:14" hidden="1">
+      <c r="B65" s="16">
         <v>2020</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C65" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="18">
+      <c r="D65" s="18">
         <f t="shared" si="1"/>
         <v>23252.681530000002</v>
       </c>
-      <c r="E64" s="19">
+      <c r="E65" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F64" s="19">
+      <c r="F65" s="19">
         <v>19.126000000000001</v>
       </c>
-      <c r="G64" s="19">
+      <c r="G65" s="19">
         <v>2845.2860000000001</v>
       </c>
-      <c r="H64" s="19">
+      <c r="H65" s="19">
         <v>913.84799999999996</v>
       </c>
-      <c r="I64" s="19">
+      <c r="I65" s="19">
         <v>8628.9339999999993</v>
       </c>
-      <c r="J64" s="19">
+      <c r="J65" s="19">
         <v>2494.9360000000001</v>
       </c>
-      <c r="K64" s="19">
+      <c r="K65" s="19">
         <v>6734.2569999999996</v>
       </c>
-      <c r="L64" s="19"/>
-      <c r="M64" s="19">
+      <c r="L65" s="19"/>
+      <c r="M65" s="19">
         <v>214.13300000000001</v>
       </c>
-      <c r="N64" s="19">
+      <c r="N65" s="19">
         <v>1402.1505300000001</v>
       </c>
     </row>
-    <row r="65" spans="2:14" hidden="1">
-      <c r="B65" s="12">
+    <row r="66" spans="2:14" hidden="1">
+      <c r="B66" s="12">
         <v>2020</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C66" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="14">
+      <c r="D66" s="14">
         <f t="shared" si="1"/>
         <v>19183.500039999999</v>
       </c>
-      <c r="E65" s="15">
+      <c r="E66" s="15">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F65" s="15">
+      <c r="F66" s="15">
         <v>18.687000000000001</v>
       </c>
-      <c r="G65" s="15">
+      <c r="G66" s="15">
         <v>2326.4090000000001</v>
       </c>
-      <c r="H65" s="15">
+      <c r="H66" s="15">
         <v>969.73</v>
       </c>
-      <c r="I65" s="15">
+      <c r="I66" s="15">
         <v>5828.2169999999996</v>
       </c>
-      <c r="J65" s="15">
+      <c r="J66" s="15">
         <v>2394.4169999999999</v>
       </c>
-      <c r="K65" s="15">
+      <c r="K66" s="15">
         <v>6273.5619999999999</v>
       </c>
-      <c r="L65" s="15"/>
-      <c r="M65" s="15">
+      <c r="L66" s="15"/>
+      <c r="M66" s="15">
         <v>151.30000000000001</v>
       </c>
-      <c r="N65" s="15">
+      <c r="N66" s="15">
         <v>1221.17004</v>
       </c>
     </row>
-    <row r="66" spans="2:14" hidden="1">
-      <c r="B66" s="16">
+    <row r="67" spans="2:14" hidden="1">
+      <c r="B67" s="16">
         <v>2020</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C67" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D66" s="18">
+      <c r="D67" s="18">
         <f t="shared" si="1"/>
         <v>16639.803259999997</v>
       </c>
-      <c r="E66" s="19">
+      <c r="E67" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F66" s="19">
+      <c r="F67" s="19">
         <v>15.773</v>
       </c>
-      <c r="G66" s="19">
+      <c r="G67" s="19">
         <v>1336.4849999999999</v>
       </c>
-      <c r="H66" s="19">
+      <c r="H67" s="19">
         <v>585.92899999999997</v>
       </c>
-      <c r="I66" s="19">
+      <c r="I67" s="19">
         <v>5587.4769999999999</v>
       </c>
-      <c r="J66" s="19">
+      <c r="J67" s="19">
         <v>2256.6930000000002</v>
       </c>
-      <c r="K66" s="19">
+      <c r="K67" s="19">
         <v>5744.8710000000001</v>
       </c>
-      <c r="L66" s="19"/>
-      <c r="M66" s="19">
+      <c r="L67" s="19"/>
+      <c r="M67" s="19">
         <v>118.29600000000001</v>
       </c>
-      <c r="N66" s="19">
+      <c r="N67" s="19">
         <v>994.26826000000005</v>
       </c>
     </row>
-    <row r="67" spans="2:14" hidden="1">
-      <c r="B67" s="12">
+    <row r="68" spans="2:14" hidden="1">
+      <c r="B68" s="12">
         <v>2020</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C68" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D67" s="14">
+      <c r="D68" s="14">
         <f t="shared" si="1"/>
         <v>15467.05891</v>
       </c>
-      <c r="E67" s="15">
+      <c r="E68" s="15">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F67" s="15">
+      <c r="F68" s="15">
         <v>9.4559999999999995</v>
       </c>
-      <c r="G67" s="15">
+      <c r="G68" s="15">
         <v>799.72500000000002</v>
       </c>
-      <c r="H67" s="15">
+      <c r="H68" s="15">
         <v>697.28700000000003</v>
       </c>
-      <c r="I67" s="15">
+      <c r="I68" s="15">
         <v>5542.4840000000004</v>
       </c>
-      <c r="J67" s="15">
+      <c r="J68" s="15">
         <v>2132.3310000000001</v>
       </c>
-      <c r="K67" s="15">
+      <c r="K68" s="15">
         <v>5558.576</v>
       </c>
-      <c r="L67" s="15"/>
-      <c r="M67" s="15">
+      <c r="L68" s="15"/>
+      <c r="M68" s="15">
         <v>143.20510000000002</v>
       </c>
-      <c r="N67" s="15">
+      <c r="N68" s="15">
         <v>583.9918100000001</v>
       </c>
     </row>
-    <row r="68" spans="2:14" hidden="1">
-      <c r="B68" s="16">
+    <row r="69" spans="2:14" hidden="1">
+      <c r="B69" s="16">
         <v>2020</v>
       </c>
-      <c r="C68" s="17" t="s">
+      <c r="C69" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D68" s="18">
+      <c r="D69" s="18">
         <f t="shared" si="1"/>
         <v>13102.288870000002</v>
       </c>
-      <c r="E68" s="19">
+      <c r="E69" s="19">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F68" s="19">
+      <c r="F69" s="19">
         <v>7.4619999999999997</v>
       </c>
-      <c r="G68" s="19">
+      <c r="G69" s="19">
         <v>1038.125</v>
       </c>
-      <c r="H68" s="19">
+      <c r="H69" s="19">
         <v>754.48400000000004</v>
       </c>
-      <c r="I68" s="19">
+      <c r="I69" s="19">
         <v>5034.1760000000004</v>
       </c>
-      <c r="J68" s="19">
+      <c r="J69" s="19">
         <v>1894.93</v>
       </c>
-      <c r="K68" s="19">
+      <c r="K69" s="19">
         <v>3753.6880000000001</v>
       </c>
-      <c r="L68" s="19"/>
-      <c r="M68" s="19">
+      <c r="L69" s="19"/>
+      <c r="M69" s="19">
         <v>60.6843</v>
       </c>
-      <c r="N68" s="19">
+      <c r="N69" s="19">
         <v>558.7325699999999</v>
       </c>
     </row>
-    <row r="69" spans="2:14" hidden="1">
-      <c r="B69" s="12">
+    <row r="70" spans="2:14" hidden="1">
+      <c r="B70" s="12">
         <v>2020</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C70" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D69" s="14">
+      <c r="D70" s="14">
         <f t="shared" si="1"/>
         <v>21054.737990000001</v>
       </c>
-      <c r="E69" s="15">
+      <c r="E70" s="15">
         <v>3.1E-2</v>
       </c>
-      <c r="F69" s="15">
+      <c r="F70" s="15">
         <v>35.988999999999997</v>
       </c>
-      <c r="G69" s="15">
+      <c r="G70" s="15">
         <v>7356.9930000000004</v>
       </c>
-      <c r="H69" s="15">
+      <c r="H70" s="15">
         <v>1318.52</v>
       </c>
-      <c r="I69" s="15">
+      <c r="I70" s="15">
         <v>4797.09</v>
       </c>
-      <c r="J69" s="15">
+      <c r="J70" s="15">
         <v>1722.712</v>
       </c>
-      <c r="K69" s="15">
+      <c r="K70" s="15">
         <v>4510.4480000000003</v>
       </c>
-      <c r="L69" s="15"/>
-      <c r="M69" s="15">
+      <c r="L70" s="15"/>
+      <c r="M70" s="15">
         <v>102.3022</v>
       </c>
-      <c r="N69" s="15">
+      <c r="N70" s="15">
         <v>1210.6527900000001</v>
       </c>
     </row>
-    <row r="70" spans="2:14" hidden="1">
-      <c r="B70" s="16">
+    <row r="71" spans="2:14" hidden="1">
+      <c r="B71" s="16">
         <v>2020</v>
       </c>
-      <c r="C70" s="17" t="s">
+      <c r="C71" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D70" s="18">
+      <c r="D71" s="18">
         <f t="shared" si="1"/>
         <v>21338.277510000004</v>
       </c>
-      <c r="E70" s="19">
+      <c r="E71" s="19">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F70" s="19">
+      <c r="F71" s="19">
         <v>56.369</v>
       </c>
-      <c r="G70" s="19">
+      <c r="G71" s="19">
         <v>9237.1190000000006</v>
       </c>
-      <c r="H70" s="19">
+      <c r="H71" s="19">
         <v>1428.3530000000001</v>
       </c>
-      <c r="I70" s="19">
+      <c r="I71" s="19">
         <v>3273.0720000000001</v>
       </c>
-      <c r="J70" s="19">
+      <c r="J71" s="19">
         <v>1520.239</v>
       </c>
-      <c r="K70" s="19">
+      <c r="K71" s="19">
         <v>4116.8599999999997</v>
       </c>
-      <c r="L70" s="19"/>
-      <c r="M70" s="19">
+      <c r="L71" s="19"/>
+      <c r="M71" s="19">
         <v>132.3349</v>
       </c>
-      <c r="N70" s="19">
+      <c r="N71" s="19">
         <v>1573.90461</v>
       </c>
     </row>
-    <row r="71" spans="2:14" hidden="1">
-      <c r="B71" s="20">
+    <row r="72" spans="2:14" hidden="1">
+      <c r="B72" s="20">
         <v>2020</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C72" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D71" s="22">
-        <f t="shared" ref="D71:D102" si="2">SUM(E71:N71)</f>
+      <c r="D72" s="22">
+        <f t="shared" ref="D72:D96" si="2">SUM(E72:N72)</f>
         <v>24231.444509999998</v>
       </c>
-      <c r="E71" s="23">
+      <c r="E72" s="23">
         <v>4.7E-2</v>
       </c>
-      <c r="F71" s="23">
+      <c r="F72" s="23">
         <v>53.219000000000001</v>
       </c>
-      <c r="G71" s="23">
+      <c r="G72" s="23">
         <v>8754.5229999999992</v>
       </c>
-      <c r="H71" s="23">
+      <c r="H72" s="23">
         <v>1369.674</v>
       </c>
-      <c r="I71" s="23">
+      <c r="I72" s="23">
         <v>5338.8549999999996</v>
       </c>
-      <c r="J71" s="23">
+      <c r="J72" s="23">
         <v>1679.8140000000001</v>
       </c>
-      <c r="K71" s="23">
+      <c r="K72" s="23">
         <v>5287.6</v>
       </c>
-      <c r="L71" s="23"/>
-      <c r="M71" s="23">
+      <c r="L72" s="23"/>
+      <c r="M72" s="23">
         <v>71.972800000000007</v>
       </c>
-      <c r="N71" s="23">
+      <c r="N72" s="23">
         <v>1675.7397100000001</v>
       </c>
     </row>
-    <row r="72" spans="2:14" hidden="1">
-      <c r="B72" s="24">
+    <row r="73" spans="2:14" hidden="1">
+      <c r="B73" s="24">
         <v>2019</v>
       </c>
-      <c r="C72" s="25" t="s">
+      <c r="C73" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D72" s="26">
+      <c r="D73" s="26">
         <f t="shared" si="2"/>
         <v>28498.730729999996</v>
       </c>
-      <c r="E72" s="27">
+      <c r="E73" s="27">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="F72" s="27">
+      <c r="F73" s="27">
         <v>86.153999999999996</v>
       </c>
-      <c r="G72" s="27">
+      <c r="G73" s="27">
         <v>9577.1149999999998</v>
       </c>
-      <c r="H72" s="27">
+      <c r="H73" s="27">
         <v>1676.4159999999999</v>
       </c>
-      <c r="I72" s="27">
+      <c r="I73" s="27">
         <v>6029.0749999999998</v>
       </c>
-      <c r="J72" s="27">
+      <c r="J73" s="27">
         <v>2445.3470000000002</v>
       </c>
-      <c r="K72" s="27">
+      <c r="K73" s="27">
         <v>5030.2939999999999</v>
       </c>
-      <c r="L72" s="27"/>
-      <c r="M72" s="27">
+      <c r="L73" s="27"/>
+      <c r="M73" s="27">
         <v>65.746300000000005</v>
       </c>
-      <c r="N72" s="27">
+      <c r="N73" s="27">
         <v>3588.5074299999997</v>
       </c>
     </row>
-    <row r="73" spans="2:14" hidden="1">
-      <c r="B73" s="12">
+    <row r="74" spans="2:14" hidden="1">
+      <c r="B74" s="12">
         <v>2019</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C74" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D73" s="14">
+      <c r="D74" s="14">
         <f t="shared" si="2"/>
         <v>28748.500410000001</v>
       </c>
-      <c r="E73" s="15">
+      <c r="E74" s="15">
         <v>1.76</v>
       </c>
-      <c r="F73" s="15">
+      <c r="F74" s="15">
         <v>80.100999999999999</v>
       </c>
-      <c r="G73" s="15">
+      <c r="G74" s="15">
         <v>9752.0519999999997</v>
       </c>
-      <c r="H73" s="15">
+      <c r="H74" s="15">
         <v>1595.383</v>
       </c>
-      <c r="I73" s="15">
+      <c r="I74" s="15">
         <v>5103.0559999999996</v>
       </c>
-      <c r="J73" s="15">
+      <c r="J74" s="15">
         <v>2658.252</v>
       </c>
-      <c r="K73" s="15">
+      <c r="K74" s="15">
         <v>5793.69</v>
       </c>
-      <c r="L73" s="15"/>
-      <c r="M73" s="15">
+      <c r="L74" s="15"/>
+      <c r="M74" s="15">
         <v>12.758299999999998</v>
       </c>
-      <c r="N73" s="15">
+      <c r="N74" s="15">
         <v>3751.4481100000003</v>
       </c>
     </row>
-    <row r="74" spans="2:14" hidden="1">
-      <c r="B74" s="16">
+    <row r="75" spans="2:14" hidden="1">
+      <c r="B75" s="16">
         <v>2019</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C75" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D74" s="18">
+      <c r="D75" s="18">
         <f t="shared" si="2"/>
         <v>28546.757959999995</v>
       </c>
-      <c r="E74" s="19">
+      <c r="E75" s="19">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="F74" s="19">
+      <c r="F75" s="19">
         <v>72</v>
       </c>
-      <c r="G74" s="19">
+      <c r="G75" s="19">
         <v>9994.6419999999998</v>
       </c>
-      <c r="H74" s="19">
+      <c r="H75" s="19">
         <v>1608.7059999999999</v>
       </c>
-      <c r="I74" s="19">
+      <c r="I75" s="19">
         <v>4575.3310000000001</v>
       </c>
-      <c r="J74" s="19">
+      <c r="J75" s="19">
         <v>2828.3510000000001</v>
       </c>
-      <c r="K74" s="19">
+      <c r="K75" s="19">
         <v>5549.9949999999999</v>
       </c>
-      <c r="L74" s="19"/>
-      <c r="M74" s="19"/>
-      <c r="N74" s="19">
+      <c r="L75" s="19"/>
+      <c r="M75" s="19"/>
+      <c r="N75" s="19">
         <v>3917.6479599999998</v>
       </c>
     </row>
-    <row r="75" spans="2:14" hidden="1">
-      <c r="B75" s="12">
+    <row r="76" spans="2:14" hidden="1">
+      <c r="B76" s="12">
         <v>2019</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C76" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D75" s="14">
+      <c r="D76" s="14">
         <f t="shared" si="2"/>
         <v>26837.728249999996</v>
       </c>
-      <c r="E75" s="15">
+      <c r="E76" s="15">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F75" s="15">
+      <c r="F76" s="15">
         <v>54.752000000000002</v>
       </c>
-      <c r="G75" s="15">
+      <c r="G76" s="15">
         <v>9010.31</v>
       </c>
-      <c r="H75" s="15">
+      <c r="H76" s="15">
         <v>1396.2560000000001</v>
       </c>
-      <c r="I75" s="15">
+      <c r="I76" s="15">
         <v>5775.3389999999999</v>
       </c>
-      <c r="J75" s="15">
+      <c r="J76" s="15">
         <v>2331.1950000000002</v>
       </c>
-      <c r="K75" s="15">
+      <c r="K76" s="15">
         <v>4893.7089999999998</v>
       </c>
-      <c r="L75" s="15"/>
-      <c r="M75" s="15"/>
-      <c r="N75" s="15">
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15">
         <v>3376.1322500000001</v>
       </c>
     </row>
-    <row r="76" spans="2:14" hidden="1">
-      <c r="B76" s="16">
+    <row r="77" spans="2:14" hidden="1">
+      <c r="B77" s="16">
         <v>2019</v>
       </c>
-      <c r="C76" s="17" t="s">
+      <c r="C77" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D76" s="18">
+      <c r="D77" s="18">
         <f t="shared" si="2"/>
         <v>26206.644859999997</v>
       </c>
-      <c r="E76" s="19">
+      <c r="E77" s="19">
         <v>5.59633</v>
       </c>
-      <c r="F76" s="19">
+      <c r="F77" s="19">
         <v>57.29</v>
       </c>
-      <c r="G76" s="19">
+      <c r="G77" s="19">
         <v>8610.5910000000003</v>
       </c>
-      <c r="H76" s="19">
+      <c r="H77" s="19">
         <v>1665.9570000000001</v>
       </c>
-      <c r="I76" s="19">
+      <c r="I77" s="19">
         <v>5196.0309999999999</v>
       </c>
-      <c r="J76" s="19">
+      <c r="J77" s="19">
         <v>2672.4050000000002</v>
       </c>
-      <c r="K76" s="19">
+      <c r="K77" s="19">
         <v>4774.3459999999995</v>
       </c>
-      <c r="L76" s="19"/>
-      <c r="M76" s="19"/>
-      <c r="N76" s="19">
+      <c r="L77" s="19"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="19">
         <v>3224.4285300000001</v>
       </c>
     </row>
-    <row r="77" spans="2:14" hidden="1">
-      <c r="B77" s="12">
+    <row r="78" spans="2:14" hidden="1">
+      <c r="B78" s="12">
         <v>2019</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C78" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D77" s="14">
+      <c r="D78" s="14">
         <f t="shared" si="2"/>
         <v>26365.98129</v>
       </c>
-      <c r="E77" s="15">
+      <c r="E78" s="15">
         <v>6.0529999999999999</v>
       </c>
-      <c r="F77" s="15">
+      <c r="F78" s="15">
         <v>57.801000000000002</v>
       </c>
-      <c r="G77" s="15">
+      <c r="G78" s="15">
         <v>8986.9670000000006</v>
       </c>
-      <c r="H77" s="15">
+      <c r="H78" s="15">
         <v>1788.191</v>
       </c>
-      <c r="I77" s="15">
+      <c r="I78" s="15">
         <v>5135.1639999999998</v>
       </c>
-      <c r="J77" s="15">
+      <c r="J78" s="15">
         <v>2578.5520000000001</v>
       </c>
-      <c r="K77" s="15">
+      <c r="K78" s="15">
         <v>4798.0159999999996</v>
       </c>
-      <c r="L77" s="15"/>
-      <c r="M77" s="15"/>
-      <c r="N77" s="15">
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15">
         <v>3015.23729</v>
       </c>
     </row>
-    <row r="78" spans="2:14" hidden="1">
-      <c r="B78" s="16">
+    <row r="79" spans="2:14" hidden="1">
+      <c r="B79" s="16">
         <v>2019</v>
       </c>
-      <c r="C78" s="17" t="s">
+      <c r="C79" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D78" s="18">
+      <c r="D79" s="18">
         <f t="shared" si="2"/>
         <v>24932.340609999999</v>
       </c>
-      <c r="E78" s="19">
+      <c r="E79" s="19">
         <v>5.46</v>
       </c>
-      <c r="F78" s="19">
+      <c r="F79" s="19">
         <v>55.997999999999998</v>
       </c>
-      <c r="G78" s="19">
+      <c r="G79" s="19">
         <v>8069.7749999999996</v>
       </c>
-      <c r="H78" s="19">
+      <c r="H79" s="19">
         <v>1587.973</v>
       </c>
-      <c r="I78" s="19">
+      <c r="I79" s="19">
         <v>5215.268</v>
       </c>
-      <c r="J78" s="19">
+      <c r="J79" s="19">
         <v>2428.5169999999998</v>
       </c>
-      <c r="K78" s="19">
+      <c r="K79" s="19">
         <v>4450.9750000000004</v>
       </c>
-      <c r="L78" s="19"/>
-      <c r="M78" s="19"/>
-      <c r="N78" s="19">
+      <c r="L79" s="19"/>
+      <c r="M79" s="19"/>
+      <c r="N79" s="19">
         <v>3118.3746100000003</v>
       </c>
     </row>
-    <row r="79" spans="2:14" hidden="1">
-      <c r="B79" s="12">
+    <row r="80" spans="2:14" hidden="1">
+      <c r="B80" s="12">
         <v>2019</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C80" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D79" s="14">
+      <c r="D80" s="14">
         <f t="shared" si="2"/>
         <v>26706.828539999999</v>
       </c>
-      <c r="E79" s="15">
+      <c r="E80" s="15">
         <v>6.2110000000000003</v>
       </c>
-      <c r="F79" s="15">
+      <c r="F80" s="15">
         <v>67.53</v>
       </c>
-      <c r="G79" s="15">
+      <c r="G80" s="15">
         <v>8472.9789999999994</v>
       </c>
-      <c r="H79" s="15">
+      <c r="H80" s="15">
         <v>1708.221</v>
       </c>
-      <c r="I79" s="15">
+      <c r="I80" s="15">
         <v>5081.5749999999998</v>
       </c>
-      <c r="J79" s="15">
+      <c r="J80" s="15">
         <v>2646.9789999999998</v>
       </c>
-      <c r="K79" s="15">
+      <c r="K80" s="15">
         <v>5332.5439999999999</v>
       </c>
-      <c r="L79" s="15"/>
-      <c r="M79" s="15"/>
-      <c r="N79" s="15">
+      <c r="L80" s="15"/>
+      <c r="M80" s="15"/>
+      <c r="N80" s="15">
         <v>3390.7895400000002</v>
       </c>
     </row>
-    <row r="80" spans="2:14" hidden="1">
-      <c r="B80" s="16">
+    <row r="81" spans="2:15" hidden="1">
+      <c r="B81" s="16">
         <v>2019</v>
       </c>
-      <c r="C80" s="17" t="s">
+      <c r="C81" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D80" s="18">
+      <c r="D81" s="18">
         <f t="shared" si="2"/>
         <v>28802.903179999994</v>
       </c>
-      <c r="E80" s="19">
+      <c r="E81" s="19">
         <v>7.8460000000000001</v>
       </c>
-      <c r="F80" s="19">
+      <c r="F81" s="19">
         <v>56.534999999999997</v>
       </c>
-      <c r="G80" s="19">
+      <c r="G81" s="19">
         <v>8624.3449999999993</v>
       </c>
-      <c r="H80" s="19">
+      <c r="H81" s="19">
         <v>1621.0229999999999</v>
       </c>
-      <c r="I80" s="19">
+      <c r="I81" s="19">
         <v>8671.3349999999991</v>
       </c>
-      <c r="J80" s="19">
+      <c r="J81" s="19">
         <v>2304.8890000000001</v>
       </c>
-      <c r="K80" s="19">
+      <c r="K81" s="19">
         <v>4465.5820000000003</v>
       </c>
-      <c r="L80" s="19"/>
-      <c r="M80" s="19"/>
-      <c r="N80" s="19">
+      <c r="L81" s="19"/>
+      <c r="M81" s="19"/>
+      <c r="N81" s="19">
         <v>3051.34818</v>
       </c>
     </row>
-    <row r="81" spans="2:15" hidden="1">
-      <c r="B81" s="12">
+    <row r="82" spans="2:15" hidden="1">
+      <c r="B82" s="12">
         <v>2019</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C82" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D81" s="14">
+      <c r="D82" s="14">
         <f t="shared" si="2"/>
         <v>28988.519560000001</v>
       </c>
-      <c r="E81" s="15">
+      <c r="E82" s="15">
         <v>5.36</v>
       </c>
-      <c r="F81" s="15">
+      <c r="F82" s="15">
         <v>59.417999999999999</v>
       </c>
-      <c r="G81" s="15">
+      <c r="G82" s="15">
         <v>9153.4</v>
       </c>
-      <c r="H81" s="15">
+      <c r="H82" s="15">
         <v>1573.4939999999999</v>
       </c>
-      <c r="I81" s="15">
+      <c r="I82" s="15">
         <v>7744.9759999999997</v>
       </c>
-      <c r="J81" s="15">
+      <c r="J82" s="15">
         <v>2483.4180000000001</v>
       </c>
-      <c r="K81" s="15">
+      <c r="K82" s="15">
         <v>4955.9579999999996</v>
       </c>
-      <c r="L81" s="15"/>
-      <c r="M81" s="15"/>
-      <c r="N81" s="15">
+      <c r="L82" s="15"/>
+      <c r="M82" s="15"/>
+      <c r="N82" s="15">
         <v>3012.4955599999998</v>
       </c>
     </row>
-    <row r="82" spans="2:15" hidden="1">
-      <c r="B82" s="16">
+    <row r="83" spans="2:15" hidden="1">
+      <c r="B83" s="16">
         <v>2019</v>
       </c>
-      <c r="C82" s="17" t="s">
+      <c r="C83" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D82" s="18">
+      <c r="D83" s="18">
         <f t="shared" si="2"/>
         <v>25224.750899999999</v>
       </c>
-      <c r="E82" s="19">
+      <c r="E83" s="19">
         <v>5.3540000000000001</v>
       </c>
-      <c r="F82" s="19">
+      <c r="F83" s="19">
         <v>60.44</v>
       </c>
-      <c r="G82" s="19">
+      <c r="G83" s="19">
         <v>8240.6730000000007</v>
       </c>
-      <c r="H82" s="19">
+      <c r="H83" s="19">
         <v>1223.51</v>
       </c>
-      <c r="I82" s="19">
+      <c r="I83" s="19">
         <v>6582.1109999999999</v>
       </c>
-      <c r="J82" s="19">
+      <c r="J83" s="19">
         <v>2315.9119999999998</v>
       </c>
-      <c r="K82" s="19">
+      <c r="K83" s="19">
         <v>3688.9839999999999</v>
       </c>
-      <c r="L82" s="19"/>
-      <c r="M82" s="19"/>
-      <c r="N82" s="19">
+      <c r="L83" s="19"/>
+      <c r="M83" s="19"/>
+      <c r="N83" s="19">
         <v>3107.7669000000001</v>
       </c>
     </row>
-    <row r="83" spans="2:15" hidden="1">
-      <c r="B83" s="20">
+    <row r="84" spans="2:15" hidden="1">
+      <c r="B84" s="20">
         <v>2019</v>
       </c>
-      <c r="C83" s="21" t="s">
+      <c r="C84" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D83" s="22">
+      <c r="D84" s="22">
         <f t="shared" si="2"/>
         <v>27252.757690000006</v>
       </c>
-      <c r="E83" s="23">
+      <c r="E84" s="23">
         <v>6.7610000000000001</v>
       </c>
-      <c r="F83" s="23">
+      <c r="F84" s="23">
         <v>74.009</v>
       </c>
-      <c r="G83" s="23">
+      <c r="G84" s="23">
         <v>7747.527</v>
       </c>
-      <c r="H83" s="23">
+      <c r="H84" s="23">
         <v>1196.4000000000001</v>
       </c>
-      <c r="I83" s="23">
+      <c r="I84" s="23">
         <v>8376.51</v>
       </c>
-      <c r="J83" s="23">
+      <c r="J84" s="23">
         <v>2613.239</v>
       </c>
-      <c r="K83" s="23">
+      <c r="K84" s="23">
         <v>3965.1860000000001</v>
       </c>
-      <c r="L83" s="23"/>
-      <c r="M83" s="23"/>
-      <c r="N83" s="23">
+      <c r="L84" s="23"/>
+      <c r="M84" s="23"/>
+      <c r="N84" s="23">
         <v>3273.1256899999998</v>
       </c>
     </row>
-    <row r="84" spans="2:15" hidden="1">
-      <c r="B84" s="17">
+    <row r="85" spans="2:15" hidden="1">
+      <c r="B85" s="17">
         <v>2018</v>
       </c>
-      <c r="C84" s="17" t="s">
+      <c r="C85" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D84" s="18">
+      <c r="D85" s="18">
         <f t="shared" si="2"/>
         <v>25286.098999999998</v>
       </c>
-      <c r="E84" s="19">
+      <c r="E85" s="19">
         <v>11.624000000000001</v>
       </c>
-      <c r="F84" s="19">
+      <c r="F85" s="19">
         <v>93.391999999999996</v>
       </c>
-      <c r="G84" s="19">
+      <c r="G85" s="19">
         <v>8828.0380000000005</v>
       </c>
-      <c r="H84" s="19">
+      <c r="H85" s="19">
         <v>1419.221</v>
       </c>
-      <c r="I84" s="19">
+      <c r="I85" s="19">
         <v>8160.1949999999997</v>
       </c>
-      <c r="J84" s="19">
+      <c r="J85" s="19">
         <v>2550.1379999999999</v>
       </c>
-      <c r="K84" s="19">
+      <c r="K85" s="19">
         <v>4208.37</v>
       </c>
-      <c r="L84" s="19"/>
-      <c r="M84" s="19"/>
-      <c r="N84" s="19">
+      <c r="L85" s="19"/>
+      <c r="M85" s="19"/>
+      <c r="N85" s="19">
         <v>15.121</v>
       </c>
     </row>
-    <row r="85" spans="2:15" hidden="1">
-      <c r="B85" s="13">
+    <row r="86" spans="2:15" hidden="1">
+      <c r="B86" s="13">
         <v>2018</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C86" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D85" s="14">
+      <c r="D86" s="14">
         <f t="shared" si="2"/>
         <v>27988.239000000005</v>
       </c>
-      <c r="E85" s="15">
+      <c r="E86" s="15">
         <v>9.8219999999999992</v>
       </c>
-      <c r="F85" s="15">
+      <c r="F86" s="15">
         <v>90.676000000000002</v>
       </c>
-      <c r="G85" s="15">
+      <c r="G86" s="15">
         <v>9033.7459999999992</v>
       </c>
-      <c r="H85" s="15">
+      <c r="H86" s="15">
         <v>1677.8789999999999</v>
       </c>
-      <c r="I85" s="15">
+      <c r="I86" s="15">
         <v>9087.1730000000007</v>
       </c>
-      <c r="J85" s="15">
+      <c r="J86" s="15">
         <v>2973.703</v>
       </c>
-      <c r="K85" s="15">
+      <c r="K86" s="15">
         <v>5104.8959999999997</v>
       </c>
-      <c r="L85" s="15"/>
-      <c r="M85" s="15"/>
-      <c r="N85" s="15">
+      <c r="L86" s="15"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="15">
         <v>10.343999999999999</v>
       </c>
     </row>
-    <row r="86" spans="2:15" hidden="1">
-      <c r="B86" s="17">
+    <row r="87" spans="2:15" hidden="1">
+      <c r="B87" s="17">
         <v>2018</v>
       </c>
-      <c r="C86" s="17" t="s">
+      <c r="C87" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D86" s="18">
+      <c r="D87" s="18">
         <f t="shared" si="2"/>
         <v>28677.123</v>
       </c>
-      <c r="E86" s="19">
+      <c r="E87" s="19">
         <v>8.2870000000000008</v>
       </c>
-      <c r="F86" s="19">
+      <c r="F87" s="19">
         <v>78.7</v>
       </c>
-      <c r="G86" s="19">
+      <c r="G87" s="19">
         <v>8819.0689999999995</v>
       </c>
-      <c r="H86" s="19">
+      <c r="H87" s="19">
         <v>1516.8230000000001</v>
       </c>
-      <c r="I86" s="19">
+      <c r="I87" s="19">
         <v>9777.8709999999992</v>
       </c>
-      <c r="J86" s="19">
+      <c r="J87" s="19">
         <v>2987.6489999999999</v>
       </c>
-      <c r="K86" s="19">
+      <c r="K87" s="19">
         <v>5477.6930000000002</v>
       </c>
-      <c r="L86" s="19"/>
-      <c r="M86" s="19"/>
-      <c r="N86" s="19">
+      <c r="L87" s="19"/>
+      <c r="M87" s="19"/>
+      <c r="N87" s="19">
         <v>11.031000000000001</v>
       </c>
     </row>
-    <row r="87" spans="2:15" hidden="1">
-      <c r="B87" s="13">
+    <row r="88" spans="2:15" hidden="1">
+      <c r="B88" s="13">
         <v>2018</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C88" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D87" s="14">
+      <c r="D88" s="14">
         <f t="shared" si="2"/>
         <v>25347.695</v>
       </c>
-      <c r="E87" s="15">
+      <c r="E88" s="15">
         <v>10.707000000000001</v>
       </c>
-      <c r="F87" s="15">
+      <c r="F88" s="15">
         <v>62.167000000000002</v>
       </c>
-      <c r="G87" s="15">
+      <c r="G88" s="15">
         <v>8102.4960000000001</v>
       </c>
-      <c r="H87" s="15">
+      <c r="H88" s="15">
         <v>1416.539</v>
       </c>
-      <c r="I87" s="15">
+      <c r="I88" s="15">
         <v>8463.5859999999993</v>
       </c>
-      <c r="J87" s="15">
+      <c r="J88" s="15">
         <v>2463.84</v>
       </c>
-      <c r="K87" s="15">
+      <c r="K88" s="15">
         <v>4814.68</v>
       </c>
-      <c r="L87" s="15"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="15">
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="15">
         <v>13.68</v>
       </c>
     </row>
-    <row r="88" spans="2:15" hidden="1">
-      <c r="B88" s="17">
+    <row r="89" spans="2:15" hidden="1">
+      <c r="B89" s="17">
         <v>2018</v>
       </c>
-      <c r="C88" s="17" t="s">
+      <c r="C89" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D88" s="18">
+      <c r="D89" s="18">
         <f t="shared" si="2"/>
         <v>25723.010999999999</v>
       </c>
-      <c r="E88" s="19">
+      <c r="E89" s="19">
         <v>10.06</v>
       </c>
-      <c r="F88" s="19">
+      <c r="F89" s="19">
         <v>67.233999999999995</v>
       </c>
-      <c r="G88" s="19">
+      <c r="G89" s="19">
         <v>8035.7269999999999</v>
       </c>
-      <c r="H88" s="19">
+      <c r="H89" s="19">
         <v>1692.001</v>
       </c>
-      <c r="I88" s="19">
+      <c r="I89" s="19">
         <v>8464.9650000000001</v>
       </c>
-      <c r="J88" s="19">
+      <c r="J89" s="19">
         <v>2758.96</v>
       </c>
-      <c r="K88" s="19">
+      <c r="K89" s="19">
         <v>4679.0959999999995</v>
       </c>
-      <c r="L88" s="19"/>
-      <c r="M88" s="19"/>
-      <c r="N88" s="19">
+      <c r="L89" s="19"/>
+      <c r="M89" s="19"/>
+      <c r="N89" s="19">
         <v>14.968</v>
       </c>
     </row>
-    <row r="89" spans="2:15" hidden="1">
-      <c r="B89" s="13">
+    <row r="90" spans="2:15" hidden="1">
+      <c r="B90" s="13">
         <v>2018</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C90" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D89" s="14">
+      <c r="D90" s="14">
         <f t="shared" si="2"/>
         <v>25744.468000000001</v>
       </c>
-      <c r="E89" s="15">
+      <c r="E90" s="15">
         <v>10.051</v>
       </c>
-      <c r="F89" s="15">
+      <c r="F90" s="15">
         <v>63.811</v>
       </c>
-      <c r="G89" s="15">
+      <c r="G90" s="15">
         <v>7722.7290000000003</v>
       </c>
-      <c r="H89" s="15">
+      <c r="H90" s="15">
         <v>1496.4</v>
       </c>
-      <c r="I89" s="15">
+      <c r="I90" s="15">
         <v>8747.1980000000003</v>
       </c>
-      <c r="J89" s="15">
+      <c r="J90" s="15">
         <v>2551.65</v>
       </c>
-      <c r="K89" s="15">
+      <c r="K90" s="15">
         <v>5136.6130000000003</v>
       </c>
-      <c r="L89" s="15"/>
-      <c r="M89" s="15"/>
-      <c r="N89" s="15">
+      <c r="L90" s="15"/>
+      <c r="M90" s="15"/>
+      <c r="N90" s="15">
         <v>16.015999999999998</v>
       </c>
     </row>
-    <row r="90" spans="2:15" hidden="1">
-      <c r="B90" s="17">
+    <row r="91" spans="2:15" hidden="1">
+      <c r="B91" s="17">
         <v>2018</v>
       </c>
-      <c r="C90" s="17" t="s">
+      <c r="C91" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D90" s="18">
+      <c r="D91" s="18">
         <f t="shared" si="2"/>
         <v>26044.613100000002</v>
       </c>
-      <c r="E90" s="19">
+      <c r="E91" s="19">
         <v>5.8701000000000008</v>
       </c>
-      <c r="F90" s="19">
+      <c r="F91" s="19">
         <v>68.567999999999998</v>
       </c>
-      <c r="G90" s="19">
+      <c r="G91" s="19">
         <v>7714.4070000000002</v>
       </c>
-      <c r="H90" s="19">
+      <c r="H91" s="19">
         <v>1561.0450000000001</v>
       </c>
-      <c r="I90" s="19">
+      <c r="I91" s="19">
         <v>8940.5429999999997</v>
       </c>
-      <c r="J90" s="19">
+      <c r="J91" s="19">
         <v>2632.7139999999999</v>
       </c>
-      <c r="K90" s="19">
+      <c r="K91" s="19">
         <v>5110.2619999999997</v>
       </c>
-      <c r="L90" s="19"/>
-      <c r="M90" s="19"/>
-      <c r="N90" s="19">
+      <c r="L91" s="19"/>
+      <c r="M91" s="19"/>
+      <c r="N91" s="19">
         <v>11.204000000000001</v>
       </c>
     </row>
-    <row r="91" spans="2:15" hidden="1">
-      <c r="B91" s="13">
+    <row r="92" spans="2:15" hidden="1">
+      <c r="B92" s="13">
         <v>2018</v>
       </c>
-      <c r="C91" s="13" t="s">
+      <c r="C92" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D91" s="14">
+      <c r="D92" s="14">
         <f t="shared" si="2"/>
         <v>26929.514660000001</v>
       </c>
-      <c r="E91" s="15">
+      <c r="E92" s="15">
         <v>7.8816600000000001</v>
       </c>
-      <c r="F91" s="15">
+      <c r="F92" s="15">
         <v>82.861999999999995</v>
       </c>
-      <c r="G91" s="15">
+      <c r="G92" s="15">
         <v>8118.165</v>
       </c>
-      <c r="H91" s="15">
+      <c r="H92" s="15">
         <v>1532.5719999999999</v>
       </c>
-      <c r="I91" s="15">
+      <c r="I92" s="15">
         <v>8129.585</v>
       </c>
-      <c r="J91" s="15">
+      <c r="J92" s="15">
         <v>2956.08</v>
       </c>
-      <c r="K91" s="15">
+      <c r="K92" s="15">
         <v>6089.1620000000003</v>
       </c>
-      <c r="L91" s="15"/>
-      <c r="M91" s="15"/>
-      <c r="N91" s="15">
+      <c r="L92" s="15"/>
+      <c r="M92" s="15"/>
+      <c r="N92" s="15">
         <v>13.207000000000001</v>
       </c>
     </row>
-    <row r="92" spans="2:15" hidden="1">
-      <c r="B92" s="17">
+    <row r="93" spans="2:15" hidden="1">
+      <c r="B93" s="17">
         <v>2018</v>
       </c>
-      <c r="C92" s="17" t="s">
+      <c r="C93" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D92" s="18">
+      <c r="D93" s="18">
         <f t="shared" si="2"/>
         <v>27443.513780000008</v>
       </c>
-      <c r="E92" s="19">
+      <c r="E93" s="19">
         <v>9.12378</v>
       </c>
-      <c r="F92" s="19">
+      <c r="F93" s="19">
         <v>60.970999999999997</v>
       </c>
-      <c r="G92" s="19">
+      <c r="G93" s="19">
         <v>7926.723</v>
       </c>
-      <c r="H92" s="19">
+      <c r="H93" s="19">
         <v>1477.489</v>
       </c>
-      <c r="I92" s="19">
+      <c r="I93" s="19">
         <v>9672.3250000000007</v>
       </c>
-      <c r="J92" s="19">
+      <c r="J93" s="19">
         <v>2860.578</v>
       </c>
-      <c r="K92" s="19">
+      <c r="K93" s="19">
         <v>5423.6540000000005</v>
       </c>
-      <c r="L92" s="19"/>
-      <c r="M92" s="19"/>
-      <c r="N92" s="19">
+      <c r="L93" s="19"/>
+      <c r="M93" s="19"/>
+      <c r="N93" s="19">
         <v>12.65</v>
       </c>
     </row>
-    <row r="93" spans="2:15" hidden="1">
-      <c r="B93" s="13">
+    <row r="94" spans="2:15" hidden="1">
+      <c r="B94" s="13">
         <v>2018</v>
       </c>
-      <c r="C93" s="13" t="s">
+      <c r="C94" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D93" s="14">
+      <c r="D94" s="14">
         <f t="shared" si="2"/>
         <v>28574.49928</v>
       </c>
-      <c r="E93" s="15">
+      <c r="E94" s="15">
         <v>8.1962799999999998</v>
       </c>
-      <c r="F93" s="15">
+      <c r="F94" s="15">
         <v>71.811000000000007</v>
       </c>
-      <c r="G93" s="15">
+      <c r="G94" s="15">
         <v>8844.2019999999993</v>
       </c>
-      <c r="H93" s="15">
+      <c r="H94" s="15">
         <v>1647.098</v>
       </c>
-      <c r="I93" s="15">
+      <c r="I94" s="15">
         <v>9860.2800000000007</v>
       </c>
-      <c r="J93" s="15">
+      <c r="J94" s="15">
         <v>2743.1410000000001</v>
       </c>
-      <c r="K93" s="15">
+      <c r="K94" s="15">
         <v>5387.3890000000001</v>
       </c>
-      <c r="L93" s="15"/>
-      <c r="M93" s="15"/>
-      <c r="N93" s="15">
+      <c r="L94" s="15"/>
+      <c r="M94" s="15"/>
+      <c r="N94" s="15">
         <v>12.382</v>
       </c>
     </row>
-    <row r="94" spans="2:15" hidden="1">
-      <c r="B94" s="17">
+    <row r="95" spans="2:15" hidden="1">
+      <c r="B95" s="17">
         <v>2018</v>
       </c>
-      <c r="C94" s="17" t="s">
+      <c r="C95" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D94" s="18">
+      <c r="D95" s="18">
         <f t="shared" si="2"/>
         <v>23843.590900000003</v>
       </c>
-      <c r="E94" s="19">
+      <c r="E95" s="19">
         <v>6.7148999999999992</v>
       </c>
-      <c r="F94" s="19">
+      <c r="F95" s="19">
         <v>59.457000000000001</v>
       </c>
-      <c r="G94" s="19">
+      <c r="G95" s="19">
         <v>7977.2039999999997</v>
       </c>
-      <c r="H94" s="19">
+      <c r="H95" s="19">
         <v>1378.8910000000001</v>
       </c>
-      <c r="I94" s="19">
+      <c r="I95" s="19">
         <v>7402.5730000000003</v>
       </c>
-      <c r="J94" s="19">
+      <c r="J95" s="19">
         <v>2577</v>
       </c>
-      <c r="K94" s="19">
+      <c r="K95" s="19">
         <v>4430.4210000000003</v>
       </c>
-      <c r="L94" s="19"/>
-      <c r="M94" s="19"/>
-      <c r="N94" s="19">
+      <c r="L95" s="19"/>
+      <c r="M95" s="19"/>
+      <c r="N95" s="19">
         <v>11.33</v>
       </c>
     </row>
-    <row r="95" spans="2:15" hidden="1">
-      <c r="B95" s="13">
+    <row r="96" spans="2:15" hidden="1">
+      <c r="B96" s="13">
         <v>2018</v>
       </c>
-      <c r="C95" s="13" t="s">
+      <c r="C96" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D95" s="14">
+      <c r="D96" s="14">
         <f t="shared" si="2"/>
         <v>23638.932999999997</v>
       </c>
-      <c r="E95" s="15">
+      <c r="E96" s="15">
         <v>6.9589999999999996</v>
       </c>
-      <c r="F95" s="15">
+      <c r="F96" s="15">
         <v>66.08</v>
       </c>
-      <c r="G95" s="15">
+      <c r="G96" s="15">
         <v>7737.0140000000001</v>
       </c>
-      <c r="H95" s="15">
+      <c r="H96" s="15">
         <v>1410.72</v>
       </c>
-      <c r="I95" s="15">
+      <c r="I96" s="15">
         <v>6932.2910000000002</v>
       </c>
-      <c r="J95" s="15">
+      <c r="J96" s="15">
         <v>2789.42</v>
       </c>
-      <c r="K95" s="15">
+      <c r="K96" s="15">
         <v>4684.1959999999999</v>
       </c>
-      <c r="L95" s="15"/>
-      <c r="M95" s="15"/>
-      <c r="N95" s="15">
+      <c r="L96" s="15"/>
+      <c r="M96" s="15"/>
+      <c r="N96" s="15">
         <v>12.253</v>
       </c>
-    </row>
-    <row r="96" spans="2:15">
-      <c r="B96" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C96" s="28"/>
       <c r="O96" s="29"/>
     </row>
     <row r="97" spans="2:4">
       <c r="B97" s="28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C97" s="28"/>
     </row>
     <row r="98" spans="2:4">
       <c r="B98" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C98" s="28"/>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99" s="28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="2:4">
-      <c r="B99" s="3" t="s">
+    <row r="100" spans="2:4">
+      <c r="B100" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="2:4">
-      <c r="D105" s="28"/>
+    <row r="106" spans="2:4">
+      <c r="D106" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Carga_por_aerolinea_nac.xlsx
+++ b/Carga_por_aerolinea_nac.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD82CE91-607C-4FE4-B840-88C11D9A9BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D16BF0-DB5D-415B-9298-443A04D6ECA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="32">
   <si>
     <t>Total</t>
   </si>
@@ -131,7 +131,7 @@
     <t>Nota: La línea aérea Aeromar suspendió operaciones a partir del 16 de febrero de 2023.</t>
   </si>
   <si>
-    <t>Actualización: Julio 2025.</t>
+    <t>Actualización: Agosto 2025.</t>
   </si>
 </sst>
 </file>
@@ -440,13 +440,13 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -729,8 +729,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:N96" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14">
-  <autoFilter ref="B5:N96" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:N97" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14">
+  <autoFilter ref="B5:N97" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -982,7 +982,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B1:O106"/>
+  <dimension ref="B1:O107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1009,7 +1009,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14">
-      <c r="I1" s="33"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" spans="2:14" ht="18">
       <c r="B2" s="1" t="s">
@@ -1029,18 +1029,18 @@
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
     </row>
     <row r="5" spans="2:14" ht="66">
       <c r="B5" s="8" t="s">
@@ -1084,3546 +1084,3584 @@
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="12">
+      <c r="B6" s="16">
         <v>2025</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="18">
+        <f>SUM(E6:N6)</f>
+        <v>28115.61866</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19">
+        <v>12340.064</v>
+      </c>
+      <c r="H6" s="19">
+        <v>678.58</v>
+      </c>
+      <c r="I6" s="19">
+        <v>2243.81576</v>
+      </c>
+      <c r="J6" s="19">
+        <v>2964.9580000000001</v>
+      </c>
+      <c r="K6" s="19">
+        <v>6630.7939999999999</v>
+      </c>
+      <c r="L6" s="19">
+        <v>25.567499999999999</v>
+      </c>
+      <c r="M6" s="19">
+        <v>1149.4444000000001</v>
+      </c>
+      <c r="N6" s="19">
+        <v>2082.395</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="12">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="14">
-        <f>SUM(E6:N6)</f>
+      <c r="D7" s="14">
+        <f>SUM(E7:N7)</f>
         <v>28914.934771729997</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15">
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15">
         <v>13187.252</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H7" s="15">
         <v>495.75299999999999</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I7" s="15">
         <v>2349.5632917299999</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J7" s="15">
         <v>3255.39</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K7" s="15">
         <v>6373.6670000000004</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L7" s="15">
         <v>25.545249999999999</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M7" s="15">
         <v>1016.6810000000002</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N7" s="15">
         <v>2211.0832299999961</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
-      <c r="B7" s="16">
+    <row r="8" spans="2:14">
+      <c r="B8" s="16">
         <v>2025</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="18">
-        <f>SUM(E7:N7)</f>
+      <c r="D8" s="18">
+        <f>SUM(E8:N8)</f>
         <v>29149.049193534269</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19">
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19">
         <v>13070.148999999999</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H8" s="19">
         <v>697.11199999999997</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I8" s="19">
         <v>1896.0541835342726</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J8" s="19">
         <v>2998.576</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K8" s="19">
         <v>7604.1769999999997</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L8" s="19">
         <v>33.5276</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M8" s="19">
         <v>941.83019999999999</v>
       </c>
-      <c r="N7" s="19">
+      <c r="N8" s="19">
         <v>1907.6232099999988</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
-      <c r="B8" s="12">
+    <row r="9" spans="2:14">
+      <c r="B9" s="12">
         <v>2025</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="14">
-        <f t="shared" ref="D8:D39" si="0">SUM(E8:N8)</f>
+      <c r="D9" s="14">
+        <f t="shared" ref="D9:D40" si="0">SUM(E9:N9)</f>
         <v>29005.288634240002</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15">
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15">
         <v>12436.241</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H9" s="15">
         <v>766.13099999999997</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I9" s="15">
         <v>1996.4528442400001</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J9" s="15">
         <v>2856.5039999999999</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K9" s="15">
         <v>7767.5050000000001</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L9" s="15">
         <v>26.459919999999997</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M9" s="15">
         <v>879.4796999999993</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N9" s="15">
         <v>2276.5151700000006</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="16">
+    <row r="10" spans="2:14">
+      <c r="B10" s="16">
         <v>2025</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C10" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D10" s="18">
         <f t="shared" si="0"/>
         <v>27422.053609999999</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19">
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19">
         <v>12152.825000000001</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H10" s="19">
         <v>795.68899999999996</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I10" s="19">
         <v>2071.3298999999997</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J10" s="19">
         <v>2726.0720000000001</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K10" s="19">
         <v>6692.1670000000004</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L10" s="19">
         <v>11.987500000000001</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M10" s="19">
         <v>859.24420000000077</v>
       </c>
-      <c r="N9" s="19">
+      <c r="N10" s="19">
         <v>2112.7390099999984</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
-      <c r="B10" s="12">
+    <row r="11" spans="2:14">
+      <c r="B11" s="12">
         <v>2025</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D11" s="14">
         <f t="shared" si="0"/>
         <v>27980.780070000001</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15">
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15">
         <v>13263.271000000001</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H11" s="15">
         <v>761.86699999999996</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I11" s="15">
         <v>1932.6751200000001</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J11" s="15">
         <v>2544.1959999999999</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K11" s="15">
         <v>6302.9059999999999</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L11" s="15">
         <v>33.307000000000002</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M11" s="15">
         <v>1009.0963999999997</v>
       </c>
-      <c r="N10" s="15">
+      <c r="N11" s="15">
         <v>2133.46155</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
-      <c r="B11" s="16">
+    <row r="12" spans="2:14">
+      <c r="B12" s="16">
         <v>2025</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C12" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D12" s="18">
         <f t="shared" si="0"/>
         <v>25748.605099709999</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19">
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19">
         <v>11275.352000000001</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H12" s="19">
         <v>620.36</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I12" s="19">
         <v>1786.64945971</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J12" s="19">
         <v>2412.8490000000002</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K12" s="19">
         <v>6617.8909999999996</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L12" s="19">
         <v>29.823340000000002</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M12" s="19">
         <v>941.21730000000014</v>
       </c>
-      <c r="N11" s="19">
+      <c r="N12" s="19">
         <v>2064.4630000000002</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
-      <c r="B12" s="20">
+    <row r="13" spans="2:14">
+      <c r="B13" s="20">
         <v>2025</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C13" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D13" s="22">
         <f t="shared" si="0"/>
         <v>23673.877119999997</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23">
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23">
         <v>10826.540999999999</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H13" s="23">
         <v>571.43200000000002</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I13" s="23">
         <v>1894.5229999999999</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J13" s="23">
         <v>2721.4450000000002</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K13" s="23">
         <v>4711.6409999999996</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L13" s="23">
         <v>29.370999999999999</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M13" s="23">
         <v>964.65659999999991</v>
       </c>
-      <c r="N12" s="23">
+      <c r="N13" s="23">
         <v>1954.2675200000031</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
-      <c r="B13" s="16">
+    <row r="14" spans="2:14">
+      <c r="B14" s="16">
         <v>2024</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C14" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D14" s="18">
         <f t="shared" si="0"/>
         <v>27568.6859362</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19">
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19">
         <v>12904.705</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H14" s="19">
         <v>706.62800000000004</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I14" s="19">
         <v>2110.4124862000003</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J14" s="19">
         <v>2910.0949999999998</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K14" s="19">
         <v>5683.7879999999996</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L14" s="19">
         <v>44.347099999999998</v>
       </c>
-      <c r="M13" s="19">
+      <c r="M14" s="19">
         <v>1092.7723999999989</v>
       </c>
-      <c r="N13" s="19">
+      <c r="N14" s="19">
         <v>2115.9379499999995</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
-      <c r="B14" s="12">
+    <row r="15" spans="2:14">
+      <c r="B15" s="12">
         <v>2024</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D15" s="14">
         <f t="shared" si="0"/>
         <v>28159.683513799995</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15">
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15">
         <v>13474.445</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H15" s="15">
         <v>756.11400000000003</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I15" s="15">
         <v>1892.0454138</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J15" s="15">
         <v>3303.9810000000002</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K15" s="15">
         <v>5049.8149999999996</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L15" s="15">
         <v>44.302</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M15" s="15">
         <v>1298.3136</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N15" s="15">
         <v>2340.6674999999955</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
-      <c r="B15" s="16">
+    <row r="16" spans="2:14">
+      <c r="B16" s="16">
         <v>2024</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C16" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D16" s="18">
         <f t="shared" si="0"/>
         <v>28510.812312561851</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19">
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19">
         <v>13225.465</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H16" s="19">
         <v>615.21100000000001</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I16" s="19">
         <v>1642.0031125618484</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J16" s="19">
         <v>3194.15</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K16" s="19">
         <v>6163.54</v>
       </c>
-      <c r="L15" s="19">
+      <c r="L16" s="19">
         <v>24.026</v>
       </c>
-      <c r="M15" s="19">
+      <c r="M16" s="19">
         <v>1321.6451999999997</v>
       </c>
-      <c r="N15" s="19">
+      <c r="N16" s="19">
         <v>2324.7719999999999</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
-      <c r="B16" s="12">
+    <row r="17" spans="2:14">
+      <c r="B17" s="12">
         <v>2024</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C17" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D17" s="14">
         <f t="shared" si="0"/>
         <v>25253.478499999997</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15">
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15">
         <v>11815.414000000001</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H17" s="15">
         <v>610.077</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I17" s="15">
         <v>1877.9970000000001</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J17" s="15">
         <v>2701.4140000000002</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K17" s="15">
         <v>5343.7839999999997</v>
       </c>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15">
+      <c r="L17" s="15"/>
+      <c r="M17" s="15">
         <v>1121.0953000000004</v>
       </c>
-      <c r="N16" s="15">
+      <c r="N17" s="15">
         <v>1783.6971999999994</v>
       </c>
     </row>
-    <row r="17" spans="2:14">
-      <c r="B17" s="16">
+    <row r="18" spans="2:14">
+      <c r="B18" s="16">
         <v>2024</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C18" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D18" s="18">
         <f t="shared" si="0"/>
         <v>25825.738568101511</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19">
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19">
         <v>12383.605</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H18" s="19">
         <v>692.93</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I18" s="19">
         <v>997.61693810151405</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J18" s="19">
         <v>3089.9549999999999</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K18" s="19">
         <v>5672.4139999999998</v>
       </c>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19">
+      <c r="L18" s="19"/>
+      <c r="M18" s="19">
         <v>1059.0244999999993</v>
       </c>
-      <c r="N17" s="19">
+      <c r="N18" s="19">
         <v>1930.193130000001</v>
       </c>
     </row>
-    <row r="18" spans="2:14">
-      <c r="B18" s="12">
+    <row r="19" spans="2:14">
+      <c r="B19" s="12">
         <v>2024</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D19" s="14">
         <f t="shared" si="0"/>
         <v>25258.292196296865</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15">
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15">
         <v>12150.298000000001</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H19" s="15">
         <v>643.75300000000004</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I19" s="15">
         <v>1750.5007562968667</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J19" s="15">
         <v>3035.9490000000001</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K19" s="15">
         <v>4946.4880000000003</v>
       </c>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15">
+      <c r="L19" s="15"/>
+      <c r="M19" s="15">
         <v>767.15459999999973</v>
       </c>
-      <c r="N18" s="15">
+      <c r="N19" s="15">
         <v>1964.1488399999987</v>
       </c>
     </row>
-    <row r="19" spans="2:14">
-      <c r="B19" s="16">
+    <row r="20" spans="2:14">
+      <c r="B20" s="16">
         <v>2024</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C20" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D20" s="18">
         <f t="shared" si="0"/>
         <v>23220.985379999998</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19">
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19">
         <v>11786.278</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H20" s="19">
         <v>560.85299999999995</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I20" s="19">
         <v>455.33683000000002</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J20" s="19">
         <v>2749.279</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K20" s="19">
         <v>5006.2430000000004</v>
       </c>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19">
+      <c r="L20" s="19"/>
+      <c r="M20" s="19">
         <v>821.03270000000009</v>
       </c>
-      <c r="N19" s="19">
+      <c r="N20" s="19">
         <v>1841.9628499999985</v>
       </c>
     </row>
-    <row r="20" spans="2:14">
-      <c r="B20" s="12">
+    <row r="21" spans="2:14">
+      <c r="B21" s="12">
         <v>2024</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C21" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D21" s="14">
         <f t="shared" si="0"/>
         <v>25699.188360000004</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15">
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15">
         <v>12162.084000000001</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H21" s="15">
         <v>597.245</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I21" s="15">
         <v>670.93826000000001</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J21" s="15">
         <v>3023.1210000000001</v>
       </c>
-      <c r="K20" s="15">
+      <c r="K21" s="15">
         <v>6066.1109999999999</v>
       </c>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15">
+      <c r="L21" s="15"/>
+      <c r="M21" s="15">
         <v>966.6420999999998</v>
       </c>
-      <c r="N20" s="15">
+      <c r="N21" s="15">
         <v>2213.047</v>
       </c>
     </row>
-    <row r="21" spans="2:14">
-      <c r="B21" s="16">
+    <row r="22" spans="2:14">
+      <c r="B22" s="16">
         <v>2024</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C22" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D22" s="18">
         <f t="shared" si="0"/>
         <v>24530.287660000002</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19">
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19">
         <v>11531.746999999999</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H22" s="19">
         <v>592.245</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I22" s="19">
         <v>1345.6157600000001</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J22" s="19">
         <v>3069.6970000000001</v>
       </c>
-      <c r="K21" s="19">
+      <c r="K22" s="19">
         <v>5033.5820000000003</v>
       </c>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19">
+      <c r="L22" s="19"/>
+      <c r="M22" s="19">
         <v>917.64800000000014</v>
       </c>
-      <c r="N21" s="19">
+      <c r="N22" s="19">
         <v>2039.7528999999981</v>
       </c>
     </row>
-    <row r="22" spans="2:14">
-      <c r="B22" s="12">
+    <row r="23" spans="2:14">
+      <c r="B23" s="12">
         <v>2024</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C23" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D23" s="14">
         <f t="shared" si="0"/>
         <v>23774.991269999999</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15">
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15">
         <v>11871.233</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H23" s="15">
         <v>551.64300000000003</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I23" s="15">
         <v>1657.1516799999999</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J23" s="15">
         <v>2749.279</v>
       </c>
-      <c r="K22" s="15">
+      <c r="K23" s="15">
         <v>3910.395</v>
       </c>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15">
+      <c r="L23" s="15"/>
+      <c r="M23" s="15">
         <v>901.89159999999958</v>
       </c>
-      <c r="N22" s="15">
+      <c r="N23" s="15">
         <v>2133.3979900000022</v>
       </c>
     </row>
-    <row r="23" spans="2:14">
-      <c r="B23" s="16">
+    <row r="24" spans="2:14">
+      <c r="B24" s="16">
         <v>2024</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C24" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D24" s="18">
         <f t="shared" si="0"/>
         <v>23833.491010000002</v>
       </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19">
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19">
         <v>11159.713</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H24" s="19">
         <v>540.17999999999995</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I24" s="19">
         <v>1664.87067</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J24" s="19">
         <v>3032.2710000000002</v>
       </c>
-      <c r="K23" s="19">
+      <c r="K24" s="19">
         <v>4745.53</v>
       </c>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19">
+      <c r="L24" s="19"/>
+      <c r="M24" s="19">
         <v>878.40580000000011</v>
       </c>
-      <c r="N23" s="19">
+      <c r="N24" s="19">
         <v>1812.5205400000013</v>
       </c>
     </row>
-    <row r="24" spans="2:14">
-      <c r="B24" s="20">
+    <row r="25" spans="2:14">
+      <c r="B25" s="20">
         <v>2024</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C25" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D25" s="22">
         <f t="shared" si="0"/>
         <v>22601.231440000003</v>
       </c>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23">
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23">
         <v>10099.106</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H25" s="23">
         <v>778.92200000000003</v>
       </c>
-      <c r="I24" s="23">
+      <c r="I25" s="23">
         <v>1334.1081499999998</v>
       </c>
-      <c r="J24" s="23">
+      <c r="J25" s="23">
         <v>3205.1840000000002</v>
       </c>
-      <c r="K24" s="23">
+      <c r="K25" s="23">
         <v>4074.5549999999998</v>
       </c>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23">
+      <c r="L25" s="23"/>
+      <c r="M25" s="23">
         <v>1138.7986000000001</v>
       </c>
-      <c r="N24" s="23">
+      <c r="N25" s="23">
         <v>1970.5576900000021</v>
       </c>
     </row>
-    <row r="25" spans="2:14" hidden="1">
-      <c r="B25" s="24">
+    <row r="26" spans="2:14" hidden="1">
+      <c r="B26" s="24">
         <v>2023</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C26" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D26" s="26">
         <f t="shared" si="0"/>
         <v>24330.252739999996</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E26" s="27">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27">
+      <c r="F26" s="27"/>
+      <c r="G26" s="27">
         <v>11988.567999999999</v>
       </c>
-      <c r="H25" s="27">
+      <c r="H26" s="27">
         <v>936.15599999999995</v>
       </c>
-      <c r="I25" s="27">
+      <c r="I26" s="27">
         <v>1439.51802</v>
       </c>
-      <c r="J25" s="27">
+      <c r="J26" s="27">
         <v>3166.9259999999999</v>
       </c>
-      <c r="K25" s="27">
+      <c r="K26" s="27">
         <v>3182.1170000000002</v>
       </c>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27">
+      <c r="L26" s="27"/>
+      <c r="M26" s="27">
         <v>1409.9010999999998</v>
       </c>
-      <c r="N25" s="30">
+      <c r="N26" s="30">
         <v>2207.0626199999997</v>
       </c>
     </row>
-    <row r="26" spans="2:14" hidden="1">
-      <c r="B26" s="12">
+    <row r="27" spans="2:14" hidden="1">
+      <c r="B27" s="12">
         <v>2023</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C27" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D27" s="14">
         <f t="shared" si="0"/>
         <v>25951.682419999997</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E27" s="15">
         <v>2E-3</v>
       </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15">
+      <c r="F27" s="15"/>
+      <c r="G27" s="15">
         <v>11389.349</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H27" s="15">
         <v>878.84500000000003</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I27" s="15">
         <v>3104.8114999999998</v>
       </c>
-      <c r="J26" s="15">
+      <c r="J27" s="15">
         <v>3477.9340000000002</v>
       </c>
-      <c r="K26" s="15">
+      <c r="K27" s="15">
         <v>3383.1860000000001</v>
       </c>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15">
+      <c r="L27" s="15"/>
+      <c r="M27" s="15">
         <v>1367.4912000000006</v>
       </c>
-      <c r="N26" s="15">
+      <c r="N27" s="15">
         <v>2350.0637199999942</v>
       </c>
     </row>
-    <row r="27" spans="2:14" hidden="1">
-      <c r="B27" s="16">
+    <row r="28" spans="2:14" hidden="1">
+      <c r="B28" s="16">
         <v>2023</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C28" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D28" s="18">
         <f t="shared" si="0"/>
         <v>29736.471783999994</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E28" s="19">
         <v>2E-3</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19">
+      <c r="F28" s="19"/>
+      <c r="G28" s="19">
         <v>11497.116</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H28" s="19">
         <v>766.34</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I28" s="19">
         <v>1778.049084</v>
       </c>
-      <c r="J27" s="19">
+      <c r="J28" s="19">
         <v>3354.9290000000001</v>
       </c>
-      <c r="K27" s="19">
+      <c r="K28" s="19">
         <v>8846.14</v>
       </c>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19">
+      <c r="L28" s="19"/>
+      <c r="M28" s="19">
         <v>1254.5563000000009</v>
       </c>
-      <c r="N27" s="19">
+      <c r="N28" s="19">
         <v>2239.3393999999939</v>
       </c>
     </row>
-    <row r="28" spans="2:14" hidden="1">
-      <c r="B28" s="12">
+    <row r="29" spans="2:14" hidden="1">
+      <c r="B29" s="12">
         <v>2023</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C29" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D29" s="14">
         <f t="shared" si="0"/>
         <v>25495.398430000001</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E29" s="15">
         <v>1E-3</v>
       </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15">
+      <c r="F29" s="15"/>
+      <c r="G29" s="15">
         <v>10214.496999999999</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H29" s="15">
         <v>745.19799999999998</v>
       </c>
-      <c r="I28" s="15">
+      <c r="I29" s="15">
         <v>1692.6589099999999</v>
       </c>
-      <c r="J28" s="15">
+      <c r="J29" s="15">
         <v>3160.6</v>
       </c>
-      <c r="K28" s="15">
+      <c r="K29" s="15">
         <v>6870.7169999999996</v>
       </c>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15">
+      <c r="L29" s="15"/>
+      <c r="M29" s="15">
         <v>1029.982</v>
       </c>
-      <c r="N28" s="15">
+      <c r="N29" s="15">
         <v>1781.7445200000004</v>
       </c>
     </row>
-    <row r="29" spans="2:14" hidden="1">
-      <c r="B29" s="16">
+    <row r="30" spans="2:14" hidden="1">
+      <c r="B30" s="16">
         <v>2023</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C30" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D30" s="18">
         <f t="shared" si="0"/>
         <v>27795.111850000001</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E30" s="19">
         <v>2E-3</v>
       </c>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19">
+      <c r="F30" s="19"/>
+      <c r="G30" s="19">
         <v>10670.395</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H30" s="19">
         <v>688.12199999999996</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I30" s="19">
         <v>2332.9001999999996</v>
       </c>
-      <c r="J29" s="19">
+      <c r="J30" s="19">
         <v>3597.163</v>
       </c>
-      <c r="K29" s="19">
+      <c r="K30" s="19">
         <v>7529.75</v>
       </c>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19">
+      <c r="L30" s="19"/>
+      <c r="M30" s="19">
         <v>1106.6980000000001</v>
       </c>
-      <c r="N29" s="19">
+      <c r="N30" s="19">
         <v>1870.0816499999999</v>
       </c>
     </row>
-    <row r="30" spans="2:14" hidden="1">
-      <c r="B30" s="12">
+    <row r="31" spans="2:14" hidden="1">
+      <c r="B31" s="12">
         <v>2023</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C31" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D31" s="14">
         <f t="shared" si="0"/>
         <v>27392.805111000001</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E31" s="15">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15">
+      <c r="F31" s="15"/>
+      <c r="G31" s="15">
         <v>11104.486000000001</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H31" s="15">
         <v>582.98800000000006</v>
       </c>
-      <c r="I30" s="15">
+      <c r="I31" s="15">
         <v>2097.893521</v>
       </c>
-      <c r="J30" s="15">
+      <c r="J31" s="15">
         <v>3132.8069999999998</v>
       </c>
-      <c r="K30" s="15">
+      <c r="K31" s="15">
         <v>7920.2030000000004</v>
       </c>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15">
+      <c r="L31" s="15"/>
+      <c r="M31" s="15">
         <v>632.07899999999995</v>
       </c>
-      <c r="N30" s="15">
+      <c r="N31" s="15">
         <v>1922.34159</v>
       </c>
     </row>
-    <row r="31" spans="2:14" hidden="1">
-      <c r="B31" s="16">
+    <row r="32" spans="2:14" hidden="1">
+      <c r="B32" s="16">
         <v>2023</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C32" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D32" s="18">
         <f t="shared" si="0"/>
         <v>26257.615949999999</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E32" s="19">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19">
+      <c r="F32" s="19"/>
+      <c r="G32" s="19">
         <v>9903.1360000000004</v>
       </c>
-      <c r="H31" s="19">
+      <c r="H32" s="19">
         <v>604.97799999999995</v>
       </c>
-      <c r="I31" s="19">
+      <c r="I32" s="19">
         <v>2029.77441</v>
       </c>
-      <c r="J31" s="19">
+      <c r="J32" s="19">
         <v>3359.4630000000002</v>
       </c>
-      <c r="K31" s="19">
+      <c r="K32" s="19">
         <v>7581.4750000000004</v>
       </c>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19">
+      <c r="L32" s="19"/>
+      <c r="M32" s="19">
         <v>808.51900000000001</v>
       </c>
-      <c r="N31" s="19">
+      <c r="N32" s="19">
         <v>1970.2655400000001</v>
       </c>
     </row>
-    <row r="32" spans="2:14" hidden="1">
-      <c r="B32" s="12">
+    <row r="33" spans="2:14" hidden="1">
+      <c r="B33" s="12">
         <v>2023</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C33" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D33" s="14">
         <f t="shared" si="0"/>
         <v>27189.140660000001</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E33" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15">
+      <c r="F33" s="15"/>
+      <c r="G33" s="15">
         <v>9247.2430000000004</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H33" s="15">
         <v>646.67899999999997</v>
       </c>
-      <c r="I32" s="15">
+      <c r="I33" s="15">
         <v>1841.1321099999998</v>
       </c>
-      <c r="J32" s="15">
+      <c r="J33" s="15">
         <v>3239.5920000000001</v>
       </c>
-      <c r="K32" s="15">
+      <c r="K33" s="15">
         <v>9116.9560000000001</v>
       </c>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15">
+      <c r="L33" s="15"/>
+      <c r="M33" s="15">
         <v>871.53</v>
       </c>
-      <c r="N32" s="15">
+      <c r="N33" s="15">
         <v>2226.0035500000004</v>
       </c>
     </row>
-    <row r="33" spans="2:14" hidden="1">
-      <c r="B33" s="16">
+    <row r="34" spans="2:14" hidden="1">
+      <c r="B34" s="16">
         <v>2023</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C34" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D34" s="18">
         <f t="shared" si="0"/>
         <v>26065.695520000001</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E34" s="19">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19">
+      <c r="F34" s="19"/>
+      <c r="G34" s="19">
         <v>8823.5010000000002</v>
       </c>
-      <c r="H33" s="19">
+      <c r="H34" s="19">
         <v>643.87900000000002</v>
       </c>
-      <c r="I33" s="19">
+      <c r="I34" s="19">
         <v>2656.5120000000002</v>
       </c>
-      <c r="J33" s="19">
+      <c r="J34" s="19">
         <v>2882.6640000000002</v>
       </c>
-      <c r="K33" s="19">
+      <c r="K34" s="19">
         <v>8495.7070000000003</v>
       </c>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19">
+      <c r="L34" s="19"/>
+      <c r="M34" s="19">
         <v>807.85400000000004</v>
       </c>
-      <c r="N33" s="19">
+      <c r="N34" s="19">
         <v>1755.5725199999999</v>
       </c>
     </row>
-    <row r="34" spans="2:14" hidden="1">
-      <c r="B34" s="12">
+    <row r="35" spans="2:14" hidden="1">
+      <c r="B35" s="12">
         <v>2023</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C35" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D35" s="14">
         <f t="shared" si="0"/>
         <v>29416.146090000002</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E35" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15">
+      <c r="F35" s="15"/>
+      <c r="G35" s="15">
         <v>10420.953</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H35" s="15">
         <v>850.89200000000005</v>
       </c>
-      <c r="I34" s="15">
+      <c r="I35" s="15">
         <v>2714.1550000000002</v>
       </c>
-      <c r="J34" s="15">
+      <c r="J35" s="15">
         <v>3284.2510000000002</v>
       </c>
-      <c r="K34" s="15">
+      <c r="K35" s="15">
         <v>9320.09</v>
       </c>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15">
+      <c r="L35" s="15"/>
+      <c r="M35" s="15">
         <v>754.07100000000003</v>
       </c>
-      <c r="N34" s="15">
+      <c r="N35" s="15">
         <v>2071.7290899999998</v>
       </c>
     </row>
-    <row r="35" spans="2:14" hidden="1">
-      <c r="B35" s="16">
+    <row r="36" spans="2:14" hidden="1">
+      <c r="B36" s="16">
         <v>2023</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C36" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D36" s="18">
         <f t="shared" si="0"/>
         <v>26501.790870000004</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E36" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19">
+      <c r="F36" s="19"/>
+      <c r="G36" s="19">
         <v>9688.0110000000004</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H36" s="19">
         <v>782.84</v>
       </c>
-      <c r="I35" s="19">
+      <c r="I36" s="19">
         <v>3020.3270000000002</v>
       </c>
-      <c r="J35" s="19">
+      <c r="J36" s="19">
         <v>2745.6669999999999</v>
       </c>
-      <c r="K35" s="19">
+      <c r="K36" s="19">
         <v>7686.6450000000004</v>
       </c>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19">
+      <c r="L36" s="19"/>
+      <c r="M36" s="19">
         <v>685.12</v>
       </c>
-      <c r="N35" s="19">
+      <c r="N36" s="19">
         <v>1893.1698699999999</v>
       </c>
     </row>
-    <row r="36" spans="2:14" hidden="1">
-      <c r="B36" s="20">
+    <row r="37" spans="2:14" hidden="1">
+      <c r="B37" s="20">
         <v>2023</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C37" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D37" s="22">
         <f t="shared" si="0"/>
         <v>26308.171539999999</v>
       </c>
-      <c r="E36" s="23">
+      <c r="E37" s="23">
         <v>2E-3</v>
       </c>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23">
+      <c r="F37" s="23"/>
+      <c r="G37" s="23">
         <v>8914.4519999999993</v>
       </c>
-      <c r="H36" s="23">
+      <c r="H37" s="23">
         <v>734.09199999999998</v>
       </c>
-      <c r="I36" s="23">
+      <c r="I37" s="23">
         <v>3159.0940000000001</v>
       </c>
-      <c r="J36" s="23">
+      <c r="J37" s="23">
         <v>3012.8209999999999</v>
       </c>
-      <c r="K36" s="23">
+      <c r="K37" s="23">
         <v>7907.8890000000001</v>
       </c>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23">
+      <c r="L37" s="23"/>
+      <c r="M37" s="23">
         <v>670.48</v>
       </c>
-      <c r="N36" s="23">
+      <c r="N37" s="23">
         <v>1909.3415400000001</v>
       </c>
     </row>
-    <row r="37" spans="2:14" hidden="1">
-      <c r="B37" s="24">
+    <row r="38" spans="2:14" hidden="1">
+      <c r="B38" s="24">
         <v>2022</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C38" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="26">
+      <c r="D38" s="26">
         <f t="shared" si="0"/>
         <v>29865.323240000002</v>
       </c>
-      <c r="E37" s="27">
+      <c r="E38" s="27">
         <v>1E-3</v>
       </c>
-      <c r="F37" s="27">
+      <c r="F38" s="27">
         <v>12.166</v>
       </c>
-      <c r="G37" s="27">
+      <c r="G38" s="27">
         <v>10484.763000000001</v>
       </c>
-      <c r="H37" s="27">
+      <c r="H38" s="27">
         <v>925.66499999999996</v>
       </c>
-      <c r="I37" s="27">
+      <c r="I38" s="27">
         <v>4138.0259999999998</v>
       </c>
-      <c r="J37" s="27">
+      <c r="J38" s="27">
         <v>3314.2310000000002</v>
       </c>
-      <c r="K37" s="27">
+      <c r="K38" s="27">
         <v>7746.2759999999998</v>
       </c>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27">
+      <c r="L38" s="27"/>
+      <c r="M38" s="27">
         <v>961.79730000000006</v>
       </c>
-      <c r="N37" s="27">
+      <c r="N38" s="27">
         <v>2282.3979400000003</v>
       </c>
     </row>
-    <row r="38" spans="2:14" hidden="1">
-      <c r="B38" s="12">
+    <row r="39" spans="2:14" hidden="1">
+      <c r="B39" s="12">
         <v>2022</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C39" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D39" s="14">
         <f t="shared" si="0"/>
         <v>29983.373589999999</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E39" s="15">
         <v>2E-3</v>
       </c>
-      <c r="F38" s="15">
+      <c r="F39" s="15">
         <v>32.463999999999999</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G39" s="15">
         <v>10081.717000000001</v>
       </c>
-      <c r="H38" s="15">
+      <c r="H39" s="15">
         <v>990.43700000000001</v>
       </c>
-      <c r="I38" s="15">
+      <c r="I39" s="15">
         <v>5149.683</v>
       </c>
-      <c r="J38" s="15">
+      <c r="J39" s="15">
         <v>3384.6909999999998</v>
       </c>
-      <c r="K38" s="15">
+      <c r="K39" s="15">
         <v>7113.482</v>
       </c>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15">
+      <c r="L39" s="15"/>
+      <c r="M39" s="15">
         <v>970.55570000000012</v>
       </c>
-      <c r="N38" s="15">
+      <c r="N39" s="15">
         <v>2260.3418900000001</v>
       </c>
     </row>
-    <row r="39" spans="2:14" hidden="1">
-      <c r="B39" s="16">
+    <row r="40" spans="2:14" hidden="1">
+      <c r="B40" s="16">
         <v>2022</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C40" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D40" s="18">
         <f t="shared" si="0"/>
         <v>29295.863820000002</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E40" s="19">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F39" s="19">
+      <c r="F40" s="19">
         <v>31.343</v>
       </c>
-      <c r="G39" s="19">
+      <c r="G40" s="19">
         <v>9947.3389999999999</v>
       </c>
-      <c r="H39" s="19">
+      <c r="H40" s="19">
         <v>926.49599999999998</v>
       </c>
-      <c r="I39" s="19">
+      <c r="I40" s="19">
         <v>5335.3050000000003</v>
       </c>
-      <c r="J39" s="19">
+      <c r="J40" s="19">
         <v>3159.48</v>
       </c>
-      <c r="K39" s="19">
+      <c r="K40" s="19">
         <v>6728.7049999999999</v>
       </c>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19">
+      <c r="L40" s="19"/>
+      <c r="M40" s="19">
         <v>979.74129999999991</v>
       </c>
-      <c r="N39" s="19">
+      <c r="N40" s="19">
         <v>2187.4515200000001</v>
       </c>
     </row>
-    <row r="40" spans="2:14" hidden="1">
-      <c r="B40" s="12">
+    <row r="41" spans="2:14" hidden="1">
+      <c r="B41" s="12">
         <v>2022</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C41" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="14">
-        <f t="shared" ref="D40:D71" si="1">SUM(E40:N40)</f>
+      <c r="D41" s="14">
+        <f t="shared" ref="D41:D72" si="1">SUM(E41:N41)</f>
         <v>26447.132749999997</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E41" s="15">
         <v>2E-3</v>
       </c>
-      <c r="F40" s="15">
+      <c r="F41" s="15">
         <v>23.175000000000001</v>
       </c>
-      <c r="G40" s="15">
+      <c r="G41" s="15">
         <v>9081.3619999999992</v>
       </c>
-      <c r="H40" s="15">
+      <c r="H41" s="15">
         <v>703.86900000000003</v>
       </c>
-      <c r="I40" s="15">
+      <c r="I41" s="15">
         <v>4176.1049999999996</v>
       </c>
-      <c r="J40" s="15">
+      <c r="J41" s="15">
         <v>3254.7069999999999</v>
       </c>
-      <c r="K40" s="15">
+      <c r="K41" s="15">
         <v>6617.3549999999996</v>
       </c>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15">
+      <c r="L41" s="15"/>
+      <c r="M41" s="15">
         <v>824.20899999999995</v>
       </c>
-      <c r="N40" s="15">
+      <c r="N41" s="15">
         <v>1766.3487500000001</v>
       </c>
     </row>
-    <row r="41" spans="2:14" hidden="1">
-      <c r="B41" s="16">
+    <row r="42" spans="2:14" hidden="1">
+      <c r="B42" s="16">
         <v>2022</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C42" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="18">
+      <c r="D42" s="18">
         <f t="shared" si="1"/>
         <v>26279.741409999995</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E42" s="19">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F41" s="19">
+      <c r="F42" s="19">
         <v>28.286999999999999</v>
       </c>
-      <c r="G41" s="19">
+      <c r="G42" s="19">
         <v>9293.5259999999998</v>
       </c>
-      <c r="H41" s="19">
+      <c r="H42" s="19">
         <v>859.87</v>
       </c>
-      <c r="I41" s="19">
+      <c r="I42" s="19">
         <v>4037.6669999999999</v>
       </c>
-      <c r="J41" s="19">
+      <c r="J42" s="19">
         <v>3520.194</v>
       </c>
-      <c r="K41" s="19">
+      <c r="K42" s="19">
         <v>5886.08</v>
       </c>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19">
+      <c r="L42" s="19"/>
+      <c r="M42" s="19">
         <v>804.58889999999997</v>
       </c>
-      <c r="N41" s="19">
+      <c r="N42" s="19">
         <v>1849.52451</v>
       </c>
     </row>
-    <row r="42" spans="2:14" hidden="1">
-      <c r="B42" s="12">
+    <row r="43" spans="2:14" hidden="1">
+      <c r="B43" s="12">
         <v>2022</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C43" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D43" s="14">
         <f t="shared" si="1"/>
         <v>30603.772699999998</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E43" s="15">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F43" s="15">
         <v>31.623000000000001</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G43" s="15">
         <v>9435.7099999999991</v>
       </c>
-      <c r="H42" s="15">
+      <c r="H43" s="15">
         <v>852.04499999999996</v>
       </c>
-      <c r="I42" s="15">
+      <c r="I43" s="15">
         <v>4353.799</v>
       </c>
-      <c r="J42" s="15">
+      <c r="J43" s="15">
         <v>3361.634</v>
       </c>
-      <c r="K42" s="15">
+      <c r="K43" s="15">
         <v>10038.903</v>
       </c>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15">
+      <c r="L43" s="15"/>
+      <c r="M43" s="15">
         <v>692.77719999999999</v>
       </c>
-      <c r="N42" s="15">
+      <c r="N43" s="15">
         <v>1837.2745</v>
       </c>
     </row>
-    <row r="43" spans="2:14" hidden="1">
-      <c r="B43" s="16">
+    <row r="44" spans="2:14" hidden="1">
+      <c r="B44" s="16">
         <v>2022</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C44" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D44" s="18">
         <f t="shared" si="1"/>
         <v>32911.434350000003</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E44" s="19">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F43" s="19">
+      <c r="F44" s="19">
         <v>29.89</v>
       </c>
-      <c r="G43" s="19">
+      <c r="G44" s="19">
         <v>9434.6640000000007</v>
       </c>
-      <c r="H43" s="19">
+      <c r="H44" s="19">
         <v>704.59900000000005</v>
       </c>
-      <c r="I43" s="19">
+      <c r="I44" s="19">
         <v>4932.3429999999998</v>
       </c>
-      <c r="J43" s="19">
+      <c r="J44" s="19">
         <v>3363.165</v>
       </c>
-      <c r="K43" s="19">
+      <c r="K44" s="19">
         <v>11698.642</v>
       </c>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19">
+      <c r="L44" s="19"/>
+      <c r="M44" s="19">
         <v>750.94670000000008</v>
       </c>
-      <c r="N43" s="19">
+      <c r="N44" s="19">
         <v>1997.1796499999998</v>
       </c>
     </row>
-    <row r="44" spans="2:14" hidden="1">
-      <c r="B44" s="12">
+    <row r="45" spans="2:14" hidden="1">
+      <c r="B45" s="12">
         <v>2022</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C45" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D45" s="14">
         <f t="shared" si="1"/>
         <v>32136.140250000004</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E45" s="15">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F44" s="15">
+      <c r="F45" s="15">
         <v>28.506</v>
       </c>
-      <c r="G44" s="15">
+      <c r="G45" s="15">
         <v>9520.1350000000002</v>
       </c>
-      <c r="H44" s="15">
+      <c r="H45" s="15">
         <v>707.80499999999995</v>
       </c>
-      <c r="I44" s="15">
+      <c r="I45" s="15">
         <v>5145.5190000000002</v>
       </c>
-      <c r="J44" s="15">
+      <c r="J45" s="15">
         <v>3217.3589999999999</v>
       </c>
-      <c r="K44" s="15">
+      <c r="K45" s="15">
         <v>10677.519</v>
       </c>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15">
+      <c r="L45" s="15"/>
+      <c r="M45" s="15">
         <v>667.7</v>
       </c>
-      <c r="N44" s="15">
+      <c r="N45" s="15">
         <v>2171.5932499999999</v>
       </c>
     </row>
-    <row r="45" spans="2:14" hidden="1">
-      <c r="B45" s="16">
+    <row r="46" spans="2:14" hidden="1">
+      <c r="B46" s="16">
         <v>2022</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C46" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D46" s="18">
         <f t="shared" si="1"/>
         <v>27514.741269999999</v>
       </c>
-      <c r="E45" s="19">
+      <c r="E46" s="19">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F45" s="19">
+      <c r="F46" s="19">
         <v>33.442</v>
       </c>
-      <c r="G45" s="19">
+      <c r="G46" s="19">
         <v>8677.1650000000009</v>
       </c>
-      <c r="H45" s="19">
+      <c r="H46" s="19">
         <v>704.93700000000001</v>
       </c>
-      <c r="I45" s="19">
+      <c r="I46" s="19">
         <v>4385.1239999999998</v>
       </c>
-      <c r="J45" s="19">
+      <c r="J46" s="19">
         <v>3089.9090000000001</v>
       </c>
-      <c r="K45" s="19">
+      <c r="K46" s="19">
         <v>7847.8879999999999</v>
       </c>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19">
+      <c r="L46" s="19"/>
+      <c r="M46" s="19">
         <v>761.38699999999994</v>
       </c>
-      <c r="N45" s="19">
+      <c r="N46" s="19">
         <v>2014.8862699999997</v>
       </c>
     </row>
-    <row r="46" spans="2:14" hidden="1">
-      <c r="B46" s="12">
+    <row r="47" spans="2:14" hidden="1">
+      <c r="B47" s="12">
         <v>2022</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C47" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D47" s="14">
         <f t="shared" si="1"/>
         <v>30859.440460000002</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E47" s="15">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F46" s="15">
+      <c r="F47" s="15">
         <v>30.175999999999998</v>
       </c>
-      <c r="G46" s="15">
+      <c r="G47" s="15">
         <v>9761.2630000000008</v>
       </c>
-      <c r="H46" s="15">
+      <c r="H47" s="15">
         <v>1009.9829999999999</v>
       </c>
-      <c r="I46" s="15">
+      <c r="I47" s="15">
         <v>6578.5140000000001</v>
       </c>
-      <c r="J46" s="15">
+      <c r="J47" s="15">
         <v>3448.0540000000001</v>
       </c>
-      <c r="K46" s="15">
+      <c r="K47" s="15">
         <v>7191.5020000000004</v>
       </c>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15">
+      <c r="L47" s="15"/>
+      <c r="M47" s="15">
         <v>742.69299999999998</v>
       </c>
-      <c r="N46" s="15">
+      <c r="N47" s="15">
         <v>2097.25146</v>
       </c>
     </row>
-    <row r="47" spans="2:14" hidden="1">
-      <c r="B47" s="16">
+    <row r="48" spans="2:14" hidden="1">
+      <c r="B48" s="16">
         <v>2022</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C48" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D47" s="18">
+      <c r="D48" s="18">
         <f t="shared" si="1"/>
         <v>26857.410190000002</v>
       </c>
-      <c r="E47" s="19">
+      <c r="E48" s="19">
         <v>0</v>
       </c>
-      <c r="F47" s="19">
+      <c r="F48" s="19">
         <v>26.463999999999999</v>
       </c>
-      <c r="G47" s="19">
+      <c r="G48" s="19">
         <v>8399.2009999999991</v>
       </c>
-      <c r="H47" s="19">
+      <c r="H48" s="19">
         <v>816.23900000000003</v>
       </c>
-      <c r="I47" s="19">
+      <c r="I48" s="19">
         <v>4488.2250000000004</v>
       </c>
-      <c r="J47" s="19">
+      <c r="J48" s="19">
         <v>3087.74</v>
       </c>
-      <c r="K47" s="19">
+      <c r="K48" s="19">
         <v>7675.5219999999999</v>
       </c>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19">
+      <c r="L48" s="19"/>
+      <c r="M48" s="19">
         <v>680.0145</v>
       </c>
-      <c r="N47" s="19">
+      <c r="N48" s="19">
         <v>1684.00469</v>
       </c>
     </row>
-    <row r="48" spans="2:14" hidden="1">
-      <c r="B48" s="20">
+    <row r="49" spans="2:14" hidden="1">
+      <c r="B49" s="20">
         <v>2022</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C49" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="22">
+      <c r="D49" s="22">
         <f t="shared" si="1"/>
         <v>26010.419900000001</v>
       </c>
-      <c r="E48" s="23">
+      <c r="E49" s="23">
         <v>0.01</v>
       </c>
-      <c r="F48" s="23">
+      <c r="F49" s="23">
         <v>29.917000000000002</v>
       </c>
-      <c r="G48" s="23">
+      <c r="G49" s="23">
         <v>8064.9719999999998</v>
       </c>
-      <c r="H48" s="23">
+      <c r="H49" s="23">
         <v>759.41499999999996</v>
       </c>
-      <c r="I48" s="23">
+      <c r="I49" s="23">
         <v>4874.95</v>
       </c>
-      <c r="J48" s="23">
+      <c r="J49" s="23">
         <v>3142.1970000000001</v>
       </c>
-      <c r="K48" s="23">
+      <c r="K49" s="23">
         <v>6776.384</v>
       </c>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23">
+      <c r="L49" s="23"/>
+      <c r="M49" s="23">
         <v>751.90069999999992</v>
       </c>
-      <c r="N48" s="23">
+      <c r="N49" s="23">
         <v>1610.6742000000002</v>
       </c>
     </row>
-    <row r="49" spans="2:14" hidden="1">
-      <c r="B49" s="24">
+    <row r="50" spans="2:14" hidden="1">
+      <c r="B50" s="24">
         <v>2021</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C50" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D49" s="26">
+      <c r="D50" s="26">
         <f t="shared" si="1"/>
         <v>31566.167749999997</v>
       </c>
-      <c r="E49" s="27">
+      <c r="E50" s="27">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F49" s="27">
+      <c r="F50" s="27">
         <v>37.055</v>
       </c>
-      <c r="G49" s="27">
+      <c r="G50" s="27">
         <v>9575.5380000000005</v>
       </c>
-      <c r="H49" s="27">
+      <c r="H50" s="27">
         <v>889.38</v>
       </c>
-      <c r="I49" s="27">
+      <c r="I50" s="27">
         <v>6288.674</v>
       </c>
-      <c r="J49" s="27">
+      <c r="J50" s="27">
         <v>4403.6390000000001</v>
       </c>
-      <c r="K49" s="27">
+      <c r="K50" s="27">
         <v>7812.2049999999999</v>
       </c>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27">
+      <c r="L50" s="27"/>
+      <c r="M50" s="27">
         <v>644.26139999999998</v>
       </c>
-      <c r="N49" s="27">
+      <c r="N50" s="27">
         <v>1915.4123500000001</v>
       </c>
     </row>
-    <row r="50" spans="2:14" hidden="1">
-      <c r="B50" s="12">
+    <row r="51" spans="2:14" hidden="1">
+      <c r="B51" s="12">
         <v>2021</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C51" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D51" s="14">
         <f t="shared" si="1"/>
         <v>29944.972509999996</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E51" s="15">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F50" s="15">
+      <c r="F51" s="15">
         <v>42.304000000000002</v>
       </c>
-      <c r="G50" s="15">
+      <c r="G51" s="15">
         <v>8541.3799999999992</v>
       </c>
-      <c r="H50" s="15">
+      <c r="H51" s="15">
         <v>797.55100000000004</v>
       </c>
-      <c r="I50" s="15">
+      <c r="I51" s="15">
         <v>5779.326</v>
       </c>
-      <c r="J50" s="15">
+      <c r="J51" s="15">
         <v>3742.5929999999998</v>
       </c>
-      <c r="K50" s="15">
+      <c r="K51" s="15">
         <v>8308.2459999999992</v>
       </c>
-      <c r="L50" s="15"/>
-      <c r="M50" s="15">
+      <c r="L51" s="15"/>
+      <c r="M51" s="15">
         <v>761.88139999999999</v>
       </c>
-      <c r="N50" s="15">
+      <c r="N51" s="15">
         <v>1971.6851100000001</v>
       </c>
     </row>
-    <row r="51" spans="2:14" hidden="1">
-      <c r="B51" s="16">
+    <row r="52" spans="2:14" hidden="1">
+      <c r="B52" s="16">
         <v>2021</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C52" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D52" s="18">
         <f t="shared" si="1"/>
         <v>30000.867740000002</v>
       </c>
-      <c r="E51" s="19">
+      <c r="E52" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F51" s="19">
+      <c r="F52" s="19">
         <v>29.148</v>
       </c>
-      <c r="G51" s="19">
+      <c r="G52" s="19">
         <v>9141.5849999999991</v>
       </c>
-      <c r="H51" s="19">
+      <c r="H52" s="19">
         <v>935.53599999999994</v>
       </c>
-      <c r="I51" s="19">
+      <c r="I52" s="19">
         <v>5740.3919999999998</v>
       </c>
-      <c r="J51" s="19">
+      <c r="J52" s="19">
         <v>3221.6640000000002</v>
       </c>
-      <c r="K51" s="19">
+      <c r="K52" s="19">
         <v>8292.1039999999994</v>
       </c>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19">
+      <c r="L52" s="19"/>
+      <c r="M52" s="19">
         <v>722.20399999999995</v>
       </c>
-      <c r="N51" s="19">
+      <c r="N52" s="19">
         <v>1918.2237399999999</v>
       </c>
     </row>
-    <row r="52" spans="2:14" hidden="1">
-      <c r="B52" s="12">
+    <row r="53" spans="2:14" hidden="1">
+      <c r="B53" s="12">
         <v>2021</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C53" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D52" s="14">
+      <c r="D53" s="14">
         <f t="shared" si="1"/>
         <v>25044.998970000004</v>
       </c>
-      <c r="E52" s="15">
+      <c r="E53" s="15">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F52" s="15">
+      <c r="F53" s="15">
         <v>27.141999999999999</v>
       </c>
-      <c r="G52" s="15">
+      <c r="G53" s="15">
         <v>7906.91</v>
       </c>
-      <c r="H52" s="15">
+      <c r="H53" s="15">
         <v>875.76900000000001</v>
       </c>
-      <c r="I52" s="15">
+      <c r="I53" s="15">
         <v>4566.3109999999997</v>
       </c>
-      <c r="J52" s="15">
+      <c r="J53" s="15">
         <v>3115.0770000000002</v>
       </c>
-      <c r="K52" s="15">
+      <c r="K53" s="15">
         <v>6415.2790000000005</v>
       </c>
-      <c r="L52" s="15"/>
-      <c r="M52" s="15">
+      <c r="L53" s="15"/>
+      <c r="M53" s="15">
         <v>491.27</v>
       </c>
-      <c r="N52" s="15">
+      <c r="N53" s="15">
         <v>1647.23197</v>
       </c>
     </row>
-    <row r="53" spans="2:14" hidden="1">
-      <c r="B53" s="16">
+    <row r="54" spans="2:14" hidden="1">
+      <c r="B54" s="16">
         <v>2021</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C54" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="18">
+      <c r="D54" s="18">
         <f t="shared" si="1"/>
         <v>26801.51179</v>
       </c>
-      <c r="E53" s="19">
+      <c r="E54" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F53" s="19">
+      <c r="F54" s="19">
         <v>26.024000000000001</v>
       </c>
-      <c r="G53" s="19">
+      <c r="G54" s="19">
         <v>7787.3339999999998</v>
       </c>
-      <c r="H53" s="19">
+      <c r="H54" s="19">
         <v>951.82</v>
       </c>
-      <c r="I53" s="19">
+      <c r="I54" s="19">
         <v>5861.0240000000003</v>
       </c>
-      <c r="J53" s="19">
+      <c r="J54" s="19">
         <v>2963.1660000000002</v>
       </c>
-      <c r="K53" s="19">
+      <c r="K54" s="19">
         <v>6924.8339999999998</v>
       </c>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19">
+      <c r="L54" s="19"/>
+      <c r="M54" s="19">
         <v>590.37950000000001</v>
       </c>
-      <c r="N53" s="19">
+      <c r="N54" s="19">
         <v>1696.91929</v>
       </c>
     </row>
-    <row r="54" spans="2:14" hidden="1">
-      <c r="B54" s="12">
+    <row r="55" spans="2:14" hidden="1">
+      <c r="B55" s="12">
         <v>2021</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C55" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D55" s="14">
         <f t="shared" si="1"/>
         <v>29570.534019999996</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E55" s="15">
         <v>1.6E-2</v>
       </c>
-      <c r="F54" s="15">
+      <c r="F55" s="15">
         <v>33.762999999999998</v>
       </c>
-      <c r="G54" s="15">
+      <c r="G55" s="15">
         <v>7960.9809999999998</v>
       </c>
-      <c r="H54" s="15">
+      <c r="H55" s="15">
         <v>980.41300000000001</v>
       </c>
-      <c r="I54" s="15">
+      <c r="I55" s="15">
         <v>6238.2730000000001</v>
       </c>
-      <c r="J54" s="15">
+      <c r="J55" s="15">
         <v>3189.866</v>
       </c>
-      <c r="K54" s="15">
+      <c r="K55" s="15">
         <v>8884.8860000000004</v>
       </c>
-      <c r="L54" s="15"/>
-      <c r="M54" s="15">
+      <c r="L55" s="15"/>
+      <c r="M55" s="15">
         <v>570.02250000000004</v>
       </c>
-      <c r="N54" s="15">
+      <c r="N55" s="15">
         <v>1712.3135199999999</v>
       </c>
     </row>
-    <row r="55" spans="2:14" hidden="1">
-      <c r="B55" s="16">
+    <row r="56" spans="2:14" hidden="1">
+      <c r="B56" s="16">
         <v>2021</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C56" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D55" s="18">
+      <c r="D56" s="18">
         <f t="shared" si="1"/>
         <v>26984.257880000001</v>
       </c>
-      <c r="E55" s="19">
+      <c r="E56" s="19">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F55" s="19">
+      <c r="F56" s="19">
         <v>30.326000000000001</v>
       </c>
-      <c r="G55" s="19">
+      <c r="G56" s="19">
         <v>6994.8090000000002</v>
       </c>
-      <c r="H55" s="19">
+      <c r="H56" s="19">
         <v>938.22799999999995</v>
       </c>
-      <c r="I55" s="19">
+      <c r="I56" s="19">
         <v>5685.7610000000004</v>
       </c>
-      <c r="J55" s="19">
+      <c r="J56" s="19">
         <v>2933.55</v>
       </c>
-      <c r="K55" s="19">
+      <c r="K56" s="19">
         <v>8239.3950000000004</v>
       </c>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19">
+      <c r="L56" s="19"/>
+      <c r="M56" s="19">
         <v>517.37900000000002</v>
       </c>
-      <c r="N55" s="19">
+      <c r="N56" s="19">
         <v>1644.78388</v>
       </c>
     </row>
-    <row r="56" spans="2:14" hidden="1">
-      <c r="B56" s="12">
+    <row r="57" spans="2:14" hidden="1">
+      <c r="B57" s="12">
         <v>2021</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C57" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="14">
+      <c r="D57" s="14">
         <f t="shared" si="1"/>
         <v>27395.161769999999</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E57" s="15">
         <v>1.2E-2</v>
       </c>
-      <c r="F56" s="15">
+      <c r="F57" s="15">
         <v>34.064</v>
       </c>
-      <c r="G56" s="15">
+      <c r="G57" s="15">
         <v>5853.0280000000002</v>
       </c>
-      <c r="H56" s="15">
+      <c r="H57" s="15">
         <v>804.99099999999999</v>
       </c>
-      <c r="I56" s="15">
+      <c r="I57" s="15">
         <v>6221.6310000000003</v>
       </c>
-      <c r="J56" s="15">
+      <c r="J57" s="15">
         <v>2753.0189999999998</v>
       </c>
-      <c r="K56" s="15">
+      <c r="K57" s="15">
         <v>9369.7039999999997</v>
       </c>
-      <c r="L56" s="15"/>
-      <c r="M56" s="15">
+      <c r="L57" s="15"/>
+      <c r="M57" s="15">
         <v>581.25</v>
       </c>
-      <c r="N56" s="15">
+      <c r="N57" s="15">
         <v>1777.4627700000001</v>
       </c>
     </row>
-    <row r="57" spans="2:14" hidden="1">
-      <c r="B57" s="16">
+    <row r="58" spans="2:14" hidden="1">
+      <c r="B58" s="16">
         <v>2021</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C58" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D57" s="18">
+      <c r="D58" s="18">
         <f t="shared" si="1"/>
         <v>26794.383829999999</v>
       </c>
-      <c r="E57" s="19">
+      <c r="E58" s="19">
         <v>1.4E-2</v>
       </c>
-      <c r="F57" s="19">
+      <c r="F58" s="19">
         <v>28.870999999999999</v>
       </c>
-      <c r="G57" s="19">
+      <c r="G58" s="19">
         <v>5583.2060000000001</v>
       </c>
-      <c r="H57" s="19">
+      <c r="H58" s="19">
         <v>855.89099999999996</v>
       </c>
-      <c r="I57" s="19">
+      <c r="I58" s="19">
         <v>5955.3379999999997</v>
       </c>
-      <c r="J57" s="19">
+      <c r="J58" s="19">
         <v>2553.587</v>
       </c>
-      <c r="K57" s="19">
+      <c r="K58" s="19">
         <v>9635.8649999999998</v>
       </c>
-      <c r="L57" s="19"/>
-      <c r="M57" s="19">
+      <c r="L58" s="19"/>
+      <c r="M58" s="19">
         <v>569.29200000000003</v>
       </c>
-      <c r="N57" s="19">
+      <c r="N58" s="19">
         <v>1612.3198300000001</v>
       </c>
     </row>
-    <row r="58" spans="2:14" hidden="1">
-      <c r="B58" s="12">
+    <row r="59" spans="2:14" hidden="1">
+      <c r="B59" s="12">
         <v>2021</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C59" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D58" s="14">
+      <c r="D59" s="14">
         <f t="shared" si="1"/>
         <v>28888.855879999999</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E59" s="15">
         <v>0.01</v>
       </c>
-      <c r="F58" s="15">
+      <c r="F59" s="15">
         <v>30.994</v>
       </c>
-      <c r="G58" s="15">
+      <c r="G59" s="15">
         <v>5972.1139999999996</v>
       </c>
-      <c r="H58" s="15">
+      <c r="H59" s="15">
         <v>961.24900000000002</v>
       </c>
-      <c r="I58" s="15">
+      <c r="I59" s="15">
         <v>6821.0630000000001</v>
       </c>
-      <c r="J58" s="15">
+      <c r="J59" s="15">
         <v>2527.971</v>
       </c>
-      <c r="K58" s="15">
+      <c r="K59" s="15">
         <v>10350.735000000001</v>
       </c>
-      <c r="L58" s="15"/>
-      <c r="M58" s="15">
+      <c r="L59" s="15"/>
+      <c r="M59" s="15">
         <v>537.19399999999996</v>
       </c>
-      <c r="N58" s="15">
+      <c r="N59" s="15">
         <v>1687.5258799999999</v>
       </c>
     </row>
-    <row r="59" spans="2:14" hidden="1">
-      <c r="B59" s="16">
+    <row r="60" spans="2:14" hidden="1">
+      <c r="B60" s="16">
         <v>2021</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C60" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D59" s="18">
+      <c r="D60" s="18">
         <f t="shared" si="1"/>
         <v>25842.507199999996</v>
       </c>
-      <c r="E59" s="19">
+      <c r="E60" s="19">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F59" s="19">
+      <c r="F60" s="19">
         <v>23.164999999999999</v>
       </c>
-      <c r="G59" s="19">
+      <c r="G60" s="19">
         <v>5676.3119999999999</v>
       </c>
-      <c r="H59" s="19">
+      <c r="H60" s="19">
         <v>842.12599999999998</v>
       </c>
-      <c r="I59" s="19">
+      <c r="I60" s="19">
         <v>6447.9210000000003</v>
       </c>
-      <c r="J59" s="19">
+      <c r="J60" s="19">
         <v>2143.1759999999999</v>
       </c>
-      <c r="K59" s="19">
+      <c r="K60" s="19">
         <v>8771.1730000000007</v>
       </c>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19">
+      <c r="L60" s="19"/>
+      <c r="M60" s="19">
         <v>441.65600000000001</v>
       </c>
-      <c r="N59" s="19">
+      <c r="N60" s="19">
         <v>1496.9692</v>
       </c>
     </row>
-    <row r="60" spans="2:14" hidden="1">
-      <c r="B60" s="20">
+    <row r="61" spans="2:14" hidden="1">
+      <c r="B61" s="20">
         <v>2021</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C61" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D60" s="22">
+      <c r="D61" s="22">
         <f t="shared" si="1"/>
         <v>26743.09706</v>
       </c>
-      <c r="E60" s="23">
+      <c r="E61" s="23">
         <v>2.3E-2</v>
       </c>
-      <c r="F60" s="23">
+      <c r="F61" s="23">
         <v>22.483000000000001</v>
       </c>
-      <c r="G60" s="23">
+      <c r="G61" s="23">
         <v>5633.7330000000002</v>
       </c>
-      <c r="H60" s="23">
+      <c r="H61" s="23">
         <v>893.20500000000004</v>
       </c>
-      <c r="I60" s="23">
+      <c r="I61" s="23">
         <v>5852.174</v>
       </c>
-      <c r="J60" s="23">
+      <c r="J61" s="23">
         <v>2714.6959999999999</v>
       </c>
-      <c r="K60" s="23">
+      <c r="K61" s="23">
         <v>9764.4040000000005</v>
       </c>
-      <c r="L60" s="23"/>
-      <c r="M60" s="23">
+      <c r="L61" s="23"/>
+      <c r="M61" s="23">
         <v>374.46</v>
       </c>
-      <c r="N60" s="23">
+      <c r="N61" s="23">
         <v>1487.9190599999999</v>
       </c>
     </row>
-    <row r="61" spans="2:14" hidden="1">
-      <c r="B61" s="24">
+    <row r="62" spans="2:14" hidden="1">
+      <c r="B62" s="24">
         <v>2020</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="C62" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D61" s="26">
+      <c r="D62" s="26">
         <f t="shared" si="1"/>
         <v>29319.336610000002</v>
       </c>
-      <c r="E61" s="27">
+      <c r="E62" s="27">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F61" s="27">
+      <c r="F62" s="27">
         <v>30.75</v>
       </c>
-      <c r="G61" s="27">
+      <c r="G62" s="27">
         <v>5388.74</v>
       </c>
-      <c r="H61" s="27">
+      <c r="H62" s="27">
         <v>1227.8499999999999</v>
       </c>
-      <c r="I61" s="27">
+      <c r="I62" s="27">
         <v>8063.0550000000003</v>
       </c>
-      <c r="J61" s="27">
+      <c r="J62" s="27">
         <v>3485.029</v>
       </c>
-      <c r="K61" s="27">
+      <c r="K62" s="27">
         <v>8808.3330000000005</v>
       </c>
-      <c r="L61" s="27"/>
-      <c r="M61" s="27">
+      <c r="L62" s="27"/>
+      <c r="M62" s="27">
         <v>499.45499999999998</v>
       </c>
-      <c r="N61" s="27">
+      <c r="N62" s="27">
         <v>1816.0996100000002</v>
       </c>
     </row>
-    <row r="62" spans="2:14" hidden="1">
-      <c r="B62" s="12">
+    <row r="63" spans="2:14" hidden="1">
+      <c r="B63" s="12">
         <v>2020</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C63" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D62" s="14">
+      <c r="D63" s="14">
         <f t="shared" si="1"/>
         <v>31025.563980000003</v>
       </c>
-      <c r="E62" s="15">
+      <c r="E63" s="15">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="F62" s="15">
+      <c r="F63" s="15">
         <v>29.420999999999999</v>
       </c>
-      <c r="G62" s="15">
+      <c r="G63" s="15">
         <v>4646.3059999999996</v>
       </c>
-      <c r="H62" s="15">
+      <c r="H63" s="15">
         <v>918.31700000000001</v>
       </c>
-      <c r="I62" s="15">
+      <c r="I63" s="15">
         <v>10405.393</v>
       </c>
-      <c r="J62" s="15">
+      <c r="J63" s="15">
         <v>3080.1370000000002</v>
       </c>
-      <c r="K62" s="15">
+      <c r="K63" s="15">
         <v>9680.3340000000007</v>
       </c>
-      <c r="L62" s="15"/>
-      <c r="M62" s="15">
+      <c r="L63" s="15"/>
+      <c r="M63" s="15">
         <v>427.87200000000001</v>
       </c>
-      <c r="N62" s="15">
+      <c r="N63" s="15">
         <v>1837.75198</v>
       </c>
     </row>
-    <row r="63" spans="2:14" hidden="1">
-      <c r="B63" s="16">
+    <row r="64" spans="2:14" hidden="1">
+      <c r="B64" s="16">
         <v>2020</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C64" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D63" s="18">
+      <c r="D64" s="18">
         <f t="shared" si="1"/>
         <v>29066.680449999996</v>
       </c>
-      <c r="E63" s="19">
+      <c r="E64" s="19">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F63" s="19">
+      <c r="F64" s="19">
         <v>25.18</v>
       </c>
-      <c r="G63" s="19">
+      <c r="G64" s="19">
         <v>4168.3999999999996</v>
       </c>
-      <c r="H63" s="19">
+      <c r="H64" s="19">
         <v>855.53599999999994</v>
       </c>
-      <c r="I63" s="19">
+      <c r="I64" s="19">
         <v>9141.11</v>
       </c>
-      <c r="J63" s="19">
+      <c r="J64" s="19">
         <v>2910.5740000000001</v>
       </c>
-      <c r="K63" s="19">
+      <c r="K64" s="19">
         <v>9811.7209999999995</v>
       </c>
-      <c r="L63" s="19"/>
-      <c r="M63" s="19">
+      <c r="L64" s="19"/>
+      <c r="M64" s="19">
         <v>328.78100000000001</v>
       </c>
-      <c r="N63" s="19">
+      <c r="N64" s="19">
         <v>1825.3604499999999</v>
       </c>
     </row>
-    <row r="64" spans="2:14" hidden="1">
-      <c r="B64" s="12">
+    <row r="65" spans="2:14" hidden="1">
+      <c r="B65" s="12">
         <v>2020</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C65" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D64" s="14">
+      <c r="D65" s="14">
         <f t="shared" si="1"/>
         <v>25730.176029999999</v>
       </c>
-      <c r="E64" s="15">
+      <c r="E65" s="15">
         <v>1.6E-2</v>
       </c>
-      <c r="F64" s="15">
+      <c r="F65" s="15">
         <v>19.38</v>
       </c>
-      <c r="G64" s="15">
+      <c r="G65" s="15">
         <v>3354.4870000000001</v>
       </c>
-      <c r="H64" s="15">
+      <c r="H65" s="15">
         <v>815.01599999999996</v>
       </c>
-      <c r="I64" s="15">
+      <c r="I65" s="15">
         <v>9094.2099999999991</v>
       </c>
-      <c r="J64" s="15">
+      <c r="J65" s="15">
         <v>2742.8449999999998</v>
       </c>
-      <c r="K64" s="15">
+      <c r="K65" s="15">
         <v>7889.5420000000004</v>
       </c>
-      <c r="L64" s="15"/>
-      <c r="M64" s="15">
+      <c r="L65" s="15"/>
+      <c r="M65" s="15">
         <v>300.25099999999998</v>
       </c>
-      <c r="N64" s="15">
+      <c r="N65" s="15">
         <v>1514.42903</v>
       </c>
     </row>
-    <row r="65" spans="2:14" hidden="1">
-      <c r="B65" s="16">
+    <row r="66" spans="2:14" hidden="1">
+      <c r="B66" s="16">
         <v>2020</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="C66" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D65" s="18">
+      <c r="D66" s="18">
         <f t="shared" si="1"/>
         <v>23252.681530000002</v>
       </c>
-      <c r="E65" s="19">
+      <c r="E66" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F65" s="19">
+      <c r="F66" s="19">
         <v>19.126000000000001</v>
       </c>
-      <c r="G65" s="19">
+      <c r="G66" s="19">
         <v>2845.2860000000001</v>
       </c>
-      <c r="H65" s="19">
+      <c r="H66" s="19">
         <v>913.84799999999996</v>
       </c>
-      <c r="I65" s="19">
+      <c r="I66" s="19">
         <v>8628.9339999999993</v>
       </c>
-      <c r="J65" s="19">
+      <c r="J66" s="19">
         <v>2494.9360000000001</v>
       </c>
-      <c r="K65" s="19">
+      <c r="K66" s="19">
         <v>6734.2569999999996</v>
       </c>
-      <c r="L65" s="19"/>
-      <c r="M65" s="19">
+      <c r="L66" s="19"/>
+      <c r="M66" s="19">
         <v>214.13300000000001</v>
       </c>
-      <c r="N65" s="19">
+      <c r="N66" s="19">
         <v>1402.1505300000001</v>
       </c>
     </row>
-    <row r="66" spans="2:14" hidden="1">
-      <c r="B66" s="12">
+    <row r="67" spans="2:14" hidden="1">
+      <c r="B67" s="12">
         <v>2020</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C67" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D66" s="14">
+      <c r="D67" s="14">
         <f t="shared" si="1"/>
         <v>19183.500039999999</v>
       </c>
-      <c r="E66" s="15">
+      <c r="E67" s="15">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F66" s="15">
+      <c r="F67" s="15">
         <v>18.687000000000001</v>
       </c>
-      <c r="G66" s="15">
+      <c r="G67" s="15">
         <v>2326.4090000000001</v>
       </c>
-      <c r="H66" s="15">
+      <c r="H67" s="15">
         <v>969.73</v>
       </c>
-      <c r="I66" s="15">
+      <c r="I67" s="15">
         <v>5828.2169999999996</v>
       </c>
-      <c r="J66" s="15">
+      <c r="J67" s="15">
         <v>2394.4169999999999</v>
       </c>
-      <c r="K66" s="15">
+      <c r="K67" s="15">
         <v>6273.5619999999999</v>
       </c>
-      <c r="L66" s="15"/>
-      <c r="M66" s="15">
+      <c r="L67" s="15"/>
+      <c r="M67" s="15">
         <v>151.30000000000001</v>
       </c>
-      <c r="N66" s="15">
+      <c r="N67" s="15">
         <v>1221.17004</v>
       </c>
     </row>
-    <row r="67" spans="2:14" hidden="1">
-      <c r="B67" s="16">
+    <row r="68" spans="2:14" hidden="1">
+      <c r="B68" s="16">
         <v>2020</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="C68" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D67" s="18">
+      <c r="D68" s="18">
         <f t="shared" si="1"/>
         <v>16639.803259999997</v>
       </c>
-      <c r="E67" s="19">
+      <c r="E68" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F67" s="19">
+      <c r="F68" s="19">
         <v>15.773</v>
       </c>
-      <c r="G67" s="19">
+      <c r="G68" s="19">
         <v>1336.4849999999999</v>
       </c>
-      <c r="H67" s="19">
+      <c r="H68" s="19">
         <v>585.92899999999997</v>
       </c>
-      <c r="I67" s="19">
+      <c r="I68" s="19">
         <v>5587.4769999999999</v>
       </c>
-      <c r="J67" s="19">
+      <c r="J68" s="19">
         <v>2256.6930000000002</v>
       </c>
-      <c r="K67" s="19">
+      <c r="K68" s="19">
         <v>5744.8710000000001</v>
       </c>
-      <c r="L67" s="19"/>
-      <c r="M67" s="19">
+      <c r="L68" s="19"/>
+      <c r="M68" s="19">
         <v>118.29600000000001</v>
       </c>
-      <c r="N67" s="19">
+      <c r="N68" s="19">
         <v>994.26826000000005</v>
       </c>
     </row>
-    <row r="68" spans="2:14" hidden="1">
-      <c r="B68" s="12">
+    <row r="69" spans="2:14" hidden="1">
+      <c r="B69" s="12">
         <v>2020</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C69" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D68" s="14">
+      <c r="D69" s="14">
         <f t="shared" si="1"/>
         <v>15467.05891</v>
       </c>
-      <c r="E68" s="15">
+      <c r="E69" s="15">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F68" s="15">
+      <c r="F69" s="15">
         <v>9.4559999999999995</v>
       </c>
-      <c r="G68" s="15">
+      <c r="G69" s="15">
         <v>799.72500000000002</v>
       </c>
-      <c r="H68" s="15">
+      <c r="H69" s="15">
         <v>697.28700000000003</v>
       </c>
-      <c r="I68" s="15">
+      <c r="I69" s="15">
         <v>5542.4840000000004</v>
       </c>
-      <c r="J68" s="15">
+      <c r="J69" s="15">
         <v>2132.3310000000001</v>
       </c>
-      <c r="K68" s="15">
+      <c r="K69" s="15">
         <v>5558.576</v>
       </c>
-      <c r="L68" s="15"/>
-      <c r="M68" s="15">
+      <c r="L69" s="15"/>
+      <c r="M69" s="15">
         <v>143.20510000000002</v>
       </c>
-      <c r="N68" s="15">
+      <c r="N69" s="15">
         <v>583.9918100000001</v>
       </c>
     </row>
-    <row r="69" spans="2:14" hidden="1">
-      <c r="B69" s="16">
+    <row r="70" spans="2:14" hidden="1">
+      <c r="B70" s="16">
         <v>2020</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="C70" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D69" s="18">
+      <c r="D70" s="18">
         <f t="shared" si="1"/>
         <v>13102.288870000002</v>
       </c>
-      <c r="E69" s="19">
+      <c r="E70" s="19">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F69" s="19">
+      <c r="F70" s="19">
         <v>7.4619999999999997</v>
       </c>
-      <c r="G69" s="19">
+      <c r="G70" s="19">
         <v>1038.125</v>
       </c>
-      <c r="H69" s="19">
+      <c r="H70" s="19">
         <v>754.48400000000004</v>
       </c>
-      <c r="I69" s="19">
+      <c r="I70" s="19">
         <v>5034.1760000000004</v>
       </c>
-      <c r="J69" s="19">
+      <c r="J70" s="19">
         <v>1894.93</v>
       </c>
-      <c r="K69" s="19">
+      <c r="K70" s="19">
         <v>3753.6880000000001</v>
       </c>
-      <c r="L69" s="19"/>
-      <c r="M69" s="19">
+      <c r="L70" s="19"/>
+      <c r="M70" s="19">
         <v>60.6843</v>
       </c>
-      <c r="N69" s="19">
+      <c r="N70" s="19">
         <v>558.7325699999999</v>
       </c>
     </row>
-    <row r="70" spans="2:14" hidden="1">
-      <c r="B70" s="12">
+    <row r="71" spans="2:14" hidden="1">
+      <c r="B71" s="12">
         <v>2020</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C71" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D70" s="14">
+      <c r="D71" s="14">
         <f t="shared" si="1"/>
         <v>21054.737990000001</v>
       </c>
-      <c r="E70" s="15">
+      <c r="E71" s="15">
         <v>3.1E-2</v>
       </c>
-      <c r="F70" s="15">
+      <c r="F71" s="15">
         <v>35.988999999999997</v>
       </c>
-      <c r="G70" s="15">
+      <c r="G71" s="15">
         <v>7356.9930000000004</v>
       </c>
-      <c r="H70" s="15">
+      <c r="H71" s="15">
         <v>1318.52</v>
       </c>
-      <c r="I70" s="15">
+      <c r="I71" s="15">
         <v>4797.09</v>
       </c>
-      <c r="J70" s="15">
+      <c r="J71" s="15">
         <v>1722.712</v>
       </c>
-      <c r="K70" s="15">
+      <c r="K71" s="15">
         <v>4510.4480000000003</v>
       </c>
-      <c r="L70" s="15"/>
-      <c r="M70" s="15">
+      <c r="L71" s="15"/>
+      <c r="M71" s="15">
         <v>102.3022</v>
       </c>
-      <c r="N70" s="15">
+      <c r="N71" s="15">
         <v>1210.6527900000001</v>
       </c>
     </row>
-    <row r="71" spans="2:14" hidden="1">
-      <c r="B71" s="16">
+    <row r="72" spans="2:14" hidden="1">
+      <c r="B72" s="16">
         <v>2020</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="C72" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D71" s="18">
+      <c r="D72" s="18">
         <f t="shared" si="1"/>
         <v>21338.277510000004</v>
       </c>
-      <c r="E71" s="19">
+      <c r="E72" s="19">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F71" s="19">
+      <c r="F72" s="19">
         <v>56.369</v>
       </c>
-      <c r="G71" s="19">
+      <c r="G72" s="19">
         <v>9237.1190000000006</v>
       </c>
-      <c r="H71" s="19">
+      <c r="H72" s="19">
         <v>1428.3530000000001</v>
       </c>
-      <c r="I71" s="19">
+      <c r="I72" s="19">
         <v>3273.0720000000001</v>
       </c>
-      <c r="J71" s="19">
+      <c r="J72" s="19">
         <v>1520.239</v>
       </c>
-      <c r="K71" s="19">
+      <c r="K72" s="19">
         <v>4116.8599999999997</v>
       </c>
-      <c r="L71" s="19"/>
-      <c r="M71" s="19">
+      <c r="L72" s="19"/>
+      <c r="M72" s="19">
         <v>132.3349</v>
       </c>
-      <c r="N71" s="19">
+      <c r="N72" s="19">
         <v>1573.90461</v>
       </c>
     </row>
-    <row r="72" spans="2:14" hidden="1">
-      <c r="B72" s="20">
+    <row r="73" spans="2:14" hidden="1">
+      <c r="B73" s="20">
         <v>2020</v>
       </c>
-      <c r="C72" s="21" t="s">
+      <c r="C73" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D72" s="22">
-        <f t="shared" ref="D72:D96" si="2">SUM(E72:N72)</f>
+      <c r="D73" s="22">
+        <f t="shared" ref="D73:D97" si="2">SUM(E73:N73)</f>
         <v>24231.444509999998</v>
       </c>
-      <c r="E72" s="23">
+      <c r="E73" s="23">
         <v>4.7E-2</v>
       </c>
-      <c r="F72" s="23">
+      <c r="F73" s="23">
         <v>53.219000000000001</v>
       </c>
-      <c r="G72" s="23">
+      <c r="G73" s="23">
         <v>8754.5229999999992</v>
       </c>
-      <c r="H72" s="23">
+      <c r="H73" s="23">
         <v>1369.674</v>
       </c>
-      <c r="I72" s="23">
+      <c r="I73" s="23">
         <v>5338.8549999999996</v>
       </c>
-      <c r="J72" s="23">
+      <c r="J73" s="23">
         <v>1679.8140000000001</v>
       </c>
-      <c r="K72" s="23">
+      <c r="K73" s="23">
         <v>5287.6</v>
       </c>
-      <c r="L72" s="23"/>
-      <c r="M72" s="23">
+      <c r="L73" s="23"/>
+      <c r="M73" s="23">
         <v>71.972800000000007</v>
       </c>
-      <c r="N72" s="23">
+      <c r="N73" s="23">
         <v>1675.7397100000001</v>
       </c>
     </row>
-    <row r="73" spans="2:14" hidden="1">
-      <c r="B73" s="24">
+    <row r="74" spans="2:14" hidden="1">
+      <c r="B74" s="24">
         <v>2019</v>
       </c>
-      <c r="C73" s="25" t="s">
+      <c r="C74" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D73" s="26">
+      <c r="D74" s="26">
         <f t="shared" si="2"/>
         <v>28498.730729999996</v>
       </c>
-      <c r="E73" s="27">
+      <c r="E74" s="27">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="F73" s="27">
+      <c r="F74" s="27">
         <v>86.153999999999996</v>
       </c>
-      <c r="G73" s="27">
+      <c r="G74" s="27">
         <v>9577.1149999999998</v>
       </c>
-      <c r="H73" s="27">
+      <c r="H74" s="27">
         <v>1676.4159999999999</v>
       </c>
-      <c r="I73" s="27">
+      <c r="I74" s="27">
         <v>6029.0749999999998</v>
       </c>
-      <c r="J73" s="27">
+      <c r="J74" s="27">
         <v>2445.3470000000002</v>
       </c>
-      <c r="K73" s="27">
+      <c r="K74" s="27">
         <v>5030.2939999999999</v>
       </c>
-      <c r="L73" s="27"/>
-      <c r="M73" s="27">
+      <c r="L74" s="27"/>
+      <c r="M74" s="27">
         <v>65.746300000000005</v>
       </c>
-      <c r="N73" s="27">
+      <c r="N74" s="27">
         <v>3588.5074299999997</v>
       </c>
     </row>
-    <row r="74" spans="2:14" hidden="1">
-      <c r="B74" s="12">
+    <row r="75" spans="2:14" hidden="1">
+      <c r="B75" s="12">
         <v>2019</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C75" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="14">
+      <c r="D75" s="14">
         <f t="shared" si="2"/>
         <v>28748.500410000001</v>
       </c>
-      <c r="E74" s="15">
+      <c r="E75" s="15">
         <v>1.76</v>
       </c>
-      <c r="F74" s="15">
+      <c r="F75" s="15">
         <v>80.100999999999999</v>
       </c>
-      <c r="G74" s="15">
+      <c r="G75" s="15">
         <v>9752.0519999999997</v>
       </c>
-      <c r="H74" s="15">
+      <c r="H75" s="15">
         <v>1595.383</v>
       </c>
-      <c r="I74" s="15">
+      <c r="I75" s="15">
         <v>5103.0559999999996</v>
       </c>
-      <c r="J74" s="15">
+      <c r="J75" s="15">
         <v>2658.252</v>
       </c>
-      <c r="K74" s="15">
+      <c r="K75" s="15">
         <v>5793.69</v>
       </c>
-      <c r="L74" s="15"/>
-      <c r="M74" s="15">
+      <c r="L75" s="15"/>
+      <c r="M75" s="15">
         <v>12.758299999999998</v>
       </c>
-      <c r="N74" s="15">
+      <c r="N75" s="15">
         <v>3751.4481100000003</v>
       </c>
     </row>
-    <row r="75" spans="2:14" hidden="1">
-      <c r="B75" s="16">
+    <row r="76" spans="2:14" hidden="1">
+      <c r="B76" s="16">
         <v>2019</v>
       </c>
-      <c r="C75" s="17" t="s">
+      <c r="C76" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="18">
+      <c r="D76" s="18">
         <f t="shared" si="2"/>
         <v>28546.757959999995</v>
       </c>
-      <c r="E75" s="19">
+      <c r="E76" s="19">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="F75" s="19">
+      <c r="F76" s="19">
         <v>72</v>
       </c>
-      <c r="G75" s="19">
+      <c r="G76" s="19">
         <v>9994.6419999999998</v>
       </c>
-      <c r="H75" s="19">
+      <c r="H76" s="19">
         <v>1608.7059999999999</v>
       </c>
-      <c r="I75" s="19">
+      <c r="I76" s="19">
         <v>4575.3310000000001</v>
       </c>
-      <c r="J75" s="19">
+      <c r="J76" s="19">
         <v>2828.3510000000001</v>
       </c>
-      <c r="K75" s="19">
+      <c r="K76" s="19">
         <v>5549.9949999999999</v>
       </c>
-      <c r="L75" s="19"/>
-      <c r="M75" s="19"/>
-      <c r="N75" s="19">
+      <c r="L76" s="19"/>
+      <c r="M76" s="19"/>
+      <c r="N76" s="19">
         <v>3917.6479599999998</v>
       </c>
     </row>
-    <row r="76" spans="2:14" hidden="1">
-      <c r="B76" s="12">
+    <row r="77" spans="2:14" hidden="1">
+      <c r="B77" s="12">
         <v>2019</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C77" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="14">
+      <c r="D77" s="14">
         <f t="shared" si="2"/>
         <v>26837.728249999996</v>
       </c>
-      <c r="E76" s="15">
+      <c r="E77" s="15">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F76" s="15">
+      <c r="F77" s="15">
         <v>54.752000000000002</v>
       </c>
-      <c r="G76" s="15">
+      <c r="G77" s="15">
         <v>9010.31</v>
       </c>
-      <c r="H76" s="15">
+      <c r="H77" s="15">
         <v>1396.2560000000001</v>
       </c>
-      <c r="I76" s="15">
+      <c r="I77" s="15">
         <v>5775.3389999999999</v>
       </c>
-      <c r="J76" s="15">
+      <c r="J77" s="15">
         <v>2331.1950000000002</v>
       </c>
-      <c r="K76" s="15">
+      <c r="K77" s="15">
         <v>4893.7089999999998</v>
       </c>
-      <c r="L76" s="15"/>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15">
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15">
         <v>3376.1322500000001</v>
       </c>
     </row>
-    <row r="77" spans="2:14" hidden="1">
-      <c r="B77" s="16">
+    <row r="78" spans="2:14" hidden="1">
+      <c r="B78" s="16">
         <v>2019</v>
       </c>
-      <c r="C77" s="17" t="s">
+      <c r="C78" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D77" s="18">
+      <c r="D78" s="18">
         <f t="shared" si="2"/>
         <v>26206.644859999997</v>
       </c>
-      <c r="E77" s="19">
+      <c r="E78" s="19">
         <v>5.59633</v>
       </c>
-      <c r="F77" s="19">
+      <c r="F78" s="19">
         <v>57.29</v>
       </c>
-      <c r="G77" s="19">
+      <c r="G78" s="19">
         <v>8610.5910000000003</v>
       </c>
-      <c r="H77" s="19">
+      <c r="H78" s="19">
         <v>1665.9570000000001</v>
       </c>
-      <c r="I77" s="19">
+      <c r="I78" s="19">
         <v>5196.0309999999999</v>
       </c>
-      <c r="J77" s="19">
+      <c r="J78" s="19">
         <v>2672.4050000000002</v>
       </c>
-      <c r="K77" s="19">
+      <c r="K78" s="19">
         <v>4774.3459999999995</v>
       </c>
-      <c r="L77" s="19"/>
-      <c r="M77" s="19"/>
-      <c r="N77" s="19">
+      <c r="L78" s="19"/>
+      <c r="M78" s="19"/>
+      <c r="N78" s="19">
         <v>3224.4285300000001</v>
       </c>
     </row>
-    <row r="78" spans="2:14" hidden="1">
-      <c r="B78" s="12">
+    <row r="79" spans="2:14" hidden="1">
+      <c r="B79" s="12">
         <v>2019</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C79" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D78" s="14">
+      <c r="D79" s="14">
         <f t="shared" si="2"/>
         <v>26365.98129</v>
       </c>
-      <c r="E78" s="15">
+      <c r="E79" s="15">
         <v>6.0529999999999999</v>
       </c>
-      <c r="F78" s="15">
+      <c r="F79" s="15">
         <v>57.801000000000002</v>
       </c>
-      <c r="G78" s="15">
+      <c r="G79" s="15">
         <v>8986.9670000000006</v>
       </c>
-      <c r="H78" s="15">
+      <c r="H79" s="15">
         <v>1788.191</v>
       </c>
-      <c r="I78" s="15">
+      <c r="I79" s="15">
         <v>5135.1639999999998</v>
       </c>
-      <c r="J78" s="15">
+      <c r="J79" s="15">
         <v>2578.5520000000001</v>
       </c>
-      <c r="K78" s="15">
+      <c r="K79" s="15">
         <v>4798.0159999999996</v>
       </c>
-      <c r="L78" s="15"/>
-      <c r="M78" s="15"/>
-      <c r="N78" s="15">
+      <c r="L79" s="15"/>
+      <c r="M79" s="15"/>
+      <c r="N79" s="15">
         <v>3015.23729</v>
       </c>
     </row>
-    <row r="79" spans="2:14" hidden="1">
-      <c r="B79" s="16">
+    <row r="80" spans="2:14" hidden="1">
+      <c r="B80" s="16">
         <v>2019</v>
       </c>
-      <c r="C79" s="17" t="s">
+      <c r="C80" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D79" s="18">
+      <c r="D80" s="18">
         <f t="shared" si="2"/>
         <v>24932.340609999999</v>
       </c>
-      <c r="E79" s="19">
+      <c r="E80" s="19">
         <v>5.46</v>
       </c>
-      <c r="F79" s="19">
+      <c r="F80" s="19">
         <v>55.997999999999998</v>
       </c>
-      <c r="G79" s="19">
+      <c r="G80" s="19">
         <v>8069.7749999999996</v>
       </c>
-      <c r="H79" s="19">
+      <c r="H80" s="19">
         <v>1587.973</v>
       </c>
-      <c r="I79" s="19">
+      <c r="I80" s="19">
         <v>5215.268</v>
       </c>
-      <c r="J79" s="19">
+      <c r="J80" s="19">
         <v>2428.5169999999998</v>
       </c>
-      <c r="K79" s="19">
+      <c r="K80" s="19">
         <v>4450.9750000000004</v>
       </c>
-      <c r="L79" s="19"/>
-      <c r="M79" s="19"/>
-      <c r="N79" s="19">
+      <c r="L80" s="19"/>
+      <c r="M80" s="19"/>
+      <c r="N80" s="19">
         <v>3118.3746100000003</v>
       </c>
     </row>
-    <row r="80" spans="2:14" hidden="1">
-      <c r="B80" s="12">
+    <row r="81" spans="2:14" hidden="1">
+      <c r="B81" s="12">
         <v>2019</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C81" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D80" s="14">
+      <c r="D81" s="14">
         <f t="shared" si="2"/>
         <v>26706.828539999999</v>
       </c>
-      <c r="E80" s="15">
+      <c r="E81" s="15">
         <v>6.2110000000000003</v>
       </c>
-      <c r="F80" s="15">
+      <c r="F81" s="15">
         <v>67.53</v>
       </c>
-      <c r="G80" s="15">
+      <c r="G81" s="15">
         <v>8472.9789999999994</v>
       </c>
-      <c r="H80" s="15">
+      <c r="H81" s="15">
         <v>1708.221</v>
       </c>
-      <c r="I80" s="15">
+      <c r="I81" s="15">
         <v>5081.5749999999998</v>
       </c>
-      <c r="J80" s="15">
+      <c r="J81" s="15">
         <v>2646.9789999999998</v>
       </c>
-      <c r="K80" s="15">
+      <c r="K81" s="15">
         <v>5332.5439999999999</v>
       </c>
-      <c r="L80" s="15"/>
-      <c r="M80" s="15"/>
-      <c r="N80" s="15">
+      <c r="L81" s="15"/>
+      <c r="M81" s="15"/>
+      <c r="N81" s="15">
         <v>3390.7895400000002</v>
       </c>
     </row>
-    <row r="81" spans="2:15" hidden="1">
-      <c r="B81" s="16">
+    <row r="82" spans="2:14" hidden="1">
+      <c r="B82" s="16">
         <v>2019</v>
       </c>
-      <c r="C81" s="17" t="s">
+      <c r="C82" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D81" s="18">
+      <c r="D82" s="18">
         <f t="shared" si="2"/>
         <v>28802.903179999994</v>
       </c>
-      <c r="E81" s="19">
+      <c r="E82" s="19">
         <v>7.8460000000000001</v>
       </c>
-      <c r="F81" s="19">
+      <c r="F82" s="19">
         <v>56.534999999999997</v>
       </c>
-      <c r="G81" s="19">
+      <c r="G82" s="19">
         <v>8624.3449999999993</v>
       </c>
-      <c r="H81" s="19">
+      <c r="H82" s="19">
         <v>1621.0229999999999</v>
       </c>
-      <c r="I81" s="19">
+      <c r="I82" s="19">
         <v>8671.3349999999991</v>
       </c>
-      <c r="J81" s="19">
+      <c r="J82" s="19">
         <v>2304.8890000000001</v>
       </c>
-      <c r="K81" s="19">
+      <c r="K82" s="19">
         <v>4465.5820000000003</v>
       </c>
-      <c r="L81" s="19"/>
-      <c r="M81" s="19"/>
-      <c r="N81" s="19">
+      <c r="L82" s="19"/>
+      <c r="M82" s="19"/>
+      <c r="N82" s="19">
         <v>3051.34818</v>
       </c>
     </row>
-    <row r="82" spans="2:15" hidden="1">
-      <c r="B82" s="12">
+    <row r="83" spans="2:14" hidden="1">
+      <c r="B83" s="12">
         <v>2019</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C83" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D82" s="14">
+      <c r="D83" s="14">
         <f t="shared" si="2"/>
         <v>28988.519560000001</v>
       </c>
-      <c r="E82" s="15">
+      <c r="E83" s="15">
         <v>5.36</v>
       </c>
-      <c r="F82" s="15">
+      <c r="F83" s="15">
         <v>59.417999999999999</v>
       </c>
-      <c r="G82" s="15">
+      <c r="G83" s="15">
         <v>9153.4</v>
       </c>
-      <c r="H82" s="15">
+      <c r="H83" s="15">
         <v>1573.4939999999999</v>
       </c>
-      <c r="I82" s="15">
+      <c r="I83" s="15">
         <v>7744.9759999999997</v>
       </c>
-      <c r="J82" s="15">
+      <c r="J83" s="15">
         <v>2483.4180000000001</v>
       </c>
-      <c r="K82" s="15">
+      <c r="K83" s="15">
         <v>4955.9579999999996</v>
       </c>
-      <c r="L82" s="15"/>
-      <c r="M82" s="15"/>
-      <c r="N82" s="15">
+      <c r="L83" s="15"/>
+      <c r="M83" s="15"/>
+      <c r="N83" s="15">
         <v>3012.4955599999998</v>
       </c>
     </row>
-    <row r="83" spans="2:15" hidden="1">
-      <c r="B83" s="16">
+    <row r="84" spans="2:14" hidden="1">
+      <c r="B84" s="16">
         <v>2019</v>
       </c>
-      <c r="C83" s="17" t="s">
+      <c r="C84" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D83" s="18">
+      <c r="D84" s="18">
         <f t="shared" si="2"/>
         <v>25224.750899999999</v>
       </c>
-      <c r="E83" s="19">
+      <c r="E84" s="19">
         <v>5.3540000000000001</v>
       </c>
-      <c r="F83" s="19">
+      <c r="F84" s="19">
         <v>60.44</v>
       </c>
-      <c r="G83" s="19">
+      <c r="G84" s="19">
         <v>8240.6730000000007</v>
       </c>
-      <c r="H83" s="19">
+      <c r="H84" s="19">
         <v>1223.51</v>
       </c>
-      <c r="I83" s="19">
+      <c r="I84" s="19">
         <v>6582.1109999999999</v>
       </c>
-      <c r="J83" s="19">
+      <c r="J84" s="19">
         <v>2315.9119999999998</v>
       </c>
-      <c r="K83" s="19">
+      <c r="K84" s="19">
         <v>3688.9839999999999</v>
       </c>
-      <c r="L83" s="19"/>
-      <c r="M83" s="19"/>
-      <c r="N83" s="19">
+      <c r="L84" s="19"/>
+      <c r="M84" s="19"/>
+      <c r="N84" s="19">
         <v>3107.7669000000001</v>
       </c>
     </row>
-    <row r="84" spans="2:15" hidden="1">
-      <c r="B84" s="20">
+    <row r="85" spans="2:14" hidden="1">
+      <c r="B85" s="20">
         <v>2019</v>
       </c>
-      <c r="C84" s="21" t="s">
+      <c r="C85" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D84" s="22">
+      <c r="D85" s="22">
         <f t="shared" si="2"/>
         <v>27252.757690000006</v>
       </c>
-      <c r="E84" s="23">
+      <c r="E85" s="23">
         <v>6.7610000000000001</v>
       </c>
-      <c r="F84" s="23">
+      <c r="F85" s="23">
         <v>74.009</v>
       </c>
-      <c r="G84" s="23">
+      <c r="G85" s="23">
         <v>7747.527</v>
       </c>
-      <c r="H84" s="23">
+      <c r="H85" s="23">
         <v>1196.4000000000001</v>
       </c>
-      <c r="I84" s="23">
+      <c r="I85" s="23">
         <v>8376.51</v>
       </c>
-      <c r="J84" s="23">
+      <c r="J85" s="23">
         <v>2613.239</v>
       </c>
-      <c r="K84" s="23">
+      <c r="K85" s="23">
         <v>3965.1860000000001</v>
       </c>
-      <c r="L84" s="23"/>
-      <c r="M84" s="23"/>
-      <c r="N84" s="23">
+      <c r="L85" s="23"/>
+      <c r="M85" s="23"/>
+      <c r="N85" s="23">
         <v>3273.1256899999998</v>
       </c>
     </row>
-    <row r="85" spans="2:15" hidden="1">
-      <c r="B85" s="17">
+    <row r="86" spans="2:14" hidden="1">
+      <c r="B86" s="17">
         <v>2018</v>
       </c>
-      <c r="C85" s="17" t="s">
+      <c r="C86" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D85" s="18">
+      <c r="D86" s="18">
         <f t="shared" si="2"/>
         <v>25286.098999999998</v>
       </c>
-      <c r="E85" s="19">
+      <c r="E86" s="19">
         <v>11.624000000000001</v>
       </c>
-      <c r="F85" s="19">
+      <c r="F86" s="19">
         <v>93.391999999999996</v>
       </c>
-      <c r="G85" s="19">
+      <c r="G86" s="19">
         <v>8828.0380000000005</v>
       </c>
-      <c r="H85" s="19">
+      <c r="H86" s="19">
         <v>1419.221</v>
       </c>
-      <c r="I85" s="19">
+      <c r="I86" s="19">
         <v>8160.1949999999997</v>
       </c>
-      <c r="J85" s="19">
+      <c r="J86" s="19">
         <v>2550.1379999999999</v>
       </c>
-      <c r="K85" s="19">
+      <c r="K86" s="19">
         <v>4208.37</v>
       </c>
-      <c r="L85" s="19"/>
-      <c r="M85" s="19"/>
-      <c r="N85" s="19">
+      <c r="L86" s="19"/>
+      <c r="M86" s="19"/>
+      <c r="N86" s="19">
         <v>15.121</v>
       </c>
     </row>
-    <row r="86" spans="2:15" hidden="1">
-      <c r="B86" s="13">
+    <row r="87" spans="2:14" hidden="1">
+      <c r="B87" s="13">
         <v>2018</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C87" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D86" s="14">
+      <c r="D87" s="14">
         <f t="shared" si="2"/>
         <v>27988.239000000005</v>
       </c>
-      <c r="E86" s="15">
+      <c r="E87" s="15">
         <v>9.8219999999999992</v>
       </c>
-      <c r="F86" s="15">
+      <c r="F87" s="15">
         <v>90.676000000000002</v>
       </c>
-      <c r="G86" s="15">
+      <c r="G87" s="15">
         <v>9033.7459999999992</v>
       </c>
-      <c r="H86" s="15">
+      <c r="H87" s="15">
         <v>1677.8789999999999</v>
       </c>
-      <c r="I86" s="15">
+      <c r="I87" s="15">
         <v>9087.1730000000007</v>
       </c>
-      <c r="J86" s="15">
+      <c r="J87" s="15">
         <v>2973.703</v>
       </c>
-      <c r="K86" s="15">
+      <c r="K87" s="15">
         <v>5104.8959999999997</v>
       </c>
-      <c r="L86" s="15"/>
-      <c r="M86" s="15"/>
-      <c r="N86" s="15">
+      <c r="L87" s="15"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="15">
         <v>10.343999999999999</v>
       </c>
     </row>
-    <row r="87" spans="2:15" hidden="1">
-      <c r="B87" s="17">
+    <row r="88" spans="2:14" hidden="1">
+      <c r="B88" s="17">
         <v>2018</v>
       </c>
-      <c r="C87" s="17" t="s">
+      <c r="C88" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D87" s="18">
+      <c r="D88" s="18">
         <f t="shared" si="2"/>
         <v>28677.123</v>
       </c>
-      <c r="E87" s="19">
+      <c r="E88" s="19">
         <v>8.2870000000000008</v>
       </c>
-      <c r="F87" s="19">
+      <c r="F88" s="19">
         <v>78.7</v>
       </c>
-      <c r="G87" s="19">
+      <c r="G88" s="19">
         <v>8819.0689999999995</v>
       </c>
-      <c r="H87" s="19">
+      <c r="H88" s="19">
         <v>1516.8230000000001</v>
       </c>
-      <c r="I87" s="19">
+      <c r="I88" s="19">
         <v>9777.8709999999992</v>
       </c>
-      <c r="J87" s="19">
+      <c r="J88" s="19">
         <v>2987.6489999999999</v>
       </c>
-      <c r="K87" s="19">
+      <c r="K88" s="19">
         <v>5477.6930000000002</v>
       </c>
-      <c r="L87" s="19"/>
-      <c r="M87" s="19"/>
-      <c r="N87" s="19">
+      <c r="L88" s="19"/>
+      <c r="M88" s="19"/>
+      <c r="N88" s="19">
         <v>11.031000000000001</v>
       </c>
     </row>
-    <row r="88" spans="2:15" hidden="1">
-      <c r="B88" s="13">
+    <row r="89" spans="2:14" hidden="1">
+      <c r="B89" s="13">
         <v>2018</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C89" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="14">
+      <c r="D89" s="14">
         <f t="shared" si="2"/>
         <v>25347.695</v>
       </c>
-      <c r="E88" s="15">
+      <c r="E89" s="15">
         <v>10.707000000000001</v>
       </c>
-      <c r="F88" s="15">
+      <c r="F89" s="15">
         <v>62.167000000000002</v>
       </c>
-      <c r="G88" s="15">
+      <c r="G89" s="15">
         <v>8102.4960000000001</v>
       </c>
-      <c r="H88" s="15">
+      <c r="H89" s="15">
         <v>1416.539</v>
       </c>
-      <c r="I88" s="15">
+      <c r="I89" s="15">
         <v>8463.5859999999993</v>
       </c>
-      <c r="J88" s="15">
+      <c r="J89" s="15">
         <v>2463.84</v>
       </c>
-      <c r="K88" s="15">
+      <c r="K89" s="15">
         <v>4814.68</v>
       </c>
-      <c r="L88" s="15"/>
-      <c r="M88" s="15"/>
-      <c r="N88" s="15">
+      <c r="L89" s="15"/>
+      <c r="M89" s="15"/>
+      <c r="N89" s="15">
         <v>13.68</v>
       </c>
     </row>
-    <row r="89" spans="2:15" hidden="1">
-      <c r="B89" s="17">
+    <row r="90" spans="2:14" hidden="1">
+      <c r="B90" s="17">
         <v>2018</v>
       </c>
-      <c r="C89" s="17" t="s">
+      <c r="C90" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D89" s="18">
+      <c r="D90" s="18">
         <f t="shared" si="2"/>
         <v>25723.010999999999</v>
       </c>
-      <c r="E89" s="19">
+      <c r="E90" s="19">
         <v>10.06</v>
       </c>
-      <c r="F89" s="19">
+      <c r="F90" s="19">
         <v>67.233999999999995</v>
       </c>
-      <c r="G89" s="19">
+      <c r="G90" s="19">
         <v>8035.7269999999999</v>
       </c>
-      <c r="H89" s="19">
+      <c r="H90" s="19">
         <v>1692.001</v>
       </c>
-      <c r="I89" s="19">
+      <c r="I90" s="19">
         <v>8464.9650000000001</v>
       </c>
-      <c r="J89" s="19">
+      <c r="J90" s="19">
         <v>2758.96</v>
       </c>
-      <c r="K89" s="19">
+      <c r="K90" s="19">
         <v>4679.0959999999995</v>
       </c>
-      <c r="L89" s="19"/>
-      <c r="M89" s="19"/>
-      <c r="N89" s="19">
+      <c r="L90" s="19"/>
+      <c r="M90" s="19"/>
+      <c r="N90" s="19">
         <v>14.968</v>
       </c>
     </row>
-    <row r="90" spans="2:15" hidden="1">
-      <c r="B90" s="13">
+    <row r="91" spans="2:14" hidden="1">
+      <c r="B91" s="13">
         <v>2018</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="C91" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D90" s="14">
+      <c r="D91" s="14">
         <f t="shared" si="2"/>
         <v>25744.468000000001</v>
       </c>
-      <c r="E90" s="15">
+      <c r="E91" s="15">
         <v>10.051</v>
       </c>
-      <c r="F90" s="15">
+      <c r="F91" s="15">
         <v>63.811</v>
       </c>
-      <c r="G90" s="15">
+      <c r="G91" s="15">
         <v>7722.7290000000003</v>
       </c>
-      <c r="H90" s="15">
+      <c r="H91" s="15">
         <v>1496.4</v>
       </c>
-      <c r="I90" s="15">
+      <c r="I91" s="15">
         <v>8747.1980000000003</v>
       </c>
-      <c r="J90" s="15">
+      <c r="J91" s="15">
         <v>2551.65</v>
       </c>
-      <c r="K90" s="15">
+      <c r="K91" s="15">
         <v>5136.6130000000003</v>
       </c>
-      <c r="L90" s="15"/>
-      <c r="M90" s="15"/>
-      <c r="N90" s="15">
+      <c r="L91" s="15"/>
+      <c r="M91" s="15"/>
+      <c r="N91" s="15">
         <v>16.015999999999998</v>
       </c>
     </row>
-    <row r="91" spans="2:15" hidden="1">
-      <c r="B91" s="17">
+    <row r="92" spans="2:14" hidden="1">
+      <c r="B92" s="17">
         <v>2018</v>
       </c>
-      <c r="C91" s="17" t="s">
+      <c r="C92" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D91" s="18">
+      <c r="D92" s="18">
         <f t="shared" si="2"/>
         <v>26044.613100000002</v>
       </c>
-      <c r="E91" s="19">
+      <c r="E92" s="19">
         <v>5.8701000000000008</v>
       </c>
-      <c r="F91" s="19">
+      <c r="F92" s="19">
         <v>68.567999999999998</v>
       </c>
-      <c r="G91" s="19">
+      <c r="G92" s="19">
         <v>7714.4070000000002</v>
       </c>
-      <c r="H91" s="19">
+      <c r="H92" s="19">
         <v>1561.0450000000001</v>
       </c>
-      <c r="I91" s="19">
+      <c r="I92" s="19">
         <v>8940.5429999999997</v>
       </c>
-      <c r="J91" s="19">
+      <c r="J92" s="19">
         <v>2632.7139999999999</v>
       </c>
-      <c r="K91" s="19">
+      <c r="K92" s="19">
         <v>5110.2619999999997</v>
       </c>
-      <c r="L91" s="19"/>
-      <c r="M91" s="19"/>
-      <c r="N91" s="19">
+      <c r="L92" s="19"/>
+      <c r="M92" s="19"/>
+      <c r="N92" s="19">
         <v>11.204000000000001</v>
       </c>
     </row>
-    <row r="92" spans="2:15" hidden="1">
-      <c r="B92" s="13">
+    <row r="93" spans="2:14" hidden="1">
+      <c r="B93" s="13">
         <v>2018</v>
       </c>
-      <c r="C92" s="13" t="s">
+      <c r="C93" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D92" s="14">
+      <c r="D93" s="14">
         <f t="shared" si="2"/>
         <v>26929.514660000001</v>
       </c>
-      <c r="E92" s="15">
+      <c r="E93" s="15">
         <v>7.8816600000000001</v>
       </c>
-      <c r="F92" s="15">
+      <c r="F93" s="15">
         <v>82.861999999999995</v>
       </c>
-      <c r="G92" s="15">
+      <c r="G93" s="15">
         <v>8118.165</v>
       </c>
-      <c r="H92" s="15">
+      <c r="H93" s="15">
         <v>1532.5719999999999</v>
       </c>
-      <c r="I92" s="15">
+      <c r="I93" s="15">
         <v>8129.585</v>
       </c>
-      <c r="J92" s="15">
+      <c r="J93" s="15">
         <v>2956.08</v>
       </c>
-      <c r="K92" s="15">
+      <c r="K93" s="15">
         <v>6089.1620000000003</v>
       </c>
-      <c r="L92" s="15"/>
-      <c r="M92" s="15"/>
-      <c r="N92" s="15">
+      <c r="L93" s="15"/>
+      <c r="M93" s="15"/>
+      <c r="N93" s="15">
         <v>13.207000000000001</v>
       </c>
     </row>
-    <row r="93" spans="2:15" hidden="1">
-      <c r="B93" s="17">
+    <row r="94" spans="2:14" hidden="1">
+      <c r="B94" s="17">
         <v>2018</v>
       </c>
-      <c r="C93" s="17" t="s">
+      <c r="C94" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D93" s="18">
+      <c r="D94" s="18">
         <f t="shared" si="2"/>
         <v>27443.513780000008</v>
       </c>
-      <c r="E93" s="19">
+      <c r="E94" s="19">
         <v>9.12378</v>
       </c>
-      <c r="F93" s="19">
+      <c r="F94" s="19">
         <v>60.970999999999997</v>
       </c>
-      <c r="G93" s="19">
+      <c r="G94" s="19">
         <v>7926.723</v>
       </c>
-      <c r="H93" s="19">
+      <c r="H94" s="19">
         <v>1477.489</v>
       </c>
-      <c r="I93" s="19">
+      <c r="I94" s="19">
         <v>9672.3250000000007</v>
       </c>
-      <c r="J93" s="19">
+      <c r="J94" s="19">
         <v>2860.578</v>
       </c>
-      <c r="K93" s="19">
+      <c r="K94" s="19">
         <v>5423.6540000000005</v>
       </c>
-      <c r="L93" s="19"/>
-      <c r="M93" s="19"/>
-      <c r="N93" s="19">
+      <c r="L94" s="19"/>
+      <c r="M94" s="19"/>
+      <c r="N94" s="19">
         <v>12.65</v>
       </c>
     </row>
-    <row r="94" spans="2:15" hidden="1">
-      <c r="B94" s="13">
+    <row r="95" spans="2:14" hidden="1">
+      <c r="B95" s="13">
         <v>2018</v>
       </c>
-      <c r="C94" s="13" t="s">
+      <c r="C95" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D94" s="14">
+      <c r="D95" s="14">
         <f t="shared" si="2"/>
         <v>28574.49928</v>
       </c>
-      <c r="E94" s="15">
+      <c r="E95" s="15">
         <v>8.1962799999999998</v>
       </c>
-      <c r="F94" s="15">
+      <c r="F95" s="15">
         <v>71.811000000000007</v>
       </c>
-      <c r="G94" s="15">
+      <c r="G95" s="15">
         <v>8844.2019999999993</v>
       </c>
-      <c r="H94" s="15">
+      <c r="H95" s="15">
         <v>1647.098</v>
       </c>
-      <c r="I94" s="15">
+      <c r="I95" s="15">
         <v>9860.2800000000007</v>
       </c>
-      <c r="J94" s="15">
+      <c r="J95" s="15">
         <v>2743.1410000000001</v>
       </c>
-      <c r="K94" s="15">
+      <c r="K95" s="15">
         <v>5387.3890000000001</v>
       </c>
-      <c r="L94" s="15"/>
-      <c r="M94" s="15"/>
-      <c r="N94" s="15">
+      <c r="L95" s="15"/>
+      <c r="M95" s="15"/>
+      <c r="N95" s="15">
         <v>12.382</v>
       </c>
     </row>
-    <row r="95" spans="2:15" hidden="1">
-      <c r="B95" s="17">
+    <row r="96" spans="2:14" hidden="1">
+      <c r="B96" s="17">
         <v>2018</v>
       </c>
-      <c r="C95" s="17" t="s">
+      <c r="C96" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D95" s="18">
+      <c r="D96" s="18">
         <f t="shared" si="2"/>
         <v>23843.590900000003</v>
       </c>
-      <c r="E95" s="19">
+      <c r="E96" s="19">
         <v>6.7148999999999992</v>
       </c>
-      <c r="F95" s="19">
+      <c r="F96" s="19">
         <v>59.457000000000001</v>
       </c>
-      <c r="G95" s="19">
+      <c r="G96" s="19">
         <v>7977.2039999999997</v>
       </c>
-      <c r="H95" s="19">
+      <c r="H96" s="19">
         <v>1378.8910000000001</v>
       </c>
-      <c r="I95" s="19">
+      <c r="I96" s="19">
         <v>7402.5730000000003</v>
       </c>
-      <c r="J95" s="19">
+      <c r="J96" s="19">
         <v>2577</v>
       </c>
-      <c r="K95" s="19">
+      <c r="K96" s="19">
         <v>4430.4210000000003</v>
       </c>
-      <c r="L95" s="19"/>
-      <c r="M95" s="19"/>
-      <c r="N95" s="19">
+      <c r="L96" s="19"/>
+      <c r="M96" s="19"/>
+      <c r="N96" s="19">
         <v>11.33</v>
       </c>
     </row>
-    <row r="96" spans="2:15" hidden="1">
-      <c r="B96" s="13">
+    <row r="97" spans="2:15" hidden="1">
+      <c r="B97" s="13">
         <v>2018</v>
       </c>
-      <c r="C96" s="13" t="s">
+      <c r="C97" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D96" s="14">
+      <c r="D97" s="14">
         <f t="shared" si="2"/>
         <v>23638.932999999997</v>
       </c>
-      <c r="E96" s="15">
+      <c r="E97" s="15">
         <v>6.9589999999999996</v>
       </c>
-      <c r="F96" s="15">
+      <c r="F97" s="15">
         <v>66.08</v>
       </c>
-      <c r="G96" s="15">
+      <c r="G97" s="15">
         <v>7737.0140000000001</v>
       </c>
-      <c r="H96" s="15">
+      <c r="H97" s="15">
         <v>1410.72</v>
       </c>
-      <c r="I96" s="15">
+      <c r="I97" s="15">
         <v>6932.2910000000002</v>
       </c>
-      <c r="J96" s="15">
+      <c r="J97" s="15">
         <v>2789.42</v>
       </c>
-      <c r="K96" s="15">
+      <c r="K97" s="15">
         <v>4684.1959999999999</v>
       </c>
-      <c r="L96" s="15"/>
-      <c r="M96" s="15"/>
-      <c r="N96" s="15">
+      <c r="L97" s="15"/>
+      <c r="M97" s="15"/>
+      <c r="N97" s="15">
         <v>12.253</v>
       </c>
-      <c r="O96" s="29"/>
-    </row>
-    <row r="97" spans="2:4">
-      <c r="B97" s="28" t="s">
+      <c r="O97" s="29"/>
+    </row>
+    <row r="98" spans="2:15">
+      <c r="B98" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C97" s="28"/>
-    </row>
-    <row r="98" spans="2:4">
-      <c r="B98" s="28" t="s">
+      <c r="C98" s="28"/>
+    </row>
+    <row r="99" spans="2:15">
+      <c r="B99" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C98" s="28"/>
-    </row>
-    <row r="99" spans="2:4">
-      <c r="B99" s="28" t="s">
+      <c r="C99" s="28"/>
+    </row>
+    <row r="100" spans="2:15">
+      <c r="B100" s="28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="2:4">
-      <c r="B100" s="3" t="s">
+    <row r="101" spans="2:15">
+      <c r="B101" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="2:4">
-      <c r="D106" s="28"/>
+    <row r="107" spans="2:15">
+      <c r="D107" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
